--- a/resources/blank_bracket.xlsx
+++ b/resources/blank_bracket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgal\Documents\Data Science\KingfisherCourt\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AAD2C-91E9-4331-A4FE-EB01D2E3E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F766CE-0604-4BA9-9BC8-90192C10F75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Links" sheetId="6" r:id="rId1"/>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1206">
   <si>
     <t>National Champion</t>
   </si>
@@ -5034,13 +5034,19 @@
   </si>
   <si>
     <t>PartialLink</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. </t>
+  </si>
+  <si>
+    <t>Connecticut prevailed thanks to balanced scoring and efficient long-range shooting from Karaban, Ball, and Stewart, complemented by stronger rebounding and tighter ball handling that frustrated Kansas’s spread attack.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -5372,6 +5378,19 @@
       <name val="Georgia Pro"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Georgia Pro"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Georgia Pro"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -5429,7 +5448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -6356,6 +6375,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6364,7 +6450,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6865,9 +6951,6 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6976,21 +7059,6 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7048,11 +7116,17 @@
     <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -7063,10 +7137,10 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7080,12 +7154,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7123,17 +7191,17 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7155,6 +7223,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7180,17 +7260,50 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12548,7 +12661,7 @@
       <c r="B185" t="s">
         <v>146</v>
       </c>
-      <c r="C185" s="228" t="s">
+      <c r="C185" s="222" t="s">
         <v>685</v>
       </c>
       <c r="D185" t="s">
@@ -16057,42 +16170,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="I1" s="229" t="s">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="I1" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="Q1" s="229" t="s">
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="Q1" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="Y1" s="229" t="s">
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="Y1" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="223"/>
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="223"/>
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -16181,7 +16294,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="227">
+      <c r="A3" s="221">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -16202,7 +16315,7 @@
       <c r="G3">
         <v>2024</v>
       </c>
-      <c r="I3" s="227">
+      <c r="I3" s="221">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -16223,7 +16336,7 @@
       <c r="O3" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="227">
+      <c r="Q3" s="221">
         <v>1</v>
       </c>
       <c r="R3" t="s">
@@ -16244,7 +16357,7 @@
       <c r="W3" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="227">
+      <c r="Y3" s="221">
         <v>1</v>
       </c>
       <c r="Z3" t="s">
@@ -16267,7 +16380,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="227">
+      <c r="A4" s="221">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -16288,7 +16401,7 @@
       <c r="G4">
         <v>2024</v>
       </c>
-      <c r="I4" s="227">
+      <c r="I4" s="221">
         <v>2</v>
       </c>
       <c r="J4" t="s">
@@ -16309,7 +16422,7 @@
       <c r="O4" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="227">
+      <c r="Q4" s="221">
         <v>2</v>
       </c>
       <c r="R4" t="s">
@@ -16330,7 +16443,7 @@
       <c r="W4" t="s">
         <v>138</v>
       </c>
-      <c r="Y4" s="227">
+      <c r="Y4" s="221">
         <v>2</v>
       </c>
       <c r="Z4" t="s">
@@ -16353,7 +16466,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="227">
+      <c r="A5" s="221">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -16374,7 +16487,7 @@
       <c r="G5">
         <v>2024</v>
       </c>
-      <c r="I5" s="227">
+      <c r="I5" s="221">
         <v>3</v>
       </c>
       <c r="J5" t="s">
@@ -16395,7 +16508,7 @@
       <c r="O5" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="227">
+      <c r="Q5" s="221">
         <v>3</v>
       </c>
       <c r="R5" t="s">
@@ -16416,7 +16529,7 @@
       <c r="W5" t="s">
         <v>138</v>
       </c>
-      <c r="Y5" s="227">
+      <c r="Y5" s="221">
         <v>3</v>
       </c>
       <c r="Z5" t="s">
@@ -16439,7 +16552,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="227">
+      <c r="A6" s="221">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -16460,7 +16573,7 @@
       <c r="G6">
         <v>2024</v>
       </c>
-      <c r="I6" s="227">
+      <c r="I6" s="221">
         <v>4</v>
       </c>
       <c r="J6" t="s">
@@ -16481,7 +16594,7 @@
       <c r="O6" t="s">
         <v>143</v>
       </c>
-      <c r="Q6" s="227">
+      <c r="Q6" s="221">
         <v>4</v>
       </c>
       <c r="R6" t="s">
@@ -16502,7 +16615,7 @@
       <c r="W6" t="s">
         <v>138</v>
       </c>
-      <c r="Y6" s="227">
+      <c r="Y6" s="221">
         <v>4</v>
       </c>
       <c r="Z6" t="s">
@@ -16525,7 +16638,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="227">
+      <c r="A7" s="221">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -16546,7 +16659,7 @@
       <c r="G7">
         <v>2024</v>
       </c>
-      <c r="I7" s="227">
+      <c r="I7" s="221">
         <v>5</v>
       </c>
       <c r="J7" t="s">
@@ -16567,7 +16680,7 @@
       <c r="O7" t="s">
         <v>143</v>
       </c>
-      <c r="Q7" s="227">
+      <c r="Q7" s="221">
         <v>5</v>
       </c>
       <c r="R7" t="s">
@@ -16588,7 +16701,7 @@
       <c r="W7" t="s">
         <v>170</v>
       </c>
-      <c r="Y7" s="227">
+      <c r="Y7" s="221">
         <v>5</v>
       </c>
       <c r="Z7" t="s">
@@ -16611,7 +16724,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="227">
+      <c r="A8" s="221">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -16632,7 +16745,7 @@
       <c r="G8">
         <v>2024</v>
       </c>
-      <c r="I8" s="227">
+      <c r="I8" s="221">
         <v>6</v>
       </c>
       <c r="J8" t="s">
@@ -16653,7 +16766,7 @@
       <c r="O8" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="227">
+      <c r="Q8" s="221">
         <v>6</v>
       </c>
       <c r="R8" t="s">
@@ -16674,7 +16787,7 @@
       <c r="W8" t="s">
         <v>140</v>
       </c>
-      <c r="Y8" s="227">
+      <c r="Y8" s="221">
         <v>6</v>
       </c>
       <c r="Z8" t="s">
@@ -16697,7 +16810,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="227">
+      <c r="A9" s="221">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -16718,7 +16831,7 @@
       <c r="G9">
         <v>2024</v>
       </c>
-      <c r="I9" s="227">
+      <c r="I9" s="221">
         <v>7</v>
       </c>
       <c r="J9" t="s">
@@ -16739,7 +16852,7 @@
       <c r="O9" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="227">
+      <c r="Q9" s="221">
         <v>7</v>
       </c>
       <c r="R9" t="s">
@@ -16760,7 +16873,7 @@
       <c r="W9" t="s">
         <v>138</v>
       </c>
-      <c r="Y9" s="227">
+      <c r="Y9" s="221">
         <v>7</v>
       </c>
       <c r="Z9" t="s">
@@ -16783,7 +16896,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="227">
+      <c r="A10" s="221">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -16804,7 +16917,7 @@
       <c r="G10">
         <v>2024</v>
       </c>
-      <c r="I10" s="227">
+      <c r="I10" s="221">
         <v>8</v>
       </c>
       <c r="J10" t="s">
@@ -16825,7 +16938,7 @@
       <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="Q10" s="227">
+      <c r="Q10" s="221">
         <v>8</v>
       </c>
       <c r="R10" t="s">
@@ -16846,7 +16959,7 @@
       <c r="W10" t="s">
         <v>140</v>
       </c>
-      <c r="Y10" s="227">
+      <c r="Y10" s="221">
         <v>8</v>
       </c>
       <c r="Z10" t="s">
@@ -16869,7 +16982,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="227">
+      <c r="A11" s="221">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -16890,7 +17003,7 @@
       <c r="G11">
         <v>2024</v>
       </c>
-      <c r="I11" s="227">
+      <c r="I11" s="221">
         <v>9</v>
       </c>
       <c r="J11" t="s">
@@ -16911,7 +17024,7 @@
       <c r="O11" t="s">
         <v>152</v>
       </c>
-      <c r="Q11" s="227">
+      <c r="Q11" s="221">
         <v>9</v>
       </c>
       <c r="R11" t="s">
@@ -16932,7 +17045,7 @@
       <c r="W11" t="s">
         <v>138</v>
       </c>
-      <c r="Y11" s="227">
+      <c r="Y11" s="221">
         <v>9</v>
       </c>
       <c r="Z11" t="s">
@@ -16955,7 +17068,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="227">
+      <c r="A12" s="221">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -16976,7 +17089,7 @@
       <c r="G12">
         <v>2017</v>
       </c>
-      <c r="I12" s="227">
+      <c r="I12" s="221">
         <v>10</v>
       </c>
       <c r="J12" t="s">
@@ -16997,7 +17110,7 @@
       <c r="O12" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="227">
+      <c r="Q12" s="221">
         <v>10</v>
       </c>
       <c r="R12" t="s">
@@ -17018,7 +17131,7 @@
       <c r="W12" t="s">
         <v>138</v>
       </c>
-      <c r="Y12" s="227">
+      <c r="Y12" s="221">
         <v>10</v>
       </c>
       <c r="Z12" t="s">
@@ -17041,7 +17154,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="227">
+      <c r="A13" s="221">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -17062,7 +17175,7 @@
       <c r="G13">
         <v>2023</v>
       </c>
-      <c r="I13" s="227">
+      <c r="I13" s="221">
         <v>11</v>
       </c>
       <c r="J13" t="s">
@@ -17083,7 +17196,7 @@
       <c r="O13" t="s">
         <v>138</v>
       </c>
-      <c r="Q13" s="227">
+      <c r="Q13" s="221">
         <v>11</v>
       </c>
       <c r="R13" t="s">
@@ -17104,7 +17217,7 @@
       <c r="W13" t="s">
         <v>138</v>
       </c>
-      <c r="Y13" s="227">
+      <c r="Y13" s="221">
         <v>11</v>
       </c>
       <c r="Z13" t="s">
@@ -17127,7 +17240,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="227">
+      <c r="A14" s="221">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -17148,7 +17261,7 @@
       <c r="G14">
         <v>2021</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="221">
         <v>12</v>
       </c>
       <c r="J14" t="s">
@@ -17169,7 +17282,7 @@
       <c r="O14" t="s">
         <v>138</v>
       </c>
-      <c r="Q14" s="227">
+      <c r="Q14" s="221">
         <v>12</v>
       </c>
       <c r="R14" t="s">
@@ -17190,7 +17303,7 @@
       <c r="W14" t="s">
         <v>166</v>
       </c>
-      <c r="Y14" s="227">
+      <c r="Y14" s="221">
         <v>12</v>
       </c>
       <c r="Z14" t="s">
@@ -17213,7 +17326,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="227">
+      <c r="A15" s="221">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -17234,7 +17347,7 @@
       <c r="G15">
         <v>2024</v>
       </c>
-      <c r="I15" s="227">
+      <c r="I15" s="221">
         <v>13</v>
       </c>
       <c r="J15" t="s">
@@ -17255,7 +17368,7 @@
       <c r="O15" t="s">
         <v>138</v>
       </c>
-      <c r="Q15" s="227">
+      <c r="Q15" s="221">
         <v>13</v>
       </c>
       <c r="R15" t="s">
@@ -17276,7 +17389,7 @@
       <c r="W15" t="s">
         <v>138</v>
       </c>
-      <c r="Y15" s="227">
+      <c r="Y15" s="221">
         <v>13</v>
       </c>
       <c r="Z15" t="s">
@@ -17299,7 +17412,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="227">
+      <c r="A16" s="221">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -17320,7 +17433,7 @@
       <c r="G16">
         <v>2019</v>
       </c>
-      <c r="I16" s="227">
+      <c r="I16" s="221">
         <v>14</v>
       </c>
       <c r="J16" t="s">
@@ -17341,7 +17454,7 @@
       <c r="O16" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="227">
+      <c r="Q16" s="221">
         <v>14</v>
       </c>
       <c r="R16" t="s">
@@ -17362,7 +17475,7 @@
       <c r="W16" t="s">
         <v>190</v>
       </c>
-      <c r="Y16" s="227">
+      <c r="Y16" s="221">
         <v>14</v>
       </c>
       <c r="Z16" t="s">
@@ -17385,7 +17498,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="227">
+      <c r="A17" s="221">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -17406,7 +17519,7 @@
       <c r="G17">
         <v>2015</v>
       </c>
-      <c r="I17" s="227">
+      <c r="I17" s="221">
         <v>15</v>
       </c>
       <c r="J17" t="s">
@@ -17427,7 +17540,7 @@
       <c r="O17" t="s">
         <v>166</v>
       </c>
-      <c r="Q17" s="227">
+      <c r="Q17" s="221">
         <v>15</v>
       </c>
       <c r="R17" t="s">
@@ -17448,7 +17561,7 @@
       <c r="W17" t="s">
         <v>170</v>
       </c>
-      <c r="Y17" s="227">
+      <c r="Y17" s="221">
         <v>15</v>
       </c>
       <c r="Z17" t="s">
@@ -17471,7 +17584,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="227">
+      <c r="A18" s="221">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -17492,7 +17605,7 @@
       <c r="G18">
         <v>2021</v>
       </c>
-      <c r="I18" s="227">
+      <c r="I18" s="221">
         <v>16</v>
       </c>
       <c r="J18" t="s">
@@ -17513,7 +17626,7 @@
       <c r="O18" t="s">
         <v>170</v>
       </c>
-      <c r="Q18" s="227">
+      <c r="Q18" s="221">
         <v>16</v>
       </c>
       <c r="R18" t="s">
@@ -17534,7 +17647,7 @@
       <c r="W18" t="s">
         <v>195</v>
       </c>
-      <c r="Y18" s="227">
+      <c r="Y18" s="221">
         <v>16</v>
       </c>
       <c r="Z18" t="s">
@@ -17557,7 +17670,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Q23" s="226"/>
+      <c r="Q23" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17583,7 +17696,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C65"/>
     </sheetView>
@@ -18848,10 +18961,10 @@
   </sheetPr>
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -18870,7 +18983,7 @@
     <col min="14" max="14" width="10.6640625" style="174" customWidth="1"/>
     <col min="15" max="15" width="24.5546875" style="174" customWidth="1"/>
     <col min="16" max="16" width="6" style="81" customWidth="1"/>
-    <col min="17" max="17" width="60.77734375" style="81" customWidth="1"/>
+    <col min="17" max="17" width="94.5546875" style="81" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" style="6" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="3.5546875" style="6" customWidth="1"/>
     <col min="20" max="20" width="9.109375" style="6" customWidth="1"/>
@@ -18923,62 +19036,62 @@
       <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221" t="s">
+      <c r="A3" s="214"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="233" t="s">
+      <c r="E3" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="F3" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="235" t="s">
+      <c r="G3" s="229" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="230" t="s">
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="230" t="s">
+      <c r="K3" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230" t="s">
+      <c r="L3" s="224"/>
+      <c r="M3" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="230"/>
-      <c r="O3" s="230" t="s">
+      <c r="N3" s="224"/>
+      <c r="O3" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="230" t="s">
+      <c r="P3" s="201"/>
+      <c r="Q3" s="283" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="223"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="231"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="284"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="str">
@@ -18991,7 +19104,7 @@
       </c>
       <c r="C5" s="91" t="str">
         <f t="shared" ref="C5:C36" ca="1" si="1">IF(O5="","",IF(A5=O5,B5,A5))</f>
-        <v>Air Force</v>
+        <v>Abilene Christian</v>
       </c>
       <c r="D5" s="91" t="e">
         <f t="shared" ref="D5:D36" si="2">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O5,SeedInfo,2,FALSE)*1,MAX(VLOOKUP(O5,SeedInfo,2,FALSE)-VLOOKUP(C5,SeedInfo,2,FALSE),0)))</f>
@@ -19008,7 +19121,7 @@
         <f>Teams!C2</f>
         <v>Abilene Christian</v>
       </c>
-      <c r="H5" s="182" t="s">
+      <c r="H5" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="132" t="str">
@@ -19025,7 +19138,7 @@
       </c>
       <c r="L5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M5" s="84" t="e" vm="66">
         <f>_xlfn.XLOOKUP(I5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19033,23 +19146,25 @@
       </c>
       <c r="N5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>92</v>
-      </c>
-      <c r="O5" s="195" t="str">
+        <v>117</v>
+      </c>
+      <c r="O5" s="194" t="str">
         <f t="shared" ref="O5:O36" ca="1" si="3">IF(L5&gt;N5,G5,I5)</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="P5" s="210" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="P5" s="209" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q5" s="219"/>
+      <c r="Q5" s="286" t="s">
+        <v>1205</v>
+      </c>
       <c r="R5" s="6" t="b">
         <f ca="1">IF(
 O5=G5,
 IF(F5&gt;J5,TRUE,FALSE),
 IF(J5&gt;F5,TRUE,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="98"/>
     </row>
@@ -19098,7 +19213,7 @@
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:N36" ca="1" si="5">RANDBETWEEN(90,120)</f>
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M6" s="82" t="e" vm="68">
         <f>_xlfn.XLOOKUP(I6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19106,17 +19221,19 @@
       </c>
       <c r="N6" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O6" s="190" t="str">
+        <v>112</v>
+      </c>
+      <c r="O6" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Alabama</v>
       </c>
-      <c r="P6" s="205" t="e" vm="68">
+      <c r="P6" s="204" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(O6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q6" s="216"/>
+      <c r="Q6" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R6" s="6" t="b">
         <f t="shared" ref="R6:R69" ca="1" si="6">IF(
 O6=G6,
@@ -19137,7 +19254,7 @@
       </c>
       <c r="C7" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="D7" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19171,7 +19288,7 @@
       </c>
       <c r="L7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M7" s="82" t="e" vm="70">
         <f>_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19179,20 +19296,22 @@
       </c>
       <c r="N7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="O7" s="190" t="str">
+        <v>98</v>
+      </c>
+      <c r="O7" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Alabama State</v>
-      </c>
-      <c r="P7" s="205" t="e" vm="70">
+        <v>Alabama A&amp;M</v>
+      </c>
+      <c r="P7" s="204" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(O7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q7" s="216"/>
+      <c r="Q7" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R7" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="98"/>
     </row>
@@ -19207,7 +19326,7 @@
       </c>
       <c r="C8" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alcorn State</v>
+        <v>Albany (NY)</v>
       </c>
       <c r="D8" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19241,7 +19360,7 @@
       </c>
       <c r="L8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M8" s="82" t="e" vm="72">
         <f>_xlfn.XLOOKUP(I8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19249,20 +19368,22 @@
       </c>
       <c r="N8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="O8" s="190" t="str">
+        <v>118</v>
+      </c>
+      <c r="O8" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Albany (NY)</v>
-      </c>
-      <c r="P8" s="205" t="e" vm="71">
+        <v>Alcorn State</v>
+      </c>
+      <c r="P8" s="204" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(O8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q8" s="216"/>
+      <c r="Q8" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R8" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="98"/>
     </row>
@@ -19311,7 +19432,7 @@
       </c>
       <c r="L9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M9" s="82" t="e" vm="74">
         <f>_xlfn.XLOOKUP(I9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19319,17 +19440,19 @@
       </c>
       <c r="N9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="O9" s="190" t="str">
+        <v>93</v>
+      </c>
+      <c r="O9" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>American</v>
       </c>
-      <c r="P9" s="205" t="e" vm="73">
+      <c r="P9" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q9" s="216"/>
+      <c r="Q9" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R9" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -19381,7 +19504,7 @@
       </c>
       <c r="L10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M10" s="82" t="e" vm="76">
         <f>_xlfn.XLOOKUP(I10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19389,17 +19512,19 @@
       </c>
       <c r="N10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O10" s="190" t="str">
+        <v>118</v>
+      </c>
+      <c r="O10" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Arizona State</v>
       </c>
-      <c r="P10" s="205" t="e" vm="76">
+      <c r="P10" s="204" t="e" vm="76">
         <f ca="1">_xlfn.XLOOKUP(O10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q10" s="216"/>
+      <c r="Q10" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R10" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -19451,7 +19576,7 @@
       </c>
       <c r="L11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" s="82" t="e" vm="78">
         <f>_xlfn.XLOOKUP(I11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19459,17 +19584,19 @@
       </c>
       <c r="N11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O11" s="190" t="str">
+        <v>110</v>
+      </c>
+      <c r="O11" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Arkansas State</v>
       </c>
-      <c r="P11" s="205" t="e" vm="78">
+      <c r="P11" s="204" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(O11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="216"/>
+      <c r="Q11" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R11" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -19487,7 +19614,7 @@
       </c>
       <c r="C12" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Army</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="D12" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19521,7 +19648,7 @@
       </c>
       <c r="L12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="M12" s="109" t="e" vm="80">
         <f>_xlfn.XLOOKUP(I12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19529,20 +19656,22 @@
       </c>
       <c r="N12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O12" s="191" t="str">
+        <v>109</v>
+      </c>
+      <c r="O12" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="P12" s="206" t="e" vm="79">
+        <v>Army</v>
+      </c>
+      <c r="P12" s="205" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(O12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q12" s="216"/>
+      <c r="Q12" s="288" t="s">
+        <v>1204</v>
+      </c>
       <c r="R12" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="98"/>
     </row>
@@ -19574,7 +19703,7 @@
         <f>Teams!C18</f>
         <v>Auburn</v>
       </c>
-      <c r="H13" s="178" t="s">
+      <c r="H13" s="285" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="113" t="str">
@@ -19591,7 +19720,7 @@
       </c>
       <c r="L13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M13" s="115" t="e" vm="82">
         <f>_xlfn.XLOOKUP(I13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19599,17 +19728,19 @@
       </c>
       <c r="N13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="O13" s="192" t="str">
+        <v>104</v>
+      </c>
+      <c r="O13" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Auburn</v>
       </c>
-      <c r="P13" s="207" t="e" vm="81">
+      <c r="P13" s="206" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q13" s="217"/>
+      <c r="Q13" s="289" t="s">
+        <v>1204</v>
+      </c>
       <c r="R13" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -19644,7 +19775,7 @@
         <f>Teams!C20</f>
         <v>Ball State</v>
       </c>
-      <c r="H14" s="179" t="s">
+      <c r="H14" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="119" t="str">
@@ -19661,7 +19792,7 @@
       </c>
       <c r="L14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M14" s="83" t="e" vm="84">
         <f>_xlfn.XLOOKUP(I14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19669,17 +19800,19 @@
       </c>
       <c r="N14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
-      </c>
-      <c r="O14" s="193" t="str">
+        <v>92</v>
+      </c>
+      <c r="O14" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Baylor</v>
       </c>
-      <c r="P14" s="208" t="e" vm="84">
+      <c r="P14" s="207" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(O14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q14" s="217"/>
+      <c r="Q14" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R14" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -19697,7 +19830,7 @@
       </c>
       <c r="C15" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Belmont</v>
+        <v>Bellarmine</v>
       </c>
       <c r="D15" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19714,7 +19847,7 @@
         <f>Teams!C22</f>
         <v>Bellarmine</v>
       </c>
-      <c r="H15" s="179" t="s">
+      <c r="H15" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="119" t="str">
@@ -19731,7 +19864,7 @@
       </c>
       <c r="L15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M15" s="83" t="e" vm="86">
         <f>_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19739,20 +19872,22 @@
       </c>
       <c r="N15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="O15" s="193" t="str">
+        <v>109</v>
+      </c>
+      <c r="O15" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bellarmine</v>
-      </c>
-      <c r="P15" s="208" t="e" vm="85">
+        <v>Belmont</v>
+      </c>
+      <c r="P15" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q15" s="217"/>
+      <c r="Q15" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R15" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="98"/>
     </row>
@@ -19784,7 +19919,7 @@
         <f>Teams!C24</f>
         <v>Bethune-Cookman</v>
       </c>
-      <c r="H16" s="179" t="s">
+      <c r="H16" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="119" t="str">
@@ -19801,7 +19936,7 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="83" t="e" vm="88">
         <f>_xlfn.XLOOKUP(I16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19809,17 +19944,19 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="O16" s="193" t="str">
+        <v>103</v>
+      </c>
+      <c r="O16" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Binghamton</v>
       </c>
-      <c r="P16" s="208" t="e" vm="88">
+      <c r="P16" s="207" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(O16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q16" s="217"/>
+      <c r="Q16" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R16" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -19837,7 +19974,7 @@
       </c>
       <c r="C17" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Boise State</v>
+        <v>Boston College</v>
       </c>
       <c r="D17" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19854,7 +19991,7 @@
         <f>Teams!C26</f>
         <v>Boise State</v>
       </c>
-      <c r="H17" s="179" t="s">
+      <c r="H17" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="119" t="str">
@@ -19871,7 +20008,7 @@
       </c>
       <c r="L17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="M17" s="83" t="e" vm="90">
         <f>_xlfn.XLOOKUP(I17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19879,20 +20016,22 @@
       </c>
       <c r="N17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O17" s="193" t="str">
+        <v>95</v>
+      </c>
+      <c r="O17" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Boston College</v>
-      </c>
-      <c r="P17" s="208" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="P17" s="207" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(O17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q17" s="217"/>
+      <c r="Q17" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R17" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="98"/>
     </row>
@@ -19907,7 +20046,7 @@
       </c>
       <c r="C18" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bowling Green</v>
+        <v>Boston University</v>
       </c>
       <c r="D18" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19924,7 +20063,7 @@
         <f>Teams!C28</f>
         <v>Boston University</v>
       </c>
-      <c r="H18" s="179" t="s">
+      <c r="H18" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="119" t="str">
@@ -19941,7 +20080,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="M18" s="83" t="e" vm="92">
         <f>_xlfn.XLOOKUP(I18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19949,20 +20088,22 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="O18" s="193" t="str">
+        <v>96</v>
+      </c>
+      <c r="O18" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Boston University</v>
-      </c>
-      <c r="P18" s="208" t="e" vm="91">
+        <v>Bowling Green</v>
+      </c>
+      <c r="P18" s="207" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(O18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q18" s="217"/>
+      <c r="Q18" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R18" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="98"/>
     </row>
@@ -19994,7 +20135,7 @@
         <f>Teams!C30</f>
         <v>Bradley</v>
       </c>
-      <c r="H19" s="179" t="s">
+      <c r="H19" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="119" t="str">
@@ -20011,7 +20152,7 @@
       </c>
       <c r="L19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="M19" s="83" t="e" vm="94">
         <f>_xlfn.XLOOKUP(I19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20019,17 +20160,19 @@
       </c>
       <c r="N19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
-      </c>
-      <c r="O19" s="193" t="str">
+        <v>105</v>
+      </c>
+      <c r="O19" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Brigham Young</v>
       </c>
-      <c r="P19" s="208" t="e" vm="94">
+      <c r="P19" s="207" t="e" vm="94">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="217"/>
+      <c r="Q19" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R19" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -20064,7 +20207,7 @@
         <f>Teams!C32</f>
         <v>Brown</v>
       </c>
-      <c r="H20" s="180" t="s">
+      <c r="H20" s="179" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="124" t="str">
@@ -20081,7 +20224,7 @@
       </c>
       <c r="L20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M20" s="126" t="e" vm="96">
         <f>_xlfn.XLOOKUP(I20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20089,17 +20232,19 @@
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="O20" s="194" t="str">
+        <v>101</v>
+      </c>
+      <c r="O20" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Brown</v>
       </c>
-      <c r="P20" s="209" t="e" vm="95">
+      <c r="P20" s="208" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q20" s="217"/>
+      <c r="Q20" s="291" t="s">
+        <v>1204</v>
+      </c>
       <c r="R20" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -20117,7 +20262,7 @@
       </c>
       <c r="C21" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="D21" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20151,7 +20296,7 @@
       </c>
       <c r="L21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M21" s="97" t="e" vm="98">
         <f>_xlfn.XLOOKUP(I21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20159,20 +20304,22 @@
       </c>
       <c r="N21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="O21" s="189" t="str">
+        <v>114</v>
+      </c>
+      <c r="O21" s="188" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bucknell</v>
-      </c>
-      <c r="P21" s="204" t="e" vm="97">
+        <v>Buffalo</v>
+      </c>
+      <c r="P21" s="203" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(O21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q21" s="216"/>
+      <c r="Q21" s="292" t="s">
+        <v>1204</v>
+      </c>
       <c r="R21" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="98"/>
     </row>
@@ -20187,7 +20334,7 @@
       </c>
       <c r="C22" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Butler</v>
+        <v>Cal Poly</v>
       </c>
       <c r="D22" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20221,7 +20368,7 @@
       </c>
       <c r="L22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M22" s="82" t="e" vm="100">
         <f>_xlfn.XLOOKUP(I22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20229,20 +20376,22 @@
       </c>
       <c r="N22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="O22" s="190" t="str">
+        <v>105</v>
+      </c>
+      <c r="O22" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cal Poly</v>
-      </c>
-      <c r="P22" s="205" t="e" vm="100">
+        <v>Butler</v>
+      </c>
+      <c r="P22" s="204" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(O22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q22" s="216"/>
+      <c r="Q22" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R22" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="98"/>
     </row>
@@ -20291,7 +20440,7 @@
       </c>
       <c r="L23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="M23" s="82" t="e" vm="102">
         <f>_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20299,17 +20448,19 @@
       </c>
       <c r="N23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="O23" s="190" t="str">
+        <v>107</v>
+      </c>
+      <c r="O23" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Cal State Fullerton</v>
       </c>
-      <c r="P23" s="205" t="e" vm="102">
+      <c r="P23" s="204" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(O23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q23" s="216"/>
+      <c r="Q23" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R23" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -20327,7 +20478,7 @@
       </c>
       <c r="C24" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="D24" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20361,7 +20512,7 @@
       </c>
       <c r="L24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M24" s="82" t="e" vm="104">
         <f>_xlfn.XLOOKUP(I24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20369,20 +20520,22 @@
       </c>
       <c r="N24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="O24" s="190" t="str">
+        <v>105</v>
+      </c>
+      <c r="O24" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>California</v>
-      </c>
-      <c r="P24" s="205" t="e" vm="104">
+        <v>Cal State Northridge</v>
+      </c>
+      <c r="P24" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q24" s="216"/>
+      <c r="Q24" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R24" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="98"/>
     </row>
@@ -20397,7 +20550,7 @@
       </c>
       <c r="C25" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="D25" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20431,7 +20584,7 @@
       </c>
       <c r="L25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="M25" s="82" t="e" vm="106">
         <f>_xlfn.XLOOKUP(I25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20439,20 +20592,22 @@
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O25" s="190" t="str">
+        <v>101</v>
+      </c>
+      <c r="O25" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P25" s="205" t="e" vm="105">
+        <v>Campbell</v>
+      </c>
+      <c r="P25" s="204" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(O25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q25" s="216"/>
+      <c r="Q25" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R25" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="98"/>
     </row>
@@ -20501,7 +20656,7 @@
       </c>
       <c r="L26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M26" s="82" t="e" vm="108">
         <f>_xlfn.XLOOKUP(I26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20509,17 +20664,19 @@
       </c>
       <c r="N26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="O26" s="190" t="str">
+        <v>113</v>
+      </c>
+      <c r="O26" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Central Arkansas</v>
       </c>
-      <c r="P26" s="205" t="e" vm="108">
+      <c r="P26" s="204" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q26" s="216"/>
+      <c r="Q26" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R26" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -20571,7 +20728,7 @@
       </c>
       <c r="L27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M27" s="82" t="e" vm="110">
         <f>_xlfn.XLOOKUP(I27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20579,17 +20736,19 @@
       </c>
       <c r="N27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
-      </c>
-      <c r="O27" s="190" t="str">
+        <v>93</v>
+      </c>
+      <c r="O27" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Central Connecticut State</v>
       </c>
-      <c r="P27" s="205" t="e" vm="109">
+      <c r="P27" s="204" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(O27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q27" s="216"/>
+      <c r="Q27" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R27" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -20641,7 +20800,7 @@
       </c>
       <c r="L28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="M28" s="109" t="e" vm="112">
         <f>_xlfn.XLOOKUP(I28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20651,15 +20810,17 @@
         <f t="shared" ca="1" si="5"/>
         <v>120</v>
       </c>
-      <c r="O28" s="191" t="str">
+      <c r="O28" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Charlotte</v>
       </c>
-      <c r="P28" s="206" t="e" vm="112">
+      <c r="P28" s="205" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(O28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q28" s="216"/>
+      <c r="Q28" s="288" t="s">
+        <v>1204</v>
+      </c>
       <c r="R28" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -20677,7 +20838,7 @@
       </c>
       <c r="C29" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="D29" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20694,7 +20855,7 @@
         <f>Teams!C50</f>
         <v>Chattanooga</v>
       </c>
-      <c r="H29" s="181" t="s">
+      <c r="H29" s="180" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="128" t="str">
@@ -20711,7 +20872,7 @@
       </c>
       <c r="L29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="M29" s="115" t="e" vm="114">
         <f>_xlfn.XLOOKUP(I29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20719,20 +20880,22 @@
       </c>
       <c r="N29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="O29" s="192" t="str">
+        <v>97</v>
+      </c>
+      <c r="O29" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Chattanooga</v>
-      </c>
-      <c r="P29" s="207" t="e" vm="113">
+        <v>Chicago State</v>
+      </c>
+      <c r="P29" s="206" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(O29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q29" s="217"/>
+      <c r="Q29" s="289" t="s">
+        <v>1204</v>
+      </c>
       <c r="R29" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="98"/>
     </row>
@@ -20747,7 +20910,7 @@
       </c>
       <c r="C30" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="D30" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20764,7 +20927,7 @@
         <f>Teams!C52</f>
         <v>Cincinnati</v>
       </c>
-      <c r="H30" s="179" t="s">
+      <c r="H30" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I30" s="119" t="str">
@@ -20781,7 +20944,7 @@
       </c>
       <c r="L30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M30" s="83" t="e" vm="116">
         <f>_xlfn.XLOOKUP(I30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20789,20 +20952,22 @@
       </c>
       <c r="N30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="O30" s="193" t="str">
+        <v>120</v>
+      </c>
+      <c r="O30" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cincinnati</v>
-      </c>
-      <c r="P30" s="208" t="e" vm="115">
+        <v>Clemson</v>
+      </c>
+      <c r="P30" s="207" t="e" vm="116">
         <f ca="1">_xlfn.XLOOKUP(O30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q30" s="217"/>
+      <c r="Q30" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R30" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="98"/>
     </row>
@@ -20817,7 +20982,7 @@
       </c>
       <c r="C31" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="D31" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20834,7 +20999,7 @@
         <f>Teams!C54</f>
         <v>Cleveland State</v>
       </c>
-      <c r="H31" s="179" t="s">
+      <c r="H31" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="119" t="str">
@@ -20851,7 +21016,7 @@
       </c>
       <c r="L31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M31" s="83" t="e" vm="118">
         <f>_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20859,20 +21024,22 @@
       </c>
       <c r="N31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="O31" s="193" t="str">
+        <v>106</v>
+      </c>
+      <c r="O31" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cleveland State</v>
-      </c>
-      <c r="P31" s="208" t="e" vm="117">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="P31" s="207" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(O31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q31" s="217"/>
+      <c r="Q31" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R31" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="98"/>
     </row>
@@ -20904,7 +21071,7 @@
         <f>Teams!C56</f>
         <v>Colgate</v>
       </c>
-      <c r="H32" s="179" t="s">
+      <c r="H32" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="119" t="str">
@@ -20921,7 +21088,7 @@
       </c>
       <c r="L32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M32" s="83" t="e" vm="120">
         <f>_xlfn.XLOOKUP(I32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20929,17 +21096,19 @@
       </c>
       <c r="N32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="O32" s="193" t="str">
+        <v>93</v>
+      </c>
+      <c r="O32" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Colgate</v>
       </c>
-      <c r="P32" s="208" t="e" vm="119">
+      <c r="P32" s="207" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(O32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q32" s="217"/>
+      <c r="Q32" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R32" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -20974,7 +21143,7 @@
         <f>Teams!C58</f>
         <v>Colorado</v>
       </c>
-      <c r="H33" s="179" t="s">
+      <c r="H33" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I33" s="119" t="str">
@@ -20991,7 +21160,7 @@
       </c>
       <c r="L33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M33" s="83" t="e" vm="122">
         <f>_xlfn.XLOOKUP(I33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20999,17 +21168,19 @@
       </c>
       <c r="N33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="O33" s="193" t="str">
+        <v>120</v>
+      </c>
+      <c r="O33" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Colorado State</v>
       </c>
-      <c r="P33" s="208" t="e" vm="122">
+      <c r="P33" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q33" s="217"/>
+      <c r="Q33" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R33" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -21044,7 +21215,7 @@
         <f>Teams!C60</f>
         <v>Columbia</v>
       </c>
-      <c r="H34" s="179" t="s">
+      <c r="H34" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I34" s="119" t="str">
@@ -21061,7 +21232,7 @@
       </c>
       <c r="L34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M34" s="83" t="e" vm="124">
         <f>_xlfn.XLOOKUP(I34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21069,17 +21240,19 @@
       </c>
       <c r="N34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
-      </c>
-      <c r="O34" s="193" t="str">
+        <v>96</v>
+      </c>
+      <c r="O34" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Columbia</v>
       </c>
-      <c r="P34" s="208" t="e" vm="123">
+      <c r="P34" s="207" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(O34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q34" s="217"/>
+      <c r="Q34" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R34" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -21114,7 +21287,7 @@
         <f>Teams!C62</f>
         <v>Coppin State</v>
       </c>
-      <c r="H35" s="179" t="s">
+      <c r="H35" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I35" s="119" t="str">
@@ -21131,7 +21304,7 @@
       </c>
       <c r="L35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M35" s="83" t="e" vm="126">
         <f>_xlfn.XLOOKUP(I35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21139,17 +21312,19 @@
       </c>
       <c r="N35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="O35" s="193" t="str">
+        <v>93</v>
+      </c>
+      <c r="O35" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Coppin State</v>
       </c>
-      <c r="P35" s="208" t="e" vm="125">
+      <c r="P35" s="207" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(O35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q35" s="217"/>
+      <c r="Q35" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R35" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -21184,7 +21359,7 @@
         <f>Teams!C64</f>
         <v>Creighton</v>
       </c>
-      <c r="H36" s="180" t="s">
+      <c r="H36" s="179" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="124" t="str">
@@ -21201,7 +21376,7 @@
       </c>
       <c r="L36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M36" s="126" t="e" vm="128">
         <f>_xlfn.XLOOKUP(I36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21209,17 +21384,19 @@
       </c>
       <c r="N36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="O36" s="194" t="str">
+        <v>92</v>
+      </c>
+      <c r="O36" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Creighton</v>
       </c>
-      <c r="P36" s="209" t="e" vm="127">
+      <c r="P36" s="208" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(O36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q36" s="217"/>
+      <c r="Q36" s="291" t="s">
+        <v>1204</v>
+      </c>
       <c r="R36" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -21230,14 +21407,14 @@
       <c r="E37" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="232" t="str">
+      <c r="F37" s="226" t="str">
         <f>Bracket!F2</f>
         <v>Second Round</v>
       </c>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="232"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="226"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -21246,13 +21423,13 @@
         <v>8</v>
       </c>
       <c r="P37" s="68"/>
-      <c r="Q37" s="215"/>
+      <c r="Q37" s="293"/>
       <c r="S37" s="98"/>
     </row>
     <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="str">
         <f ca="1">G38</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="B38" s="91" t="str">
         <f ca="1">I38</f>
@@ -21272,13 +21449,13 @@
       </c>
       <c r="F38" s="130" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">_xlfn.XLOOKUP(G38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G38" s="131" t="str">
         <f ca="1">O5</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="H38" s="182" t="s">
+        <v>Air Force</v>
+      </c>
+      <c r="H38" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I38" s="132" t="str">
@@ -21289,13 +21466,13 @@
         <f t="array" aca="1" ref="J38" ca="1">_xlfn.XLOOKUP(I38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>9</v>
       </c>
-      <c r="K38" s="84" t="e" vm="65">
+      <c r="K38" s="84" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="84">
         <f t="shared" ref="L38:N72" ca="1" si="10">RANDBETWEEN(90,120)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M38" s="84" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(I38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21303,35 +21480,37 @@
       </c>
       <c r="N38" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="O38" s="195" t="str">
+        <v>100</v>
+      </c>
+      <c r="O38" s="194" t="str">
         <f t="shared" ref="O38:O53" ca="1" si="11">IF(L38&gt;N38,G38,I38)</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="P38" s="210" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="P38" s="209" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q38" s="216"/>
+      <c r="Q38" s="286" t="s">
+        <v>1204</v>
+      </c>
       <c r="R38" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="98"/>
     </row>
     <row r="39" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="91" t="str">
         <f t="shared" ref="A39:A53" ca="1" si="12">G39</f>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="B39" s="91" t="str">
         <f t="shared" ref="B39:B53" ca="1" si="13">I39</f>
-        <v>Albany (NY)</v>
+        <v>Alcorn State</v>
       </c>
       <c r="C39" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Albany (NY)</v>
+        <v>Alcorn State</v>
       </c>
       <c r="D39" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21342,51 +21521,53 @@
       </c>
       <c r="F39" s="100" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">_xlfn.XLOOKUP(G39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G39" s="101" t="str">
         <f ca="1">O7</f>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="H39" s="176" t="s">
         <v>9</v>
       </c>
       <c r="I39" s="102" t="str">
         <f ca="1">O8</f>
-        <v>Albany (NY)</v>
+        <v>Alcorn State</v>
       </c>
       <c r="J39" s="103" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">_xlfn.XLOOKUP(I39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K39" s="82" t="e" vm="70">
+        <v>13</v>
+      </c>
+      <c r="K39" s="82" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(G39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="M39" s="82" t="e" vm="71">
+        <v>116</v>
+      </c>
+      <c r="M39" s="82" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="O39" s="190" t="str">
+        <v>108</v>
+      </c>
+      <c r="O39" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Alabama State</v>
-      </c>
-      <c r="P39" s="205" t="e" vm="70">
+        <v>Alabama A&amp;M</v>
+      </c>
+      <c r="P39" s="204" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(O39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q39" s="216"/>
+      <c r="Q39" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R39" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="98"/>
     </row>
@@ -21401,7 +21582,7 @@
       </c>
       <c r="C40" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>American</v>
+        <v>Arizona State</v>
       </c>
       <c r="D40" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21435,7 +21616,7 @@
       </c>
       <c r="L40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M40" s="82" t="e" vm="76">
         <f ca="1">_xlfn.XLOOKUP(I40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21443,20 +21624,22 @@
       </c>
       <c r="N40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="O40" s="190" t="str">
+        <v>101</v>
+      </c>
+      <c r="O40" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arizona State</v>
-      </c>
-      <c r="P40" s="205" t="e" vm="76">
+        <v>American</v>
+      </c>
+      <c r="P40" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q40" s="216"/>
+      <c r="Q40" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R40" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="98"/>
     </row>
@@ -21467,11 +21650,11 @@
       </c>
       <c r="B41" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Army</v>
       </c>
       <c r="C41" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Arkansas State</v>
       </c>
       <c r="D41" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21488,16 +21671,16 @@
         <f ca="1">O11</f>
         <v>Arkansas State</v>
       </c>
-      <c r="H41" s="183" t="s">
+      <c r="H41" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="137" t="str">
         <f ca="1">O12</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Army</v>
       </c>
       <c r="J41" s="138" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">_xlfn.XLOOKUP(I41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K41" s="139" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(G41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21505,25 +21688,27 @@
       </c>
       <c r="L41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
-      </c>
-      <c r="M41" s="139" t="e" vm="79">
+        <v>108</v>
+      </c>
+      <c r="M41" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="O41" s="196" t="str">
+        <v>114</v>
+      </c>
+      <c r="O41" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P41" s="211" t="e" vm="78">
+        <v>Army</v>
+      </c>
+      <c r="P41" s="210" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(O41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q41" s="216"/>
+      <c r="Q41" s="288" t="s">
+        <v>1204</v>
+      </c>
       <c r="R41" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -21541,7 +21726,7 @@
       </c>
       <c r="C42" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Baylor</v>
+        <v>Auburn</v>
       </c>
       <c r="D42" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21558,7 +21743,7 @@
         <f ca="1">O13</f>
         <v>Auburn</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="143" t="str">
@@ -21575,7 +21760,7 @@
       </c>
       <c r="L42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="M42" s="145" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(I42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21583,27 +21768,29 @@
       </c>
       <c r="N42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="O42" s="197" t="str">
+        <v>116</v>
+      </c>
+      <c r="O42" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Auburn</v>
-      </c>
-      <c r="P42" s="212" t="e" vm="81">
+        <v>Baylor</v>
+      </c>
+      <c r="P42" s="211" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(O42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q42" s="217"/>
+      <c r="Q42" s="289" t="s">
+        <v>1204</v>
+      </c>
       <c r="R42" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="98"/>
     </row>
     <row r="43" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bellarmine</v>
+        <v>Belmont</v>
       </c>
       <c r="B43" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21611,7 +21798,7 @@
       </c>
       <c r="C43" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Binghamton</v>
+        <v>Belmont</v>
       </c>
       <c r="D43" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21622,13 +21809,13 @@
       </c>
       <c r="F43" s="117" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">_xlfn.XLOOKUP(G43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G43" s="118" t="str">
         <f ca="1">O15</f>
-        <v>Bellarmine</v>
-      </c>
-      <c r="H43" s="179" t="s">
+        <v>Belmont</v>
+      </c>
+      <c r="H43" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I43" s="119" t="str">
@@ -21639,13 +21826,13 @@
         <f t="array" aca="1" ref="J43" ca="1">_xlfn.XLOOKUP(I43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>13</v>
       </c>
-      <c r="K43" s="83" t="e" vm="85">
+      <c r="K43" s="83" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M43" s="83" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21653,35 +21840,37 @@
       </c>
       <c r="N43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
-      </c>
-      <c r="O43" s="193" t="str">
+        <v>115</v>
+      </c>
+      <c r="O43" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bellarmine</v>
-      </c>
-      <c r="P43" s="208" t="e" vm="85">
+        <v>Binghamton</v>
+      </c>
+      <c r="P43" s="207" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(O43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q43" s="217"/>
+      <c r="Q43" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R43" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="98"/>
     </row>
     <row r="44" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="B44" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Boston University</v>
+        <v>Bowling Green</v>
       </c>
       <c r="C44" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Boston College</v>
+        <v>Bowling Green</v>
       </c>
       <c r="D44" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21692,48 +21881,50 @@
       </c>
       <c r="F44" s="117" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">_xlfn.XLOOKUP(G44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G44" s="118" t="str">
         <f ca="1">O17</f>
-        <v>Boston College</v>
-      </c>
-      <c r="H44" s="179" t="s">
+        <v>Boise State</v>
+      </c>
+      <c r="H44" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I44" s="119" t="str">
         <f ca="1">O18</f>
-        <v>Boston University</v>
+        <v>Bowling Green</v>
       </c>
       <c r="J44" s="120" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">_xlfn.XLOOKUP(I44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K44" s="83" t="e" vm="90">
+        <v>14</v>
+      </c>
+      <c r="K44" s="83" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(G44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="M44" s="83" t="e" vm="91">
+        <v>110</v>
+      </c>
+      <c r="M44" s="83" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(I44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="O44" s="193" t="str">
+        <v>106</v>
+      </c>
+      <c r="O44" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Boston University</v>
-      </c>
-      <c r="P44" s="208" t="e" vm="91">
+        <v>Boise State</v>
+      </c>
+      <c r="P44" s="207" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(O44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q44" s="217"/>
+      <c r="Q44" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R44" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -21768,7 +21959,7 @@
         <f ca="1">O19</f>
         <v>Brigham Young</v>
       </c>
-      <c r="H45" s="185" t="s">
+      <c r="H45" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I45" s="149" t="str">
@@ -21785,7 +21976,7 @@
       </c>
       <c r="L45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M45" s="151" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21793,17 +21984,19 @@
       </c>
       <c r="N45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="O45" s="198" t="str">
+        <v>117</v>
+      </c>
+      <c r="O45" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Brown</v>
       </c>
-      <c r="P45" s="213" t="e" vm="95">
+      <c r="P45" s="212" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q45" s="217"/>
+      <c r="Q45" s="291" t="s">
+        <v>1204</v>
+      </c>
       <c r="R45" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -21813,15 +22006,15 @@
     <row r="46" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="B46" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="C46" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bucknell</v>
+        <v>Butler</v>
       </c>
       <c r="D46" s="152" t="e">
         <f t="shared" si="9"/>
@@ -21832,48 +22025,50 @@
       </c>
       <c r="F46" s="130" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">_xlfn.XLOOKUP(G46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G46" s="131" t="str">
         <f ca="1">O21</f>
-        <v>Bucknell</v>
-      </c>
-      <c r="H46" s="182" t="s">
+        <v>Buffalo</v>
+      </c>
+      <c r="H46" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="132" t="str">
         <f ca="1">O22</f>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="J46" s="133" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">_xlfn.XLOOKUP(I46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K46" s="84" t="e" vm="97">
+        <v>8</v>
+      </c>
+      <c r="K46" s="84" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="M46" s="84" t="e" vm="100">
+        <v>101</v>
+      </c>
+      <c r="M46" s="84" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(I46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="O46" s="195" t="str">
+        <v>91</v>
+      </c>
+      <c r="O46" s="194" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cal Poly</v>
-      </c>
-      <c r="P46" s="210" t="e" vm="100">
+        <v>Buffalo</v>
+      </c>
+      <c r="P46" s="209" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(O46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q46" s="216"/>
+      <c r="Q46" s="292" t="s">
+        <v>1204</v>
+      </c>
       <c r="R46" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -21887,11 +22082,11 @@
       </c>
       <c r="B47" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="C47" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="D47" s="152" t="e">
         <f t="shared" si="9"/>
@@ -21913,11 +22108,11 @@
       </c>
       <c r="I47" s="102" t="str">
         <f ca="1">O24</f>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="J47" s="103" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">_xlfn.XLOOKUP(I47,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K47" s="82" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(G47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21925,25 +22120,27 @@
       </c>
       <c r="L47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="M47" s="82" t="e" vm="104">
+        <v>120</v>
+      </c>
+      <c r="M47" s="82" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="O47" s="190" t="str">
+        <v>109</v>
+      </c>
+      <c r="O47" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>California</v>
-      </c>
-      <c r="P47" s="205" t="e" vm="104">
+        <v>Cal State Fullerton</v>
+      </c>
+      <c r="P47" s="204" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(O47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q47" s="216"/>
+      <c r="Q47" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R47" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -21953,7 +22150,7 @@
     <row r="48" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="B48" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21972,11 +22169,11 @@
       </c>
       <c r="F48" s="100" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">_xlfn.XLOOKUP(G48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G48" s="101" t="str">
         <f ca="1">O25</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="H48" s="176" t="s">
         <v>9</v>
@@ -21989,13 +22186,13 @@
         <f t="array" aca="1" ref="J48" ca="1">_xlfn.XLOOKUP(I48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>14</v>
       </c>
-      <c r="K48" s="82" t="e" vm="105">
+      <c r="K48" s="82" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(G48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M48" s="82" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(I48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22003,17 +22200,19 @@
       </c>
       <c r="N48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="O48" s="190" t="str">
+        <v>98</v>
+      </c>
+      <c r="O48" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P48" s="205" t="e" vm="105">
+        <v>Campbell</v>
+      </c>
+      <c r="P48" s="204" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(O48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q48" s="216"/>
+      <c r="Q48" s="287" t="s">
+        <v>1204</v>
+      </c>
       <c r="R48" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -22031,7 +22230,7 @@
       </c>
       <c r="C49" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Central Connecticut State</v>
+        <v>Charlotte</v>
       </c>
       <c r="D49" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22048,7 +22247,7 @@
         <f ca="1">O27</f>
         <v>Central Connecticut State</v>
       </c>
-      <c r="H49" s="183" t="s">
+      <c r="H49" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="137" t="str">
@@ -22065,7 +22264,7 @@
       </c>
       <c r="L49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M49" s="139" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(I49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22073,35 +22272,37 @@
       </c>
       <c r="N49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="O49" s="196" t="str">
+        <v>100</v>
+      </c>
+      <c r="O49" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Charlotte</v>
-      </c>
-      <c r="P49" s="211" t="e" vm="112">
+        <v>Central Connecticut State</v>
+      </c>
+      <c r="P49" s="210" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(O49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q49" s="216"/>
+      <c r="Q49" s="288" t="s">
+        <v>1204</v>
+      </c>
       <c r="R49" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="98"/>
     </row>
     <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="B50" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="C50" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="D50" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22112,58 +22313,60 @@
       </c>
       <c r="F50" s="141" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">_xlfn.XLOOKUP(G50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G50" s="142" t="str">
         <f ca="1">O29</f>
-        <v>Chattanooga</v>
-      </c>
-      <c r="H50" s="184" t="s">
+        <v>Chicago State</v>
+      </c>
+      <c r="H50" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="143" t="str">
         <f ca="1">O30</f>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="J50" s="144" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">_xlfn.XLOOKUP(I50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K50" s="145" t="e" vm="113">
+        <v>9</v>
+      </c>
+      <c r="K50" s="145" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(G50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="M50" s="145" t="e" vm="115">
+        <v>117</v>
+      </c>
+      <c r="M50" s="145" t="e" vm="116">
         <f ca="1">_xlfn.XLOOKUP(I50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="O50" s="197" t="str">
+        <v>105</v>
+      </c>
+      <c r="O50" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Chattanooga</v>
-      </c>
-      <c r="P50" s="212" t="e" vm="113">
+        <v>Chicago State</v>
+      </c>
+      <c r="P50" s="211" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(O50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q50" s="217"/>
+      <c r="Q50" s="289" t="s">
+        <v>1204</v>
+      </c>
       <c r="R50" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="98"/>
     </row>
     <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="B51" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22171,7 +22374,7 @@
       </c>
       <c r="C51" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cleveland State</v>
+        <v>Colgate</v>
       </c>
       <c r="D51" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22182,13 +22385,13 @@
       </c>
       <c r="F51" s="117" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">_xlfn.XLOOKUP(G51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G51" s="118" t="str">
         <f ca="1">O31</f>
-        <v>Cleveland State</v>
-      </c>
-      <c r="H51" s="179" t="s">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="H51" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I51" s="119" t="str">
@@ -22199,13 +22402,13 @@
         <f t="array" aca="1" ref="J51" ca="1">_xlfn.XLOOKUP(I51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>4</v>
       </c>
-      <c r="K51" s="83" t="e" vm="117">
+      <c r="K51" s="83" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(G51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M51" s="83" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(I51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22213,20 +22416,22 @@
       </c>
       <c r="N51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="O51" s="193" t="str">
+        <v>98</v>
+      </c>
+      <c r="O51" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Colgate</v>
-      </c>
-      <c r="P51" s="208" t="e" vm="119">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="P51" s="207" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="217"/>
+      <c r="Q51" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R51" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="98"/>
     </row>
@@ -22258,7 +22463,7 @@
         <f ca="1">O33</f>
         <v>Colorado State</v>
       </c>
-      <c r="H52" s="179" t="s">
+      <c r="H52" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I52" s="119" t="str">
@@ -22275,7 +22480,7 @@
       </c>
       <c r="L52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M52" s="83" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22283,17 +22488,19 @@
       </c>
       <c r="N52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="O52" s="193" t="str">
+        <v>113</v>
+      </c>
+      <c r="O52" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Colorado State</v>
       </c>
-      <c r="P52" s="208" t="e" vm="122">
+      <c r="P52" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q52" s="217"/>
+      <c r="Q52" s="290" t="s">
+        <v>1204</v>
+      </c>
       <c r="R52" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -22328,7 +22535,7 @@
         <f ca="1">O35</f>
         <v>Coppin State</v>
       </c>
-      <c r="H53" s="185" t="s">
+      <c r="H53" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I53" s="149" t="str">
@@ -22345,7 +22552,7 @@
       </c>
       <c r="L53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="M53" s="151" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(I53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22353,17 +22560,19 @@
       </c>
       <c r="N53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="O53" s="198" t="str">
+        <v>119</v>
+      </c>
+      <c r="O53" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Creighton</v>
       </c>
-      <c r="P53" s="213" t="e" vm="127">
+      <c r="P53" s="212" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(O53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q53" s="217"/>
+      <c r="Q53" s="291" t="s">
+        <v>1204</v>
+      </c>
       <c r="R53" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -22374,14 +22583,14 @@
       <c r="E54" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="232" t="str">
+      <c r="F54" s="226" t="str">
         <f>Bracket!I2</f>
         <v>Sweet 16</v>
       </c>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="232"/>
-      <c r="J54" s="232"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="226"/>
+      <c r="I54" s="226"/>
+      <c r="J54" s="226"/>
       <c r="K54" s="68"/>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
@@ -22390,21 +22599,21 @@
         <v>8</v>
       </c>
       <c r="P54" s="68"/>
-      <c r="Q54" s="215"/>
+      <c r="Q54" s="293"/>
       <c r="S54" s="98"/>
     </row>
     <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="str">
         <f ca="1">G55</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="B55" s="91" t="str">
         <f ca="1">I55</f>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="C55" s="91" t="str">
         <f t="shared" ref="C55:C62" ca="1" si="14">IF(O55="","",IF(A55=O55,B55,A55))</f>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="D55" s="91" t="e">
         <f t="shared" ref="D55:D62" si="15">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O55,SeedInfo,2,FALSE)*3,MAX(VLOOKUP(O55,SeedInfo,2,FALSE)-VLOOKUP(C55,SeedInfo,2,FALSE),0)))</f>
@@ -22415,66 +22624,68 @@
       </c>
       <c r="F55" s="93" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">_xlfn.XLOOKUP(G55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G55" s="94" t="str">
         <f ca="1">O38</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="H55" s="175" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="95" t="str">
         <f ca="1">O39</f>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="J55" s="96" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">_xlfn.XLOOKUP(I55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
-      </c>
-      <c r="K55" s="97" t="e" vm="65">
+        <v>5</v>
+      </c>
+      <c r="K55" s="97" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="M55" s="97" t="e" vm="70">
+        <v>113</v>
+      </c>
+      <c r="M55" s="97" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="O55" s="189" t="str">
+        <v>111</v>
+      </c>
+      <c r="O55" s="188" t="str">
         <f t="shared" ref="O55:O62" ca="1" si="16">IF(L55&gt;N55,G55,I55)</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="P55" s="205" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="P55" s="204" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q55" s="216"/>
+      <c r="Q55" s="286" t="s">
+        <v>1204</v>
+      </c>
       <c r="R55" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="98"/>
     </row>
     <row r="56" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91" t="str">
         <f t="shared" ref="A56:A62" ca="1" si="17">G56</f>
-        <v>Arizona State</v>
+        <v>American</v>
       </c>
       <c r="B56" s="91" t="str">
         <f t="shared" ref="B56:B62" ca="1" si="18">I56</f>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="C56" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arizona State</v>
+        <v>American</v>
       </c>
       <c r="D56" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22485,66 +22696,68 @@
       </c>
       <c r="F56" s="135" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">_xlfn.XLOOKUP(G56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G56" s="136" t="str">
         <f ca="1">O40</f>
-        <v>Arizona State</v>
-      </c>
-      <c r="H56" s="183" t="s">
+        <v>American</v>
+      </c>
+      <c r="H56" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="137" t="str">
         <f ca="1">O41</f>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="J56" s="138" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">_xlfn.XLOOKUP(I56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
-      </c>
-      <c r="K56" s="139" t="e" vm="76">
+        <v>15</v>
+      </c>
+      <c r="K56" s="139" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="M56" s="139" t="e" vm="78">
+        <v>91</v>
+      </c>
+      <c r="M56" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
-      </c>
-      <c r="O56" s="196" t="str">
+        <v>95</v>
+      </c>
+      <c r="O56" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P56" s="211" t="e" vm="78">
+        <v>Army</v>
+      </c>
+      <c r="P56" s="210" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(O56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q56" s="216"/>
+      <c r="Q56" s="288" t="s">
+        <v>1204</v>
+      </c>
       <c r="R56" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="98"/>
     </row>
     <row r="57" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Auburn</v>
+        <v>Baylor</v>
       </c>
       <c r="B57" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Bellarmine</v>
+        <v>Binghamton</v>
       </c>
       <c r="C57" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bellarmine</v>
+        <v>Binghamton</v>
       </c>
       <c r="D57" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22555,48 +22768,50 @@
       </c>
       <c r="F57" s="142" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">_xlfn.XLOOKUP(G57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G57" s="142" t="str">
         <f ca="1">O42</f>
-        <v>Auburn</v>
-      </c>
-      <c r="H57" s="184" t="s">
+        <v>Baylor</v>
+      </c>
+      <c r="H57" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="143" t="str">
         <f ca="1">O43</f>
-        <v>Bellarmine</v>
+        <v>Binghamton</v>
       </c>
       <c r="J57" s="144" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">_xlfn.XLOOKUP(I57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
-      </c>
-      <c r="K57" s="145" t="e" vm="81">
+        <v>13</v>
+      </c>
+      <c r="K57" s="145" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(G57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="M57" s="145" t="e" vm="85">
+        <v>103</v>
+      </c>
+      <c r="M57" s="145" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="O57" s="197" t="str">
+        <v>94</v>
+      </c>
+      <c r="O57" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Auburn</v>
-      </c>
-      <c r="P57" s="212" t="e" vm="81">
+        <v>Baylor</v>
+      </c>
+      <c r="P57" s="211" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(O57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q57" s="217"/>
+      <c r="Q57" s="289" t="s">
+        <v>1204</v>
+      </c>
       <c r="R57" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -22606,7 +22821,7 @@
     <row r="58" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Boston University</v>
+        <v>Boise State</v>
       </c>
       <c r="B58" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -22614,7 +22829,7 @@
       </c>
       <c r="C58" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brown</v>
+        <v>Boise State</v>
       </c>
       <c r="D58" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22625,13 +22840,13 @@
       </c>
       <c r="F58" s="148" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">_xlfn.XLOOKUP(G58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58" s="148" t="str">
         <f ca="1">O44</f>
-        <v>Boston University</v>
-      </c>
-      <c r="H58" s="185" t="s">
+        <v>Boise State</v>
+      </c>
+      <c r="H58" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I58" s="149" t="str">
@@ -22642,13 +22857,13 @@
         <f t="array" aca="1" ref="J58" ca="1">_xlfn.XLOOKUP(I58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>2</v>
       </c>
-      <c r="K58" s="151" t="e" vm="91">
+      <c r="K58" s="151" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(G58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M58" s="151" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22656,35 +22871,37 @@
       </c>
       <c r="N58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="O58" s="198" t="str">
+        <v>118</v>
+      </c>
+      <c r="O58" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Boston University</v>
-      </c>
-      <c r="P58" s="213" t="e" vm="91">
+        <v>Brown</v>
+      </c>
+      <c r="P58" s="212" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q58" s="217"/>
+      <c r="Q58" s="291" t="s">
+        <v>1204</v>
+      </c>
       <c r="R58" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="98"/>
     </row>
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Cal Poly</v>
+        <v>Buffalo</v>
       </c>
       <c r="B59" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>California</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="C59" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Cal Poly</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="D59" s="152" t="e">
         <f t="shared" si="15"/>
@@ -22695,48 +22912,50 @@
       </c>
       <c r="F59" s="130" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">_xlfn.XLOOKUP(G59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G59" s="131" t="str">
         <f ca="1">O46</f>
-        <v>Cal Poly</v>
-      </c>
-      <c r="H59" s="182" t="s">
+        <v>Buffalo</v>
+      </c>
+      <c r="H59" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="132" t="str">
         <f ca="1">O47</f>
-        <v>California</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="J59" s="133" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">_xlfn.XLOOKUP(I59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
-      </c>
-      <c r="K59" s="84" t="e" vm="100">
+        <v>12</v>
+      </c>
+      <c r="K59" s="84" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M59" s="84" t="e" vm="104">
+        <v>99</v>
+      </c>
+      <c r="M59" s="84" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(I59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
-      </c>
-      <c r="O59" s="195" t="str">
+        <v>94</v>
+      </c>
+      <c r="O59" s="194" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>California</v>
-      </c>
-      <c r="P59" s="210" t="e" vm="104">
+        <v>Buffalo</v>
+      </c>
+      <c r="P59" s="209" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(O59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q59" s="216"/>
+      <c r="Q59" s="292" t="s">
+        <v>1204</v>
+      </c>
       <c r="R59" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -22746,15 +22965,15 @@
     <row r="60" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="B60" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Charlotte</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="C60" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>California Baptist</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="D60" s="152" t="e">
         <f t="shared" si="15"/>
@@ -22765,48 +22984,50 @@
       </c>
       <c r="F60" s="135" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">_xlfn.XLOOKUP(G60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G60" s="136" t="str">
         <f ca="1">O48</f>
-        <v>California Baptist</v>
-      </c>
-      <c r="H60" s="183" t="s">
+        <v>Campbell</v>
+      </c>
+      <c r="H60" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I60" s="137" t="str">
         <f ca="1">O49</f>
-        <v>Charlotte</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="J60" s="138" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">_xlfn.XLOOKUP(I60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K60" s="139" t="e" vm="105">
+        <v>7</v>
+      </c>
+      <c r="K60" s="139" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(G60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M60" s="139" t="e" vm="112">
+        <v>101</v>
+      </c>
+      <c r="M60" s="139" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(I60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="O60" s="196" t="str">
+        <v>92</v>
+      </c>
+      <c r="O60" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Charlotte</v>
-      </c>
-      <c r="P60" s="211" t="e" vm="112">
+        <v>Campbell</v>
+      </c>
+      <c r="P60" s="210" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(O60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q60" s="216"/>
+      <c r="Q60" s="288" t="s">
+        <v>1204</v>
+      </c>
       <c r="R60" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -22816,15 +23037,15 @@
     <row r="61" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="B61" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="C61" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="D61" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22835,51 +23056,53 @@
       </c>
       <c r="F61" s="141" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">_xlfn.XLOOKUP(G61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G61" s="142" t="str">
         <f ca="1">O50</f>
-        <v>Chattanooga</v>
-      </c>
-      <c r="H61" s="184" t="s">
+        <v>Chicago State</v>
+      </c>
+      <c r="H61" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I61" s="143" t="str">
         <f ca="1">O51</f>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="J61" s="144" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">_xlfn.XLOOKUP(I61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K61" s="145" t="e" vm="113">
+        <v>12</v>
+      </c>
+      <c r="K61" s="145" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(G61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
-      </c>
-      <c r="M61" s="145" t="e" vm="119">
+        <v>99</v>
+      </c>
+      <c r="M61" s="145" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(I61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="O61" s="197" t="str">
+        <v>99</v>
+      </c>
+      <c r="O61" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Colgate</v>
-      </c>
-      <c r="P61" s="212" t="e" vm="119">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="P61" s="211" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(O61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q61" s="217"/>
+      <c r="Q61" s="289" t="s">
+        <v>1204</v>
+      </c>
       <c r="R61" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="98"/>
     </row>
@@ -22894,7 +23117,7 @@
       </c>
       <c r="C62" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Colorado State</v>
+        <v>Creighton</v>
       </c>
       <c r="D62" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22911,7 +23134,7 @@
         <f ca="1">O52</f>
         <v>Colorado State</v>
       </c>
-      <c r="H62" s="185" t="s">
+      <c r="H62" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="149" t="str">
@@ -22928,7 +23151,7 @@
       </c>
       <c r="L62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M62" s="151" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(I62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22936,20 +23159,22 @@
       </c>
       <c r="N62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="O62" s="198" t="str">
+        <v>94</v>
+      </c>
+      <c r="O62" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Creighton</v>
-      </c>
-      <c r="P62" s="213" t="e" vm="127">
+        <v>Colorado State</v>
+      </c>
+      <c r="P62" s="212" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q62" s="217"/>
+      <c r="Q62" s="291" t="s">
+        <v>1204</v>
+      </c>
       <c r="R62" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="98"/>
     </row>
@@ -22957,14 +23182,14 @@
       <c r="E63" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="232" t="str">
+      <c r="F63" s="226" t="str">
         <f>Bracket!L2</f>
         <v>Elite 8</v>
       </c>
-      <c r="G63" s="232"/>
-      <c r="H63" s="232"/>
-      <c r="I63" s="232"/>
-      <c r="J63" s="232"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="226"/>
+      <c r="J63" s="226"/>
       <c r="K63" s="68"/>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
@@ -22973,21 +23198,21 @@
         <v>8</v>
       </c>
       <c r="P63" s="68"/>
-      <c r="Q63" s="215"/>
+      <c r="Q63" s="293"/>
       <c r="S63" s="98"/>
     </row>
     <row r="64" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="91" t="str">
         <f ca="1">G64</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="B64" s="91" t="str">
         <f ca="1">I64</f>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="C64" s="91" t="str">
         <f ca="1">IF(O64="","",IF(A64=O64,B64,A64))</f>
-        <v>Abilene Christian</v>
+        <v>Army</v>
       </c>
       <c r="D64" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O64,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O64,SeedInfo,2,FALSE)-VLOOKUP(C64,SeedInfo,2,FALSE),0)))</f>
@@ -22998,48 +23223,50 @@
       </c>
       <c r="F64" s="154" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">_xlfn.XLOOKUP(G64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G64" s="155" t="str">
         <f ca="1">O55</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="H64" s="186" t="s">
+        <v>Air Force</v>
+      </c>
+      <c r="H64" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="156" t="str">
         <f ca="1">O56</f>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="J64" s="157" cm="1">
         <f t="array" aca="1" ref="J64" ca="1">_xlfn.XLOOKUP(I64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
-      </c>
-      <c r="K64" s="158" t="e" vm="65">
+        <v>15</v>
+      </c>
+      <c r="K64" s="158" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="M64" s="158" t="e" vm="78">
+        <v>115</v>
+      </c>
+      <c r="M64" s="158" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
-      </c>
-      <c r="O64" s="199" t="str">
+        <v>103</v>
+      </c>
+      <c r="O64" s="198" t="str">
         <f ca="1">IF(L64&gt;N64,G64,I64)</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P64" s="205" t="e" vm="78">
+        <v>Air Force</v>
+      </c>
+      <c r="P64" s="204" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q64" s="216"/>
+      <c r="Q64" s="294" t="s">
+        <v>1204</v>
+      </c>
       <c r="R64" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -23049,15 +23276,15 @@
     <row r="65" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="91" t="str">
         <f ca="1">G65</f>
-        <v>Auburn</v>
+        <v>Baylor</v>
       </c>
       <c r="B65" s="91" t="str">
         <f ca="1">I65</f>
-        <v>Boston University</v>
+        <v>Brown</v>
       </c>
       <c r="C65" s="91" t="str">
         <f ca="1">IF(O65="","",IF(A65=O65,B65,A65))</f>
-        <v>Auburn</v>
+        <v>Baylor</v>
       </c>
       <c r="D65" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O65,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O65,SeedInfo,2,FALSE)-VLOOKUP(C65,SeedInfo,2,FALSE),0)))</f>
@@ -23068,66 +23295,68 @@
       </c>
       <c r="F65" s="160" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">_xlfn.XLOOKUP(G65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G65" s="161" t="str">
         <f ca="1">O57</f>
-        <v>Auburn</v>
-      </c>
-      <c r="H65" s="187" t="s">
+        <v>Baylor</v>
+      </c>
+      <c r="H65" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="162" t="str">
         <f ca="1">O58</f>
-        <v>Boston University</v>
+        <v>Brown</v>
       </c>
       <c r="J65" s="163" cm="1">
         <f t="array" aca="1" ref="J65" ca="1">_xlfn.XLOOKUP(I65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K65" s="164" t="e" vm="81">
+        <v>2</v>
+      </c>
+      <c r="K65" s="164" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(G65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="M65" s="164" t="e" vm="91">
+        <v>91</v>
+      </c>
+      <c r="M65" s="164" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
-      </c>
-      <c r="O65" s="200" t="str">
+        <v>104</v>
+      </c>
+      <c r="O65" s="199" t="str">
         <f ca="1">IF(L65&gt;N65,G65,I65)</f>
-        <v>Boston University</v>
-      </c>
-      <c r="P65" s="208" t="e" vm="91">
+        <v>Brown</v>
+      </c>
+      <c r="P65" s="207" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q65" s="217"/>
+      <c r="Q65" s="295" t="s">
+        <v>1204</v>
+      </c>
       <c r="R65" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="98"/>
     </row>
     <row r="66" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91" t="str">
         <f ca="1">G66</f>
-        <v>California</v>
+        <v>Buffalo</v>
       </c>
       <c r="B66" s="91" t="str">
         <f ca="1">I66</f>
-        <v>Charlotte</v>
+        <v>Campbell</v>
       </c>
       <c r="C66" s="91" t="str">
         <f ca="1">IF(O66="","",IF(A66=O66,B66,A66))</f>
-        <v>California</v>
+        <v>Campbell</v>
       </c>
       <c r="D66" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O66,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O66,SeedInfo,2,FALSE)-VLOOKUP(C66,SeedInfo,2,FALSE),0)))</f>
@@ -23138,48 +23367,50 @@
       </c>
       <c r="F66" s="154" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_xlfn.XLOOKUP(G66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G66" s="155" t="str">
         <f ca="1">O59</f>
-        <v>California</v>
-      </c>
-      <c r="H66" s="186" t="s">
+        <v>Buffalo</v>
+      </c>
+      <c r="H66" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="156" t="str">
         <f ca="1">O60</f>
-        <v>Charlotte</v>
+        <v>Campbell</v>
       </c>
       <c r="J66" s="157" cm="1">
         <f t="array" aca="1" ref="J66" ca="1">_xlfn.XLOOKUP(I66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K66" s="158" t="e" vm="104">
+        <v>11</v>
+      </c>
+      <c r="K66" s="158" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="M66" s="158" t="e" vm="112">
+        <v>113</v>
+      </c>
+      <c r="M66" s="158" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(I66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
-      </c>
-      <c r="O66" s="199" t="str">
+        <v>98</v>
+      </c>
+      <c r="O66" s="198" t="str">
         <f ca="1">IF(L66&gt;N66,G66,I66)</f>
-        <v>Charlotte</v>
-      </c>
-      <c r="P66" s="205" t="e" vm="112">
+        <v>Buffalo</v>
+      </c>
+      <c r="P66" s="204" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(O66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q66" s="216"/>
+      <c r="Q66" s="296" t="s">
+        <v>1204</v>
+      </c>
       <c r="R66" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -23189,15 +23420,15 @@
     <row r="67" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91" t="str">
         <f ca="1">G67</f>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="B67" s="91" t="str">
         <f ca="1">I67</f>
-        <v>Creighton</v>
+        <v>Colorado State</v>
       </c>
       <c r="C67" s="91" t="str">
         <f ca="1">IF(O67="","",IF(A67=O67,B67,A67))</f>
-        <v>Creighton</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="D67" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O67,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O67,SeedInfo,2,FALSE)-VLOOKUP(C67,SeedInfo,2,FALSE),0)))</f>
@@ -23208,51 +23439,53 @@
       </c>
       <c r="F67" s="160" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_xlfn.XLOOKUP(G67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G67" s="161" t="str">
         <f ca="1">O61</f>
-        <v>Colgate</v>
-      </c>
-      <c r="H67" s="187" t="s">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="H67" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="162" t="str">
         <f ca="1">O62</f>
-        <v>Creighton</v>
+        <v>Colorado State</v>
       </c>
       <c r="J67" s="163" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">_xlfn.XLOOKUP(I67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K67" s="164" t="e" vm="119">
+        <v>11</v>
+      </c>
+      <c r="K67" s="164" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(G67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="M67" s="164" t="e" vm="127">
+        <v>102</v>
+      </c>
+      <c r="M67" s="164" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="O67" s="200" t="str">
+        <v>111</v>
+      </c>
+      <c r="O67" s="199" t="str">
         <f ca="1">IF(L67&gt;N67,G67,I67)</f>
-        <v>Colgate</v>
-      </c>
-      <c r="P67" s="208" t="e" vm="119">
+        <v>Colorado State</v>
+      </c>
+      <c r="P67" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q67" s="217"/>
+      <c r="Q67" s="295" t="s">
+        <v>1204</v>
+      </c>
       <c r="R67" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="98"/>
     </row>
@@ -23260,14 +23493,14 @@
       <c r="E68" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="232" t="str">
+      <c r="F68" s="226" t="str">
         <f>Bracket!O2</f>
         <v>Final Four</v>
       </c>
-      <c r="G68" s="232"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="232"/>
-      <c r="J68" s="232"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
+      <c r="I68" s="226"/>
+      <c r="J68" s="226"/>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
@@ -23276,21 +23509,21 @@
         <v>8</v>
       </c>
       <c r="P68" s="68"/>
-      <c r="Q68" s="215"/>
+      <c r="Q68" s="293"/>
       <c r="S68" s="98"/>
     </row>
     <row r="69" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="91" t="str">
         <f ca="1">G69</f>
-        <v>Arkansas State</v>
+        <v>Air Force</v>
       </c>
       <c r="B69" s="91" t="str">
         <f ca="1">I69</f>
-        <v>Boston University</v>
+        <v>Brown</v>
       </c>
       <c r="C69" s="91" t="str">
         <f ca="1">IF(O69="","",IF(A69=O69,B69,A69))</f>
-        <v>Boston University</v>
+        <v>Air Force</v>
       </c>
       <c r="D69" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O69,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O69,SeedInfo,2,FALSE)-VLOOKUP(C69,SeedInfo,2,FALSE),0)))</f>
@@ -23301,66 +23534,68 @@
       </c>
       <c r="F69" s="166" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">_xlfn.XLOOKUP(G69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G69" s="167" t="str">
         <f ca="1">O64</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="H69" s="188" t="s">
+        <v>Air Force</v>
+      </c>
+      <c r="H69" s="187" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="168" t="str">
         <f ca="1">O65</f>
-        <v>Boston University</v>
+        <v>Brown</v>
       </c>
       <c r="J69" s="169" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">_xlfn.XLOOKUP(I69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K69" s="170" t="e" vm="78">
+        <v>2</v>
+      </c>
+      <c r="K69" s="170" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="M69" s="170" t="e" vm="91">
+        <v>92</v>
+      </c>
+      <c r="M69" s="170" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="O69" s="201" t="str">
+        <v>101</v>
+      </c>
+      <c r="O69" s="200" t="str">
         <f ca="1">IF(L69&gt;N69,G69,I69)</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P69" s="211" t="e" vm="78">
+        <v>Brown</v>
+      </c>
+      <c r="P69" s="210" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q69" s="216"/>
+      <c r="Q69" s="294" t="s">
+        <v>1204</v>
+      </c>
       <c r="R69" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="98"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="91" t="str">
         <f ca="1">G70</f>
-        <v>Charlotte</v>
+        <v>Buffalo</v>
       </c>
       <c r="B70" s="91" t="str">
         <f ca="1">I70</f>
-        <v>Colgate</v>
+        <v>Colorado State</v>
       </c>
       <c r="C70" s="91" t="str">
         <f ca="1">IF(O70="","",IF(A70=O70,B70,A70))</f>
-        <v>Charlotte</v>
+        <v>Buffalo</v>
       </c>
       <c r="D70" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O70,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O70,SeedInfo,2,FALSE)-VLOOKUP(C70,SeedInfo,2,FALSE),0)))</f>
@@ -23371,48 +23606,50 @@
       </c>
       <c r="F70" s="160" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_xlfn.XLOOKUP(G70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" s="161" t="str">
         <f ca="1">O66</f>
-        <v>Charlotte</v>
-      </c>
-      <c r="H70" s="187" t="s">
+        <v>Buffalo</v>
+      </c>
+      <c r="H70" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="162" t="str">
         <f ca="1">O67</f>
-        <v>Colgate</v>
+        <v>Colorado State</v>
       </c>
       <c r="J70" s="163" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">_xlfn.XLOOKUP(I70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K70" s="164" t="e" vm="112">
+        <v>11</v>
+      </c>
+      <c r="K70" s="164" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="M70" s="164" t="e" vm="119">
+        <v>99</v>
+      </c>
+      <c r="M70" s="164" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="O70" s="200" t="str">
+        <v>102</v>
+      </c>
+      <c r="O70" s="199" t="str">
         <f ca="1">IF(L70&gt;N70,G70,I70)</f>
-        <v>Colgate</v>
-      </c>
-      <c r="P70" s="214" t="e" vm="119">
+        <v>Colorado State</v>
+      </c>
+      <c r="P70" s="213" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q70" s="217"/>
+      <c r="Q70" s="295" t="s">
+        <v>1204</v>
+      </c>
       <c r="R70" s="6" t="b">
         <f t="shared" ref="R70:R72" ca="1" si="19">IF(
 O70=G70,
@@ -23430,14 +23667,14 @@
       <c r="E71" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="232" t="str">
+      <c r="F71" s="226" t="str">
         <f>Bracket!S2</f>
         <v>Championship</v>
       </c>
-      <c r="G71" s="232"/>
-      <c r="H71" s="232"/>
-      <c r="I71" s="232"/>
-      <c r="J71" s="232"/>
+      <c r="G71" s="226"/>
+      <c r="H71" s="226"/>
+      <c r="I71" s="226"/>
+      <c r="J71" s="226"/>
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
       <c r="M71" s="68"/>
@@ -23446,21 +23683,21 @@
         <v>8</v>
       </c>
       <c r="P71" s="68"/>
-      <c r="Q71" s="215"/>
+      <c r="Q71" s="293"/>
       <c r="S71" s="98"/>
     </row>
     <row r="72" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91" t="str">
         <f ca="1">G72</f>
-        <v>Arkansas State</v>
+        <v>Brown</v>
       </c>
       <c r="B72" s="91" t="str">
         <f ca="1">I72</f>
-        <v>Colgate</v>
+        <v>Colorado State</v>
       </c>
       <c r="C72" s="91" t="str">
         <f ca="1">IF(O72="","",IF(A72=O72,B72,A72))</f>
-        <v>Colgate</v>
+        <v>Colorado State</v>
       </c>
       <c r="D72" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O72,SeedInfo,2,FALSE)*6,MAX(VLOOKUP(O72,SeedInfo,2,FALSE)-VLOOKUP(C72,SeedInfo,2,FALSE),0)))</f>
@@ -23471,51 +23708,53 @@
       </c>
       <c r="F72" s="154" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">_xlfn.XLOOKUP(G72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G72" s="155" t="str">
         <f ca="1">O69</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="H72" s="186" t="s">
+        <v>Brown</v>
+      </c>
+      <c r="H72" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="156" t="str">
         <f ca="1">O70</f>
-        <v>Colgate</v>
+        <v>Colorado State</v>
       </c>
       <c r="J72" s="157" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">_xlfn.XLOOKUP(I72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K72" s="158" t="e" vm="78">
+        <v>11</v>
+      </c>
+      <c r="K72" s="158" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(G72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="M72" s="158" t="e" vm="119">
+        <v>110</v>
+      </c>
+      <c r="M72" s="158" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="O72" s="199" t="str">
+        <v>98</v>
+      </c>
+      <c r="O72" s="198" t="str">
         <f ca="1">IF(L72&gt;N72,G72,I72)</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P72" s="206" t="e" vm="78">
+        <v>Brown</v>
+      </c>
+      <c r="P72" s="205" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q72" s="218"/>
+      <c r="Q72" s="297" t="s">
+        <v>1204</v>
+      </c>
       <c r="R72" s="6" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="98"/>
     </row>
@@ -23604,47 +23843,47 @@
   <sheetData>
     <row r="1" spans="1:47" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="287"/>
-      <c r="AA1" s="287"/>
-      <c r="AB1" s="287"/>
-      <c r="AC1" s="287"/>
-      <c r="AD1" s="287"/>
-      <c r="AE1" s="287"/>
-      <c r="AF1" s="287"/>
-      <c r="AG1" s="287"/>
-      <c r="AH1" s="287"/>
-      <c r="AI1" s="287"/>
-      <c r="AJ1" s="287"/>
-      <c r="AK1" s="287"/>
-      <c r="AL1" s="287"/>
-      <c r="AM1" s="287"/>
-      <c r="AN1" s="287"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="273"/>
+      <c r="AD1" s="273"/>
+      <c r="AE1" s="273"/>
+      <c r="AF1" s="273"/>
+      <c r="AG1" s="273"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="273"/>
+      <c r="AL1" s="273"/>
+      <c r="AM1" s="273"/>
+      <c r="AN1" s="273"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:47" s="63" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -23676,13 +23915,13 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="267" t="s">
+      <c r="S2" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="267"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="267"/>
-      <c r="W2" s="267"/>
+      <c r="T2" s="263"/>
+      <c r="U2" s="263"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="263"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
@@ -23760,7 +23999,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="17"/>
-      <c r="AQ3" s="251"/>
+      <c r="AQ3" s="247"/>
       <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
@@ -23792,7 +24031,7 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="251"/>
+      <c r="AQ4" s="247"/>
     </row>
     <row r="5" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -23809,19 +24048,19 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">Games!L5</f>
-        <v>106</v>
-      </c>
-      <c r="F5" s="241" t="str">
+        <v>117</v>
+      </c>
+      <c r="F5" s="242" t="str">
         <f ca="1">Games!O5</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="G5" s="246" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="G5" s="235" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(F5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="288">
+      <c r="H5" s="274">
         <f ca="1">Games!L38</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -23839,21 +24078,21 @@
       <c r="AA5" s="25"/>
       <c r="AD5" s="25"/>
       <c r="AG5" s="25"/>
-      <c r="AH5" s="252">
+      <c r="AH5" s="237">
         <f ca="1">Games!L46</f>
-        <v>91</v>
-      </c>
-      <c r="AI5" s="239" t="e" vm="97">
+        <v>101</v>
+      </c>
+      <c r="AI5" s="233" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AJ5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="241" t="str">
+      <c r="AJ5" s="242" t="str">
         <f ca="1">Games!O21</f>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="AK5" s="58">
         <f ca="1">Games!L21</f>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AL5" s="46" t="e" vm="97">
         <f>_xlfn.XLOOKUP(AM5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23867,14 +24106,14 @@
         <v>1</v>
       </c>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="251"/>
+      <c r="AQ5" s="247"/>
       <c r="AU5" s="2" t="b">
         <f>IF(AP29="x",TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="245">
+      <c r="A6" s="241">
         <f>IF($AU$5=TRUE,1,"")</f>
         <v>1</v>
       </c>
@@ -23882,9 +24121,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="71"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="253"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="238"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="L6" s="25"/>
@@ -23901,20 +24140,20 @@
       <c r="AA6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AG6" s="25"/>
-      <c r="AH6" s="253"/>
-      <c r="AI6" s="240"/>
-      <c r="AJ6" s="242"/>
+      <c r="AH6" s="238"/>
+      <c r="AI6" s="234"/>
+      <c r="AJ6" s="243"/>
       <c r="AK6" s="55"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="28"/>
-      <c r="AO6" s="254">
+      <c r="AO6" s="248">
         <f>IF($AU$5=TRUE,A66+1,"")</f>
         <v>17</v>
       </c>
-      <c r="AQ6" s="251"/>
+      <c r="AQ6" s="247"/>
     </row>
     <row r="7" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="245"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="27">
         <v>16</v>
       </c>
@@ -23928,25 +24167,25 @@
       </c>
       <c r="E7" s="48">
         <f ca="1">Games!N5</f>
-        <v>92</v>
-      </c>
-      <c r="F7" s="255">
+        <v>117</v>
+      </c>
+      <c r="F7" s="249">
         <f>IF($AU$5=TRUE,AO66+1,"")</f>
         <v>33</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="258" t="str">
+      <c r="I7" s="252" t="str">
         <f ca="1">Games!O38</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="J7" s="246" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="J7" s="235" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="252">
+      <c r="K7" s="237">
         <f ca="1">Games!L55</f>
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -23961,27 +24200,27 @@
       <c r="X7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="252">
+      <c r="AE7" s="237">
         <f ca="1">Games!L59</f>
-        <v>105</v>
-      </c>
-      <c r="AF7" s="239" t="e" vm="100">
+        <v>99</v>
+      </c>
+      <c r="AF7" s="233" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AG7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG7" s="241" t="str">
+      <c r="AG7" s="242" t="str">
         <f ca="1">Games!O46</f>
-        <v>Cal Poly</v>
+        <v>Buffalo</v>
       </c>
       <c r="AH7" s="55"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="255">
+      <c r="AJ7" s="249">
         <f>IF($AU$5=TRUE,F63+1,"")</f>
         <v>41</v>
       </c>
       <c r="AK7" s="59">
         <f ca="1">Games!N21</f>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="AL7" s="46" t="e" vm="98">
         <f>_xlfn.XLOOKUP(AM7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23994,20 +24233,20 @@
       <c r="AN7" s="27">
         <v>16</v>
       </c>
-      <c r="AO7" s="254"/>
-      <c r="AQ7" s="251"/>
+      <c r="AO7" s="248"/>
+      <c r="AQ7" s="247"/>
     </row>
     <row r="8" spans="1:47" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="71"/>
-      <c r="F8" s="245"/>
+      <c r="F8" s="241"/>
       <c r="G8" s="15"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="253"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="238"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="O8" s="25"/>
@@ -24021,15 +24260,15 @@
       <c r="X8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="253"/>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="242"/>
+      <c r="AE8" s="238"/>
+      <c r="AF8" s="234"/>
+      <c r="AG8" s="243"/>
       <c r="AH8" s="56"/>
-      <c r="AJ8" s="245"/>
+      <c r="AJ8" s="241"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="17"/>
-      <c r="AQ8" s="251"/>
+      <c r="AQ8" s="247"/>
     </row>
     <row r="9" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
@@ -24046,19 +24285,19 @@
       </c>
       <c r="E9" s="46">
         <f ca="1">Games!L6</f>
-        <v>94</v>
-      </c>
-      <c r="F9" s="241" t="str">
+        <v>110</v>
+      </c>
+      <c r="F9" s="242" t="str">
         <f ca="1">Games!O6</f>
         <v>Alabama</v>
       </c>
-      <c r="G9" s="246" t="e" vm="68">
+      <c r="G9" s="235" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(F9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="249">
+      <c r="H9" s="245">
         <f ca="1">Games!N38</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -24078,21 +24317,21 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="55"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="243">
+      <c r="AH9" s="239">
         <f ca="1">Games!N46</f>
-        <v>95</v>
-      </c>
-      <c r="AI9" s="239" t="e" vm="100">
+        <v>91</v>
+      </c>
+      <c r="AI9" s="233" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(AJ9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ9" s="241" t="str">
+      <c r="AJ9" s="242" t="str">
         <f ca="1">Games!O22</f>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="AK9" s="58">
         <f ca="1">Games!L22</f>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AL9" s="46" t="e" vm="99">
         <f>_xlfn.XLOOKUP(AM9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24106,10 +24345,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="17"/>
-      <c r="AQ9" s="251"/>
+      <c r="AQ9" s="247"/>
     </row>
     <row r="10" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="266">
+      <c r="A10" s="262">
         <f>IF($AU$5=TRUE,A6+1,"")</f>
         <v>2</v>
       </c>
@@ -24117,9 +24356,9 @@
       <c r="C10" s="38"/>
       <c r="D10" s="71"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="250"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="246"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="50"/>
@@ -24138,20 +24377,20 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="56"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="244"/>
-      <c r="AI10" s="240"/>
-      <c r="AJ10" s="242"/>
+      <c r="AH10" s="240"/>
+      <c r="AI10" s="234"/>
+      <c r="AJ10" s="243"/>
       <c r="AK10" s="55"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="28"/>
-      <c r="AO10" s="254">
+      <c r="AO10" s="248">
         <f>IF($AU$5=TRUE,AO6+1,"")</f>
         <v>18</v>
       </c>
-      <c r="AQ10" s="251"/>
+      <c r="AQ10" s="247"/>
     </row>
     <row r="11" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="266"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -24165,62 +24404,62 @@
       </c>
       <c r="E11" s="48">
         <f ca="1">Games!N6</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="245">
+      <c r="I11" s="241">
         <f>IF($AU$5=TRUE,AJ63+1,"")</f>
         <v>49</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="258" t="str">
+      <c r="L11" s="252" t="str">
         <f ca="1">Games!O55</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="M11" s="246" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="M11" s="235" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(L11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="252">
+      <c r="N11" s="237">
         <f ca="1">Games!L64</f>
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="277" t="e" vm="78">
+      <c r="T11" s="275" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(S32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="278"/>
-      <c r="V11" s="279"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="277"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="252">
+      <c r="AB11" s="237">
         <f ca="1">Games!L66</f>
-        <v>100</v>
-      </c>
-      <c r="AC11" s="237" t="e" vm="104">
+        <v>113</v>
+      </c>
+      <c r="AC11" s="231" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AD11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="241" t="str">
+      <c r="AD11" s="242" t="str">
         <f ca="1">Games!O59</f>
-        <v>California</v>
+        <v>Buffalo</v>
       </c>
       <c r="AE11" s="56"/>
-      <c r="AG11" s="245">
+      <c r="AG11" s="241">
         <f>IF($AU$5=TRUE,I59+1,"")</f>
         <v>53</v>
       </c>
       <c r="AJ11" s="24"/>
       <c r="AK11" s="59">
         <f ca="1">Games!N22</f>
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AL11" s="46" t="e" vm="100">
         <f>_xlfn.XLOOKUP(AM11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24233,8 +24472,8 @@
       <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="254"/>
-      <c r="AQ11" s="251"/>
+      <c r="AO11" s="248"/>
+      <c r="AQ11" s="247"/>
     </row>
     <row r="12" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -24243,27 +24482,27 @@
       <c r="D12" s="71"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="245"/>
+      <c r="I12" s="241"/>
       <c r="J12" s="15"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="238"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="280"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="281"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="279"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="253"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="242"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="232"/>
+      <c r="AD12" s="243"/>
       <c r="AE12" s="56"/>
-      <c r="AG12" s="245"/>
+      <c r="AG12" s="241"/>
       <c r="AJ12" s="24"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="28"/>
@@ -24284,19 +24523,19 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">Games!L7</f>
-        <v>101</v>
-      </c>
-      <c r="F13" s="241" t="str">
+        <v>106</v>
+      </c>
+      <c r="F13" s="242" t="str">
         <f ca="1">Games!O7</f>
-        <v>Alabama State</v>
-      </c>
-      <c r="G13" s="246" t="e" vm="70">
+        <v>Alabama A&amp;M</v>
+      </c>
+      <c r="G13" s="235" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(F13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="252">
+      <c r="H13" s="237">
         <f ca="1">Games!L39</f>
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -24308,9 +24547,9 @@
       <c r="P13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="280"/>
-      <c r="U13" s="276"/>
-      <c r="V13" s="281"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="279"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="AA13" s="25"/>
@@ -24318,21 +24557,21 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="56"/>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="252">
+      <c r="AH13" s="237">
         <f ca="1">Games!L47</f>
-        <v>100</v>
-      </c>
-      <c r="AI13" s="237" t="e" vm="102">
+        <v>120</v>
+      </c>
+      <c r="AI13" s="231" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AJ13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ13" s="241" t="str">
+      <c r="AJ13" s="242" t="str">
         <f ca="1">Games!O23</f>
         <v>Cal State Fullerton</v>
       </c>
       <c r="AK13" s="58">
         <f ca="1">Games!L23</f>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AL13" s="46" t="e" vm="101">
         <f>_xlfn.XLOOKUP(AM13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24349,7 +24588,7 @@
       <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="245">
+      <c r="A14" s="241">
         <f>IF($AU$5=TRUE,A10+1,"")</f>
         <v>3</v>
       </c>
@@ -24357,9 +24596,9 @@
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="253"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="238"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="50"/>
@@ -24370,9 +24609,9 @@
       <c r="P14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="280"/>
-      <c r="U14" s="276"/>
-      <c r="V14" s="281"/>
+      <c r="T14" s="278"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="279"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="AA14" s="25"/>
@@ -24380,20 +24619,20 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="56"/>
       <c r="AG14" s="24"/>
-      <c r="AH14" s="253"/>
-      <c r="AI14" s="238"/>
-      <c r="AJ14" s="242"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="232"/>
+      <c r="AJ14" s="243"/>
       <c r="AK14" s="55"/>
       <c r="AM14" s="39"/>
       <c r="AN14" s="28"/>
-      <c r="AO14" s="254">
+      <c r="AO14" s="248">
         <f>IF($AU$5=TRUE,AO10+1,"")</f>
         <v>19</v>
       </c>
-      <c r="AQ14" s="251"/>
+      <c r="AQ14" s="247"/>
     </row>
     <row r="15" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="245"/>
+      <c r="A15" s="241"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -24407,25 +24646,25 @@
       </c>
       <c r="E15" s="48">
         <f ca="1">Games!N7</f>
-        <v>112</v>
-      </c>
-      <c r="F15" s="255">
+        <v>98</v>
+      </c>
+      <c r="F15" s="249">
         <f>IF($AU$5=TRUE,F7+1,"")</f>
         <v>34</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="258" t="str">
+      <c r="I15" s="252" t="str">
         <f ca="1">Games!O39</f>
-        <v>Alabama State</v>
-      </c>
-      <c r="J15" s="246" t="e" vm="70">
+        <v>Alabama A&amp;M</v>
+      </c>
+      <c r="J15" s="235" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="249">
+      <c r="K15" s="245">
         <f ca="1">Games!N55</f>
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -24434,35 +24673,35 @@
       <c r="P15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="280"/>
-      <c r="U15" s="276"/>
-      <c r="V15" s="281"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="270"/>
+      <c r="V15" s="279"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="56"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="243">
+      <c r="AE15" s="239">
         <f ca="1">Games!N59</f>
-        <v>114</v>
-      </c>
-      <c r="AF15" s="237" t="e" vm="104">
+        <v>94</v>
+      </c>
+      <c r="AF15" s="231" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AG15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG15" s="241" t="str">
+      <c r="AG15" s="242" t="str">
         <f ca="1">Games!O47</f>
-        <v>California</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="51"/>
-      <c r="AJ15" s="255">
+      <c r="AJ15" s="249">
         <f>IF($AU$5=TRUE,AJ7+1,"")</f>
         <v>42</v>
       </c>
       <c r="AK15" s="59">
         <f ca="1">Games!N23</f>
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AL15" s="46" t="e" vm="102">
         <f>_xlfn.XLOOKUP(AM15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24475,20 +24714,20 @@
       <c r="AN15" s="27">
         <v>12</v>
       </c>
-      <c r="AO15" s="254"/>
-      <c r="AQ15" s="251"/>
+      <c r="AO15" s="248"/>
+      <c r="AQ15" s="247"/>
     </row>
     <row r="16" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="28"/>
       <c r="C16" s="38"/>
       <c r="D16" s="71"/>
-      <c r="F16" s="245"/>
+      <c r="F16" s="241"/>
       <c r="G16" s="15"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="247"/>
-      <c r="K16" s="250"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="246"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="50"/>
@@ -24496,23 +24735,23 @@
       <c r="P16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="280"/>
-      <c r="U16" s="276"/>
-      <c r="V16" s="281"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="270"/>
+      <c r="V16" s="279"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="56"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="238"/>
-      <c r="AG16" s="242"/>
+      <c r="AE16" s="240"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="243"/>
       <c r="AH16" s="56"/>
-      <c r="AJ16" s="245"/>
+      <c r="AJ16" s="241"/>
       <c r="AM16" s="39"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="17"/>
-      <c r="AQ16" s="251"/>
+      <c r="AQ16" s="247"/>
     </row>
     <row r="17" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -24529,19 +24768,19 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">Games!L8</f>
-        <v>115</v>
-      </c>
-      <c r="F17" s="241" t="str">
+        <v>106</v>
+      </c>
+      <c r="F17" s="242" t="str">
         <f ca="1">Games!O8</f>
-        <v>Albany (NY)</v>
-      </c>
-      <c r="G17" s="246" t="e" vm="71">
+        <v>Alcorn State</v>
+      </c>
+      <c r="G17" s="235" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(F17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="249">
+      <c r="H17" s="245">
         <f ca="1">Games!N39</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -24552,30 +24791,30 @@
       <c r="P17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="276"/>
-      <c r="V17" s="281"/>
+      <c r="T17" s="278"/>
+      <c r="U17" s="270"/>
+      <c r="V17" s="279"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="56"/>
       <c r="AD17" s="25"/>
       <c r="AG17" s="24"/>
-      <c r="AH17" s="243">
+      <c r="AH17" s="239">
         <f ca="1">Games!N47</f>
-        <v>113</v>
-      </c>
-      <c r="AI17" s="237" t="e" vm="104">
+        <v>109</v>
+      </c>
+      <c r="AI17" s="231" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AJ17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ17" s="241" t="str">
+      <c r="AJ17" s="242" t="str">
         <f ca="1">Games!O24</f>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="AK17" s="58">
         <f ca="1">Games!L24</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AL17" s="46" t="e" vm="103">
         <f>_xlfn.XLOOKUP(AM17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24589,10 +24828,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="17"/>
-      <c r="AQ17" s="251"/>
+      <c r="AQ17" s="247"/>
     </row>
     <row r="18" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="245">
+      <c r="A18" s="241">
         <f>IF($AU$5=TRUE,A14+1,"")</f>
         <v>4</v>
       </c>
@@ -24600,9 +24839,9 @@
       <c r="C18" s="38"/>
       <c r="D18" s="71"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="250"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="246"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="L18" s="25"/>
@@ -24612,29 +24851,29 @@
       <c r="P18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="280"/>
-      <c r="U18" s="276"/>
-      <c r="V18" s="281"/>
+      <c r="T18" s="278"/>
+      <c r="U18" s="270"/>
+      <c r="V18" s="279"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="56"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="244"/>
-      <c r="AI18" s="238"/>
-      <c r="AJ18" s="242"/>
+      <c r="AH18" s="240"/>
+      <c r="AI18" s="232"/>
+      <c r="AJ18" s="243"/>
       <c r="AK18" s="55"/>
       <c r="AM18" s="39"/>
       <c r="AN18" s="28"/>
-      <c r="AO18" s="254">
+      <c r="AO18" s="248">
         <f>IF($AU$5=TRUE,AO14+1,"")</f>
         <v>20</v>
       </c>
-      <c r="AQ18" s="251"/>
+      <c r="AQ18" s="247"/>
     </row>
     <row r="19" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="245"/>
+      <c r="A19" s="241"/>
       <c r="B19" s="27">
         <v>13</v>
       </c>
@@ -24648,60 +24887,60 @@
       </c>
       <c r="E19" s="48">
         <f ca="1">Games!N8</f>
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="248" t="s">
+      <c r="K19" s="244" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="248"/>
+      <c r="L19" s="244"/>
       <c r="M19" s="20"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="258" t="str">
+      <c r="O19" s="252" t="str">
         <f ca="1">Games!O64</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P19" s="246" t="e" vm="78">
+        <v>Air Force</v>
+      </c>
+      <c r="P19" s="235" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="252">
+      <c r="Q19" s="237">
         <f ca="1">Games!L69</f>
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="282"/>
-      <c r="U19" s="283"/>
-      <c r="V19" s="284"/>
+      <c r="T19" s="280"/>
+      <c r="U19" s="281"/>
+      <c r="V19" s="282"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="252">
+      <c r="Y19" s="237">
         <f ca="1">Games!L70</f>
-        <v>106</v>
-      </c>
-      <c r="Z19" s="237" t="e" vm="112">
+        <v>99</v>
+      </c>
+      <c r="Z19" s="231" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AA19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA19" s="241" t="str">
+      <c r="AA19" s="242" t="str">
         <f ca="1">Games!O66</f>
-        <v>Charlotte</v>
+        <v>Buffalo</v>
       </c>
       <c r="AB19" s="56"/>
-      <c r="AD19" s="248" t="s">
+      <c r="AD19" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="248"/>
+      <c r="AE19" s="244"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="59">
         <f ca="1">Games!N24</f>
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="AL19" s="46" t="e" vm="104">
         <f>_xlfn.XLOOKUP(AM19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24714,8 +24953,8 @@
       <c r="AN19" s="27">
         <v>13</v>
       </c>
-      <c r="AO19" s="254"/>
-      <c r="AQ19" s="251"/>
+      <c r="AO19" s="248"/>
+      <c r="AQ19" s="247"/>
     </row>
     <row r="20" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
@@ -24726,13 +24965,13 @@
       <c r="G20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="248"/>
-      <c r="L20" s="248"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="244"/>
       <c r="M20" s="20"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="247"/>
-      <c r="Q20" s="253"/>
+      <c r="O20" s="253"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="238"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -24740,12 +24979,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="253"/>
-      <c r="Z20" s="238"/>
-      <c r="AA20" s="242"/>
+      <c r="Y20" s="238"/>
+      <c r="Z20" s="232"/>
+      <c r="AA20" s="243"/>
       <c r="AB20" s="56"/>
-      <c r="AD20" s="248"/>
-      <c r="AE20" s="248"/>
+      <c r="AD20" s="244"/>
+      <c r="AE20" s="244"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="24"/>
       <c r="AJ20" s="24"/>
@@ -24755,7 +24994,7 @@
       <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="245">
+      <c r="A21" s="241">
         <f>IF($AU$5=TRUE,A18+1,"")</f>
         <v>5</v>
       </c>
@@ -24772,19 +25011,19 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">Games!L9</f>
-        <v>102</v>
-      </c>
-      <c r="F21" s="241" t="str">
+        <v>106</v>
+      </c>
+      <c r="F21" s="242" t="str">
         <f ca="1">Games!O9</f>
         <v>American</v>
       </c>
-      <c r="G21" s="246" t="e" vm="73">
+      <c r="G21" s="235" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(F21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="252">
+      <c r="H21" s="237">
         <f ca="1">Games!L40</f>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -24812,21 +25051,21 @@
         <v>59</v>
       </c>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="252">
+      <c r="AH21" s="237">
         <f ca="1">Games!L48</f>
-        <v>108</v>
-      </c>
-      <c r="AI21" s="237" t="e" vm="105">
+        <v>107</v>
+      </c>
+      <c r="AI21" s="231" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AJ21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ21" s="241" t="str">
+      <c r="AJ21" s="242" t="str">
         <f ca="1">Games!O25</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="AK21" s="58">
         <f ca="1">Games!L25</f>
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AL21" s="46" t="e" vm="105">
         <f>_xlfn.XLOOKUP(AM21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24843,14 +25082,14 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="245"/>
+      <c r="A22" s="241"/>
       <c r="B22" s="28"/>
       <c r="C22" s="38"/>
       <c r="D22" s="71"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="253"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="238"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="L22" s="25"/>
@@ -24871,17 +25110,17 @@
       <c r="AB22" s="56"/>
       <c r="AD22" s="29"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="253"/>
-      <c r="AI22" s="238"/>
-      <c r="AJ22" s="242"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="232"/>
+      <c r="AJ22" s="243"/>
       <c r="AK22" s="55"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="28"/>
-      <c r="AO22" s="254">
+      <c r="AO22" s="248">
         <f>IF($AU$5=TRUE,AO18+1,"")</f>
         <v>21</v>
       </c>
-      <c r="AQ22" s="251"/>
+      <c r="AQ22" s="247"/>
     </row>
     <row r="23" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
@@ -24898,25 +25137,25 @@
       </c>
       <c r="E23" s="48">
         <f ca="1">Games!N9</f>
-        <v>94</v>
-      </c>
-      <c r="F23" s="255">
+        <v>93</v>
+      </c>
+      <c r="F23" s="249">
         <f>IF($AU$5=TRUE,F15+1,"")</f>
         <v>35</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="258" t="str">
+      <c r="I23" s="252" t="str">
         <f ca="1">Games!O40</f>
-        <v>Arizona State</v>
-      </c>
-      <c r="J23" s="246" t="e" vm="76">
+        <v>American</v>
+      </c>
+      <c r="J23" s="235" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="252">
+      <c r="K23" s="237">
         <f ca="1">Games!L56</f>
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -24935,27 +25174,27 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="56"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="252">
+      <c r="AE23" s="237">
         <f ca="1">Games!L60</f>
-        <v>92</v>
-      </c>
-      <c r="AF23" s="237" t="e" vm="105">
+        <v>101</v>
+      </c>
+      <c r="AF23" s="231" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AG23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG23" s="241" t="str">
+      <c r="AG23" s="242" t="str">
         <f ca="1">Games!O48</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="51"/>
-      <c r="AJ23" s="255">
+      <c r="AJ23" s="249">
         <f>IF($AU$5=TRUE,AJ15+1,"")</f>
         <v>43</v>
       </c>
       <c r="AK23" s="59">
         <f ca="1">Games!N25</f>
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AL23" s="46" t="e" vm="106">
         <f>_xlfn.XLOOKUP(AM23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24968,20 +25207,20 @@
       <c r="AN23" s="27">
         <v>11</v>
       </c>
-      <c r="AO23" s="254"/>
-      <c r="AQ23" s="251"/>
+      <c r="AO23" s="248"/>
+      <c r="AQ23" s="247"/>
     </row>
     <row r="24" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="28"/>
       <c r="C24" s="38"/>
       <c r="D24" s="71"/>
-      <c r="F24" s="245"/>
+      <c r="F24" s="241"/>
       <c r="G24" s="15"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="247"/>
-      <c r="K24" s="253"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="236"/>
+      <c r="K24" s="238"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="50"/>
@@ -24999,15 +25238,15 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="56"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="253"/>
-      <c r="AF24" s="238"/>
-      <c r="AG24" s="242"/>
+      <c r="AE24" s="238"/>
+      <c r="AF24" s="232"/>
+      <c r="AG24" s="243"/>
       <c r="AH24" s="56"/>
-      <c r="AJ24" s="245"/>
+      <c r="AJ24" s="241"/>
       <c r="AM24" s="39"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="17"/>
-      <c r="AQ24" s="251"/>
+      <c r="AQ24" s="247"/>
     </row>
     <row r="25" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -25024,19 +25263,19 @@
       </c>
       <c r="E25" s="46">
         <f ca="1">Games!L10</f>
-        <v>92</v>
-      </c>
-      <c r="F25" s="241" t="str">
+        <v>100</v>
+      </c>
+      <c r="F25" s="242" t="str">
         <f ca="1">Games!O10</f>
         <v>Arizona State</v>
       </c>
-      <c r="G25" s="246" t="e" vm="76">
+      <c r="G25" s="235" t="e" vm="76">
         <f ca="1">_xlfn.XLOOKUP(F25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="249">
+      <c r="H25" s="245">
         <f ca="1">Games!N40</f>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -25060,21 +25299,21 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="55"/>
       <c r="AG25" s="24"/>
-      <c r="AH25" s="243">
+      <c r="AH25" s="239">
         <f ca="1">Games!N48</f>
-        <v>93</v>
-      </c>
-      <c r="AI25" s="237" t="e" vm="108">
+        <v>98</v>
+      </c>
+      <c r="AI25" s="231" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AJ25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ25" s="241" t="str">
+      <c r="AJ25" s="242" t="str">
         <f ca="1">Games!O26</f>
         <v>Central Arkansas</v>
       </c>
       <c r="AK25" s="58">
         <f ca="1">Games!L26</f>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AL25" s="46" t="e" vm="107">
         <f>_xlfn.XLOOKUP(AM25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25088,10 +25327,10 @@
         <v>3</v>
       </c>
       <c r="AO25" s="17"/>
-      <c r="AQ25" s="251"/>
+      <c r="AQ25" s="247"/>
     </row>
     <row r="26" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="245">
+      <c r="A26" s="241">
         <f>IF($AU$5=TRUE,A21+1,"")</f>
         <v>6</v>
       </c>
@@ -25099,9 +25338,9 @@
       <c r="C26" s="38"/>
       <c r="D26" s="71"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="250"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="246"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="50"/>
@@ -25124,20 +25363,20 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="56"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="244"/>
-      <c r="AI26" s="238"/>
-      <c r="AJ26" s="242"/>
+      <c r="AH26" s="240"/>
+      <c r="AI26" s="232"/>
+      <c r="AJ26" s="243"/>
       <c r="AK26" s="55"/>
       <c r="AM26" s="39"/>
       <c r="AN26" s="28"/>
-      <c r="AO26" s="254">
+      <c r="AO26" s="248">
         <f>IF($AU$5=TRUE,AO22+1,"")</f>
         <v>22</v>
       </c>
-      <c r="AQ26" s="251"/>
+      <c r="AQ26" s="247"/>
     </row>
     <row r="27" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="245"/>
+      <c r="A27" s="241"/>
       <c r="B27" s="27">
         <v>14</v>
       </c>
@@ -25151,70 +25390,70 @@
       </c>
       <c r="E27" s="48">
         <f ca="1">Games!N10</f>
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" s="245">
+      <c r="I27" s="241">
         <f>IF($AU$5=TRUE,I11+1,"")</f>
         <v>50</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="258" t="str">
+      <c r="L27" s="252" t="str">
         <f ca="1">Games!O56</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="M27" s="246" t="e" vm="78">
+        <v>Army</v>
+      </c>
+      <c r="M27" s="235" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(L27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N27" s="249">
+      <c r="N27" s="245">
         <f ca="1">Games!N64</f>
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="258" t="str">
+      <c r="R27" s="252" t="str">
         <f ca="1">Games!O69</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="262" t="e" vm="78">
+        <v>Brown</v>
+      </c>
+      <c r="S27" s="242"/>
+      <c r="T27" s="242"/>
+      <c r="U27" s="256" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(R27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V27" s="268">
+      <c r="V27" s="260">
         <f ca="1">Games!L72</f>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="56"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="243">
+      <c r="AB27" s="239">
         <f ca="1">Games!N66</f>
-        <v>109</v>
-      </c>
-      <c r="AC27" s="237" t="e" vm="112">
+        <v>98</v>
+      </c>
+      <c r="AC27" s="231" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AD27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" s="241" t="str">
+      <c r="AD27" s="242" t="str">
         <f ca="1">Games!O60</f>
-        <v>Charlotte</v>
+        <v>Campbell</v>
       </c>
       <c r="AE27" s="56"/>
-      <c r="AG27" s="245">
+      <c r="AG27" s="241">
         <f>IF($AU$5=TRUE,AG11+1,"")</f>
         <v>54</v>
       </c>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="59">
         <f ca="1">Games!N26</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL27" s="46" t="e" vm="108">
         <f>_xlfn.XLOOKUP(AM27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25227,8 +25466,8 @@
       <c r="AN27" s="27">
         <v>14</v>
       </c>
-      <c r="AO27" s="254"/>
-      <c r="AQ27" s="251"/>
+      <c r="AO27" s="248"/>
+      <c r="AQ27" s="247"/>
     </row>
     <row r="28" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
@@ -25237,29 +25476,29 @@
       <c r="D28" s="71"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" s="245"/>
+      <c r="I28" s="241"/>
       <c r="J28" s="15"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="259"/>
-      <c r="M28" s="247"/>
-      <c r="N28" s="250"/>
+      <c r="L28" s="253"/>
+      <c r="M28" s="236"/>
+      <c r="N28" s="246"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="259"/>
-      <c r="S28" s="242"/>
-      <c r="T28" s="242"/>
-      <c r="U28" s="263"/>
-      <c r="V28" s="269"/>
+      <c r="R28" s="253"/>
+      <c r="S28" s="243"/>
+      <c r="T28" s="243"/>
+      <c r="U28" s="257"/>
+      <c r="V28" s="261"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="56"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="244"/>
-      <c r="AC28" s="238"/>
-      <c r="AD28" s="242"/>
+      <c r="AB28" s="240"/>
+      <c r="AC28" s="232"/>
+      <c r="AD28" s="243"/>
       <c r="AE28" s="56"/>
-      <c r="AG28" s="245"/>
+      <c r="AG28" s="241"/>
       <c r="AJ28" s="24"/>
       <c r="AM28" s="39"/>
       <c r="AN28" s="28"/>
@@ -25280,19 +25519,19 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">Games!L11</f>
-        <v>100</v>
-      </c>
-      <c r="F29" s="241" t="str">
+        <v>101</v>
+      </c>
+      <c r="F29" s="242" t="str">
         <f ca="1">Games!O11</f>
         <v>Arkansas State</v>
       </c>
-      <c r="G29" s="246" t="e" vm="78">
+      <c r="G29" s="235" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(F29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="252">
+      <c r="H29" s="237">
         <f ca="1">Games!L41</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -25314,21 +25553,21 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="56"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="252">
+      <c r="AH29" s="237">
         <f ca="1">Games!L49</f>
-        <v>91</v>
-      </c>
-      <c r="AI29" s="237" t="e" vm="109">
+        <v>110</v>
+      </c>
+      <c r="AI29" s="231" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(AJ29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ29" s="241" t="str">
+      <c r="AJ29" s="242" t="str">
         <f ca="1">Games!O27</f>
         <v>Central Connecticut State</v>
       </c>
       <c r="AK29" s="58">
         <f ca="1">Games!L27</f>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AL29" s="46" t="e" vm="109">
         <f>_xlfn.XLOOKUP(AM29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25350,7 +25589,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="245">
+      <c r="A30" s="241">
         <f>IF($AU$5=TRUE,A26+1,"")</f>
         <v>7</v>
       </c>
@@ -25358,9 +25597,9 @@
       <c r="C30" s="38"/>
       <c r="D30" s="71"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="253"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="238"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="50"/>
@@ -25381,19 +25620,19 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="56"/>
       <c r="AG30" s="24"/>
-      <c r="AH30" s="253"/>
-      <c r="AI30" s="238"/>
-      <c r="AJ30" s="242"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="232"/>
+      <c r="AJ30" s="243"/>
       <c r="AK30" s="55"/>
       <c r="AM30" s="39"/>
       <c r="AN30" s="28"/>
-      <c r="AO30" s="254">
+      <c r="AO30" s="248">
         <f>IF($AU$5=TRUE,AO26+1,"")</f>
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="245"/>
+      <c r="A31" s="241"/>
       <c r="B31" s="27">
         <v>10</v>
       </c>
@@ -25407,25 +25646,25 @@
       </c>
       <c r="E31" s="48">
         <f ca="1">Games!N11</f>
-        <v>105</v>
-      </c>
-      <c r="F31" s="255">
+        <v>110</v>
+      </c>
+      <c r="F31" s="249">
         <f>IF($AU$5=TRUE,F23+1,"")</f>
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="258" t="str">
+      <c r="I31" s="252" t="str">
         <f ca="1">Games!O41</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="J31" s="246" t="e" vm="78">
+        <v>Army</v>
+      </c>
+      <c r="J31" s="235" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="249">
+      <c r="K31" s="245">
         <f ca="1">Games!N56</f>
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -25433,38 +25672,38 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="276" t="s">
+      <c r="S31" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="276"/>
-      <c r="U31" s="276"/>
-      <c r="V31" s="276"/>
-      <c r="W31" s="276"/>
+      <c r="T31" s="270"/>
+      <c r="U31" s="270"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="270"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="56"/>
       <c r="AA31" s="25"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="243">
+      <c r="AE31" s="239">
         <f ca="1">Games!N60</f>
-        <v>94</v>
-      </c>
-      <c r="AF31" s="237" t="e" vm="112">
+        <v>92</v>
+      </c>
+      <c r="AF31" s="231" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(AG31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG31" s="241" t="str">
+      <c r="AG31" s="242" t="str">
         <f ca="1">Games!O49</f>
-        <v>Charlotte</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="51"/>
-      <c r="AJ31" s="255">
+      <c r="AJ31" s="249">
         <f>IF($AU$5=TRUE,AJ23+1,"")</f>
         <v>44</v>
       </c>
       <c r="AK31" s="59">
         <f ca="1">Games!N27</f>
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AL31" s="46" t="e" vm="110">
         <f>_xlfn.XLOOKUP(AM31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25477,42 +25716,42 @@
       <c r="AN31" s="27">
         <v>10</v>
       </c>
-      <c r="AO31" s="254"/>
+      <c r="AO31" s="248"/>
     </row>
     <row r="32" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="28"/>
       <c r="C32" s="38"/>
       <c r="D32" s="71"/>
-      <c r="F32" s="245"/>
+      <c r="F32" s="241"/>
       <c r="G32" s="15"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="247"/>
-      <c r="K32" s="250"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="246"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="30"/>
-      <c r="S32" s="270" t="str">
+      <c r="S32" s="264" t="str">
         <f ca="1">Games!O72</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="T32" s="271"/>
-      <c r="U32" s="271"/>
-      <c r="V32" s="271"/>
-      <c r="W32" s="272"/>
+        <v>Brown</v>
+      </c>
+      <c r="T32" s="265"/>
+      <c r="U32" s="265"/>
+      <c r="V32" s="265"/>
+      <c r="W32" s="266"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="56"/>
       <c r="AA32" s="25"/>
       <c r="AD32" s="25"/>
-      <c r="AE32" s="244"/>
-      <c r="AF32" s="238"/>
-      <c r="AG32" s="242"/>
+      <c r="AE32" s="240"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="243"/>
       <c r="AH32" s="56"/>
-      <c r="AJ32" s="245"/>
+      <c r="AJ32" s="241"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="17"/>
@@ -25532,19 +25771,19 @@
       </c>
       <c r="E33" s="46">
         <f ca="1">Games!L12</f>
-        <v>119</v>
-      </c>
-      <c r="F33" s="241" t="str">
+        <v>94</v>
+      </c>
+      <c r="F33" s="242" t="str">
         <f ca="1">Games!O12</f>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="G33" s="246" t="e" vm="79">
+        <v>Army</v>
+      </c>
+      <c r="G33" s="235" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(F33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="249">
+      <c r="H33" s="245">
         <f ca="1">Games!N41</f>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -25554,31 +25793,31 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="30"/>
-      <c r="S33" s="273"/>
-      <c r="T33" s="274"/>
-      <c r="U33" s="274"/>
-      <c r="V33" s="274"/>
-      <c r="W33" s="275"/>
+      <c r="S33" s="267"/>
+      <c r="T33" s="268"/>
+      <c r="U33" s="268"/>
+      <c r="V33" s="268"/>
+      <c r="W33" s="269"/>
       <c r="X33" s="31"/>
       <c r="Y33" s="56"/>
       <c r="AA33" s="25"/>
       <c r="AD33" s="25"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="243">
+      <c r="AH33" s="239">
         <f ca="1">Games!N49</f>
-        <v>92</v>
-      </c>
-      <c r="AI33" s="237" t="e" vm="112">
+        <v>100</v>
+      </c>
+      <c r="AI33" s="231" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(AJ33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ33" s="241" t="str">
+      <c r="AJ33" s="242" t="str">
         <f ca="1">Games!O28</f>
         <v>Charlotte</v>
       </c>
       <c r="AK33" s="58">
         <f ca="1">Games!L28</f>
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AL33" s="46" t="e" vm="111">
         <f>_xlfn.XLOOKUP(AM33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25595,7 +25834,7 @@
       <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="245">
+      <c r="A34" s="241">
         <f>IF($AU$5=TRUE,A30+1,"")</f>
         <v>8</v>
       </c>
@@ -25603,9 +25842,9 @@
       <c r="C34" s="38"/>
       <c r="D34" s="71"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="250"/>
+      <c r="F34" s="243"/>
+      <c r="G34" s="236"/>
+      <c r="H34" s="246"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="L34" s="25"/>
@@ -25624,20 +25863,20 @@
       <c r="AA34" s="25"/>
       <c r="AD34" s="25"/>
       <c r="AG34" s="24"/>
-      <c r="AH34" s="244"/>
-      <c r="AI34" s="238"/>
-      <c r="AJ34" s="242"/>
+      <c r="AH34" s="240"/>
+      <c r="AI34" s="232"/>
+      <c r="AJ34" s="243"/>
       <c r="AK34" s="55"/>
       <c r="AM34" s="39"/>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="254">
+      <c r="AO34" s="248">
         <f>IF($AU$5=TRUE,AO30+1,"")</f>
         <v>24</v>
       </c>
-      <c r="AQ34" s="251"/>
+      <c r="AQ34" s="247"/>
     </row>
     <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="245"/>
+      <c r="A35" s="241"/>
       <c r="B35" s="27">
         <v>15</v>
       </c>
@@ -25651,7 +25890,7 @@
       </c>
       <c r="E35" s="48">
         <f ca="1">Games!N12</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -25667,12 +25906,12 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="245">
+      <c r="T35" s="241">
         <f>IF($AU$5=TRUE,AA35+1,"")</f>
         <v>63</v>
       </c>
-      <c r="U35" s="245"/>
-      <c r="V35" s="245"/>
+      <c r="U35" s="241"/>
+      <c r="V35" s="241"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="56"/>
@@ -25698,8 +25937,8 @@
       <c r="AN35" s="27">
         <v>15</v>
       </c>
-      <c r="AO35" s="254"/>
-      <c r="AQ35" s="251"/>
+      <c r="AO35" s="248"/>
+      <c r="AQ35" s="247"/>
     </row>
     <row r="36" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
@@ -25730,7 +25969,7 @@
       <c r="AM36" s="39"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="17"/>
-      <c r="AQ36" s="251"/>
+      <c r="AQ36" s="247"/>
     </row>
     <row r="37" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
@@ -25747,19 +25986,19 @@
       </c>
       <c r="E37" s="46">
         <f ca="1">Games!L13</f>
-        <v>108</v>
-      </c>
-      <c r="F37" s="241" t="str">
+        <v>118</v>
+      </c>
+      <c r="F37" s="242" t="str">
         <f ca="1">Games!O13</f>
         <v>Auburn</v>
       </c>
-      <c r="G37" s="246" t="e" vm="81">
+      <c r="G37" s="235" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(F37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="252">
+      <c r="H37" s="237">
         <f ca="1">Games!L42</f>
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -25779,21 +26018,21 @@
       <c r="AA37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AG37" s="24"/>
-      <c r="AH37" s="252">
+      <c r="AH37" s="237">
         <f ca="1">Games!L50</f>
-        <v>103</v>
-      </c>
-      <c r="AI37" s="237" t="e" vm="113">
+        <v>117</v>
+      </c>
+      <c r="AI37" s="231" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(AJ37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ37" s="241" t="str">
+      <c r="AJ37" s="242" t="str">
         <f ca="1">Games!O29</f>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="AK37" s="58">
         <f ca="1">Games!L29</f>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="46" t="e" vm="113">
         <f>_xlfn.XLOOKUP(AM37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25807,10 +26046,10 @@
         <v>1</v>
       </c>
       <c r="AO37" s="17"/>
-      <c r="AQ37" s="251"/>
+      <c r="AQ37" s="247"/>
     </row>
     <row r="38" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="245">
+      <c r="A38" s="241">
         <f>IF($AU$5=TRUE,A34+1,"")</f>
         <v>9</v>
       </c>
@@ -25818,9 +26057,9 @@
       <c r="C38" s="38"/>
       <c r="D38" s="71"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="253"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="236"/>
+      <c r="H38" s="238"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -25839,19 +26078,19 @@
       <c r="AA38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AG38" s="24"/>
-      <c r="AH38" s="253"/>
-      <c r="AI38" s="238"/>
-      <c r="AJ38" s="242"/>
+      <c r="AH38" s="238"/>
+      <c r="AI38" s="232"/>
+      <c r="AJ38" s="243"/>
       <c r="AK38" s="55"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="254">
+      <c r="AO38" s="248">
         <f>IF($AU$5=TRUE,AO34+1,"")</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="245"/>
+      <c r="A39" s="241"/>
       <c r="B39" s="27">
         <v>16</v>
       </c>
@@ -25865,25 +26104,25 @@
       </c>
       <c r="E39" s="48">
         <f ca="1">Games!N13</f>
-        <v>102</v>
-      </c>
-      <c r="F39" s="255">
+        <v>104</v>
+      </c>
+      <c r="F39" s="249">
         <f>IF($AU$5=TRUE,F31+1,"")</f>
         <v>37</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="258" t="str">
+      <c r="I39" s="252" t="str">
         <f ca="1">Games!O42</f>
-        <v>Auburn</v>
-      </c>
-      <c r="J39" s="246" t="e" vm="81">
+        <v>Baylor</v>
+      </c>
+      <c r="J39" s="235" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="252">
+      <c r="K39" s="237">
         <f ca="1">Games!L57</f>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -25892,44 +26131,44 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="268">
+      <c r="T39" s="260">
         <f ca="1">Games!N72</f>
-        <v>93</v>
-      </c>
-      <c r="U39" s="260" t="e" vm="119">
+        <v>98</v>
+      </c>
+      <c r="U39" s="254" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(V39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="241" t="str">
+      <c r="V39" s="242" t="str">
         <f ca="1">Games!O70</f>
-        <v>Colgate</v>
-      </c>
-      <c r="W39" s="241"/>
-      <c r="X39" s="264"/>
+        <v>Colorado State</v>
+      </c>
+      <c r="W39" s="242"/>
+      <c r="X39" s="258"/>
       <c r="Y39" s="56"/>
       <c r="AA39" s="25"/>
       <c r="AD39" s="25"/>
-      <c r="AE39" s="243">
+      <c r="AE39" s="239">
         <f ca="1">Games!L61</f>
-        <v>107</v>
-      </c>
-      <c r="AF39" s="237" t="e" vm="113">
+        <v>99</v>
+      </c>
+      <c r="AF39" s="231" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(AG39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG39" s="241" t="str">
+      <c r="AG39" s="242" t="str">
         <f ca="1">Games!O50</f>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="51"/>
-      <c r="AJ39" s="255">
+      <c r="AJ39" s="249">
         <f>IF($AU$5=TRUE,AJ31+1,"")</f>
         <v>45</v>
       </c>
       <c r="AK39" s="59">
         <f ca="1">Games!N29</f>
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AL39" s="46" t="e" vm="114">
         <f>_xlfn.XLOOKUP(AM39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25942,19 +26181,19 @@
       <c r="AN39" s="27">
         <v>16</v>
       </c>
-      <c r="AO39" s="254"/>
+      <c r="AO39" s="248"/>
     </row>
     <row r="40" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="71"/>
-      <c r="F40" s="245"/>
+      <c r="F40" s="241"/>
       <c r="G40" s="15"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="259"/>
-      <c r="J40" s="247"/>
-      <c r="K40" s="253"/>
+      <c r="I40" s="253"/>
+      <c r="J40" s="236"/>
+      <c r="K40" s="238"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="O40" s="25"/>
@@ -25962,19 +26201,19 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="269"/>
-      <c r="U40" s="261"/>
-      <c r="V40" s="242"/>
-      <c r="W40" s="242"/>
-      <c r="X40" s="265"/>
+      <c r="T40" s="261"/>
+      <c r="U40" s="255"/>
+      <c r="V40" s="243"/>
+      <c r="W40" s="243"/>
+      <c r="X40" s="259"/>
       <c r="Y40" s="56"/>
       <c r="AA40" s="25"/>
       <c r="AD40" s="25"/>
-      <c r="AE40" s="244"/>
-      <c r="AF40" s="238"/>
-      <c r="AG40" s="242"/>
+      <c r="AE40" s="240"/>
+      <c r="AF40" s="232"/>
+      <c r="AG40" s="243"/>
       <c r="AH40" s="56"/>
-      <c r="AJ40" s="245"/>
+      <c r="AJ40" s="241"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="28"/>
       <c r="AO40" s="17"/>
@@ -25994,19 +26233,19 @@
       </c>
       <c r="E41" s="46">
         <f ca="1">Games!L14</f>
-        <v>99</v>
-      </c>
-      <c r="F41" s="241" t="str">
+        <v>91</v>
+      </c>
+      <c r="F41" s="242" t="str">
         <f ca="1">Games!O14</f>
         <v>Baylor</v>
       </c>
-      <c r="G41" s="246" t="e" vm="84">
+      <c r="G41" s="235" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(F41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="249">
+      <c r="H41" s="245">
         <f ca="1">Games!N42</f>
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -26028,21 +26267,21 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="55"/>
       <c r="AG41" s="24"/>
-      <c r="AH41" s="243">
+      <c r="AH41" s="239">
         <f ca="1">Games!N50</f>
-        <v>100</v>
-      </c>
-      <c r="AI41" s="237" t="e" vm="115">
+        <v>105</v>
+      </c>
+      <c r="AI41" s="231" t="e" vm="116">
         <f ca="1">_xlfn.XLOOKUP(AJ41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ41" s="241" t="str">
+      <c r="AJ41" s="242" t="str">
         <f ca="1">Games!O30</f>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="AK41" s="58">
         <f ca="1">Games!L30</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL41" s="46" t="e" vm="115">
         <f>_xlfn.XLOOKUP(AM41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26058,7 +26297,7 @@
       <c r="AO41" s="17"/>
     </row>
     <row r="42" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="245">
+      <c r="A42" s="241">
         <f>IF($AU$5=TRUE,A38+1,"")</f>
         <v>10</v>
       </c>
@@ -26066,9 +26305,9 @@
       <c r="C42" s="38"/>
       <c r="D42" s="71"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="242"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="250"/>
+      <c r="F42" s="243"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="246"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="50"/>
@@ -26089,19 +26328,19 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="56"/>
       <c r="AG42" s="24"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="238"/>
-      <c r="AJ42" s="242"/>
+      <c r="AH42" s="240"/>
+      <c r="AI42" s="232"/>
+      <c r="AJ42" s="243"/>
       <c r="AK42" s="55"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="28"/>
-      <c r="AO42" s="254">
+      <c r="AO42" s="248">
         <f>IF($AU$5=TRUE,AO38+1,"")</f>
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="245"/>
+      <c r="A43" s="241"/>
       <c r="B43" s="27">
         <v>9</v>
       </c>
@@ -26115,27 +26354,27 @@
       </c>
       <c r="E43" s="48">
         <f ca="1">Games!N14</f>
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" s="245">
+      <c r="I43" s="241">
         <f>IF($AU$5=TRUE,I27+1,"")</f>
         <v>51</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="258" t="str">
+      <c r="L43" s="252" t="str">
         <f ca="1">Games!O57</f>
-        <v>Auburn</v>
-      </c>
-      <c r="M43" s="246" t="e" vm="81">
+        <v>Baylor</v>
+      </c>
+      <c r="M43" s="235" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(L43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="252">
+      <c r="N43" s="237">
         <f ca="1">Games!L65</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -26149,27 +26388,27 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="56"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="252">
+      <c r="AB43" s="237">
         <f ca="1">Games!L67</f>
-        <v>113</v>
-      </c>
-      <c r="AC43" s="237" t="e" vm="119">
+        <v>102</v>
+      </c>
+      <c r="AC43" s="231" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(AD43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD43" s="256" t="str">
+      <c r="AD43" s="250" t="str">
         <f ca="1">Games!O61</f>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="AE43" s="56"/>
-      <c r="AG43" s="245">
+      <c r="AG43" s="241">
         <f>IF($AU$5=TRUE,AG27+1,"")</f>
         <v>55</v>
       </c>
       <c r="AJ43" s="24"/>
       <c r="AK43" s="59">
         <f ca="1">Games!N30</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL43" s="46" t="e" vm="116">
         <f>_xlfn.XLOOKUP(AM43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26182,7 +26421,7 @@
       <c r="AN43" s="27">
         <v>9</v>
       </c>
-      <c r="AO43" s="254"/>
+      <c r="AO43" s="248"/>
     </row>
     <row r="44" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
@@ -26191,12 +26430,12 @@
       <c r="D44" s="71"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="I44" s="245"/>
+      <c r="I44" s="241"/>
       <c r="J44" s="15"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="259"/>
-      <c r="M44" s="247"/>
-      <c r="N44" s="253"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="236"/>
+      <c r="N44" s="238"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="50"/>
@@ -26209,11 +26448,11 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="56"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="253"/>
-      <c r="AC44" s="238"/>
-      <c r="AD44" s="257"/>
+      <c r="AB44" s="238"/>
+      <c r="AC44" s="232"/>
+      <c r="AD44" s="251"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="245"/>
+      <c r="AG44" s="241"/>
       <c r="AJ44" s="24"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="28"/>
@@ -26234,19 +26473,19 @@
       </c>
       <c r="E45" s="46">
         <f ca="1">Games!L15</f>
-        <v>103</v>
-      </c>
-      <c r="F45" s="241" t="str">
+        <v>99</v>
+      </c>
+      <c r="F45" s="242" t="str">
         <f ca="1">Games!O15</f>
-        <v>Bellarmine</v>
-      </c>
-      <c r="G45" s="246" t="e" vm="85">
+        <v>Belmont</v>
+      </c>
+      <c r="G45" s="235" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(F45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="252">
+      <c r="H45" s="237">
         <f ca="1">Games!L43</f>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -26270,21 +26509,21 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="56"/>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="252">
+      <c r="AH45" s="237">
         <f ca="1">Games!L51</f>
-        <v>97</v>
-      </c>
-      <c r="AI45" s="237" t="e" vm="117">
+        <v>103</v>
+      </c>
+      <c r="AI45" s="231" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(AJ45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ45" s="241" t="str">
+      <c r="AJ45" s="242" t="str">
         <f ca="1">Games!O31</f>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="AK45" s="58">
         <f ca="1">Games!L31</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL45" s="46" t="e" vm="117">
         <f>_xlfn.XLOOKUP(AM45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26300,7 +26539,7 @@
       <c r="AO45" s="17"/>
     </row>
     <row r="46" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="245">
+      <c r="A46" s="241">
         <f>IF($AU$5=TRUE,A42+1,"")</f>
         <v>11</v>
       </c>
@@ -26308,9 +26547,9 @@
       <c r="C46" s="38"/>
       <c r="D46" s="71"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="242"/>
-      <c r="G46" s="247"/>
-      <c r="H46" s="253"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="236"/>
+      <c r="H46" s="238"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="50"/>
@@ -26333,19 +26572,19 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="24"/>
-      <c r="AH46" s="253"/>
-      <c r="AI46" s="238"/>
-      <c r="AJ46" s="242"/>
+      <c r="AH46" s="238"/>
+      <c r="AI46" s="232"/>
+      <c r="AJ46" s="243"/>
       <c r="AK46" s="55"/>
       <c r="AM46" s="39"/>
       <c r="AN46" s="28"/>
-      <c r="AO46" s="254">
+      <c r="AO46" s="248">
         <f>IF($AU$5=TRUE,AO42+1,"")</f>
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="245"/>
+      <c r="A47" s="241"/>
       <c r="B47" s="27">
         <v>12</v>
       </c>
@@ -26359,25 +26598,25 @@
       </c>
       <c r="E47" s="48">
         <f ca="1">Games!N15</f>
-        <v>98</v>
-      </c>
-      <c r="F47" s="255">
+        <v>109</v>
+      </c>
+      <c r="F47" s="249">
         <f>IF($AU$5=TRUE,F39+1,"")</f>
         <v>38</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="258" t="str">
+      <c r="I47" s="252" t="str">
         <f ca="1">Games!O43</f>
-        <v>Bellarmine</v>
-      </c>
-      <c r="J47" s="246" t="e" vm="85">
+        <v>Binghamton</v>
+      </c>
+      <c r="J47" s="235" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="249">
+      <c r="K47" s="245">
         <f ca="1">Games!N57</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -26396,27 +26635,27 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="56"/>
       <c r="AD47" s="25"/>
-      <c r="AE47" s="243">
+      <c r="AE47" s="239">
         <f ca="1">Games!N61</f>
-        <v>110</v>
-      </c>
-      <c r="AF47" s="237" t="e" vm="119">
+        <v>99</v>
+      </c>
+      <c r="AF47" s="231" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(AG47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG47" s="241" t="str">
+      <c r="AG47" s="242" t="str">
         <f ca="1">Games!O51</f>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="51"/>
-      <c r="AJ47" s="255">
+      <c r="AJ47" s="249">
         <f>IF($AU$5=TRUE,AJ39+1,"")</f>
         <v>46</v>
       </c>
       <c r="AK47" s="59">
         <f ca="1">Games!N31</f>
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AL47" s="46" t="e" vm="118">
         <f>_xlfn.XLOOKUP(AM47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26429,19 +26668,19 @@
       <c r="AN47" s="27">
         <v>12</v>
       </c>
-      <c r="AO47" s="254"/>
+      <c r="AO47" s="248"/>
     </row>
     <row r="48" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="28"/>
       <c r="C48" s="38"/>
       <c r="D48" s="71"/>
-      <c r="F48" s="245"/>
+      <c r="F48" s="241"/>
       <c r="G48" s="15"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="259"/>
-      <c r="J48" s="247"/>
-      <c r="K48" s="250"/>
+      <c r="I48" s="253"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="246"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="50"/>
@@ -26459,11 +26698,11 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="56"/>
       <c r="AD48" s="25"/>
-      <c r="AE48" s="244"/>
-      <c r="AF48" s="238"/>
-      <c r="AG48" s="242"/>
+      <c r="AE48" s="240"/>
+      <c r="AF48" s="232"/>
+      <c r="AG48" s="243"/>
       <c r="AH48" s="56"/>
-      <c r="AJ48" s="245"/>
+      <c r="AJ48" s="241"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="17"/>
@@ -26483,19 +26722,19 @@
       </c>
       <c r="E49" s="46">
         <f ca="1">Games!L16</f>
-        <v>100</v>
-      </c>
-      <c r="F49" s="241" t="str">
+        <v>101</v>
+      </c>
+      <c r="F49" s="242" t="str">
         <f ca="1">Games!O16</f>
         <v>Binghamton</v>
       </c>
-      <c r="G49" s="246" t="e" vm="88">
+      <c r="G49" s="235" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(F49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="249">
+      <c r="H49" s="245">
         <f ca="1">Games!N43</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -26517,21 +26756,21 @@
       <c r="AB49" s="56"/>
       <c r="AD49" s="25"/>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="243">
+      <c r="AH49" s="239">
         <f ca="1">Games!N51</f>
-        <v>110</v>
-      </c>
-      <c r="AI49" s="237" t="e" vm="119">
+        <v>98</v>
+      </c>
+      <c r="AI49" s="231" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(AJ49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ49" s="241" t="str">
+      <c r="AJ49" s="242" t="str">
         <f ca="1">Games!O32</f>
         <v>Colgate</v>
       </c>
       <c r="AK49" s="58">
         <f ca="1">Games!L32</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL49" s="46" t="e" vm="119">
         <f>_xlfn.XLOOKUP(AM49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26547,7 +26786,7 @@
       <c r="AO49" s="17"/>
     </row>
     <row r="50" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="245">
+      <c r="A50" s="241">
         <f>IF($AU$5=TRUE,A46+1,"")</f>
         <v>12</v>
       </c>
@@ -26555,9 +26794,9 @@
       <c r="C50" s="38"/>
       <c r="D50" s="71"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="242"/>
-      <c r="G50" s="247"/>
-      <c r="H50" s="250"/>
+      <c r="F50" s="243"/>
+      <c r="G50" s="236"/>
+      <c r="H50" s="246"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="L50" s="25"/>
@@ -26578,19 +26817,19 @@
       <c r="AB50" s="56"/>
       <c r="AD50" s="25"/>
       <c r="AG50" s="24"/>
-      <c r="AH50" s="244"/>
-      <c r="AI50" s="238"/>
-      <c r="AJ50" s="242"/>
+      <c r="AH50" s="240"/>
+      <c r="AI50" s="232"/>
+      <c r="AJ50" s="243"/>
       <c r="AK50" s="55"/>
       <c r="AM50" s="39"/>
       <c r="AN50" s="28"/>
-      <c r="AO50" s="254">
+      <c r="AO50" s="248">
         <f>IF($AU$5=TRUE,AO46+1,"")</f>
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="245"/>
+      <c r="A51" s="241"/>
       <c r="B51" s="27">
         <v>13</v>
       </c>
@@ -26604,29 +26843,29 @@
       </c>
       <c r="E51" s="48">
         <f ca="1">Games!N16</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="248" t="s">
+      <c r="K51" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="248"/>
+      <c r="L51" s="244"/>
       <c r="M51" s="20"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="258" t="str">
+      <c r="O51" s="252" t="str">
         <f ca="1">Games!O65</f>
-        <v>Boston University</v>
-      </c>
-      <c r="P51" s="246" t="e" vm="91">
+        <v>Brown</v>
+      </c>
+      <c r="P51" s="235" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="249">
+      <c r="Q51" s="245">
         <f ca="1">Games!N69</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
@@ -26635,29 +26874,29 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="243">
+      <c r="Y51" s="239">
         <f ca="1">Games!N70</f>
-        <v>116</v>
-      </c>
-      <c r="Z51" s="237" t="e" vm="119">
+        <v>102</v>
+      </c>
+      <c r="Z51" s="231" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AA51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA51" s="241" t="str">
+      <c r="AA51" s="242" t="str">
         <f ca="1">Games!O67</f>
-        <v>Colgate</v>
+        <v>Colorado State</v>
       </c>
       <c r="AB51" s="56"/>
-      <c r="AD51" s="248" t="s">
+      <c r="AD51" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="AE51" s="248"/>
+      <c r="AE51" s="244"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="24"/>
       <c r="AJ51" s="24"/>
       <c r="AK51" s="59">
         <f ca="1">Games!N32</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AL51" s="46" t="e" vm="120">
         <f>_xlfn.XLOOKUP(AM51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26670,7 +26909,7 @@
       <c r="AN51" s="27">
         <v>13</v>
       </c>
-      <c r="AO51" s="254"/>
+      <c r="AO51" s="248"/>
     </row>
     <row r="52" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
@@ -26681,13 +26920,13 @@
       <c r="G52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="248"/>
-      <c r="L52" s="248"/>
+      <c r="K52" s="244"/>
+      <c r="L52" s="244"/>
       <c r="M52" s="20"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="259"/>
-      <c r="P52" s="247"/>
-      <c r="Q52" s="250"/>
+      <c r="O52" s="253"/>
+      <c r="P52" s="236"/>
+      <c r="Q52" s="246"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -26695,12 +26934,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="244"/>
-      <c r="Z52" s="238"/>
-      <c r="AA52" s="242"/>
+      <c r="Y52" s="240"/>
+      <c r="Z52" s="232"/>
+      <c r="AA52" s="243"/>
       <c r="AB52" s="56"/>
-      <c r="AD52" s="248"/>
-      <c r="AE52" s="248"/>
+      <c r="AD52" s="244"/>
+      <c r="AE52" s="244"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="24"/>
       <c r="AJ52" s="24"/>
@@ -26723,19 +26962,19 @@
       </c>
       <c r="E53" s="46">
         <f ca="1">Games!L17</f>
-        <v>96</v>
-      </c>
-      <c r="F53" s="241" t="str">
+        <v>117</v>
+      </c>
+      <c r="F53" s="242" t="str">
         <f ca="1">Games!O17</f>
-        <v>Boston College</v>
-      </c>
-      <c r="G53" s="246" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="G53" s="235" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(F53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="252">
+      <c r="H53" s="237">
         <f ca="1">Games!L44</f>
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -26762,21 +27001,21 @@
         <v>60</v>
       </c>
       <c r="AG53" s="24"/>
-      <c r="AH53" s="252">
+      <c r="AH53" s="237">
         <f ca="1">Games!L52</f>
-        <v>119</v>
-      </c>
-      <c r="AI53" s="237" t="e" vm="122">
+        <v>120</v>
+      </c>
+      <c r="AI53" s="231" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AJ53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ53" s="241" t="str">
+      <c r="AJ53" s="242" t="str">
         <f ca="1">Games!O33</f>
         <v>Colorado State</v>
       </c>
       <c r="AK53" s="58">
         <f ca="1">Games!L33</f>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AL53" s="46" t="e" vm="121">
         <f>_xlfn.XLOOKUP(AM53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26792,7 +27031,7 @@
       <c r="AO53" s="17"/>
     </row>
     <row r="54" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="245">
+      <c r="A54" s="241">
         <f>IF($AU$5=TRUE,A50+1,"")</f>
         <v>13</v>
       </c>
@@ -26800,9 +27039,9 @@
       <c r="C54" s="38"/>
       <c r="D54" s="71"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="242"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="253"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="236"/>
+      <c r="H54" s="238"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="L54" s="25"/>
@@ -26821,19 +27060,19 @@
       <c r="AB54" s="56"/>
       <c r="AD54" s="25"/>
       <c r="AG54" s="24"/>
-      <c r="AH54" s="253"/>
-      <c r="AI54" s="238"/>
-      <c r="AJ54" s="242"/>
+      <c r="AH54" s="238"/>
+      <c r="AI54" s="232"/>
+      <c r="AJ54" s="243"/>
       <c r="AK54" s="55"/>
       <c r="AM54" s="39"/>
       <c r="AN54" s="28"/>
-      <c r="AO54" s="254">
+      <c r="AO54" s="248">
         <f>IF($AU$5=TRUE,AO50+1,"")</f>
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="245"/>
+      <c r="A55" s="241"/>
       <c r="B55" s="27">
         <v>11</v>
       </c>
@@ -26847,25 +27086,25 @@
       </c>
       <c r="E55" s="48">
         <f ca="1">Games!N17</f>
-        <v>105</v>
-      </c>
-      <c r="F55" s="255">
+        <v>95</v>
+      </c>
+      <c r="F55" s="249">
         <f>IF($AU$5=TRUE,F47+1,"")</f>
         <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="258" t="str">
+      <c r="I55" s="252" t="str">
         <f ca="1">Games!O44</f>
-        <v>Boston University</v>
-      </c>
-      <c r="J55" s="246" t="e" vm="91">
+        <v>Boise State</v>
+      </c>
+      <c r="J55" s="235" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="252">
+      <c r="K55" s="237">
         <f ca="1">Games!L58</f>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -26882,27 +27121,27 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="56"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="252">
+      <c r="AE55" s="237">
         <f ca="1">Games!L62</f>
-        <v>103</v>
-      </c>
-      <c r="AF55" s="237" t="e" vm="122">
+        <v>115</v>
+      </c>
+      <c r="AF55" s="231" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AG55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG55" s="241" t="str">
+      <c r="AG55" s="242" t="str">
         <f ca="1">Games!O52</f>
         <v>Colorado State</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="51"/>
-      <c r="AJ55" s="255">
+      <c r="AJ55" s="249">
         <f>IF($AU$5=TRUE,AJ47+1,"")</f>
         <v>47</v>
       </c>
       <c r="AK55" s="59">
         <f ca="1">Games!N33</f>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AL55" s="46" t="e" vm="122">
         <f>_xlfn.XLOOKUP(AM55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26915,19 +27154,19 @@
       <c r="AN55" s="32">
         <v>11</v>
       </c>
-      <c r="AO55" s="254"/>
+      <c r="AO55" s="248"/>
     </row>
     <row r="56" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="71"/>
-      <c r="F56" s="245"/>
+      <c r="F56" s="241"/>
       <c r="G56" s="15"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="259"/>
-      <c r="J56" s="247"/>
-      <c r="K56" s="253"/>
+      <c r="I56" s="253"/>
+      <c r="J56" s="236"/>
+      <c r="K56" s="238"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="50"/>
@@ -26943,11 +27182,11 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="56"/>
       <c r="AD56" s="25"/>
-      <c r="AE56" s="253"/>
-      <c r="AF56" s="238"/>
-      <c r="AG56" s="242"/>
+      <c r="AE56" s="238"/>
+      <c r="AF56" s="232"/>
+      <c r="AG56" s="243"/>
       <c r="AH56" s="56"/>
-      <c r="AJ56" s="245"/>
+      <c r="AJ56" s="241"/>
       <c r="AM56" s="39"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="17"/>
@@ -26967,19 +27206,19 @@
       </c>
       <c r="E57" s="46">
         <f ca="1">Games!L18</f>
-        <v>115</v>
-      </c>
-      <c r="F57" s="241" t="str">
+        <v>92</v>
+      </c>
+      <c r="F57" s="242" t="str">
         <f ca="1">Games!O18</f>
-        <v>Boston University</v>
-      </c>
-      <c r="G57" s="246" t="e" vm="91">
+        <v>Bowling Green</v>
+      </c>
+      <c r="G57" s="235" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(F57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="249">
+      <c r="H57" s="245">
         <f ca="1">Games!N44</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -27001,21 +27240,21 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="55"/>
       <c r="AG57" s="24"/>
-      <c r="AH57" s="243">
+      <c r="AH57" s="239">
         <f ca="1">Games!N52</f>
-        <v>97</v>
-      </c>
-      <c r="AI57" s="237" t="e" vm="123">
+        <v>113</v>
+      </c>
+      <c r="AI57" s="231" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AJ57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ57" s="241" t="str">
+      <c r="AJ57" s="242" t="str">
         <f ca="1">Games!O34</f>
         <v>Columbia</v>
       </c>
       <c r="AK57" s="58">
         <f ca="1">Games!L34</f>
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AL57" s="46" t="e" vm="123">
         <f>_xlfn.XLOOKUP(AM57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27031,7 +27270,7 @@
       <c r="AO57" s="17"/>
     </row>
     <row r="58" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="245">
+      <c r="A58" s="241">
         <f>IF($AU$5=TRUE,A54+1,"")</f>
         <v>14</v>
       </c>
@@ -27039,9 +27278,9 @@
       <c r="C58" s="38"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="242"/>
-      <c r="G58" s="247"/>
-      <c r="H58" s="250"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="236"/>
+      <c r="H58" s="246"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="50"/>
@@ -27062,19 +27301,19 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="56"/>
       <c r="AG58" s="24"/>
-      <c r="AH58" s="244"/>
-      <c r="AI58" s="238"/>
-      <c r="AJ58" s="242"/>
+      <c r="AH58" s="240"/>
+      <c r="AI58" s="232"/>
+      <c r="AJ58" s="243"/>
       <c r="AK58" s="55"/>
       <c r="AM58" s="39"/>
       <c r="AN58" s="28"/>
-      <c r="AO58" s="254">
+      <c r="AO58" s="248">
         <f>IF($AU$5=TRUE,AO54+1,"")</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="245"/>
+      <c r="A59" s="241"/>
       <c r="B59" s="27">
         <v>14</v>
       </c>
@@ -27088,27 +27327,27 @@
       </c>
       <c r="E59" s="48">
         <f ca="1">Games!N18</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="I59" s="245">
+      <c r="I59" s="241">
         <f>IF($AU$5=TRUE,I43+1,"")</f>
         <v>52</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="50"/>
-      <c r="L59" s="258" t="str">
+      <c r="L59" s="252" t="str">
         <f ca="1">Games!O58</f>
-        <v>Boston University</v>
-      </c>
-      <c r="M59" s="246" t="e" vm="91">
+        <v>Brown</v>
+      </c>
+      <c r="M59" s="235" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(L59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="249">
+      <c r="N59" s="245">
         <f ca="1">Games!N65</f>
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
@@ -27120,27 +27359,27 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="AA59" s="25"/>
-      <c r="AB59" s="243">
+      <c r="AB59" s="239">
         <f ca="1">Games!N67</f>
-        <v>110</v>
-      </c>
-      <c r="AC59" s="237" t="e" vm="127">
+        <v>111</v>
+      </c>
+      <c r="AC59" s="231" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AD59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="241" t="str">
+      <c r="AD59" s="242" t="str">
         <f ca="1">Games!O62</f>
-        <v>Creighton</v>
+        <v>Colorado State</v>
       </c>
       <c r="AE59" s="56"/>
-      <c r="AG59" s="245">
+      <c r="AG59" s="241">
         <f>IF($AU$5=TRUE,AG43+1,"")</f>
         <v>56</v>
       </c>
       <c r="AJ59" s="24"/>
       <c r="AK59" s="59">
         <f ca="1">Games!N34</f>
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AL59" s="46" t="e" vm="124">
         <f>_xlfn.XLOOKUP(AM59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27153,7 +27392,7 @@
       <c r="AN59" s="27">
         <v>14</v>
       </c>
-      <c r="AO59" s="254"/>
+      <c r="AO59" s="248"/>
     </row>
     <row r="60" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -27162,12 +27401,12 @@
       <c r="D60" s="71"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="I60" s="245"/>
+      <c r="I60" s="241"/>
       <c r="J60" s="15"/>
       <c r="K60" s="50"/>
-      <c r="L60" s="259"/>
-      <c r="M60" s="247"/>
-      <c r="N60" s="250"/>
+      <c r="L60" s="253"/>
+      <c r="M60" s="236"/>
+      <c r="N60" s="246"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
@@ -27179,11 +27418,11 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="AA60" s="25"/>
-      <c r="AB60" s="244"/>
-      <c r="AC60" s="238"/>
-      <c r="AD60" s="242"/>
+      <c r="AB60" s="240"/>
+      <c r="AC60" s="232"/>
+      <c r="AD60" s="243"/>
       <c r="AE60" s="56"/>
-      <c r="AG60" s="245"/>
+      <c r="AG60" s="241"/>
       <c r="AJ60" s="24"/>
       <c r="AM60" s="39"/>
       <c r="AN60" s="28"/>
@@ -27204,19 +27443,19 @@
       </c>
       <c r="E61" s="46">
         <f ca="1">Games!L19</f>
-        <v>108</v>
-      </c>
-      <c r="F61" s="241" t="str">
+        <v>93</v>
+      </c>
+      <c r="F61" s="242" t="str">
         <f ca="1">Games!O19</f>
         <v>Brigham Young</v>
       </c>
-      <c r="G61" s="246" t="e" vm="94">
+      <c r="G61" s="235" t="e" vm="94">
         <f ca="1">_xlfn.XLOOKUP(F61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="252">
+      <c r="H61" s="237">
         <f ca="1">Games!L45</f>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -27237,21 +27476,21 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="56"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="252">
+      <c r="AH61" s="237">
         <f ca="1">Games!L53</f>
-        <v>97</v>
-      </c>
-      <c r="AI61" s="237" t="e" vm="125">
+        <v>115</v>
+      </c>
+      <c r="AI61" s="231" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(AJ61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="241" t="str">
+      <c r="AJ61" s="242" t="str">
         <f ca="1">Games!O35</f>
         <v>Coppin State</v>
       </c>
       <c r="AK61" s="58">
         <f ca="1">Games!L35</f>
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="AL61" s="46" t="e" vm="125">
         <f>_xlfn.XLOOKUP(AM61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27267,7 +27506,7 @@
       <c r="AO61" s="17"/>
     </row>
     <row r="62" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="245">
+      <c r="A62" s="241">
         <f>IF($AU$5=TRUE,A58+1,"")</f>
         <v>15</v>
       </c>
@@ -27275,9 +27514,9 @@
       <c r="C62" s="38"/>
       <c r="D62" s="71"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="242"/>
-      <c r="G62" s="247"/>
-      <c r="H62" s="253"/>
+      <c r="F62" s="243"/>
+      <c r="G62" s="236"/>
+      <c r="H62" s="238"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="50"/>
@@ -27297,19 +27536,19 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="56"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="253"/>
-      <c r="AI62" s="238"/>
-      <c r="AJ62" s="242"/>
+      <c r="AH62" s="238"/>
+      <c r="AI62" s="232"/>
+      <c r="AJ62" s="243"/>
       <c r="AK62" s="55"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="28"/>
-      <c r="AO62" s="254">
+      <c r="AO62" s="248">
         <f>IF($AU$5=TRUE,AO58+1,"")</f>
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="245"/>
+      <c r="A63" s="241"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -27323,25 +27562,25 @@
       </c>
       <c r="E63" s="48">
         <f ca="1">Games!N19</f>
-        <v>109</v>
-      </c>
-      <c r="F63" s="255">
+        <v>105</v>
+      </c>
+      <c r="F63" s="249">
         <f>IF($AU$5=TRUE,F55+1,"")</f>
         <v>40</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="258" t="str">
+      <c r="I63" s="252" t="str">
         <f ca="1">Games!O45</f>
         <v>Brown</v>
       </c>
-      <c r="J63" s="246" t="e" vm="95">
+      <c r="J63" s="235" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="249">
+      <c r="K63" s="245">
         <f ca="1">Games!N58</f>
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -27359,27 +27598,27 @@
       <c r="Z63" s="57"/>
       <c r="AA63" s="25"/>
       <c r="AD63" s="25"/>
-      <c r="AE63" s="243">
+      <c r="AE63" s="239">
         <f ca="1">Games!N62</f>
-        <v>120</v>
-      </c>
-      <c r="AF63" s="237" t="e" vm="127">
+        <v>94</v>
+      </c>
+      <c r="AF63" s="231" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(AG63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG63" s="241" t="str">
+      <c r="AG63" s="242" t="str">
         <f ca="1">Games!O53</f>
         <v>Creighton</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="51"/>
-      <c r="AJ63" s="255">
+      <c r="AJ63" s="249">
         <f>IF($AU$5=TRUE,AJ55+1,"")</f>
         <v>48</v>
       </c>
       <c r="AK63" s="59">
         <f ca="1">Games!N35</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AL63" s="46" t="e" vm="126">
         <f>_xlfn.XLOOKUP(AM63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27392,19 +27631,19 @@
       <c r="AN63" s="27">
         <v>10</v>
       </c>
-      <c r="AO63" s="254"/>
+      <c r="AO63" s="248"/>
     </row>
     <row r="64" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="28"/>
       <c r="C64" s="38"/>
       <c r="D64" s="71"/>
-      <c r="F64" s="245"/>
+      <c r="F64" s="241"/>
       <c r="G64" s="15"/>
       <c r="H64" s="50"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="247"/>
-      <c r="K64" s="250"/>
+      <c r="I64" s="253"/>
+      <c r="J64" s="236"/>
+      <c r="K64" s="246"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="O64" s="25"/>
@@ -27420,11 +27659,11 @@
       <c r="Z64" s="57"/>
       <c r="AA64" s="25"/>
       <c r="AD64" s="25"/>
-      <c r="AE64" s="244"/>
-      <c r="AF64" s="238"/>
-      <c r="AG64" s="242"/>
+      <c r="AE64" s="240"/>
+      <c r="AF64" s="232"/>
+      <c r="AG64" s="243"/>
       <c r="AH64" s="56"/>
-      <c r="AJ64" s="245"/>
+      <c r="AJ64" s="241"/>
       <c r="AM64" s="39"/>
       <c r="AN64" s="28"/>
       <c r="AO64" s="17"/>
@@ -27444,19 +27683,19 @@
       </c>
       <c r="E65" s="46">
         <f ca="1">Games!L20</f>
-        <v>107</v>
-      </c>
-      <c r="F65" s="241" t="str">
+        <v>114</v>
+      </c>
+      <c r="F65" s="242" t="str">
         <f ca="1">Games!O20</f>
         <v>Brown</v>
       </c>
-      <c r="G65" s="246" t="e" vm="95">
+      <c r="G65" s="235" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(F65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="249">
+      <c r="H65" s="245">
         <f ca="1">Games!N45</f>
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -27476,21 +27715,21 @@
       <c r="AA65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AG65" s="24"/>
-      <c r="AH65" s="243">
+      <c r="AH65" s="239">
         <f ca="1">Games!N53</f>
-        <v>106</v>
-      </c>
-      <c r="AI65" s="237" t="e" vm="127">
+        <v>119</v>
+      </c>
+      <c r="AI65" s="231" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(AJ65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="241" t="str">
+      <c r="AJ65" s="242" t="str">
         <f ca="1">Games!O36</f>
         <v>Creighton</v>
       </c>
       <c r="AK65" s="58">
         <f ca="1">Games!L36</f>
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AL65" s="46" t="e" vm="127">
         <f>_xlfn.XLOOKUP(AM65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27506,7 +27745,7 @@
       <c r="AO65" s="17"/>
     </row>
     <row r="66" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="245">
+      <c r="A66" s="241">
         <f>IF($AU$5=TRUE,A62+1,"")</f>
         <v>16</v>
       </c>
@@ -27514,41 +27753,41 @@
       <c r="C66" s="38"/>
       <c r="D66" s="71"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="242"/>
-      <c r="G66" s="247"/>
-      <c r="H66" s="250"/>
+      <c r="F66" s="243"/>
+      <c r="G66" s="236"/>
+      <c r="H66" s="246"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="O66" s="286"/>
-      <c r="P66" s="286"/>
-      <c r="Q66" s="286"/>
-      <c r="R66" s="286"/>
-      <c r="S66" s="286"/>
-      <c r="T66" s="286"/>
-      <c r="U66" s="286"/>
-      <c r="V66" s="286"/>
-      <c r="W66" s="286"/>
-      <c r="X66" s="286"/>
-      <c r="Y66" s="286"/>
-      <c r="Z66" s="286"/>
-      <c r="AA66" s="286"/>
+      <c r="O66" s="272"/>
+      <c r="P66" s="272"/>
+      <c r="Q66" s="272"/>
+      <c r="R66" s="272"/>
+      <c r="S66" s="272"/>
+      <c r="T66" s="272"/>
+      <c r="U66" s="272"/>
+      <c r="V66" s="272"/>
+      <c r="W66" s="272"/>
+      <c r="X66" s="272"/>
+      <c r="Y66" s="272"/>
+      <c r="Z66" s="272"/>
+      <c r="AA66" s="272"/>
       <c r="AD66" s="25"/>
       <c r="AG66" s="24"/>
-      <c r="AH66" s="244"/>
-      <c r="AI66" s="238"/>
-      <c r="AJ66" s="242"/>
+      <c r="AH66" s="240"/>
+      <c r="AI66" s="232"/>
+      <c r="AJ66" s="243"/>
       <c r="AK66" s="55"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="28"/>
-      <c r="AO66" s="254">
+      <c r="AO66" s="248">
         <f>IF($AU$5=TRUE,AO62+1,"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="245"/>
+      <c r="A67" s="241"/>
       <c r="B67" s="27">
         <v>15</v>
       </c>
@@ -27562,7 +27801,7 @@
       </c>
       <c r="E67" s="48">
         <f ca="1">Games!N20</f>
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -27570,25 +27809,25 @@
       <c r="J67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="O67" s="285"/>
-      <c r="P67" s="285"/>
-      <c r="Q67" s="285"/>
-      <c r="R67" s="285"/>
-      <c r="S67" s="285"/>
-      <c r="T67" s="285"/>
-      <c r="U67" s="285"/>
-      <c r="V67" s="285"/>
-      <c r="W67" s="285"/>
-      <c r="X67" s="285"/>
-      <c r="Y67" s="285"/>
-      <c r="Z67" s="285"/>
-      <c r="AA67" s="285"/>
+      <c r="O67" s="271"/>
+      <c r="P67" s="271"/>
+      <c r="Q67" s="271"/>
+      <c r="R67" s="271"/>
+      <c r="S67" s="271"/>
+      <c r="T67" s="271"/>
+      <c r="U67" s="271"/>
+      <c r="V67" s="271"/>
+      <c r="W67" s="271"/>
+      <c r="X67" s="271"/>
+      <c r="Y67" s="271"/>
+      <c r="Z67" s="271"/>
+      <c r="AA67" s="271"/>
       <c r="AD67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AJ67" s="24"/>
       <c r="AK67" s="59">
         <f ca="1">Games!N36</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AL67" s="46" t="e" vm="128">
         <f>_xlfn.XLOOKUP(AM67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27601,7 +27840,7 @@
       <c r="AN67" s="27">
         <v>15</v>
       </c>
-      <c r="AO67" s="254"/>
+      <c r="AO67" s="248"/>
     </row>
     <row r="68" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -27642,7 +27881,6 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="F17:F18"/>
@@ -27675,45 +27913,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="K51:L52"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="T39:T40"/>
@@ -27738,7 +27937,30 @@
     <mergeCell ref="AG31:AG32"/>
     <mergeCell ref="AJ33:AJ34"/>
     <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="AJ63:AJ64"/>
+    <mergeCell ref="AJ57:AJ58"/>
+    <mergeCell ref="AH65:AH66"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I43:I44"/>
     <mergeCell ref="AO6:AO7"/>
     <mergeCell ref="AO10:AO11"/>
     <mergeCell ref="AO14:AO15"/>
@@ -27753,19 +27975,16 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="AJ63:AJ64"/>
-    <mergeCell ref="AJ57:AJ58"/>
-    <mergeCell ref="AH65:AH66"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A54:A55"/>
@@ -27774,6 +27993,36 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R27:T28"/>
     <mergeCell ref="AO62:AO63"/>
     <mergeCell ref="AO66:AO67"/>
     <mergeCell ref="F23:F24"/>
@@ -27793,32 +28042,6 @@
     <mergeCell ref="AJ47:AJ48"/>
     <mergeCell ref="AD51:AE52"/>
     <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R27:T28"/>
     <mergeCell ref="AQ3:AQ11"/>
     <mergeCell ref="AQ14:AQ19"/>
     <mergeCell ref="AQ22:AQ27"/>
@@ -27843,10 +28066,6 @@
     <mergeCell ref="AH41:AH42"/>
     <mergeCell ref="AH37:AH38"/>
     <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="J63:J64"/>
     <mergeCell ref="G65:G66"/>
     <mergeCell ref="G61:G62"/>
     <mergeCell ref="G57:G58"/>
@@ -27856,8 +28075,6 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH25:AH26"/>
     <mergeCell ref="AH33:AH34"/>
     <mergeCell ref="AG43:AG44"/>
@@ -27865,6 +28082,23 @@
     <mergeCell ref="AF31:AF32"/>
     <mergeCell ref="AF23:AF24"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Z51:Z52"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J15:J16"/>
@@ -27881,6 +28115,11 @@
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="AI5:AI6"/>
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AI13:AI14"/>

--- a/resources/blank_bracket.xlsx
+++ b/resources/blank_bracket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgal\Documents\Data Science\KingfisherCourt\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3D94D-9385-410A-B525-9F92ACB07900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D727C-FA40-47BF-ABDE-89C0B6046E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2400" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Links" sheetId="6" r:id="rId1"/>
@@ -6441,7 +6441,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7110,34 +7110,37 @@
     <xf numFmtId="0" fontId="53" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7146,29 +7149,71 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7203,48 +7248,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7263,38 +7266,47 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16161,42 +16173,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="I1" s="245" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="I1" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="Q1" s="245" t="s">
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="Q1" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="Y1" s="245" t="s">
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="288"/>
+      <c r="W1" s="288"/>
+      <c r="Y1" s="288" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="288"/>
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="288"/>
+      <c r="AD1" s="288"/>
+      <c r="AE1" s="288"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19016,10 +19028,10 @@
   </sheetPr>
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -19099,33 +19111,33 @@
       <c r="D3" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="241" t="s">
+      <c r="E3" s="294" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="239" t="s">
+      <c r="F3" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="243" t="s">
+      <c r="G3" s="296" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="239" t="s">
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="239" t="s">
+      <c r="K3" s="300" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239" t="s">
+      <c r="L3" s="300"/>
+      <c r="M3" s="300" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239" t="s">
+      <c r="N3" s="300"/>
+      <c r="O3" s="292" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="201"/>
-      <c r="Q3" s="236" t="s">
+      <c r="Q3" s="289" t="s">
         <v>94</v>
       </c>
     </row>
@@ -19134,19 +19146,19 @@
       <c r="B4" s="218"/>
       <c r="C4" s="218"/>
       <c r="D4" s="219"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301"/>
+      <c r="O4" s="293"/>
       <c r="P4" s="202"/>
-      <c r="Q4" s="237"/>
+      <c r="Q4" s="290"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="str">
@@ -19159,7 +19171,7 @@
       </c>
       <c r="C5" s="91" t="str">
         <f t="shared" ref="C5:C36" ca="1" si="1">IF(O5="","",IF(A5=O5,B5,A5))</f>
-        <v>Alabama State</v>
+        <v>Auburn</v>
       </c>
       <c r="D5" s="91" t="e">
         <f t="shared" ref="D5:D36" si="2">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O5,SeedInfo,2,FALSE)*1,MAX(VLOOKUP(O5,SeedInfo,2,FALSE)-VLOOKUP(C5,SeedInfo,2,FALSE),0)))</f>
@@ -19193,7 +19205,7 @@
       </c>
       <c r="L5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M5" s="84" t="e" vm="66">
         <f>_xlfn.XLOOKUP(I5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19201,13 +19213,13 @@
       </c>
       <c r="N5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="O5" s="194" t="str">
         <f t="shared" ref="O5:O36" ca="1" si="3">IF(L5&gt;N5,G5,I5)</f>
-        <v>Auburn</v>
-      </c>
-      <c r="P5" s="209" t="e" vm="65">
+        <v>Alabama State</v>
+      </c>
+      <c r="P5" s="209" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19219,7 +19231,7 @@
 O5=G5,
 IF(F5&gt;J5,TRUE,FALSE),
 IF(J5&gt;F5,TRUE,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="98"/>
     </row>
@@ -19234,7 +19246,7 @@
       </c>
       <c r="C6" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Louisville</v>
+        <v>Creighton</v>
       </c>
       <c r="D6" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19268,7 +19280,7 @@
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:N36" ca="1" si="5">RANDBETWEEN(90,120)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M6" s="82" t="e" vm="68">
         <f>_xlfn.XLOOKUP(I6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19276,13 +19288,13 @@
       </c>
       <c r="N6" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="O6" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Creighton</v>
-      </c>
-      <c r="P6" s="204" t="e" vm="68">
+        <v>Louisville</v>
+      </c>
+      <c r="P6" s="204" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(O6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19294,7 +19306,7 @@
 O6=G6,
 IF(F6&gt;J6,TRUE,FALSE),
 IF(J6&gt;F6,TRUE,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="98"/>
     </row>
@@ -19343,7 +19355,7 @@
       </c>
       <c r="L7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M7" s="82" t="e" vm="70">
         <f>_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19351,7 +19363,7 @@
       </c>
       <c r="N7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O7" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19415,7 +19427,7 @@
       </c>
       <c r="L8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M8" s="82" t="e" vm="72">
         <f>_xlfn.XLOOKUP(I8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19423,7 +19435,7 @@
       </c>
       <c r="N8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O8" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19487,7 +19499,7 @@
       </c>
       <c r="L9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M9" s="82" t="e" vm="74">
         <f>_xlfn.XLOOKUP(I9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19495,7 +19507,7 @@
       </c>
       <c r="N9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O9" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19559,7 +19571,7 @@
       </c>
       <c r="L10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M10" s="82" t="e" vm="76">
         <f>_xlfn.XLOOKUP(I10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19567,7 +19579,7 @@
       </c>
       <c r="N10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O10" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19597,7 +19609,7 @@
       </c>
       <c r="C11" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marquette</v>
+        <v>New Mexico</v>
       </c>
       <c r="D11" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19631,7 +19643,7 @@
       </c>
       <c r="L11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M11" s="82" t="e" vm="78">
         <f>_xlfn.XLOOKUP(I11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19639,13 +19651,13 @@
       </c>
       <c r="N11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O11" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>New Mexico</v>
-      </c>
-      <c r="P11" s="204" t="e" vm="78">
+        <v>Marquette</v>
+      </c>
+      <c r="P11" s="204" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(O11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19654,7 +19666,7 @@
       </c>
       <c r="R11" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="98"/>
     </row>
@@ -19703,7 +19715,7 @@
       </c>
       <c r="L12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M12" s="109" t="e" vm="80">
         <f>_xlfn.XLOOKUP(I12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19711,7 +19723,7 @@
       </c>
       <c r="N12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O12" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19741,7 +19753,7 @@
       </c>
       <c r="C13" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Norfolk State</v>
+        <v>Florida</v>
       </c>
       <c r="D13" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19775,7 +19787,7 @@
       </c>
       <c r="L13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M13" s="115" t="e" vm="82">
         <f>_xlfn.XLOOKUP(I13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19783,13 +19795,13 @@
       </c>
       <c r="N13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O13" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Florida</v>
-      </c>
-      <c r="P13" s="206" t="e" vm="81">
+        <v>Norfolk State</v>
+      </c>
+      <c r="P13" s="206" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19798,7 +19810,7 @@
       </c>
       <c r="R13" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="98"/>
     </row>
@@ -19813,7 +19825,7 @@
       </c>
       <c r="C14" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Connecticut</v>
+        <v>Oklahoma</v>
       </c>
       <c r="D14" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19847,7 +19859,7 @@
       </c>
       <c r="L14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="M14" s="83" t="e" vm="84">
         <f>_xlfn.XLOOKUP(I14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19855,13 +19867,13 @@
       </c>
       <c r="N14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O14" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Oklahoma</v>
-      </c>
-      <c r="P14" s="207" t="e" vm="84">
+        <v>Connecticut</v>
+      </c>
+      <c r="P14" s="207" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(O14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19870,7 +19882,7 @@
       </c>
       <c r="R14" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="98"/>
     </row>
@@ -19885,7 +19897,7 @@
       </c>
       <c r="C15" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Colorado State</v>
+        <v>Memphis</v>
       </c>
       <c r="D15" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19919,7 +19931,7 @@
       </c>
       <c r="L15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="M15" s="83" t="e" vm="86">
         <f>_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19927,13 +19939,13 @@
       </c>
       <c r="N15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O15" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Memphis</v>
-      </c>
-      <c r="P15" s="207" t="e" vm="85">
+        <v>Colorado State</v>
+      </c>
+      <c r="P15" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19942,7 +19954,7 @@
       </c>
       <c r="R15" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="98"/>
     </row>
@@ -19957,7 +19969,7 @@
       </c>
       <c r="C16" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Grand Canyon</v>
+        <v>Maryland</v>
       </c>
       <c r="D16" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19991,7 +20003,7 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M16" s="83" t="e" vm="88">
         <f>_xlfn.XLOOKUP(I16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19999,13 +20011,13 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O16" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Maryland</v>
-      </c>
-      <c r="P16" s="207" t="e" vm="87">
+        <v>Grand Canyon</v>
+      </c>
+      <c r="P16" s="207" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(O16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20014,7 +20026,7 @@
       </c>
       <c r="R16" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="98"/>
     </row>
@@ -20063,7 +20075,7 @@
       </c>
       <c r="L17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M17" s="83" t="e" vm="90">
         <f>_xlfn.XLOOKUP(I17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20071,7 +20083,7 @@
       </c>
       <c r="N17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="O17" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20101,7 +20113,7 @@
       </c>
       <c r="C18" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Texas Tech</v>
+        <v>UNC Wilmington</v>
       </c>
       <c r="D18" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20135,7 +20147,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="M18" s="83" t="e" vm="92">
         <f>_xlfn.XLOOKUP(I18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20143,13 +20155,13 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O18" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="P18" s="207" t="e" vm="92">
+        <v>Texas Tech</v>
+      </c>
+      <c r="P18" s="207" t="e" vm="91">
         <f ca="1">_xlfn.XLOOKUP(O18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20158,7 +20170,7 @@
       </c>
       <c r="R18" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="98"/>
     </row>
@@ -20173,7 +20185,7 @@
       </c>
       <c r="C19" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Kansas</v>
+        <v>Arkansas</v>
       </c>
       <c r="D19" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20207,7 +20219,7 @@
       </c>
       <c r="L19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="M19" s="83" t="e" vm="94">
         <f>_xlfn.XLOOKUP(I19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20215,13 +20227,13 @@
       </c>
       <c r="N19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O19" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arkansas</v>
-      </c>
-      <c r="P19" s="207" t="e" vm="94">
+        <v>Kansas</v>
+      </c>
+      <c r="P19" s="207" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20230,7 +20242,7 @@
       </c>
       <c r="R19" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="98"/>
     </row>
@@ -20279,7 +20291,7 @@
       </c>
       <c r="L20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M20" s="126" t="e" vm="96">
         <f>_xlfn.XLOOKUP(I20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20287,7 +20299,7 @@
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O20" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20351,7 +20363,7 @@
       </c>
       <c r="L21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M21" s="97" t="e" vm="98">
         <f>_xlfn.XLOOKUP(I21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20359,7 +20371,7 @@
       </c>
       <c r="N21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="O21" s="188" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20389,7 +20401,7 @@
       </c>
       <c r="C22" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Baylor</v>
+        <v>Mississippi State</v>
       </c>
       <c r="D22" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20423,7 +20435,7 @@
       </c>
       <c r="L22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M22" s="82" t="e" vm="100">
         <f>_xlfn.XLOOKUP(I22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20431,13 +20443,13 @@
       </c>
       <c r="N22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O22" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Mississippi State</v>
-      </c>
-      <c r="P22" s="204" t="e" vm="99">
+        <v>Baylor</v>
+      </c>
+      <c r="P22" s="204" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(O22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20446,7 +20458,7 @@
       </c>
       <c r="R22" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="98"/>
     </row>
@@ -20495,7 +20507,7 @@
       </c>
       <c r="L23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M23" s="82" t="e" vm="102">
         <f>_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20503,7 +20515,7 @@
       </c>
       <c r="N23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O23" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20533,7 +20545,7 @@
       </c>
       <c r="C24" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arizona</v>
+        <v>Akron</v>
       </c>
       <c r="D24" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20567,7 +20579,7 @@
       </c>
       <c r="L24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="M24" s="82" t="e" vm="104">
         <f>_xlfn.XLOOKUP(I24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20575,13 +20587,13 @@
       </c>
       <c r="N24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O24" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Akron</v>
-      </c>
-      <c r="P24" s="204" t="e" vm="104">
+        <v>Arizona</v>
+      </c>
+      <c r="P24" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20590,7 +20602,7 @@
       </c>
       <c r="R24" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="98"/>
     </row>
@@ -20647,7 +20659,7 @@
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="O25" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20711,7 +20723,7 @@
       </c>
       <c r="L26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M26" s="82" t="e" vm="108">
         <f>_xlfn.XLOOKUP(I26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20719,7 +20731,7 @@
       </c>
       <c r="N26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O26" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20783,7 +20795,7 @@
       </c>
       <c r="L27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M27" s="82" t="e" vm="110">
         <f>_xlfn.XLOOKUP(I27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20791,7 +20803,7 @@
       </c>
       <c r="N27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O27" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20821,7 +20833,7 @@
       </c>
       <c r="C28" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alabama</v>
+        <v>Robert Morris</v>
       </c>
       <c r="D28" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20855,7 +20867,7 @@
       </c>
       <c r="L28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="M28" s="109" t="e" vm="112">
         <f>_xlfn.XLOOKUP(I28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20863,13 +20875,13 @@
       </c>
       <c r="N28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O28" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Robert Morris</v>
-      </c>
-      <c r="P28" s="205" t="e" vm="112">
+        <v>Alabama</v>
+      </c>
+      <c r="P28" s="205" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(O28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20878,7 +20890,7 @@
       </c>
       <c r="R28" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="98"/>
     </row>
@@ -20893,7 +20905,7 @@
       </c>
       <c r="C29" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SIU Edwardsville</v>
+        <v>Houston</v>
       </c>
       <c r="D29" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20927,7 +20939,7 @@
       </c>
       <c r="L29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M29" s="115" t="e" vm="114">
         <f>_xlfn.XLOOKUP(I29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20935,13 +20947,13 @@
       </c>
       <c r="N29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O29" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Houston</v>
-      </c>
-      <c r="P29" s="206" t="e" vm="113">
+        <v>SIU Edwardsville</v>
+      </c>
+      <c r="P29" s="206" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(O29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20950,7 +20962,7 @@
       </c>
       <c r="R29" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="98"/>
     </row>
@@ -20999,7 +21011,7 @@
       </c>
       <c r="L30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M30" s="83" t="e" vm="116">
         <f>_xlfn.XLOOKUP(I30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21007,7 +21019,7 @@
       </c>
       <c r="N30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O30" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21037,7 +21049,7 @@
       </c>
       <c r="C31" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Clemson</v>
+        <v>McNeese State</v>
       </c>
       <c r="D31" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21071,7 +21083,7 @@
       </c>
       <c r="L31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M31" s="83" t="e" vm="118">
         <f>_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21079,13 +21091,13 @@
       </c>
       <c r="N31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="O31" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>McNeese State</v>
-      </c>
-      <c r="P31" s="207" t="e" vm="118">
+        <v>Clemson</v>
+      </c>
+      <c r="P31" s="207" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(O31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21094,7 +21106,7 @@
       </c>
       <c r="R31" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="98"/>
     </row>
@@ -21143,7 +21155,7 @@
       </c>
       <c r="L32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M32" s="83" t="e" vm="120">
         <f>_xlfn.XLOOKUP(I32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21151,7 +21163,7 @@
       </c>
       <c r="N32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O32" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21181,7 +21193,7 @@
       </c>
       <c r="C33" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Illinois</v>
+        <v>Texas</v>
       </c>
       <c r="D33" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21215,7 +21227,7 @@
       </c>
       <c r="L33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M33" s="83" t="e" vm="122">
         <f>_xlfn.XLOOKUP(I33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21223,13 +21235,13 @@
       </c>
       <c r="N33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O33" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Texas</v>
-      </c>
-      <c r="P33" s="207" t="e" vm="122">
+        <v>Illinois</v>
+      </c>
+      <c r="P33" s="207" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(O33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21238,7 +21250,7 @@
       </c>
       <c r="R33" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="98"/>
     </row>
@@ -21287,7 +21299,7 @@
       </c>
       <c r="L34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M34" s="83" t="e" vm="124">
         <f>_xlfn.XLOOKUP(I34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21295,7 +21307,7 @@
       </c>
       <c r="N34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="O34" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21325,7 +21337,7 @@
       </c>
       <c r="C35" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Utah State</v>
+        <v>UCLA</v>
       </c>
       <c r="D35" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21359,7 +21371,7 @@
       </c>
       <c r="L35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M35" s="83" t="e" vm="126">
         <f>_xlfn.XLOOKUP(I35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21367,13 +21379,13 @@
       </c>
       <c r="N35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O35" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UCLA</v>
-      </c>
-      <c r="P35" s="207" t="e" vm="125">
+        <v>Utah State</v>
+      </c>
+      <c r="P35" s="207" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(O35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21382,7 +21394,7 @@
       </c>
       <c r="R35" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="98"/>
     </row>
@@ -21397,7 +21409,7 @@
       </c>
       <c r="C36" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Wofford</v>
+        <v>Tennessee</v>
       </c>
       <c r="D36" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21431,7 +21443,7 @@
       </c>
       <c r="L36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="M36" s="126" t="e" vm="128">
         <f>_xlfn.XLOOKUP(I36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21439,13 +21451,13 @@
       </c>
       <c r="N36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="O36" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tennessee</v>
-      </c>
-      <c r="P36" s="208" t="e" vm="127">
+        <v>Wofford</v>
+      </c>
+      <c r="P36" s="208" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(O36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21454,7 +21466,7 @@
       </c>
       <c r="R36" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="98"/>
     </row>
@@ -21462,14 +21474,14 @@
       <c r="E37" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="238" t="str">
+      <c r="F37" s="291" t="str">
         <f>Bracket!F2</f>
         <v>Second Round</v>
       </c>
-      <c r="G37" s="238"/>
-      <c r="H37" s="238"/>
-      <c r="I37" s="238"/>
-      <c r="J37" s="238"/>
+      <c r="G37" s="291"/>
+      <c r="H37" s="291"/>
+      <c r="I37" s="291"/>
+      <c r="J37" s="291"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -21484,15 +21496,15 @@
     <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="str">
         <f ca="1">G38</f>
-        <v>Auburn</v>
+        <v>Alabama State</v>
       </c>
       <c r="B38" s="91" t="str">
         <f ca="1">I38</f>
-        <v>Creighton</v>
+        <v>Louisville</v>
       </c>
       <c r="C38" s="91" t="str">
         <f t="shared" ref="C38:C53" ca="1" si="8">IF(O38="","",IF(A38=O38,B38,A38))</f>
-        <v>Creighton</v>
+        <v>Alabama State</v>
       </c>
       <c r="D38" s="91" t="e">
         <f t="shared" ref="D38:D53" si="9">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O38,SeedInfo,2,FALSE)*2,MAX(VLOOKUP(O38,SeedInfo,2,FALSE)-VLOOKUP(C38,SeedInfo,2,FALSE),0)))</f>
@@ -21504,44 +21516,44 @@
       </c>
       <c r="F38" s="130" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">_xlfn.XLOOKUP(G38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G38" s="131" t="str">
         <f ca="1">O5</f>
-        <v>Auburn</v>
+        <v>Alabama State</v>
       </c>
       <c r="H38" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I38" s="132" t="str">
         <f ca="1">O6</f>
-        <v>Creighton</v>
+        <v>Louisville</v>
       </c>
       <c r="J38" s="133" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">_xlfn.XLOOKUP(I38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K38" s="84" t="e" vm="65">
+        <v>8</v>
+      </c>
+      <c r="K38" s="84" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="84">
         <f t="shared" ref="L38:N72" ca="1" si="10">RANDBETWEEN(90,120)</f>
-        <v>115</v>
-      </c>
-      <c r="M38" s="84" t="e" vm="68">
+        <v>92</v>
+      </c>
+      <c r="M38" s="84" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(I38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N38" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O38" s="194" t="str">
         <f t="shared" ref="O38:O53" ca="1" si="11">IF(L38&gt;N38,G38,I38)</f>
-        <v>Auburn</v>
-      </c>
-      <c r="P38" s="209" t="e" vm="65">
+        <v>Louisville</v>
+      </c>
+      <c r="P38" s="209" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(O38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21565,7 +21577,7 @@
       </c>
       <c r="C39" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Yale</v>
+        <v>UC San Diego</v>
       </c>
       <c r="D39" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21599,7 +21611,7 @@
       </c>
       <c r="L39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="M39" s="82" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21607,13 +21619,13 @@
       </c>
       <c r="N39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O39" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>UC San Diego</v>
-      </c>
-      <c r="P39" s="204" t="e" vm="70">
+        <v>Yale</v>
+      </c>
+      <c r="P39" s="204" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(O39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21622,7 +21634,7 @@
       </c>
       <c r="R39" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="98"/>
     </row>
@@ -21671,7 +21683,7 @@
       </c>
       <c r="L40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M40" s="82" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(I40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21679,7 +21691,7 @@
       </c>
       <c r="N40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O40" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -21701,7 +21713,7 @@
     <row r="41" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>New Mexico</v>
+        <v>Marquette</v>
       </c>
       <c r="B41" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21709,7 +21721,7 @@
       </c>
       <c r="C41" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bryant</v>
+        <v>Marquette</v>
       </c>
       <c r="D41" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21720,11 +21732,11 @@
       </c>
       <c r="F41" s="135" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">_xlfn.XLOOKUP(G41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" s="136" t="str">
         <f ca="1">O11</f>
-        <v>New Mexico</v>
+        <v>Marquette</v>
       </c>
       <c r="H41" s="182" t="s">
         <v>9</v>
@@ -21737,13 +21749,13 @@
         <f t="array" aca="1" ref="J41" ca="1">_xlfn.XLOOKUP(I41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>15</v>
       </c>
-      <c r="K41" s="139" t="e" vm="78">
+      <c r="K41" s="139" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(G41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M41" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21751,13 +21763,13 @@
       </c>
       <c r="N41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="O41" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>New Mexico</v>
-      </c>
-      <c r="P41" s="210" t="e" vm="78">
+        <v>Bryant</v>
+      </c>
+      <c r="P41" s="210" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(O41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21766,22 +21778,22 @@
       </c>
       <c r="R41" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="98"/>
     </row>
     <row r="42" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Florida</v>
+        <v>Norfolk State</v>
       </c>
       <c r="B42" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Oklahoma</v>
+        <v>Connecticut</v>
       </c>
       <c r="C42" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Oklahoma</v>
+        <v>Connecticut</v>
       </c>
       <c r="D42" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21792,44 +21804,44 @@
       </c>
       <c r="F42" s="141" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">_xlfn.XLOOKUP(G42,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G42" s="142" t="str">
         <f ca="1">O13</f>
-        <v>Florida</v>
+        <v>Norfolk State</v>
       </c>
       <c r="H42" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="143" t="str">
         <f ca="1">O14</f>
-        <v>Oklahoma</v>
+        <v>Connecticut</v>
       </c>
       <c r="J42" s="144" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">_xlfn.XLOOKUP(I42,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K42" s="145" t="e" vm="81">
+        <v>8</v>
+      </c>
+      <c r="K42" s="145" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
-      </c>
-      <c r="M42" s="145" t="e" vm="84">
+        <v>101</v>
+      </c>
+      <c r="M42" s="145" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(I42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="O42" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Florida</v>
-      </c>
-      <c r="P42" s="211" t="e" vm="81">
+        <v>Norfolk State</v>
+      </c>
+      <c r="P42" s="211" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21838,22 +21850,22 @@
       </c>
       <c r="R42" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="98"/>
     </row>
     <row r="43" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Memphis</v>
+        <v>Colorado State</v>
       </c>
       <c r="B43" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Maryland</v>
+        <v>Grand Canyon</v>
       </c>
       <c r="C43" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Memphis</v>
+        <v>Grand Canyon</v>
       </c>
       <c r="D43" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21864,44 +21876,44 @@
       </c>
       <c r="F43" s="117" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">_xlfn.XLOOKUP(G43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G43" s="118" t="str">
         <f ca="1">O15</f>
-        <v>Memphis</v>
+        <v>Colorado State</v>
       </c>
       <c r="H43" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I43" s="119" t="str">
         <f ca="1">O16</f>
-        <v>Maryland</v>
+        <v>Grand Canyon</v>
       </c>
       <c r="J43" s="120" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">_xlfn.XLOOKUP(I43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K43" s="83" t="e" vm="85">
+        <v>13</v>
+      </c>
+      <c r="K43" s="83" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="M43" s="83" t="e" vm="87">
+        <v>95</v>
+      </c>
+      <c r="M43" s="83" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="O43" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Maryland</v>
-      </c>
-      <c r="P43" s="207" t="e" vm="87">
+        <v>Colorado State</v>
+      </c>
+      <c r="P43" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21921,11 +21933,11 @@
       </c>
       <c r="B44" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>UNC Wilmington</v>
+        <v>Texas Tech</v>
       </c>
       <c r="C44" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Drake</v>
+        <v>Texas Tech</v>
       </c>
       <c r="D44" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21947,11 +21959,11 @@
       </c>
       <c r="I44" s="119" t="str">
         <f ca="1">O18</f>
-        <v>UNC Wilmington</v>
+        <v>Texas Tech</v>
       </c>
       <c r="J44" s="120" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">_xlfn.XLOOKUP(I44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K44" s="83" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(G44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21959,21 +21971,21 @@
       </c>
       <c r="L44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="M44" s="83" t="e" vm="92">
+        <v>118</v>
+      </c>
+      <c r="M44" s="83" t="e" vm="91">
         <f ca="1">_xlfn.XLOOKUP(I44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O44" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="P44" s="207" t="e" vm="92">
+        <v>Drake</v>
+      </c>
+      <c r="P44" s="207" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(O44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21989,7 +22001,7 @@
     <row r="45" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arkansas</v>
+        <v>Kansas</v>
       </c>
       <c r="B45" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22008,11 +22020,11 @@
       </c>
       <c r="F45" s="147" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">_xlfn.XLOOKUP(G45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G45" s="148" t="str">
         <f ca="1">O19</f>
-        <v>Arkansas</v>
+        <v>Kansas</v>
       </c>
       <c r="H45" s="184" t="s">
         <v>9</v>
@@ -22025,13 +22037,13 @@
         <f t="array" aca="1" ref="J45" ca="1">_xlfn.XLOOKUP(I45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>15</v>
       </c>
-      <c r="K45" s="151" t="e" vm="94">
+      <c r="K45" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(G45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="M45" s="151" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(I45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22039,13 +22051,13 @@
       </c>
       <c r="N45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O45" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arkansas</v>
-      </c>
-      <c r="P45" s="212" t="e" vm="94">
+        <v>Kansas</v>
+      </c>
+      <c r="P45" s="212" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22065,11 +22077,11 @@
       </c>
       <c r="B46" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Mississippi State</v>
+        <v>Baylor</v>
       </c>
       <c r="C46" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Mount St. Mary's</v>
+        <v>Baylor</v>
       </c>
       <c r="D46" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22091,11 +22103,11 @@
       </c>
       <c r="I46" s="132" t="str">
         <f ca="1">O22</f>
-        <v>Mississippi State</v>
+        <v>Baylor</v>
       </c>
       <c r="J46" s="133" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">_xlfn.XLOOKUP(I46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K46" s="84" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22103,21 +22115,21 @@
       </c>
       <c r="L46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="M46" s="84" t="e" vm="99">
+        <v>111</v>
+      </c>
+      <c r="M46" s="84" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(I46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O46" s="194" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Mississippi State</v>
-      </c>
-      <c r="P46" s="209" t="e" vm="99">
+        <v>Mount St. Mary's</v>
+      </c>
+      <c r="P46" s="209" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(O46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22126,7 +22138,7 @@
       </c>
       <c r="R46" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="98"/>
     </row>
@@ -22137,7 +22149,7 @@
       </c>
       <c r="B47" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="C47" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -22163,11 +22175,11 @@
       </c>
       <c r="I47" s="102" t="str">
         <f ca="1">O24</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="J47" s="103" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">_xlfn.XLOOKUP(I47,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K47" s="82" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(G47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22175,21 +22187,21 @@
       </c>
       <c r="L47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="M47" s="82" t="e" vm="104">
+        <v>110</v>
+      </c>
+      <c r="M47" s="82" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O47" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Akron</v>
-      </c>
-      <c r="P47" s="204" t="e" vm="104">
+        <v>Arizona</v>
+      </c>
+      <c r="P47" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22198,7 +22210,7 @@
       </c>
       <c r="R47" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="98"/>
     </row>
@@ -22247,7 +22259,7 @@
       </c>
       <c r="L48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M48" s="82" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(I48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22255,7 +22267,7 @@
       </c>
       <c r="N48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="O48" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22281,11 +22293,11 @@
       </c>
       <c r="B49" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Robert Morris</v>
+        <v>Alabama</v>
       </c>
       <c r="C49" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Vanderbilt</v>
+        <v>Alabama</v>
       </c>
       <c r="D49" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22307,11 +22319,11 @@
       </c>
       <c r="I49" s="137" t="str">
         <f ca="1">O28</f>
-        <v>Robert Morris</v>
+        <v>Alabama</v>
       </c>
       <c r="J49" s="138" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">_xlfn.XLOOKUP(I49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K49" s="139" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(G49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22319,21 +22331,21 @@
       </c>
       <c r="L49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
-      </c>
-      <c r="M49" s="139" t="e" vm="112">
+        <v>93</v>
+      </c>
+      <c r="M49" s="139" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O49" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Robert Morris</v>
-      </c>
-      <c r="P49" s="210" t="e" vm="112">
+        <v>Vanderbilt</v>
+      </c>
+      <c r="P49" s="210" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(O49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22349,7 +22361,7 @@
     <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Houston</v>
+        <v>SIU Edwardsville</v>
       </c>
       <c r="B50" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22357,7 +22369,7 @@
       </c>
       <c r="C50" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Houston</v>
+        <v>SIU Edwardsville</v>
       </c>
       <c r="D50" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22368,11 +22380,11 @@
       </c>
       <c r="F50" s="141" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">_xlfn.XLOOKUP(G50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G50" s="142" t="str">
         <f ca="1">O29</f>
-        <v>Houston</v>
+        <v>SIU Edwardsville</v>
       </c>
       <c r="H50" s="183" t="s">
         <v>9</v>
@@ -22385,13 +22397,13 @@
         <f t="array" aca="1" ref="J50" ca="1">_xlfn.XLOOKUP(I50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K50" s="145" t="e" vm="113">
+      <c r="K50" s="145" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(G50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M50" s="145" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(I50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22399,7 +22411,7 @@
       </c>
       <c r="N50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O50" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22414,14 +22426,14 @@
       </c>
       <c r="R50" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="98"/>
     </row>
     <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>McNeese State</v>
+        <v>Clemson</v>
       </c>
       <c r="B51" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22429,7 +22441,7 @@
       </c>
       <c r="C51" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>McNeese State</v>
+        <v>Clemson</v>
       </c>
       <c r="D51" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22440,11 +22452,11 @@
       </c>
       <c r="F51" s="117" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">_xlfn.XLOOKUP(G51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G51" s="118" t="str">
         <f ca="1">O31</f>
-        <v>McNeese State</v>
+        <v>Clemson</v>
       </c>
       <c r="H51" s="178" t="s">
         <v>9</v>
@@ -22457,13 +22469,13 @@
         <f t="array" aca="1" ref="J51" ca="1">_xlfn.XLOOKUP(I51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>13</v>
       </c>
-      <c r="K51" s="83" t="e" vm="118">
+      <c r="K51" s="83" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(G51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M51" s="83" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(I51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22471,7 +22483,7 @@
       </c>
       <c r="N51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O51" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22493,7 +22505,7 @@
     <row r="52" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Texas</v>
+        <v>Illinois</v>
       </c>
       <c r="B52" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22501,7 +22513,7 @@
       </c>
       <c r="C52" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Texas</v>
+        <v>Kentucky</v>
       </c>
       <c r="D52" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22512,11 +22524,11 @@
       </c>
       <c r="F52" s="117" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">_xlfn.XLOOKUP(G52,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G52" s="118" t="str">
         <f ca="1">O33</f>
-        <v>Texas</v>
+        <v>Illinois</v>
       </c>
       <c r="H52" s="178" t="s">
         <v>9</v>
@@ -22529,13 +22541,13 @@
         <f t="array" aca="1" ref="J52" ca="1">_xlfn.XLOOKUP(I52,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>3</v>
       </c>
-      <c r="K52" s="83" t="e" vm="122">
+      <c r="K52" s="83" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(G52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M52" s="83" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22543,13 +22555,13 @@
       </c>
       <c r="N52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O52" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Kentucky</v>
-      </c>
-      <c r="P52" s="207" t="e" vm="123">
+        <v>Illinois</v>
+      </c>
+      <c r="P52" s="207" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(O52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22558,22 +22570,22 @@
       </c>
       <c r="R52" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="98"/>
     </row>
     <row r="53" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>UCLA</v>
+        <v>Utah State</v>
       </c>
       <c r="B53" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Tennessee</v>
+        <v>Wofford</v>
       </c>
       <c r="C53" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>UCLA</v>
+        <v>Utah State</v>
       </c>
       <c r="D53" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22584,44 +22596,44 @@
       </c>
       <c r="F53" s="147" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">_xlfn.XLOOKUP(G53,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G53" s="148" t="str">
         <f ca="1">O35</f>
-        <v>UCLA</v>
+        <v>Utah State</v>
       </c>
       <c r="H53" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I53" s="149" t="str">
         <f ca="1">O36</f>
-        <v>Tennessee</v>
+        <v>Wofford</v>
       </c>
       <c r="J53" s="150" cm="1">
         <f t="array" aca="1" ref="J53" ca="1">_xlfn.XLOOKUP(I53,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K53" s="151" t="e" vm="125">
+        <v>15</v>
+      </c>
+      <c r="K53" s="151" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(G53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="M53" s="151" t="e" vm="127">
+        <v>97</v>
+      </c>
+      <c r="M53" s="151" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O53" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Tennessee</v>
-      </c>
-      <c r="P53" s="212" t="e" vm="127">
+        <v>Wofford</v>
+      </c>
+      <c r="P53" s="212" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(O53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22630,7 +22642,7 @@
       </c>
       <c r="R53" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="98"/>
     </row>
@@ -22638,14 +22650,14 @@
       <c r="E54" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="238" t="str">
+      <c r="F54" s="291" t="str">
         <f>Bracket!I2</f>
         <v>Sweet 16</v>
       </c>
-      <c r="G54" s="238"/>
-      <c r="H54" s="238"/>
-      <c r="I54" s="238"/>
-      <c r="J54" s="238"/>
+      <c r="G54" s="291"/>
+      <c r="H54" s="291"/>
+      <c r="I54" s="291"/>
+      <c r="J54" s="291"/>
       <c r="K54" s="68"/>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
@@ -22660,15 +22672,15 @@
     <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="str">
         <f ca="1">G55</f>
-        <v>Auburn</v>
+        <v>Louisville</v>
       </c>
       <c r="B55" s="91" t="str">
         <f ca="1">I55</f>
-        <v>UC San Diego</v>
+        <v>Yale</v>
       </c>
       <c r="C55" s="91" t="str">
         <f t="shared" ref="C55:C62" ca="1" si="14">IF(O55="","",IF(A55=O55,B55,A55))</f>
-        <v>Auburn</v>
+        <v>Louisville</v>
       </c>
       <c r="D55" s="91" t="e">
         <f t="shared" ref="D55:D62" si="15">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O55,SeedInfo,2,FALSE)*3,MAX(VLOOKUP(O55,SeedInfo,2,FALSE)-VLOOKUP(C55,SeedInfo,2,FALSE),0)))</f>
@@ -22679,44 +22691,44 @@
       </c>
       <c r="F55" s="93" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">_xlfn.XLOOKUP(G55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G55" s="94" t="str">
         <f ca="1">O38</f>
-        <v>Auburn</v>
+        <v>Louisville</v>
       </c>
       <c r="H55" s="175" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="95" t="str">
         <f ca="1">O39</f>
-        <v>UC San Diego</v>
+        <v>Yale</v>
       </c>
       <c r="J55" s="96" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">_xlfn.XLOOKUP(I55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
-      </c>
-      <c r="K55" s="97" t="e" vm="65">
+        <v>13</v>
+      </c>
+      <c r="K55" s="97" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(G55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M55" s="97" t="e" vm="70">
+        <v>96</v>
+      </c>
+      <c r="M55" s="97" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O55" s="188" t="str">
         <f t="shared" ref="O55:O62" ca="1" si="16">IF(L55&gt;N55,G55,I55)</f>
-        <v>UC San Diego</v>
-      </c>
-      <c r="P55" s="204" t="e" vm="70">
+        <v>Yale</v>
+      </c>
+      <c r="P55" s="204" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(O55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22736,11 +22748,11 @@
       </c>
       <c r="B56" s="91" t="str">
         <f t="shared" ref="B56:B62" ca="1" si="18">I56</f>
-        <v>New Mexico</v>
+        <v>Bryant</v>
       </c>
       <c r="C56" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>New Mexico</v>
+        <v>Bryant</v>
       </c>
       <c r="D56" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22762,11 +22774,11 @@
       </c>
       <c r="I56" s="137" t="str">
         <f ca="1">O41</f>
-        <v>New Mexico</v>
+        <v>Bryant</v>
       </c>
       <c r="J56" s="138" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">_xlfn.XLOOKUP(I56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K56" s="139" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22774,15 +22786,15 @@
       </c>
       <c r="L56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
-      </c>
-      <c r="M56" s="139" t="e" vm="78">
+        <v>105</v>
+      </c>
+      <c r="M56" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O56" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -22804,15 +22816,15 @@
     <row r="57" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Florida</v>
+        <v>Norfolk State</v>
       </c>
       <c r="B57" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Maryland</v>
+        <v>Colorado State</v>
       </c>
       <c r="C57" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Maryland</v>
+        <v>Colorado State</v>
       </c>
       <c r="D57" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22821,46 +22833,46 @@
       <c r="E57" s="140">
         <v>51</v>
       </c>
-      <c r="F57" s="142" cm="1">
+      <c r="F57" s="298" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">_xlfn.XLOOKUP(G57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G57" s="142" t="str">
         <f ca="1">O42</f>
-        <v>Florida</v>
+        <v>Norfolk State</v>
       </c>
       <c r="H57" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="143" t="str">
         <f ca="1">O43</f>
-        <v>Maryland</v>
+        <v>Colorado State</v>
       </c>
       <c r="J57" s="144" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">_xlfn.XLOOKUP(I57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K57" s="145" t="e" vm="81">
+        <v>12</v>
+      </c>
+      <c r="K57" s="145" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="M57" s="145" t="e" vm="87">
+        <v>120</v>
+      </c>
+      <c r="M57" s="145" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O57" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Florida</v>
-      </c>
-      <c r="P57" s="211" t="e" vm="81">
+        <v>Norfolk State</v>
+      </c>
+      <c r="P57" s="211" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22869,22 +22881,22 @@
       </c>
       <c r="R57" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="98"/>
     </row>
     <row r="58" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>UNC Wilmington</v>
+        <v>Drake</v>
       </c>
       <c r="B58" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Arkansas</v>
+        <v>Kansas</v>
       </c>
       <c r="C58" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arkansas</v>
+        <v>Kansas</v>
       </c>
       <c r="D58" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22893,46 +22905,46 @@
       <c r="E58" s="146">
         <v>52</v>
       </c>
-      <c r="F58" s="148" cm="1">
+      <c r="F58" s="299" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">_xlfn.XLOOKUP(G58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G58" s="148" t="str">
         <f ca="1">O44</f>
-        <v>UNC Wilmington</v>
+        <v>Drake</v>
       </c>
       <c r="H58" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I58" s="149" t="str">
         <f ca="1">O45</f>
-        <v>Arkansas</v>
+        <v>Kansas</v>
       </c>
       <c r="J58" s="150" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">_xlfn.XLOOKUP(I58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
-      </c>
-      <c r="K58" s="151" t="e" vm="92">
+        <v>7</v>
+      </c>
+      <c r="K58" s="151" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(G58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="M58" s="151" t="e" vm="94">
+        <v>116</v>
+      </c>
+      <c r="M58" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O58" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="P58" s="212" t="e" vm="92">
+        <v>Drake</v>
+      </c>
+      <c r="P58" s="212" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(O58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22948,15 +22960,15 @@
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Mississippi State</v>
+        <v>Mount St. Mary's</v>
       </c>
       <c r="B59" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="C59" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Mississippi State</v>
+        <v>Mount St. Mary's</v>
       </c>
       <c r="D59" s="152" t="e">
         <f t="shared" si="15"/>
@@ -22967,32 +22979,32 @@
       </c>
       <c r="F59" s="130" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">_xlfn.XLOOKUP(G59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G59" s="131" t="str">
         <f ca="1">O46</f>
-        <v>Mississippi State</v>
+        <v>Mount St. Mary's</v>
       </c>
       <c r="H59" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="132" t="str">
         <f ca="1">O47</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="J59" s="133" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">_xlfn.XLOOKUP(I59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
-      </c>
-      <c r="K59" s="84" t="e" vm="99">
+        <v>4</v>
+      </c>
+      <c r="K59" s="84" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="M59" s="84" t="e" vm="104">
+        <v>114</v>
+      </c>
+      <c r="M59" s="84" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23002,9 +23014,9 @@
       </c>
       <c r="O59" s="194" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Akron</v>
-      </c>
-      <c r="P59" s="209" t="e" vm="104">
+        <v>Arizona</v>
+      </c>
+      <c r="P59" s="209" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23013,7 +23025,7 @@
       </c>
       <c r="R59" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="98"/>
     </row>
@@ -23024,11 +23036,11 @@
       </c>
       <c r="B60" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Robert Morris</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="C60" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Robert Morris</v>
+        <v>Montana</v>
       </c>
       <c r="D60" s="152" t="e">
         <f t="shared" si="15"/>
@@ -23050,11 +23062,11 @@
       </c>
       <c r="I60" s="137" t="str">
         <f ca="1">O49</f>
-        <v>Robert Morris</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="J60" s="138" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">_xlfn.XLOOKUP(I60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K60" s="139" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(G60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23062,21 +23074,21 @@
       </c>
       <c r="L60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="M60" s="139" t="e" vm="112">
+        <v>99</v>
+      </c>
+      <c r="M60" s="139" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(I60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O60" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Montana</v>
-      </c>
-      <c r="P60" s="210" t="e" vm="108">
+        <v>Vanderbilt</v>
+      </c>
+      <c r="P60" s="210" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(O60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23100,7 +23112,7 @@
       </c>
       <c r="C61" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>High Point</v>
+        <v>Gonzaga</v>
       </c>
       <c r="D61" s="91" t="e">
         <f t="shared" si="15"/>
@@ -23134,7 +23146,7 @@
       </c>
       <c r="L61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M61" s="145" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(I61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23142,13 +23154,13 @@
       </c>
       <c r="N61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O61" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Gonzaga</v>
-      </c>
-      <c r="P61" s="211" t="e" vm="115">
+        <v>High Point</v>
+      </c>
+      <c r="P61" s="211" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(O61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23157,22 +23169,22 @@
       </c>
       <c r="R61" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="98"/>
     </row>
     <row r="62" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Kentucky</v>
+        <v>Illinois</v>
       </c>
       <c r="B62" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Tennessee</v>
+        <v>Wofford</v>
       </c>
       <c r="C62" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Tennessee</v>
+        <v>Illinois</v>
       </c>
       <c r="D62" s="91" t="e">
         <f t="shared" si="15"/>
@@ -23183,24 +23195,24 @@
       </c>
       <c r="F62" s="147" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">_xlfn.XLOOKUP(G62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" s="148" t="str">
         <f ca="1">O52</f>
-        <v>Kentucky</v>
+        <v>Illinois</v>
       </c>
       <c r="H62" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="149" t="str">
         <f ca="1">O53</f>
-        <v>Tennessee</v>
+        <v>Wofford</v>
       </c>
       <c r="J62" s="150" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">_xlfn.XLOOKUP(I62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K62" s="151" t="e" vm="123">
+        <v>15</v>
+      </c>
+      <c r="K62" s="151" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(G62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23208,19 +23220,19 @@
         <f t="shared" ca="1" si="10"/>
         <v>108</v>
       </c>
-      <c r="M62" s="151" t="e" vm="127">
+      <c r="M62" s="151" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="O62" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Kentucky</v>
-      </c>
-      <c r="P62" s="212" t="e" vm="123">
+        <v>Wofford</v>
+      </c>
+      <c r="P62" s="212" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(O62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23237,14 +23249,14 @@
       <c r="E63" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="238" t="str">
+      <c r="F63" s="291" t="str">
         <f>Bracket!L2</f>
         <v>Elite 8</v>
       </c>
-      <c r="G63" s="238"/>
-      <c r="H63" s="238"/>
-      <c r="I63" s="238"/>
-      <c r="J63" s="238"/>
+      <c r="G63" s="291"/>
+      <c r="H63" s="291"/>
+      <c r="I63" s="291"/>
+      <c r="J63" s="291"/>
       <c r="K63" s="68"/>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
@@ -23259,7 +23271,7 @@
     <row r="64" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="91" t="str">
         <f ca="1">G64</f>
-        <v>UC San Diego</v>
+        <v>Yale</v>
       </c>
       <c r="B64" s="91" t="str">
         <f ca="1">I64</f>
@@ -23267,7 +23279,7 @@
       </c>
       <c r="C64" s="91" t="str">
         <f ca="1">IF(O64="","",IF(A64=O64,B64,A64))</f>
-        <v>UC San Diego</v>
+        <v>Yale</v>
       </c>
       <c r="D64" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O64,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O64,SeedInfo,2,FALSE)-VLOOKUP(C64,SeedInfo,2,FALSE),0)))</f>
@@ -23278,11 +23290,11 @@
       </c>
       <c r="F64" s="154" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">_xlfn.XLOOKUP(G64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" s="155" t="str">
         <f ca="1">O55</f>
-        <v>UC San Diego</v>
+        <v>Yale</v>
       </c>
       <c r="H64" s="185" t="s">
         <v>9</v>
@@ -23295,13 +23307,13 @@
         <f t="array" aca="1" ref="J64" ca="1">_xlfn.XLOOKUP(I64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>6</v>
       </c>
-      <c r="K64" s="158" t="e" vm="70">
+      <c r="K64" s="158" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(G64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M64" s="158" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23309,7 +23321,7 @@
       </c>
       <c r="N64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O64" s="198" t="str">
         <f ca="1">IF(L64&gt;N64,G64,I64)</f>
@@ -23331,15 +23343,15 @@
     <row r="65" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="91" t="str">
         <f ca="1">G65</f>
-        <v>Florida</v>
+        <v>Norfolk State</v>
       </c>
       <c r="B65" s="91" t="str">
         <f ca="1">I65</f>
-        <v>UNC Wilmington</v>
+        <v>Drake</v>
       </c>
       <c r="C65" s="91" t="str">
         <f ca="1">IF(O65="","",IF(A65=O65,B65,A65))</f>
-        <v>Florida</v>
+        <v>Drake</v>
       </c>
       <c r="D65" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O65,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O65,SeedInfo,2,FALSE)-VLOOKUP(C65,SeedInfo,2,FALSE),0)))</f>
@@ -23350,44 +23362,44 @@
       </c>
       <c r="F65" s="160" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">_xlfn.XLOOKUP(G65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G65" s="161" t="str">
         <f ca="1">O57</f>
-        <v>Florida</v>
+        <v>Norfolk State</v>
       </c>
       <c r="H65" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="162" t="str">
         <f ca="1">O58</f>
-        <v>UNC Wilmington</v>
+        <v>Drake</v>
       </c>
       <c r="J65" s="163" cm="1">
         <f t="array" aca="1" ref="J65" ca="1">_xlfn.XLOOKUP(I65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
-      </c>
-      <c r="K65" s="164" t="e" vm="81">
+        <v>11</v>
+      </c>
+      <c r="K65" s="164" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="M65" s="164" t="e" vm="92">
+        <v>103</v>
+      </c>
+      <c r="M65" s="164" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(I65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O65" s="199" t="str">
         <f ca="1">IF(L65&gt;N65,G65,I65)</f>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="P65" s="207" t="e" vm="92">
+        <v>Norfolk State</v>
+      </c>
+      <c r="P65" s="207" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23403,15 +23415,15 @@
     <row r="66" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91" t="str">
         <f ca="1">G66</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="B66" s="91" t="str">
         <f ca="1">I66</f>
-        <v>Montana</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="C66" s="91" t="str">
         <f ca="1">IF(O66="","",IF(A66=O66,B66,A66))</f>
-        <v>Akron</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="D66" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O66,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O66,SeedInfo,2,FALSE)-VLOOKUP(C66,SeedInfo,2,FALSE),0)))</f>
@@ -23422,44 +23434,44 @@
       </c>
       <c r="F66" s="154" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_xlfn.XLOOKUP(G66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G66" s="155" t="str">
         <f ca="1">O59</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="H66" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="156" t="str">
         <f ca="1">O60</f>
-        <v>Montana</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="J66" s="157" cm="1">
         <f t="array" aca="1" ref="J66" ca="1">_xlfn.XLOOKUP(I66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
-      </c>
-      <c r="K66" s="158" t="e" vm="104">
+        <v>10</v>
+      </c>
+      <c r="K66" s="158" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(G66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="M66" s="158" t="e" vm="108">
+        <v>110</v>
+      </c>
+      <c r="M66" s="158" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(I66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O66" s="198" t="str">
         <f ca="1">IF(L66&gt;N66,G66,I66)</f>
-        <v>Montana</v>
-      </c>
-      <c r="P66" s="204" t="e" vm="108">
+        <v>Arizona</v>
+      </c>
+      <c r="P66" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23468,22 +23480,22 @@
       </c>
       <c r="R66" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="98"/>
     </row>
     <row r="67" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91" t="str">
         <f ca="1">G67</f>
-        <v>Gonzaga</v>
+        <v>High Point</v>
       </c>
       <c r="B67" s="91" t="str">
         <f ca="1">I67</f>
-        <v>Kentucky</v>
+        <v>Wofford</v>
       </c>
       <c r="C67" s="91" t="str">
         <f ca="1">IF(O67="","",IF(A67=O67,B67,A67))</f>
-        <v>Kentucky</v>
+        <v>High Point</v>
       </c>
       <c r="D67" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O67,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O67,SeedInfo,2,FALSE)-VLOOKUP(C67,SeedInfo,2,FALSE),0)))</f>
@@ -23494,44 +23506,44 @@
       </c>
       <c r="F67" s="160" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_xlfn.XLOOKUP(G67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G67" s="161" t="str">
         <f ca="1">O61</f>
-        <v>Gonzaga</v>
+        <v>High Point</v>
       </c>
       <c r="H67" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="162" t="str">
         <f ca="1">O62</f>
-        <v>Kentucky</v>
+        <v>Wofford</v>
       </c>
       <c r="J67" s="163" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">_xlfn.XLOOKUP(I67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K67" s="164" t="e" vm="115">
+        <v>15</v>
+      </c>
+      <c r="K67" s="164" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(G67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="M67" s="164" t="e" vm="123">
+        <v>92</v>
+      </c>
+      <c r="M67" s="164" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O67" s="199" t="str">
         <f ca="1">IF(L67&gt;N67,G67,I67)</f>
-        <v>Gonzaga</v>
-      </c>
-      <c r="P67" s="207" t="e" vm="115">
+        <v>Wofford</v>
+      </c>
+      <c r="P67" s="207" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(O67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23548,14 +23560,14 @@
       <c r="E68" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="238" t="str">
+      <c r="F68" s="291" t="str">
         <f>Bracket!O2</f>
         <v>Final Four</v>
       </c>
-      <c r="G68" s="238"/>
-      <c r="H68" s="238"/>
-      <c r="I68" s="238"/>
-      <c r="J68" s="238"/>
+      <c r="G68" s="291"/>
+      <c r="H68" s="291"/>
+      <c r="I68" s="291"/>
+      <c r="J68" s="291"/>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
@@ -23574,11 +23586,11 @@
       </c>
       <c r="B69" s="91" t="str">
         <f ca="1">I69</f>
-        <v>UNC Wilmington</v>
+        <v>Norfolk State</v>
       </c>
       <c r="C69" s="91" t="str">
         <f ca="1">IF(O69="","",IF(A69=O69,B69,A69))</f>
-        <v>UNC Wilmington</v>
+        <v>Mississippi</v>
       </c>
       <c r="D69" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O69,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O69,SeedInfo,2,FALSE)-VLOOKUP(C69,SeedInfo,2,FALSE),0)))</f>
@@ -23600,11 +23612,11 @@
       </c>
       <c r="I69" s="168" t="str">
         <f ca="1">O65</f>
-        <v>UNC Wilmington</v>
+        <v>Norfolk State</v>
       </c>
       <c r="J69" s="169" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">_xlfn.XLOOKUP(I69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K69" s="170" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23612,21 +23624,21 @@
       </c>
       <c r="L69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
-      </c>
-      <c r="M69" s="170" t="e" vm="92">
+        <v>95</v>
+      </c>
+      <c r="M69" s="170" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(I69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O69" s="200" t="str">
         <f ca="1">IF(L69&gt;N69,G69,I69)</f>
-        <v>Mississippi</v>
-      </c>
-      <c r="P69" s="210" t="e" vm="73">
+        <v>Norfolk State</v>
+      </c>
+      <c r="P69" s="210" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23635,22 +23647,22 @@
       </c>
       <c r="R69" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="98"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="91" t="str">
         <f ca="1">G70</f>
-        <v>Montana</v>
+        <v>Arizona</v>
       </c>
       <c r="B70" s="91" t="str">
         <f ca="1">I70</f>
-        <v>Gonzaga</v>
+        <v>Wofford</v>
       </c>
       <c r="C70" s="91" t="str">
         <f ca="1">IF(O70="","",IF(A70=O70,B70,A70))</f>
-        <v>Montana</v>
+        <v>Wofford</v>
       </c>
       <c r="D70" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O70,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O70,SeedInfo,2,FALSE)-VLOOKUP(C70,SeedInfo,2,FALSE),0)))</f>
@@ -23661,44 +23673,44 @@
       </c>
       <c r="F70" s="160" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_xlfn.XLOOKUP(G70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G70" s="161" t="str">
         <f ca="1">O66</f>
-        <v>Montana</v>
+        <v>Arizona</v>
       </c>
       <c r="H70" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="162" t="str">
         <f ca="1">O67</f>
-        <v>Gonzaga</v>
+        <v>Wofford</v>
       </c>
       <c r="J70" s="163" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">_xlfn.XLOOKUP(I70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K70" s="164" t="e" vm="108">
+        <v>15</v>
+      </c>
+      <c r="K70" s="164" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(G70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="M70" s="164" t="e" vm="115">
+        <v>109</v>
+      </c>
+      <c r="M70" s="164" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O70" s="199" t="str">
         <f ca="1">IF(L70&gt;N70,G70,I70)</f>
-        <v>Gonzaga</v>
-      </c>
-      <c r="P70" s="213" t="e" vm="115">
+        <v>Arizona</v>
+      </c>
+      <c r="P70" s="213" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23722,14 +23734,14 @@
       <c r="E71" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="238" t="str">
+      <c r="F71" s="291" t="str">
         <f>Bracket!S2</f>
         <v>Championship</v>
       </c>
-      <c r="G71" s="238"/>
-      <c r="H71" s="238"/>
-      <c r="I71" s="238"/>
-      <c r="J71" s="238"/>
+      <c r="G71" s="291"/>
+      <c r="H71" s="291"/>
+      <c r="I71" s="291"/>
+      <c r="J71" s="291"/>
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
       <c r="M71" s="68"/>
@@ -23744,15 +23756,15 @@
     <row r="72" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91" t="str">
         <f ca="1">G72</f>
-        <v>Mississippi</v>
+        <v>Norfolk State</v>
       </c>
       <c r="B72" s="91" t="str">
         <f ca="1">I72</f>
-        <v>Gonzaga</v>
+        <v>Arizona</v>
       </c>
       <c r="C72" s="91" t="str">
         <f ca="1">IF(O72="","",IF(A72=O72,B72,A72))</f>
-        <v>Mississippi</v>
+        <v>Norfolk State</v>
       </c>
       <c r="D72" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O72,SeedInfo,2,FALSE)*6,MAX(VLOOKUP(O72,SeedInfo,2,FALSE)-VLOOKUP(C72,SeedInfo,2,FALSE),0)))</f>
@@ -23763,32 +23775,32 @@
       </c>
       <c r="F72" s="154" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">_xlfn.XLOOKUP(G72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G72" s="155" t="str">
         <f ca="1">O69</f>
-        <v>Mississippi</v>
+        <v>Norfolk State</v>
       </c>
       <c r="H72" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="156" t="str">
         <f ca="1">O70</f>
-        <v>Gonzaga</v>
+        <v>Arizona</v>
       </c>
       <c r="J72" s="157" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">_xlfn.XLOOKUP(I72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K72" s="158" t="e" vm="73">
+        <v>4</v>
+      </c>
+      <c r="K72" s="158" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M72" s="158" t="e" vm="115">
+        <v>112</v>
+      </c>
+      <c r="M72" s="158" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23798,9 +23810,9 @@
       </c>
       <c r="O72" s="198" t="str">
         <f ca="1">IF(L72&gt;N72,G72,I72)</f>
-        <v>Gonzaga</v>
-      </c>
-      <c r="P72" s="205" t="e" vm="115">
+        <v>Arizona</v>
+      </c>
+      <c r="P72" s="205" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23809,7 +23821,7 @@
       </c>
       <c r="R72" s="6" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="98"/>
     </row>
@@ -23846,7 +23858,9 @@
   </sheetPr>
   <dimension ref="A1:AU70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23898,47 +23912,47 @@
   <sheetData>
     <row r="1" spans="1:47" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="267"/>
-      <c r="P1" s="267"/>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="267"/>
-      <c r="U1" s="267"/>
-      <c r="V1" s="267"/>
-      <c r="W1" s="267"/>
-      <c r="X1" s="267"/>
-      <c r="Y1" s="267"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="267"/>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="267"/>
-      <c r="AE1" s="267"/>
-      <c r="AF1" s="267"/>
-      <c r="AG1" s="267"/>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="267"/>
-      <c r="AJ1" s="267"/>
-      <c r="AK1" s="267"/>
-      <c r="AL1" s="267"/>
-      <c r="AM1" s="267"/>
-      <c r="AN1" s="267"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="268"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
+      <c r="AK1" s="268"/>
+      <c r="AL1" s="268"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="268"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:47" s="63" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -23970,13 +23984,13 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="276" t="s">
+      <c r="S2" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="276"/>
-      <c r="W2" s="276"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
@@ -24054,7 +24068,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="17"/>
-      <c r="AQ3" s="289"/>
+      <c r="AQ3" s="262"/>
       <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
@@ -24086,7 +24100,7 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="289"/>
+      <c r="AQ4" s="262"/>
     </row>
     <row r="5" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -24103,19 +24117,19 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">Games!L5</f>
-        <v>114</v>
-      </c>
-      <c r="F5" s="246" t="str">
+        <v>117</v>
+      </c>
+      <c r="F5" s="247" t="str">
         <f ca="1">Games!O5</f>
-        <v>Auburn</v>
-      </c>
-      <c r="G5" s="252" t="e" vm="65">
+        <v>Alabama State</v>
+      </c>
+      <c r="G5" s="240" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(F5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="274">
+      <c r="H5" s="269">
         <f ca="1">Games!L38</f>
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -24133,21 +24147,21 @@
       <c r="AA5" s="25"/>
       <c r="AD5" s="25"/>
       <c r="AG5" s="25"/>
-      <c r="AH5" s="270">
+      <c r="AH5" s="242">
         <f ca="1">Games!L46</f>
-        <v>98</v>
-      </c>
-      <c r="AI5" s="250" t="e" vm="98">
+        <v>111</v>
+      </c>
+      <c r="AI5" s="236" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AJ5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="246" t="str">
+      <c r="AJ5" s="247" t="str">
         <f ca="1">Games!O21</f>
         <v>Mount St. Mary's</v>
       </c>
       <c r="AK5" s="58">
         <f ca="1">Games!L21</f>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AL5" s="46" t="e" vm="97">
         <f>_xlfn.XLOOKUP(AM5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24161,14 +24175,14 @@
         <v>1</v>
       </c>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="289"/>
+      <c r="AQ5" s="262"/>
       <c r="AU5" s="2" t="b">
         <f>IF(AP29="x",TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="273">
+      <c r="A6" s="246">
         <f>IF($AU$5=TRUE,1,"")</f>
         <v>1</v>
       </c>
@@ -24176,9 +24190,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="71"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="271"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="243"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="L6" s="25"/>
@@ -24195,20 +24209,20 @@
       <c r="AA6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AG6" s="25"/>
-      <c r="AH6" s="271"/>
-      <c r="AI6" s="251"/>
-      <c r="AJ6" s="247"/>
+      <c r="AH6" s="243"/>
+      <c r="AI6" s="237"/>
+      <c r="AJ6" s="248"/>
       <c r="AK6" s="55"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="28"/>
-      <c r="AO6" s="287">
+      <c r="AO6" s="263">
         <f>IF($AU$5=TRUE,A66+1,"")</f>
         <v>17</v>
       </c>
-      <c r="AQ6" s="289"/>
+      <c r="AQ6" s="262"/>
     </row>
     <row r="7" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="273"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="27">
         <v>16</v>
       </c>
@@ -24222,25 +24236,25 @@
       </c>
       <c r="E7" s="48">
         <f ca="1">Games!N5</f>
-        <v>97</v>
-      </c>
-      <c r="F7" s="272">
+        <v>117</v>
+      </c>
+      <c r="F7" s="264">
         <f>IF($AU$5=TRUE,AO66+1,"")</f>
         <v>33</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="268" t="str">
+      <c r="I7" s="256" t="str">
         <f ca="1">Games!O38</f>
-        <v>Auburn</v>
-      </c>
-      <c r="J7" s="252" t="e" vm="65">
+        <v>Louisville</v>
+      </c>
+      <c r="J7" s="240" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="270">
+      <c r="K7" s="242">
         <f ca="1">Games!L55</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -24255,27 +24269,27 @@
       <c r="X7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="270">
+      <c r="AE7" s="242">
         <f ca="1">Games!L59</f>
-        <v>111</v>
-      </c>
-      <c r="AF7" s="250" t="e" vm="99">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="236" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AG7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG7" s="246" t="str">
+      <c r="AG7" s="247" t="str">
         <f ca="1">Games!O46</f>
-        <v>Mississippi State</v>
+        <v>Mount St. Mary's</v>
       </c>
       <c r="AH7" s="55"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="272">
+      <c r="AJ7" s="264">
         <f>IF($AU$5=TRUE,F63+1,"")</f>
         <v>41</v>
       </c>
       <c r="AK7" s="59">
         <f ca="1">Games!N21</f>
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AL7" s="46" t="e" vm="98">
         <f>_xlfn.XLOOKUP(AM7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24288,20 +24302,20 @@
       <c r="AN7" s="27">
         <v>16</v>
       </c>
-      <c r="AO7" s="287"/>
-      <c r="AQ7" s="289"/>
+      <c r="AO7" s="263"/>
+      <c r="AQ7" s="262"/>
     </row>
     <row r="8" spans="1:47" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="71"/>
-      <c r="F8" s="273"/>
+      <c r="F8" s="246"/>
       <c r="G8" s="15"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="271"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="243"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="O8" s="25"/>
@@ -24315,15 +24329,15 @@
       <c r="X8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="271"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="247"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="237"/>
+      <c r="AG8" s="248"/>
       <c r="AH8" s="56"/>
-      <c r="AJ8" s="273"/>
+      <c r="AJ8" s="246"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="17"/>
-      <c r="AQ8" s="289"/>
+      <c r="AQ8" s="262"/>
     </row>
     <row r="9" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
@@ -24340,19 +24354,19 @@
       </c>
       <c r="E9" s="46">
         <f ca="1">Games!L6</f>
-        <v>118</v>
-      </c>
-      <c r="F9" s="246" t="str">
+        <v>120</v>
+      </c>
+      <c r="F9" s="247" t="str">
         <f ca="1">Games!O6</f>
-        <v>Creighton</v>
-      </c>
-      <c r="G9" s="252" t="e" vm="68">
+        <v>Louisville</v>
+      </c>
+      <c r="G9" s="240" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(F9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="248">
+      <c r="H9" s="252">
         <f ca="1">Games!N38</f>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -24372,21 +24386,21 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="55"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="279">
+      <c r="AH9" s="244">
         <f ca="1">Games!N46</f>
-        <v>100</v>
-      </c>
-      <c r="AI9" s="250" t="e" vm="99">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="236" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(AJ9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ9" s="246" t="str">
+      <c r="AJ9" s="247" t="str">
         <f ca="1">Games!O22</f>
-        <v>Mississippi State</v>
+        <v>Baylor</v>
       </c>
       <c r="AK9" s="58">
         <f ca="1">Games!L22</f>
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AL9" s="46" t="e" vm="99">
         <f>_xlfn.XLOOKUP(AM9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24400,10 +24414,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="17"/>
-      <c r="AQ9" s="289"/>
+      <c r="AQ9" s="262"/>
     </row>
     <row r="10" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="288">
+      <c r="A10" s="267">
         <f>IF($AU$5=TRUE,A6+1,"")</f>
         <v>2</v>
       </c>
@@ -24411,9 +24425,9 @@
       <c r="C10" s="38"/>
       <c r="D10" s="71"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="249"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="253"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="50"/>
@@ -24432,20 +24446,20 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="56"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="280"/>
-      <c r="AI10" s="251"/>
-      <c r="AJ10" s="247"/>
+      <c r="AH10" s="245"/>
+      <c r="AI10" s="237"/>
+      <c r="AJ10" s="248"/>
       <c r="AK10" s="55"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="28"/>
-      <c r="AO10" s="287">
+      <c r="AO10" s="263">
         <f>IF($AU$5=TRUE,AO6+1,"")</f>
         <v>18</v>
       </c>
-      <c r="AQ10" s="289"/>
+      <c r="AQ10" s="262"/>
     </row>
     <row r="11" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="288"/>
+      <c r="A11" s="267"/>
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -24459,62 +24473,62 @@
       </c>
       <c r="E11" s="48">
         <f ca="1">Games!N6</f>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="273">
+      <c r="I11" s="246">
         <f>IF($AU$5=TRUE,AJ63+1,"")</f>
         <v>49</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="268" t="str">
+      <c r="L11" s="256" t="str">
         <f ca="1">Games!O55</f>
-        <v>UC San Diego</v>
-      </c>
-      <c r="M11" s="252" t="e" vm="70">
+        <v>Yale</v>
+      </c>
+      <c r="M11" s="240" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(L11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="270">
+      <c r="N11" s="242">
         <f ca="1">Games!L64</f>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="256" t="e" vm="115">
+      <c r="T11" s="271" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(S32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="257"/>
-      <c r="V11" s="258"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="273"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="270">
+      <c r="AB11" s="242">
         <f ca="1">Games!L66</f>
-        <v>103</v>
-      </c>
-      <c r="AC11" s="254" t="e" vm="104">
+        <v>110</v>
+      </c>
+      <c r="AC11" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AD11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="246" t="str">
+      <c r="AD11" s="247" t="str">
         <f ca="1">Games!O59</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="AE11" s="56"/>
-      <c r="AG11" s="273">
+      <c r="AG11" s="246">
         <f>IF($AU$5=TRUE,I59+1,"")</f>
         <v>53</v>
       </c>
       <c r="AJ11" s="24"/>
       <c r="AK11" s="59">
         <f ca="1">Games!N22</f>
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AL11" s="46" t="e" vm="100">
         <f>_xlfn.XLOOKUP(AM11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24527,8 +24541,8 @@
       <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="287"/>
-      <c r="AQ11" s="289"/>
+      <c r="AO11" s="263"/>
+      <c r="AQ11" s="262"/>
     </row>
     <row r="12" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -24537,27 +24551,27 @@
       <c r="D12" s="71"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="273"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="15"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="271"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="243"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="260"/>
-      <c r="V12" s="261"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="275"/>
+      <c r="V12" s="276"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="255"/>
-      <c r="AD12" s="247"/>
+      <c r="AB12" s="243"/>
+      <c r="AC12" s="239"/>
+      <c r="AD12" s="248"/>
       <c r="AE12" s="56"/>
-      <c r="AG12" s="273"/>
+      <c r="AG12" s="246"/>
       <c r="AJ12" s="24"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="28"/>
@@ -24578,19 +24592,19 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">Games!L7</f>
-        <v>92</v>
-      </c>
-      <c r="F13" s="246" t="str">
+        <v>102</v>
+      </c>
+      <c r="F13" s="247" t="str">
         <f ca="1">Games!O7</f>
         <v>UC San Diego</v>
       </c>
-      <c r="G13" s="252" t="e" vm="70">
+      <c r="G13" s="240" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(F13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="270">
+      <c r="H13" s="242">
         <f ca="1">Games!L39</f>
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -24602,9 +24616,9 @@
       <c r="P13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="260"/>
-      <c r="V13" s="261"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="275"/>
+      <c r="V13" s="276"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="AA13" s="25"/>
@@ -24612,21 +24626,21 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="56"/>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="270">
+      <c r="AH13" s="242">
         <f ca="1">Games!L47</f>
-        <v>91</v>
-      </c>
-      <c r="AI13" s="254" t="e" vm="102">
+        <v>110</v>
+      </c>
+      <c r="AI13" s="238" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AJ13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ13" s="246" t="str">
+      <c r="AJ13" s="247" t="str">
         <f ca="1">Games!O23</f>
         <v>Liberty</v>
       </c>
       <c r="AK13" s="58">
         <f ca="1">Games!L23</f>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AL13" s="46" t="e" vm="101">
         <f>_xlfn.XLOOKUP(AM13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24643,7 +24657,7 @@
       <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="273">
+      <c r="A14" s="246">
         <f>IF($AU$5=TRUE,A10+1,"")</f>
         <v>3</v>
       </c>
@@ -24651,9 +24665,9 @@
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="271"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="243"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="50"/>
@@ -24664,9 +24678,9 @@
       <c r="P14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="260"/>
-      <c r="V14" s="261"/>
+      <c r="T14" s="274"/>
+      <c r="U14" s="275"/>
+      <c r="V14" s="276"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="AA14" s="25"/>
@@ -24674,20 +24688,20 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="56"/>
       <c r="AG14" s="24"/>
-      <c r="AH14" s="271"/>
-      <c r="AI14" s="255"/>
-      <c r="AJ14" s="247"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="239"/>
+      <c r="AJ14" s="248"/>
       <c r="AK14" s="55"/>
       <c r="AM14" s="39"/>
       <c r="AN14" s="28"/>
-      <c r="AO14" s="287">
+      <c r="AO14" s="263">
         <f>IF($AU$5=TRUE,AO10+1,"")</f>
         <v>19</v>
       </c>
-      <c r="AQ14" s="289"/>
+      <c r="AQ14" s="262"/>
     </row>
     <row r="15" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="273"/>
+      <c r="A15" s="246"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -24701,25 +24715,25 @@
       </c>
       <c r="E15" s="48">
         <f ca="1">Games!N7</f>
-        <v>106</v>
-      </c>
-      <c r="F15" s="272">
+        <v>108</v>
+      </c>
+      <c r="F15" s="264">
         <f>IF($AU$5=TRUE,F7+1,"")</f>
         <v>34</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="268" t="str">
+      <c r="I15" s="256" t="str">
         <f ca="1">Games!O39</f>
-        <v>UC San Diego</v>
-      </c>
-      <c r="J15" s="252" t="e" vm="70">
+        <v>Yale</v>
+      </c>
+      <c r="J15" s="240" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="248">
+      <c r="K15" s="252">
         <f ca="1">Games!N55</f>
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -24728,35 +24742,35 @@
       <c r="P15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="259"/>
-      <c r="U15" s="260"/>
-      <c r="V15" s="261"/>
+      <c r="T15" s="274"/>
+      <c r="U15" s="275"/>
+      <c r="V15" s="276"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="56"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="279">
+      <c r="AE15" s="244">
         <f ca="1">Games!N59</f>
         <v>115</v>
       </c>
-      <c r="AF15" s="254" t="e" vm="104">
+      <c r="AF15" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AG15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG15" s="246" t="str">
+      <c r="AG15" s="247" t="str">
         <f ca="1">Games!O47</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="51"/>
-      <c r="AJ15" s="272">
+      <c r="AJ15" s="264">
         <f>IF($AU$5=TRUE,AJ7+1,"")</f>
         <v>42</v>
       </c>
       <c r="AK15" s="59">
         <f ca="1">Games!N23</f>
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AL15" s="46" t="e" vm="102">
         <f>_xlfn.XLOOKUP(AM15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24769,20 +24783,20 @@
       <c r="AN15" s="27">
         <v>12</v>
       </c>
-      <c r="AO15" s="287"/>
-      <c r="AQ15" s="289"/>
+      <c r="AO15" s="263"/>
+      <c r="AQ15" s="262"/>
     </row>
     <row r="16" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="28"/>
       <c r="C16" s="38"/>
       <c r="D16" s="71"/>
-      <c r="F16" s="273"/>
+      <c r="F16" s="246"/>
       <c r="G16" s="15"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="249"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="253"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="50"/>
@@ -24790,23 +24804,23 @@
       <c r="P16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="259"/>
-      <c r="U16" s="260"/>
-      <c r="V16" s="261"/>
+      <c r="T16" s="274"/>
+      <c r="U16" s="275"/>
+      <c r="V16" s="276"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="56"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="280"/>
-      <c r="AF16" s="255"/>
-      <c r="AG16" s="247"/>
+      <c r="AE16" s="245"/>
+      <c r="AF16" s="239"/>
+      <c r="AG16" s="248"/>
       <c r="AH16" s="56"/>
-      <c r="AJ16" s="273"/>
+      <c r="AJ16" s="246"/>
       <c r="AM16" s="39"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="17"/>
-      <c r="AQ16" s="289"/>
+      <c r="AQ16" s="262"/>
     </row>
     <row r="17" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -24823,19 +24837,19 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">Games!L8</f>
-        <v>102</v>
-      </c>
-      <c r="F17" s="246" t="str">
+        <v>110</v>
+      </c>
+      <c r="F17" s="247" t="str">
         <f ca="1">Games!O8</f>
         <v>Yale</v>
       </c>
-      <c r="G17" s="252" t="e" vm="72">
+      <c r="G17" s="240" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(F17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="248">
+      <c r="H17" s="252">
         <f ca="1">Games!N39</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -24846,30 +24860,30 @@
       <c r="P17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="261"/>
+      <c r="T17" s="274"/>
+      <c r="U17" s="275"/>
+      <c r="V17" s="276"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="56"/>
       <c r="AD17" s="25"/>
       <c r="AG17" s="24"/>
-      <c r="AH17" s="279">
+      <c r="AH17" s="244">
         <f ca="1">Games!N47</f>
-        <v>114</v>
-      </c>
-      <c r="AI17" s="254" t="e" vm="104">
+        <v>115</v>
+      </c>
+      <c r="AI17" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AJ17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ17" s="246" t="str">
+      <c r="AJ17" s="247" t="str">
         <f ca="1">Games!O24</f>
-        <v>Akron</v>
+        <v>Arizona</v>
       </c>
       <c r="AK17" s="58">
         <f ca="1">Games!L24</f>
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AL17" s="46" t="e" vm="103">
         <f>_xlfn.XLOOKUP(AM17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24883,10 +24897,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="17"/>
-      <c r="AQ17" s="289"/>
+      <c r="AQ17" s="262"/>
     </row>
     <row r="18" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="273">
+      <c r="A18" s="246">
         <f>IF($AU$5=TRUE,A14+1,"")</f>
         <v>4</v>
       </c>
@@ -24894,9 +24908,9 @@
       <c r="C18" s="38"/>
       <c r="D18" s="71"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="249"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="253"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="L18" s="25"/>
@@ -24906,29 +24920,29 @@
       <c r="P18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="259"/>
-      <c r="U18" s="260"/>
-      <c r="V18" s="261"/>
+      <c r="T18" s="274"/>
+      <c r="U18" s="275"/>
+      <c r="V18" s="276"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="56"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="280"/>
-      <c r="AI18" s="255"/>
-      <c r="AJ18" s="247"/>
+      <c r="AH18" s="245"/>
+      <c r="AI18" s="239"/>
+      <c r="AJ18" s="248"/>
       <c r="AK18" s="55"/>
       <c r="AM18" s="39"/>
       <c r="AN18" s="28"/>
-      <c r="AO18" s="287">
+      <c r="AO18" s="263">
         <f>IF($AU$5=TRUE,AO14+1,"")</f>
         <v>20</v>
       </c>
-      <c r="AQ18" s="289"/>
+      <c r="AQ18" s="262"/>
     </row>
     <row r="19" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="273"/>
+      <c r="A19" s="246"/>
       <c r="B19" s="27">
         <v>13</v>
       </c>
@@ -24942,60 +24956,60 @@
       </c>
       <c r="E19" s="48">
         <f ca="1">Games!N8</f>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="275" t="s">
+      <c r="K19" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="275"/>
+      <c r="L19" s="249"/>
       <c r="M19" s="20"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="268" t="str">
+      <c r="O19" s="256" t="str">
         <f ca="1">Games!O64</f>
         <v>Mississippi</v>
       </c>
-      <c r="P19" s="252" t="e" vm="73">
+      <c r="P19" s="240" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="270">
+      <c r="Q19" s="242">
         <f ca="1">Games!L69</f>
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="263"/>
-      <c r="V19" s="264"/>
+      <c r="T19" s="277"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="279"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="270">
+      <c r="Y19" s="242">
         <f ca="1">Games!L70</f>
-        <v>97</v>
-      </c>
-      <c r="Z19" s="254" t="e" vm="108">
+        <v>109</v>
+      </c>
+      <c r="Z19" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AA19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA19" s="246" t="str">
+      <c r="AA19" s="247" t="str">
         <f ca="1">Games!O66</f>
-        <v>Montana</v>
+        <v>Arizona</v>
       </c>
       <c r="AB19" s="56"/>
-      <c r="AD19" s="275" t="s">
+      <c r="AD19" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="275"/>
+      <c r="AE19" s="249"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="59">
         <f ca="1">Games!N24</f>
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AL19" s="46" t="e" vm="104">
         <f>_xlfn.XLOOKUP(AM19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25008,8 +25022,8 @@
       <c r="AN19" s="27">
         <v>13</v>
       </c>
-      <c r="AO19" s="287"/>
-      <c r="AQ19" s="289"/>
+      <c r="AO19" s="263"/>
+      <c r="AQ19" s="262"/>
     </row>
     <row r="20" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
@@ -25020,13 +25034,13 @@
       <c r="G20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="275"/>
-      <c r="L20" s="275"/>
+      <c r="K20" s="249"/>
+      <c r="L20" s="249"/>
       <c r="M20" s="20"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="269"/>
-      <c r="P20" s="253"/>
-      <c r="Q20" s="271"/>
+      <c r="O20" s="257"/>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="243"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -25034,12 +25048,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="271"/>
-      <c r="Z20" s="255"/>
-      <c r="AA20" s="247"/>
+      <c r="Y20" s="243"/>
+      <c r="Z20" s="239"/>
+      <c r="AA20" s="248"/>
       <c r="AB20" s="56"/>
-      <c r="AD20" s="275"/>
-      <c r="AE20" s="275"/>
+      <c r="AD20" s="249"/>
+      <c r="AE20" s="249"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="24"/>
       <c r="AJ20" s="24"/>
@@ -25049,7 +25063,7 @@
       <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="273">
+      <c r="A21" s="246">
         <f>IF($AU$5=TRUE,A18+1,"")</f>
         <v>5</v>
       </c>
@@ -25066,19 +25080,19 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">Games!L9</f>
-        <v>107</v>
-      </c>
-      <c r="F21" s="246" t="str">
+        <v>120</v>
+      </c>
+      <c r="F21" s="247" t="str">
         <f ca="1">Games!O9</f>
         <v>Mississippi</v>
       </c>
-      <c r="G21" s="252" t="e" vm="73">
+      <c r="G21" s="240" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(F21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="270">
+      <c r="H21" s="242">
         <f ca="1">Games!L40</f>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -25106,15 +25120,15 @@
         <v>59</v>
       </c>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="270">
+      <c r="AH21" s="242">
         <f ca="1">Games!L48</f>
-        <v>101</v>
-      </c>
-      <c r="AI21" s="254" t="e" vm="106">
+        <v>116</v>
+      </c>
+      <c r="AI21" s="238" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AJ21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ21" s="246" t="str">
+      <c r="AJ21" s="247" t="str">
         <f ca="1">Games!O25</f>
         <v>Virginia Commonwealth</v>
       </c>
@@ -25137,14 +25151,14 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="273"/>
+      <c r="A22" s="246"/>
       <c r="B22" s="28"/>
       <c r="C22" s="38"/>
       <c r="D22" s="71"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="271"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="243"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="L22" s="25"/>
@@ -25165,17 +25179,17 @@
       <c r="AB22" s="56"/>
       <c r="AD22" s="29"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="271"/>
-      <c r="AI22" s="255"/>
-      <c r="AJ22" s="247"/>
+      <c r="AH22" s="243"/>
+      <c r="AI22" s="239"/>
+      <c r="AJ22" s="248"/>
       <c r="AK22" s="55"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="28"/>
-      <c r="AO22" s="287">
+      <c r="AO22" s="263">
         <f>IF($AU$5=TRUE,AO18+1,"")</f>
         <v>21</v>
       </c>
-      <c r="AQ22" s="289"/>
+      <c r="AQ22" s="262"/>
     </row>
     <row r="23" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
@@ -25192,25 +25206,25 @@
       </c>
       <c r="E23" s="48">
         <f ca="1">Games!N9</f>
-        <v>95</v>
-      </c>
-      <c r="F23" s="272">
+        <v>97</v>
+      </c>
+      <c r="F23" s="264">
         <f>IF($AU$5=TRUE,F15+1,"")</f>
         <v>35</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="268" t="str">
+      <c r="I23" s="256" t="str">
         <f ca="1">Games!O40</f>
         <v>Mississippi</v>
       </c>
-      <c r="J23" s="252" t="e" vm="73">
+      <c r="J23" s="240" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="270">
+      <c r="K23" s="242">
         <f ca="1">Games!L56</f>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -25229,27 +25243,27 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="56"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="270">
+      <c r="AE23" s="242">
         <f ca="1">Games!L60</f>
-        <v>106</v>
-      </c>
-      <c r="AF23" s="254" t="e" vm="108">
+        <v>99</v>
+      </c>
+      <c r="AF23" s="238" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AG23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG23" s="246" t="str">
+      <c r="AG23" s="247" t="str">
         <f ca="1">Games!O48</f>
         <v>Montana</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="51"/>
-      <c r="AJ23" s="272">
+      <c r="AJ23" s="264">
         <f>IF($AU$5=TRUE,AJ15+1,"")</f>
         <v>43</v>
       </c>
       <c r="AK23" s="59">
         <f ca="1">Games!N25</f>
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AL23" s="46" t="e" vm="106">
         <f>_xlfn.XLOOKUP(AM23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25262,20 +25276,20 @@
       <c r="AN23" s="27">
         <v>11</v>
       </c>
-      <c r="AO23" s="287"/>
-      <c r="AQ23" s="289"/>
+      <c r="AO23" s="263"/>
+      <c r="AQ23" s="262"/>
     </row>
     <row r="24" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="28"/>
       <c r="C24" s="38"/>
       <c r="D24" s="71"/>
-      <c r="F24" s="273"/>
+      <c r="F24" s="246"/>
       <c r="G24" s="15"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="271"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="243"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="50"/>
@@ -25293,15 +25307,15 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="56"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="255"/>
-      <c r="AG24" s="247"/>
+      <c r="AE24" s="243"/>
+      <c r="AF24" s="239"/>
+      <c r="AG24" s="248"/>
       <c r="AH24" s="56"/>
-      <c r="AJ24" s="273"/>
+      <c r="AJ24" s="246"/>
       <c r="AM24" s="39"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="17"/>
-      <c r="AQ24" s="289"/>
+      <c r="AQ24" s="262"/>
     </row>
     <row r="25" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -25318,19 +25332,19 @@
       </c>
       <c r="E25" s="46">
         <f ca="1">Games!L10</f>
-        <v>111</v>
-      </c>
-      <c r="F25" s="246" t="str">
+        <v>99</v>
+      </c>
+      <c r="F25" s="247" t="str">
         <f ca="1">Games!O10</f>
         <v>Iowa State</v>
       </c>
-      <c r="G25" s="252" t="e" vm="75">
+      <c r="G25" s="240" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(F25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="248">
+      <c r="H25" s="252">
         <f ca="1">Games!N40</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -25354,21 +25368,21 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="55"/>
       <c r="AG25" s="24"/>
-      <c r="AH25" s="279">
+      <c r="AH25" s="244">
         <f ca="1">Games!N48</f>
-        <v>102</v>
-      </c>
-      <c r="AI25" s="254" t="e" vm="108">
+        <v>117</v>
+      </c>
+      <c r="AI25" s="238" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AJ25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ25" s="246" t="str">
+      <c r="AJ25" s="247" t="str">
         <f ca="1">Games!O26</f>
         <v>Montana</v>
       </c>
       <c r="AK25" s="58">
         <f ca="1">Games!L26</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AL25" s="46" t="e" vm="107">
         <f>_xlfn.XLOOKUP(AM25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25382,10 +25396,10 @@
         <v>3</v>
       </c>
       <c r="AO25" s="17"/>
-      <c r="AQ25" s="289"/>
+      <c r="AQ25" s="262"/>
     </row>
     <row r="26" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="273">
+      <c r="A26" s="246">
         <f>IF($AU$5=TRUE,A21+1,"")</f>
         <v>6</v>
       </c>
@@ -25393,9 +25407,9 @@
       <c r="C26" s="38"/>
       <c r="D26" s="71"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="249"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="253"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="50"/>
@@ -25418,20 +25432,20 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="56"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="280"/>
-      <c r="AI26" s="255"/>
-      <c r="AJ26" s="247"/>
+      <c r="AH26" s="245"/>
+      <c r="AI26" s="239"/>
+      <c r="AJ26" s="248"/>
       <c r="AK26" s="55"/>
       <c r="AM26" s="39"/>
       <c r="AN26" s="28"/>
-      <c r="AO26" s="287">
+      <c r="AO26" s="263">
         <f>IF($AU$5=TRUE,AO22+1,"")</f>
         <v>22</v>
       </c>
-      <c r="AQ26" s="289"/>
+      <c r="AQ26" s="262"/>
     </row>
     <row r="27" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="273"/>
+      <c r="A27" s="246"/>
       <c r="B27" s="27">
         <v>14</v>
       </c>
@@ -25445,70 +25459,70 @@
       </c>
       <c r="E27" s="48">
         <f ca="1">Games!N10</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" s="273">
+      <c r="I27" s="246">
         <f>IF($AU$5=TRUE,I11+1,"")</f>
         <v>50</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="268" t="str">
+      <c r="L27" s="256" t="str">
         <f ca="1">Games!O56</f>
         <v>Mississippi</v>
       </c>
-      <c r="M27" s="252" t="e" vm="73">
+      <c r="M27" s="240" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(L27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N27" s="248">
+      <c r="N27" s="252">
         <f ca="1">Games!N64</f>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="268" t="str">
+      <c r="R27" s="256" t="str">
         <f ca="1">Games!O69</f>
-        <v>Mississippi</v>
-      </c>
-      <c r="S27" s="246"/>
-      <c r="T27" s="246"/>
-      <c r="U27" s="294" t="e" vm="73">
+        <v>Norfolk State</v>
+      </c>
+      <c r="S27" s="247"/>
+      <c r="T27" s="247"/>
+      <c r="U27" s="260" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(R27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V27" s="277">
+      <c r="V27" s="265">
         <f ca="1">Games!L72</f>
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="56"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="279">
+      <c r="AB27" s="244">
         <f ca="1">Games!N66</f>
-        <v>109</v>
-      </c>
-      <c r="AC27" s="254" t="e" vm="108">
+        <v>106</v>
+      </c>
+      <c r="AC27" s="238" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(AD27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" s="246" t="str">
+      <c r="AD27" s="247" t="str">
         <f ca="1">Games!O60</f>
-        <v>Montana</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="AE27" s="56"/>
-      <c r="AG27" s="273">
+      <c r="AG27" s="246">
         <f>IF($AU$5=TRUE,AG11+1,"")</f>
         <v>54</v>
       </c>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="59">
         <f ca="1">Games!N26</f>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AL27" s="46" t="e" vm="108">
         <f>_xlfn.XLOOKUP(AM27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25521,8 +25535,8 @@
       <c r="AN27" s="27">
         <v>14</v>
       </c>
-      <c r="AO27" s="287"/>
-      <c r="AQ27" s="289"/>
+      <c r="AO27" s="263"/>
+      <c r="AQ27" s="262"/>
     </row>
     <row r="28" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
@@ -25531,29 +25545,29 @@
       <c r="D28" s="71"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" s="273"/>
+      <c r="I28" s="246"/>
       <c r="J28" s="15"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="269"/>
-      <c r="M28" s="253"/>
-      <c r="N28" s="249"/>
+      <c r="L28" s="257"/>
+      <c r="M28" s="241"/>
+      <c r="N28" s="253"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="295"/>
-      <c r="V28" s="278"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="248"/>
+      <c r="T28" s="248"/>
+      <c r="U28" s="261"/>
+      <c r="V28" s="266"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="56"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="280"/>
-      <c r="AC28" s="255"/>
-      <c r="AD28" s="247"/>
+      <c r="AB28" s="245"/>
+      <c r="AC28" s="239"/>
+      <c r="AD28" s="248"/>
       <c r="AE28" s="56"/>
-      <c r="AG28" s="273"/>
+      <c r="AG28" s="246"/>
       <c r="AJ28" s="24"/>
       <c r="AM28" s="39"/>
       <c r="AN28" s="28"/>
@@ -25574,19 +25588,19 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">Games!L11</f>
-        <v>104</v>
-      </c>
-      <c r="F29" s="246" t="str">
+        <v>102</v>
+      </c>
+      <c r="F29" s="247" t="str">
         <f ca="1">Games!O11</f>
-        <v>New Mexico</v>
-      </c>
-      <c r="G29" s="252" t="e" vm="78">
+        <v>Marquette</v>
+      </c>
+      <c r="G29" s="240" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(F29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="270">
+      <c r="H29" s="242">
         <f ca="1">Games!L41</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -25608,21 +25622,21 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="56"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="270">
+      <c r="AH29" s="242">
         <f ca="1">Games!L49</f>
-        <v>112</v>
-      </c>
-      <c r="AI29" s="254" t="e" vm="110">
+        <v>93</v>
+      </c>
+      <c r="AI29" s="238" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(AJ29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ29" s="246" t="str">
+      <c r="AJ29" s="247" t="str">
         <f ca="1">Games!O27</f>
         <v>Vanderbilt</v>
       </c>
       <c r="AK29" s="58">
         <f ca="1">Games!L27</f>
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AL29" s="46" t="e" vm="109">
         <f>_xlfn.XLOOKUP(AM29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25644,7 +25658,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="273">
+      <c r="A30" s="246">
         <f>IF($AU$5=TRUE,A26+1,"")</f>
         <v>7</v>
       </c>
@@ -25652,9 +25666,9 @@
       <c r="C30" s="38"/>
       <c r="D30" s="71"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="271"/>
+      <c r="F30" s="248"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="243"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="50"/>
@@ -25675,19 +25689,19 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="56"/>
       <c r="AG30" s="24"/>
-      <c r="AH30" s="271"/>
-      <c r="AI30" s="255"/>
-      <c r="AJ30" s="247"/>
+      <c r="AH30" s="243"/>
+      <c r="AI30" s="239"/>
+      <c r="AJ30" s="248"/>
       <c r="AK30" s="55"/>
       <c r="AM30" s="39"/>
       <c r="AN30" s="28"/>
-      <c r="AO30" s="287">
+      <c r="AO30" s="263">
         <f>IF($AU$5=TRUE,AO26+1,"")</f>
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="273"/>
+      <c r="A31" s="246"/>
       <c r="B31" s="27">
         <v>10</v>
       </c>
@@ -25701,25 +25715,25 @@
       </c>
       <c r="E31" s="48">
         <f ca="1">Games!N11</f>
-        <v>120</v>
-      </c>
-      <c r="F31" s="272">
+        <v>101</v>
+      </c>
+      <c r="F31" s="264">
         <f>IF($AU$5=TRUE,F23+1,"")</f>
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="268" t="str">
+      <c r="I31" s="256" t="str">
         <f ca="1">Games!O41</f>
-        <v>New Mexico</v>
-      </c>
-      <c r="J31" s="252" t="e" vm="78">
+        <v>Bryant</v>
+      </c>
+      <c r="J31" s="240" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="248">
+      <c r="K31" s="252">
         <f ca="1">Games!N56</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -25727,38 +25741,38 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="260" t="s">
+      <c r="S31" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="260"/>
-      <c r="U31" s="260"/>
-      <c r="V31" s="260"/>
-      <c r="W31" s="260"/>
+      <c r="T31" s="275"/>
+      <c r="U31" s="275"/>
+      <c r="V31" s="275"/>
+      <c r="W31" s="275"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="56"/>
       <c r="AA31" s="25"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="279">
+      <c r="AE31" s="244">
         <f ca="1">Games!N60</f>
-        <v>102</v>
-      </c>
-      <c r="AF31" s="254" t="e" vm="112">
+        <v>114</v>
+      </c>
+      <c r="AF31" s="238" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(AG31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG31" s="246" t="str">
+      <c r="AG31" s="247" t="str">
         <f ca="1">Games!O49</f>
-        <v>Robert Morris</v>
+        <v>Vanderbilt</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="51"/>
-      <c r="AJ31" s="272">
+      <c r="AJ31" s="264">
         <f>IF($AU$5=TRUE,AJ23+1,"")</f>
         <v>44</v>
       </c>
       <c r="AK31" s="59">
         <f ca="1">Games!N27</f>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL31" s="46" t="e" vm="110">
         <f>_xlfn.XLOOKUP(AM31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25771,42 +25785,42 @@
       <c r="AN31" s="27">
         <v>10</v>
       </c>
-      <c r="AO31" s="287"/>
+      <c r="AO31" s="263"/>
     </row>
     <row r="32" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="28"/>
       <c r="C32" s="38"/>
       <c r="D32" s="71"/>
-      <c r="F32" s="273"/>
+      <c r="F32" s="246"/>
       <c r="G32" s="15"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="269"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="249"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="253"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="30"/>
-      <c r="S32" s="281" t="str">
+      <c r="S32" s="282" t="str">
         <f ca="1">Games!O72</f>
-        <v>Gonzaga</v>
-      </c>
-      <c r="T32" s="282"/>
-      <c r="U32" s="282"/>
-      <c r="V32" s="282"/>
-      <c r="W32" s="283"/>
+        <v>Arizona</v>
+      </c>
+      <c r="T32" s="283"/>
+      <c r="U32" s="283"/>
+      <c r="V32" s="283"/>
+      <c r="W32" s="284"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="56"/>
       <c r="AA32" s="25"/>
       <c r="AD32" s="25"/>
-      <c r="AE32" s="280"/>
-      <c r="AF32" s="255"/>
-      <c r="AG32" s="247"/>
+      <c r="AE32" s="245"/>
+      <c r="AF32" s="239"/>
+      <c r="AG32" s="248"/>
       <c r="AH32" s="56"/>
-      <c r="AJ32" s="273"/>
+      <c r="AJ32" s="246"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="17"/>
@@ -25826,19 +25840,19 @@
       </c>
       <c r="E33" s="46">
         <f ca="1">Games!L12</f>
-        <v>90</v>
-      </c>
-      <c r="F33" s="246" t="str">
+        <v>95</v>
+      </c>
+      <c r="F33" s="247" t="str">
         <f ca="1">Games!O12</f>
         <v>Bryant</v>
       </c>
-      <c r="G33" s="252" t="e" vm="80">
+      <c r="G33" s="240" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(F33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="248">
+      <c r="H33" s="252">
         <f ca="1">Games!N41</f>
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -25848,31 +25862,31 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="30"/>
-      <c r="S33" s="284"/>
-      <c r="T33" s="285"/>
-      <c r="U33" s="285"/>
-      <c r="V33" s="285"/>
-      <c r="W33" s="286"/>
+      <c r="S33" s="285"/>
+      <c r="T33" s="286"/>
+      <c r="U33" s="286"/>
+      <c r="V33" s="286"/>
+      <c r="W33" s="287"/>
       <c r="X33" s="31"/>
       <c r="Y33" s="56"/>
       <c r="AA33" s="25"/>
       <c r="AD33" s="25"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="279">
+      <c r="AH33" s="244">
         <f ca="1">Games!N49</f>
-        <v>112</v>
-      </c>
-      <c r="AI33" s="254" t="e" vm="112">
+        <v>90</v>
+      </c>
+      <c r="AI33" s="238" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AJ33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ33" s="246" t="str">
+      <c r="AJ33" s="247" t="str">
         <f ca="1">Games!O28</f>
-        <v>Robert Morris</v>
+        <v>Alabama</v>
       </c>
       <c r="AK33" s="58">
         <f ca="1">Games!L28</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AL33" s="46" t="e" vm="111">
         <f>_xlfn.XLOOKUP(AM33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25889,7 +25903,7 @@
       <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="273">
+      <c r="A34" s="246">
         <f>IF($AU$5=TRUE,A30+1,"")</f>
         <v>8</v>
       </c>
@@ -25897,9 +25911,9 @@
       <c r="C34" s="38"/>
       <c r="D34" s="71"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="249"/>
+      <c r="F34" s="248"/>
+      <c r="G34" s="241"/>
+      <c r="H34" s="253"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="L34" s="25"/>
@@ -25918,20 +25932,20 @@
       <c r="AA34" s="25"/>
       <c r="AD34" s="25"/>
       <c r="AG34" s="24"/>
-      <c r="AH34" s="280"/>
-      <c r="AI34" s="255"/>
-      <c r="AJ34" s="247"/>
+      <c r="AH34" s="245"/>
+      <c r="AI34" s="239"/>
+      <c r="AJ34" s="248"/>
       <c r="AK34" s="55"/>
       <c r="AM34" s="39"/>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="287">
+      <c r="AO34" s="263">
         <f>IF($AU$5=TRUE,AO30+1,"")</f>
         <v>24</v>
       </c>
-      <c r="AQ34" s="289"/>
+      <c r="AQ34" s="262"/>
     </row>
     <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="273"/>
+      <c r="A35" s="246"/>
       <c r="B35" s="27">
         <v>15</v>
       </c>
@@ -25945,7 +25959,7 @@
       </c>
       <c r="E35" s="48">
         <f ca="1">Games!N12</f>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -25961,12 +25975,12 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="273">
+      <c r="T35" s="246">
         <f>IF($AU$5=TRUE,AA35+1,"")</f>
         <v>63</v>
       </c>
-      <c r="U35" s="273"/>
-      <c r="V35" s="273"/>
+      <c r="U35" s="246"/>
+      <c r="V35" s="246"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="56"/>
@@ -25979,7 +25993,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="59">
         <f ca="1">Games!N28</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AL35" s="46" t="e" vm="112">
         <f>_xlfn.XLOOKUP(AM35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25992,8 +26006,8 @@
       <c r="AN35" s="27">
         <v>15</v>
       </c>
-      <c r="AO35" s="287"/>
-      <c r="AQ35" s="289"/>
+      <c r="AO35" s="263"/>
+      <c r="AQ35" s="262"/>
     </row>
     <row r="36" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
@@ -26024,7 +26038,7 @@
       <c r="AM36" s="39"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="17"/>
-      <c r="AQ36" s="289"/>
+      <c r="AQ36" s="262"/>
     </row>
     <row r="37" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
@@ -26041,19 +26055,19 @@
       </c>
       <c r="E37" s="46">
         <f ca="1">Games!L13</f>
-        <v>110</v>
-      </c>
-      <c r="F37" s="246" t="str">
+        <v>94</v>
+      </c>
+      <c r="F37" s="247" t="str">
         <f ca="1">Games!O13</f>
-        <v>Florida</v>
-      </c>
-      <c r="G37" s="252" t="e" vm="81">
+        <v>Norfolk State</v>
+      </c>
+      <c r="G37" s="240" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(F37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="270">
+      <c r="H37" s="242">
         <f ca="1">Games!L42</f>
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -26073,21 +26087,21 @@
       <c r="AA37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AG37" s="24"/>
-      <c r="AH37" s="270">
+      <c r="AH37" s="242">
         <f ca="1">Games!L50</f>
-        <v>90</v>
-      </c>
-      <c r="AI37" s="254" t="e" vm="113">
+        <v>95</v>
+      </c>
+      <c r="AI37" s="238" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(AJ37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ37" s="246" t="str">
+      <c r="AJ37" s="247" t="str">
         <f ca="1">Games!O29</f>
-        <v>Houston</v>
+        <v>SIU Edwardsville</v>
       </c>
       <c r="AK37" s="58">
         <f ca="1">Games!L29</f>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AL37" s="46" t="e" vm="113">
         <f>_xlfn.XLOOKUP(AM37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26101,10 +26115,10 @@
         <v>1</v>
       </c>
       <c r="AO37" s="17"/>
-      <c r="AQ37" s="289"/>
+      <c r="AQ37" s="262"/>
     </row>
     <row r="38" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="273">
+      <c r="A38" s="246">
         <f>IF($AU$5=TRUE,A34+1,"")</f>
         <v>9</v>
       </c>
@@ -26112,9 +26126,9 @@
       <c r="C38" s="38"/>
       <c r="D38" s="71"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="247"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="271"/>
+      <c r="F38" s="248"/>
+      <c r="G38" s="241"/>
+      <c r="H38" s="243"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -26133,19 +26147,19 @@
       <c r="AA38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AG38" s="24"/>
-      <c r="AH38" s="271"/>
-      <c r="AI38" s="255"/>
-      <c r="AJ38" s="247"/>
+      <c r="AH38" s="243"/>
+      <c r="AI38" s="239"/>
+      <c r="AJ38" s="248"/>
       <c r="AK38" s="55"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="287">
+      <c r="AO38" s="263">
         <f>IF($AU$5=TRUE,AO34+1,"")</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="273"/>
+      <c r="A39" s="246"/>
       <c r="B39" s="27">
         <v>16</v>
       </c>
@@ -26159,25 +26173,25 @@
       </c>
       <c r="E39" s="48">
         <f ca="1">Games!N13</f>
-        <v>101</v>
-      </c>
-      <c r="F39" s="272">
+        <v>108</v>
+      </c>
+      <c r="F39" s="264">
         <f>IF($AU$5=TRUE,F31+1,"")</f>
         <v>37</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="268" t="str">
+      <c r="I39" s="256" t="str">
         <f ca="1">Games!O42</f>
-        <v>Florida</v>
-      </c>
-      <c r="J39" s="252" t="e" vm="81">
+        <v>Norfolk State</v>
+      </c>
+      <c r="J39" s="240" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="270">
+      <c r="K39" s="242">
         <f ca="1">Games!L57</f>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -26186,44 +26200,44 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="277">
+      <c r="T39" s="265">
         <f ca="1">Games!N72</f>
         <v>115</v>
       </c>
-      <c r="U39" s="292" t="e" vm="115">
+      <c r="U39" s="258" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(V39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="246" t="str">
+      <c r="V39" s="247" t="str">
         <f ca="1">Games!O70</f>
-        <v>Gonzaga</v>
-      </c>
-      <c r="W39" s="246"/>
-      <c r="X39" s="296"/>
+        <v>Arizona</v>
+      </c>
+      <c r="W39" s="247"/>
+      <c r="X39" s="250"/>
       <c r="Y39" s="56"/>
       <c r="AA39" s="25"/>
       <c r="AD39" s="25"/>
-      <c r="AE39" s="279">
+      <c r="AE39" s="244">
         <f ca="1">Games!L61</f>
-        <v>102</v>
-      </c>
-      <c r="AF39" s="254" t="e" vm="115">
+        <v>96</v>
+      </c>
+      <c r="AF39" s="238" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AG39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG39" s="246" t="str">
+      <c r="AG39" s="247" t="str">
         <f ca="1">Games!O50</f>
         <v>Gonzaga</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="51"/>
-      <c r="AJ39" s="272">
+      <c r="AJ39" s="264">
         <f>IF($AU$5=TRUE,AJ31+1,"")</f>
         <v>45</v>
       </c>
       <c r="AK39" s="59">
         <f ca="1">Games!N29</f>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AL39" s="46" t="e" vm="114">
         <f>_xlfn.XLOOKUP(AM39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26236,19 +26250,19 @@
       <c r="AN39" s="27">
         <v>16</v>
       </c>
-      <c r="AO39" s="287"/>
+      <c r="AO39" s="263"/>
     </row>
     <row r="40" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="71"/>
-      <c r="F40" s="273"/>
+      <c r="F40" s="246"/>
       <c r="G40" s="15"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="253"/>
-      <c r="K40" s="271"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="243"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="O40" s="25"/>
@@ -26256,19 +26270,19 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="278"/>
-      <c r="U40" s="293"/>
-      <c r="V40" s="247"/>
-      <c r="W40" s="247"/>
-      <c r="X40" s="297"/>
+      <c r="T40" s="266"/>
+      <c r="U40" s="259"/>
+      <c r="V40" s="248"/>
+      <c r="W40" s="248"/>
+      <c r="X40" s="251"/>
       <c r="Y40" s="56"/>
       <c r="AA40" s="25"/>
       <c r="AD40" s="25"/>
-      <c r="AE40" s="280"/>
-      <c r="AF40" s="255"/>
-      <c r="AG40" s="247"/>
+      <c r="AE40" s="245"/>
+      <c r="AF40" s="239"/>
+      <c r="AG40" s="248"/>
       <c r="AH40" s="56"/>
-      <c r="AJ40" s="273"/>
+      <c r="AJ40" s="246"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="28"/>
       <c r="AO40" s="17"/>
@@ -26288,19 +26302,19 @@
       </c>
       <c r="E41" s="46">
         <f ca="1">Games!L14</f>
-        <v>97</v>
-      </c>
-      <c r="F41" s="246" t="str">
+        <v>119</v>
+      </c>
+      <c r="F41" s="247" t="str">
         <f ca="1">Games!O14</f>
-        <v>Oklahoma</v>
-      </c>
-      <c r="G41" s="252" t="e" vm="84">
+        <v>Connecticut</v>
+      </c>
+      <c r="G41" s="240" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(F41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="248">
+      <c r="H41" s="252">
         <f ca="1">Games!N42</f>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -26322,21 +26336,21 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="55"/>
       <c r="AG41" s="24"/>
-      <c r="AH41" s="279">
+      <c r="AH41" s="244">
         <f ca="1">Games!N50</f>
-        <v>92</v>
-      </c>
-      <c r="AI41" s="254" t="e" vm="115">
+        <v>106</v>
+      </c>
+      <c r="AI41" s="238" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AJ41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ41" s="246" t="str">
+      <c r="AJ41" s="247" t="str">
         <f ca="1">Games!O30</f>
         <v>Gonzaga</v>
       </c>
       <c r="AK41" s="58">
         <f ca="1">Games!L30</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL41" s="46" t="e" vm="115">
         <f>_xlfn.XLOOKUP(AM41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26352,7 +26366,7 @@
       <c r="AO41" s="17"/>
     </row>
     <row r="42" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="273">
+      <c r="A42" s="246">
         <f>IF($AU$5=TRUE,A38+1,"")</f>
         <v>10</v>
       </c>
@@ -26360,9 +26374,9 @@
       <c r="C42" s="38"/>
       <c r="D42" s="71"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="249"/>
+      <c r="F42" s="248"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="253"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="50"/>
@@ -26383,19 +26397,19 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="56"/>
       <c r="AG42" s="24"/>
-      <c r="AH42" s="280"/>
-      <c r="AI42" s="255"/>
-      <c r="AJ42" s="247"/>
+      <c r="AH42" s="245"/>
+      <c r="AI42" s="239"/>
+      <c r="AJ42" s="248"/>
       <c r="AK42" s="55"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="28"/>
-      <c r="AO42" s="287">
+      <c r="AO42" s="263">
         <f>IF($AU$5=TRUE,AO38+1,"")</f>
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="273"/>
+      <c r="A43" s="246"/>
       <c r="B43" s="27">
         <v>9</v>
       </c>
@@ -26409,27 +26423,27 @@
       </c>
       <c r="E43" s="48">
         <f ca="1">Games!N14</f>
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" s="273">
+      <c r="I43" s="246">
         <f>IF($AU$5=TRUE,I27+1,"")</f>
         <v>51</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="268" t="str">
+      <c r="L43" s="256" t="str">
         <f ca="1">Games!O57</f>
-        <v>Florida</v>
-      </c>
-      <c r="M43" s="252" t="e" vm="81">
+        <v>Norfolk State</v>
+      </c>
+      <c r="M43" s="240" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(L43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="270">
+      <c r="N43" s="242">
         <f ca="1">Games!L65</f>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -26443,27 +26457,27 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="56"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="270">
+      <c r="AB43" s="242">
         <f ca="1">Games!L67</f>
-        <v>101</v>
-      </c>
-      <c r="AC43" s="254" t="e" vm="115">
+        <v>92</v>
+      </c>
+      <c r="AC43" s="238" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(AD43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD43" s="290" t="str">
+      <c r="AD43" s="254" t="str">
         <f ca="1">Games!O61</f>
-        <v>Gonzaga</v>
+        <v>High Point</v>
       </c>
       <c r="AE43" s="56"/>
-      <c r="AG43" s="273">
+      <c r="AG43" s="246">
         <f>IF($AU$5=TRUE,AG27+1,"")</f>
         <v>55</v>
       </c>
       <c r="AJ43" s="24"/>
       <c r="AK43" s="59">
         <f ca="1">Games!N30</f>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AL43" s="46" t="e" vm="116">
         <f>_xlfn.XLOOKUP(AM43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26476,7 +26490,7 @@
       <c r="AN43" s="27">
         <v>9</v>
       </c>
-      <c r="AO43" s="287"/>
+      <c r="AO43" s="263"/>
     </row>
     <row r="44" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
@@ -26485,12 +26499,12 @@
       <c r="D44" s="71"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="I44" s="273"/>
+      <c r="I44" s="246"/>
       <c r="J44" s="15"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="271"/>
+      <c r="L44" s="257"/>
+      <c r="M44" s="241"/>
+      <c r="N44" s="243"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="50"/>
@@ -26503,11 +26517,11 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="56"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="271"/>
-      <c r="AC44" s="255"/>
-      <c r="AD44" s="291"/>
+      <c r="AB44" s="243"/>
+      <c r="AC44" s="239"/>
+      <c r="AD44" s="255"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="273"/>
+      <c r="AG44" s="246"/>
       <c r="AJ44" s="24"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="28"/>
@@ -26528,19 +26542,19 @@
       </c>
       <c r="E45" s="46">
         <f ca="1">Games!L15</f>
-        <v>115</v>
-      </c>
-      <c r="F45" s="246" t="str">
+        <v>90</v>
+      </c>
+      <c r="F45" s="247" t="str">
         <f ca="1">Games!O15</f>
-        <v>Memphis</v>
-      </c>
-      <c r="G45" s="252" t="e" vm="85">
+        <v>Colorado State</v>
+      </c>
+      <c r="G45" s="240" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(F45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="270">
+      <c r="H45" s="242">
         <f ca="1">Games!L43</f>
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -26564,21 +26578,21 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="56"/>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="270">
+      <c r="AH45" s="242">
         <f ca="1">Games!L51</f>
-        <v>97</v>
-      </c>
-      <c r="AI45" s="254" t="e" vm="118">
+        <v>94</v>
+      </c>
+      <c r="AI45" s="238" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(AJ45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ45" s="246" t="str">
+      <c r="AJ45" s="247" t="str">
         <f ca="1">Games!O31</f>
-        <v>McNeese State</v>
+        <v>Clemson</v>
       </c>
       <c r="AK45" s="58">
         <f ca="1">Games!L31</f>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="AL45" s="46" t="e" vm="117">
         <f>_xlfn.XLOOKUP(AM45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26594,7 +26608,7 @@
       <c r="AO45" s="17"/>
     </row>
     <row r="46" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="273">
+      <c r="A46" s="246">
         <f>IF($AU$5=TRUE,A42+1,"")</f>
         <v>11</v>
       </c>
@@ -26602,9 +26616,9 @@
       <c r="C46" s="38"/>
       <c r="D46" s="71"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="253"/>
-      <c r="H46" s="271"/>
+      <c r="F46" s="248"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="243"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="50"/>
@@ -26627,19 +26641,19 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="24"/>
-      <c r="AH46" s="271"/>
-      <c r="AI46" s="255"/>
-      <c r="AJ46" s="247"/>
+      <c r="AH46" s="243"/>
+      <c r="AI46" s="239"/>
+      <c r="AJ46" s="248"/>
       <c r="AK46" s="55"/>
       <c r="AM46" s="39"/>
       <c r="AN46" s="28"/>
-      <c r="AO46" s="287">
+      <c r="AO46" s="263">
         <f>IF($AU$5=TRUE,AO42+1,"")</f>
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="273"/>
+      <c r="A47" s="246"/>
       <c r="B47" s="27">
         <v>12</v>
       </c>
@@ -26653,25 +26667,25 @@
       </c>
       <c r="E47" s="48">
         <f ca="1">Games!N15</f>
-        <v>100</v>
-      </c>
-      <c r="F47" s="272">
+        <v>102</v>
+      </c>
+      <c r="F47" s="264">
         <f>IF($AU$5=TRUE,F39+1,"")</f>
         <v>38</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="268" t="str">
+      <c r="I47" s="256" t="str">
         <f ca="1">Games!O43</f>
-        <v>Maryland</v>
-      </c>
-      <c r="J47" s="252" t="e" vm="87">
+        <v>Colorado State</v>
+      </c>
+      <c r="J47" s="240" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="248">
+      <c r="K47" s="252">
         <f ca="1">Games!N57</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -26690,27 +26704,27 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="56"/>
       <c r="AD47" s="25"/>
-      <c r="AE47" s="279">
+      <c r="AE47" s="244">
         <f ca="1">Games!N61</f>
-        <v>91</v>
-      </c>
-      <c r="AF47" s="254" t="e" vm="120">
+        <v>98</v>
+      </c>
+      <c r="AF47" s="238" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(AG47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG47" s="246" t="str">
+      <c r="AG47" s="247" t="str">
         <f ca="1">Games!O51</f>
         <v>High Point</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="51"/>
-      <c r="AJ47" s="272">
+      <c r="AJ47" s="264">
         <f>IF($AU$5=TRUE,AJ39+1,"")</f>
         <v>46</v>
       </c>
       <c r="AK47" s="59">
         <f ca="1">Games!N31</f>
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="AL47" s="46" t="e" vm="118">
         <f>_xlfn.XLOOKUP(AM47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26723,19 +26737,19 @@
       <c r="AN47" s="27">
         <v>12</v>
       </c>
-      <c r="AO47" s="287"/>
+      <c r="AO47" s="263"/>
     </row>
     <row r="48" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="28"/>
       <c r="C48" s="38"/>
       <c r="D48" s="71"/>
-      <c r="F48" s="273"/>
+      <c r="F48" s="246"/>
       <c r="G48" s="15"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="269"/>
-      <c r="J48" s="253"/>
-      <c r="K48" s="249"/>
+      <c r="I48" s="257"/>
+      <c r="J48" s="241"/>
+      <c r="K48" s="253"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="50"/>
@@ -26753,11 +26767,11 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="56"/>
       <c r="AD48" s="25"/>
-      <c r="AE48" s="280"/>
-      <c r="AF48" s="255"/>
-      <c r="AG48" s="247"/>
+      <c r="AE48" s="245"/>
+      <c r="AF48" s="239"/>
+      <c r="AG48" s="248"/>
       <c r="AH48" s="56"/>
-      <c r="AJ48" s="273"/>
+      <c r="AJ48" s="246"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="17"/>
@@ -26777,19 +26791,19 @@
       </c>
       <c r="E49" s="46">
         <f ca="1">Games!L16</f>
-        <v>120</v>
-      </c>
-      <c r="F49" s="246" t="str">
+        <v>104</v>
+      </c>
+      <c r="F49" s="247" t="str">
         <f ca="1">Games!O16</f>
-        <v>Maryland</v>
-      </c>
-      <c r="G49" s="252" t="e" vm="87">
+        <v>Grand Canyon</v>
+      </c>
+      <c r="G49" s="240" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(F49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="248">
+      <c r="H49" s="252">
         <f ca="1">Games!N43</f>
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -26811,21 +26825,21 @@
       <c r="AB49" s="56"/>
       <c r="AD49" s="25"/>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="279">
+      <c r="AH49" s="244">
         <f ca="1">Games!N51</f>
-        <v>98</v>
-      </c>
-      <c r="AI49" s="254" t="e" vm="120">
+        <v>94</v>
+      </c>
+      <c r="AI49" s="238" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(AJ49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ49" s="246" t="str">
+      <c r="AJ49" s="247" t="str">
         <f ca="1">Games!O32</f>
         <v>High Point</v>
       </c>
       <c r="AK49" s="58">
         <f ca="1">Games!L32</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AL49" s="46" t="e" vm="119">
         <f>_xlfn.XLOOKUP(AM49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26841,7 +26855,7 @@
       <c r="AO49" s="17"/>
     </row>
     <row r="50" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="273">
+      <c r="A50" s="246">
         <f>IF($AU$5=TRUE,A46+1,"")</f>
         <v>12</v>
       </c>
@@ -26849,9 +26863,9 @@
       <c r="C50" s="38"/>
       <c r="D50" s="71"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="247"/>
-      <c r="G50" s="253"/>
-      <c r="H50" s="249"/>
+      <c r="F50" s="248"/>
+      <c r="G50" s="241"/>
+      <c r="H50" s="253"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="L50" s="25"/>
@@ -26872,19 +26886,19 @@
       <c r="AB50" s="56"/>
       <c r="AD50" s="25"/>
       <c r="AG50" s="24"/>
-      <c r="AH50" s="280"/>
-      <c r="AI50" s="255"/>
-      <c r="AJ50" s="247"/>
+      <c r="AH50" s="245"/>
+      <c r="AI50" s="239"/>
+      <c r="AJ50" s="248"/>
       <c r="AK50" s="55"/>
       <c r="AM50" s="39"/>
       <c r="AN50" s="28"/>
-      <c r="AO50" s="287">
+      <c r="AO50" s="263">
         <f>IF($AU$5=TRUE,AO46+1,"")</f>
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="273"/>
+      <c r="A51" s="246"/>
       <c r="B51" s="27">
         <v>13</v>
       </c>
@@ -26898,29 +26912,29 @@
       </c>
       <c r="E51" s="48">
         <f ca="1">Games!N16</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="275" t="s">
+      <c r="K51" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="275"/>
+      <c r="L51" s="249"/>
       <c r="M51" s="20"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="268" t="str">
+      <c r="O51" s="256" t="str">
         <f ca="1">Games!O65</f>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="P51" s="252" t="e" vm="92">
+        <v>Norfolk State</v>
+      </c>
+      <c r="P51" s="240" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="248">
+      <c r="Q51" s="252">
         <f ca="1">Games!N69</f>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
@@ -26929,29 +26943,29 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="279">
+      <c r="Y51" s="244">
         <f ca="1">Games!N70</f>
-        <v>102</v>
-      </c>
-      <c r="Z51" s="254" t="e" vm="115">
+        <v>100</v>
+      </c>
+      <c r="Z51" s="238" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AA51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA51" s="246" t="str">
+      <c r="AA51" s="247" t="str">
         <f ca="1">Games!O67</f>
-        <v>Gonzaga</v>
+        <v>Wofford</v>
       </c>
       <c r="AB51" s="56"/>
-      <c r="AD51" s="275" t="s">
+      <c r="AD51" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="AE51" s="275"/>
+      <c r="AE51" s="249"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="24"/>
       <c r="AJ51" s="24"/>
       <c r="AK51" s="59">
         <f ca="1">Games!N32</f>
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AL51" s="46" t="e" vm="120">
         <f>_xlfn.XLOOKUP(AM51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26964,7 +26978,7 @@
       <c r="AN51" s="27">
         <v>13</v>
       </c>
-      <c r="AO51" s="287"/>
+      <c r="AO51" s="263"/>
     </row>
     <row r="52" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
@@ -26975,13 +26989,13 @@
       <c r="G52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="275"/>
-      <c r="L52" s="275"/>
+      <c r="K52" s="249"/>
+      <c r="L52" s="249"/>
       <c r="M52" s="20"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="269"/>
-      <c r="P52" s="253"/>
-      <c r="Q52" s="249"/>
+      <c r="O52" s="257"/>
+      <c r="P52" s="241"/>
+      <c r="Q52" s="253"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -26989,12 +27003,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="280"/>
-      <c r="Z52" s="255"/>
-      <c r="AA52" s="247"/>
+      <c r="Y52" s="245"/>
+      <c r="Z52" s="239"/>
+      <c r="AA52" s="248"/>
       <c r="AB52" s="56"/>
-      <c r="AD52" s="275"/>
-      <c r="AE52" s="275"/>
+      <c r="AD52" s="249"/>
+      <c r="AE52" s="249"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="24"/>
       <c r="AJ52" s="24"/>
@@ -27017,19 +27031,19 @@
       </c>
       <c r="E53" s="46">
         <f ca="1">Games!L17</f>
-        <v>94</v>
-      </c>
-      <c r="F53" s="246" t="str">
+        <v>92</v>
+      </c>
+      <c r="F53" s="247" t="str">
         <f ca="1">Games!O17</f>
         <v>Drake</v>
       </c>
-      <c r="G53" s="252" t="e" vm="90">
+      <c r="G53" s="240" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(F53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="270">
+      <c r="H53" s="242">
         <f ca="1">Games!L44</f>
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -27056,21 +27070,21 @@
         <v>60</v>
       </c>
       <c r="AG53" s="24"/>
-      <c r="AH53" s="270">
+      <c r="AH53" s="242">
         <f ca="1">Games!L52</f>
-        <v>101</v>
-      </c>
-      <c r="AI53" s="254" t="e" vm="122">
+        <v>111</v>
+      </c>
+      <c r="AI53" s="238" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(AJ53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ53" s="246" t="str">
+      <c r="AJ53" s="247" t="str">
         <f ca="1">Games!O33</f>
-        <v>Texas</v>
+        <v>Illinois</v>
       </c>
       <c r="AK53" s="58">
         <f ca="1">Games!L33</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL53" s="46" t="e" vm="121">
         <f>_xlfn.XLOOKUP(AM53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27086,7 +27100,7 @@
       <c r="AO53" s="17"/>
     </row>
     <row r="54" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="273">
+      <c r="A54" s="246">
         <f>IF($AU$5=TRUE,A50+1,"")</f>
         <v>13</v>
       </c>
@@ -27094,9 +27108,9 @@
       <c r="C54" s="38"/>
       <c r="D54" s="71"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="253"/>
-      <c r="H54" s="271"/>
+      <c r="F54" s="248"/>
+      <c r="G54" s="241"/>
+      <c r="H54" s="243"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="L54" s="25"/>
@@ -27115,19 +27129,19 @@
       <c r="AB54" s="56"/>
       <c r="AD54" s="25"/>
       <c r="AG54" s="24"/>
-      <c r="AH54" s="271"/>
-      <c r="AI54" s="255"/>
-      <c r="AJ54" s="247"/>
+      <c r="AH54" s="243"/>
+      <c r="AI54" s="239"/>
+      <c r="AJ54" s="248"/>
       <c r="AK54" s="55"/>
       <c r="AM54" s="39"/>
       <c r="AN54" s="28"/>
-      <c r="AO54" s="287">
+      <c r="AO54" s="263">
         <f>IF($AU$5=TRUE,AO50+1,"")</f>
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="273"/>
+      <c r="A55" s="246"/>
       <c r="B55" s="27">
         <v>11</v>
       </c>
@@ -27141,25 +27155,25 @@
       </c>
       <c r="E55" s="48">
         <f ca="1">Games!N17</f>
-        <v>97</v>
-      </c>
-      <c r="F55" s="272">
+        <v>110</v>
+      </c>
+      <c r="F55" s="264">
         <f>IF($AU$5=TRUE,F47+1,"")</f>
         <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="268" t="str">
+      <c r="I55" s="256" t="str">
         <f ca="1">Games!O44</f>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="J55" s="252" t="e" vm="92">
+        <v>Drake</v>
+      </c>
+      <c r="J55" s="240" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="270">
+      <c r="K55" s="242">
         <f ca="1">Games!L58</f>
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -27176,27 +27190,27 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="56"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="270">
+      <c r="AE55" s="242">
         <f ca="1">Games!L62</f>
         <v>108</v>
       </c>
-      <c r="AF55" s="254" t="e" vm="123">
+      <c r="AF55" s="238" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(AG55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG55" s="246" t="str">
+      <c r="AG55" s="247" t="str">
         <f ca="1">Games!O52</f>
-        <v>Kentucky</v>
+        <v>Illinois</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="51"/>
-      <c r="AJ55" s="272">
+      <c r="AJ55" s="264">
         <f>IF($AU$5=TRUE,AJ47+1,"")</f>
         <v>47</v>
       </c>
       <c r="AK55" s="59">
         <f ca="1">Games!N33</f>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AL55" s="46" t="e" vm="122">
         <f>_xlfn.XLOOKUP(AM55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27209,19 +27223,19 @@
       <c r="AN55" s="32">
         <v>11</v>
       </c>
-      <c r="AO55" s="287"/>
+      <c r="AO55" s="263"/>
     </row>
     <row r="56" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="71"/>
-      <c r="F56" s="273"/>
+      <c r="F56" s="246"/>
       <c r="G56" s="15"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="269"/>
-      <c r="J56" s="253"/>
-      <c r="K56" s="271"/>
+      <c r="I56" s="257"/>
+      <c r="J56" s="241"/>
+      <c r="K56" s="243"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="50"/>
@@ -27237,11 +27251,11 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="56"/>
       <c r="AD56" s="25"/>
-      <c r="AE56" s="271"/>
-      <c r="AF56" s="255"/>
-      <c r="AG56" s="247"/>
+      <c r="AE56" s="243"/>
+      <c r="AF56" s="239"/>
+      <c r="AG56" s="248"/>
       <c r="AH56" s="56"/>
-      <c r="AJ56" s="273"/>
+      <c r="AJ56" s="246"/>
       <c r="AM56" s="39"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="17"/>
@@ -27261,19 +27275,19 @@
       </c>
       <c r="E57" s="46">
         <f ca="1">Games!L18</f>
-        <v>94</v>
-      </c>
-      <c r="F57" s="246" t="str">
+        <v>115</v>
+      </c>
+      <c r="F57" s="247" t="str">
         <f ca="1">Games!O18</f>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="G57" s="252" t="e" vm="92">
+        <v>Texas Tech</v>
+      </c>
+      <c r="G57" s="240" t="e" vm="91">
         <f ca="1">_xlfn.XLOOKUP(F57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="248">
+      <c r="H57" s="252">
         <f ca="1">Games!N44</f>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -27295,21 +27309,21 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="55"/>
       <c r="AG57" s="24"/>
-      <c r="AH57" s="279">
+      <c r="AH57" s="244">
         <f ca="1">Games!N52</f>
-        <v>109</v>
-      </c>
-      <c r="AI57" s="254" t="e" vm="123">
+        <v>103</v>
+      </c>
+      <c r="AI57" s="238" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AJ57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ57" s="246" t="str">
+      <c r="AJ57" s="247" t="str">
         <f ca="1">Games!O34</f>
         <v>Kentucky</v>
       </c>
       <c r="AK57" s="58">
         <f ca="1">Games!L34</f>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AL57" s="46" t="e" vm="123">
         <f>_xlfn.XLOOKUP(AM57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27325,7 +27339,7 @@
       <c r="AO57" s="17"/>
     </row>
     <row r="58" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="273">
+      <c r="A58" s="246">
         <f>IF($AU$5=TRUE,A54+1,"")</f>
         <v>14</v>
       </c>
@@ -27333,9 +27347,9 @@
       <c r="C58" s="38"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="247"/>
-      <c r="G58" s="253"/>
-      <c r="H58" s="249"/>
+      <c r="F58" s="248"/>
+      <c r="G58" s="241"/>
+      <c r="H58" s="253"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="50"/>
@@ -27356,19 +27370,19 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="56"/>
       <c r="AG58" s="24"/>
-      <c r="AH58" s="280"/>
-      <c r="AI58" s="255"/>
-      <c r="AJ58" s="247"/>
+      <c r="AH58" s="245"/>
+      <c r="AI58" s="239"/>
+      <c r="AJ58" s="248"/>
       <c r="AK58" s="55"/>
       <c r="AM58" s="39"/>
       <c r="AN58" s="28"/>
-      <c r="AO58" s="287">
+      <c r="AO58" s="263">
         <f>IF($AU$5=TRUE,AO54+1,"")</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="273"/>
+      <c r="A59" s="246"/>
       <c r="B59" s="27">
         <v>14</v>
       </c>
@@ -27382,27 +27396,27 @@
       </c>
       <c r="E59" s="48">
         <f ca="1">Games!N18</f>
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="I59" s="273">
+      <c r="I59" s="246">
         <f>IF($AU$5=TRUE,I43+1,"")</f>
         <v>52</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="50"/>
-      <c r="L59" s="268" t="str">
+      <c r="L59" s="256" t="str">
         <f ca="1">Games!O58</f>
-        <v>UNC Wilmington</v>
-      </c>
-      <c r="M59" s="252" t="e" vm="92">
+        <v>Drake</v>
+      </c>
+      <c r="M59" s="240" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(L59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="248">
+      <c r="N59" s="252">
         <f ca="1">Games!N65</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
@@ -27414,27 +27428,27 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="AA59" s="25"/>
-      <c r="AB59" s="279">
+      <c r="AB59" s="244">
         <f ca="1">Games!N67</f>
-        <v>94</v>
-      </c>
-      <c r="AC59" s="254" t="e" vm="123">
+        <v>95</v>
+      </c>
+      <c r="AC59" s="238" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AD59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="246" t="str">
+      <c r="AD59" s="247" t="str">
         <f ca="1">Games!O62</f>
-        <v>Kentucky</v>
+        <v>Wofford</v>
       </c>
       <c r="AE59" s="56"/>
-      <c r="AG59" s="273">
+      <c r="AG59" s="246">
         <f>IF($AU$5=TRUE,AG43+1,"")</f>
         <v>56</v>
       </c>
       <c r="AJ59" s="24"/>
       <c r="AK59" s="59">
         <f ca="1">Games!N34</f>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="AL59" s="46" t="e" vm="124">
         <f>_xlfn.XLOOKUP(AM59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27447,7 +27461,7 @@
       <c r="AN59" s="27">
         <v>14</v>
       </c>
-      <c r="AO59" s="287"/>
+      <c r="AO59" s="263"/>
     </row>
     <row r="60" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -27456,12 +27470,12 @@
       <c r="D60" s="71"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="I60" s="273"/>
+      <c r="I60" s="246"/>
       <c r="J60" s="15"/>
       <c r="K60" s="50"/>
-      <c r="L60" s="269"/>
-      <c r="M60" s="253"/>
-      <c r="N60" s="249"/>
+      <c r="L60" s="257"/>
+      <c r="M60" s="241"/>
+      <c r="N60" s="253"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
@@ -27473,11 +27487,11 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="AA60" s="25"/>
-      <c r="AB60" s="280"/>
-      <c r="AC60" s="255"/>
-      <c r="AD60" s="247"/>
+      <c r="AB60" s="245"/>
+      <c r="AC60" s="239"/>
+      <c r="AD60" s="248"/>
       <c r="AE60" s="56"/>
-      <c r="AG60" s="273"/>
+      <c r="AG60" s="246"/>
       <c r="AJ60" s="24"/>
       <c r="AM60" s="39"/>
       <c r="AN60" s="28"/>
@@ -27498,19 +27512,19 @@
       </c>
       <c r="E61" s="46">
         <f ca="1">Games!L19</f>
-        <v>90</v>
-      </c>
-      <c r="F61" s="246" t="str">
+        <v>118</v>
+      </c>
+      <c r="F61" s="247" t="str">
         <f ca="1">Games!O19</f>
-        <v>Arkansas</v>
-      </c>
-      <c r="G61" s="252" t="e" vm="94">
+        <v>Kansas</v>
+      </c>
+      <c r="G61" s="240" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(F61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="270">
+      <c r="H61" s="242">
         <f ca="1">Games!L45</f>
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -27531,21 +27545,21 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="56"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="270">
+      <c r="AH61" s="242">
         <f ca="1">Games!L53</f>
-        <v>95</v>
-      </c>
-      <c r="AI61" s="254" t="e" vm="125">
+        <v>97</v>
+      </c>
+      <c r="AI61" s="238" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(AJ61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="246" t="str">
+      <c r="AJ61" s="247" t="str">
         <f ca="1">Games!O35</f>
-        <v>UCLA</v>
+        <v>Utah State</v>
       </c>
       <c r="AK61" s="58">
         <f ca="1">Games!L35</f>
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AL61" s="46" t="e" vm="125">
         <f>_xlfn.XLOOKUP(AM61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27561,7 +27575,7 @@
       <c r="AO61" s="17"/>
     </row>
     <row r="62" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="273">
+      <c r="A62" s="246">
         <f>IF($AU$5=TRUE,A58+1,"")</f>
         <v>15</v>
       </c>
@@ -27569,9 +27583,9 @@
       <c r="C62" s="38"/>
       <c r="D62" s="71"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="247"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="271"/>
+      <c r="F62" s="248"/>
+      <c r="G62" s="241"/>
+      <c r="H62" s="243"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="50"/>
@@ -27591,19 +27605,19 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="56"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="271"/>
-      <c r="AI62" s="255"/>
-      <c r="AJ62" s="247"/>
+      <c r="AH62" s="243"/>
+      <c r="AI62" s="239"/>
+      <c r="AJ62" s="248"/>
       <c r="AK62" s="55"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="28"/>
-      <c r="AO62" s="287">
+      <c r="AO62" s="263">
         <f>IF($AU$5=TRUE,AO58+1,"")</f>
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="273"/>
+      <c r="A63" s="246"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -27617,25 +27631,25 @@
       </c>
       <c r="E63" s="48">
         <f ca="1">Games!N19</f>
-        <v>98</v>
-      </c>
-      <c r="F63" s="272">
+        <v>104</v>
+      </c>
+      <c r="F63" s="264">
         <f>IF($AU$5=TRUE,F55+1,"")</f>
         <v>40</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="268" t="str">
+      <c r="I63" s="256" t="str">
         <f ca="1">Games!O45</f>
-        <v>Arkansas</v>
-      </c>
-      <c r="J63" s="252" t="e" vm="94">
+        <v>Kansas</v>
+      </c>
+      <c r="J63" s="240" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="248">
+      <c r="K63" s="252">
         <f ca="1">Games!N58</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -27653,27 +27667,27 @@
       <c r="Z63" s="57"/>
       <c r="AA63" s="25"/>
       <c r="AD63" s="25"/>
-      <c r="AE63" s="279">
+      <c r="AE63" s="244">
         <f ca="1">Games!N62</f>
-        <v>91</v>
-      </c>
-      <c r="AF63" s="254" t="e" vm="127">
+        <v>118</v>
+      </c>
+      <c r="AF63" s="238" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AG63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG63" s="246" t="str">
+      <c r="AG63" s="247" t="str">
         <f ca="1">Games!O53</f>
-        <v>Tennessee</v>
+        <v>Wofford</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="51"/>
-      <c r="AJ63" s="272">
+      <c r="AJ63" s="264">
         <f>IF($AU$5=TRUE,AJ55+1,"")</f>
         <v>48</v>
       </c>
       <c r="AK63" s="59">
         <f ca="1">Games!N35</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL63" s="46" t="e" vm="126">
         <f>_xlfn.XLOOKUP(AM63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27686,19 +27700,19 @@
       <c r="AN63" s="27">
         <v>10</v>
       </c>
-      <c r="AO63" s="287"/>
+      <c r="AO63" s="263"/>
     </row>
     <row r="64" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="28"/>
       <c r="C64" s="38"/>
       <c r="D64" s="71"/>
-      <c r="F64" s="273"/>
+      <c r="F64" s="246"/>
       <c r="G64" s="15"/>
       <c r="H64" s="50"/>
-      <c r="I64" s="269"/>
-      <c r="J64" s="253"/>
-      <c r="K64" s="249"/>
+      <c r="I64" s="257"/>
+      <c r="J64" s="241"/>
+      <c r="K64" s="253"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="O64" s="25"/>
@@ -27714,11 +27728,11 @@
       <c r="Z64" s="57"/>
       <c r="AA64" s="25"/>
       <c r="AD64" s="25"/>
-      <c r="AE64" s="280"/>
-      <c r="AF64" s="255"/>
-      <c r="AG64" s="247"/>
+      <c r="AE64" s="245"/>
+      <c r="AF64" s="239"/>
+      <c r="AG64" s="248"/>
       <c r="AH64" s="56"/>
-      <c r="AJ64" s="273"/>
+      <c r="AJ64" s="246"/>
       <c r="AM64" s="39"/>
       <c r="AN64" s="28"/>
       <c r="AO64" s="17"/>
@@ -27738,19 +27752,19 @@
       </c>
       <c r="E65" s="46">
         <f ca="1">Games!L20</f>
-        <v>107</v>
-      </c>
-      <c r="F65" s="246" t="str">
+        <v>99</v>
+      </c>
+      <c r="F65" s="247" t="str">
         <f ca="1">Games!O20</f>
         <v>Omaha</v>
       </c>
-      <c r="G65" s="252" t="e" vm="96">
+      <c r="G65" s="240" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(F65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="248">
+      <c r="H65" s="252">
         <f ca="1">Games!N45</f>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -27770,21 +27784,21 @@
       <c r="AA65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AG65" s="24"/>
-      <c r="AH65" s="279">
+      <c r="AH65" s="244">
         <f ca="1">Games!N53</f>
-        <v>115</v>
-      </c>
-      <c r="AI65" s="254" t="e" vm="127">
+        <v>107</v>
+      </c>
+      <c r="AI65" s="238" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AJ65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="246" t="str">
+      <c r="AJ65" s="247" t="str">
         <f ca="1">Games!O36</f>
-        <v>Tennessee</v>
+        <v>Wofford</v>
       </c>
       <c r="AK65" s="58">
         <f ca="1">Games!L36</f>
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AL65" s="46" t="e" vm="127">
         <f>_xlfn.XLOOKUP(AM65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27800,7 +27814,7 @@
       <c r="AO65" s="17"/>
     </row>
     <row r="66" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="273">
+      <c r="A66" s="246">
         <f>IF($AU$5=TRUE,A62+1,"")</f>
         <v>16</v>
       </c>
@@ -27808,41 +27822,41 @@
       <c r="C66" s="38"/>
       <c r="D66" s="71"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="247"/>
-      <c r="G66" s="253"/>
-      <c r="H66" s="249"/>
+      <c r="F66" s="248"/>
+      <c r="G66" s="241"/>
+      <c r="H66" s="253"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="O66" s="266"/>
-      <c r="P66" s="266"/>
-      <c r="Q66" s="266"/>
-      <c r="R66" s="266"/>
-      <c r="S66" s="266"/>
-      <c r="T66" s="266"/>
-      <c r="U66" s="266"/>
-      <c r="V66" s="266"/>
-      <c r="W66" s="266"/>
-      <c r="X66" s="266"/>
-      <c r="Y66" s="266"/>
-      <c r="Z66" s="266"/>
-      <c r="AA66" s="266"/>
+      <c r="O66" s="281"/>
+      <c r="P66" s="281"/>
+      <c r="Q66" s="281"/>
+      <c r="R66" s="281"/>
+      <c r="S66" s="281"/>
+      <c r="T66" s="281"/>
+      <c r="U66" s="281"/>
+      <c r="V66" s="281"/>
+      <c r="W66" s="281"/>
+      <c r="X66" s="281"/>
+      <c r="Y66" s="281"/>
+      <c r="Z66" s="281"/>
+      <c r="AA66" s="281"/>
       <c r="AD66" s="25"/>
       <c r="AG66" s="24"/>
-      <c r="AH66" s="280"/>
-      <c r="AI66" s="255"/>
-      <c r="AJ66" s="247"/>
+      <c r="AH66" s="245"/>
+      <c r="AI66" s="239"/>
+      <c r="AJ66" s="248"/>
       <c r="AK66" s="55"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="28"/>
-      <c r="AO66" s="287">
+      <c r="AO66" s="263">
         <f>IF($AU$5=TRUE,AO62+1,"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="273"/>
+      <c r="A67" s="246"/>
       <c r="B67" s="27">
         <v>15</v>
       </c>
@@ -27856,7 +27870,7 @@
       </c>
       <c r="E67" s="48">
         <f ca="1">Games!N20</f>
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -27864,25 +27878,25 @@
       <c r="J67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="O67" s="265"/>
-      <c r="P67" s="265"/>
-      <c r="Q67" s="265"/>
-      <c r="R67" s="265"/>
-      <c r="S67" s="265"/>
-      <c r="T67" s="265"/>
-      <c r="U67" s="265"/>
-      <c r="V67" s="265"/>
-      <c r="W67" s="265"/>
-      <c r="X67" s="265"/>
-      <c r="Y67" s="265"/>
-      <c r="Z67" s="265"/>
-      <c r="AA67" s="265"/>
+      <c r="O67" s="280"/>
+      <c r="P67" s="280"/>
+      <c r="Q67" s="280"/>
+      <c r="R67" s="280"/>
+      <c r="S67" s="280"/>
+      <c r="T67" s="280"/>
+      <c r="U67" s="280"/>
+      <c r="V67" s="280"/>
+      <c r="W67" s="280"/>
+      <c r="X67" s="280"/>
+      <c r="Y67" s="280"/>
+      <c r="Z67" s="280"/>
+      <c r="AA67" s="280"/>
       <c r="AD67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AJ67" s="24"/>
       <c r="AK67" s="59">
         <f ca="1">Games!N36</f>
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="AL67" s="46" t="e" vm="128">
         <f>_xlfn.XLOOKUP(AM67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27895,7 +27909,7 @@
       <c r="AN67" s="27">
         <v>15</v>
       </c>
-      <c r="AO67" s="287"/>
+      <c r="AO67" s="263"/>
     </row>
     <row r="68" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -27936,119 +27950,105 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AI21:AI22"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD19:AE20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AF63:AF64"/>
-    <mergeCell ref="AF55:AF56"/>
-    <mergeCell ref="AF47:AF48"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AF39:AF40"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AQ3:AQ11"/>
-    <mergeCell ref="AQ14:AQ19"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AQ34:AQ37"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="AO50:AO51"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AO58:AO59"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AO42:AO43"/>
-    <mergeCell ref="AO46:AO47"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="AO62:AO63"/>
-    <mergeCell ref="AO66:AO67"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AJ61:AJ62"/>
-    <mergeCell ref="AE39:AE40"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="AJ53:AJ54"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AD51:AE52"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="T11:V19"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="O67:AA67"/>
+    <mergeCell ref="O66:AA66"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="S32:W33"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="B1:AN1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AJ63:AJ64"/>
+    <mergeCell ref="AJ57:AJ58"/>
+    <mergeCell ref="AH65:AH66"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AI49:AI50"/>
+    <mergeCell ref="AI53:AI54"/>
+    <mergeCell ref="AI57:AI58"/>
+    <mergeCell ref="AI61:AI62"/>
+    <mergeCell ref="AI65:AI66"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
@@ -28073,70 +28073,61 @@
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="AO62:AO63"/>
+    <mergeCell ref="AO66:AO67"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AJ61:AJ62"/>
+    <mergeCell ref="AE39:AE40"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="AJ53:AJ54"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AD51:AE52"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="AO50:AO51"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AO58:AO59"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="AO46:AO47"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AF39:AF40"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AQ3:AQ11"/>
+    <mergeCell ref="AQ14:AQ19"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AQ34:AQ37"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AJ25:AJ26"/>
     <mergeCell ref="AO6:AO7"/>
     <mergeCell ref="AO10:AO11"/>
     <mergeCell ref="AO14:AO15"/>
     <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="AJ63:AJ64"/>
-    <mergeCell ref="AJ57:AJ58"/>
-    <mergeCell ref="AH65:AH66"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AI49:AI50"/>
-    <mergeCell ref="AI53:AI54"/>
-    <mergeCell ref="AI57:AI58"/>
-    <mergeCell ref="AI61:AI62"/>
-    <mergeCell ref="AI65:AI66"/>
     <mergeCell ref="AJ21:AJ22"/>
     <mergeCell ref="AH21:AH22"/>
     <mergeCell ref="AH13:AH14"/>
@@ -28146,54 +28137,77 @@
     <mergeCell ref="AG27:AG28"/>
     <mergeCell ref="AG31:AG32"/>
     <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="B1:AN1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="T11:V19"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="O67:AA67"/>
-    <mergeCell ref="O66:AA66"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="S32:W33"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="AF63:AF64"/>
+    <mergeCell ref="AF55:AF56"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AI21:AI22"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI37:AI38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">

--- a/resources/blank_bracket.xlsx
+++ b/resources/blank_bracket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29803"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgal\Documents\Data Science\KingfisherCourt\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C08F76-F514-4ADC-AC43-8149CFFAE048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCAFB0-7F03-468B-9FBA-BE30A5E54D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Links" sheetId="6" r:id="rId1"/>
@@ -7116,6 +7116,9 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7149,26 +7152,110 @@
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7203,33 +7290,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7247,66 +7307,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7314,35 +7314,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF003E64"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -7423,6 +7394,35 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF003E64"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7519,6 +7519,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:relativeUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Calculator"/>
       <sheetName val="PaymentSchedule"/>
@@ -8726,10 +8729,10 @@
   <autoFilter ref="A1:E366" xr:uid="{AD505134-AFF6-4E75-8F26-2310FE67E62F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8D7B944F-F39F-4DE5-B36F-96816F477C68}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{767B4EBC-1D6B-4D8D-AC6F-5DAFFC73A49A}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{714CBA45-7DDA-43B9-86A4-4C5947403F44}" uniqueName="3" name="Link" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{51A37069-17DD-4524-B091-9E772D95E297}" uniqueName="4" name="GameLogs" queryTableFieldId="4" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{16FD7BE5-C80E-4178-848D-B547195018E8}" uniqueName="6" name="PartialLink" queryTableFieldId="6" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{767B4EBC-1D6B-4D8D-AC6F-5DAFFC73A49A}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{714CBA45-7DDA-43B9-86A4-4C5947403F44}" uniqueName="3" name="Link" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{51A37069-17DD-4524-B091-9E772D95E297}" uniqueName="4" name="GameLogs" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{16FD7BE5-C80E-4178-848D-B547195018E8}" uniqueName="6" name="PartialLink" queryTableFieldId="6" dataDxfId="23">
       <calculatedColumnFormula array="1">_xlfn.TEXTSPLIT(
 _xlfn.TEXTSPLIT(Team_Links[[#This Row],[GameLogs]],"https://www.sports-reference.com/cbb/schools/",,TRUE,0,), "/",,TRUE,0)</calculatedColumnFormula>
     </tableColumn>
@@ -8750,12 +8753,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CBBD60AC-189D-432E-9CE0-69F6240D4349}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{78DE4A05-C498-4D0B-9F40-C17FA7BD54F2}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{7CC09B42-A5D6-4135-BCC7-6821F6B80932}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{62F57258-CDB4-4674-B30B-DA4A2823A8F7}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{CBBD60AC-189D-432E-9CE0-69F6240D4349}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{78DE4A05-C498-4D0B-9F40-C17FA7BD54F2}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7CC09B42-A5D6-4135-BCC7-6821F6B80932}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{62F57258-CDB4-4674-B30B-DA4A2823A8F7}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{5B44D440-C6BE-40A2-856A-E7606A828AF9}" uniqueName="5" name="Overall Seed" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{6E408D58-4E81-4D2A-8D4C-7C9D52504CB1}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{6E408D58-4E81-4D2A-8D4C-7C9D52504CB1}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{9DEE30B4-9DB3-4022-A432-63C8240991D3}" uniqueName="7" name="Last bid" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8774,13 +8777,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8EA5DD3D-74E5-4229-BE2B-777D3B84C443}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{318C6D88-4C71-4065-9166-754DBB06CDF3}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{8782A040-6A72-4EF0-9E3B-D04CB05B9B1F}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{77811D70-5737-4156-904E-3CFA942ADE37}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{8EA5DD3D-74E5-4229-BE2B-777D3B84C443}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{318C6D88-4C71-4065-9166-754DBB06CDF3}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{8782A040-6A72-4EF0-9E3B-D04CB05B9B1F}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{77811D70-5737-4156-904E-3CFA942ADE37}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{EB8CFD1B-4455-4102-B38D-54D8839ACEF5}" uniqueName="5" name="Overall Seed" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00852EED-943F-4E6D-BFED-C311AD702E03}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{CE863DF9-440E-4510-8B3C-221536233193}" uniqueName="7" name="Last bid" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00852EED-943F-4E6D-BFED-C311AD702E03}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{CE863DF9-440E-4510-8B3C-221536233193}" uniqueName="7" name="Last bid" queryTableFieldId="7" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8798,13 +8801,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{93E8A5DA-E387-40E9-AD6D-C8EAD2DF1A85}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E6E08EB4-9BEE-4909-976A-99D0799700B3}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{7B46D560-8AE0-4BC2-83FB-631D0FC66B2A}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{EFA36807-02A1-45D7-8F0A-ECC542E768AE}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{93E8A5DA-E387-40E9-AD6D-C8EAD2DF1A85}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E6E08EB4-9BEE-4909-976A-99D0799700B3}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7B46D560-8AE0-4BC2-83FB-631D0FC66B2A}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EFA36807-02A1-45D7-8F0A-ECC542E768AE}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{4EC922CE-001E-4B7F-A2EC-07B513BA8EEA}" uniqueName="5" name="Overall Seed" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{459A801E-FBA0-4A19-9BB3-B5177440D4A4}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{4643D0FD-05E4-4698-81A2-A70E1313C7C3}" uniqueName="7" name="Last bid" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{459A801E-FBA0-4A19-9BB3-B5177440D4A4}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4643D0FD-05E4-4698-81A2-A70E1313C7C3}" uniqueName="7" name="Last bid" queryTableFieldId="7" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8822,20 +8825,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2C316DDC-A3EA-41A6-BA53-31579CE37AB0}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FD047E89-58A0-4620-9E73-146177F30828}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BF61A592-AD1A-4F02-A80D-E2C9CC48EA52}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5E058945-3CBA-4D3A-A9D2-C8743F065EFC}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{2C316DDC-A3EA-41A6-BA53-31579CE37AB0}" uniqueName="1" name="Seed" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FD047E89-58A0-4620-9E73-146177F30828}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BF61A592-AD1A-4F02-A80D-E2C9CC48EA52}" uniqueName="3" name="Conference" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5E058945-3CBA-4D3A-A9D2-C8743F065EFC}" uniqueName="4" name="Record" queryTableFieldId="4" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{377C40F8-0DB9-4EE1-9D40-BDD673824BCA}" uniqueName="5" name="Overall Seed" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{460BEB55-810E-41E3-89CD-3779FD85F1E5}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{775CB71F-5F81-4263-A2EF-9D3FCD30A5E1}" uniqueName="7" name="Last bid" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{460BEB55-810E-41E3-89CD-3779FD85F1E5}" uniqueName="6" name="Berth type" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{775CB71F-5F81-4263-A2EF-9D3FCD30A5E1}" uniqueName="7" name="Last bid" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26022D98-9C5C-4F61-B0DF-E159B216C11F}" name="Teams" displayName="Teams" ref="A1:E65" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26022D98-9C5C-4F61-B0DF-E159B216C11F}" name="Teams" displayName="Teams" ref="A1:E65" totalsRowShown="0" headerRowDxfId="32" tableBorderDxfId="31" dataCellStyle="Normal">
   <autoFilter ref="A1:E65" xr:uid="{26022D98-9C5C-4F61-B0DF-E159B216C11F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8844,13 +8847,13 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ED40F7E7-3328-4259-9877-945FE5D47DC3}" name="Seed" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{4CDAB027-D970-460D-AAC2-EB0B9485FD8C}" name="Region" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{ED40F7E7-3328-4259-9877-945FE5D47DC3}" name="Seed" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{4CDAB027-D970-460D-AAC2-EB0B9485FD8C}" name="Region" dataDxfId="29" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{E218ED8F-68F8-429A-9939-575EF5D8461D}" name="Team" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5B5B6B66-69E6-43F4-9B60-841171B24FC7}" name="Hyperlink Name" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{5B5B6B66-69E6-43F4-9B60-841171B24FC7}" name="Hyperlink Name" dataDxfId="28">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Teams[[#This Row],[Team]],Team_Links[School],Team_Links[PartialLink],,0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5DE08296-6B22-41D3-9B0D-54A014588C20}" name="Logo" dataDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{5DE08296-6B22-41D3-9B0D-54A014588C20}" name="Logo" dataDxfId="27" dataCellStyle="Normal">
       <calculatedColumnFormula>_xlfn.IMAGE(_xlfn.CONCAT("https://cdn.ssref.net/req/202510241/tlogo/ncaa/",TEXT(Teams[[#This Row],[Hyperlink Name]],),"-2025.png"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9150,8 +9153,8 @@
   </sheetPr>
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B65"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16173,42 +16176,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="I1" s="249" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="I1" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="Q1" s="249" t="s">
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="Q1" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="Y1" s="249" t="s">
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="Y1" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="249"/>
-      <c r="AE1" s="249"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17700,8 +17703,8 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C65"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18233,11 +18236,11 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.XLOOKUP(Teams[[#This Row],[Team]],Team_Links[School],Team_Links[PartialLink],,0,1)</f>
-        <v>boston-university</v>
+        <v>florida</v>
       </c>
       <c r="E28" s="1" t="e" vm="27">
         <f>_xlfn.IMAGE(_xlfn.CONCAT("https://cdn.ssref.net/req/202510241/tlogo/ncaa/",TEXT(Teams[[#This Row],[Hyperlink Name]],),"-2025.png"))</f>
@@ -18252,11 +18255,11 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.XLOOKUP(Teams[[#This Row],[Team]],Team_Links[School],Team_Links[PartialLink],,0,1)</f>
-        <v>bowling-green-state</v>
+        <v>duke</v>
       </c>
       <c r="E29" s="1" t="e" vm="28">
         <f>_xlfn.IMAGE(_xlfn.CONCAT("https://cdn.ssref.net/req/202510241/tlogo/ncaa/",TEXT(Teams[[#This Row],[Hyperlink Name]],),"-2025.png"))</f>
@@ -19047,33 +19050,33 @@
       <c r="D3" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="243" t="s">
+      <c r="E3" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="241" t="s">
+      <c r="F3" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="245" t="s">
+      <c r="G3" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="241" t="s">
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="247" t="s">
+      <c r="K3" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247" t="s">
+      <c r="L3" s="248"/>
+      <c r="M3" s="248" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="247"/>
-      <c r="O3" s="241" t="s">
+      <c r="N3" s="248"/>
+      <c r="O3" s="242" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="201"/>
-      <c r="Q3" s="238" t="s">
+      <c r="Q3" s="239" t="s">
         <v>94</v>
       </c>
     </row>
@@ -19082,19 +19085,19 @@
       <c r="B4" s="218"/>
       <c r="C4" s="218"/>
       <c r="D4" s="219"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="243"/>
       <c r="P4" s="202"/>
-      <c r="Q4" s="239"/>
+      <c r="Q4" s="240"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="str">
@@ -19141,7 +19144,7 @@
       </c>
       <c r="L5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M5" s="84" t="e" vm="66">
         <f>_xlfn.XLOOKUP(I5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19149,7 +19152,7 @@
       </c>
       <c r="N5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O5" s="194" t="str">
         <f t="shared" ref="O5:O36" ca="1" si="3">IF(L5&gt;N5,G5,I5)</f>
@@ -19216,7 +19219,7 @@
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:N36" ca="1" si="5">RANDBETWEEN(90,120)</f>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M6" s="82" t="e" vm="68">
         <f>_xlfn.XLOOKUP(I6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19224,7 +19227,7 @@
       </c>
       <c r="N6" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O6" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19291,7 +19294,7 @@
       </c>
       <c r="L7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M7" s="82" t="e" vm="70">
         <f>_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19299,7 +19302,7 @@
       </c>
       <c r="N7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O7" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19363,7 +19366,7 @@
       </c>
       <c r="L8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="M8" s="82" t="e" vm="72">
         <f>_xlfn.XLOOKUP(I8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19371,7 +19374,7 @@
       </c>
       <c r="N8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O8" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19401,7 +19404,7 @@
       </c>
       <c r="C9" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>American</v>
+        <v>Appalachian State</v>
       </c>
       <c r="D9" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19435,7 +19438,7 @@
       </c>
       <c r="L9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M9" s="82" t="e" vm="74">
         <f>_xlfn.XLOOKUP(I9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19447,9 +19450,9 @@
       </c>
       <c r="O9" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Appalachian State</v>
-      </c>
-      <c r="P9" s="204" t="e" vm="74">
+        <v>American</v>
+      </c>
+      <c r="P9" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19458,7 +19461,7 @@
       </c>
       <c r="R9" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="98"/>
     </row>
@@ -19507,7 +19510,7 @@
       </c>
       <c r="L10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M10" s="82" t="e" vm="76">
         <f>_xlfn.XLOOKUP(I10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19515,7 +19518,7 @@
       </c>
       <c r="N10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O10" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19545,7 +19548,7 @@
       </c>
       <c r="C11" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arkansas</v>
+        <v>Arkansas State</v>
       </c>
       <c r="D11" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19579,7 +19582,7 @@
       </c>
       <c r="L11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="M11" s="82" t="e" vm="78">
         <f>_xlfn.XLOOKUP(I11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19587,13 +19590,13 @@
       </c>
       <c r="N11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O11" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P11" s="204" t="e" vm="78">
+        <v>Arkansas</v>
+      </c>
+      <c r="P11" s="204" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(O11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19602,7 +19605,7 @@
       </c>
       <c r="R11" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="98"/>
     </row>
@@ -19651,7 +19654,7 @@
       </c>
       <c r="L12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M12" s="109" t="e" vm="80">
         <f>_xlfn.XLOOKUP(I12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19659,7 +19662,7 @@
       </c>
       <c r="N12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="O12" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19723,7 +19726,7 @@
       </c>
       <c r="L13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M13" s="115" t="e" vm="82">
         <f>_xlfn.XLOOKUP(I13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19795,7 +19798,7 @@
       </c>
       <c r="L14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M14" s="83" t="e" vm="84">
         <f>_xlfn.XLOOKUP(I14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19867,7 +19870,7 @@
       </c>
       <c r="L15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M15" s="83" t="e" vm="86">
         <f>_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19875,7 +19878,7 @@
       </c>
       <c r="N15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O15" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19905,7 +19908,7 @@
       </c>
       <c r="C16" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bethune-Cookman</v>
+        <v>Binghamton</v>
       </c>
       <c r="D16" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19939,7 +19942,7 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="M16" s="83" t="e" vm="88">
         <f>_xlfn.XLOOKUP(I16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19947,13 +19950,13 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O16" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Binghamton</v>
-      </c>
-      <c r="P16" s="207" t="e" vm="88">
+        <v>Bethune-Cookman</v>
+      </c>
+      <c r="P16" s="207" t="e" vm="87">
         <f ca="1">_xlfn.XLOOKUP(O16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19962,7 +19965,7 @@
       </c>
       <c r="R16" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="98"/>
     </row>
@@ -20011,7 +20014,7 @@
       </c>
       <c r="L17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M17" s="83" t="e" vm="90">
         <f>_xlfn.XLOOKUP(I17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20019,7 +20022,7 @@
       </c>
       <c r="N17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O17" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20041,15 +20044,15 @@
     <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>Boston University</v>
+        <v>Florida</v>
       </c>
       <c r="B18" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="C18" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Boston University</v>
+        <v>Florida</v>
       </c>
       <c r="D18" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20064,14 +20067,14 @@
       </c>
       <c r="G18" s="118" t="str">
         <f>Teams!C28</f>
-        <v>Boston University</v>
+        <v>Florida</v>
       </c>
       <c r="H18" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="119" t="str">
         <f>Teams!C29</f>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="J18" s="120" cm="1">
         <f t="array" ref="J18">_xlfn.XLOOKUP(I18,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
@@ -20091,11 +20094,11 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O18" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="P18" s="207" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(O18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20155,7 +20158,7 @@
       </c>
       <c r="L19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M19" s="83" t="e" vm="94">
         <f>_xlfn.XLOOKUP(I19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20193,7 +20196,7 @@
       </c>
       <c r="C20" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Brown</v>
+        <v>Bryant</v>
       </c>
       <c r="D20" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20227,7 +20230,7 @@
       </c>
       <c r="L20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M20" s="126" t="e" vm="96">
         <f>_xlfn.XLOOKUP(I20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20235,13 +20238,13 @@
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O20" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bryant</v>
-      </c>
-      <c r="P20" s="208" t="e" vm="96">
+        <v>Brown</v>
+      </c>
+      <c r="P20" s="208" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20250,7 +20253,7 @@
       </c>
       <c r="R20" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="98"/>
     </row>
@@ -20265,7 +20268,7 @@
       </c>
       <c r="C21" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="D21" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20299,7 +20302,7 @@
       </c>
       <c r="L21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M21" s="97" t="e" vm="98">
         <f>_xlfn.XLOOKUP(I21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20307,13 +20310,13 @@
       </c>
       <c r="N21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O21" s="188" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Buffalo</v>
-      </c>
-      <c r="P21" s="203" t="e" vm="98">
+        <v>Bucknell</v>
+      </c>
+      <c r="P21" s="203" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20322,7 +20325,7 @@
       </c>
       <c r="R21" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="98"/>
     </row>
@@ -20337,7 +20340,7 @@
       </c>
       <c r="C22" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Butler</v>
+        <v>Cal Poly</v>
       </c>
       <c r="D22" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20371,7 +20374,7 @@
       </c>
       <c r="L22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M22" s="82" t="e" vm="100">
         <f>_xlfn.XLOOKUP(I22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20379,13 +20382,13 @@
       </c>
       <c r="N22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="O22" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cal Poly</v>
-      </c>
-      <c r="P22" s="204" t="e" vm="100">
+        <v>Butler</v>
+      </c>
+      <c r="P22" s="204" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(O22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20394,7 +20397,7 @@
       </c>
       <c r="R22" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="98"/>
     </row>
@@ -20443,7 +20446,7 @@
       </c>
       <c r="L23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M23" s="82" t="e" vm="102">
         <f>_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20451,7 +20454,7 @@
       </c>
       <c r="N23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O23" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20515,7 +20518,7 @@
       </c>
       <c r="L24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M24" s="82" t="e" vm="104">
         <f>_xlfn.XLOOKUP(I24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20523,7 +20526,7 @@
       </c>
       <c r="N24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="O24" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20553,7 +20556,7 @@
       </c>
       <c r="C25" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="D25" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20587,7 +20590,7 @@
       </c>
       <c r="L25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M25" s="82" t="e" vm="106">
         <f>_xlfn.XLOOKUP(I25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20595,13 +20598,13 @@
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O25" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P25" s="204" t="e" vm="105">
+        <v>Campbell</v>
+      </c>
+      <c r="P25" s="204" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(O25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20610,7 +20613,7 @@
       </c>
       <c r="R25" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="98"/>
     </row>
@@ -20659,7 +20662,7 @@
       </c>
       <c r="L26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M26" s="82" t="e" vm="108">
         <f>_xlfn.XLOOKUP(I26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20697,7 +20700,7 @@
       </c>
       <c r="C27" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Central Michigan</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="D27" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20731,7 +20734,7 @@
       </c>
       <c r="L27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M27" s="82" t="e" vm="110">
         <f>_xlfn.XLOOKUP(I27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20739,13 +20742,13 @@
       </c>
       <c r="N27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="O27" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Central Connecticut State</v>
-      </c>
-      <c r="P27" s="204" t="e" vm="109">
+        <v>Central Michigan</v>
+      </c>
+      <c r="P27" s="204" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(O27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20754,7 +20757,7 @@
       </c>
       <c r="R27" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="98"/>
     </row>
@@ -20803,7 +20806,7 @@
       </c>
       <c r="L28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M28" s="109" t="e" vm="112">
         <f>_xlfn.XLOOKUP(I28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20811,7 +20814,7 @@
       </c>
       <c r="N28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O28" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20841,7 +20844,7 @@
       </c>
       <c r="C29" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="D29" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20875,7 +20878,7 @@
       </c>
       <c r="L29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M29" s="115" t="e" vm="114">
         <f>_xlfn.XLOOKUP(I29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20883,13 +20886,13 @@
       </c>
       <c r="N29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O29" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Chattanooga</v>
-      </c>
-      <c r="P29" s="206" t="e" vm="113">
+        <v>Chicago State</v>
+      </c>
+      <c r="P29" s="206" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(O29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20898,7 +20901,7 @@
       </c>
       <c r="R29" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="98"/>
     </row>
@@ -20913,7 +20916,7 @@
       </c>
       <c r="C30" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="D30" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20947,7 +20950,7 @@
       </c>
       <c r="L30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M30" s="83" t="e" vm="116">
         <f>_xlfn.XLOOKUP(I30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20955,13 +20958,13 @@
       </c>
       <c r="N30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O30" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Clemson</v>
-      </c>
-      <c r="P30" s="207" t="e" vm="116">
+        <v>Cincinnati</v>
+      </c>
+      <c r="P30" s="207" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(O30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20970,7 +20973,7 @@
       </c>
       <c r="R30" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="98"/>
     </row>
@@ -20985,7 +20988,7 @@
       </c>
       <c r="C31" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="D31" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21019,7 +21022,7 @@
       </c>
       <c r="L31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M31" s="83" t="e" vm="118">
         <f>_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21027,13 +21030,13 @@
       </c>
       <c r="N31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O31" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Coastal Carolina</v>
-      </c>
-      <c r="P31" s="207" t="e" vm="118">
+        <v>Cleveland State</v>
+      </c>
+      <c r="P31" s="207" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(O31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21042,7 +21045,7 @@
       </c>
       <c r="R31" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="98"/>
     </row>
@@ -21091,7 +21094,7 @@
       </c>
       <c r="L32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M32" s="83" t="e" vm="120">
         <f>_xlfn.XLOOKUP(I32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21099,7 +21102,7 @@
       </c>
       <c r="N32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O32" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21163,7 +21166,7 @@
       </c>
       <c r="L33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M33" s="83" t="e" vm="122">
         <f>_xlfn.XLOOKUP(I33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21171,7 +21174,7 @@
       </c>
       <c r="N33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O33" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21235,7 +21238,7 @@
       </c>
       <c r="L34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M34" s="83" t="e" vm="124">
         <f>_xlfn.XLOOKUP(I34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21243,7 +21246,7 @@
       </c>
       <c r="N34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O34" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21273,7 +21276,7 @@
       </c>
       <c r="C35" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Coppin State</v>
+        <v>Cornell</v>
       </c>
       <c r="D35" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21307,7 +21310,7 @@
       </c>
       <c r="L35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M35" s="83" t="e" vm="126">
         <f>_xlfn.XLOOKUP(I35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21315,13 +21318,13 @@
       </c>
       <c r="N35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O35" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cornell</v>
-      </c>
-      <c r="P35" s="207" t="e" vm="126">
+        <v>Coppin State</v>
+      </c>
+      <c r="P35" s="207" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(O35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21330,7 +21333,7 @@
       </c>
       <c r="R35" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="98"/>
     </row>
@@ -21379,7 +21382,7 @@
       </c>
       <c r="L36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M36" s="126" t="e" vm="128">
         <f>_xlfn.XLOOKUP(I36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21387,7 +21390,7 @@
       </c>
       <c r="N36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="O36" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21410,14 +21413,14 @@
       <c r="E37" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="240" t="str">
+      <c r="F37" s="241" t="str">
         <f>Bracket!F2</f>
         <v>Second Round</v>
       </c>
-      <c r="G37" s="240"/>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="240"/>
+      <c r="G37" s="241"/>
+      <c r="H37" s="241"/>
+      <c r="I37" s="241"/>
+      <c r="J37" s="241"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -21440,7 +21443,7 @@
       </c>
       <c r="C38" s="91" t="str">
         <f t="shared" ref="C38:C53" ca="1" si="8">IF(O38="","",IF(A38=O38,B38,A38))</f>
-        <v>Alabama</v>
+        <v>Air Force</v>
       </c>
       <c r="D38" s="91" t="e">
         <f t="shared" ref="D38:D53" si="9">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O38,SeedInfo,2,FALSE)*2,MAX(VLOOKUP(O38,SeedInfo,2,FALSE)-VLOOKUP(C38,SeedInfo,2,FALSE),0)))</f>
@@ -21475,7 +21478,7 @@
       </c>
       <c r="L38" s="84">
         <f t="shared" ref="L38:N72" ca="1" si="10">RANDBETWEEN(90,120)</f>
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="M38" s="84" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(I38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21483,13 +21486,13 @@
       </c>
       <c r="N38" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O38" s="194" t="str">
         <f t="shared" ref="O38:O53" ca="1" si="11">IF(L38&gt;N38,G38,I38)</f>
-        <v>Air Force</v>
-      </c>
-      <c r="P38" s="209" t="e" vm="66">
+        <v>Alabama</v>
+      </c>
+      <c r="P38" s="209" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(O38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21498,7 +21501,7 @@
       </c>
       <c r="R38" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="98"/>
     </row>
@@ -21547,7 +21550,7 @@
       </c>
       <c r="L39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="M39" s="82" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21555,7 +21558,7 @@
       </c>
       <c r="N39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="O39" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -21577,7 +21580,7 @@
     <row r="40" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Appalachian State</v>
+        <v>American</v>
       </c>
       <c r="B40" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21585,7 +21588,7 @@
       </c>
       <c r="C40" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Appalachian State</v>
+        <v>Arizona</v>
       </c>
       <c r="D40" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21596,11 +21599,11 @@
       </c>
       <c r="F40" s="100" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">_xlfn.XLOOKUP(G40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G40" s="101" t="str">
         <f ca="1">O9</f>
-        <v>Appalachian State</v>
+        <v>American</v>
       </c>
       <c r="H40" s="176" t="s">
         <v>9</v>
@@ -21613,13 +21616,13 @@
         <f t="array" aca="1" ref="J40" ca="1">_xlfn.XLOOKUP(I40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>3</v>
       </c>
-      <c r="K40" s="82" t="e" vm="74">
+      <c r="K40" s="82" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M40" s="82" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(I40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21627,13 +21630,13 @@
       </c>
       <c r="N40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O40" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arizona</v>
-      </c>
-      <c r="P40" s="204" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P40" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21642,14 +21645,14 @@
       </c>
       <c r="R40" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="98"/>
     </row>
     <row r="41" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arkansas State</v>
+        <v>Arkansas</v>
       </c>
       <c r="B41" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21657,7 +21660,7 @@
       </c>
       <c r="C41" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Army</v>
+        <v>Arkansas</v>
       </c>
       <c r="D41" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21668,11 +21671,11 @@
       </c>
       <c r="F41" s="135" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">_xlfn.XLOOKUP(G41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" s="136" t="str">
         <f ca="1">O11</f>
-        <v>Arkansas State</v>
+        <v>Arkansas</v>
       </c>
       <c r="H41" s="182" t="s">
         <v>9</v>
@@ -21685,13 +21688,13 @@
         <f t="array" aca="1" ref="J41" ca="1">_xlfn.XLOOKUP(I41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>15</v>
       </c>
-      <c r="K41" s="139" t="e" vm="78">
+      <c r="K41" s="139" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(G41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M41" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21699,13 +21702,13 @@
       </c>
       <c r="N41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="O41" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P41" s="210" t="e" vm="78">
+        <v>Army</v>
+      </c>
+      <c r="P41" s="210" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(O41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21714,7 +21717,7 @@
       </c>
       <c r="R41" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="98"/>
     </row>
@@ -21729,7 +21732,7 @@
       </c>
       <c r="C42" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Austin Peay</v>
+        <v>Ball State</v>
       </c>
       <c r="D42" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21763,7 +21766,7 @@
       </c>
       <c r="L42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M42" s="145" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(I42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21771,13 +21774,13 @@
       </c>
       <c r="N42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="O42" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ball State</v>
-      </c>
-      <c r="P42" s="211" t="e" vm="83">
+        <v>Austin Peay</v>
+      </c>
+      <c r="P42" s="211" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21786,7 +21789,7 @@
       </c>
       <c r="R42" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="98"/>
     </row>
@@ -21797,11 +21800,11 @@
       </c>
       <c r="B43" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Binghamton</v>
+        <v>Bethune-Cookman</v>
       </c>
       <c r="C43" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Belmont</v>
+        <v>Bethune-Cookman</v>
       </c>
       <c r="D43" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21823,11 +21826,11 @@
       </c>
       <c r="I43" s="119" t="str">
         <f ca="1">O16</f>
-        <v>Binghamton</v>
+        <v>Bethune-Cookman</v>
       </c>
       <c r="J43" s="120" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">_xlfn.XLOOKUP(I43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K43" s="83" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21835,21 +21838,21 @@
       </c>
       <c r="L43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="M43" s="83" t="e" vm="88">
+        <v>110</v>
+      </c>
+      <c r="M43" s="83" t="e" vm="87">
         <f ca="1">_xlfn.XLOOKUP(I43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O43" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Binghamton</v>
-      </c>
-      <c r="P43" s="207" t="e" vm="88">
+        <v>Belmont</v>
+      </c>
+      <c r="P43" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21869,7 +21872,7 @@
       </c>
       <c r="B44" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="C44" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -21895,7 +21898,7 @@
       </c>
       <c r="I44" s="119" t="str">
         <f ca="1">O18</f>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="J44" s="120" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">_xlfn.XLOOKUP(I44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
@@ -21907,7 +21910,7 @@
       </c>
       <c r="L44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M44" s="83" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(I44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21915,11 +21918,11 @@
       </c>
       <c r="N44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O44" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="P44" s="207" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(O44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21941,11 +21944,11 @@
       </c>
       <c r="B45" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="C45" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="D45" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21967,11 +21970,11 @@
       </c>
       <c r="I45" s="149" t="str">
         <f ca="1">O20</f>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="J45" s="150" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">_xlfn.XLOOKUP(I45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K45" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(G45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21979,15 +21982,15 @@
       </c>
       <c r="L45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="M45" s="151" t="e" vm="96">
+        <v>120</v>
+      </c>
+      <c r="M45" s="151" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="O45" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22002,22 +22005,22 @@
       </c>
       <c r="R45" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="98"/>
     </row>
     <row r="46" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="B46" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="C46" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Buffalo</v>
+        <v>Butler</v>
       </c>
       <c r="D46" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22028,44 +22031,44 @@
       </c>
       <c r="F46" s="130" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">_xlfn.XLOOKUP(G46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G46" s="131" t="str">
         <f ca="1">O21</f>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="H46" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="132" t="str">
         <f ca="1">O22</f>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="J46" s="133" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">_xlfn.XLOOKUP(I46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K46" s="84" t="e" vm="98">
+        <v>8</v>
+      </c>
+      <c r="K46" s="84" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M46" s="84" t="e" vm="100">
+        <v>99</v>
+      </c>
+      <c r="M46" s="84" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(I46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="O46" s="194" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cal Poly</v>
-      </c>
-      <c r="P46" s="209" t="e" vm="100">
+        <v>Bucknell</v>
+      </c>
+      <c r="P46" s="209" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22123,7 +22126,7 @@
       </c>
       <c r="L47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M47" s="82" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22131,7 +22134,7 @@
       </c>
       <c r="N47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="O47" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22153,7 +22156,7 @@
     <row r="48" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="B48" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22161,7 +22164,7 @@
       </c>
       <c r="C48" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Canisius</v>
+        <v>Campbell</v>
       </c>
       <c r="D48" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22172,11 +22175,11 @@
       </c>
       <c r="F48" s="100" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">_xlfn.XLOOKUP(G48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G48" s="101" t="str">
         <f ca="1">O25</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="H48" s="176" t="s">
         <v>9</v>
@@ -22189,13 +22192,13 @@
         <f t="array" aca="1" ref="J48" ca="1">_xlfn.XLOOKUP(I48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>3</v>
       </c>
-      <c r="K48" s="82" t="e" vm="105">
+      <c r="K48" s="82" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(G48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M48" s="82" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(I48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22203,13 +22206,13 @@
       </c>
       <c r="N48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O48" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P48" s="204" t="e" vm="105">
+        <v>Canisius</v>
+      </c>
+      <c r="P48" s="204" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(O48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22218,14 +22221,14 @@
       </c>
       <c r="R48" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="98"/>
     </row>
     <row r="49" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="B49" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22233,7 +22236,7 @@
       </c>
       <c r="C49" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="D49" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22244,11 +22247,11 @@
       </c>
       <c r="F49" s="135" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">_xlfn.XLOOKUP(G49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G49" s="136" t="str">
         <f ca="1">O27</f>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="H49" s="182" t="s">
         <v>9</v>
@@ -22261,13 +22264,13 @@
         <f t="array" aca="1" ref="J49" ca="1">_xlfn.XLOOKUP(I49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>2</v>
       </c>
-      <c r="K49" s="139" t="e" vm="109">
+      <c r="K49" s="139" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(G49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M49" s="139" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22275,7 +22278,7 @@
       </c>
       <c r="N49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="O49" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22297,15 +22300,15 @@
     <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="B50" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="C50" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="D50" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22316,44 +22319,44 @@
       </c>
       <c r="F50" s="141" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">_xlfn.XLOOKUP(G50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G50" s="142" t="str">
         <f ca="1">O29</f>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="H50" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="143" t="str">
         <f ca="1">O30</f>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="J50" s="144" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">_xlfn.XLOOKUP(I50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K50" s="145" t="e" vm="113">
+        <v>8</v>
+      </c>
+      <c r="K50" s="145" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(G50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="M50" s="145" t="e" vm="116">
+        <v>92</v>
+      </c>
+      <c r="M50" s="145" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(I50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O50" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Clemson</v>
-      </c>
-      <c r="P50" s="211" t="e" vm="116">
+        <v>Cincinnati</v>
+      </c>
+      <c r="P50" s="211" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(O50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22362,14 +22365,14 @@
       </c>
       <c r="R50" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="98"/>
     </row>
     <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="B51" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22377,7 +22380,7 @@
       </c>
       <c r="C51" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>College of Charleston</v>
+        <v>Cleveland State</v>
       </c>
       <c r="D51" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22388,11 +22391,11 @@
       </c>
       <c r="F51" s="117" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">_xlfn.XLOOKUP(G51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G51" s="118" t="str">
         <f ca="1">O31</f>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="H51" s="178" t="s">
         <v>9</v>
@@ -22405,13 +22408,13 @@
         <f t="array" aca="1" ref="J51" ca="1">_xlfn.XLOOKUP(I51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>13</v>
       </c>
-      <c r="K51" s="83" t="e" vm="118">
+      <c r="K51" s="83" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(G51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M51" s="83" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(I51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22419,13 +22422,13 @@
       </c>
       <c r="N51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O51" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Coastal Carolina</v>
-      </c>
-      <c r="P51" s="207" t="e" vm="118">
+        <v>College of Charleston</v>
+      </c>
+      <c r="P51" s="207" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22434,7 +22437,7 @@
       </c>
       <c r="R51" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="98"/>
     </row>
@@ -22449,7 +22452,7 @@
       </c>
       <c r="C52" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="D52" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22483,7 +22486,7 @@
       </c>
       <c r="L52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M52" s="83" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22491,13 +22494,13 @@
       </c>
       <c r="N52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O52" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Colorado State</v>
-      </c>
-      <c r="P52" s="207" t="e" vm="122">
+        <v>Columbia</v>
+      </c>
+      <c r="P52" s="207" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(O52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22506,14 +22509,14 @@
       </c>
       <c r="R52" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="98"/>
     </row>
     <row r="53" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Cornell</v>
+        <v>Coppin State</v>
       </c>
       <c r="B53" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22521,7 +22524,7 @@
       </c>
       <c r="C53" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cornell</v>
+        <v>Creighton</v>
       </c>
       <c r="D53" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22532,11 +22535,11 @@
       </c>
       <c r="F53" s="147" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">_xlfn.XLOOKUP(G53,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G53" s="148" t="str">
         <f ca="1">O35</f>
-        <v>Cornell</v>
+        <v>Coppin State</v>
       </c>
       <c r="H53" s="184" t="s">
         <v>9</v>
@@ -22549,7 +22552,7 @@
         <f t="array" aca="1" ref="J53" ca="1">_xlfn.XLOOKUP(I53,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>2</v>
       </c>
-      <c r="K53" s="151" t="e" vm="126">
+      <c r="K53" s="151" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(G53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22563,13 +22566,13 @@
       </c>
       <c r="N53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O53" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Creighton</v>
-      </c>
-      <c r="P53" s="212" t="e" vm="127">
+        <v>Coppin State</v>
+      </c>
+      <c r="P53" s="212" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(O53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22578,7 +22581,7 @@
       </c>
       <c r="R53" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="98"/>
     </row>
@@ -22586,14 +22589,14 @@
       <c r="E54" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="240" t="str">
+      <c r="F54" s="241" t="str">
         <f>Bracket!I2</f>
         <v>Sweet 16</v>
       </c>
-      <c r="G54" s="240"/>
-      <c r="H54" s="240"/>
-      <c r="I54" s="240"/>
-      <c r="J54" s="240"/>
+      <c r="G54" s="241"/>
+      <c r="H54" s="241"/>
+      <c r="I54" s="241"/>
+      <c r="J54" s="241"/>
       <c r="K54" s="68"/>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
@@ -22608,7 +22611,7 @@
     <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="str">
         <f ca="1">G55</f>
-        <v>Air Force</v>
+        <v>Alabama</v>
       </c>
       <c r="B55" s="91" t="str">
         <f ca="1">I55</f>
@@ -22616,7 +22619,7 @@
       </c>
       <c r="C55" s="91" t="str">
         <f t="shared" ref="C55:C62" ca="1" si="14">IF(O55="","",IF(A55=O55,B55,A55))</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama</v>
       </c>
       <c r="D55" s="91" t="e">
         <f t="shared" ref="D55:D62" si="15">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O55,SeedInfo,2,FALSE)*3,MAX(VLOOKUP(O55,SeedInfo,2,FALSE)-VLOOKUP(C55,SeedInfo,2,FALSE),0)))</f>
@@ -22627,11 +22630,11 @@
       </c>
       <c r="F55" s="93" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">_xlfn.XLOOKUP(G55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G55" s="94" t="str">
         <f ca="1">O38</f>
-        <v>Air Force</v>
+        <v>Alabama</v>
       </c>
       <c r="H55" s="175" t="s">
         <v>9</v>
@@ -22644,13 +22647,13 @@
         <f t="array" aca="1" ref="J55" ca="1">_xlfn.XLOOKUP(I55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>5</v>
       </c>
-      <c r="K55" s="97" t="e" vm="66">
+      <c r="K55" s="97" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(G55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M55" s="97" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22658,13 +22661,13 @@
       </c>
       <c r="N55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O55" s="188" t="str">
         <f t="shared" ref="O55:O62" ca="1" si="16">IF(L55&gt;N55,G55,I55)</f>
-        <v>Air Force</v>
-      </c>
-      <c r="P55" s="204" t="e" vm="66">
+        <v>Alabama A&amp;M</v>
+      </c>
+      <c r="P55" s="204" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(O55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22673,22 +22676,22 @@
       </c>
       <c r="R55" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="98"/>
     </row>
     <row r="56" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91" t="str">
         <f t="shared" ref="A56:A62" ca="1" si="17">G56</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="B56" s="91" t="str">
         <f t="shared" ref="B56:B62" ca="1" si="18">I56</f>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="C56" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="D56" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22699,44 +22702,44 @@
       </c>
       <c r="F56" s="135" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">_xlfn.XLOOKUP(G56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="136" t="str">
         <f ca="1">O40</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="H56" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="137" t="str">
         <f ca="1">O41</f>
-        <v>Arkansas State</v>
+        <v>Army</v>
       </c>
       <c r="J56" s="138" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">_xlfn.XLOOKUP(I56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
-      </c>
-      <c r="K56" s="139" t="e" vm="75">
+        <v>15</v>
+      </c>
+      <c r="K56" s="139" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
-      </c>
-      <c r="M56" s="139" t="e" vm="78">
+        <v>101</v>
+      </c>
+      <c r="M56" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O56" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arizona</v>
-      </c>
-      <c r="P56" s="210" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P56" s="210" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22752,15 +22755,15 @@
     <row r="57" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Ball State</v>
+        <v>Austin Peay</v>
       </c>
       <c r="B57" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Binghamton</v>
+        <v>Belmont</v>
       </c>
       <c r="C57" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ball State</v>
+        <v>Belmont</v>
       </c>
       <c r="D57" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22771,44 +22774,44 @@
       </c>
       <c r="F57" s="236" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">_xlfn.XLOOKUP(G57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G57" s="142" t="str">
         <f ca="1">O42</f>
-        <v>Ball State</v>
+        <v>Austin Peay</v>
       </c>
       <c r="H57" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="143" t="str">
         <f ca="1">O43</f>
-        <v>Binghamton</v>
+        <v>Belmont</v>
       </c>
       <c r="J57" s="144" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">_xlfn.XLOOKUP(I57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
-      </c>
-      <c r="K57" s="145" t="e" vm="83">
+        <v>12</v>
+      </c>
+      <c r="K57" s="145" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="M57" s="145" t="e" vm="88">
+        <v>109</v>
+      </c>
+      <c r="M57" s="145" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O57" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Binghamton</v>
-      </c>
-      <c r="P57" s="211" t="e" vm="88">
+        <v>Austin Peay</v>
+      </c>
+      <c r="P57" s="211" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(O57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22824,7 +22827,7 @@
     <row r="58" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="B58" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -22832,7 +22835,7 @@
       </c>
       <c r="C58" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bradley</v>
+        <v>Duke</v>
       </c>
       <c r="D58" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22847,7 +22850,7 @@
       </c>
       <c r="G58" s="148" t="str">
         <f ca="1">O44</f>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="H58" s="184" t="s">
         <v>9</v>
@@ -22866,7 +22869,7 @@
       </c>
       <c r="L58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="M58" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22874,13 +22877,13 @@
       </c>
       <c r="N58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="O58" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Bowling Green</v>
-      </c>
-      <c r="P58" s="212" t="e" vm="92">
+        <v>Bradley</v>
+      </c>
+      <c r="P58" s="212" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22889,14 +22892,14 @@
       </c>
       <c r="R58" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="98"/>
     </row>
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="B59" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -22915,11 +22918,11 @@
       </c>
       <c r="F59" s="130" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">_xlfn.XLOOKUP(G59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59" s="131" t="str">
         <f ca="1">O46</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="H59" s="181" t="s">
         <v>9</v>
@@ -22932,7 +22935,7 @@
         <f t="array" aca="1" ref="J59" ca="1">_xlfn.XLOOKUP(I59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>12</v>
       </c>
-      <c r="K59" s="84" t="e" vm="100">
+      <c r="K59" s="84" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22946,13 +22949,13 @@
       </c>
       <c r="N59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O59" s="194" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Cal Poly</v>
-      </c>
-      <c r="P59" s="209" t="e" vm="100">
+        <v>Bucknell</v>
+      </c>
+      <c r="P59" s="209" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22968,7 +22971,7 @@
     <row r="60" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>California Baptist</v>
+        <v>Canisius</v>
       </c>
       <c r="B60" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -22976,7 +22979,7 @@
       </c>
       <c r="C60" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Charleston Southern</v>
+        <v>Canisius</v>
       </c>
       <c r="D60" s="152" t="e">
         <f t="shared" si="15"/>
@@ -22987,11 +22990,11 @@
       </c>
       <c r="F60" s="135" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">_xlfn.XLOOKUP(G60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G60" s="136" t="str">
         <f ca="1">O48</f>
-        <v>California Baptist</v>
+        <v>Canisius</v>
       </c>
       <c r="H60" s="182" t="s">
         <v>9</v>
@@ -23004,13 +23007,13 @@
         <f t="array" aca="1" ref="J60" ca="1">_xlfn.XLOOKUP(I60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>2</v>
       </c>
-      <c r="K60" s="139" t="e" vm="105">
+      <c r="K60" s="139" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(G60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M60" s="139" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23018,13 +23021,13 @@
       </c>
       <c r="N60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="O60" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P60" s="210" t="e" vm="105">
+        <v>Charleston Southern</v>
+      </c>
+      <c r="P60" s="210" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(O60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23033,22 +23036,22 @@
       </c>
       <c r="R60" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="98"/>
     </row>
     <row r="61" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="B61" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Coastal Carolina</v>
+        <v>College of Charleston</v>
       </c>
       <c r="C61" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Coastal Carolina</v>
+        <v>Cincinnati</v>
       </c>
       <c r="D61" s="91" t="e">
         <f t="shared" si="15"/>
@@ -23059,44 +23062,44 @@
       </c>
       <c r="F61" s="141" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">_xlfn.XLOOKUP(G61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="142" t="str">
         <f ca="1">O50</f>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="H61" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I61" s="143" t="str">
         <f ca="1">O51</f>
-        <v>Coastal Carolina</v>
+        <v>College of Charleston</v>
       </c>
       <c r="J61" s="144" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">_xlfn.XLOOKUP(I61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
-      </c>
-      <c r="K61" s="145" t="e" vm="116">
+        <v>13</v>
+      </c>
+      <c r="K61" s="145" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(G61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="M61" s="145" t="e" vm="118">
+        <v>99</v>
+      </c>
+      <c r="M61" s="145" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(I61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="O61" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Clemson</v>
-      </c>
-      <c r="P61" s="211" t="e" vm="116">
+        <v>College of Charleston</v>
+      </c>
+      <c r="P61" s="211" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(O61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23105,22 +23108,22 @@
       </c>
       <c r="R61" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="98"/>
     </row>
     <row r="62" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="B62" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Creighton</v>
+        <v>Coppin State</v>
       </c>
       <c r="C62" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Creighton</v>
+        <v>Coppin State</v>
       </c>
       <c r="D62" s="91" t="e">
         <f t="shared" si="15"/>
@@ -23131,44 +23134,44 @@
       </c>
       <c r="F62" s="147" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">_xlfn.XLOOKUP(G62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G62" s="148" t="str">
         <f ca="1">O52</f>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="H62" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="149" t="str">
         <f ca="1">O53</f>
-        <v>Creighton</v>
+        <v>Coppin State</v>
       </c>
       <c r="J62" s="150" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">_xlfn.XLOOKUP(I62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K62" s="151" t="e" vm="122">
+        <v>7</v>
+      </c>
+      <c r="K62" s="151" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(G62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="M62" s="151" t="e" vm="127">
+        <v>113</v>
+      </c>
+      <c r="M62" s="151" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(I62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O62" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Colorado State</v>
-      </c>
-      <c r="P62" s="212" t="e" vm="122">
+        <v>Columbia</v>
+      </c>
+      <c r="P62" s="212" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(O62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23177,7 +23180,7 @@
       </c>
       <c r="R62" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="98"/>
     </row>
@@ -23185,14 +23188,14 @@
       <c r="E63" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="240" t="str">
+      <c r="F63" s="241" t="str">
         <f>Bracket!L2</f>
         <v>Elite 8</v>
       </c>
-      <c r="G63" s="240"/>
-      <c r="H63" s="240"/>
-      <c r="I63" s="240"/>
-      <c r="J63" s="240"/>
+      <c r="G63" s="241"/>
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="241"/>
       <c r="K63" s="68"/>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
@@ -23207,15 +23210,15 @@
     <row r="64" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="91" t="str">
         <f ca="1">G64</f>
-        <v>Air Force</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="B64" s="91" t="str">
         <f ca="1">I64</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="C64" s="91" t="str">
         <f ca="1">IF(O64="","",IF(A64=O64,B64,A64))</f>
-        <v>Air Force</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="D64" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O64,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O64,SeedInfo,2,FALSE)-VLOOKUP(C64,SeedInfo,2,FALSE),0)))</f>
@@ -23226,44 +23229,44 @@
       </c>
       <c r="F64" s="154" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">_xlfn.XLOOKUP(G64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G64" s="155" t="str">
         <f ca="1">O55</f>
-        <v>Air Force</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="H64" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="156" t="str">
         <f ca="1">O56</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="J64" s="157" cm="1">
         <f t="array" aca="1" ref="J64" ca="1">_xlfn.XLOOKUP(I64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K64" s="158" t="e" vm="66">
+        <v>6</v>
+      </c>
+      <c r="K64" s="158" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(G64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="M64" s="158" t="e" vm="75">
+        <v>99</v>
+      </c>
+      <c r="M64" s="158" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O64" s="198" t="str">
         <f ca="1">IF(L64&gt;N64,G64,I64)</f>
-        <v>Arizona</v>
-      </c>
-      <c r="P64" s="204" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P64" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23272,22 +23275,22 @@
       </c>
       <c r="R64" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="98"/>
     </row>
     <row r="65" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="91" t="str">
         <f ca="1">G65</f>
-        <v>Binghamton</v>
+        <v>Austin Peay</v>
       </c>
       <c r="B65" s="91" t="str">
         <f ca="1">I65</f>
-        <v>Bowling Green</v>
+        <v>Bradley</v>
       </c>
       <c r="C65" s="91" t="str">
         <f ca="1">IF(O65="","",IF(A65=O65,B65,A65))</f>
-        <v>Binghamton</v>
+        <v>Austin Peay</v>
       </c>
       <c r="D65" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O65,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O65,SeedInfo,2,FALSE)-VLOOKUP(C65,SeedInfo,2,FALSE),0)))</f>
@@ -23298,44 +23301,44 @@
       </c>
       <c r="F65" s="160" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">_xlfn.XLOOKUP(G65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G65" s="161" t="str">
         <f ca="1">O57</f>
-        <v>Binghamton</v>
+        <v>Austin Peay</v>
       </c>
       <c r="H65" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="162" t="str">
         <f ca="1">O58</f>
-        <v>Bowling Green</v>
+        <v>Bradley</v>
       </c>
       <c r="J65" s="163" cm="1">
         <f t="array" aca="1" ref="J65" ca="1">_xlfn.XLOOKUP(I65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
-      </c>
-      <c r="K65" s="164" t="e" vm="88">
+        <v>7</v>
+      </c>
+      <c r="K65" s="164" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="M65" s="164" t="e" vm="92">
+        <v>117</v>
+      </c>
+      <c r="M65" s="164" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O65" s="199" t="str">
         <f ca="1">IF(L65&gt;N65,G65,I65)</f>
-        <v>Bowling Green</v>
-      </c>
-      <c r="P65" s="207" t="e" vm="92">
+        <v>Bradley</v>
+      </c>
+      <c r="P65" s="207" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23344,22 +23347,22 @@
       </c>
       <c r="R65" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="98"/>
     </row>
     <row r="66" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91" t="str">
         <f ca="1">G66</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="B66" s="91" t="str">
         <f ca="1">I66</f>
-        <v>California Baptist</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="C66" s="91" t="str">
         <f ca="1">IF(O66="","",IF(A66=O66,B66,A66))</f>
-        <v>Cal Poly</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="D66" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O66,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O66,SeedInfo,2,FALSE)-VLOOKUP(C66,SeedInfo,2,FALSE),0)))</f>
@@ -23370,44 +23373,44 @@
       </c>
       <c r="F66" s="154" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_xlfn.XLOOKUP(G66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G66" s="155" t="str">
         <f ca="1">O59</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="H66" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="156" t="str">
         <f ca="1">O60</f>
-        <v>California Baptist</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="J66" s="157" cm="1">
         <f t="array" aca="1" ref="J66" ca="1">_xlfn.XLOOKUP(I66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
-      </c>
-      <c r="K66" s="158" t="e" vm="100">
+        <v>2</v>
+      </c>
+      <c r="K66" s="158" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M66" s="158" t="e" vm="105">
+        <v>112</v>
+      </c>
+      <c r="M66" s="158" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O66" s="198" t="str">
         <f ca="1">IF(L66&gt;N66,G66,I66)</f>
-        <v>California Baptist</v>
-      </c>
-      <c r="P66" s="204" t="e" vm="105">
+        <v>Bucknell</v>
+      </c>
+      <c r="P66" s="204" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23423,15 +23426,15 @@
     <row r="67" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91" t="str">
         <f ca="1">G67</f>
-        <v>Clemson</v>
+        <v>College of Charleston</v>
       </c>
       <c r="B67" s="91" t="str">
         <f ca="1">I67</f>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="C67" s="91" t="str">
         <f ca="1">IF(O67="","",IF(A67=O67,B67,A67))</f>
-        <v>Colorado State</v>
+        <v>College of Charleston</v>
       </c>
       <c r="D67" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O67,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O67,SeedInfo,2,FALSE)-VLOOKUP(C67,SeedInfo,2,FALSE),0)))</f>
@@ -23442,44 +23445,44 @@
       </c>
       <c r="F67" s="160" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_xlfn.XLOOKUP(G67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G67" s="161" t="str">
         <f ca="1">O61</f>
-        <v>Clemson</v>
+        <v>College of Charleston</v>
       </c>
       <c r="H67" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="162" t="str">
         <f ca="1">O62</f>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="J67" s="163" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">_xlfn.XLOOKUP(I67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
-      </c>
-      <c r="K67" s="164" t="e" vm="116">
+        <v>3</v>
+      </c>
+      <c r="K67" s="164" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(G67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="M67" s="164" t="e" vm="122">
+        <v>94</v>
+      </c>
+      <c r="M67" s="164" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O67" s="199" t="str">
         <f ca="1">IF(L67&gt;N67,G67,I67)</f>
-        <v>Clemson</v>
-      </c>
-      <c r="P67" s="207" t="e" vm="116">
+        <v>Columbia</v>
+      </c>
+      <c r="P67" s="207" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(O67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23496,14 +23499,14 @@
       <c r="E68" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="240" t="str">
+      <c r="F68" s="241" t="str">
         <f>Bracket!O2</f>
         <v>Final Four</v>
       </c>
-      <c r="G68" s="240"/>
-      <c r="H68" s="240"/>
-      <c r="I68" s="240"/>
-      <c r="J68" s="240"/>
+      <c r="G68" s="241"/>
+      <c r="H68" s="241"/>
+      <c r="I68" s="241"/>
+      <c r="J68" s="241"/>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
@@ -23518,15 +23521,15 @@
     <row r="69" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="91" t="str">
         <f ca="1">G69</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="B69" s="91" t="str">
         <f ca="1">I69</f>
-        <v>Bowling Green</v>
+        <v>Bradley</v>
       </c>
       <c r="C69" s="91" t="str">
         <f ca="1">IF(O69="","",IF(A69=O69,B69,A69))</f>
-        <v>Bowling Green</v>
+        <v>Bradley</v>
       </c>
       <c r="D69" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O69,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O69,SeedInfo,2,FALSE)-VLOOKUP(C69,SeedInfo,2,FALSE),0)))</f>
@@ -23537,44 +23540,44 @@
       </c>
       <c r="F69" s="166" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">_xlfn.XLOOKUP(G69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G69" s="167" t="str">
         <f ca="1">O64</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="H69" s="187" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="168" t="str">
         <f ca="1">O65</f>
-        <v>Bowling Green</v>
+        <v>Bradley</v>
       </c>
       <c r="J69" s="169" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">_xlfn.XLOOKUP(I69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
-      </c>
-      <c r="K69" s="170" t="e" vm="75">
+        <v>7</v>
+      </c>
+      <c r="K69" s="170" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M69" s="170" t="e" vm="92">
+        <v>94</v>
+      </c>
+      <c r="M69" s="170" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O69" s="200" t="str">
         <f ca="1">IF(L69&gt;N69,G69,I69)</f>
-        <v>Arizona</v>
-      </c>
-      <c r="P69" s="210" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P69" s="210" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23590,15 +23593,15 @@
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="91" t="str">
         <f ca="1">G70</f>
-        <v>California Baptist</v>
+        <v>Bucknell</v>
       </c>
       <c r="B70" s="91" t="str">
         <f ca="1">I70</f>
-        <v>Clemson</v>
+        <v>Columbia</v>
       </c>
       <c r="C70" s="91" t="str">
         <f ca="1">IF(O70="","",IF(A70=O70,B70,A70))</f>
-        <v>California Baptist</v>
+        <v>Bucknell</v>
       </c>
       <c r="D70" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O70,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O70,SeedInfo,2,FALSE)-VLOOKUP(C70,SeedInfo,2,FALSE),0)))</f>
@@ -23609,44 +23612,44 @@
       </c>
       <c r="F70" s="160" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_xlfn.XLOOKUP(G70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G70" s="161" t="str">
         <f ca="1">O66</f>
-        <v>California Baptist</v>
+        <v>Bucknell</v>
       </c>
       <c r="H70" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="162" t="str">
         <f ca="1">O67</f>
-        <v>Clemson</v>
+        <v>Columbia</v>
       </c>
       <c r="J70" s="163" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">_xlfn.XLOOKUP(I70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K70" s="164" t="e" vm="105">
+        <v>3</v>
+      </c>
+      <c r="K70" s="164" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="M70" s="164" t="e" vm="116">
+        <v>94</v>
+      </c>
+      <c r="M70" s="164" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O70" s="199" t="str">
         <f ca="1">IF(L70&gt;N70,G70,I70)</f>
-        <v>Clemson</v>
-      </c>
-      <c r="P70" s="213" t="e" vm="116">
+        <v>Columbia</v>
+      </c>
+      <c r="P70" s="213" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(O70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23670,14 +23673,14 @@
       <c r="E71" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="240" t="str">
+      <c r="F71" s="241" t="str">
         <f>Bracket!S2</f>
         <v>Championship</v>
       </c>
-      <c r="G71" s="240"/>
-      <c r="H71" s="240"/>
-      <c r="I71" s="240"/>
-      <c r="J71" s="240"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="241"/>
+      <c r="J71" s="241"/>
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
       <c r="M71" s="68"/>
@@ -23692,15 +23695,15 @@
     <row r="72" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91" t="str">
         <f ca="1">G72</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="B72" s="91" t="str">
         <f ca="1">I72</f>
-        <v>Clemson</v>
+        <v>Columbia</v>
       </c>
       <c r="C72" s="91" t="str">
         <f ca="1">IF(O72="","",IF(A72=O72,B72,A72))</f>
-        <v>Clemson</v>
+        <v>Columbia</v>
       </c>
       <c r="D72" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O72,SeedInfo,2,FALSE)*6,MAX(VLOOKUP(O72,SeedInfo,2,FALSE)-VLOOKUP(C72,SeedInfo,2,FALSE),0)))</f>
@@ -23711,44 +23714,44 @@
       </c>
       <c r="F72" s="154" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">_xlfn.XLOOKUP(G72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G72" s="155" t="str">
         <f ca="1">O69</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="H72" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="156" t="str">
         <f ca="1">O70</f>
-        <v>Clemson</v>
+        <v>Columbia</v>
       </c>
       <c r="J72" s="157" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">_xlfn.XLOOKUP(I72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K72" s="158" t="e" vm="75">
+        <v>3</v>
+      </c>
+      <c r="K72" s="158" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="M72" s="158" t="e" vm="116">
+        <v>95</v>
+      </c>
+      <c r="M72" s="158" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O72" s="198" t="str">
         <f ca="1">IF(L72&gt;N72,G72,I72)</f>
-        <v>Arizona</v>
-      </c>
-      <c r="P72" s="205" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P72" s="205" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23757,7 +23760,7 @@
       </c>
       <c r="R72" s="6" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="98"/>
     </row>
@@ -23920,13 +23923,13 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="290" t="s">
+      <c r="S2" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="290"/>
-      <c r="W2" s="290"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="284"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
@@ -24004,7 +24007,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="17"/>
-      <c r="AQ3" s="293"/>
+      <c r="AQ3" s="278"/>
       <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
@@ -24036,7 +24039,7 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="293"/>
+      <c r="AQ4" s="278"/>
     </row>
     <row r="5" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -24053,19 +24056,19 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">Games!L5</f>
-        <v>114</v>
-      </c>
-      <c r="F5" s="267" t="str">
+        <v>102</v>
+      </c>
+      <c r="F5" s="259" t="str">
         <f ca="1">Games!O5</f>
         <v>Air Force</v>
       </c>
-      <c r="G5" s="252" t="e" vm="66">
+      <c r="G5" s="262" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(F5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="289">
+      <c r="H5" s="283">
         <f ca="1">Games!L38</f>
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -24083,21 +24086,21 @@
       <c r="AA5" s="25"/>
       <c r="AD5" s="25"/>
       <c r="AG5" s="25"/>
-      <c r="AH5" s="269">
+      <c r="AH5" s="254">
         <f ca="1">Games!L46</f>
-        <v>105</v>
-      </c>
-      <c r="AI5" s="250" t="e" vm="98">
+        <v>99</v>
+      </c>
+      <c r="AI5" s="250" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AJ5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="267" t="str">
+      <c r="AJ5" s="259" t="str">
         <f ca="1">Games!O21</f>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="AK5" s="58">
         <f ca="1">Games!L21</f>
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AL5" s="46" t="e" vm="97">
         <f>_xlfn.XLOOKUP(AM5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24111,14 +24114,14 @@
         <v>1</v>
       </c>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="293"/>
+      <c r="AQ5" s="278"/>
       <c r="AU5" s="2" t="b">
         <f>IF(AP29="x",TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="288">
+      <c r="A6" s="258">
         <f>IF($AU$5=TRUE,1,"")</f>
         <v>1</v>
       </c>
@@ -24126,9 +24129,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="71"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="270"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="255"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="L6" s="25"/>
@@ -24145,20 +24148,20 @@
       <c r="AA6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AG6" s="25"/>
-      <c r="AH6" s="270"/>
+      <c r="AH6" s="255"/>
       <c r="AI6" s="251"/>
-      <c r="AJ6" s="268"/>
+      <c r="AJ6" s="260"/>
       <c r="AK6" s="55"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="28"/>
-      <c r="AO6" s="292">
+      <c r="AO6" s="280">
         <f>IF($AU$5=TRUE,A66+1,"")</f>
         <v>17</v>
       </c>
-      <c r="AQ6" s="293"/>
+      <c r="AQ6" s="278"/>
     </row>
     <row r="7" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="288"/>
+      <c r="A7" s="258"/>
       <c r="B7" s="27">
         <v>16</v>
       </c>
@@ -24172,25 +24175,25 @@
       </c>
       <c r="E7" s="48">
         <f ca="1">Games!N5</f>
-        <v>114</v>
-      </c>
-      <c r="F7" s="287">
+        <v>118</v>
+      </c>
+      <c r="F7" s="279">
         <f>IF($AU$5=TRUE,AO66+1,"")</f>
         <v>33</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="283" t="str">
+      <c r="I7" s="266" t="str">
         <f ca="1">Games!O38</f>
-        <v>Air Force</v>
-      </c>
-      <c r="J7" s="252" t="e" vm="66">
+        <v>Alabama</v>
+      </c>
+      <c r="J7" s="262" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="269">
+      <c r="K7" s="254">
         <f ca="1">Games!L55</f>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -24205,27 +24208,27 @@
       <c r="X7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="269">
+      <c r="AE7" s="254">
         <f ca="1">Games!L59</f>
         <v>111</v>
       </c>
-      <c r="AF7" s="250" t="e" vm="100">
+      <c r="AF7" s="250" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AG7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG7" s="267" t="str">
+      <c r="AG7" s="259" t="str">
         <f ca="1">Games!O46</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="AH7" s="55"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="287">
+      <c r="AJ7" s="279">
         <f>IF($AU$5=TRUE,F63+1,"")</f>
         <v>41</v>
       </c>
       <c r="AK7" s="59">
         <f ca="1">Games!N21</f>
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AL7" s="46" t="e" vm="98">
         <f>_xlfn.XLOOKUP(AM7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24238,20 +24241,20 @@
       <c r="AN7" s="27">
         <v>16</v>
       </c>
-      <c r="AO7" s="292"/>
-      <c r="AQ7" s="293"/>
+      <c r="AO7" s="280"/>
+      <c r="AQ7" s="278"/>
     </row>
     <row r="8" spans="1:47" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="71"/>
-      <c r="F8" s="288"/>
+      <c r="F8" s="258"/>
       <c r="G8" s="15"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="270"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="255"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="O8" s="25"/>
@@ -24265,15 +24268,15 @@
       <c r="X8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="270"/>
+      <c r="AE8" s="255"/>
       <c r="AF8" s="251"/>
-      <c r="AG8" s="268"/>
+      <c r="AG8" s="260"/>
       <c r="AH8" s="56"/>
-      <c r="AJ8" s="288"/>
+      <c r="AJ8" s="258"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="17"/>
-      <c r="AQ8" s="293"/>
+      <c r="AQ8" s="278"/>
     </row>
     <row r="9" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
@@ -24290,19 +24293,19 @@
       </c>
       <c r="E9" s="46">
         <f ca="1">Games!L6</f>
-        <v>91</v>
-      </c>
-      <c r="F9" s="267" t="str">
+        <v>106</v>
+      </c>
+      <c r="F9" s="259" t="str">
         <f ca="1">Games!O6</f>
         <v>Alabama</v>
       </c>
-      <c r="G9" s="252" t="e" vm="68">
+      <c r="G9" s="262" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(F9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="285">
+      <c r="H9" s="272">
         <f ca="1">Games!N38</f>
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -24322,21 +24325,21 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="55"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="274">
+      <c r="AH9" s="256">
         <f ca="1">Games!N46</f>
-        <v>108</v>
-      </c>
-      <c r="AI9" s="250" t="e" vm="100">
+        <v>95</v>
+      </c>
+      <c r="AI9" s="250" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(AJ9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ9" s="267" t="str">
+      <c r="AJ9" s="259" t="str">
         <f ca="1">Games!O22</f>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="AK9" s="58">
         <f ca="1">Games!L22</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL9" s="46" t="e" vm="99">
         <f>_xlfn.XLOOKUP(AM9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24350,10 +24353,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="17"/>
-      <c r="AQ9" s="293"/>
+      <c r="AQ9" s="278"/>
     </row>
     <row r="10" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="291">
+      <c r="A10" s="281">
         <f>IF($AU$5=TRUE,A6+1,"")</f>
         <v>2</v>
       </c>
@@ -24361,9 +24364,9 @@
       <c r="C10" s="38"/>
       <c r="D10" s="71"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="286"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="273"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="50"/>
@@ -24382,20 +24385,20 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="56"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="275"/>
+      <c r="AH10" s="257"/>
       <c r="AI10" s="251"/>
-      <c r="AJ10" s="268"/>
+      <c r="AJ10" s="260"/>
       <c r="AK10" s="55"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="28"/>
-      <c r="AO10" s="292">
+      <c r="AO10" s="280">
         <f>IF($AU$5=TRUE,AO6+1,"")</f>
         <v>18</v>
       </c>
-      <c r="AQ10" s="293"/>
+      <c r="AQ10" s="278"/>
     </row>
     <row r="11" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="291"/>
+      <c r="A11" s="281"/>
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -24409,62 +24412,62 @@
       </c>
       <c r="E11" s="48">
         <f ca="1">Games!N6</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="288">
+      <c r="I11" s="258">
         <f>IF($AU$5=TRUE,AJ63+1,"")</f>
         <v>49</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="283" t="str">
+      <c r="L11" s="266" t="str">
         <f ca="1">Games!O55</f>
-        <v>Air Force</v>
-      </c>
-      <c r="M11" s="252" t="e" vm="66">
+        <v>Alabama A&amp;M</v>
+      </c>
+      <c r="M11" s="262" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(L11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="269">
+      <c r="N11" s="254">
         <f ca="1">Games!L64</f>
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="256" t="e" vm="75">
+      <c r="T11" s="285" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(S32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="257"/>
-      <c r="V11" s="258"/>
+      <c r="U11" s="286"/>
+      <c r="V11" s="287"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="269">
+      <c r="AB11" s="254">
         <f ca="1">Games!L66</f>
-        <v>92</v>
-      </c>
-      <c r="AC11" s="254" t="e" vm="100">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="252" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AD11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="267" t="str">
+      <c r="AD11" s="259" t="str">
         <f ca="1">Games!O59</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="AE11" s="56"/>
-      <c r="AG11" s="288">
+      <c r="AG11" s="258">
         <f>IF($AU$5=TRUE,I59+1,"")</f>
         <v>53</v>
       </c>
       <c r="AJ11" s="24"/>
       <c r="AK11" s="59">
         <f ca="1">Games!N22</f>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="AL11" s="46" t="e" vm="100">
         <f>_xlfn.XLOOKUP(AM11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24477,8 +24480,8 @@
       <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="292"/>
-      <c r="AQ11" s="293"/>
+      <c r="AO11" s="280"/>
+      <c r="AQ11" s="278"/>
     </row>
     <row r="12" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -24487,27 +24490,27 @@
       <c r="D12" s="71"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="288"/>
+      <c r="I12" s="258"/>
       <c r="J12" s="15"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="284"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="270"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="255"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="260"/>
-      <c r="V12" s="261"/>
+      <c r="T12" s="288"/>
+      <c r="U12" s="289"/>
+      <c r="V12" s="290"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="270"/>
-      <c r="AC12" s="255"/>
-      <c r="AD12" s="268"/>
+      <c r="AB12" s="255"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="260"/>
       <c r="AE12" s="56"/>
-      <c r="AG12" s="288"/>
+      <c r="AG12" s="258"/>
       <c r="AJ12" s="24"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="28"/>
@@ -24528,19 +24531,19 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">Games!L7</f>
-        <v>111</v>
-      </c>
-      <c r="F13" s="267" t="str">
+        <v>115</v>
+      </c>
+      <c r="F13" s="259" t="str">
         <f ca="1">Games!O7</f>
         <v>Alabama A&amp;M</v>
       </c>
-      <c r="G13" s="252" t="e" vm="69">
+      <c r="G13" s="262" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(F13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="269">
+      <c r="H13" s="254">
         <f ca="1">Games!L39</f>
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -24552,9 +24555,9 @@
       <c r="P13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="260"/>
-      <c r="V13" s="261"/>
+      <c r="T13" s="288"/>
+      <c r="U13" s="289"/>
+      <c r="V13" s="290"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="AA13" s="25"/>
@@ -24562,21 +24565,21 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="56"/>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="269">
+      <c r="AH13" s="254">
         <f ca="1">Games!L47</f>
-        <v>111</v>
-      </c>
-      <c r="AI13" s="254" t="e" vm="102">
+        <v>115</v>
+      </c>
+      <c r="AI13" s="252" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AJ13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ13" s="267" t="str">
+      <c r="AJ13" s="259" t="str">
         <f ca="1">Games!O23</f>
         <v>Cal State Fullerton</v>
       </c>
       <c r="AK13" s="58">
         <f ca="1">Games!L23</f>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AL13" s="46" t="e" vm="101">
         <f>_xlfn.XLOOKUP(AM13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24593,7 +24596,7 @@
       <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="288">
+      <c r="A14" s="258">
         <f>IF($AU$5=TRUE,A10+1,"")</f>
         <v>3</v>
       </c>
@@ -24601,9 +24604,9 @@
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="268"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="270"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="255"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="50"/>
@@ -24614,9 +24617,9 @@
       <c r="P14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="260"/>
-      <c r="V14" s="261"/>
+      <c r="T14" s="288"/>
+      <c r="U14" s="289"/>
+      <c r="V14" s="290"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="AA14" s="25"/>
@@ -24624,20 +24627,20 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="56"/>
       <c r="AG14" s="24"/>
-      <c r="AH14" s="270"/>
-      <c r="AI14" s="255"/>
-      <c r="AJ14" s="268"/>
+      <c r="AH14" s="255"/>
+      <c r="AI14" s="253"/>
+      <c r="AJ14" s="260"/>
       <c r="AK14" s="55"/>
       <c r="AM14" s="39"/>
       <c r="AN14" s="28"/>
-      <c r="AO14" s="292">
+      <c r="AO14" s="280">
         <f>IF($AU$5=TRUE,AO10+1,"")</f>
         <v>19</v>
       </c>
-      <c r="AQ14" s="293"/>
+      <c r="AQ14" s="278"/>
     </row>
     <row r="15" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="288"/>
+      <c r="A15" s="258"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -24651,25 +24654,25 @@
       </c>
       <c r="E15" s="48">
         <f ca="1">Games!N7</f>
-        <v>97</v>
-      </c>
-      <c r="F15" s="287">
+        <v>100</v>
+      </c>
+      <c r="F15" s="279">
         <f>IF($AU$5=TRUE,F7+1,"")</f>
         <v>34</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="283" t="str">
+      <c r="I15" s="266" t="str">
         <f ca="1">Games!O39</f>
         <v>Alabama A&amp;M</v>
       </c>
-      <c r="J15" s="252" t="e" vm="69">
+      <c r="J15" s="262" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="285">
+      <c r="K15" s="272">
         <f ca="1">Games!N55</f>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -24678,35 +24681,35 @@
       <c r="P15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="259"/>
-      <c r="U15" s="260"/>
-      <c r="V15" s="261"/>
+      <c r="T15" s="288"/>
+      <c r="U15" s="289"/>
+      <c r="V15" s="290"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="56"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="274">
+      <c r="AE15" s="256">
         <f ca="1">Games!N59</f>
-        <v>108</v>
-      </c>
-      <c r="AF15" s="254" t="e" vm="102">
+        <v>104</v>
+      </c>
+      <c r="AF15" s="252" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AG15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG15" s="267" t="str">
+      <c r="AG15" s="259" t="str">
         <f ca="1">Games!O47</f>
         <v>Cal State Fullerton</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="51"/>
-      <c r="AJ15" s="287">
+      <c r="AJ15" s="279">
         <f>IF($AU$5=TRUE,AJ7+1,"")</f>
         <v>42</v>
       </c>
       <c r="AK15" s="59">
         <f ca="1">Games!N23</f>
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AL15" s="46" t="e" vm="102">
         <f>_xlfn.XLOOKUP(AM15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24719,20 +24722,20 @@
       <c r="AN15" s="27">
         <v>12</v>
       </c>
-      <c r="AO15" s="292"/>
-      <c r="AQ15" s="293"/>
+      <c r="AO15" s="280"/>
+      <c r="AQ15" s="278"/>
     </row>
     <row r="16" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="28"/>
       <c r="C16" s="38"/>
       <c r="D16" s="71"/>
-      <c r="F16" s="288"/>
+      <c r="F16" s="258"/>
       <c r="G16" s="15"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="286"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="263"/>
+      <c r="K16" s="273"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="50"/>
@@ -24740,23 +24743,23 @@
       <c r="P16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="259"/>
-      <c r="U16" s="260"/>
-      <c r="V16" s="261"/>
+      <c r="T16" s="288"/>
+      <c r="U16" s="289"/>
+      <c r="V16" s="290"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="56"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="275"/>
-      <c r="AF16" s="255"/>
-      <c r="AG16" s="268"/>
+      <c r="AE16" s="257"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="260"/>
       <c r="AH16" s="56"/>
-      <c r="AJ16" s="288"/>
+      <c r="AJ16" s="258"/>
       <c r="AM16" s="39"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="17"/>
-      <c r="AQ16" s="293"/>
+      <c r="AQ16" s="278"/>
     </row>
     <row r="17" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -24773,19 +24776,19 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">Games!L8</f>
-        <v>90</v>
-      </c>
-      <c r="F17" s="267" t="str">
+        <v>114</v>
+      </c>
+      <c r="F17" s="259" t="str">
         <f ca="1">Games!O8</f>
         <v>Alcorn State</v>
       </c>
-      <c r="G17" s="252" t="e" vm="72">
+      <c r="G17" s="262" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(F17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="285">
+      <c r="H17" s="272">
         <f ca="1">Games!N39</f>
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -24796,30 +24799,30 @@
       <c r="P17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="261"/>
+      <c r="T17" s="288"/>
+      <c r="U17" s="289"/>
+      <c r="V17" s="290"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="56"/>
       <c r="AD17" s="25"/>
       <c r="AG17" s="24"/>
-      <c r="AH17" s="274">
+      <c r="AH17" s="256">
         <f ca="1">Games!N47</f>
-        <v>97</v>
-      </c>
-      <c r="AI17" s="254" t="e" vm="104">
+        <v>109</v>
+      </c>
+      <c r="AI17" s="252" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(AJ17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ17" s="267" t="str">
+      <c r="AJ17" s="259" t="str">
         <f ca="1">Games!O24</f>
         <v>California</v>
       </c>
       <c r="AK17" s="58">
         <f ca="1">Games!L24</f>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AL17" s="46" t="e" vm="103">
         <f>_xlfn.XLOOKUP(AM17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24833,10 +24836,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="17"/>
-      <c r="AQ17" s="293"/>
+      <c r="AQ17" s="278"/>
     </row>
     <row r="18" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="288">
+      <c r="A18" s="258">
         <f>IF($AU$5=TRUE,A14+1,"")</f>
         <v>4</v>
       </c>
@@ -24844,9 +24847,9 @@
       <c r="C18" s="38"/>
       <c r="D18" s="71"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="286"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="273"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="L18" s="25"/>
@@ -24856,29 +24859,29 @@
       <c r="P18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="259"/>
-      <c r="U18" s="260"/>
-      <c r="V18" s="261"/>
+      <c r="T18" s="288"/>
+      <c r="U18" s="289"/>
+      <c r="V18" s="290"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="56"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="275"/>
-      <c r="AI18" s="255"/>
-      <c r="AJ18" s="268"/>
+      <c r="AH18" s="257"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="260"/>
       <c r="AK18" s="55"/>
       <c r="AM18" s="39"/>
       <c r="AN18" s="28"/>
-      <c r="AO18" s="292">
+      <c r="AO18" s="280">
         <f>IF($AU$5=TRUE,AO14+1,"")</f>
         <v>20</v>
       </c>
-      <c r="AQ18" s="293"/>
+      <c r="AQ18" s="278"/>
     </row>
     <row r="19" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="288"/>
+      <c r="A19" s="258"/>
       <c r="B19" s="27">
         <v>13</v>
       </c>
@@ -24892,60 +24895,60 @@
       </c>
       <c r="E19" s="48">
         <f ca="1">Games!N8</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="271" t="s">
+      <c r="K19" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="271"/>
+      <c r="L19" s="261"/>
       <c r="M19" s="20"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="283" t="str">
+      <c r="O19" s="266" t="str">
         <f ca="1">Games!O64</f>
-        <v>Arizona</v>
-      </c>
-      <c r="P19" s="252" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P19" s="262" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="269">
+      <c r="Q19" s="254">
         <f ca="1">Games!L69</f>
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="263"/>
-      <c r="V19" s="264"/>
+      <c r="T19" s="291"/>
+      <c r="U19" s="292"/>
+      <c r="V19" s="293"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="269">
+      <c r="Y19" s="254">
         <f ca="1">Games!L70</f>
-        <v>97</v>
-      </c>
-      <c r="Z19" s="254" t="e" vm="105">
+        <v>94</v>
+      </c>
+      <c r="Z19" s="252" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AA19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA19" s="267" t="str">
+      <c r="AA19" s="259" t="str">
         <f ca="1">Games!O66</f>
-        <v>California Baptist</v>
+        <v>Bucknell</v>
       </c>
       <c r="AB19" s="56"/>
-      <c r="AD19" s="271" t="s">
+      <c r="AD19" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="271"/>
+      <c r="AE19" s="261"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="59">
         <f ca="1">Games!N24</f>
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AL19" s="46" t="e" vm="104">
         <f>_xlfn.XLOOKUP(AM19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24958,8 +24961,8 @@
       <c r="AN19" s="27">
         <v>13</v>
       </c>
-      <c r="AO19" s="292"/>
-      <c r="AQ19" s="293"/>
+      <c r="AO19" s="280"/>
+      <c r="AQ19" s="278"/>
     </row>
     <row r="20" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
@@ -24970,13 +24973,13 @@
       <c r="G20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="271"/>
-      <c r="L20" s="271"/>
+      <c r="K20" s="261"/>
+      <c r="L20" s="261"/>
       <c r="M20" s="20"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="284"/>
-      <c r="P20" s="253"/>
-      <c r="Q20" s="270"/>
+      <c r="O20" s="267"/>
+      <c r="P20" s="263"/>
+      <c r="Q20" s="255"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -24984,12 +24987,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="270"/>
-      <c r="Z20" s="255"/>
-      <c r="AA20" s="268"/>
+      <c r="Y20" s="255"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="260"/>
       <c r="AB20" s="56"/>
-      <c r="AD20" s="271"/>
-      <c r="AE20" s="271"/>
+      <c r="AD20" s="261"/>
+      <c r="AE20" s="261"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="24"/>
       <c r="AJ20" s="24"/>
@@ -24999,7 +25002,7 @@
       <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="288">
+      <c r="A21" s="258">
         <f>IF($AU$5=TRUE,A18+1,"")</f>
         <v>5</v>
       </c>
@@ -25016,19 +25019,19 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">Games!L9</f>
-        <v>103</v>
-      </c>
-      <c r="F21" s="267" t="str">
+        <v>112</v>
+      </c>
+      <c r="F21" s="259" t="str">
         <f ca="1">Games!O9</f>
-        <v>Appalachian State</v>
-      </c>
-      <c r="G21" s="252" t="e" vm="74">
+        <v>American</v>
+      </c>
+      <c r="G21" s="262" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(F21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="269">
+      <c r="H21" s="254">
         <f ca="1">Games!L40</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -25056,21 +25059,21 @@
         <v>59</v>
       </c>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="269">
+      <c r="AH21" s="254">
         <f ca="1">Games!L48</f>
-        <v>108</v>
-      </c>
-      <c r="AI21" s="254" t="e" vm="105">
+        <v>97</v>
+      </c>
+      <c r="AI21" s="252" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AJ21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ21" s="267" t="str">
+      <c r="AJ21" s="259" t="str">
         <f ca="1">Games!O25</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="AK21" s="58">
         <f ca="1">Games!L25</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL21" s="46" t="e" vm="105">
         <f>_xlfn.XLOOKUP(AM21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25087,14 +25090,14 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="288"/>
+      <c r="A22" s="258"/>
       <c r="B22" s="28"/>
       <c r="C22" s="38"/>
       <c r="D22" s="71"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="268"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="270"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="255"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="L22" s="25"/>
@@ -25115,17 +25118,17 @@
       <c r="AB22" s="56"/>
       <c r="AD22" s="29"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="270"/>
-      <c r="AI22" s="255"/>
-      <c r="AJ22" s="268"/>
+      <c r="AH22" s="255"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="260"/>
       <c r="AK22" s="55"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="28"/>
-      <c r="AO22" s="292">
+      <c r="AO22" s="280">
         <f>IF($AU$5=TRUE,AO18+1,"")</f>
         <v>21</v>
       </c>
-      <c r="AQ22" s="293"/>
+      <c r="AQ22" s="278"/>
     </row>
     <row r="23" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
@@ -25144,23 +25147,23 @@
         <f ca="1">Games!N9</f>
         <v>106</v>
       </c>
-      <c r="F23" s="287">
+      <c r="F23" s="279">
         <f>IF($AU$5=TRUE,F15+1,"")</f>
         <v>35</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="283" t="str">
+      <c r="I23" s="266" t="str">
         <f ca="1">Games!O40</f>
-        <v>Arizona</v>
-      </c>
-      <c r="J23" s="252" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="J23" s="262" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="269">
+      <c r="K23" s="254">
         <f ca="1">Games!L56</f>
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -25179,27 +25182,27 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="56"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="269">
+      <c r="AE23" s="254">
         <f ca="1">Games!L60</f>
-        <v>96</v>
-      </c>
-      <c r="AF23" s="254" t="e" vm="105">
+        <v>92</v>
+      </c>
+      <c r="AF23" s="252" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(AG23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG23" s="267" t="str">
+      <c r="AG23" s="259" t="str">
         <f ca="1">Games!O48</f>
-        <v>California Baptist</v>
+        <v>Canisius</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="51"/>
-      <c r="AJ23" s="287">
+      <c r="AJ23" s="279">
         <f>IF($AU$5=TRUE,AJ15+1,"")</f>
         <v>43</v>
       </c>
       <c r="AK23" s="59">
         <f ca="1">Games!N25</f>
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AL23" s="46" t="e" vm="106">
         <f>_xlfn.XLOOKUP(AM23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25212,20 +25215,20 @@
       <c r="AN23" s="27">
         <v>11</v>
       </c>
-      <c r="AO23" s="292"/>
-      <c r="AQ23" s="293"/>
+      <c r="AO23" s="280"/>
+      <c r="AQ23" s="278"/>
     </row>
     <row r="24" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="28"/>
       <c r="C24" s="38"/>
       <c r="D24" s="71"/>
-      <c r="F24" s="288"/>
+      <c r="F24" s="258"/>
       <c r="G24" s="15"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="284"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="270"/>
+      <c r="I24" s="267"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="255"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="50"/>
@@ -25243,15 +25246,15 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="56"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="270"/>
-      <c r="AF24" s="255"/>
-      <c r="AG24" s="268"/>
+      <c r="AE24" s="255"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="260"/>
       <c r="AH24" s="56"/>
-      <c r="AJ24" s="288"/>
+      <c r="AJ24" s="258"/>
       <c r="AM24" s="39"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="17"/>
-      <c r="AQ24" s="293"/>
+      <c r="AQ24" s="278"/>
     </row>
     <row r="25" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -25268,19 +25271,19 @@
       </c>
       <c r="E25" s="46">
         <f ca="1">Games!L10</f>
-        <v>116</v>
-      </c>
-      <c r="F25" s="267" t="str">
+        <v>110</v>
+      </c>
+      <c r="F25" s="259" t="str">
         <f ca="1">Games!O10</f>
         <v>Arizona</v>
       </c>
-      <c r="G25" s="252" t="e" vm="75">
+      <c r="G25" s="262" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(F25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="285">
+      <c r="H25" s="272">
         <f ca="1">Games!N40</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -25304,21 +25307,21 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="55"/>
       <c r="AG25" s="24"/>
-      <c r="AH25" s="274">
+      <c r="AH25" s="256">
         <f ca="1">Games!N48</f>
-        <v>102</v>
-      </c>
-      <c r="AI25" s="254" t="e" vm="107">
+        <v>118</v>
+      </c>
+      <c r="AI25" s="252" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(AJ25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ25" s="267" t="str">
+      <c r="AJ25" s="259" t="str">
         <f ca="1">Games!O26</f>
         <v>Canisius</v>
       </c>
       <c r="AK25" s="58">
         <f ca="1">Games!L26</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL25" s="46" t="e" vm="107">
         <f>_xlfn.XLOOKUP(AM25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25332,10 +25335,10 @@
         <v>3</v>
       </c>
       <c r="AO25" s="17"/>
-      <c r="AQ25" s="293"/>
+      <c r="AQ25" s="278"/>
     </row>
     <row r="26" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="288">
+      <c r="A26" s="258">
         <f>IF($AU$5=TRUE,A21+1,"")</f>
         <v>6</v>
       </c>
@@ -25343,9 +25346,9 @@
       <c r="C26" s="38"/>
       <c r="D26" s="71"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="268"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="286"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="273"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="50"/>
@@ -25368,20 +25371,20 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="56"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="275"/>
-      <c r="AI26" s="255"/>
-      <c r="AJ26" s="268"/>
+      <c r="AH26" s="257"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="260"/>
       <c r="AK26" s="55"/>
       <c r="AM26" s="39"/>
       <c r="AN26" s="28"/>
-      <c r="AO26" s="292">
+      <c r="AO26" s="280">
         <f>IF($AU$5=TRUE,AO22+1,"")</f>
         <v>22</v>
       </c>
-      <c r="AQ26" s="293"/>
+      <c r="AQ26" s="278"/>
     </row>
     <row r="27" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="288"/>
+      <c r="A27" s="258"/>
       <c r="B27" s="27">
         <v>14</v>
       </c>
@@ -25395,63 +25398,63 @@
       </c>
       <c r="E27" s="48">
         <f ca="1">Games!N10</f>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" s="288">
+      <c r="I27" s="258">
         <f>IF($AU$5=TRUE,I11+1,"")</f>
         <v>50</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="283" t="str">
+      <c r="L27" s="266" t="str">
         <f ca="1">Games!O56</f>
-        <v>Arizona</v>
-      </c>
-      <c r="M27" s="252" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="M27" s="262" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(L27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N27" s="285">
+      <c r="N27" s="272">
         <f ca="1">Games!N64</f>
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="283" t="str">
+      <c r="R27" s="266" t="str">
         <f ca="1">Games!O69</f>
-        <v>Arizona</v>
-      </c>
-      <c r="S27" s="267"/>
-      <c r="T27" s="267"/>
-      <c r="U27" s="298" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="S27" s="259"/>
+      <c r="T27" s="259"/>
+      <c r="U27" s="274" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(R27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V27" s="272">
+      <c r="V27" s="276">
         <f ca="1">Games!L72</f>
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="56"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="274">
+      <c r="AB27" s="256">
         <f ca="1">Games!N66</f>
-        <v>106</v>
-      </c>
-      <c r="AC27" s="254" t="e" vm="105">
+        <v>96</v>
+      </c>
+      <c r="AC27" s="252" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AD27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" s="267" t="str">
+      <c r="AD27" s="259" t="str">
         <f ca="1">Games!O60</f>
-        <v>California Baptist</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="AE27" s="56"/>
-      <c r="AG27" s="288">
+      <c r="AG27" s="258">
         <f>IF($AU$5=TRUE,AG11+1,"")</f>
         <v>54</v>
       </c>
@@ -25471,8 +25474,8 @@
       <c r="AN27" s="27">
         <v>14</v>
       </c>
-      <c r="AO27" s="292"/>
-      <c r="AQ27" s="293"/>
+      <c r="AO27" s="280"/>
+      <c r="AQ27" s="278"/>
     </row>
     <row r="28" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
@@ -25481,29 +25484,29 @@
       <c r="D28" s="71"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" s="288"/>
+      <c r="I28" s="258"/>
       <c r="J28" s="15"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="253"/>
-      <c r="N28" s="286"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="273"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="284"/>
-      <c r="S28" s="268"/>
-      <c r="T28" s="268"/>
-      <c r="U28" s="299"/>
-      <c r="V28" s="273"/>
+      <c r="R28" s="267"/>
+      <c r="S28" s="260"/>
+      <c r="T28" s="260"/>
+      <c r="U28" s="275"/>
+      <c r="V28" s="277"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="56"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="275"/>
-      <c r="AC28" s="255"/>
-      <c r="AD28" s="268"/>
+      <c r="AB28" s="257"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="260"/>
       <c r="AE28" s="56"/>
-      <c r="AG28" s="288"/>
+      <c r="AG28" s="258"/>
       <c r="AJ28" s="24"/>
       <c r="AM28" s="39"/>
       <c r="AN28" s="28"/>
@@ -25524,19 +25527,19 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">Games!L11</f>
-        <v>94</v>
-      </c>
-      <c r="F29" s="267" t="str">
+        <v>120</v>
+      </c>
+      <c r="F29" s="259" t="str">
         <f ca="1">Games!O11</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="G29" s="252" t="e" vm="78">
+        <v>Arkansas</v>
+      </c>
+      <c r="G29" s="262" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(F29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="269">
+      <c r="H29" s="254">
         <f ca="1">Games!L41</f>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -25558,21 +25561,21 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="56"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="269">
+      <c r="AH29" s="254">
         <f ca="1">Games!L49</f>
-        <v>91</v>
-      </c>
-      <c r="AI29" s="254" t="e" vm="109">
+        <v>99</v>
+      </c>
+      <c r="AI29" s="252" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(AJ29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ29" s="267" t="str">
+      <c r="AJ29" s="259" t="str">
         <f ca="1">Games!O27</f>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="AK29" s="58">
         <f ca="1">Games!L27</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL29" s="46" t="e" vm="109">
         <f>_xlfn.XLOOKUP(AM29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25594,7 +25597,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="288">
+      <c r="A30" s="258">
         <f>IF($AU$5=TRUE,A26+1,"")</f>
         <v>7</v>
       </c>
@@ -25602,9 +25605,9 @@
       <c r="C30" s="38"/>
       <c r="D30" s="71"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="270"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="255"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="50"/>
@@ -25625,19 +25628,19 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="56"/>
       <c r="AG30" s="24"/>
-      <c r="AH30" s="270"/>
-      <c r="AI30" s="255"/>
-      <c r="AJ30" s="268"/>
+      <c r="AH30" s="255"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="260"/>
       <c r="AK30" s="55"/>
       <c r="AM30" s="39"/>
       <c r="AN30" s="28"/>
-      <c r="AO30" s="292">
+      <c r="AO30" s="280">
         <f>IF($AU$5=TRUE,AO26+1,"")</f>
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="288"/>
+      <c r="A31" s="258"/>
       <c r="B31" s="27">
         <v>10</v>
       </c>
@@ -25651,25 +25654,25 @@
       </c>
       <c r="E31" s="48">
         <f ca="1">Games!N11</f>
-        <v>99</v>
-      </c>
-      <c r="F31" s="287">
+        <v>91</v>
+      </c>
+      <c r="F31" s="279">
         <f>IF($AU$5=TRUE,F23+1,"")</f>
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="283" t="str">
+      <c r="I31" s="266" t="str">
         <f ca="1">Games!O41</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="J31" s="252" t="e" vm="78">
+        <v>Army</v>
+      </c>
+      <c r="J31" s="262" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="285">
+      <c r="K31" s="272">
         <f ca="1">Games!N56</f>
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -25677,38 +25680,38 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="260" t="s">
+      <c r="S31" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="260"/>
-      <c r="U31" s="260"/>
-      <c r="V31" s="260"/>
-      <c r="W31" s="260"/>
+      <c r="T31" s="289"/>
+      <c r="U31" s="289"/>
+      <c r="V31" s="289"/>
+      <c r="W31" s="289"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="56"/>
       <c r="AA31" s="25"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="274">
+      <c r="AE31" s="256">
         <f ca="1">Games!N60</f>
-        <v>94</v>
-      </c>
-      <c r="AF31" s="254" t="e" vm="111">
+        <v>113</v>
+      </c>
+      <c r="AF31" s="252" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AG31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG31" s="267" t="str">
+      <c r="AG31" s="259" t="str">
         <f ca="1">Games!O49</f>
         <v>Charleston Southern</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="51"/>
-      <c r="AJ31" s="287">
+      <c r="AJ31" s="279">
         <f>IF($AU$5=TRUE,AJ23+1,"")</f>
         <v>44</v>
       </c>
       <c r="AK31" s="59">
         <f ca="1">Games!N27</f>
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AL31" s="46" t="e" vm="110">
         <f>_xlfn.XLOOKUP(AM31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25721,42 +25724,42 @@
       <c r="AN31" s="27">
         <v>10</v>
       </c>
-      <c r="AO31" s="292"/>
+      <c r="AO31" s="280"/>
     </row>
     <row r="32" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="28"/>
       <c r="C32" s="38"/>
       <c r="D32" s="71"/>
-      <c r="F32" s="288"/>
+      <c r="F32" s="258"/>
       <c r="G32" s="15"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="284"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="286"/>
+      <c r="I32" s="267"/>
+      <c r="J32" s="263"/>
+      <c r="K32" s="273"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="30"/>
-      <c r="S32" s="276" t="str">
+      <c r="S32" s="296" t="str">
         <f ca="1">Games!O72</f>
-        <v>Arizona</v>
-      </c>
-      <c r="T32" s="277"/>
-      <c r="U32" s="277"/>
-      <c r="V32" s="277"/>
-      <c r="W32" s="278"/>
+        <v>American</v>
+      </c>
+      <c r="T32" s="297"/>
+      <c r="U32" s="297"/>
+      <c r="V32" s="297"/>
+      <c r="W32" s="298"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="56"/>
       <c r="AA32" s="25"/>
       <c r="AD32" s="25"/>
-      <c r="AE32" s="275"/>
-      <c r="AF32" s="255"/>
-      <c r="AG32" s="268"/>
+      <c r="AE32" s="257"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="260"/>
       <c r="AH32" s="56"/>
-      <c r="AJ32" s="288"/>
+      <c r="AJ32" s="258"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="17"/>
@@ -25776,19 +25779,19 @@
       </c>
       <c r="E33" s="46">
         <f ca="1">Games!L12</f>
-        <v>97</v>
-      </c>
-      <c r="F33" s="267" t="str">
+        <v>95</v>
+      </c>
+      <c r="F33" s="259" t="str">
         <f ca="1">Games!O12</f>
         <v>Army</v>
       </c>
-      <c r="G33" s="252" t="e" vm="80">
+      <c r="G33" s="262" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(F33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="285">
+      <c r="H33" s="272">
         <f ca="1">Games!N41</f>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -25798,31 +25801,31 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="30"/>
-      <c r="S33" s="279"/>
-      <c r="T33" s="280"/>
-      <c r="U33" s="280"/>
-      <c r="V33" s="280"/>
-      <c r="W33" s="281"/>
+      <c r="S33" s="299"/>
+      <c r="T33" s="300"/>
+      <c r="U33" s="300"/>
+      <c r="V33" s="300"/>
+      <c r="W33" s="301"/>
       <c r="X33" s="31"/>
       <c r="Y33" s="56"/>
       <c r="AA33" s="25"/>
       <c r="AD33" s="25"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="274">
+      <c r="AH33" s="256">
         <f ca="1">Games!N49</f>
-        <v>91</v>
-      </c>
-      <c r="AI33" s="254" t="e" vm="111">
+        <v>116</v>
+      </c>
+      <c r="AI33" s="252" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AJ33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ33" s="267" t="str">
+      <c r="AJ33" s="259" t="str">
         <f ca="1">Games!O28</f>
         <v>Charleston Southern</v>
       </c>
       <c r="AK33" s="58">
         <f ca="1">Games!L28</f>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="AL33" s="46" t="e" vm="111">
         <f>_xlfn.XLOOKUP(AM33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25839,7 +25842,7 @@
       <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="288">
+      <c r="A34" s="258">
         <f>IF($AU$5=TRUE,A30+1,"")</f>
         <v>8</v>
       </c>
@@ -25847,9 +25850,9 @@
       <c r="C34" s="38"/>
       <c r="D34" s="71"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="268"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="286"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="263"/>
+      <c r="H34" s="273"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="L34" s="25"/>
@@ -25868,20 +25871,20 @@
       <c r="AA34" s="25"/>
       <c r="AD34" s="25"/>
       <c r="AG34" s="24"/>
-      <c r="AH34" s="275"/>
-      <c r="AI34" s="255"/>
-      <c r="AJ34" s="268"/>
+      <c r="AH34" s="257"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="260"/>
       <c r="AK34" s="55"/>
       <c r="AM34" s="39"/>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="292">
+      <c r="AO34" s="280">
         <f>IF($AU$5=TRUE,AO30+1,"")</f>
         <v>24</v>
       </c>
-      <c r="AQ34" s="293"/>
+      <c r="AQ34" s="278"/>
     </row>
     <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="288"/>
+      <c r="A35" s="258"/>
       <c r="B35" s="27">
         <v>15</v>
       </c>
@@ -25895,7 +25898,7 @@
       </c>
       <c r="E35" s="48">
         <f ca="1">Games!N12</f>
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -25911,12 +25914,12 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="288">
+      <c r="T35" s="258">
         <f>IF($AU$5=TRUE,AA35+1,"")</f>
         <v>63</v>
       </c>
-      <c r="U35" s="288"/>
-      <c r="V35" s="288"/>
+      <c r="U35" s="258"/>
+      <c r="V35" s="258"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="56"/>
@@ -25929,7 +25932,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="59">
         <f ca="1">Games!N28</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL35" s="46" t="e" vm="112">
         <f>_xlfn.XLOOKUP(AM35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25942,8 +25945,8 @@
       <c r="AN35" s="27">
         <v>15</v>
       </c>
-      <c r="AO35" s="292"/>
-      <c r="AQ35" s="293"/>
+      <c r="AO35" s="280"/>
+      <c r="AQ35" s="278"/>
     </row>
     <row r="36" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
@@ -25974,7 +25977,7 @@
       <c r="AM36" s="39"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="17"/>
-      <c r="AQ36" s="293"/>
+      <c r="AQ36" s="278"/>
     </row>
     <row r="37" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
@@ -25991,19 +25994,19 @@
       </c>
       <c r="E37" s="46">
         <f ca="1">Games!L13</f>
-        <v>100</v>
-      </c>
-      <c r="F37" s="267" t="str">
+        <v>94</v>
+      </c>
+      <c r="F37" s="259" t="str">
         <f ca="1">Games!O13</f>
         <v>Austin Peay</v>
       </c>
-      <c r="G37" s="252" t="e" vm="82">
+      <c r="G37" s="262" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(F37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="269">
+      <c r="H37" s="254">
         <f ca="1">Games!L42</f>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -26023,21 +26026,21 @@
       <c r="AA37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AG37" s="24"/>
-      <c r="AH37" s="269">
+      <c r="AH37" s="254">
         <f ca="1">Games!L50</f>
-        <v>101</v>
-      </c>
-      <c r="AI37" s="254" t="e" vm="113">
+        <v>92</v>
+      </c>
+      <c r="AI37" s="252" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(AJ37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ37" s="267" t="str">
+      <c r="AJ37" s="259" t="str">
         <f ca="1">Games!O29</f>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="AK37" s="58">
         <f ca="1">Games!L29</f>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AL37" s="46" t="e" vm="113">
         <f>_xlfn.XLOOKUP(AM37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26051,10 +26054,10 @@
         <v>1</v>
       </c>
       <c r="AO37" s="17"/>
-      <c r="AQ37" s="293"/>
+      <c r="AQ37" s="278"/>
     </row>
     <row r="38" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="288">
+      <c r="A38" s="258">
         <f>IF($AU$5=TRUE,A34+1,"")</f>
         <v>9</v>
       </c>
@@ -26062,9 +26065,9 @@
       <c r="C38" s="38"/>
       <c r="D38" s="71"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="268"/>
-      <c r="G38" s="253"/>
-      <c r="H38" s="270"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="255"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -26083,19 +26086,19 @@
       <c r="AA38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AG38" s="24"/>
-      <c r="AH38" s="270"/>
-      <c r="AI38" s="255"/>
-      <c r="AJ38" s="268"/>
+      <c r="AH38" s="255"/>
+      <c r="AI38" s="253"/>
+      <c r="AJ38" s="260"/>
       <c r="AK38" s="55"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="292">
+      <c r="AO38" s="280">
         <f>IF($AU$5=TRUE,AO34+1,"")</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="288"/>
+      <c r="A39" s="258"/>
       <c r="B39" s="27">
         <v>16</v>
       </c>
@@ -26111,23 +26114,23 @@
         <f ca="1">Games!N13</f>
         <v>101</v>
       </c>
-      <c r="F39" s="287">
+      <c r="F39" s="279">
         <f>IF($AU$5=TRUE,F31+1,"")</f>
         <v>37</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="283" t="str">
+      <c r="I39" s="266" t="str">
         <f ca="1">Games!O42</f>
-        <v>Ball State</v>
-      </c>
-      <c r="J39" s="252" t="e" vm="83">
+        <v>Austin Peay</v>
+      </c>
+      <c r="J39" s="262" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="269">
+      <c r="K39" s="254">
         <f ca="1">Games!L57</f>
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -26136,44 +26139,44 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="272">
+      <c r="T39" s="276">
         <f ca="1">Games!N72</f>
-        <v>103</v>
-      </c>
-      <c r="U39" s="296" t="e" vm="116">
+        <v>94</v>
+      </c>
+      <c r="U39" s="268" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(V39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="267" t="str">
+      <c r="V39" s="259" t="str">
         <f ca="1">Games!O70</f>
-        <v>Clemson</v>
-      </c>
-      <c r="W39" s="267"/>
-      <c r="X39" s="300"/>
+        <v>Columbia</v>
+      </c>
+      <c r="W39" s="259"/>
+      <c r="X39" s="270"/>
       <c r="Y39" s="56"/>
       <c r="AA39" s="25"/>
       <c r="AD39" s="25"/>
-      <c r="AE39" s="274">
+      <c r="AE39" s="256">
         <f ca="1">Games!L61</f>
-        <v>111</v>
-      </c>
-      <c r="AF39" s="254" t="e" vm="116">
+        <v>99</v>
+      </c>
+      <c r="AF39" s="252" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AG39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG39" s="267" t="str">
+      <c r="AG39" s="259" t="str">
         <f ca="1">Games!O50</f>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="51"/>
-      <c r="AJ39" s="287">
+      <c r="AJ39" s="279">
         <f>IF($AU$5=TRUE,AJ31+1,"")</f>
         <v>45</v>
       </c>
       <c r="AK39" s="59">
         <f ca="1">Games!N29</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL39" s="46" t="e" vm="114">
         <f>_xlfn.XLOOKUP(AM39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26186,19 +26189,19 @@
       <c r="AN39" s="27">
         <v>16</v>
       </c>
-      <c r="AO39" s="292"/>
+      <c r="AO39" s="280"/>
     </row>
     <row r="40" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="71"/>
-      <c r="F40" s="288"/>
+      <c r="F40" s="258"/>
       <c r="G40" s="15"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="284"/>
-      <c r="J40" s="253"/>
-      <c r="K40" s="270"/>
+      <c r="I40" s="267"/>
+      <c r="J40" s="263"/>
+      <c r="K40" s="255"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="O40" s="25"/>
@@ -26206,19 +26209,19 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="273"/>
-      <c r="U40" s="297"/>
-      <c r="V40" s="268"/>
-      <c r="W40" s="268"/>
-      <c r="X40" s="301"/>
+      <c r="T40" s="277"/>
+      <c r="U40" s="269"/>
+      <c r="V40" s="260"/>
+      <c r="W40" s="260"/>
+      <c r="X40" s="271"/>
       <c r="Y40" s="56"/>
       <c r="AA40" s="25"/>
       <c r="AD40" s="25"/>
-      <c r="AE40" s="275"/>
-      <c r="AF40" s="255"/>
-      <c r="AG40" s="268"/>
+      <c r="AE40" s="257"/>
+      <c r="AF40" s="253"/>
+      <c r="AG40" s="260"/>
       <c r="AH40" s="56"/>
-      <c r="AJ40" s="288"/>
+      <c r="AJ40" s="258"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="28"/>
       <c r="AO40" s="17"/>
@@ -26238,19 +26241,19 @@
       </c>
       <c r="E41" s="46">
         <f ca="1">Games!L14</f>
-        <v>111</v>
-      </c>
-      <c r="F41" s="267" t="str">
+        <v>118</v>
+      </c>
+      <c r="F41" s="259" t="str">
         <f ca="1">Games!O14</f>
         <v>Ball State</v>
       </c>
-      <c r="G41" s="252" t="e" vm="83">
+      <c r="G41" s="262" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(F41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="285">
+      <c r="H41" s="272">
         <f ca="1">Games!N42</f>
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -26272,21 +26275,21 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="55"/>
       <c r="AG41" s="24"/>
-      <c r="AH41" s="274">
+      <c r="AH41" s="256">
         <f ca="1">Games!N50</f>
-        <v>110</v>
-      </c>
-      <c r="AI41" s="254" t="e" vm="116">
+        <v>97</v>
+      </c>
+      <c r="AI41" s="252" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AJ41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ41" s="267" t="str">
+      <c r="AJ41" s="259" t="str">
         <f ca="1">Games!O30</f>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="AK41" s="58">
         <f ca="1">Games!L30</f>
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AL41" s="46" t="e" vm="115">
         <f>_xlfn.XLOOKUP(AM41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26302,7 +26305,7 @@
       <c r="AO41" s="17"/>
     </row>
     <row r="42" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="288">
+      <c r="A42" s="258">
         <f>IF($AU$5=TRUE,A38+1,"")</f>
         <v>10</v>
       </c>
@@ -26310,9 +26313,9 @@
       <c r="C42" s="38"/>
       <c r="D42" s="71"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="268"/>
-      <c r="G42" s="253"/>
-      <c r="H42" s="286"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="263"/>
+      <c r="H42" s="273"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="50"/>
@@ -26333,19 +26336,19 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="56"/>
       <c r="AG42" s="24"/>
-      <c r="AH42" s="275"/>
-      <c r="AI42" s="255"/>
-      <c r="AJ42" s="268"/>
+      <c r="AH42" s="257"/>
+      <c r="AI42" s="253"/>
+      <c r="AJ42" s="260"/>
       <c r="AK42" s="55"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="28"/>
-      <c r="AO42" s="292">
+      <c r="AO42" s="280">
         <f>IF($AU$5=TRUE,AO38+1,"")</f>
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="288"/>
+      <c r="A43" s="258"/>
       <c r="B43" s="27">
         <v>9</v>
       </c>
@@ -26363,23 +26366,23 @@
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" s="288">
+      <c r="I43" s="258">
         <f>IF($AU$5=TRUE,I27+1,"")</f>
         <v>51</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="283" t="str">
+      <c r="L43" s="266" t="str">
         <f ca="1">Games!O57</f>
-        <v>Binghamton</v>
-      </c>
-      <c r="M43" s="252" t="e" vm="88">
+        <v>Austin Peay</v>
+      </c>
+      <c r="M43" s="262" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(L43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="269">
+      <c r="N43" s="254">
         <f ca="1">Games!L65</f>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -26393,27 +26396,27 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="56"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="269">
+      <c r="AB43" s="254">
         <f ca="1">Games!L67</f>
-        <v>98</v>
-      </c>
-      <c r="AC43" s="254" t="e" vm="116">
+        <v>94</v>
+      </c>
+      <c r="AC43" s="252" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(AD43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD43" s="294" t="str">
+      <c r="AD43" s="264" t="str">
         <f ca="1">Games!O61</f>
-        <v>Clemson</v>
+        <v>College of Charleston</v>
       </c>
       <c r="AE43" s="56"/>
-      <c r="AG43" s="288">
+      <c r="AG43" s="258">
         <f>IF($AU$5=TRUE,AG27+1,"")</f>
         <v>55</v>
       </c>
       <c r="AJ43" s="24"/>
       <c r="AK43" s="59">
         <f ca="1">Games!N30</f>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AL43" s="46" t="e" vm="116">
         <f>_xlfn.XLOOKUP(AM43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26426,7 +26429,7 @@
       <c r="AN43" s="27">
         <v>9</v>
       </c>
-      <c r="AO43" s="292"/>
+      <c r="AO43" s="280"/>
     </row>
     <row r="44" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
@@ -26435,12 +26438,12 @@
       <c r="D44" s="71"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="I44" s="288"/>
+      <c r="I44" s="258"/>
       <c r="J44" s="15"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="284"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="270"/>
+      <c r="L44" s="267"/>
+      <c r="M44" s="263"/>
+      <c r="N44" s="255"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="50"/>
@@ -26453,11 +26456,11 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="56"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="270"/>
-      <c r="AC44" s="255"/>
-      <c r="AD44" s="295"/>
+      <c r="AB44" s="255"/>
+      <c r="AC44" s="253"/>
+      <c r="AD44" s="265"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="288"/>
+      <c r="AG44" s="258"/>
       <c r="AJ44" s="24"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="28"/>
@@ -26478,19 +26481,19 @@
       </c>
       <c r="E45" s="46">
         <f ca="1">Games!L15</f>
-        <v>92</v>
-      </c>
-      <c r="F45" s="267" t="str">
+        <v>105</v>
+      </c>
+      <c r="F45" s="259" t="str">
         <f ca="1">Games!O15</f>
         <v>Belmont</v>
       </c>
-      <c r="G45" s="252" t="e" vm="86">
+      <c r="G45" s="262" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(F45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="269">
+      <c r="H45" s="254">
         <f ca="1">Games!L43</f>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -26514,21 +26517,21 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="56"/>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="269">
+      <c r="AH45" s="254">
         <f ca="1">Games!L51</f>
-        <v>119</v>
-      </c>
-      <c r="AI45" s="254" t="e" vm="118">
+        <v>93</v>
+      </c>
+      <c r="AI45" s="252" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(AJ45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ45" s="267" t="str">
+      <c r="AJ45" s="259" t="str">
         <f ca="1">Games!O31</f>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="AK45" s="58">
         <f ca="1">Games!L31</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AL45" s="46" t="e" vm="117">
         <f>_xlfn.XLOOKUP(AM45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26544,7 +26547,7 @@
       <c r="AO45" s="17"/>
     </row>
     <row r="46" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="288">
+      <c r="A46" s="258">
         <f>IF($AU$5=TRUE,A42+1,"")</f>
         <v>11</v>
       </c>
@@ -26552,9 +26555,9 @@
       <c r="C46" s="38"/>
       <c r="D46" s="71"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="268"/>
-      <c r="G46" s="253"/>
-      <c r="H46" s="270"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="255"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="50"/>
@@ -26577,19 +26580,19 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="24"/>
-      <c r="AH46" s="270"/>
-      <c r="AI46" s="255"/>
-      <c r="AJ46" s="268"/>
+      <c r="AH46" s="255"/>
+      <c r="AI46" s="253"/>
+      <c r="AJ46" s="260"/>
       <c r="AK46" s="55"/>
       <c r="AM46" s="39"/>
       <c r="AN46" s="28"/>
-      <c r="AO46" s="292">
+      <c r="AO46" s="280">
         <f>IF($AU$5=TRUE,AO42+1,"")</f>
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="288"/>
+      <c r="A47" s="258"/>
       <c r="B47" s="27">
         <v>12</v>
       </c>
@@ -26603,25 +26606,25 @@
       </c>
       <c r="E47" s="48">
         <f ca="1">Games!N15</f>
-        <v>99</v>
-      </c>
-      <c r="F47" s="287">
+        <v>113</v>
+      </c>
+      <c r="F47" s="279">
         <f>IF($AU$5=TRUE,F39+1,"")</f>
         <v>38</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="283" t="str">
+      <c r="I47" s="266" t="str">
         <f ca="1">Games!O43</f>
-        <v>Binghamton</v>
-      </c>
-      <c r="J47" s="252" t="e" vm="88">
+        <v>Belmont</v>
+      </c>
+      <c r="J47" s="262" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="285">
+      <c r="K47" s="272">
         <f ca="1">Games!N57</f>
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -26640,27 +26643,27 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="56"/>
       <c r="AD47" s="25"/>
-      <c r="AE47" s="274">
+      <c r="AE47" s="256">
         <f ca="1">Games!N61</f>
-        <v>95</v>
-      </c>
-      <c r="AF47" s="254" t="e" vm="118">
+        <v>109</v>
+      </c>
+      <c r="AF47" s="252" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(AG47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG47" s="267" t="str">
+      <c r="AG47" s="259" t="str">
         <f ca="1">Games!O51</f>
-        <v>Coastal Carolina</v>
+        <v>College of Charleston</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="51"/>
-      <c r="AJ47" s="287">
+      <c r="AJ47" s="279">
         <f>IF($AU$5=TRUE,AJ39+1,"")</f>
         <v>46</v>
       </c>
       <c r="AK47" s="59">
         <f ca="1">Games!N31</f>
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="AL47" s="46" t="e" vm="118">
         <f>_xlfn.XLOOKUP(AM47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26673,19 +26676,19 @@
       <c r="AN47" s="27">
         <v>12</v>
       </c>
-      <c r="AO47" s="292"/>
+      <c r="AO47" s="280"/>
     </row>
     <row r="48" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="28"/>
       <c r="C48" s="38"/>
       <c r="D48" s="71"/>
-      <c r="F48" s="288"/>
+      <c r="F48" s="258"/>
       <c r="G48" s="15"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="284"/>
-      <c r="J48" s="253"/>
-      <c r="K48" s="286"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="263"/>
+      <c r="K48" s="273"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="50"/>
@@ -26703,11 +26706,11 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="56"/>
       <c r="AD48" s="25"/>
-      <c r="AE48" s="275"/>
-      <c r="AF48" s="255"/>
-      <c r="AG48" s="268"/>
+      <c r="AE48" s="257"/>
+      <c r="AF48" s="253"/>
+      <c r="AG48" s="260"/>
       <c r="AH48" s="56"/>
-      <c r="AJ48" s="288"/>
+      <c r="AJ48" s="258"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="17"/>
@@ -26727,19 +26730,19 @@
       </c>
       <c r="E49" s="46">
         <f ca="1">Games!L16</f>
-        <v>93</v>
-      </c>
-      <c r="F49" s="267" t="str">
+        <v>117</v>
+      </c>
+      <c r="F49" s="259" t="str">
         <f ca="1">Games!O16</f>
-        <v>Binghamton</v>
-      </c>
-      <c r="G49" s="252" t="e" vm="88">
+        <v>Bethune-Cookman</v>
+      </c>
+      <c r="G49" s="262" t="e" vm="87">
         <f ca="1">_xlfn.XLOOKUP(F49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="285">
+      <c r="H49" s="272">
         <f ca="1">Games!N43</f>
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -26761,21 +26764,21 @@
       <c r="AB49" s="56"/>
       <c r="AD49" s="25"/>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="274">
+      <c r="AH49" s="256">
         <f ca="1">Games!N51</f>
-        <v>106</v>
-      </c>
-      <c r="AI49" s="254" t="e" vm="120">
+        <v>118</v>
+      </c>
+      <c r="AI49" s="252" t="e" vm="120">
         <f ca="1">_xlfn.XLOOKUP(AJ49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ49" s="267" t="str">
+      <c r="AJ49" s="259" t="str">
         <f ca="1">Games!O32</f>
         <v>College of Charleston</v>
       </c>
       <c r="AK49" s="58">
         <f ca="1">Games!L32</f>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AL49" s="46" t="e" vm="119">
         <f>_xlfn.XLOOKUP(AM49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26791,7 +26794,7 @@
       <c r="AO49" s="17"/>
     </row>
     <row r="50" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="288">
+      <c r="A50" s="258">
         <f>IF($AU$5=TRUE,A46+1,"")</f>
         <v>12</v>
       </c>
@@ -26799,9 +26802,9 @@
       <c r="C50" s="38"/>
       <c r="D50" s="71"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="268"/>
-      <c r="G50" s="253"/>
-      <c r="H50" s="286"/>
+      <c r="F50" s="260"/>
+      <c r="G50" s="263"/>
+      <c r="H50" s="273"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="L50" s="25"/>
@@ -26822,19 +26825,19 @@
       <c r="AB50" s="56"/>
       <c r="AD50" s="25"/>
       <c r="AG50" s="24"/>
-      <c r="AH50" s="275"/>
-      <c r="AI50" s="255"/>
-      <c r="AJ50" s="268"/>
+      <c r="AH50" s="257"/>
+      <c r="AI50" s="253"/>
+      <c r="AJ50" s="260"/>
       <c r="AK50" s="55"/>
       <c r="AM50" s="39"/>
       <c r="AN50" s="28"/>
-      <c r="AO50" s="292">
+      <c r="AO50" s="280">
         <f>IF($AU$5=TRUE,AO46+1,"")</f>
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="288"/>
+      <c r="A51" s="258"/>
       <c r="B51" s="27">
         <v>13</v>
       </c>
@@ -26848,29 +26851,29 @@
       </c>
       <c r="E51" s="48">
         <f ca="1">Games!N16</f>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="271" t="s">
+      <c r="K51" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="271"/>
+      <c r="L51" s="261"/>
       <c r="M51" s="20"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="283" t="str">
+      <c r="O51" s="266" t="str">
         <f ca="1">Games!O65</f>
-        <v>Bowling Green</v>
-      </c>
-      <c r="P51" s="252" t="e" vm="92">
+        <v>Bradley</v>
+      </c>
+      <c r="P51" s="262" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="285">
+      <c r="Q51" s="272">
         <f ca="1">Games!N69</f>
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
@@ -26879,29 +26882,29 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="274">
+      <c r="Y51" s="256">
         <f ca="1">Games!N70</f>
-        <v>102</v>
-      </c>
-      <c r="Z51" s="254" t="e" vm="116">
+        <v>118</v>
+      </c>
+      <c r="Z51" s="252" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AA51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA51" s="267" t="str">
+      <c r="AA51" s="259" t="str">
         <f ca="1">Games!O67</f>
-        <v>Clemson</v>
+        <v>Columbia</v>
       </c>
       <c r="AB51" s="56"/>
-      <c r="AD51" s="271" t="s">
+      <c r="AD51" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="AE51" s="271"/>
+      <c r="AE51" s="261"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="24"/>
       <c r="AJ51" s="24"/>
       <c r="AK51" s="59">
         <f ca="1">Games!N32</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL51" s="46" t="e" vm="120">
         <f>_xlfn.XLOOKUP(AM51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26914,7 +26917,7 @@
       <c r="AN51" s="27">
         <v>13</v>
       </c>
-      <c r="AO51" s="292"/>
+      <c r="AO51" s="280"/>
     </row>
     <row r="52" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
@@ -26925,13 +26928,13 @@
       <c r="G52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="271"/>
-      <c r="L52" s="271"/>
+      <c r="K52" s="261"/>
+      <c r="L52" s="261"/>
       <c r="M52" s="20"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="284"/>
-      <c r="P52" s="253"/>
-      <c r="Q52" s="286"/>
+      <c r="O52" s="267"/>
+      <c r="P52" s="263"/>
+      <c r="Q52" s="273"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -26939,12 +26942,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="275"/>
-      <c r="Z52" s="255"/>
-      <c r="AA52" s="268"/>
+      <c r="Y52" s="257"/>
+      <c r="Z52" s="253"/>
+      <c r="AA52" s="260"/>
       <c r="AB52" s="56"/>
-      <c r="AD52" s="271"/>
-      <c r="AE52" s="271"/>
+      <c r="AD52" s="261"/>
+      <c r="AE52" s="261"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="24"/>
       <c r="AJ52" s="24"/>
@@ -26967,19 +26970,19 @@
       </c>
       <c r="E53" s="46">
         <f ca="1">Games!L17</f>
-        <v>109</v>
-      </c>
-      <c r="F53" s="267" t="str">
+        <v>107</v>
+      </c>
+      <c r="F53" s="259" t="str">
         <f ca="1">Games!O17</f>
         <v>Boston College</v>
       </c>
-      <c r="G53" s="252" t="e" vm="90">
+      <c r="G53" s="262" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(F53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="269">
+      <c r="H53" s="254">
         <f ca="1">Games!L44</f>
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -27006,21 +27009,21 @@
         <v>60</v>
       </c>
       <c r="AG53" s="24"/>
-      <c r="AH53" s="269">
+      <c r="AH53" s="254">
         <f ca="1">Games!L52</f>
-        <v>118</v>
-      </c>
-      <c r="AI53" s="254" t="e" vm="122">
+        <v>109</v>
+      </c>
+      <c r="AI53" s="252" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AJ53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ53" s="267" t="str">
+      <c r="AJ53" s="259" t="str">
         <f ca="1">Games!O33</f>
         <v>Colorado State</v>
       </c>
       <c r="AK53" s="58">
         <f ca="1">Games!L33</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AL53" s="46" t="e" vm="121">
         <f>_xlfn.XLOOKUP(AM53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27036,7 +27039,7 @@
       <c r="AO53" s="17"/>
     </row>
     <row r="54" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="288">
+      <c r="A54" s="258">
         <f>IF($AU$5=TRUE,A50+1,"")</f>
         <v>13</v>
       </c>
@@ -27044,9 +27047,9 @@
       <c r="C54" s="38"/>
       <c r="D54" s="71"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="268"/>
-      <c r="G54" s="253"/>
-      <c r="H54" s="270"/>
+      <c r="F54" s="260"/>
+      <c r="G54" s="263"/>
+      <c r="H54" s="255"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="L54" s="25"/>
@@ -27065,19 +27068,19 @@
       <c r="AB54" s="56"/>
       <c r="AD54" s="25"/>
       <c r="AG54" s="24"/>
-      <c r="AH54" s="270"/>
-      <c r="AI54" s="255"/>
-      <c r="AJ54" s="268"/>
+      <c r="AH54" s="255"/>
+      <c r="AI54" s="253"/>
+      <c r="AJ54" s="260"/>
       <c r="AK54" s="55"/>
       <c r="AM54" s="39"/>
       <c r="AN54" s="28"/>
-      <c r="AO54" s="292">
+      <c r="AO54" s="280">
         <f>IF($AU$5=TRUE,AO50+1,"")</f>
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="288"/>
+      <c r="A55" s="258"/>
       <c r="B55" s="27">
         <v>11</v>
       </c>
@@ -27091,25 +27094,25 @@
       </c>
       <c r="E55" s="48">
         <f ca="1">Games!N17</f>
-        <v>116</v>
-      </c>
-      <c r="F55" s="287">
+        <v>111</v>
+      </c>
+      <c r="F55" s="279">
         <f>IF($AU$5=TRUE,F47+1,"")</f>
         <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="283" t="str">
+      <c r="I55" s="266" t="str">
         <f ca="1">Games!O44</f>
-        <v>Bowling Green</v>
-      </c>
-      <c r="J55" s="252" t="e" vm="92">
+        <v>Duke</v>
+      </c>
+      <c r="J55" s="262" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="269">
+      <c r="K55" s="254">
         <f ca="1">Games!L58</f>
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -27126,27 +27129,27 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="56"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="269">
+      <c r="AE55" s="254">
         <f ca="1">Games!L62</f>
-        <v>119</v>
-      </c>
-      <c r="AF55" s="254" t="e" vm="122">
+        <v>113</v>
+      </c>
+      <c r="AF55" s="252" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AG55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG55" s="267" t="str">
+      <c r="AG55" s="259" t="str">
         <f ca="1">Games!O52</f>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="51"/>
-      <c r="AJ55" s="287">
+      <c r="AJ55" s="279">
         <f>IF($AU$5=TRUE,AJ47+1,"")</f>
         <v>47</v>
       </c>
       <c r="AK55" s="59">
         <f ca="1">Games!N33</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL55" s="46" t="e" vm="122">
         <f>_xlfn.XLOOKUP(AM55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27159,19 +27162,19 @@
       <c r="AN55" s="32">
         <v>11</v>
       </c>
-      <c r="AO55" s="292"/>
+      <c r="AO55" s="280"/>
     </row>
     <row r="56" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="71"/>
-      <c r="F56" s="288"/>
+      <c r="F56" s="258"/>
       <c r="G56" s="15"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="284"/>
-      <c r="J56" s="253"/>
-      <c r="K56" s="270"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="263"/>
+      <c r="K56" s="255"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="50"/>
@@ -27187,11 +27190,11 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="56"/>
       <c r="AD56" s="25"/>
-      <c r="AE56" s="270"/>
-      <c r="AF56" s="255"/>
-      <c r="AG56" s="268"/>
+      <c r="AE56" s="255"/>
+      <c r="AF56" s="253"/>
+      <c r="AG56" s="260"/>
       <c r="AH56" s="56"/>
-      <c r="AJ56" s="288"/>
+      <c r="AJ56" s="258"/>
       <c r="AM56" s="39"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="17"/>
@@ -27203,7 +27206,7 @@
       </c>
       <c r="C57" s="36" t="str">
         <f>Games!G18</f>
-        <v>Boston University</v>
+        <v>Florida</v>
       </c>
       <c r="D57" s="70" t="e" vm="91">
         <f>_xlfn.XLOOKUP(C57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27213,17 +27216,17 @@
         <f ca="1">Games!L18</f>
         <v>93</v>
       </c>
-      <c r="F57" s="267" t="str">
+      <c r="F57" s="259" t="str">
         <f ca="1">Games!O18</f>
-        <v>Bowling Green</v>
-      </c>
-      <c r="G57" s="252" t="e" vm="92">
+        <v>Duke</v>
+      </c>
+      <c r="G57" s="262" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(F57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="285">
+      <c r="H57" s="272">
         <f ca="1">Games!N44</f>
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -27245,21 +27248,21 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="55"/>
       <c r="AG57" s="24"/>
-      <c r="AH57" s="274">
+      <c r="AH57" s="256">
         <f ca="1">Games!N52</f>
-        <v>108</v>
-      </c>
-      <c r="AI57" s="254" t="e" vm="123">
+        <v>113</v>
+      </c>
+      <c r="AI57" s="252" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AJ57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ57" s="267" t="str">
+      <c r="AJ57" s="259" t="str">
         <f ca="1">Games!O34</f>
         <v>Columbia</v>
       </c>
       <c r="AK57" s="58">
         <f ca="1">Games!L34</f>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AL57" s="46" t="e" vm="123">
         <f>_xlfn.XLOOKUP(AM57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27275,7 +27278,7 @@
       <c r="AO57" s="17"/>
     </row>
     <row r="58" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="288">
+      <c r="A58" s="258">
         <f>IF($AU$5=TRUE,A54+1,"")</f>
         <v>14</v>
       </c>
@@ -27283,9 +27286,9 @@
       <c r="C58" s="38"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="268"/>
-      <c r="G58" s="253"/>
-      <c r="H58" s="286"/>
+      <c r="F58" s="260"/>
+      <c r="G58" s="263"/>
+      <c r="H58" s="273"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="50"/>
@@ -27306,25 +27309,25 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="56"/>
       <c r="AG58" s="24"/>
-      <c r="AH58" s="275"/>
-      <c r="AI58" s="255"/>
-      <c r="AJ58" s="268"/>
+      <c r="AH58" s="257"/>
+      <c r="AI58" s="253"/>
+      <c r="AJ58" s="260"/>
       <c r="AK58" s="55"/>
       <c r="AM58" s="39"/>
       <c r="AN58" s="28"/>
-      <c r="AO58" s="292">
+      <c r="AO58" s="280">
         <f>IF($AU$5=TRUE,AO54+1,"")</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="288"/>
+      <c r="A59" s="258"/>
       <c r="B59" s="27">
         <v>14</v>
       </c>
       <c r="C59" s="36" t="str">
         <f>Games!I18</f>
-        <v>Bowling Green</v>
+        <v>Duke</v>
       </c>
       <c r="D59" s="70" t="e" vm="92">
         <f>_xlfn.XLOOKUP(C59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27332,27 +27335,27 @@
       </c>
       <c r="E59" s="48">
         <f ca="1">Games!N18</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="I59" s="288">
+      <c r="I59" s="258">
         <f>IF($AU$5=TRUE,I43+1,"")</f>
         <v>52</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="50"/>
-      <c r="L59" s="283" t="str">
+      <c r="L59" s="266" t="str">
         <f ca="1">Games!O58</f>
-        <v>Bowling Green</v>
-      </c>
-      <c r="M59" s="252" t="e" vm="92">
+        <v>Bradley</v>
+      </c>
+      <c r="M59" s="262" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(L59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="285">
+      <c r="N59" s="272">
         <f ca="1">Games!N65</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
@@ -27364,27 +27367,27 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="AA59" s="25"/>
-      <c r="AB59" s="274">
+      <c r="AB59" s="256">
         <f ca="1">Games!N67</f>
-        <v>97</v>
-      </c>
-      <c r="AC59" s="254" t="e" vm="122">
+        <v>105</v>
+      </c>
+      <c r="AC59" s="252" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AD59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="267" t="str">
+      <c r="AD59" s="259" t="str">
         <f ca="1">Games!O62</f>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="AE59" s="56"/>
-      <c r="AG59" s="288">
+      <c r="AG59" s="258">
         <f>IF($AU$5=TRUE,AG43+1,"")</f>
         <v>56</v>
       </c>
       <c r="AJ59" s="24"/>
       <c r="AK59" s="59">
         <f ca="1">Games!N34</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AL59" s="46" t="e" vm="124">
         <f>_xlfn.XLOOKUP(AM59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27397,7 +27400,7 @@
       <c r="AN59" s="27">
         <v>14</v>
       </c>
-      <c r="AO59" s="292"/>
+      <c r="AO59" s="280"/>
     </row>
     <row r="60" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -27406,12 +27409,12 @@
       <c r="D60" s="71"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="I60" s="288"/>
+      <c r="I60" s="258"/>
       <c r="J60" s="15"/>
       <c r="K60" s="50"/>
-      <c r="L60" s="284"/>
-      <c r="M60" s="253"/>
-      <c r="N60" s="286"/>
+      <c r="L60" s="267"/>
+      <c r="M60" s="263"/>
+      <c r="N60" s="273"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
@@ -27423,11 +27426,11 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="AA60" s="25"/>
-      <c r="AB60" s="275"/>
-      <c r="AC60" s="255"/>
-      <c r="AD60" s="268"/>
+      <c r="AB60" s="257"/>
+      <c r="AC60" s="253"/>
+      <c r="AD60" s="260"/>
       <c r="AE60" s="56"/>
-      <c r="AG60" s="288"/>
+      <c r="AG60" s="258"/>
       <c r="AJ60" s="24"/>
       <c r="AM60" s="39"/>
       <c r="AN60" s="28"/>
@@ -27448,19 +27451,19 @@
       </c>
       <c r="E61" s="46">
         <f ca="1">Games!L19</f>
-        <v>107</v>
-      </c>
-      <c r="F61" s="267" t="str">
+        <v>119</v>
+      </c>
+      <c r="F61" s="259" t="str">
         <f ca="1">Games!O19</f>
         <v>Bradley</v>
       </c>
-      <c r="G61" s="252" t="e" vm="93">
+      <c r="G61" s="262" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(F61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="269">
+      <c r="H61" s="254">
         <f ca="1">Games!L45</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -27481,21 +27484,21 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="56"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="269">
+      <c r="AH61" s="254">
         <f ca="1">Games!L53</f>
         <v>112</v>
       </c>
-      <c r="AI61" s="254" t="e" vm="126">
+      <c r="AI61" s="252" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(AJ61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="267" t="str">
+      <c r="AJ61" s="259" t="str">
         <f ca="1">Games!O35</f>
-        <v>Cornell</v>
+        <v>Coppin State</v>
       </c>
       <c r="AK61" s="58">
         <f ca="1">Games!L35</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AL61" s="46" t="e" vm="125">
         <f>_xlfn.XLOOKUP(AM61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27511,7 +27514,7 @@
       <c r="AO61" s="17"/>
     </row>
     <row r="62" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="288">
+      <c r="A62" s="258">
         <f>IF($AU$5=TRUE,A58+1,"")</f>
         <v>15</v>
       </c>
@@ -27519,9 +27522,9 @@
       <c r="C62" s="38"/>
       <c r="D62" s="71"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="268"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="270"/>
+      <c r="F62" s="260"/>
+      <c r="G62" s="263"/>
+      <c r="H62" s="255"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="50"/>
@@ -27541,19 +27544,19 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="56"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="270"/>
-      <c r="AI62" s="255"/>
-      <c r="AJ62" s="268"/>
+      <c r="AH62" s="255"/>
+      <c r="AI62" s="253"/>
+      <c r="AJ62" s="260"/>
       <c r="AK62" s="55"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="28"/>
-      <c r="AO62" s="292">
+      <c r="AO62" s="280">
         <f>IF($AU$5=TRUE,AO58+1,"")</f>
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="288"/>
+      <c r="A63" s="258"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -27569,23 +27572,23 @@
         <f ca="1">Games!N19</f>
         <v>102</v>
       </c>
-      <c r="F63" s="287">
+      <c r="F63" s="279">
         <f>IF($AU$5=TRUE,F55+1,"")</f>
         <v>40</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="283" t="str">
+      <c r="I63" s="266" t="str">
         <f ca="1">Games!O45</f>
         <v>Bradley</v>
       </c>
-      <c r="J63" s="252" t="e" vm="93">
+      <c r="J63" s="262" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="285">
+      <c r="K63" s="272">
         <f ca="1">Games!N58</f>
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -27603,27 +27606,27 @@
       <c r="Z63" s="57"/>
       <c r="AA63" s="25"/>
       <c r="AD63" s="25"/>
-      <c r="AE63" s="274">
+      <c r="AE63" s="256">
         <f ca="1">Games!N62</f>
-        <v>117</v>
-      </c>
-      <c r="AF63" s="254" t="e" vm="127">
+        <v>100</v>
+      </c>
+      <c r="AF63" s="252" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(AG63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG63" s="267" t="str">
+      <c r="AG63" s="259" t="str">
         <f ca="1">Games!O53</f>
-        <v>Creighton</v>
+        <v>Coppin State</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="51"/>
-      <c r="AJ63" s="287">
+      <c r="AJ63" s="279">
         <f>IF($AU$5=TRUE,AJ55+1,"")</f>
         <v>48</v>
       </c>
       <c r="AK63" s="59">
         <f ca="1">Games!N35</f>
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AL63" s="46" t="e" vm="126">
         <f>_xlfn.XLOOKUP(AM63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27636,19 +27639,19 @@
       <c r="AN63" s="27">
         <v>10</v>
       </c>
-      <c r="AO63" s="292"/>
+      <c r="AO63" s="280"/>
     </row>
     <row r="64" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="28"/>
       <c r="C64" s="38"/>
       <c r="D64" s="71"/>
-      <c r="F64" s="288"/>
+      <c r="F64" s="258"/>
       <c r="G64" s="15"/>
       <c r="H64" s="50"/>
-      <c r="I64" s="284"/>
-      <c r="J64" s="253"/>
-      <c r="K64" s="286"/>
+      <c r="I64" s="267"/>
+      <c r="J64" s="263"/>
+      <c r="K64" s="273"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="O64" s="25"/>
@@ -27664,11 +27667,11 @@
       <c r="Z64" s="57"/>
       <c r="AA64" s="25"/>
       <c r="AD64" s="25"/>
-      <c r="AE64" s="275"/>
-      <c r="AF64" s="255"/>
-      <c r="AG64" s="268"/>
+      <c r="AE64" s="257"/>
+      <c r="AF64" s="253"/>
+      <c r="AG64" s="260"/>
       <c r="AH64" s="56"/>
-      <c r="AJ64" s="288"/>
+      <c r="AJ64" s="258"/>
       <c r="AM64" s="39"/>
       <c r="AN64" s="28"/>
       <c r="AO64" s="17"/>
@@ -27688,19 +27691,19 @@
       </c>
       <c r="E65" s="46">
         <f ca="1">Games!L20</f>
-        <v>106</v>
-      </c>
-      <c r="F65" s="267" t="str">
+        <v>94</v>
+      </c>
+      <c r="F65" s="259" t="str">
         <f ca="1">Games!O20</f>
-        <v>Bryant</v>
-      </c>
-      <c r="G65" s="252" t="e" vm="96">
+        <v>Brown</v>
+      </c>
+      <c r="G65" s="262" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(F65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="285">
+      <c r="H65" s="272">
         <f ca="1">Games!N45</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -27720,21 +27723,21 @@
       <c r="AA65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AG65" s="24"/>
-      <c r="AH65" s="274">
+      <c r="AH65" s="256">
         <f ca="1">Games!N53</f>
-        <v>116</v>
-      </c>
-      <c r="AI65" s="254" t="e" vm="127">
+        <v>105</v>
+      </c>
+      <c r="AI65" s="252" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(AJ65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="267" t="str">
+      <c r="AJ65" s="259" t="str">
         <f ca="1">Games!O36</f>
         <v>Creighton</v>
       </c>
       <c r="AK65" s="58">
         <f ca="1">Games!L36</f>
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="AL65" s="46" t="e" vm="127">
         <f>_xlfn.XLOOKUP(AM65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27750,7 +27753,7 @@
       <c r="AO65" s="17"/>
     </row>
     <row r="66" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="288">
+      <c r="A66" s="258">
         <f>IF($AU$5=TRUE,A62+1,"")</f>
         <v>16</v>
       </c>
@@ -27758,41 +27761,41 @@
       <c r="C66" s="38"/>
       <c r="D66" s="71"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="268"/>
-      <c r="G66" s="253"/>
-      <c r="H66" s="286"/>
+      <c r="F66" s="260"/>
+      <c r="G66" s="263"/>
+      <c r="H66" s="273"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="O66" s="266"/>
-      <c r="P66" s="266"/>
-      <c r="Q66" s="266"/>
-      <c r="R66" s="266"/>
-      <c r="S66" s="266"/>
-      <c r="T66" s="266"/>
-      <c r="U66" s="266"/>
-      <c r="V66" s="266"/>
-      <c r="W66" s="266"/>
-      <c r="X66" s="266"/>
-      <c r="Y66" s="266"/>
-      <c r="Z66" s="266"/>
-      <c r="AA66" s="266"/>
+      <c r="O66" s="295"/>
+      <c r="P66" s="295"/>
+      <c r="Q66" s="295"/>
+      <c r="R66" s="295"/>
+      <c r="S66" s="295"/>
+      <c r="T66" s="295"/>
+      <c r="U66" s="295"/>
+      <c r="V66" s="295"/>
+      <c r="W66" s="295"/>
+      <c r="X66" s="295"/>
+      <c r="Y66" s="295"/>
+      <c r="Z66" s="295"/>
+      <c r="AA66" s="295"/>
       <c r="AD66" s="25"/>
       <c r="AG66" s="24"/>
-      <c r="AH66" s="275"/>
-      <c r="AI66" s="255"/>
-      <c r="AJ66" s="268"/>
+      <c r="AH66" s="257"/>
+      <c r="AI66" s="253"/>
+      <c r="AJ66" s="260"/>
       <c r="AK66" s="55"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="28"/>
-      <c r="AO66" s="292">
+      <c r="AO66" s="280">
         <f>IF($AU$5=TRUE,AO62+1,"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="288"/>
+      <c r="A67" s="258"/>
       <c r="B67" s="27">
         <v>15</v>
       </c>
@@ -27806,7 +27809,7 @@
       </c>
       <c r="E67" s="48">
         <f ca="1">Games!N20</f>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -27814,25 +27817,25 @@
       <c r="J67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="O67" s="265"/>
-      <c r="P67" s="265"/>
-      <c r="Q67" s="265"/>
-      <c r="R67" s="265"/>
-      <c r="S67" s="265"/>
-      <c r="T67" s="265"/>
-      <c r="U67" s="265"/>
-      <c r="V67" s="265"/>
-      <c r="W67" s="265"/>
-      <c r="X67" s="265"/>
-      <c r="Y67" s="265"/>
-      <c r="Z67" s="265"/>
-      <c r="AA67" s="265"/>
+      <c r="O67" s="294"/>
+      <c r="P67" s="294"/>
+      <c r="Q67" s="294"/>
+      <c r="R67" s="294"/>
+      <c r="S67" s="294"/>
+      <c r="T67" s="294"/>
+      <c r="U67" s="294"/>
+      <c r="V67" s="294"/>
+      <c r="W67" s="294"/>
+      <c r="X67" s="294"/>
+      <c r="Y67" s="294"/>
+      <c r="Z67" s="294"/>
+      <c r="AA67" s="294"/>
       <c r="AD67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AJ67" s="24"/>
       <c r="AK67" s="59">
         <f ca="1">Games!N36</f>
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AL67" s="46" t="e" vm="128">
         <f>_xlfn.XLOOKUP(AM67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27845,7 +27848,7 @@
       <c r="AN67" s="27">
         <v>15</v>
       </c>
-      <c r="AO67" s="292"/>
+      <c r="AO67" s="280"/>
     </row>
     <row r="68" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -27886,65 +27889,188 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AI21:AI22"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD19:AE20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="T11:V19"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="O67:AA67"/>
+    <mergeCell ref="O66:AA66"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="S32:W33"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="B1:AN1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AJ63:AJ64"/>
+    <mergeCell ref="AJ57:AJ58"/>
+    <mergeCell ref="AH65:AH66"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AI49:AI50"/>
+    <mergeCell ref="AI53:AI54"/>
+    <mergeCell ref="AI57:AI58"/>
+    <mergeCell ref="AI61:AI62"/>
+    <mergeCell ref="AI65:AI66"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="AF63:AF64"/>
+    <mergeCell ref="AF55:AF56"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L43:L44"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="AO62:AO63"/>
+    <mergeCell ref="AO66:AO67"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AJ61:AJ62"/>
+    <mergeCell ref="AE39:AE40"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="AJ53:AJ54"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AD51:AE52"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="AO50:AO51"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AO58:AO59"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="AO46:AO47"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AJ55:AJ56"/>
     <mergeCell ref="AH25:AH26"/>
     <mergeCell ref="AH33:AH34"/>
     <mergeCell ref="AG43:AG44"/>
@@ -27969,181 +28095,58 @@
     <mergeCell ref="AG27:AG28"/>
     <mergeCell ref="AG31:AG32"/>
     <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AO50:AO51"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AO58:AO59"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AO42:AO43"/>
-    <mergeCell ref="AO46:AO47"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="AO62:AO63"/>
-    <mergeCell ref="AO66:AO67"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AJ61:AJ62"/>
-    <mergeCell ref="AE39:AE40"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="AJ53:AJ54"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AD51:AE52"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="M27:M28"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L43:L44"/>
     <mergeCell ref="K39:K40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="AF63:AF64"/>
-    <mergeCell ref="AF55:AF56"/>
-    <mergeCell ref="AF47:AF48"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="AJ63:AJ64"/>
-    <mergeCell ref="AJ57:AJ58"/>
-    <mergeCell ref="AH65:AH66"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AI49:AI50"/>
-    <mergeCell ref="AI53:AI54"/>
-    <mergeCell ref="AI57:AI58"/>
-    <mergeCell ref="AI61:AI62"/>
-    <mergeCell ref="AI65:AI66"/>
-    <mergeCell ref="B1:AN1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AF23:AF24"/>
     <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="T11:V19"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="O67:AA67"/>
-    <mergeCell ref="O66:AA66"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="S32:W33"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AI21:AI22"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI37:AI38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">

--- a/resources/blank_bracket.xlsx
+++ b/resources/blank_bracket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29804"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgal\Documents\Data Science\KingfisherCourt\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCAFB0-7F03-468B-9FBA-BE30A5E54D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A13936-CA80-42E7-83C3-D2ABA2F8BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2400" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Links" sheetId="6" r:id="rId1"/>
@@ -7152,161 +7152,161 @@
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9153,8 +9153,8 @@
   </sheetPr>
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17702,9 +17702,9 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18967,10 +18967,10 @@
   </sheetPr>
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -19144,7 +19144,7 @@
       </c>
       <c r="L5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M5" s="84" t="e" vm="66">
         <f>_xlfn.XLOOKUP(I5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19152,7 +19152,7 @@
       </c>
       <c r="N5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O5" s="194" t="str">
         <f t="shared" ref="O5:O36" ca="1" si="3">IF(L5&gt;N5,G5,I5)</f>
@@ -19219,7 +19219,7 @@
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:N36" ca="1" si="5">RANDBETWEEN(90,120)</f>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M6" s="82" t="e" vm="68">
         <f>_xlfn.XLOOKUP(I6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19227,7 +19227,7 @@
       </c>
       <c r="N6" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O6" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19260,7 +19260,7 @@
       </c>
       <c r="C7" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="D7" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19294,7 +19294,7 @@
       </c>
       <c r="L7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="M7" s="82" t="e" vm="70">
         <f>_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19302,13 +19302,13 @@
       </c>
       <c r="N7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O7" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="P7" s="204" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="P7" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="R7" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="98"/>
     </row>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="L8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M8" s="82" t="e" vm="72">
         <f>_xlfn.XLOOKUP(I8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19404,7 +19404,7 @@
       </c>
       <c r="C9" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Appalachian State</v>
+        <v>American</v>
       </c>
       <c r="D9" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19438,7 +19438,7 @@
       </c>
       <c r="L9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M9" s="82" t="e" vm="74">
         <f>_xlfn.XLOOKUP(I9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19446,13 +19446,13 @@
       </c>
       <c r="N9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O9" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>American</v>
-      </c>
-      <c r="P9" s="204" t="e" vm="73">
+        <v>Appalachian State</v>
+      </c>
+      <c r="P9" s="204" t="e" vm="74">
         <f ca="1">_xlfn.XLOOKUP(O9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19461,7 +19461,7 @@
       </c>
       <c r="R9" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="98"/>
     </row>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="L10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M10" s="82" t="e" vm="76">
         <f>_xlfn.XLOOKUP(I10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="N10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O10" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19582,7 +19582,7 @@
       </c>
       <c r="L11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M11" s="82" t="e" vm="78">
         <f>_xlfn.XLOOKUP(I11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="N11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O11" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="L12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="M12" s="109" t="e" vm="80">
         <f>_xlfn.XLOOKUP(I12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="N12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="O12" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19726,7 +19726,7 @@
       </c>
       <c r="L13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M13" s="115" t="e" vm="82">
         <f>_xlfn.XLOOKUP(I13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="N13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O13" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="C14" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Baylor</v>
+        <v>Ball State</v>
       </c>
       <c r="D14" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19798,7 +19798,7 @@
       </c>
       <c r="L14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M14" s="83" t="e" vm="84">
         <f>_xlfn.XLOOKUP(I14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19806,13 +19806,13 @@
       </c>
       <c r="N14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="O14" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ball State</v>
-      </c>
-      <c r="P14" s="207" t="e" vm="83">
+        <v>Baylor</v>
+      </c>
+      <c r="P14" s="207" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(O14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="R14" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="98"/>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="L15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M15" s="83" t="e" vm="86">
         <f>_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19878,7 +19878,7 @@
       </c>
       <c r="N15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O15" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19942,7 +19942,7 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M16" s="83" t="e" vm="88">
         <f>_xlfn.XLOOKUP(I16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="O16" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="C17" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Boise State</v>
+        <v>Boston College</v>
       </c>
       <c r="D17" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20022,13 +20022,13 @@
       </c>
       <c r="N17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O17" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Boston College</v>
-      </c>
-      <c r="P17" s="207" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="P17" s="207" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(O17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20037,7 +20037,7 @@
       </c>
       <c r="R17" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="98"/>
     </row>
@@ -20086,7 +20086,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M18" s="83" t="e" vm="92">
         <f>_xlfn.XLOOKUP(I18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O18" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20124,7 +20124,7 @@
       </c>
       <c r="C19" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Brigham Young</v>
+        <v>Bradley</v>
       </c>
       <c r="D19" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20158,7 +20158,7 @@
       </c>
       <c r="L19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M19" s="83" t="e" vm="94">
         <f>_xlfn.XLOOKUP(I19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20166,13 +20166,13 @@
       </c>
       <c r="N19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O19" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bradley</v>
-      </c>
-      <c r="P19" s="207" t="e" vm="93">
+        <v>Brigham Young</v>
+      </c>
+      <c r="P19" s="207" t="e" vm="94">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="R19" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="98"/>
     </row>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="C20" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="D20" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20230,7 +20230,7 @@
       </c>
       <c r="L20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M20" s="126" t="e" vm="96">
         <f>_xlfn.XLOOKUP(I20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20238,13 +20238,13 @@
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O20" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brown</v>
-      </c>
-      <c r="P20" s="208" t="e" vm="95">
+        <v>Bryant</v>
+      </c>
+      <c r="P20" s="208" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(O20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="R20" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="98"/>
     </row>
@@ -20268,7 +20268,7 @@
       </c>
       <c r="C21" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="D21" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="L21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M21" s="97" t="e" vm="98">
         <f>_xlfn.XLOOKUP(I21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20310,13 +20310,13 @@
       </c>
       <c r="N21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O21" s="188" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bucknell</v>
-      </c>
-      <c r="P21" s="203" t="e" vm="97">
+        <v>Buffalo</v>
+      </c>
+      <c r="P21" s="203" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(O21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="R21" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="98"/>
     </row>
@@ -20374,7 +20374,7 @@
       </c>
       <c r="L22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M22" s="82" t="e" vm="100">
         <f>_xlfn.XLOOKUP(I22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20446,7 +20446,7 @@
       </c>
       <c r="L23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M23" s="82" t="e" vm="102">
         <f>_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20454,7 +20454,7 @@
       </c>
       <c r="N23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O23" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20484,7 +20484,7 @@
       </c>
       <c r="C24" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="D24" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20518,7 +20518,7 @@
       </c>
       <c r="L24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M24" s="82" t="e" vm="104">
         <f>_xlfn.XLOOKUP(I24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20526,13 +20526,13 @@
       </c>
       <c r="N24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O24" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>California</v>
-      </c>
-      <c r="P24" s="204" t="e" vm="104">
+        <v>Cal State Northridge</v>
+      </c>
+      <c r="P24" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20541,7 +20541,7 @@
       </c>
       <c r="R24" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="98"/>
     </row>
@@ -20556,7 +20556,7 @@
       </c>
       <c r="C25" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="D25" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20590,7 +20590,7 @@
       </c>
       <c r="L25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M25" s="82" t="e" vm="106">
         <f>_xlfn.XLOOKUP(I25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20598,13 +20598,13 @@
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O25" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Campbell</v>
-      </c>
-      <c r="P25" s="204" t="e" vm="106">
+        <v>California Baptist</v>
+      </c>
+      <c r="P25" s="204" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(O25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="R25" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="98"/>
     </row>
@@ -20628,7 +20628,7 @@
       </c>
       <c r="C26" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Central Arkansas</v>
+        <v>Canisius</v>
       </c>
       <c r="D26" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20662,7 +20662,7 @@
       </c>
       <c r="L26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M26" s="82" t="e" vm="108">
         <f>_xlfn.XLOOKUP(I26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20670,13 +20670,13 @@
       </c>
       <c r="N26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O26" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Canisius</v>
-      </c>
-      <c r="P26" s="204" t="e" vm="107">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P26" s="204" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="R26" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="98"/>
     </row>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="C27" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="D27" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20734,7 +20734,7 @@
       </c>
       <c r="L27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M27" s="82" t="e" vm="110">
         <f>_xlfn.XLOOKUP(I27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20742,13 +20742,13 @@
       </c>
       <c r="N27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="O27" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Central Michigan</v>
-      </c>
-      <c r="P27" s="204" t="e" vm="110">
+        <v>Central Connecticut State</v>
+      </c>
+      <c r="P27" s="204" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(O27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="R27" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="98"/>
     </row>
@@ -20772,7 +20772,7 @@
       </c>
       <c r="C28" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="D28" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="L28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="M28" s="109" t="e" vm="112">
         <f>_xlfn.XLOOKUP(I28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20814,13 +20814,13 @@
       </c>
       <c r="N28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O28" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Charleston Southern</v>
-      </c>
-      <c r="P28" s="205" t="e" vm="111">
+        <v>Charlotte</v>
+      </c>
+      <c r="P28" s="205" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(O28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20829,7 +20829,7 @@
       </c>
       <c r="R28" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="98"/>
     </row>
@@ -20844,7 +20844,7 @@
       </c>
       <c r="C29" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="D29" s="91" t="e">
         <f t="shared" si="2"/>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="L29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="M29" s="115" t="e" vm="114">
         <f>_xlfn.XLOOKUP(I29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20890,9 +20890,9 @@
       </c>
       <c r="O29" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Chicago State</v>
-      </c>
-      <c r="P29" s="206" t="e" vm="114">
+        <v>Chattanooga</v>
+      </c>
+      <c r="P29" s="206" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(O29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="R29" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="98"/>
     </row>
@@ -20950,7 +20950,7 @@
       </c>
       <c r="L30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M30" s="83" t="e" vm="116">
         <f>_xlfn.XLOOKUP(I30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="N30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O30" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21022,7 +21022,7 @@
       </c>
       <c r="L31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M31" s="83" t="e" vm="118">
         <f>_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="N31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O31" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21060,7 +21060,7 @@
       </c>
       <c r="C32" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Colgate</v>
+        <v>College of Charleston</v>
       </c>
       <c r="D32" s="91" t="e">
         <f t="shared" si="2"/>
@@ -21094,7 +21094,7 @@
       </c>
       <c r="L32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M32" s="83" t="e" vm="120">
         <f>_xlfn.XLOOKUP(I32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21102,13 +21102,13 @@
       </c>
       <c r="N32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O32" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>College of Charleston</v>
-      </c>
-      <c r="P32" s="207" t="e" vm="120">
+        <v>Colgate</v>
+      </c>
+      <c r="P32" s="207" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(O32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21117,7 +21117,7 @@
       </c>
       <c r="R32" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="98"/>
     </row>
@@ -21174,7 +21174,7 @@
       </c>
       <c r="N33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="L34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M34" s="83" t="e" vm="124">
         <f>_xlfn.XLOOKUP(I34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="N34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21310,7 +21310,7 @@
       </c>
       <c r="L35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M35" s="83" t="e" vm="126">
         <f>_xlfn.XLOOKUP(I35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21318,7 +21318,7 @@
       </c>
       <c r="N35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O35" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="L36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M36" s="126" t="e" vm="128">
         <f>_xlfn.XLOOKUP(I36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="N36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O36" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="C38" s="91" t="str">
         <f t="shared" ref="C38:C53" ca="1" si="8">IF(O38="","",IF(A38=O38,B38,A38))</f>
-        <v>Air Force</v>
+        <v>Alabama</v>
       </c>
       <c r="D38" s="91" t="e">
         <f t="shared" ref="D38:D53" si="9">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O38,SeedInfo,2,FALSE)*2,MAX(VLOOKUP(O38,SeedInfo,2,FALSE)-VLOOKUP(C38,SeedInfo,2,FALSE),0)))</f>
@@ -21478,7 +21478,7 @@
       </c>
       <c r="L38" s="84">
         <f t="shared" ref="L38:N72" ca="1" si="10">RANDBETWEEN(90,120)</f>
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="M38" s="84" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(I38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21486,13 +21486,13 @@
       </c>
       <c r="N38" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O38" s="194" t="str">
         <f t="shared" ref="O38:O53" ca="1" si="11">IF(L38&gt;N38,G38,I38)</f>
-        <v>Alabama</v>
-      </c>
-      <c r="P38" s="209" t="e" vm="68">
+        <v>Air Force</v>
+      </c>
+      <c r="P38" s="209" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21501,14 +21501,14 @@
       </c>
       <c r="R38" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="98"/>
     </row>
     <row r="39" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="91" t="str">
         <f t="shared" ref="A39:A53" ca="1" si="12">G39</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="B39" s="91" t="str">
         <f t="shared" ref="B39:B53" ca="1" si="13">I39</f>
@@ -21527,11 +21527,11 @@
       </c>
       <c r="F39" s="100" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">_xlfn.XLOOKUP(G39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G39" s="101" t="str">
         <f ca="1">O7</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="H39" s="176" t="s">
         <v>9</v>
@@ -21544,13 +21544,13 @@
         <f t="array" aca="1" ref="J39" ca="1">_xlfn.XLOOKUP(I39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>13</v>
       </c>
-      <c r="K39" s="82" t="e" vm="69">
+      <c r="K39" s="82" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(G39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M39" s="82" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21558,13 +21558,13 @@
       </c>
       <c r="N39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="O39" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="P39" s="204" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="P39" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21580,7 +21580,7 @@
     <row r="40" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>American</v>
+        <v>Appalachian State</v>
       </c>
       <c r="B40" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="C40" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Arizona</v>
+        <v>Appalachian State</v>
       </c>
       <c r="D40" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21599,11 +21599,11 @@
       </c>
       <c r="F40" s="100" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">_xlfn.XLOOKUP(G40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G40" s="101" t="str">
         <f ca="1">O9</f>
-        <v>American</v>
+        <v>Appalachian State</v>
       </c>
       <c r="H40" s="176" t="s">
         <v>9</v>
@@ -21616,13 +21616,13 @@
         <f t="array" aca="1" ref="J40" ca="1">_xlfn.XLOOKUP(I40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>3</v>
       </c>
-      <c r="K40" s="82" t="e" vm="73">
+      <c r="K40" s="82" t="e" vm="74">
         <f ca="1">_xlfn.XLOOKUP(G40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M40" s="82" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(I40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21630,13 +21630,13 @@
       </c>
       <c r="N40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="O40" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>American</v>
-      </c>
-      <c r="P40" s="204" t="e" vm="73">
+        <v>Arizona</v>
+      </c>
+      <c r="P40" s="204" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(O40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="R40" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="98"/>
     </row>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="C41" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Arkansas</v>
+        <v>Army</v>
       </c>
       <c r="D41" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21694,7 +21694,7 @@
       </c>
       <c r="L41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M41" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21702,13 +21702,13 @@
       </c>
       <c r="N41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="O41" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Army</v>
-      </c>
-      <c r="P41" s="210" t="e" vm="80">
+        <v>Arkansas</v>
+      </c>
+      <c r="P41" s="210" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(O41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="R41" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="98"/>
     </row>
@@ -21728,11 +21728,11 @@
       </c>
       <c r="B42" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ball State</v>
+        <v>Baylor</v>
       </c>
       <c r="C42" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Ball State</v>
+        <v>Baylor</v>
       </c>
       <c r="D42" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21754,11 +21754,11 @@
       </c>
       <c r="I42" s="143" t="str">
         <f ca="1">O14</f>
-        <v>Ball State</v>
+        <v>Baylor</v>
       </c>
       <c r="J42" s="144" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">_xlfn.XLOOKUP(I42,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K42" s="145" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(G42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21766,15 +21766,15 @@
       </c>
       <c r="L42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="M42" s="145" t="e" vm="83">
+        <v>120</v>
+      </c>
+      <c r="M42" s="145" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(I42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O42" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -21838,7 +21838,7 @@
       </c>
       <c r="L43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M43" s="83" t="e" vm="87">
         <f ca="1">_xlfn.XLOOKUP(I43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21846,7 +21846,7 @@
       </c>
       <c r="N43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O43" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -21868,7 +21868,7 @@
     <row r="44" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="B44" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="C44" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Boston College</v>
+        <v>Duke</v>
       </c>
       <c r="D44" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21887,11 +21887,11 @@
       </c>
       <c r="F44" s="117" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">_xlfn.XLOOKUP(G44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G44" s="118" t="str">
         <f ca="1">O17</f>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="H44" s="178" t="s">
         <v>9</v>
@@ -21904,13 +21904,13 @@
         <f t="array" aca="1" ref="J44" ca="1">_xlfn.XLOOKUP(I44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>14</v>
       </c>
-      <c r="K44" s="83" t="e" vm="90">
+      <c r="K44" s="83" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(G44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="M44" s="83" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(I44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21918,13 +21918,13 @@
       </c>
       <c r="N44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O44" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Duke</v>
-      </c>
-      <c r="P44" s="207" t="e" vm="92">
+        <v>Boise State</v>
+      </c>
+      <c r="P44" s="207" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(O44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21933,22 +21933,22 @@
       </c>
       <c r="R44" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="98"/>
     </row>
     <row r="45" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bradley</v>
+        <v>Brigham Young</v>
       </c>
       <c r="B45" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Brown</v>
+        <v>Bryant</v>
       </c>
       <c r="C45" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brown</v>
+        <v>Brigham Young</v>
       </c>
       <c r="D45" s="91" t="e">
         <f t="shared" si="9"/>
@@ -21959,44 +21959,44 @@
       </c>
       <c r="F45" s="147" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">_xlfn.XLOOKUP(G45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G45" s="148" t="str">
         <f ca="1">O19</f>
-        <v>Bradley</v>
+        <v>Brigham Young</v>
       </c>
       <c r="H45" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I45" s="149" t="str">
         <f ca="1">O20</f>
-        <v>Brown</v>
+        <v>Bryant</v>
       </c>
       <c r="J45" s="150" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">_xlfn.XLOOKUP(I45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K45" s="151" t="e" vm="93">
+        <v>15</v>
+      </c>
+      <c r="K45" s="151" t="e" vm="94">
         <f ca="1">_xlfn.XLOOKUP(G45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="M45" s="151" t="e" vm="95">
+        <v>92</v>
+      </c>
+      <c r="M45" s="151" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(I45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O45" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bradley</v>
-      </c>
-      <c r="P45" s="212" t="e" vm="93">
+        <v>Bryant</v>
+      </c>
+      <c r="P45" s="212" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(O45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22012,7 +22012,7 @@
     <row r="46" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="B46" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="C46" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Butler</v>
+        <v>Buffalo</v>
       </c>
       <c r="D46" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22031,11 +22031,11 @@
       </c>
       <c r="F46" s="130" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">_xlfn.XLOOKUP(G46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G46" s="131" t="str">
         <f ca="1">O21</f>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="H46" s="181" t="s">
         <v>9</v>
@@ -22048,13 +22048,13 @@
         <f t="array" aca="1" ref="J46" ca="1">_xlfn.XLOOKUP(I46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K46" s="84" t="e" vm="97">
+      <c r="K46" s="84" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(G46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M46" s="84" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(I46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22062,13 +22062,13 @@
       </c>
       <c r="N46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O46" s="194" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bucknell</v>
-      </c>
-      <c r="P46" s="209" t="e" vm="97">
+        <v>Butler</v>
+      </c>
+      <c r="P46" s="209" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(O46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22088,11 +22088,11 @@
       </c>
       <c r="B47" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="C47" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="D47" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22114,11 +22114,11 @@
       </c>
       <c r="I47" s="102" t="str">
         <f ca="1">O24</f>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="J47" s="103" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">_xlfn.XLOOKUP(I47,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K47" s="82" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(G47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22128,13 +22128,13 @@
         <f t="shared" ca="1" si="10"/>
         <v>115</v>
       </c>
-      <c r="M47" s="82" t="e" vm="104">
+      <c r="M47" s="82" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="O47" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -22149,22 +22149,22 @@
       </c>
       <c r="R47" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="98"/>
     </row>
     <row r="48" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="B48" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="C48" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="D48" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22175,44 +22175,44 @@
       </c>
       <c r="F48" s="100" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">_xlfn.XLOOKUP(G48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G48" s="101" t="str">
         <f ca="1">O25</f>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="H48" s="176" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="102" t="str">
         <f ca="1">O26</f>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="J48" s="103" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">_xlfn.XLOOKUP(I48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K48" s="82" t="e" vm="106">
+        <v>14</v>
+      </c>
+      <c r="K48" s="82" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(G48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="M48" s="82" t="e" vm="107">
+        <v>90</v>
+      </c>
+      <c r="M48" s="82" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(I48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="O48" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Canisius</v>
-      </c>
-      <c r="P48" s="204" t="e" vm="107">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P48" s="204" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22221,22 +22221,22 @@
       </c>
       <c r="R48" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="98"/>
     </row>
     <row r="49" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Central Michigan</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="B49" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="C49" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Central Michigan</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="D49" s="152" t="e">
         <f t="shared" si="9"/>
@@ -22247,44 +22247,44 @@
       </c>
       <c r="F49" s="135" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">_xlfn.XLOOKUP(G49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G49" s="136" t="str">
         <f ca="1">O27</f>
-        <v>Central Michigan</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="H49" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="137" t="str">
         <f ca="1">O28</f>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="J49" s="138" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">_xlfn.XLOOKUP(I49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K49" s="139" t="e" vm="110">
+        <v>15</v>
+      </c>
+      <c r="K49" s="139" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(G49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="M49" s="139" t="e" vm="111">
+        <v>92</v>
+      </c>
+      <c r="M49" s="139" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(I49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="O49" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Charleston Southern</v>
-      </c>
-      <c r="P49" s="210" t="e" vm="111">
+        <v>Charlotte</v>
+      </c>
+      <c r="P49" s="210" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(O49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22293,14 +22293,14 @@
       </c>
       <c r="R49" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="98"/>
     </row>
     <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="B50" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="C50" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Chicago State</v>
+        <v>Cincinnati</v>
       </c>
       <c r="D50" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22319,11 +22319,11 @@
       </c>
       <c r="F50" s="141" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">_xlfn.XLOOKUP(G50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G50" s="142" t="str">
         <f ca="1">O29</f>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="H50" s="183" t="s">
         <v>9</v>
@@ -22336,13 +22336,13 @@
         <f t="array" aca="1" ref="J50" ca="1">_xlfn.XLOOKUP(I50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K50" s="145" t="e" vm="114">
+      <c r="K50" s="145" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(G50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M50" s="145" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(I50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22350,13 +22350,13 @@
       </c>
       <c r="N50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O50" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cincinnati</v>
-      </c>
-      <c r="P50" s="211" t="e" vm="115">
+        <v>Chattanooga</v>
+      </c>
+      <c r="P50" s="211" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(O50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="B51" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>College of Charleston</v>
+        <v>Colgate</v>
       </c>
       <c r="C51" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -22402,11 +22402,11 @@
       </c>
       <c r="I51" s="119" t="str">
         <f ca="1">O32</f>
-        <v>College of Charleston</v>
+        <v>Colgate</v>
       </c>
       <c r="J51" s="120" cm="1">
         <f t="array" aca="1" ref="J51" ca="1">_xlfn.XLOOKUP(I51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K51" s="83" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(G51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22414,21 +22414,21 @@
       </c>
       <c r="L51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="M51" s="83" t="e" vm="120">
+        <v>103</v>
+      </c>
+      <c r="M51" s="83" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(I51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O51" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>College of Charleston</v>
-      </c>
-      <c r="P51" s="207" t="e" vm="120">
+        <v>Colgate</v>
+      </c>
+      <c r="P51" s="207" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="R51" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="98"/>
     </row>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="C52" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Colorado State</v>
+        <v>Columbia</v>
       </c>
       <c r="D52" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22486,7 +22486,7 @@
       </c>
       <c r="L52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M52" s="83" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(I52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22494,13 +22494,13 @@
       </c>
       <c r="N52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O52" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Columbia</v>
-      </c>
-      <c r="P52" s="207" t="e" vm="123">
+        <v>Colorado State</v>
+      </c>
+      <c r="P52" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22509,7 +22509,7 @@
       </c>
       <c r="R52" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="98"/>
     </row>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="C53" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Creighton</v>
+        <v>Coppin State</v>
       </c>
       <c r="D53" s="91" t="e">
         <f t="shared" si="9"/>
@@ -22558,7 +22558,7 @@
       </c>
       <c r="L53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M53" s="151" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(I53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22566,13 +22566,13 @@
       </c>
       <c r="N53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O53" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Coppin State</v>
-      </c>
-      <c r="P53" s="212" t="e" vm="125">
+        <v>Creighton</v>
+      </c>
+      <c r="P53" s="212" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(O53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22581,7 +22581,7 @@
       </c>
       <c r="R53" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="98"/>
     </row>
@@ -22611,15 +22611,15 @@
     <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="str">
         <f ca="1">G55</f>
-        <v>Alabama</v>
+        <v>Air Force</v>
       </c>
       <c r="B55" s="91" t="str">
         <f ca="1">I55</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="C55" s="91" t="str">
         <f t="shared" ref="C55:C62" ca="1" si="14">IF(O55="","",IF(A55=O55,B55,A55))</f>
-        <v>Alabama</v>
+        <v>Air Force</v>
       </c>
       <c r="D55" s="91" t="e">
         <f t="shared" ref="D55:D62" si="15">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O55,SeedInfo,2,FALSE)*3,MAX(VLOOKUP(O55,SeedInfo,2,FALSE)-VLOOKUP(C55,SeedInfo,2,FALSE),0)))</f>
@@ -22630,44 +22630,44 @@
       </c>
       <c r="F55" s="93" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">_xlfn.XLOOKUP(G55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G55" s="94" t="str">
         <f ca="1">O38</f>
-        <v>Alabama</v>
+        <v>Air Force</v>
       </c>
       <c r="H55" s="175" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="95" t="str">
         <f ca="1">O39</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="J55" s="96" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">_xlfn.XLOOKUP(I55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
-      </c>
-      <c r="K55" s="97" t="e" vm="68">
+        <v>12</v>
+      </c>
+      <c r="K55" s="97" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="M55" s="97" t="e" vm="69">
+        <v>91</v>
+      </c>
+      <c r="M55" s="97" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O55" s="188" t="str">
         <f t="shared" ref="O55:O62" ca="1" si="16">IF(L55&gt;N55,G55,I55)</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="P55" s="204" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="P55" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22683,15 +22683,15 @@
     <row r="56" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91" t="str">
         <f t="shared" ref="A56:A62" ca="1" si="17">G56</f>
-        <v>American</v>
+        <v>Arizona</v>
       </c>
       <c r="B56" s="91" t="str">
         <f t="shared" ref="B56:B62" ca="1" si="18">I56</f>
-        <v>Army</v>
+        <v>Arkansas</v>
       </c>
       <c r="C56" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Army</v>
+        <v>Arizona</v>
       </c>
       <c r="D56" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22702,44 +22702,44 @@
       </c>
       <c r="F56" s="135" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">_xlfn.XLOOKUP(G56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G56" s="136" t="str">
         <f ca="1">O40</f>
-        <v>American</v>
+        <v>Arizona</v>
       </c>
       <c r="H56" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="137" t="str">
         <f ca="1">O41</f>
-        <v>Army</v>
+        <v>Arkansas</v>
       </c>
       <c r="J56" s="138" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">_xlfn.XLOOKUP(I56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K56" s="139" t="e" vm="73">
+        <v>7</v>
+      </c>
+      <c r="K56" s="139" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(G56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="M56" s="139" t="e" vm="80">
+        <v>98</v>
+      </c>
+      <c r="M56" s="139" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(I56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O56" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>American</v>
-      </c>
-      <c r="P56" s="210" t="e" vm="73">
+        <v>Arkansas</v>
+      </c>
+      <c r="P56" s="210" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(O56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22748,7 +22748,7 @@
       </c>
       <c r="R56" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="98"/>
     </row>
@@ -22763,7 +22763,7 @@
       </c>
       <c r="C57" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Belmont</v>
+        <v>Austin Peay</v>
       </c>
       <c r="D57" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22797,7 +22797,7 @@
       </c>
       <c r="L57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M57" s="145" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22805,13 +22805,13 @@
       </c>
       <c r="N57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="O57" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Austin Peay</v>
-      </c>
-      <c r="P57" s="211" t="e" vm="82">
+        <v>Belmont</v>
+      </c>
+      <c r="P57" s="211" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22820,22 +22820,22 @@
       </c>
       <c r="R57" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="98"/>
     </row>
     <row r="58" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Duke</v>
+        <v>Boise State</v>
       </c>
       <c r="B58" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Bradley</v>
+        <v>Bryant</v>
       </c>
       <c r="C58" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Duke</v>
+        <v>Boise State</v>
       </c>
       <c r="D58" s="91" t="e">
         <f t="shared" si="15"/>
@@ -22846,44 +22846,44 @@
       </c>
       <c r="F58" s="237" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">_xlfn.XLOOKUP(G58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G58" s="148" t="str">
         <f ca="1">O44</f>
-        <v>Duke</v>
+        <v>Boise State</v>
       </c>
       <c r="H58" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I58" s="149" t="str">
         <f ca="1">O45</f>
-        <v>Bradley</v>
+        <v>Bryant</v>
       </c>
       <c r="J58" s="150" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">_xlfn.XLOOKUP(I58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
-      </c>
-      <c r="K58" s="151" t="e" vm="92">
+        <v>15</v>
+      </c>
+      <c r="K58" s="151" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(G58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M58" s="151" t="e" vm="93">
+        <v>93</v>
+      </c>
+      <c r="M58" s="151" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(I58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O58" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Bradley</v>
-      </c>
-      <c r="P58" s="212" t="e" vm="93">
+        <v>Bryant</v>
+      </c>
+      <c r="P58" s="212" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(O58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22892,14 +22892,14 @@
       </c>
       <c r="R58" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="98"/>
     </row>
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Bucknell</v>
+        <v>Butler</v>
       </c>
       <c r="B59" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -22907,7 +22907,7 @@
       </c>
       <c r="C59" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Cal State Fullerton</v>
+        <v>Butler</v>
       </c>
       <c r="D59" s="152" t="e">
         <f t="shared" si="15"/>
@@ -22918,11 +22918,11 @@
       </c>
       <c r="F59" s="130" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">_xlfn.XLOOKUP(G59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G59" s="131" t="str">
         <f ca="1">O46</f>
-        <v>Bucknell</v>
+        <v>Butler</v>
       </c>
       <c r="H59" s="181" t="s">
         <v>9</v>
@@ -22935,13 +22935,13 @@
         <f t="array" aca="1" ref="J59" ca="1">_xlfn.XLOOKUP(I59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>12</v>
       </c>
-      <c r="K59" s="84" t="e" vm="97">
+      <c r="K59" s="84" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(G59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M59" s="84" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(I59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22949,13 +22949,13 @@
       </c>
       <c r="N59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="O59" s="194" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Bucknell</v>
-      </c>
-      <c r="P59" s="209" t="e" vm="97">
+        <v>Cal State Fullerton</v>
+      </c>
+      <c r="P59" s="209" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(O59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -22964,22 +22964,22 @@
       </c>
       <c r="R59" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="98"/>
     </row>
     <row r="60" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="B60" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="C60" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Canisius</v>
+        <v>Charlotte</v>
       </c>
       <c r="D60" s="152" t="e">
         <f t="shared" si="15"/>
@@ -22990,44 +22990,44 @@
       </c>
       <c r="F60" s="135" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">_xlfn.XLOOKUP(G60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G60" s="136" t="str">
         <f ca="1">O48</f>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="H60" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I60" s="137" t="str">
         <f ca="1">O49</f>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="J60" s="138" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">_xlfn.XLOOKUP(I60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K60" s="139" t="e" vm="107">
+        <v>15</v>
+      </c>
+      <c r="K60" s="139" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(G60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M60" s="139" t="e" vm="111">
+        <v>120</v>
+      </c>
+      <c r="M60" s="139" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(I60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O60" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Charleston Southern</v>
-      </c>
-      <c r="P60" s="210" t="e" vm="111">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P60" s="210" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23043,15 +23043,15 @@
     <row r="61" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Cincinnati</v>
+        <v>Chattanooga</v>
       </c>
       <c r="B61" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>College of Charleston</v>
+        <v>Colgate</v>
       </c>
       <c r="C61" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Cincinnati</v>
+        <v>Colgate</v>
       </c>
       <c r="D61" s="91" t="e">
         <f t="shared" si="15"/>
@@ -23062,44 +23062,44 @@
       </c>
       <c r="F61" s="141" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">_xlfn.XLOOKUP(G61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61" s="142" t="str">
         <f ca="1">O50</f>
-        <v>Cincinnati</v>
+        <v>Chattanooga</v>
       </c>
       <c r="H61" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I61" s="143" t="str">
         <f ca="1">O51</f>
-        <v>College of Charleston</v>
+        <v>Colgate</v>
       </c>
       <c r="J61" s="144" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">_xlfn.XLOOKUP(I61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
-      </c>
-      <c r="K61" s="145" t="e" vm="115">
+        <v>4</v>
+      </c>
+      <c r="K61" s="145" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(G61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="M61" s="145" t="e" vm="120">
+        <v>105</v>
+      </c>
+      <c r="M61" s="145" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(I61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O61" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>College of Charleston</v>
-      </c>
-      <c r="P61" s="211" t="e" vm="120">
+        <v>Chattanooga</v>
+      </c>
+      <c r="P61" s="211" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(O61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23108,22 +23108,22 @@
       </c>
       <c r="R61" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="98"/>
     </row>
     <row r="62" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="B62" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Coppin State</v>
+        <v>Creighton</v>
       </c>
       <c r="C62" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Coppin State</v>
+        <v>Creighton</v>
       </c>
       <c r="D62" s="91" t="e">
         <f t="shared" si="15"/>
@@ -23134,44 +23134,44 @@
       </c>
       <c r="F62" s="147" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">_xlfn.XLOOKUP(G62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G62" s="148" t="str">
         <f ca="1">O52</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="H62" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="149" t="str">
         <f ca="1">O53</f>
-        <v>Coppin State</v>
+        <v>Creighton</v>
       </c>
       <c r="J62" s="150" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">_xlfn.XLOOKUP(I62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
-      </c>
-      <c r="K62" s="151" t="e" vm="123">
+        <v>2</v>
+      </c>
+      <c r="K62" s="151" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(G62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="M62" s="151" t="e" vm="125">
+        <v>107</v>
+      </c>
+      <c r="M62" s="151" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(I62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O62" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Columbia</v>
-      </c>
-      <c r="P62" s="212" t="e" vm="123">
+        <v>Colorado State</v>
+      </c>
+      <c r="P62" s="212" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="R62" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="98"/>
     </row>
@@ -23210,15 +23210,15 @@
     <row r="64" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="91" t="str">
         <f ca="1">G64</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="B64" s="91" t="str">
         <f ca="1">I64</f>
-        <v>American</v>
+        <v>Arkansas</v>
       </c>
       <c r="C64" s="91" t="str">
         <f ca="1">IF(O64="","",IF(A64=O64,B64,A64))</f>
-        <v>Alabama A&amp;M</v>
+        <v>Arkansas</v>
       </c>
       <c r="D64" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O64,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O64,SeedInfo,2,FALSE)-VLOOKUP(C64,SeedInfo,2,FALSE),0)))</f>
@@ -23229,44 +23229,44 @@
       </c>
       <c r="F64" s="154" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">_xlfn.XLOOKUP(G64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G64" s="155" t="str">
         <f ca="1">O55</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="H64" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="156" t="str">
         <f ca="1">O56</f>
-        <v>American</v>
+        <v>Arkansas</v>
       </c>
       <c r="J64" s="157" cm="1">
         <f t="array" aca="1" ref="J64" ca="1">_xlfn.XLOOKUP(I64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
-      </c>
-      <c r="K64" s="158" t="e" vm="69">
+        <v>7</v>
+      </c>
+      <c r="K64" s="158" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(G64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="M64" s="158" t="e" vm="73">
+        <v>118</v>
+      </c>
+      <c r="M64" s="158" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(I64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O64" s="198" t="str">
         <f ca="1">IF(L64&gt;N64,G64,I64)</f>
-        <v>American</v>
-      </c>
-      <c r="P64" s="204" t="e" vm="73">
+        <v>Alabama State</v>
+      </c>
+      <c r="P64" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23282,15 +23282,15 @@
     <row r="65" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="91" t="str">
         <f ca="1">G65</f>
-        <v>Austin Peay</v>
+        <v>Belmont</v>
       </c>
       <c r="B65" s="91" t="str">
         <f ca="1">I65</f>
-        <v>Bradley</v>
+        <v>Bryant</v>
       </c>
       <c r="C65" s="91" t="str">
         <f ca="1">IF(O65="","",IF(A65=O65,B65,A65))</f>
-        <v>Austin Peay</v>
+        <v>Bryant</v>
       </c>
       <c r="D65" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O65,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O65,SeedInfo,2,FALSE)-VLOOKUP(C65,SeedInfo,2,FALSE),0)))</f>
@@ -23301,44 +23301,44 @@
       </c>
       <c r="F65" s="160" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">_xlfn.XLOOKUP(G65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G65" s="161" t="str">
         <f ca="1">O57</f>
-        <v>Austin Peay</v>
+        <v>Belmont</v>
       </c>
       <c r="H65" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="162" t="str">
         <f ca="1">O58</f>
-        <v>Bradley</v>
+        <v>Bryant</v>
       </c>
       <c r="J65" s="163" cm="1">
         <f t="array" aca="1" ref="J65" ca="1">_xlfn.XLOOKUP(I65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
-      </c>
-      <c r="K65" s="164" t="e" vm="82">
+        <v>15</v>
+      </c>
+      <c r="K65" s="164" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
-      </c>
-      <c r="M65" s="164" t="e" vm="93">
+        <v>119</v>
+      </c>
+      <c r="M65" s="164" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(I65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O65" s="199" t="str">
         <f ca="1">IF(L65&gt;N65,G65,I65)</f>
-        <v>Bradley</v>
-      </c>
-      <c r="P65" s="207" t="e" vm="93">
+        <v>Belmont</v>
+      </c>
+      <c r="P65" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23354,15 +23354,15 @@
     <row r="66" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91" t="str">
         <f ca="1">G66</f>
-        <v>Bucknell</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="B66" s="91" t="str">
         <f ca="1">I66</f>
-        <v>Charleston Southern</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="C66" s="91" t="str">
         <f ca="1">IF(O66="","",IF(A66=O66,B66,A66))</f>
-        <v>Charleston Southern</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="D66" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O66,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O66,SeedInfo,2,FALSE)-VLOOKUP(C66,SeedInfo,2,FALSE),0)))</f>
@@ -23373,44 +23373,44 @@
       </c>
       <c r="F66" s="154" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_xlfn.XLOOKUP(G66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G66" s="155" t="str">
         <f ca="1">O59</f>
-        <v>Bucknell</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="H66" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="156" t="str">
         <f ca="1">O60</f>
-        <v>Charleston Southern</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="J66" s="157" cm="1">
         <f t="array" aca="1" ref="J66" ca="1">_xlfn.XLOOKUP(I66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K66" s="158" t="e" vm="97">
+        <v>14</v>
+      </c>
+      <c r="K66" s="158" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(G66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
-      </c>
-      <c r="M66" s="158" t="e" vm="111">
+        <v>90</v>
+      </c>
+      <c r="M66" s="158" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(I66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O66" s="198" t="str">
         <f ca="1">IF(L66&gt;N66,G66,I66)</f>
-        <v>Bucknell</v>
-      </c>
-      <c r="P66" s="204" t="e" vm="97">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P66" s="204" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23419,22 +23419,22 @@
       </c>
       <c r="R66" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="98"/>
     </row>
     <row r="67" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91" t="str">
         <f ca="1">G67</f>
-        <v>College of Charleston</v>
+        <v>Chattanooga</v>
       </c>
       <c r="B67" s="91" t="str">
         <f ca="1">I67</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="C67" s="91" t="str">
         <f ca="1">IF(O67="","",IF(A67=O67,B67,A67))</f>
-        <v>College of Charleston</v>
+        <v>Chattanooga</v>
       </c>
       <c r="D67" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O67,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O67,SeedInfo,2,FALSE)-VLOOKUP(C67,SeedInfo,2,FALSE),0)))</f>
@@ -23445,44 +23445,44 @@
       </c>
       <c r="F67" s="160" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_xlfn.XLOOKUP(G67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G67" s="161" t="str">
         <f ca="1">O61</f>
-        <v>College of Charleston</v>
+        <v>Chattanooga</v>
       </c>
       <c r="H67" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="162" t="str">
         <f ca="1">O62</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="J67" s="163" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">_xlfn.XLOOKUP(I67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K67" s="164" t="e" vm="120">
+        <v>11</v>
+      </c>
+      <c r="K67" s="164" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(G67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="M67" s="164" t="e" vm="123">
+        <v>96</v>
+      </c>
+      <c r="M67" s="164" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O67" s="199" t="str">
         <f ca="1">IF(L67&gt;N67,G67,I67)</f>
-        <v>Columbia</v>
-      </c>
-      <c r="P67" s="207" t="e" vm="123">
+        <v>Colorado State</v>
+      </c>
+      <c r="P67" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23491,7 +23491,7 @@
       </c>
       <c r="R67" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="98"/>
     </row>
@@ -23521,15 +23521,15 @@
     <row r="69" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="91" t="str">
         <f ca="1">G69</f>
-        <v>American</v>
+        <v>Alabama State</v>
       </c>
       <c r="B69" s="91" t="str">
         <f ca="1">I69</f>
-        <v>Bradley</v>
+        <v>Belmont</v>
       </c>
       <c r="C69" s="91" t="str">
         <f ca="1">IF(O69="","",IF(A69=O69,B69,A69))</f>
-        <v>Bradley</v>
+        <v>Alabama State</v>
       </c>
       <c r="D69" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O69,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O69,SeedInfo,2,FALSE)-VLOOKUP(C69,SeedInfo,2,FALSE),0)))</f>
@@ -23540,24 +23540,24 @@
       </c>
       <c r="F69" s="166" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">_xlfn.XLOOKUP(G69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G69" s="167" t="str">
         <f ca="1">O64</f>
-        <v>American</v>
+        <v>Alabama State</v>
       </c>
       <c r="H69" s="187" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="168" t="str">
         <f ca="1">O65</f>
-        <v>Bradley</v>
+        <v>Belmont</v>
       </c>
       <c r="J69" s="169" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">_xlfn.XLOOKUP(I69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
-      </c>
-      <c r="K69" s="170" t="e" vm="73">
+        <v>12</v>
+      </c>
+      <c r="K69" s="170" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(G69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23565,19 +23565,19 @@
         <f t="shared" ca="1" si="10"/>
         <v>94</v>
       </c>
-      <c r="M69" s="170" t="e" vm="93">
+      <c r="M69" s="170" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O69" s="200" t="str">
         <f ca="1">IF(L69&gt;N69,G69,I69)</f>
-        <v>American</v>
-      </c>
-      <c r="P69" s="210" t="e" vm="73">
+        <v>Belmont</v>
+      </c>
+      <c r="P69" s="210" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23593,15 +23593,15 @@
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="91" t="str">
         <f ca="1">G70</f>
-        <v>Bucknell</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="B70" s="91" t="str">
         <f ca="1">I70</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="C70" s="91" t="str">
         <f ca="1">IF(O70="","",IF(A70=O70,B70,A70))</f>
-        <v>Bucknell</v>
+        <v>Colorado State</v>
       </c>
       <c r="D70" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O70,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O70,SeedInfo,2,FALSE)-VLOOKUP(C70,SeedInfo,2,FALSE),0)))</f>
@@ -23612,44 +23612,44 @@
       </c>
       <c r="F70" s="160" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_xlfn.XLOOKUP(G70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G70" s="161" t="str">
         <f ca="1">O66</f>
-        <v>Bucknell</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="H70" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="162" t="str">
         <f ca="1">O67</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="J70" s="163" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">_xlfn.XLOOKUP(I70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K70" s="164" t="e" vm="97">
+        <v>11</v>
+      </c>
+      <c r="K70" s="164" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(G70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="M70" s="164" t="e" vm="123">
+        <v>120</v>
+      </c>
+      <c r="M70" s="164" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O70" s="199" t="str">
         <f ca="1">IF(L70&gt;N70,G70,I70)</f>
-        <v>Columbia</v>
-      </c>
-      <c r="P70" s="213" t="e" vm="123">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P70" s="213" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23695,15 +23695,15 @@
     <row r="72" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91" t="str">
         <f ca="1">G72</f>
-        <v>American</v>
+        <v>Belmont</v>
       </c>
       <c r="B72" s="91" t="str">
         <f ca="1">I72</f>
-        <v>Columbia</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="C72" s="91" t="str">
         <f ca="1">IF(O72="","",IF(A72=O72,B72,A72))</f>
-        <v>Columbia</v>
+        <v>Belmont</v>
       </c>
       <c r="D72" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O72,SeedInfo,2,FALSE)*6,MAX(VLOOKUP(O72,SeedInfo,2,FALSE)-VLOOKUP(C72,SeedInfo,2,FALSE),0)))</f>
@@ -23714,44 +23714,44 @@
       </c>
       <c r="F72" s="154" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">_xlfn.XLOOKUP(G72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G72" s="155" t="str">
         <f ca="1">O69</f>
-        <v>American</v>
+        <v>Belmont</v>
       </c>
       <c r="H72" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="156" t="str">
         <f ca="1">O70</f>
-        <v>Columbia</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="J72" s="157" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">_xlfn.XLOOKUP(I72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K72" s="158" t="e" vm="73">
+        <v>14</v>
+      </c>
+      <c r="K72" s="158" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="M72" s="158" t="e" vm="123">
+        <v>90</v>
+      </c>
+      <c r="M72" s="158" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(I72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O72" s="198" t="str">
         <f ca="1">IF(L72&gt;N72,G72,I72)</f>
-        <v>American</v>
-      </c>
-      <c r="P72" s="205" t="e" vm="73">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P72" s="205" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -23798,7 +23798,7 @@
   <dimension ref="A1:AU70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -23851,47 +23851,47 @@
   <sheetData>
     <row r="1" spans="1:47" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="284" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="282"/>
-      <c r="T1" s="282"/>
-      <c r="U1" s="282"/>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="282"/>
-      <c r="AB1" s="282"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="282"/>
-      <c r="AG1" s="282"/>
-      <c r="AH1" s="282"/>
-      <c r="AI1" s="282"/>
-      <c r="AJ1" s="282"/>
-      <c r="AK1" s="282"/>
-      <c r="AL1" s="282"/>
-      <c r="AM1" s="282"/>
-      <c r="AN1" s="282"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="284"/>
+      <c r="K1" s="284"/>
+      <c r="L1" s="284"/>
+      <c r="M1" s="284"/>
+      <c r="N1" s="284"/>
+      <c r="O1" s="284"/>
+      <c r="P1" s="284"/>
+      <c r="Q1" s="284"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="284"/>
+      <c r="T1" s="284"/>
+      <c r="U1" s="284"/>
+      <c r="V1" s="284"/>
+      <c r="W1" s="284"/>
+      <c r="X1" s="284"/>
+      <c r="Y1" s="284"/>
+      <c r="Z1" s="284"/>
+      <c r="AA1" s="284"/>
+      <c r="AB1" s="284"/>
+      <c r="AC1" s="284"/>
+      <c r="AD1" s="284"/>
+      <c r="AE1" s="284"/>
+      <c r="AF1" s="284"/>
+      <c r="AG1" s="284"/>
+      <c r="AH1" s="284"/>
+      <c r="AI1" s="284"/>
+      <c r="AJ1" s="284"/>
+      <c r="AK1" s="284"/>
+      <c r="AL1" s="284"/>
+      <c r="AM1" s="284"/>
+      <c r="AN1" s="284"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:47" s="63" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -23923,13 +23923,13 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="284" t="s">
+      <c r="S2" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
+      <c r="T2" s="288"/>
+      <c r="U2" s="288"/>
+      <c r="V2" s="288"/>
+      <c r="W2" s="288"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
@@ -24007,7 +24007,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="17"/>
-      <c r="AQ3" s="278"/>
+      <c r="AQ3" s="291"/>
       <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
@@ -24039,7 +24039,7 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="278"/>
+      <c r="AQ4" s="291"/>
     </row>
     <row r="5" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -24056,19 +24056,19 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">Games!L5</f>
-        <v>102</v>
-      </c>
-      <c r="F5" s="259" t="str">
+        <v>105</v>
+      </c>
+      <c r="F5" s="265" t="str">
         <f ca="1">Games!O5</f>
         <v>Air Force</v>
       </c>
-      <c r="G5" s="262" t="e" vm="66">
+      <c r="G5" s="250" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(F5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="283">
+      <c r="H5" s="287">
         <f ca="1">Games!L38</f>
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -24086,21 +24086,21 @@
       <c r="AA5" s="25"/>
       <c r="AD5" s="25"/>
       <c r="AG5" s="25"/>
-      <c r="AH5" s="254">
+      <c r="AH5" s="267">
         <f ca="1">Games!L46</f>
-        <v>99</v>
-      </c>
-      <c r="AI5" s="250" t="e" vm="97">
+        <v>103</v>
+      </c>
+      <c r="AI5" s="300" t="e" vm="98">
         <f ca="1">_xlfn.XLOOKUP(AJ5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="259" t="str">
+      <c r="AJ5" s="265" t="str">
         <f ca="1">Games!O21</f>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="AK5" s="58">
         <f ca="1">Games!L21</f>
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AL5" s="46" t="e" vm="97">
         <f>_xlfn.XLOOKUP(AM5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24114,14 +24114,14 @@
         <v>1</v>
       </c>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="278"/>
+      <c r="AQ5" s="291"/>
       <c r="AU5" s="2" t="b">
         <f>IF(AP29="x",TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="258">
+      <c r="A6" s="286">
         <f>IF($AU$5=TRUE,1,"")</f>
         <v>1</v>
       </c>
@@ -24129,9 +24129,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="71"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="255"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="268"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="L6" s="25"/>
@@ -24148,20 +24148,20 @@
       <c r="AA6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AG6" s="25"/>
-      <c r="AH6" s="255"/>
-      <c r="AI6" s="251"/>
-      <c r="AJ6" s="260"/>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="301"/>
+      <c r="AJ6" s="266"/>
       <c r="AK6" s="55"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="28"/>
-      <c r="AO6" s="280">
+      <c r="AO6" s="290">
         <f>IF($AU$5=TRUE,A66+1,"")</f>
         <v>17</v>
       </c>
-      <c r="AQ6" s="278"/>
+      <c r="AQ6" s="291"/>
     </row>
     <row r="7" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="258"/>
+      <c r="A7" s="286"/>
       <c r="B7" s="27">
         <v>16</v>
       </c>
@@ -24175,25 +24175,25 @@
       </c>
       <c r="E7" s="48">
         <f ca="1">Games!N5</f>
-        <v>118</v>
-      </c>
-      <c r="F7" s="279">
+        <v>116</v>
+      </c>
+      <c r="F7" s="285">
         <f>IF($AU$5=TRUE,AO66+1,"")</f>
         <v>33</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="266" t="str">
+      <c r="I7" s="282" t="str">
         <f ca="1">Games!O38</f>
-        <v>Alabama</v>
-      </c>
-      <c r="J7" s="262" t="e" vm="68">
+        <v>Air Force</v>
+      </c>
+      <c r="J7" s="250" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="254">
+      <c r="K7" s="267">
         <f ca="1">Games!L55</f>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -24208,27 +24208,27 @@
       <c r="X7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="254">
+      <c r="AE7" s="267">
         <f ca="1">Games!L59</f>
-        <v>111</v>
-      </c>
-      <c r="AF7" s="250" t="e" vm="97">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="300" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(AG7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG7" s="259" t="str">
+      <c r="AG7" s="265" t="str">
         <f ca="1">Games!O46</f>
-        <v>Bucknell</v>
+        <v>Butler</v>
       </c>
       <c r="AH7" s="55"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="279">
+      <c r="AJ7" s="285">
         <f>IF($AU$5=TRUE,F63+1,"")</f>
         <v>41</v>
       </c>
       <c r="AK7" s="59">
         <f ca="1">Games!N21</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AL7" s="46" t="e" vm="98">
         <f>_xlfn.XLOOKUP(AM7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24241,20 +24241,20 @@
       <c r="AN7" s="27">
         <v>16</v>
       </c>
-      <c r="AO7" s="280"/>
-      <c r="AQ7" s="278"/>
+      <c r="AO7" s="290"/>
+      <c r="AQ7" s="291"/>
     </row>
     <row r="8" spans="1:47" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="71"/>
-      <c r="F8" s="258"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="15"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="255"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="268"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="O8" s="25"/>
@@ -24268,15 +24268,15 @@
       <c r="X8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="255"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="260"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="301"/>
+      <c r="AG8" s="266"/>
       <c r="AH8" s="56"/>
-      <c r="AJ8" s="258"/>
+      <c r="AJ8" s="286"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="17"/>
-      <c r="AQ8" s="278"/>
+      <c r="AQ8" s="291"/>
     </row>
     <row r="9" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
@@ -24293,19 +24293,19 @@
       </c>
       <c r="E9" s="46">
         <f ca="1">Games!L6</f>
-        <v>106</v>
-      </c>
-      <c r="F9" s="259" t="str">
+        <v>96</v>
+      </c>
+      <c r="F9" s="265" t="str">
         <f ca="1">Games!O6</f>
         <v>Alabama</v>
       </c>
-      <c r="G9" s="262" t="e" vm="68">
+      <c r="G9" s="250" t="e" vm="68">
         <f ca="1">_xlfn.XLOOKUP(F9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="272">
+      <c r="H9" s="280">
         <f ca="1">Games!N38</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -24325,21 +24325,21 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="55"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="256">
+      <c r="AH9" s="272">
         <f ca="1">Games!N46</f>
-        <v>95</v>
-      </c>
-      <c r="AI9" s="250" t="e" vm="99">
+        <v>104</v>
+      </c>
+      <c r="AI9" s="300" t="e" vm="99">
         <f ca="1">_xlfn.XLOOKUP(AJ9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ9" s="259" t="str">
+      <c r="AJ9" s="265" t="str">
         <f ca="1">Games!O22</f>
         <v>Butler</v>
       </c>
       <c r="AK9" s="58">
         <f ca="1">Games!L22</f>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AL9" s="46" t="e" vm="99">
         <f>_xlfn.XLOOKUP(AM9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24353,10 +24353,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="17"/>
-      <c r="AQ9" s="278"/>
+      <c r="AQ9" s="291"/>
     </row>
     <row r="10" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="281">
+      <c r="A10" s="289">
         <f>IF($AU$5=TRUE,A6+1,"")</f>
         <v>2</v>
       </c>
@@ -24364,9 +24364,9 @@
       <c r="C10" s="38"/>
       <c r="D10" s="71"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="263"/>
-      <c r="H10" s="273"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="281"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="50"/>
@@ -24385,20 +24385,20 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="56"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="251"/>
-      <c r="AJ10" s="260"/>
+      <c r="AH10" s="273"/>
+      <c r="AI10" s="301"/>
+      <c r="AJ10" s="266"/>
       <c r="AK10" s="55"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="28"/>
-      <c r="AO10" s="280">
+      <c r="AO10" s="290">
         <f>IF($AU$5=TRUE,AO6+1,"")</f>
         <v>18</v>
       </c>
-      <c r="AQ10" s="278"/>
+      <c r="AQ10" s="291"/>
     </row>
     <row r="11" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="281"/>
+      <c r="A11" s="289"/>
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -24412,55 +24412,55 @@
       </c>
       <c r="E11" s="48">
         <f ca="1">Games!N6</f>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="258">
+      <c r="I11" s="286">
         <f>IF($AU$5=TRUE,AJ63+1,"")</f>
         <v>49</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="266" t="str">
+      <c r="L11" s="282" t="str">
         <f ca="1">Games!O55</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="M11" s="262" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="M11" s="250" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(L11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="254">
+      <c r="N11" s="267">
         <f ca="1">Games!L64</f>
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="285" t="e" vm="73">
+      <c r="T11" s="254" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(S32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="286"/>
-      <c r="V11" s="287"/>
+      <c r="U11" s="255"/>
+      <c r="V11" s="256"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="254">
+      <c r="AB11" s="267">
         <f ca="1">Games!L66</f>
-        <v>112</v>
-      </c>
-      <c r="AC11" s="252" t="e" vm="97">
+        <v>90</v>
+      </c>
+      <c r="AC11" s="252" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AD11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="259" t="str">
+      <c r="AD11" s="265" t="str">
         <f ca="1">Games!O59</f>
-        <v>Bucknell</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="AE11" s="56"/>
-      <c r="AG11" s="258">
+      <c r="AG11" s="286">
         <f>IF($AU$5=TRUE,I59+1,"")</f>
         <v>53</v>
       </c>
@@ -24480,8 +24480,8 @@
       <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="280"/>
-      <c r="AQ11" s="278"/>
+      <c r="AO11" s="290"/>
+      <c r="AQ11" s="291"/>
     </row>
     <row r="12" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -24490,27 +24490,27 @@
       <c r="D12" s="71"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="258"/>
+      <c r="I12" s="286"/>
       <c r="J12" s="15"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="255"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="268"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="289"/>
-      <c r="V12" s="290"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="259"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="255"/>
+      <c r="AB12" s="268"/>
       <c r="AC12" s="253"/>
-      <c r="AD12" s="260"/>
+      <c r="AD12" s="266"/>
       <c r="AE12" s="56"/>
-      <c r="AG12" s="258"/>
+      <c r="AG12" s="286"/>
       <c r="AJ12" s="24"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="28"/>
@@ -24531,19 +24531,19 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">Games!L7</f>
-        <v>115</v>
-      </c>
-      <c r="F13" s="259" t="str">
+        <v>98</v>
+      </c>
+      <c r="F13" s="265" t="str">
         <f ca="1">Games!O7</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="G13" s="262" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="G13" s="250" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(F13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="254">
+      <c r="H13" s="267">
         <f ca="1">Games!L39</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -24555,9 +24555,9 @@
       <c r="P13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="288"/>
-      <c r="U13" s="289"/>
-      <c r="V13" s="290"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="259"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="AA13" s="25"/>
@@ -24565,7 +24565,7 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="56"/>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="254">
+      <c r="AH13" s="267">
         <f ca="1">Games!L47</f>
         <v>115</v>
       </c>
@@ -24573,13 +24573,13 @@
         <f ca="1">_xlfn.XLOOKUP(AJ13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ13" s="259" t="str">
+      <c r="AJ13" s="265" t="str">
         <f ca="1">Games!O23</f>
         <v>Cal State Fullerton</v>
       </c>
       <c r="AK13" s="58">
         <f ca="1">Games!L23</f>
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="46" t="e" vm="101">
         <f>_xlfn.XLOOKUP(AM13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24596,7 +24596,7 @@
       <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="258">
+      <c r="A14" s="286">
         <f>IF($AU$5=TRUE,A10+1,"")</f>
         <v>3</v>
       </c>
@@ -24604,9 +24604,9 @@
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="263"/>
-      <c r="H14" s="255"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="268"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="50"/>
@@ -24617,9 +24617,9 @@
       <c r="P14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="288"/>
-      <c r="U14" s="289"/>
-      <c r="V14" s="290"/>
+      <c r="T14" s="257"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="259"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="AA14" s="25"/>
@@ -24627,20 +24627,20 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="56"/>
       <c r="AG14" s="24"/>
-      <c r="AH14" s="255"/>
+      <c r="AH14" s="268"/>
       <c r="AI14" s="253"/>
-      <c r="AJ14" s="260"/>
+      <c r="AJ14" s="266"/>
       <c r="AK14" s="55"/>
       <c r="AM14" s="39"/>
       <c r="AN14" s="28"/>
-      <c r="AO14" s="280">
+      <c r="AO14" s="290">
         <f>IF($AU$5=TRUE,AO10+1,"")</f>
         <v>19</v>
       </c>
-      <c r="AQ14" s="278"/>
+      <c r="AQ14" s="291"/>
     </row>
     <row r="15" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="258"/>
+      <c r="A15" s="286"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -24654,25 +24654,25 @@
       </c>
       <c r="E15" s="48">
         <f ca="1">Games!N7</f>
-        <v>100</v>
-      </c>
-      <c r="F15" s="279">
+        <v>107</v>
+      </c>
+      <c r="F15" s="285">
         <f>IF($AU$5=TRUE,F7+1,"")</f>
         <v>34</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="266" t="str">
+      <c r="I15" s="282" t="str">
         <f ca="1">Games!O39</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="J15" s="262" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="J15" s="250" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="272">
+      <c r="K15" s="280">
         <f ca="1">Games!N55</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -24681,35 +24681,35 @@
       <c r="P15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="288"/>
-      <c r="U15" s="289"/>
-      <c r="V15" s="290"/>
+      <c r="T15" s="257"/>
+      <c r="U15" s="258"/>
+      <c r="V15" s="259"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="56"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="256">
+      <c r="AE15" s="272">
         <f ca="1">Games!N59</f>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AF15" s="252" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AG15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG15" s="259" t="str">
+      <c r="AG15" s="265" t="str">
         <f ca="1">Games!O47</f>
         <v>Cal State Fullerton</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="51"/>
-      <c r="AJ15" s="279">
+      <c r="AJ15" s="285">
         <f>IF($AU$5=TRUE,AJ7+1,"")</f>
         <v>42</v>
       </c>
       <c r="AK15" s="59">
         <f ca="1">Games!N23</f>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AL15" s="46" t="e" vm="102">
         <f>_xlfn.XLOOKUP(AM15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24722,20 +24722,20 @@
       <c r="AN15" s="27">
         <v>12</v>
       </c>
-      <c r="AO15" s="280"/>
-      <c r="AQ15" s="278"/>
+      <c r="AO15" s="290"/>
+      <c r="AQ15" s="291"/>
     </row>
     <row r="16" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="28"/>
       <c r="C16" s="38"/>
       <c r="D16" s="71"/>
-      <c r="F16" s="258"/>
+      <c r="F16" s="286"/>
       <c r="G16" s="15"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="267"/>
-      <c r="J16" s="263"/>
-      <c r="K16" s="273"/>
+      <c r="I16" s="283"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="281"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="50"/>
@@ -24743,23 +24743,23 @@
       <c r="P16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="288"/>
-      <c r="U16" s="289"/>
-      <c r="V16" s="290"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="258"/>
+      <c r="V16" s="259"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="56"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="257"/>
+      <c r="AE16" s="273"/>
       <c r="AF16" s="253"/>
-      <c r="AG16" s="260"/>
+      <c r="AG16" s="266"/>
       <c r="AH16" s="56"/>
-      <c r="AJ16" s="258"/>
+      <c r="AJ16" s="286"/>
       <c r="AM16" s="39"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="17"/>
-      <c r="AQ16" s="278"/>
+      <c r="AQ16" s="291"/>
     </row>
     <row r="17" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -24776,19 +24776,19 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">Games!L8</f>
-        <v>114</v>
-      </c>
-      <c r="F17" s="259" t="str">
+        <v>104</v>
+      </c>
+      <c r="F17" s="265" t="str">
         <f ca="1">Games!O8</f>
         <v>Alcorn State</v>
       </c>
-      <c r="G17" s="262" t="e" vm="72">
+      <c r="G17" s="250" t="e" vm="72">
         <f ca="1">_xlfn.XLOOKUP(F17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="272">
+      <c r="H17" s="280">
         <f ca="1">Games!N39</f>
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -24799,30 +24799,30 @@
       <c r="P17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="288"/>
-      <c r="U17" s="289"/>
-      <c r="V17" s="290"/>
+      <c r="T17" s="257"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="259"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="56"/>
       <c r="AD17" s="25"/>
       <c r="AG17" s="24"/>
-      <c r="AH17" s="256">
+      <c r="AH17" s="272">
         <f ca="1">Games!N47</f>
-        <v>109</v>
-      </c>
-      <c r="AI17" s="252" t="e" vm="104">
+        <v>92</v>
+      </c>
+      <c r="AI17" s="252" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AJ17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ17" s="259" t="str">
+      <c r="AJ17" s="265" t="str">
         <f ca="1">Games!O24</f>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="AK17" s="58">
         <f ca="1">Games!L24</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL17" s="46" t="e" vm="103">
         <f>_xlfn.XLOOKUP(AM17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24836,10 +24836,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="17"/>
-      <c r="AQ17" s="278"/>
+      <c r="AQ17" s="291"/>
     </row>
     <row r="18" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="258">
+      <c r="A18" s="286">
         <f>IF($AU$5=TRUE,A14+1,"")</f>
         <v>4</v>
       </c>
@@ -24847,9 +24847,9 @@
       <c r="C18" s="38"/>
       <c r="D18" s="71"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="273"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="281"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="L18" s="25"/>
@@ -24859,29 +24859,29 @@
       <c r="P18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="289"/>
-      <c r="V18" s="290"/>
+      <c r="T18" s="257"/>
+      <c r="U18" s="258"/>
+      <c r="V18" s="259"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="56"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="257"/>
+      <c r="AH18" s="273"/>
       <c r="AI18" s="253"/>
-      <c r="AJ18" s="260"/>
+      <c r="AJ18" s="266"/>
       <c r="AK18" s="55"/>
       <c r="AM18" s="39"/>
       <c r="AN18" s="28"/>
-      <c r="AO18" s="280">
+      <c r="AO18" s="290">
         <f>IF($AU$5=TRUE,AO14+1,"")</f>
         <v>20</v>
       </c>
-      <c r="AQ18" s="278"/>
+      <c r="AQ18" s="291"/>
     </row>
     <row r="19" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="258"/>
+      <c r="A19" s="286"/>
       <c r="B19" s="27">
         <v>13</v>
       </c>
@@ -24901,54 +24901,54 @@
       <c r="G19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="261" t="s">
+      <c r="K19" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="261"/>
+      <c r="L19" s="269"/>
       <c r="M19" s="20"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="266" t="str">
+      <c r="O19" s="282" t="str">
         <f ca="1">Games!O64</f>
-        <v>American</v>
-      </c>
-      <c r="P19" s="262" t="e" vm="73">
+        <v>Alabama State</v>
+      </c>
+      <c r="P19" s="250" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="254">
+      <c r="Q19" s="267">
         <f ca="1">Games!L69</f>
         <v>94</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="291"/>
-      <c r="U19" s="292"/>
-      <c r="V19" s="293"/>
+      <c r="T19" s="260"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="262"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="254">
+      <c r="Y19" s="267">
         <f ca="1">Games!L70</f>
-        <v>94</v>
-      </c>
-      <c r="Z19" s="252" t="e" vm="97">
+        <v>120</v>
+      </c>
+      <c r="Z19" s="252" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AA19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA19" s="259" t="str">
+      <c r="AA19" s="265" t="str">
         <f ca="1">Games!O66</f>
-        <v>Bucknell</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="AB19" s="56"/>
-      <c r="AD19" s="261" t="s">
+      <c r="AD19" s="269" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="261"/>
+      <c r="AE19" s="269"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="59">
         <f ca="1">Games!N24</f>
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL19" s="46" t="e" vm="104">
         <f>_xlfn.XLOOKUP(AM19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24961,8 +24961,8 @@
       <c r="AN19" s="27">
         <v>13</v>
       </c>
-      <c r="AO19" s="280"/>
-      <c r="AQ19" s="278"/>
+      <c r="AO19" s="290"/>
+      <c r="AQ19" s="291"/>
     </row>
     <row r="20" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
@@ -24973,13 +24973,13 @@
       <c r="G20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="261"/>
-      <c r="L20" s="261"/>
+      <c r="K20" s="269"/>
+      <c r="L20" s="269"/>
       <c r="M20" s="20"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="267"/>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="255"/>
+      <c r="O20" s="283"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="268"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -24987,12 +24987,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="255"/>
+      <c r="Y20" s="268"/>
       <c r="Z20" s="253"/>
-      <c r="AA20" s="260"/>
+      <c r="AA20" s="266"/>
       <c r="AB20" s="56"/>
-      <c r="AD20" s="261"/>
-      <c r="AE20" s="261"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="24"/>
       <c r="AJ20" s="24"/>
@@ -25002,7 +25002,7 @@
       <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="258">
+      <c r="A21" s="286">
         <f>IF($AU$5=TRUE,A18+1,"")</f>
         <v>5</v>
       </c>
@@ -25019,19 +25019,19 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">Games!L9</f>
-        <v>112</v>
-      </c>
-      <c r="F21" s="259" t="str">
+        <v>117</v>
+      </c>
+      <c r="F21" s="265" t="str">
         <f ca="1">Games!O9</f>
-        <v>American</v>
-      </c>
-      <c r="G21" s="262" t="e" vm="73">
+        <v>Appalachian State</v>
+      </c>
+      <c r="G21" s="250" t="e" vm="74">
         <f ca="1">_xlfn.XLOOKUP(F21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="254">
+      <c r="H21" s="267">
         <f ca="1">Games!L40</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -25059,21 +25059,21 @@
         <v>59</v>
       </c>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="254">
+      <c r="AH21" s="267">
         <f ca="1">Games!L48</f>
-        <v>97</v>
-      </c>
-      <c r="AI21" s="252" t="e" vm="106">
+        <v>90</v>
+      </c>
+      <c r="AI21" s="252" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(AJ21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ21" s="259" t="str">
+      <c r="AJ21" s="265" t="str">
         <f ca="1">Games!O25</f>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="AK21" s="58">
         <f ca="1">Games!L25</f>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AL21" s="46" t="e" vm="105">
         <f>_xlfn.XLOOKUP(AM21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25090,14 +25090,14 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="258"/>
+      <c r="A22" s="286"/>
       <c r="B22" s="28"/>
       <c r="C22" s="38"/>
       <c r="D22" s="71"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="263"/>
-      <c r="H22" s="255"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="268"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="L22" s="25"/>
@@ -25118,17 +25118,17 @@
       <c r="AB22" s="56"/>
       <c r="AD22" s="29"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="255"/>
+      <c r="AH22" s="268"/>
       <c r="AI22" s="253"/>
-      <c r="AJ22" s="260"/>
+      <c r="AJ22" s="266"/>
       <c r="AK22" s="55"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="28"/>
-      <c r="AO22" s="280">
+      <c r="AO22" s="290">
         <f>IF($AU$5=TRUE,AO18+1,"")</f>
         <v>21</v>
       </c>
-      <c r="AQ22" s="278"/>
+      <c r="AQ22" s="291"/>
     </row>
     <row r="23" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
@@ -25145,25 +25145,25 @@
       </c>
       <c r="E23" s="48">
         <f ca="1">Games!N9</f>
-        <v>106</v>
-      </c>
-      <c r="F23" s="279">
+        <v>118</v>
+      </c>
+      <c r="F23" s="285">
         <f>IF($AU$5=TRUE,F15+1,"")</f>
         <v>35</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="266" t="str">
+      <c r="I23" s="282" t="str">
         <f ca="1">Games!O40</f>
-        <v>American</v>
-      </c>
-      <c r="J23" s="262" t="e" vm="73">
+        <v>Arizona</v>
+      </c>
+      <c r="J23" s="250" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="254">
+      <c r="K23" s="267">
         <f ca="1">Games!L56</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -25182,27 +25182,27 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="56"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="254">
+      <c r="AE23" s="267">
         <f ca="1">Games!L60</f>
-        <v>92</v>
-      </c>
-      <c r="AF23" s="252" t="e" vm="107">
+        <v>120</v>
+      </c>
+      <c r="AF23" s="252" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AG23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG23" s="259" t="str">
+      <c r="AG23" s="265" t="str">
         <f ca="1">Games!O48</f>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="51"/>
-      <c r="AJ23" s="279">
+      <c r="AJ23" s="285">
         <f>IF($AU$5=TRUE,AJ15+1,"")</f>
         <v>43</v>
       </c>
       <c r="AK23" s="59">
         <f ca="1">Games!N25</f>
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="AL23" s="46" t="e" vm="106">
         <f>_xlfn.XLOOKUP(AM23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25215,20 +25215,20 @@
       <c r="AN23" s="27">
         <v>11</v>
       </c>
-      <c r="AO23" s="280"/>
-      <c r="AQ23" s="278"/>
+      <c r="AO23" s="290"/>
+      <c r="AQ23" s="291"/>
     </row>
     <row r="24" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="28"/>
       <c r="C24" s="38"/>
       <c r="D24" s="71"/>
-      <c r="F24" s="258"/>
+      <c r="F24" s="286"/>
       <c r="G24" s="15"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="267"/>
-      <c r="J24" s="263"/>
-      <c r="K24" s="255"/>
+      <c r="I24" s="283"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="268"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="50"/>
@@ -25246,15 +25246,15 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="56"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="255"/>
+      <c r="AE24" s="268"/>
       <c r="AF24" s="253"/>
-      <c r="AG24" s="260"/>
+      <c r="AG24" s="266"/>
       <c r="AH24" s="56"/>
-      <c r="AJ24" s="258"/>
+      <c r="AJ24" s="286"/>
       <c r="AM24" s="39"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="17"/>
-      <c r="AQ24" s="278"/>
+      <c r="AQ24" s="291"/>
     </row>
     <row r="25" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -25271,19 +25271,19 @@
       </c>
       <c r="E25" s="46">
         <f ca="1">Games!L10</f>
-        <v>110</v>
-      </c>
-      <c r="F25" s="259" t="str">
+        <v>120</v>
+      </c>
+      <c r="F25" s="265" t="str">
         <f ca="1">Games!O10</f>
         <v>Arizona</v>
       </c>
-      <c r="G25" s="262" t="e" vm="75">
+      <c r="G25" s="250" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(F25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="272">
+      <c r="H25" s="280">
         <f ca="1">Games!N40</f>
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -25307,21 +25307,21 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="55"/>
       <c r="AG25" s="24"/>
-      <c r="AH25" s="256">
+      <c r="AH25" s="272">
         <f ca="1">Games!N48</f>
-        <v>118</v>
-      </c>
-      <c r="AI25" s="252" t="e" vm="107">
+        <v>97</v>
+      </c>
+      <c r="AI25" s="252" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AJ25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ25" s="259" t="str">
+      <c r="AJ25" s="265" t="str">
         <f ca="1">Games!O26</f>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="AK25" s="58">
         <f ca="1">Games!L26</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AL25" s="46" t="e" vm="107">
         <f>_xlfn.XLOOKUP(AM25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25335,10 +25335,10 @@
         <v>3</v>
       </c>
       <c r="AO25" s="17"/>
-      <c r="AQ25" s="278"/>
+      <c r="AQ25" s="291"/>
     </row>
     <row r="26" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="258">
+      <c r="A26" s="286">
         <f>IF($AU$5=TRUE,A21+1,"")</f>
         <v>6</v>
       </c>
@@ -25346,9 +25346,9 @@
       <c r="C26" s="38"/>
       <c r="D26" s="71"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="273"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="281"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="50"/>
@@ -25371,20 +25371,20 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="56"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="257"/>
+      <c r="AH26" s="273"/>
       <c r="AI26" s="253"/>
-      <c r="AJ26" s="260"/>
+      <c r="AJ26" s="266"/>
       <c r="AK26" s="55"/>
       <c r="AM26" s="39"/>
       <c r="AN26" s="28"/>
-      <c r="AO26" s="280">
+      <c r="AO26" s="290">
         <f>IF($AU$5=TRUE,AO22+1,"")</f>
         <v>22</v>
       </c>
-      <c r="AQ26" s="278"/>
+      <c r="AQ26" s="291"/>
     </row>
     <row r="27" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="258"/>
+      <c r="A27" s="286"/>
       <c r="B27" s="27">
         <v>14</v>
       </c>
@@ -25398,70 +25398,70 @@
       </c>
       <c r="E27" s="48">
         <f ca="1">Games!N10</f>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" s="258">
+      <c r="I27" s="286">
         <f>IF($AU$5=TRUE,I11+1,"")</f>
         <v>50</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="266" t="str">
+      <c r="L27" s="282" t="str">
         <f ca="1">Games!O56</f>
-        <v>American</v>
-      </c>
-      <c r="M27" s="262" t="e" vm="73">
+        <v>Arkansas</v>
+      </c>
+      <c r="M27" s="250" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(L27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N27" s="272">
+      <c r="N27" s="280">
         <f ca="1">Games!N64</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="266" t="str">
+      <c r="R27" s="282" t="str">
         <f ca="1">Games!O69</f>
-        <v>American</v>
-      </c>
-      <c r="S27" s="259"/>
-      <c r="T27" s="259"/>
-      <c r="U27" s="274" t="e" vm="73">
+        <v>Belmont</v>
+      </c>
+      <c r="S27" s="265"/>
+      <c r="T27" s="265"/>
+      <c r="U27" s="292" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(R27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V27" s="276">
+      <c r="V27" s="270">
         <f ca="1">Games!L72</f>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="56"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="256">
+      <c r="AB27" s="272">
         <f ca="1">Games!N66</f>
-        <v>96</v>
-      </c>
-      <c r="AC27" s="252" t="e" vm="111">
+        <v>103</v>
+      </c>
+      <c r="AC27" s="252" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AD27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" s="259" t="str">
+      <c r="AD27" s="265" t="str">
         <f ca="1">Games!O60</f>
-        <v>Charleston Southern</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="AE27" s="56"/>
-      <c r="AG27" s="258">
+      <c r="AG27" s="286">
         <f>IF($AU$5=TRUE,AG11+1,"")</f>
         <v>54</v>
       </c>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="59">
         <f ca="1">Games!N26</f>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AL27" s="46" t="e" vm="108">
         <f>_xlfn.XLOOKUP(AM27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25474,8 +25474,8 @@
       <c r="AN27" s="27">
         <v>14</v>
       </c>
-      <c r="AO27" s="280"/>
-      <c r="AQ27" s="278"/>
+      <c r="AO27" s="290"/>
+      <c r="AQ27" s="291"/>
     </row>
     <row r="28" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
@@ -25484,29 +25484,29 @@
       <c r="D28" s="71"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" s="258"/>
+      <c r="I28" s="286"/>
       <c r="J28" s="15"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="267"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="273"/>
+      <c r="L28" s="283"/>
+      <c r="M28" s="251"/>
+      <c r="N28" s="281"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="267"/>
-      <c r="S28" s="260"/>
-      <c r="T28" s="260"/>
-      <c r="U28" s="275"/>
-      <c r="V28" s="277"/>
+      <c r="R28" s="283"/>
+      <c r="S28" s="266"/>
+      <c r="T28" s="266"/>
+      <c r="U28" s="293"/>
+      <c r="V28" s="271"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="56"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="257"/>
+      <c r="AB28" s="273"/>
       <c r="AC28" s="253"/>
-      <c r="AD28" s="260"/>
+      <c r="AD28" s="266"/>
       <c r="AE28" s="56"/>
-      <c r="AG28" s="258"/>
+      <c r="AG28" s="286"/>
       <c r="AJ28" s="24"/>
       <c r="AM28" s="39"/>
       <c r="AN28" s="28"/>
@@ -25527,19 +25527,19 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">Games!L11</f>
-        <v>120</v>
-      </c>
-      <c r="F29" s="259" t="str">
+        <v>117</v>
+      </c>
+      <c r="F29" s="265" t="str">
         <f ca="1">Games!O11</f>
         <v>Arkansas</v>
       </c>
-      <c r="G29" s="262" t="e" vm="77">
+      <c r="G29" s="250" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(F29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="254">
+      <c r="H29" s="267">
         <f ca="1">Games!L41</f>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -25561,21 +25561,21 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="56"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="254">
+      <c r="AH29" s="267">
         <f ca="1">Games!L49</f>
-        <v>99</v>
-      </c>
-      <c r="AI29" s="252" t="e" vm="110">
+        <v>92</v>
+      </c>
+      <c r="AI29" s="252" t="e" vm="109">
         <f ca="1">_xlfn.XLOOKUP(AJ29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ29" s="259" t="str">
+      <c r="AJ29" s="265" t="str">
         <f ca="1">Games!O27</f>
-        <v>Central Michigan</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="AK29" s="58">
         <f ca="1">Games!L27</f>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AL29" s="46" t="e" vm="109">
         <f>_xlfn.XLOOKUP(AM29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25597,7 +25597,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="258">
+      <c r="A30" s="286">
         <f>IF($AU$5=TRUE,A26+1,"")</f>
         <v>7</v>
       </c>
@@ -25605,9 +25605,9 @@
       <c r="C30" s="38"/>
       <c r="D30" s="71"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="263"/>
-      <c r="H30" s="255"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="268"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="50"/>
@@ -25628,19 +25628,19 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="56"/>
       <c r="AG30" s="24"/>
-      <c r="AH30" s="255"/>
+      <c r="AH30" s="268"/>
       <c r="AI30" s="253"/>
-      <c r="AJ30" s="260"/>
+      <c r="AJ30" s="266"/>
       <c r="AK30" s="55"/>
       <c r="AM30" s="39"/>
       <c r="AN30" s="28"/>
-      <c r="AO30" s="280">
+      <c r="AO30" s="290">
         <f>IF($AU$5=TRUE,AO26+1,"")</f>
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="258"/>
+      <c r="A31" s="286"/>
       <c r="B31" s="27">
         <v>10</v>
       </c>
@@ -25654,25 +25654,25 @@
       </c>
       <c r="E31" s="48">
         <f ca="1">Games!N11</f>
-        <v>91</v>
-      </c>
-      <c r="F31" s="279">
+        <v>93</v>
+      </c>
+      <c r="F31" s="285">
         <f>IF($AU$5=TRUE,F23+1,"")</f>
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="266" t="str">
+      <c r="I31" s="282" t="str">
         <f ca="1">Games!O41</f>
-        <v>Army</v>
-      </c>
-      <c r="J31" s="262" t="e" vm="80">
+        <v>Arkansas</v>
+      </c>
+      <c r="J31" s="250" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="272">
+      <c r="K31" s="280">
         <f ca="1">Games!N56</f>
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -25680,38 +25680,38 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="289" t="s">
+      <c r="S31" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="289"/>
-      <c r="U31" s="289"/>
-      <c r="V31" s="289"/>
-      <c r="W31" s="289"/>
+      <c r="T31" s="258"/>
+      <c r="U31" s="258"/>
+      <c r="V31" s="258"/>
+      <c r="W31" s="258"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="56"/>
       <c r="AA31" s="25"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="256">
+      <c r="AE31" s="272">
         <f ca="1">Games!N60</f>
-        <v>113</v>
-      </c>
-      <c r="AF31" s="252" t="e" vm="111">
+        <v>97</v>
+      </c>
+      <c r="AF31" s="252" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(AG31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG31" s="259" t="str">
+      <c r="AG31" s="265" t="str">
         <f ca="1">Games!O49</f>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="51"/>
-      <c r="AJ31" s="279">
+      <c r="AJ31" s="285">
         <f>IF($AU$5=TRUE,AJ23+1,"")</f>
         <v>44</v>
       </c>
       <c r="AK31" s="59">
         <f ca="1">Games!N27</f>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="AL31" s="46" t="e" vm="110">
         <f>_xlfn.XLOOKUP(AM31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25724,42 +25724,42 @@
       <c r="AN31" s="27">
         <v>10</v>
       </c>
-      <c r="AO31" s="280"/>
+      <c r="AO31" s="290"/>
     </row>
     <row r="32" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="28"/>
       <c r="C32" s="38"/>
       <c r="D32" s="71"/>
-      <c r="F32" s="258"/>
+      <c r="F32" s="286"/>
       <c r="G32" s="15"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="263"/>
-      <c r="K32" s="273"/>
+      <c r="I32" s="283"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="281"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="30"/>
-      <c r="S32" s="296" t="str">
+      <c r="S32" s="274" t="str">
         <f ca="1">Games!O72</f>
-        <v>American</v>
-      </c>
-      <c r="T32" s="297"/>
-      <c r="U32" s="297"/>
-      <c r="V32" s="297"/>
-      <c r="W32" s="298"/>
+        <v>Central Arkansas</v>
+      </c>
+      <c r="T32" s="275"/>
+      <c r="U32" s="275"/>
+      <c r="V32" s="275"/>
+      <c r="W32" s="276"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="56"/>
       <c r="AA32" s="25"/>
       <c r="AD32" s="25"/>
-      <c r="AE32" s="257"/>
+      <c r="AE32" s="273"/>
       <c r="AF32" s="253"/>
-      <c r="AG32" s="260"/>
+      <c r="AG32" s="266"/>
       <c r="AH32" s="56"/>
-      <c r="AJ32" s="258"/>
+      <c r="AJ32" s="286"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="17"/>
@@ -25779,19 +25779,19 @@
       </c>
       <c r="E33" s="46">
         <f ca="1">Games!L12</f>
-        <v>95</v>
-      </c>
-      <c r="F33" s="259" t="str">
+        <v>113</v>
+      </c>
+      <c r="F33" s="265" t="str">
         <f ca="1">Games!O12</f>
         <v>Army</v>
       </c>
-      <c r="G33" s="262" t="e" vm="80">
+      <c r="G33" s="250" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(F33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="272">
+      <c r="H33" s="280">
         <f ca="1">Games!N41</f>
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -25801,31 +25801,31 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="30"/>
-      <c r="S33" s="299"/>
-      <c r="T33" s="300"/>
-      <c r="U33" s="300"/>
-      <c r="V33" s="300"/>
-      <c r="W33" s="301"/>
+      <c r="S33" s="277"/>
+      <c r="T33" s="278"/>
+      <c r="U33" s="278"/>
+      <c r="V33" s="278"/>
+      <c r="W33" s="279"/>
       <c r="X33" s="31"/>
       <c r="Y33" s="56"/>
       <c r="AA33" s="25"/>
       <c r="AD33" s="25"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="256">
+      <c r="AH33" s="272">
         <f ca="1">Games!N49</f>
-        <v>116</v>
-      </c>
-      <c r="AI33" s="252" t="e" vm="111">
+        <v>100</v>
+      </c>
+      <c r="AI33" s="252" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(AJ33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ33" s="259" t="str">
+      <c r="AJ33" s="265" t="str">
         <f ca="1">Games!O28</f>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="AK33" s="58">
         <f ca="1">Games!L28</f>
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="AL33" s="46" t="e" vm="111">
         <f>_xlfn.XLOOKUP(AM33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25842,7 +25842,7 @@
       <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="258">
+      <c r="A34" s="286">
         <f>IF($AU$5=TRUE,A30+1,"")</f>
         <v>8</v>
       </c>
@@ -25850,9 +25850,9 @@
       <c r="C34" s="38"/>
       <c r="D34" s="71"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="260"/>
-      <c r="G34" s="263"/>
-      <c r="H34" s="273"/>
+      <c r="F34" s="266"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="281"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="L34" s="25"/>
@@ -25871,20 +25871,20 @@
       <c r="AA34" s="25"/>
       <c r="AD34" s="25"/>
       <c r="AG34" s="24"/>
-      <c r="AH34" s="257"/>
+      <c r="AH34" s="273"/>
       <c r="AI34" s="253"/>
-      <c r="AJ34" s="260"/>
+      <c r="AJ34" s="266"/>
       <c r="AK34" s="55"/>
       <c r="AM34" s="39"/>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="280">
+      <c r="AO34" s="290">
         <f>IF($AU$5=TRUE,AO30+1,"")</f>
         <v>24</v>
       </c>
-      <c r="AQ34" s="278"/>
+      <c r="AQ34" s="291"/>
     </row>
     <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="258"/>
+      <c r="A35" s="286"/>
       <c r="B35" s="27">
         <v>15</v>
       </c>
@@ -25898,7 +25898,7 @@
       </c>
       <c r="E35" s="48">
         <f ca="1">Games!N12</f>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -25914,12 +25914,12 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="258">
+      <c r="T35" s="286">
         <f>IF($AU$5=TRUE,AA35+1,"")</f>
         <v>63</v>
       </c>
-      <c r="U35" s="258"/>
-      <c r="V35" s="258"/>
+      <c r="U35" s="286"/>
+      <c r="V35" s="286"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="56"/>
@@ -25932,7 +25932,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="59">
         <f ca="1">Games!N28</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL35" s="46" t="e" vm="112">
         <f>_xlfn.XLOOKUP(AM35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25945,8 +25945,8 @@
       <c r="AN35" s="27">
         <v>15</v>
       </c>
-      <c r="AO35" s="280"/>
-      <c r="AQ35" s="278"/>
+      <c r="AO35" s="290"/>
+      <c r="AQ35" s="291"/>
     </row>
     <row r="36" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
@@ -25977,7 +25977,7 @@
       <c r="AM36" s="39"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="17"/>
-      <c r="AQ36" s="278"/>
+      <c r="AQ36" s="291"/>
     </row>
     <row r="37" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
@@ -25994,19 +25994,19 @@
       </c>
       <c r="E37" s="46">
         <f ca="1">Games!L13</f>
-        <v>94</v>
-      </c>
-      <c r="F37" s="259" t="str">
+        <v>92</v>
+      </c>
+      <c r="F37" s="265" t="str">
         <f ca="1">Games!O13</f>
         <v>Austin Peay</v>
       </c>
-      <c r="G37" s="262" t="e" vm="82">
+      <c r="G37" s="250" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(F37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="254">
+      <c r="H37" s="267">
         <f ca="1">Games!L42</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -26026,21 +26026,21 @@
       <c r="AA37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AG37" s="24"/>
-      <c r="AH37" s="254">
+      <c r="AH37" s="267">
         <f ca="1">Games!L50</f>
-        <v>92</v>
-      </c>
-      <c r="AI37" s="252" t="e" vm="114">
+        <v>108</v>
+      </c>
+      <c r="AI37" s="252" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(AJ37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ37" s="259" t="str">
+      <c r="AJ37" s="265" t="str">
         <f ca="1">Games!O29</f>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="AK37" s="58">
         <f ca="1">Games!L29</f>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AL37" s="46" t="e" vm="113">
         <f>_xlfn.XLOOKUP(AM37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26054,10 +26054,10 @@
         <v>1</v>
       </c>
       <c r="AO37" s="17"/>
-      <c r="AQ37" s="278"/>
+      <c r="AQ37" s="291"/>
     </row>
     <row r="38" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="258">
+      <c r="A38" s="286">
         <f>IF($AU$5=TRUE,A34+1,"")</f>
         <v>9</v>
       </c>
@@ -26065,9 +26065,9 @@
       <c r="C38" s="38"/>
       <c r="D38" s="71"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="263"/>
-      <c r="H38" s="255"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="251"/>
+      <c r="H38" s="268"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -26086,19 +26086,19 @@
       <c r="AA38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AG38" s="24"/>
-      <c r="AH38" s="255"/>
+      <c r="AH38" s="268"/>
       <c r="AI38" s="253"/>
-      <c r="AJ38" s="260"/>
+      <c r="AJ38" s="266"/>
       <c r="AK38" s="55"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="280">
+      <c r="AO38" s="290">
         <f>IF($AU$5=TRUE,AO34+1,"")</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="258"/>
+      <c r="A39" s="286"/>
       <c r="B39" s="27">
         <v>16</v>
       </c>
@@ -26112,25 +26112,25 @@
       </c>
       <c r="E39" s="48">
         <f ca="1">Games!N13</f>
-        <v>101</v>
-      </c>
-      <c r="F39" s="279">
+        <v>117</v>
+      </c>
+      <c r="F39" s="285">
         <f>IF($AU$5=TRUE,F31+1,"")</f>
         <v>37</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="266" t="str">
+      <c r="I39" s="282" t="str">
         <f ca="1">Games!O42</f>
         <v>Austin Peay</v>
       </c>
-      <c r="J39" s="262" t="e" vm="82">
+      <c r="J39" s="250" t="e" vm="82">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="254">
+      <c r="K39" s="267">
         <f ca="1">Games!L57</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -26139,38 +26139,38 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="276">
+      <c r="T39" s="270">
         <f ca="1">Games!N72</f>
-        <v>94</v>
-      </c>
-      <c r="U39" s="268" t="e" vm="123">
+        <v>95</v>
+      </c>
+      <c r="U39" s="296" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(V39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="259" t="str">
+      <c r="V39" s="265" t="str">
         <f ca="1">Games!O70</f>
-        <v>Columbia</v>
-      </c>
-      <c r="W39" s="259"/>
-      <c r="X39" s="270"/>
+        <v>Central Arkansas</v>
+      </c>
+      <c r="W39" s="265"/>
+      <c r="X39" s="298"/>
       <c r="Y39" s="56"/>
       <c r="AA39" s="25"/>
       <c r="AD39" s="25"/>
-      <c r="AE39" s="256">
+      <c r="AE39" s="272">
         <f ca="1">Games!L61</f>
-        <v>99</v>
-      </c>
-      <c r="AF39" s="252" t="e" vm="115">
+        <v>105</v>
+      </c>
+      <c r="AF39" s="252" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(AG39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG39" s="259" t="str">
+      <c r="AG39" s="265" t="str">
         <f ca="1">Games!O50</f>
-        <v>Cincinnati</v>
+        <v>Chattanooga</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="51"/>
-      <c r="AJ39" s="279">
+      <c r="AJ39" s="285">
         <f>IF($AU$5=TRUE,AJ31+1,"")</f>
         <v>45</v>
       </c>
@@ -26189,19 +26189,19 @@
       <c r="AN39" s="27">
         <v>16</v>
       </c>
-      <c r="AO39" s="280"/>
+      <c r="AO39" s="290"/>
     </row>
     <row r="40" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="71"/>
-      <c r="F40" s="258"/>
+      <c r="F40" s="286"/>
       <c r="G40" s="15"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="263"/>
-      <c r="K40" s="255"/>
+      <c r="I40" s="283"/>
+      <c r="J40" s="251"/>
+      <c r="K40" s="268"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="O40" s="25"/>
@@ -26209,19 +26209,19 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="277"/>
-      <c r="U40" s="269"/>
-      <c r="V40" s="260"/>
-      <c r="W40" s="260"/>
-      <c r="X40" s="271"/>
+      <c r="T40" s="271"/>
+      <c r="U40" s="297"/>
+      <c r="V40" s="266"/>
+      <c r="W40" s="266"/>
+      <c r="X40" s="299"/>
       <c r="Y40" s="56"/>
       <c r="AA40" s="25"/>
       <c r="AD40" s="25"/>
-      <c r="AE40" s="257"/>
+      <c r="AE40" s="273"/>
       <c r="AF40" s="253"/>
-      <c r="AG40" s="260"/>
+      <c r="AG40" s="266"/>
       <c r="AH40" s="56"/>
-      <c r="AJ40" s="258"/>
+      <c r="AJ40" s="286"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="28"/>
       <c r="AO40" s="17"/>
@@ -26241,19 +26241,19 @@
       </c>
       <c r="E41" s="46">
         <f ca="1">Games!L14</f>
-        <v>118</v>
-      </c>
-      <c r="F41" s="259" t="str">
+        <v>111</v>
+      </c>
+      <c r="F41" s="265" t="str">
         <f ca="1">Games!O14</f>
-        <v>Ball State</v>
-      </c>
-      <c r="G41" s="262" t="e" vm="83">
+        <v>Baylor</v>
+      </c>
+      <c r="G41" s="250" t="e" vm="84">
         <f ca="1">_xlfn.XLOOKUP(F41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="272">
+      <c r="H41" s="280">
         <f ca="1">Games!N42</f>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -26275,21 +26275,21 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="55"/>
       <c r="AG41" s="24"/>
-      <c r="AH41" s="256">
+      <c r="AH41" s="272">
         <f ca="1">Games!N50</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI41" s="252" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AJ41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ41" s="259" t="str">
+      <c r="AJ41" s="265" t="str">
         <f ca="1">Games!O30</f>
         <v>Cincinnati</v>
       </c>
       <c r="AK41" s="58">
         <f ca="1">Games!L30</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AL41" s="46" t="e" vm="115">
         <f>_xlfn.XLOOKUP(AM41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26305,7 +26305,7 @@
       <c r="AO41" s="17"/>
     </row>
     <row r="42" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="258">
+      <c r="A42" s="286">
         <f>IF($AU$5=TRUE,A38+1,"")</f>
         <v>10</v>
       </c>
@@ -26313,9 +26313,9 @@
       <c r="C42" s="38"/>
       <c r="D42" s="71"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="260"/>
-      <c r="G42" s="263"/>
-      <c r="H42" s="273"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="251"/>
+      <c r="H42" s="281"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="50"/>
@@ -26336,19 +26336,19 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="56"/>
       <c r="AG42" s="24"/>
-      <c r="AH42" s="257"/>
+      <c r="AH42" s="273"/>
       <c r="AI42" s="253"/>
-      <c r="AJ42" s="260"/>
+      <c r="AJ42" s="266"/>
       <c r="AK42" s="55"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="28"/>
-      <c r="AO42" s="280">
+      <c r="AO42" s="290">
         <f>IF($AU$5=TRUE,AO38+1,"")</f>
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="258"/>
+      <c r="A43" s="286"/>
       <c r="B43" s="27">
         <v>9</v>
       </c>
@@ -26362,27 +26362,27 @@
       </c>
       <c r="E43" s="48">
         <f ca="1">Games!N14</f>
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" s="258">
+      <c r="I43" s="286">
         <f>IF($AU$5=TRUE,I27+1,"")</f>
         <v>51</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="266" t="str">
+      <c r="L43" s="282" t="str">
         <f ca="1">Games!O57</f>
-        <v>Austin Peay</v>
-      </c>
-      <c r="M43" s="262" t="e" vm="82">
+        <v>Belmont</v>
+      </c>
+      <c r="M43" s="250" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(L43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="254">
+      <c r="N43" s="267">
         <f ca="1">Games!L65</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -26396,27 +26396,27 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="56"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="254">
+      <c r="AB43" s="267">
         <f ca="1">Games!L67</f>
-        <v>94</v>
-      </c>
-      <c r="AC43" s="252" t="e" vm="120">
+        <v>96</v>
+      </c>
+      <c r="AC43" s="252" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(AD43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD43" s="264" t="str">
+      <c r="AD43" s="294" t="str">
         <f ca="1">Games!O61</f>
-        <v>College of Charleston</v>
+        <v>Chattanooga</v>
       </c>
       <c r="AE43" s="56"/>
-      <c r="AG43" s="258">
+      <c r="AG43" s="286">
         <f>IF($AU$5=TRUE,AG27+1,"")</f>
         <v>55</v>
       </c>
       <c r="AJ43" s="24"/>
       <c r="AK43" s="59">
         <f ca="1">Games!N30</f>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AL43" s="46" t="e" vm="116">
         <f>_xlfn.XLOOKUP(AM43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26429,7 +26429,7 @@
       <c r="AN43" s="27">
         <v>9</v>
       </c>
-      <c r="AO43" s="280"/>
+      <c r="AO43" s="290"/>
     </row>
     <row r="44" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
@@ -26438,12 +26438,12 @@
       <c r="D44" s="71"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="I44" s="258"/>
+      <c r="I44" s="286"/>
       <c r="J44" s="15"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="267"/>
-      <c r="M44" s="263"/>
-      <c r="N44" s="255"/>
+      <c r="L44" s="283"/>
+      <c r="M44" s="251"/>
+      <c r="N44" s="268"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="50"/>
@@ -26456,11 +26456,11 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="56"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="255"/>
+      <c r="AB44" s="268"/>
       <c r="AC44" s="253"/>
-      <c r="AD44" s="265"/>
+      <c r="AD44" s="295"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="258"/>
+      <c r="AG44" s="286"/>
       <c r="AJ44" s="24"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="28"/>
@@ -26481,19 +26481,19 @@
       </c>
       <c r="E45" s="46">
         <f ca="1">Games!L15</f>
-        <v>105</v>
-      </c>
-      <c r="F45" s="259" t="str">
+        <v>116</v>
+      </c>
+      <c r="F45" s="265" t="str">
         <f ca="1">Games!O15</f>
         <v>Belmont</v>
       </c>
-      <c r="G45" s="262" t="e" vm="86">
+      <c r="G45" s="250" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(F45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="254">
+      <c r="H45" s="267">
         <f ca="1">Games!L43</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -26517,21 +26517,21 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="56"/>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="254">
+      <c r="AH45" s="267">
         <f ca="1">Games!L51</f>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AI45" s="252" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(AJ45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ45" s="259" t="str">
+      <c r="AJ45" s="265" t="str">
         <f ca="1">Games!O31</f>
         <v>Cleveland State</v>
       </c>
       <c r="AK45" s="58">
         <f ca="1">Games!L31</f>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AL45" s="46" t="e" vm="117">
         <f>_xlfn.XLOOKUP(AM45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26547,7 +26547,7 @@
       <c r="AO45" s="17"/>
     </row>
     <row r="46" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="258">
+      <c r="A46" s="286">
         <f>IF($AU$5=TRUE,A42+1,"")</f>
         <v>11</v>
       </c>
@@ -26555,9 +26555,9 @@
       <c r="C46" s="38"/>
       <c r="D46" s="71"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="260"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="255"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="251"/>
+      <c r="H46" s="268"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="50"/>
@@ -26580,19 +26580,19 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="24"/>
-      <c r="AH46" s="255"/>
+      <c r="AH46" s="268"/>
       <c r="AI46" s="253"/>
-      <c r="AJ46" s="260"/>
+      <c r="AJ46" s="266"/>
       <c r="AK46" s="55"/>
       <c r="AM46" s="39"/>
       <c r="AN46" s="28"/>
-      <c r="AO46" s="280">
+      <c r="AO46" s="290">
         <f>IF($AU$5=TRUE,AO42+1,"")</f>
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="258"/>
+      <c r="A47" s="286"/>
       <c r="B47" s="27">
         <v>12</v>
       </c>
@@ -26606,25 +26606,25 @@
       </c>
       <c r="E47" s="48">
         <f ca="1">Games!N15</f>
-        <v>113</v>
-      </c>
-      <c r="F47" s="279">
+        <v>116</v>
+      </c>
+      <c r="F47" s="285">
         <f>IF($AU$5=TRUE,F39+1,"")</f>
         <v>38</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="266" t="str">
+      <c r="I47" s="282" t="str">
         <f ca="1">Games!O43</f>
         <v>Belmont</v>
       </c>
-      <c r="J47" s="262" t="e" vm="86">
+      <c r="J47" s="250" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="272">
+      <c r="K47" s="280">
         <f ca="1">Games!N57</f>
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -26643,27 +26643,27 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="56"/>
       <c r="AD47" s="25"/>
-      <c r="AE47" s="256">
+      <c r="AE47" s="272">
         <f ca="1">Games!N61</f>
-        <v>109</v>
-      </c>
-      <c r="AF47" s="252" t="e" vm="120">
+        <v>99</v>
+      </c>
+      <c r="AF47" s="252" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(AG47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG47" s="259" t="str">
+      <c r="AG47" s="265" t="str">
         <f ca="1">Games!O51</f>
-        <v>College of Charleston</v>
+        <v>Colgate</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="51"/>
-      <c r="AJ47" s="279">
+      <c r="AJ47" s="285">
         <f>IF($AU$5=TRUE,AJ39+1,"")</f>
         <v>46</v>
       </c>
       <c r="AK47" s="59">
         <f ca="1">Games!N31</f>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AL47" s="46" t="e" vm="118">
         <f>_xlfn.XLOOKUP(AM47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26676,19 +26676,19 @@
       <c r="AN47" s="27">
         <v>12</v>
       </c>
-      <c r="AO47" s="280"/>
+      <c r="AO47" s="290"/>
     </row>
     <row r="48" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="28"/>
       <c r="C48" s="38"/>
       <c r="D48" s="71"/>
-      <c r="F48" s="258"/>
+      <c r="F48" s="286"/>
       <c r="G48" s="15"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="267"/>
-      <c r="J48" s="263"/>
-      <c r="K48" s="273"/>
+      <c r="I48" s="283"/>
+      <c r="J48" s="251"/>
+      <c r="K48" s="281"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="50"/>
@@ -26706,11 +26706,11 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="56"/>
       <c r="AD48" s="25"/>
-      <c r="AE48" s="257"/>
+      <c r="AE48" s="273"/>
       <c r="AF48" s="253"/>
-      <c r="AG48" s="260"/>
+      <c r="AG48" s="266"/>
       <c r="AH48" s="56"/>
-      <c r="AJ48" s="258"/>
+      <c r="AJ48" s="286"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="17"/>
@@ -26730,19 +26730,19 @@
       </c>
       <c r="E49" s="46">
         <f ca="1">Games!L16</f>
-        <v>117</v>
-      </c>
-      <c r="F49" s="259" t="str">
+        <v>116</v>
+      </c>
+      <c r="F49" s="265" t="str">
         <f ca="1">Games!O16</f>
         <v>Bethune-Cookman</v>
       </c>
-      <c r="G49" s="262" t="e" vm="87">
+      <c r="G49" s="250" t="e" vm="87">
         <f ca="1">_xlfn.XLOOKUP(F49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="272">
+      <c r="H49" s="280">
         <f ca="1">Games!N43</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -26764,21 +26764,21 @@
       <c r="AB49" s="56"/>
       <c r="AD49" s="25"/>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="256">
+      <c r="AH49" s="272">
         <f ca="1">Games!N51</f>
-        <v>118</v>
-      </c>
-      <c r="AI49" s="252" t="e" vm="120">
+        <v>117</v>
+      </c>
+      <c r="AI49" s="252" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(AJ49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ49" s="259" t="str">
+      <c r="AJ49" s="265" t="str">
         <f ca="1">Games!O32</f>
-        <v>College of Charleston</v>
+        <v>Colgate</v>
       </c>
       <c r="AK49" s="58">
         <f ca="1">Games!L32</f>
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="AL49" s="46" t="e" vm="119">
         <f>_xlfn.XLOOKUP(AM49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26794,7 +26794,7 @@
       <c r="AO49" s="17"/>
     </row>
     <row r="50" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="258">
+      <c r="A50" s="286">
         <f>IF($AU$5=TRUE,A46+1,"")</f>
         <v>12</v>
       </c>
@@ -26802,9 +26802,9 @@
       <c r="C50" s="38"/>
       <c r="D50" s="71"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="260"/>
-      <c r="G50" s="263"/>
-      <c r="H50" s="273"/>
+      <c r="F50" s="266"/>
+      <c r="G50" s="251"/>
+      <c r="H50" s="281"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="L50" s="25"/>
@@ -26825,19 +26825,19 @@
       <c r="AB50" s="56"/>
       <c r="AD50" s="25"/>
       <c r="AG50" s="24"/>
-      <c r="AH50" s="257"/>
+      <c r="AH50" s="273"/>
       <c r="AI50" s="253"/>
-      <c r="AJ50" s="260"/>
+      <c r="AJ50" s="266"/>
       <c r="AK50" s="55"/>
       <c r="AM50" s="39"/>
       <c r="AN50" s="28"/>
-      <c r="AO50" s="280">
+      <c r="AO50" s="290">
         <f>IF($AU$5=TRUE,AO46+1,"")</f>
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="258"/>
+      <c r="A51" s="286"/>
       <c r="B51" s="27">
         <v>13</v>
       </c>
@@ -26851,29 +26851,29 @@
       </c>
       <c r="E51" s="48">
         <f ca="1">Games!N16</f>
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="261" t="s">
+      <c r="K51" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="261"/>
+      <c r="L51" s="269"/>
       <c r="M51" s="20"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="266" t="str">
+      <c r="O51" s="282" t="str">
         <f ca="1">Games!O65</f>
-        <v>Bradley</v>
-      </c>
-      <c r="P51" s="262" t="e" vm="93">
+        <v>Belmont</v>
+      </c>
+      <c r="P51" s="250" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="272">
+      <c r="Q51" s="280">
         <f ca="1">Games!N69</f>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
@@ -26882,29 +26882,29 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="256">
+      <c r="Y51" s="272">
         <f ca="1">Games!N70</f>
-        <v>118</v>
-      </c>
-      <c r="Z51" s="252" t="e" vm="123">
+        <v>117</v>
+      </c>
+      <c r="Z51" s="252" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AA51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA51" s="259" t="str">
+      <c r="AA51" s="265" t="str">
         <f ca="1">Games!O67</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="AB51" s="56"/>
-      <c r="AD51" s="261" t="s">
+      <c r="AD51" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="AE51" s="261"/>
+      <c r="AE51" s="269"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="24"/>
       <c r="AJ51" s="24"/>
       <c r="AK51" s="59">
         <f ca="1">Games!N32</f>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AL51" s="46" t="e" vm="120">
         <f>_xlfn.XLOOKUP(AM51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -26917,7 +26917,7 @@
       <c r="AN51" s="27">
         <v>13</v>
       </c>
-      <c r="AO51" s="280"/>
+      <c r="AO51" s="290"/>
     </row>
     <row r="52" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
@@ -26928,13 +26928,13 @@
       <c r="G52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="261"/>
-      <c r="L52" s="261"/>
+      <c r="K52" s="269"/>
+      <c r="L52" s="269"/>
       <c r="M52" s="20"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="267"/>
-      <c r="P52" s="263"/>
-      <c r="Q52" s="273"/>
+      <c r="O52" s="283"/>
+      <c r="P52" s="251"/>
+      <c r="Q52" s="281"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -26942,12 +26942,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="257"/>
+      <c r="Y52" s="273"/>
       <c r="Z52" s="253"/>
-      <c r="AA52" s="260"/>
+      <c r="AA52" s="266"/>
       <c r="AB52" s="56"/>
-      <c r="AD52" s="261"/>
-      <c r="AE52" s="261"/>
+      <c r="AD52" s="269"/>
+      <c r="AE52" s="269"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="24"/>
       <c r="AJ52" s="24"/>
@@ -26972,17 +26972,17 @@
         <f ca="1">Games!L17</f>
         <v>107</v>
       </c>
-      <c r="F53" s="259" t="str">
+      <c r="F53" s="265" t="str">
         <f ca="1">Games!O17</f>
-        <v>Boston College</v>
-      </c>
-      <c r="G53" s="262" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="G53" s="250" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(F53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="254">
+      <c r="H53" s="267">
         <f ca="1">Games!L44</f>
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -27009,15 +27009,15 @@
         <v>60</v>
       </c>
       <c r="AG53" s="24"/>
-      <c r="AH53" s="254">
+      <c r="AH53" s="267">
         <f ca="1">Games!L52</f>
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AI53" s="252" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AJ53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ53" s="259" t="str">
+      <c r="AJ53" s="265" t="str">
         <f ca="1">Games!O33</f>
         <v>Colorado State</v>
       </c>
@@ -27039,7 +27039,7 @@
       <c r="AO53" s="17"/>
     </row>
     <row r="54" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="258">
+      <c r="A54" s="286">
         <f>IF($AU$5=TRUE,A50+1,"")</f>
         <v>13</v>
       </c>
@@ -27047,9 +27047,9 @@
       <c r="C54" s="38"/>
       <c r="D54" s="71"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="260"/>
-      <c r="G54" s="263"/>
-      <c r="H54" s="255"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="268"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="L54" s="25"/>
@@ -27068,19 +27068,19 @@
       <c r="AB54" s="56"/>
       <c r="AD54" s="25"/>
       <c r="AG54" s="24"/>
-      <c r="AH54" s="255"/>
+      <c r="AH54" s="268"/>
       <c r="AI54" s="253"/>
-      <c r="AJ54" s="260"/>
+      <c r="AJ54" s="266"/>
       <c r="AK54" s="55"/>
       <c r="AM54" s="39"/>
       <c r="AN54" s="28"/>
-      <c r="AO54" s="280">
+      <c r="AO54" s="290">
         <f>IF($AU$5=TRUE,AO50+1,"")</f>
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="258"/>
+      <c r="A55" s="286"/>
       <c r="B55" s="27">
         <v>11</v>
       </c>
@@ -27094,25 +27094,25 @@
       </c>
       <c r="E55" s="48">
         <f ca="1">Games!N17</f>
-        <v>111</v>
-      </c>
-      <c r="F55" s="279">
+        <v>101</v>
+      </c>
+      <c r="F55" s="285">
         <f>IF($AU$5=TRUE,F47+1,"")</f>
         <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="266" t="str">
+      <c r="I55" s="282" t="str">
         <f ca="1">Games!O44</f>
-        <v>Duke</v>
-      </c>
-      <c r="J55" s="262" t="e" vm="92">
+        <v>Boise State</v>
+      </c>
+      <c r="J55" s="250" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="254">
+      <c r="K55" s="267">
         <f ca="1">Games!L58</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -27129,27 +27129,27 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="56"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="254">
+      <c r="AE55" s="267">
         <f ca="1">Games!L62</f>
-        <v>113</v>
-      </c>
-      <c r="AF55" s="252" t="e" vm="123">
+        <v>107</v>
+      </c>
+      <c r="AF55" s="252" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AG55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG55" s="259" t="str">
+      <c r="AG55" s="265" t="str">
         <f ca="1">Games!O52</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="51"/>
-      <c r="AJ55" s="279">
+      <c r="AJ55" s="285">
         <f>IF($AU$5=TRUE,AJ47+1,"")</f>
         <v>47</v>
       </c>
       <c r="AK55" s="59">
         <f ca="1">Games!N33</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AL55" s="46" t="e" vm="122">
         <f>_xlfn.XLOOKUP(AM55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27162,19 +27162,19 @@
       <c r="AN55" s="32">
         <v>11</v>
       </c>
-      <c r="AO55" s="280"/>
+      <c r="AO55" s="290"/>
     </row>
     <row r="56" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="71"/>
-      <c r="F56" s="258"/>
+      <c r="F56" s="286"/>
       <c r="G56" s="15"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="263"/>
-      <c r="K56" s="255"/>
+      <c r="I56" s="283"/>
+      <c r="J56" s="251"/>
+      <c r="K56" s="268"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="50"/>
@@ -27190,11 +27190,11 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="56"/>
       <c r="AD56" s="25"/>
-      <c r="AE56" s="255"/>
+      <c r="AE56" s="268"/>
       <c r="AF56" s="253"/>
-      <c r="AG56" s="260"/>
+      <c r="AG56" s="266"/>
       <c r="AH56" s="56"/>
-      <c r="AJ56" s="258"/>
+      <c r="AJ56" s="286"/>
       <c r="AM56" s="39"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="17"/>
@@ -27214,19 +27214,19 @@
       </c>
       <c r="E57" s="46">
         <f ca="1">Games!L18</f>
-        <v>93</v>
-      </c>
-      <c r="F57" s="259" t="str">
+        <v>101</v>
+      </c>
+      <c r="F57" s="265" t="str">
         <f ca="1">Games!O18</f>
         <v>Duke</v>
       </c>
-      <c r="G57" s="262" t="e" vm="92">
+      <c r="G57" s="250" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(F57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="272">
+      <c r="H57" s="280">
         <f ca="1">Games!N44</f>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -27248,21 +27248,21 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="55"/>
       <c r="AG57" s="24"/>
-      <c r="AH57" s="256">
+      <c r="AH57" s="272">
         <f ca="1">Games!N52</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI57" s="252" t="e" vm="123">
         <f ca="1">_xlfn.XLOOKUP(AJ57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ57" s="259" t="str">
+      <c r="AJ57" s="265" t="str">
         <f ca="1">Games!O34</f>
         <v>Columbia</v>
       </c>
       <c r="AK57" s="58">
         <f ca="1">Games!L34</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AL57" s="46" t="e" vm="123">
         <f>_xlfn.XLOOKUP(AM57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27278,7 +27278,7 @@
       <c r="AO57" s="17"/>
     </row>
     <row r="58" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="258">
+      <c r="A58" s="286">
         <f>IF($AU$5=TRUE,A54+1,"")</f>
         <v>14</v>
       </c>
@@ -27286,9 +27286,9 @@
       <c r="C58" s="38"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="260"/>
-      <c r="G58" s="263"/>
-      <c r="H58" s="273"/>
+      <c r="F58" s="266"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="281"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="50"/>
@@ -27309,19 +27309,19 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="56"/>
       <c r="AG58" s="24"/>
-      <c r="AH58" s="257"/>
+      <c r="AH58" s="273"/>
       <c r="AI58" s="253"/>
-      <c r="AJ58" s="260"/>
+      <c r="AJ58" s="266"/>
       <c r="AK58" s="55"/>
       <c r="AM58" s="39"/>
       <c r="AN58" s="28"/>
-      <c r="AO58" s="280">
+      <c r="AO58" s="290">
         <f>IF($AU$5=TRUE,AO54+1,"")</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="258"/>
+      <c r="A59" s="286"/>
       <c r="B59" s="27">
         <v>14</v>
       </c>
@@ -27335,27 +27335,27 @@
       </c>
       <c r="E59" s="48">
         <f ca="1">Games!N18</f>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="I59" s="258">
+      <c r="I59" s="286">
         <f>IF($AU$5=TRUE,I43+1,"")</f>
         <v>52</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="50"/>
-      <c r="L59" s="266" t="str">
+      <c r="L59" s="282" t="str">
         <f ca="1">Games!O58</f>
-        <v>Bradley</v>
-      </c>
-      <c r="M59" s="262" t="e" vm="93">
+        <v>Bryant</v>
+      </c>
+      <c r="M59" s="250" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(L59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="272">
+      <c r="N59" s="280">
         <f ca="1">Games!N65</f>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
@@ -27367,27 +27367,27 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="AA59" s="25"/>
-      <c r="AB59" s="256">
+      <c r="AB59" s="272">
         <f ca="1">Games!N67</f>
-        <v>105</v>
-      </c>
-      <c r="AC59" s="252" t="e" vm="123">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="252" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AD59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="259" t="str">
+      <c r="AD59" s="265" t="str">
         <f ca="1">Games!O62</f>
-        <v>Columbia</v>
+        <v>Colorado State</v>
       </c>
       <c r="AE59" s="56"/>
-      <c r="AG59" s="258">
+      <c r="AG59" s="286">
         <f>IF($AU$5=TRUE,AG43+1,"")</f>
         <v>56</v>
       </c>
       <c r="AJ59" s="24"/>
       <c r="AK59" s="59">
         <f ca="1">Games!N34</f>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL59" s="46" t="e" vm="124">
         <f>_xlfn.XLOOKUP(AM59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27400,7 +27400,7 @@
       <c r="AN59" s="27">
         <v>14</v>
       </c>
-      <c r="AO59" s="280"/>
+      <c r="AO59" s="290"/>
     </row>
     <row r="60" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -27409,12 +27409,12 @@
       <c r="D60" s="71"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="I60" s="258"/>
+      <c r="I60" s="286"/>
       <c r="J60" s="15"/>
       <c r="K60" s="50"/>
-      <c r="L60" s="267"/>
-      <c r="M60" s="263"/>
-      <c r="N60" s="273"/>
+      <c r="L60" s="283"/>
+      <c r="M60" s="251"/>
+      <c r="N60" s="281"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
@@ -27426,11 +27426,11 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="AA60" s="25"/>
-      <c r="AB60" s="257"/>
+      <c r="AB60" s="273"/>
       <c r="AC60" s="253"/>
-      <c r="AD60" s="260"/>
+      <c r="AD60" s="266"/>
       <c r="AE60" s="56"/>
-      <c r="AG60" s="258"/>
+      <c r="AG60" s="286"/>
       <c r="AJ60" s="24"/>
       <c r="AM60" s="39"/>
       <c r="AN60" s="28"/>
@@ -27451,19 +27451,19 @@
       </c>
       <c r="E61" s="46">
         <f ca="1">Games!L19</f>
-        <v>119</v>
-      </c>
-      <c r="F61" s="259" t="str">
+        <v>106</v>
+      </c>
+      <c r="F61" s="265" t="str">
         <f ca="1">Games!O19</f>
-        <v>Bradley</v>
-      </c>
-      <c r="G61" s="262" t="e" vm="93">
+        <v>Brigham Young</v>
+      </c>
+      <c r="G61" s="250" t="e" vm="94">
         <f ca="1">_xlfn.XLOOKUP(F61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="254">
+      <c r="H61" s="267">
         <f ca="1">Games!L45</f>
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -27484,21 +27484,21 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="56"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="254">
+      <c r="AH61" s="267">
         <f ca="1">Games!L53</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AI61" s="252" t="e" vm="125">
         <f ca="1">_xlfn.XLOOKUP(AJ61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="259" t="str">
+      <c r="AJ61" s="265" t="str">
         <f ca="1">Games!O35</f>
         <v>Coppin State</v>
       </c>
       <c r="AK61" s="58">
         <f ca="1">Games!L35</f>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AL61" s="46" t="e" vm="125">
         <f>_xlfn.XLOOKUP(AM61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27514,7 +27514,7 @@
       <c r="AO61" s="17"/>
     </row>
     <row r="62" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="258">
+      <c r="A62" s="286">
         <f>IF($AU$5=TRUE,A58+1,"")</f>
         <v>15</v>
       </c>
@@ -27522,9 +27522,9 @@
       <c r="C62" s="38"/>
       <c r="D62" s="71"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="260"/>
-      <c r="G62" s="263"/>
-      <c r="H62" s="255"/>
+      <c r="F62" s="266"/>
+      <c r="G62" s="251"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="50"/>
@@ -27544,19 +27544,19 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="56"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="255"/>
+      <c r="AH62" s="268"/>
       <c r="AI62" s="253"/>
-      <c r="AJ62" s="260"/>
+      <c r="AJ62" s="266"/>
       <c r="AK62" s="55"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="28"/>
-      <c r="AO62" s="280">
+      <c r="AO62" s="290">
         <f>IF($AU$5=TRUE,AO58+1,"")</f>
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="258"/>
+      <c r="A63" s="286"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -27570,25 +27570,25 @@
       </c>
       <c r="E63" s="48">
         <f ca="1">Games!N19</f>
-        <v>102</v>
-      </c>
-      <c r="F63" s="279">
+        <v>112</v>
+      </c>
+      <c r="F63" s="285">
         <f>IF($AU$5=TRUE,F55+1,"")</f>
         <v>40</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="266" t="str">
+      <c r="I63" s="282" t="str">
         <f ca="1">Games!O45</f>
-        <v>Bradley</v>
-      </c>
-      <c r="J63" s="262" t="e" vm="93">
+        <v>Bryant</v>
+      </c>
+      <c r="J63" s="250" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(I63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="272">
+      <c r="K63" s="280">
         <f ca="1">Games!N58</f>
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -27606,27 +27606,27 @@
       <c r="Z63" s="57"/>
       <c r="AA63" s="25"/>
       <c r="AD63" s="25"/>
-      <c r="AE63" s="256">
+      <c r="AE63" s="272">
         <f ca="1">Games!N62</f>
-        <v>100</v>
-      </c>
-      <c r="AF63" s="252" t="e" vm="125">
+        <v>102</v>
+      </c>
+      <c r="AF63" s="252" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(AG63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG63" s="259" t="str">
+      <c r="AG63" s="265" t="str">
         <f ca="1">Games!O53</f>
-        <v>Coppin State</v>
+        <v>Creighton</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="51"/>
-      <c r="AJ63" s="279">
+      <c r="AJ63" s="285">
         <f>IF($AU$5=TRUE,AJ55+1,"")</f>
         <v>48</v>
       </c>
       <c r="AK63" s="59">
         <f ca="1">Games!N35</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AL63" s="46" t="e" vm="126">
         <f>_xlfn.XLOOKUP(AM63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27639,19 +27639,19 @@
       <c r="AN63" s="27">
         <v>10</v>
       </c>
-      <c r="AO63" s="280"/>
+      <c r="AO63" s="290"/>
     </row>
     <row r="64" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="28"/>
       <c r="C64" s="38"/>
       <c r="D64" s="71"/>
-      <c r="F64" s="258"/>
+      <c r="F64" s="286"/>
       <c r="G64" s="15"/>
       <c r="H64" s="50"/>
-      <c r="I64" s="267"/>
-      <c r="J64" s="263"/>
-      <c r="K64" s="273"/>
+      <c r="I64" s="283"/>
+      <c r="J64" s="251"/>
+      <c r="K64" s="281"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="O64" s="25"/>
@@ -27667,11 +27667,11 @@
       <c r="Z64" s="57"/>
       <c r="AA64" s="25"/>
       <c r="AD64" s="25"/>
-      <c r="AE64" s="257"/>
+      <c r="AE64" s="273"/>
       <c r="AF64" s="253"/>
-      <c r="AG64" s="260"/>
+      <c r="AG64" s="266"/>
       <c r="AH64" s="56"/>
-      <c r="AJ64" s="258"/>
+      <c r="AJ64" s="286"/>
       <c r="AM64" s="39"/>
       <c r="AN64" s="28"/>
       <c r="AO64" s="17"/>
@@ -27691,19 +27691,19 @@
       </c>
       <c r="E65" s="46">
         <f ca="1">Games!L20</f>
-        <v>94</v>
-      </c>
-      <c r="F65" s="259" t="str">
+        <v>105</v>
+      </c>
+      <c r="F65" s="265" t="str">
         <f ca="1">Games!O20</f>
-        <v>Brown</v>
-      </c>
-      <c r="G65" s="262" t="e" vm="95">
+        <v>Bryant</v>
+      </c>
+      <c r="G65" s="250" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(F65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="272">
+      <c r="H65" s="280">
         <f ca="1">Games!N45</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -27723,21 +27723,21 @@
       <c r="AA65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AG65" s="24"/>
-      <c r="AH65" s="256">
+      <c r="AH65" s="272">
         <f ca="1">Games!N53</f>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AI65" s="252" t="e" vm="127">
         <f ca="1">_xlfn.XLOOKUP(AJ65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="259" t="str">
+      <c r="AJ65" s="265" t="str">
         <f ca="1">Games!O36</f>
         <v>Creighton</v>
       </c>
       <c r="AK65" s="58">
         <f ca="1">Games!L36</f>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AL65" s="46" t="e" vm="127">
         <f>_xlfn.XLOOKUP(AM65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27753,7 +27753,7 @@
       <c r="AO65" s="17"/>
     </row>
     <row r="66" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="258">
+      <c r="A66" s="286">
         <f>IF($AU$5=TRUE,A62+1,"")</f>
         <v>16</v>
       </c>
@@ -27761,41 +27761,41 @@
       <c r="C66" s="38"/>
       <c r="D66" s="71"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="260"/>
-      <c r="G66" s="263"/>
-      <c r="H66" s="273"/>
+      <c r="F66" s="266"/>
+      <c r="G66" s="251"/>
+      <c r="H66" s="281"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="O66" s="295"/>
-      <c r="P66" s="295"/>
-      <c r="Q66" s="295"/>
-      <c r="R66" s="295"/>
-      <c r="S66" s="295"/>
-      <c r="T66" s="295"/>
-      <c r="U66" s="295"/>
-      <c r="V66" s="295"/>
-      <c r="W66" s="295"/>
-      <c r="X66" s="295"/>
-      <c r="Y66" s="295"/>
-      <c r="Z66" s="295"/>
-      <c r="AA66" s="295"/>
+      <c r="O66" s="264"/>
+      <c r="P66" s="264"/>
+      <c r="Q66" s="264"/>
+      <c r="R66" s="264"/>
+      <c r="S66" s="264"/>
+      <c r="T66" s="264"/>
+      <c r="U66" s="264"/>
+      <c r="V66" s="264"/>
+      <c r="W66" s="264"/>
+      <c r="X66" s="264"/>
+      <c r="Y66" s="264"/>
+      <c r="Z66" s="264"/>
+      <c r="AA66" s="264"/>
       <c r="AD66" s="25"/>
       <c r="AG66" s="24"/>
-      <c r="AH66" s="257"/>
+      <c r="AH66" s="273"/>
       <c r="AI66" s="253"/>
-      <c r="AJ66" s="260"/>
+      <c r="AJ66" s="266"/>
       <c r="AK66" s="55"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="28"/>
-      <c r="AO66" s="280">
+      <c r="AO66" s="290">
         <f>IF($AU$5=TRUE,AO62+1,"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="258"/>
+      <c r="A67" s="286"/>
       <c r="B67" s="27">
         <v>15</v>
       </c>
@@ -27809,7 +27809,7 @@
       </c>
       <c r="E67" s="48">
         <f ca="1">Games!N20</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -27817,25 +27817,25 @@
       <c r="J67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="O67" s="294"/>
-      <c r="P67" s="294"/>
-      <c r="Q67" s="294"/>
-      <c r="R67" s="294"/>
-      <c r="S67" s="294"/>
-      <c r="T67" s="294"/>
-      <c r="U67" s="294"/>
-      <c r="V67" s="294"/>
-      <c r="W67" s="294"/>
-      <c r="X67" s="294"/>
-      <c r="Y67" s="294"/>
-      <c r="Z67" s="294"/>
-      <c r="AA67" s="294"/>
+      <c r="O67" s="263"/>
+      <c r="P67" s="263"/>
+      <c r="Q67" s="263"/>
+      <c r="R67" s="263"/>
+      <c r="S67" s="263"/>
+      <c r="T67" s="263"/>
+      <c r="U67" s="263"/>
+      <c r="V67" s="263"/>
+      <c r="W67" s="263"/>
+      <c r="X67" s="263"/>
+      <c r="Y67" s="263"/>
+      <c r="Z67" s="263"/>
+      <c r="AA67" s="263"/>
       <c r="AD67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AJ67" s="24"/>
       <c r="AK67" s="59">
         <f ca="1">Games!N36</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AL67" s="46" t="e" vm="128">
         <f>_xlfn.XLOOKUP(AM67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -27848,7 +27848,7 @@
       <c r="AN67" s="27">
         <v>15</v>
       </c>
-      <c r="AO67" s="280"/>
+      <c r="AO67" s="290"/>
     </row>
     <row r="68" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -27889,6 +27889,240 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AI21:AI22"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AF39:AF40"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AQ3:AQ11"/>
+    <mergeCell ref="AQ14:AQ19"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AQ34:AQ37"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AO50:AO51"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AO58:AO59"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="AO46:AO47"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="AO62:AO63"/>
+    <mergeCell ref="AO66:AO67"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AJ61:AJ62"/>
+    <mergeCell ref="AE39:AE40"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="AJ53:AJ54"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AD51:AE52"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="AF63:AF64"/>
+    <mergeCell ref="AF55:AF56"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="AJ63:AJ64"/>
+    <mergeCell ref="AJ57:AJ58"/>
+    <mergeCell ref="AH65:AH66"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AI49:AI50"/>
+    <mergeCell ref="AI53:AI54"/>
+    <mergeCell ref="AI57:AI58"/>
+    <mergeCell ref="AI61:AI62"/>
+    <mergeCell ref="AI65:AI66"/>
+    <mergeCell ref="B1:AN1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AJ15:AJ16"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="T11:V19"/>
@@ -27913,240 +28147,6 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="O19:O20"/>
-    <mergeCell ref="B1:AN1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AJ63:AJ64"/>
-    <mergeCell ref="AJ57:AJ58"/>
-    <mergeCell ref="AH65:AH66"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AI49:AI50"/>
-    <mergeCell ref="AI53:AI54"/>
-    <mergeCell ref="AI57:AI58"/>
-    <mergeCell ref="AI61:AI62"/>
-    <mergeCell ref="AI65:AI66"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="AF63:AF64"/>
-    <mergeCell ref="AF55:AF56"/>
-    <mergeCell ref="AF47:AF48"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="AO62:AO63"/>
-    <mergeCell ref="AO66:AO67"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AJ61:AJ62"/>
-    <mergeCell ref="AE39:AE40"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="AJ53:AJ54"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AD51:AE52"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="AO50:AO51"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AO58:AO59"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AO42:AO43"/>
-    <mergeCell ref="AO46:AO47"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AF39:AF40"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AQ3:AQ11"/>
-    <mergeCell ref="AQ14:AQ19"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AQ34:AQ37"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AJ21:AJ22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD19:AE20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AI21:AI22"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI37:AI38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">

--- a/resources/blank_bracket.xlsx
+++ b/resources/blank_bracket.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E13EB5-2E7C-4E7F-A31E-66046D839DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2400" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Links" sheetId="6" r:id="rId1"/>
@@ -6896,6 +6896,162 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6928,162 +7084,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8702,7 +8702,7 @@
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15684,9 +15684,9 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17032,33 +17032,33 @@
       <c r="D3" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="241" t="s">
+      <c r="E3" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="239" t="s">
+      <c r="F3" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="243" t="s">
+      <c r="G3" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="239" t="s">
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="245" t="s">
+      <c r="K3" s="297" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245" t="s">
+      <c r="L3" s="297"/>
+      <c r="M3" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="245"/>
-      <c r="O3" s="239" t="s">
+      <c r="N3" s="297"/>
+      <c r="O3" s="291" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="201"/>
-      <c r="Q3" s="236" t="s">
+      <c r="Q3" s="288" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17067,19 +17067,19 @@
       <c r="B4" s="218"/>
       <c r="C4" s="218"/>
       <c r="D4" s="219"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="240"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="292"/>
       <c r="P4" s="202"/>
-      <c r="Q4" s="237"/>
+      <c r="Q4" s="289"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="str">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="C5" s="91" t="str">
         <f t="shared" ref="C5:C36" ca="1" si="1">IF(O5="","",IF(A5=O5,B5,A5))</f>
-        <v>Air Force</v>
+        <v>Abilene Christian</v>
       </c>
       <c r="D5" s="91" t="e">
         <f t="shared" ref="D5:D36" si="2">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O5,SeedInfo,2,FALSE)*1,MAX(VLOOKUP(O5,SeedInfo,2,FALSE)-VLOOKUP(C5,SeedInfo,2,FALSE),0)))</f>
@@ -17126,7 +17126,7 @@
       </c>
       <c r="L5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M5" s="84" t="e" vm="66">
         <f>_xlfn.XLOOKUP(I5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17134,13 +17134,13 @@
       </c>
       <c r="N5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="194" t="str">
         <f t="shared" ref="O5:O36" ca="1" si="3">IF(L5&gt;N5,G5,I5)</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="P5" s="209" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="P5" s="209" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17152,7 +17152,7 @@
 O5=G5,
 IF(F5&gt;J5,TRUE,FALSE),
 IF(J5&gt;F5,TRUE,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="98"/>
     </row>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:N36" ca="1" si="5">RANDBETWEEN(90,120)</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M6" s="82" t="e" vm="68">
         <f>_xlfn.XLOOKUP(I6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="L7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M7" s="82" t="e" vm="70">
         <f>_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="N7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O7" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="C8" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Albany (NY)</v>
+        <v>Alcorn State</v>
       </c>
       <c r="D8" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="L8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M8" s="82" t="e" vm="72">
         <f>_xlfn.XLOOKUP(I8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17356,13 +17356,13 @@
       </c>
       <c r="N8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O8" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Alcorn State</v>
-      </c>
-      <c r="P8" s="204" t="e" vm="72">
+        <v>Albany (NY)</v>
+      </c>
+      <c r="P8" s="204" t="e" vm="71">
         <f ca="1">_xlfn.XLOOKUP(O8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="R8" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="98"/>
     </row>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="C9" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>American</v>
+        <v>Appalachian State</v>
       </c>
       <c r="D9" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="L9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="M9" s="82" t="e" vm="74">
         <f>_xlfn.XLOOKUP(I9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17428,13 +17428,13 @@
       </c>
       <c r="N9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="O9" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Appalachian State</v>
-      </c>
-      <c r="P9" s="204" t="e" vm="74">
+        <v>American</v>
+      </c>
+      <c r="P9" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="R9" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="98"/>
     </row>
@@ -17492,7 +17492,7 @@
       </c>
       <c r="L10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M10" s="82" t="e" vm="76">
         <f>_xlfn.XLOOKUP(I10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17500,7 +17500,7 @@
       </c>
       <c r="N10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O10" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C11" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arkansas</v>
+        <v>Arkansas State</v>
       </c>
       <c r="D11" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="L11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M11" s="82" t="e" vm="78">
         <f>_xlfn.XLOOKUP(I11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17572,13 +17572,13 @@
       </c>
       <c r="N11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O11" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P11" s="204" t="e" vm="78">
+        <v>Arkansas</v>
+      </c>
+      <c r="P11" s="204" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(O11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17587,7 +17587,7 @@
       </c>
       <c r="R11" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="98"/>
     </row>
@@ -17602,7 +17602,7 @@
       </c>
       <c r="C12" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Army</v>
       </c>
       <c r="D12" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="L12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="M12" s="109" t="e" vm="80">
         <f>_xlfn.XLOOKUP(I12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17644,13 +17644,13 @@
       </c>
       <c r="N12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O12" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Army</v>
-      </c>
-      <c r="P12" s="205" t="e" vm="80">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="P12" s="205" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(O12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="R12" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="98"/>
     </row>
@@ -17674,7 +17674,7 @@
       </c>
       <c r="C13" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Auburn</v>
+        <v>Austin Peay</v>
       </c>
       <c r="D13" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="L13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="M13" s="115" t="e" vm="82">
         <f>_xlfn.XLOOKUP(I13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17716,13 +17716,13 @@
       </c>
       <c r="N13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O13" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Austin Peay</v>
-      </c>
-      <c r="P13" s="206" t="e" vm="82">
+        <v>Auburn</v>
+      </c>
+      <c r="P13" s="206" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="R13" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="98"/>
     </row>
@@ -17788,7 +17788,7 @@
       </c>
       <c r="N14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O14" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17818,7 +17818,7 @@
       </c>
       <c r="C15" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Belmont</v>
+        <v>Bellarmine</v>
       </c>
       <c r="D15" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="L15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M15" s="83" t="e" vm="86">
         <f>_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17860,13 +17860,13 @@
       </c>
       <c r="N15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O15" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bellarmine</v>
-      </c>
-      <c r="P15" s="207" t="e" vm="85">
+        <v>Belmont</v>
+      </c>
+      <c r="P15" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="R15" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="98"/>
     </row>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="M16" s="83" t="e" vm="88">
         <f>_xlfn.XLOOKUP(I16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O16" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17996,7 +17996,7 @@
       </c>
       <c r="L17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M17" s="83" t="e" vm="90">
         <f>_xlfn.XLOOKUP(I17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="N17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O17" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="M18" s="83" t="e" vm="92">
         <f>_xlfn.XLOOKUP(I18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18076,7 +18076,7 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O18" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="L19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M19" s="83" t="e" vm="94">
         <f>_xlfn.XLOOKUP(I19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="N19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O19" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="C20" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="D20" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="L20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M20" s="126" t="e" vm="96">
         <f>_xlfn.XLOOKUP(I20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18220,13 +18220,13 @@
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O20" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brown</v>
-      </c>
-      <c r="P20" s="208" t="e" vm="95">
+        <v>Bryant</v>
+      </c>
+      <c r="P20" s="208" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(O20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="R20" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="98"/>
     </row>
@@ -18250,7 +18250,7 @@
       </c>
       <c r="C21" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bucknell</v>
+        <v>Buffalo</v>
       </c>
       <c r="D21" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="L21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M21" s="97" t="e" vm="98">
         <f>_xlfn.XLOOKUP(I21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18292,13 +18292,13 @@
       </c>
       <c r="N21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O21" s="188" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Buffalo</v>
-      </c>
-      <c r="P21" s="203" t="e" vm="98">
+        <v>Bucknell</v>
+      </c>
+      <c r="P21" s="203" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18307,7 +18307,7 @@
       </c>
       <c r="R21" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="98"/>
     </row>
@@ -18322,7 +18322,7 @@
       </c>
       <c r="C22" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cal Poly</v>
+        <v>Butler</v>
       </c>
       <c r="D22" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="L22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M22" s="82" t="e" vm="100">
         <f>_xlfn.XLOOKUP(I22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18364,13 +18364,13 @@
       </c>
       <c r="N22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O22" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Butler</v>
-      </c>
-      <c r="P22" s="204" t="e" vm="99">
+        <v>Cal Poly</v>
+      </c>
+      <c r="P22" s="204" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(O22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="R22" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="98"/>
     </row>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="L23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="M23" s="82" t="e" vm="102">
         <f>_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18436,7 +18436,7 @@
       </c>
       <c r="N23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="O23" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="L24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M24" s="82" t="e" vm="104">
         <f>_xlfn.XLOOKUP(I24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="N24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O24" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="L25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M25" s="82" t="e" vm="106">
         <f>_xlfn.XLOOKUP(I25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O25" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="L26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M26" s="82" t="e" vm="108">
         <f>_xlfn.XLOOKUP(I26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18652,7 +18652,7 @@
       </c>
       <c r="N26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O26" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="C27" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Central Michigan</v>
+        <v>Central Connecticut State</v>
       </c>
       <c r="D27" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="L27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M27" s="82" t="e" vm="110">
         <f>_xlfn.XLOOKUP(I27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18724,13 +18724,13 @@
       </c>
       <c r="N27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O27" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Central Connecticut State</v>
-      </c>
-      <c r="P27" s="204" t="e" vm="109">
+        <v>Central Michigan</v>
+      </c>
+      <c r="P27" s="204" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(O27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="R27" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="98"/>
     </row>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="L28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M28" s="109" t="e" vm="112">
         <f>_xlfn.XLOOKUP(I28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18796,7 +18796,7 @@
       </c>
       <c r="N28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O28" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18826,7 +18826,7 @@
       </c>
       <c r="C29" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="D29" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18860,7 +18860,7 @@
       </c>
       <c r="L29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M29" s="115" t="e" vm="114">
         <f>_xlfn.XLOOKUP(I29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18868,13 +18868,13 @@
       </c>
       <c r="N29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="O29" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Chicago State</v>
-      </c>
-      <c r="P29" s="206" t="e" vm="114">
+        <v>Chattanooga</v>
+      </c>
+      <c r="P29" s="206" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(O29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="R29" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="98"/>
     </row>
@@ -18940,7 +18940,7 @@
       </c>
       <c r="N30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="O30" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="C31" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="D31" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="L31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M31" s="83" t="e" vm="118">
         <f>_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19012,13 +19012,13 @@
       </c>
       <c r="N31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="O31" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Coastal Carolina</v>
-      </c>
-      <c r="P31" s="207" t="e" vm="118">
+        <v>Cleveland State</v>
+      </c>
+      <c r="P31" s="207" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(O31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="R31" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="98"/>
     </row>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="L32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M32" s="83" t="e" vm="120">
         <f>_xlfn.XLOOKUP(I32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19084,7 +19084,7 @@
       </c>
       <c r="N32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O32" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="L33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M33" s="83" t="e" vm="122">
         <f>_xlfn.XLOOKUP(I33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19156,7 +19156,7 @@
       </c>
       <c r="N33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="O33" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19186,7 +19186,7 @@
       </c>
       <c r="C34" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Connecticut</v>
+        <v>Columbia</v>
       </c>
       <c r="D34" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="L34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M34" s="83" t="e" vm="124">
         <f>_xlfn.XLOOKUP(I34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19228,13 +19228,13 @@
       </c>
       <c r="N34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O34" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Columbia</v>
-      </c>
-      <c r="P34" s="207" t="e" vm="123">
+        <v>Connecticut</v>
+      </c>
+      <c r="P34" s="207" t="e" vm="124">
         <f ca="1">_xlfn.XLOOKUP(O34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="R34" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="98"/>
     </row>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="L35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M35" s="83" t="e" vm="126">
         <f>_xlfn.XLOOKUP(I35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19300,7 +19300,7 @@
       </c>
       <c r="N35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O35" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19330,7 +19330,7 @@
       </c>
       <c r="C36" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dartmouth</v>
+        <v>Creighton</v>
       </c>
       <c r="D36" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19364,7 +19364,7 @@
       </c>
       <c r="L36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M36" s="126" t="e" vm="128">
         <f>_xlfn.XLOOKUP(I36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19372,13 +19372,13 @@
       </c>
       <c r="N36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="O36" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Creighton</v>
-      </c>
-      <c r="P36" s="208" t="e" vm="127">
+        <v>Dartmouth</v>
+      </c>
+      <c r="P36" s="208" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(O36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="R36" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="98"/>
     </row>
@@ -19395,14 +19395,14 @@
       <c r="E37" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="238" t="str">
+      <c r="F37" s="290" t="str">
         <f>Bracket!F2</f>
         <v>Second Round</v>
       </c>
-      <c r="G37" s="238"/>
-      <c r="H37" s="238"/>
-      <c r="I37" s="238"/>
-      <c r="J37" s="238"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -19417,7 +19417,7 @@
     <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="str">
         <f ca="1">G38</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="B38" s="91" t="str">
         <f ca="1">I38</f>
@@ -19437,11 +19437,11 @@
       </c>
       <c r="F38" s="130" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">_xlfn.XLOOKUP(G38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G38" s="131" t="str">
         <f ca="1">O5</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="H38" s="181" t="s">
         <v>9</v>
@@ -19454,13 +19454,13 @@
         <f t="array" aca="1" ref="J38" ca="1">_xlfn.XLOOKUP(I38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K38" s="84" t="e" vm="65">
+      <c r="K38" s="84" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="84">
         <f t="shared" ref="L38:N72" ca="1" si="10">RANDBETWEEN(90,120)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M38" s="84" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(I38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19468,13 +19468,13 @@
       </c>
       <c r="N38" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="O38" s="194" t="str">
         <f t="shared" ref="O38:O53" ca="1" si="11">IF(L38&gt;N38,G38,I38)</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="P38" s="209" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="P38" s="209" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(O38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="R38" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="98"/>
     </row>
@@ -19494,11 +19494,11 @@
       </c>
       <c r="B39" s="91" t="str">
         <f t="shared" ref="B39:B53" ca="1" si="13">I39</f>
-        <v>Alcorn State</v>
+        <v>Albany (NY)</v>
       </c>
       <c r="C39" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Alcorn State</v>
+        <v>Albany (NY)</v>
       </c>
       <c r="D39" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19520,11 +19520,11 @@
       </c>
       <c r="I39" s="102" t="str">
         <f ca="1">O8</f>
-        <v>Alcorn State</v>
+        <v>Albany (NY)</v>
       </c>
       <c r="J39" s="103" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">_xlfn.XLOOKUP(I39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K39" s="82" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(G39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19534,13 +19534,13 @@
         <f t="shared" ca="1" si="10"/>
         <v>120</v>
       </c>
-      <c r="M39" s="82" t="e" vm="72">
+      <c r="M39" s="82" t="e" vm="71">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="O39" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -19555,14 +19555,14 @@
       </c>
       <c r="R39" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="98"/>
     </row>
     <row r="40" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Appalachian State</v>
+        <v>American</v>
       </c>
       <c r="B40" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -19570,7 +19570,7 @@
       </c>
       <c r="C40" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Appalachian State</v>
+        <v>American</v>
       </c>
       <c r="D40" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19581,11 +19581,11 @@
       </c>
       <c r="F40" s="100" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">_xlfn.XLOOKUP(G40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G40" s="101" t="str">
         <f ca="1">O9</f>
-        <v>Appalachian State</v>
+        <v>American</v>
       </c>
       <c r="H40" s="176" t="s">
         <v>9</v>
@@ -19598,13 +19598,13 @@
         <f t="array" aca="1" ref="J40" ca="1">_xlfn.XLOOKUP(I40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>3</v>
       </c>
-      <c r="K40" s="82" t="e" vm="74">
+      <c r="K40" s="82" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M40" s="82" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(I40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19612,7 +19612,7 @@
       </c>
       <c r="N40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O40" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -19634,15 +19634,15 @@
     <row r="41" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arkansas State</v>
+        <v>Arkansas</v>
       </c>
       <c r="B41" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Army</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="C41" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Army</v>
+        <v>Arkansas</v>
       </c>
       <c r="D41" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19653,44 +19653,44 @@
       </c>
       <c r="F41" s="135" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">_xlfn.XLOOKUP(G41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" s="136" t="str">
         <f ca="1">O11</f>
-        <v>Arkansas State</v>
+        <v>Arkansas</v>
       </c>
       <c r="H41" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="137" t="str">
         <f ca="1">O12</f>
-        <v>Army</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="J41" s="138" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">_xlfn.XLOOKUP(I41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K41" s="139" t="e" vm="78">
+        <v>2</v>
+      </c>
+      <c r="K41" s="139" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(G41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="M41" s="139" t="e" vm="80">
+        <v>92</v>
+      </c>
+      <c r="M41" s="139" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(I41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O41" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P41" s="210" t="e" vm="78">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="P41" s="210" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(O41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19706,7 +19706,7 @@
     <row r="42" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Austin Peay</v>
+        <v>Auburn</v>
       </c>
       <c r="B42" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -19714,7 +19714,7 @@
       </c>
       <c r="C42" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Austin Peay</v>
+        <v>Ball State</v>
       </c>
       <c r="D42" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19725,11 +19725,11 @@
       </c>
       <c r="F42" s="141" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">_xlfn.XLOOKUP(G42,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G42" s="142" t="str">
         <f ca="1">O13</f>
-        <v>Austin Peay</v>
+        <v>Auburn</v>
       </c>
       <c r="H42" s="183" t="s">
         <v>9</v>
@@ -19742,13 +19742,13 @@
         <f t="array" aca="1" ref="J42" ca="1">_xlfn.XLOOKUP(I42,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K42" s="145" t="e" vm="82">
+      <c r="K42" s="145" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(G42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M42" s="145" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(I42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19756,13 +19756,13 @@
       </c>
       <c r="N42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O42" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ball State</v>
-      </c>
-      <c r="P42" s="211" t="e" vm="83">
+        <v>Auburn</v>
+      </c>
+      <c r="P42" s="211" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19778,7 +19778,7 @@
     <row r="43" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bellarmine</v>
+        <v>Belmont</v>
       </c>
       <c r="B43" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -19786,7 +19786,7 @@
       </c>
       <c r="C43" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bellarmine</v>
+        <v>Belmont</v>
       </c>
       <c r="D43" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19797,11 +19797,11 @@
       </c>
       <c r="F43" s="117" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">_xlfn.XLOOKUP(G43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G43" s="118" t="str">
         <f ca="1">O15</f>
-        <v>Bellarmine</v>
+        <v>Belmont</v>
       </c>
       <c r="H43" s="178" t="s">
         <v>9</v>
@@ -19814,13 +19814,13 @@
         <f t="array" aca="1" ref="J43" ca="1">_xlfn.XLOOKUP(I43,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>13</v>
       </c>
-      <c r="K43" s="83" t="e" vm="85">
+      <c r="K43" s="83" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M43" s="83" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="N43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="O43" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -19858,7 +19858,7 @@
       </c>
       <c r="C44" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Boston College</v>
+        <v>Florida</v>
       </c>
       <c r="D44" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="L44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M44" s="83" t="e" vm="91">
         <f ca="1">_xlfn.XLOOKUP(I44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19900,13 +19900,13 @@
       </c>
       <c r="N44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="O44" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Florida</v>
-      </c>
-      <c r="P44" s="207" t="e" vm="91">
+        <v>Boston College</v>
+      </c>
+      <c r="P44" s="207" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(O44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="R44" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="98"/>
     </row>
@@ -19926,11 +19926,11 @@
       </c>
       <c r="B45" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Brown</v>
+        <v>Bryant</v>
       </c>
       <c r="C45" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bradley</v>
+        <v>Bryant</v>
       </c>
       <c r="D45" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19952,11 +19952,11 @@
       </c>
       <c r="I45" s="149" t="str">
         <f ca="1">O20</f>
-        <v>Brown</v>
+        <v>Bryant</v>
       </c>
       <c r="J45" s="150" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">_xlfn.XLOOKUP(I45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K45" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(G45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19964,21 +19964,21 @@
       </c>
       <c r="L45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="M45" s="151" t="e" vm="95">
+        <v>104</v>
+      </c>
+      <c r="M45" s="151" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(I45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="O45" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Brown</v>
-      </c>
-      <c r="P45" s="212" t="e" vm="95">
+        <v>Bradley</v>
+      </c>
+      <c r="P45" s="212" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19994,15 +19994,15 @@
     <row r="46" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="B46" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Butler</v>
+        <v>Cal Poly</v>
       </c>
       <c r="C46" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Butler</v>
+        <v>Bucknell</v>
       </c>
       <c r="D46" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20013,44 +20013,44 @@
       </c>
       <c r="F46" s="130" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">_xlfn.XLOOKUP(G46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G46" s="131" t="str">
         <f ca="1">O21</f>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="H46" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="132" t="str">
         <f ca="1">O22</f>
-        <v>Butler</v>
+        <v>Cal Poly</v>
       </c>
       <c r="J46" s="133" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">_xlfn.XLOOKUP(I46,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K46" s="84" t="e" vm="98">
+        <v>9</v>
+      </c>
+      <c r="K46" s="84" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
-      </c>
-      <c r="M46" s="84" t="e" vm="99">
+        <v>105</v>
+      </c>
+      <c r="M46" s="84" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(I46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="O46" s="194" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Buffalo</v>
-      </c>
-      <c r="P46" s="209" t="e" vm="98">
+        <v>Cal Poly</v>
+      </c>
+      <c r="P46" s="209" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(O46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="C47" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cal State Northridge</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="D47" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="L47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M47" s="82" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20116,13 +20116,13 @@
       </c>
       <c r="N47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O47" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cal State Fullerton</v>
-      </c>
-      <c r="P47" s="204" t="e" vm="102">
+        <v>Cal State Northridge</v>
+      </c>
+      <c r="P47" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="R47" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="98"/>
     </row>
@@ -20146,7 +20146,7 @@
       </c>
       <c r="C48" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>California Baptist</v>
+        <v>Canisius</v>
       </c>
       <c r="D48" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="L48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M48" s="82" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(I48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20188,13 +20188,13 @@
       </c>
       <c r="N48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O48" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Canisius</v>
-      </c>
-      <c r="P48" s="204" t="e" vm="107">
+        <v>California Baptist</v>
+      </c>
+      <c r="P48" s="204" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(O48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20203,14 +20203,14 @@
       </c>
       <c r="R48" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="98"/>
     </row>
     <row r="49" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="B49" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -20218,7 +20218,7 @@
       </c>
       <c r="C49" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="D49" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20229,11 +20229,11 @@
       </c>
       <c r="F49" s="135" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">_xlfn.XLOOKUP(G49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G49" s="136" t="str">
         <f ca="1">O27</f>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="H49" s="182" t="s">
         <v>9</v>
@@ -20246,13 +20246,13 @@
         <f t="array" aca="1" ref="J49" ca="1">_xlfn.XLOOKUP(I49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>15</v>
       </c>
-      <c r="K49" s="139" t="e" vm="109">
+      <c r="K49" s="139" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(G49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M49" s="139" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(I49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20260,7 +20260,7 @@
       </c>
       <c r="N49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O49" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -20282,7 +20282,7 @@
     <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="B50" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -20290,7 +20290,7 @@
       </c>
       <c r="C50" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="D50" s="91" t="e">
         <f t="shared" si="9"/>
@@ -20301,11 +20301,11 @@
       </c>
       <c r="F50" s="141" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">_xlfn.XLOOKUP(G50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G50" s="142" t="str">
         <f ca="1">O29</f>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="H50" s="183" t="s">
         <v>9</v>
@@ -20318,13 +20318,13 @@
         <f t="array" aca="1" ref="J50" ca="1">_xlfn.XLOOKUP(I50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K50" s="145" t="e" vm="114">
+      <c r="K50" s="145" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(G50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M50" s="145" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(I50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20332,7 +20332,7 @@
       </c>
       <c r="N50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O50" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -20347,14 +20347,14 @@
       </c>
       <c r="R50" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="98"/>
     </row>
     <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="B51" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -20362,7 +20362,7 @@
       </c>
       <c r="C51" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="D51" s="91" t="e">
         <f t="shared" si="9"/>
@@ -20373,11 +20373,11 @@
       </c>
       <c r="F51" s="117" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">_xlfn.XLOOKUP(G51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G51" s="118" t="str">
         <f ca="1">O31</f>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="H51" s="178" t="s">
         <v>9</v>
@@ -20390,13 +20390,13 @@
         <f t="array" aca="1" ref="J51" ca="1">_xlfn.XLOOKUP(I51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>4</v>
       </c>
-      <c r="K51" s="83" t="e" vm="118">
+      <c r="K51" s="83" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(G51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="M51" s="83" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(I51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20404,7 +20404,7 @@
       </c>
       <c r="N51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O51" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -20430,11 +20430,11 @@
       </c>
       <c r="B52" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Columbia</v>
+        <v>Connecticut</v>
       </c>
       <c r="C52" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Colorado</v>
+        <v>Connecticut</v>
       </c>
       <c r="D52" s="91" t="e">
         <f t="shared" si="9"/>
@@ -20456,11 +20456,11 @@
       </c>
       <c r="I52" s="119" t="str">
         <f ca="1">O34</f>
-        <v>Columbia</v>
+        <v>Connecticut</v>
       </c>
       <c r="J52" s="120" cm="1">
         <f t="array" aca="1" ref="J52" ca="1">_xlfn.XLOOKUP(I52,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K52" s="83" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(G52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20468,21 +20468,21 @@
       </c>
       <c r="L52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M52" s="83" t="e" vm="123">
+        <v>107</v>
+      </c>
+      <c r="M52" s="83" t="e" vm="124">
         <f ca="1">_xlfn.XLOOKUP(I52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O52" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Columbia</v>
-      </c>
-      <c r="P52" s="207" t="e" vm="123">
+        <v>Colorado</v>
+      </c>
+      <c r="P52" s="207" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(O52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20502,7 +20502,7 @@
       </c>
       <c r="B53" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="C53" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -20528,11 +20528,11 @@
       </c>
       <c r="I53" s="149" t="str">
         <f ca="1">O36</f>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="J53" s="150" cm="1">
         <f t="array" aca="1" ref="J53" ca="1">_xlfn.XLOOKUP(I53,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K53" s="151" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(G53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20540,21 +20540,21 @@
       </c>
       <c r="L53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M53" s="151" t="e" vm="127">
+        <v>102</v>
+      </c>
+      <c r="M53" s="151" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O53" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Creighton</v>
-      </c>
-      <c r="P53" s="212" t="e" vm="127">
+        <v>Dartmouth</v>
+      </c>
+      <c r="P53" s="212" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(O53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20563,7 +20563,7 @@
       </c>
       <c r="R53" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="98"/>
     </row>
@@ -20571,14 +20571,14 @@
       <c r="E54" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="238" t="str">
+      <c r="F54" s="290" t="str">
         <f>Bracket!I2</f>
         <v>Sweet 16</v>
       </c>
-      <c r="G54" s="238"/>
-      <c r="H54" s="238"/>
-      <c r="I54" s="238"/>
-      <c r="J54" s="238"/>
+      <c r="G54" s="290"/>
+      <c r="H54" s="290"/>
+      <c r="I54" s="290"/>
+      <c r="J54" s="290"/>
       <c r="K54" s="68"/>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
@@ -20593,7 +20593,7 @@
     <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="str">
         <f ca="1">G55</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="B55" s="91" t="str">
         <f ca="1">I55</f>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="C55" s="91" t="str">
         <f t="shared" ref="C55:C62" ca="1" si="14">IF(O55="","",IF(A55=O55,B55,A55))</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="D55" s="91" t="e">
         <f t="shared" ref="D55:D62" si="15">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O55,SeedInfo,2,FALSE)*3,MAX(VLOOKUP(O55,SeedInfo,2,FALSE)-VLOOKUP(C55,SeedInfo,2,FALSE),0)))</f>
@@ -20612,11 +20612,11 @@
       </c>
       <c r="F55" s="93" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">_xlfn.XLOOKUP(G55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G55" s="94" t="str">
         <f ca="1">O38</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="H55" s="175" t="s">
         <v>9</v>
@@ -20629,13 +20629,13 @@
         <f t="array" aca="1" ref="J55" ca="1">_xlfn.XLOOKUP(I55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>5</v>
       </c>
-      <c r="K55" s="97" t="e" vm="65">
+      <c r="K55" s="97" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(G55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M55" s="97" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20658,7 +20658,7 @@
       </c>
       <c r="R55" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="98"/>
     </row>
@@ -20669,7 +20669,7 @@
       </c>
       <c r="B56" s="91" t="str">
         <f t="shared" ref="B56:B62" ca="1" si="18">I56</f>
-        <v>Arkansas State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="C56" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -20695,11 +20695,11 @@
       </c>
       <c r="I56" s="137" t="str">
         <f ca="1">O41</f>
-        <v>Arkansas State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="J56" s="138" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">_xlfn.XLOOKUP(I56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K56" s="139" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(G56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20707,21 +20707,21 @@
       </c>
       <c r="L56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M56" s="139" t="e" vm="78">
+        <v>105</v>
+      </c>
+      <c r="M56" s="139" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(I56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="O56" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P56" s="210" t="e" vm="78">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="P56" s="210" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(O56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20730,14 +20730,14 @@
       </c>
       <c r="R56" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="98"/>
     </row>
     <row r="57" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="B57" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -20756,11 +20756,11 @@
       </c>
       <c r="F57" s="234" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">_xlfn.XLOOKUP(G57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57" s="142" t="str">
         <f ca="1">O42</f>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="H57" s="183" t="s">
         <v>9</v>
@@ -20773,13 +20773,13 @@
         <f t="array" aca="1" ref="J57" ca="1">_xlfn.XLOOKUP(I57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>13</v>
       </c>
-      <c r="K57" s="145" t="e" vm="83">
+      <c r="K57" s="145" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(G57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="M57" s="145" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20787,13 +20787,13 @@
       </c>
       <c r="N57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O57" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Ball State</v>
-      </c>
-      <c r="P57" s="211" t="e" vm="83">
+        <v>Auburn</v>
+      </c>
+      <c r="P57" s="211" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20809,15 +20809,15 @@
     <row r="58" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Florida</v>
+        <v>Boston College</v>
       </c>
       <c r="B58" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Brown</v>
+        <v>Bradley</v>
       </c>
       <c r="C58" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brown</v>
+        <v>Boston College</v>
       </c>
       <c r="D58" s="91" t="e">
         <f t="shared" si="15"/>
@@ -20828,44 +20828,44 @@
       </c>
       <c r="F58" s="235" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">_xlfn.XLOOKUP(G58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G58" s="148" t="str">
         <f ca="1">O44</f>
-        <v>Florida</v>
+        <v>Boston College</v>
       </c>
       <c r="H58" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I58" s="149" t="str">
         <f ca="1">O45</f>
-        <v>Brown</v>
+        <v>Bradley</v>
       </c>
       <c r="J58" s="150" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">_xlfn.XLOOKUP(I58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K58" s="151" t="e" vm="91">
+        <v>7</v>
+      </c>
+      <c r="K58" s="151" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(G58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="M58" s="151" t="e" vm="95">
+        <v>92</v>
+      </c>
+      <c r="M58" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O58" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Florida</v>
-      </c>
-      <c r="P58" s="212" t="e" vm="91">
+        <v>Bradley</v>
+      </c>
+      <c r="P58" s="212" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20874,22 +20874,22 @@
       </c>
       <c r="R58" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="98"/>
     </row>
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Buffalo</v>
+        <v>Cal Poly</v>
       </c>
       <c r="B59" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="C59" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Buffalo</v>
+        <v>Cal Poly</v>
       </c>
       <c r="D59" s="152" t="e">
         <f t="shared" si="15"/>
@@ -20900,44 +20900,44 @@
       </c>
       <c r="F59" s="130" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">_xlfn.XLOOKUP(G59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G59" s="131" t="str">
         <f ca="1">O46</f>
-        <v>Buffalo</v>
+        <v>Cal Poly</v>
       </c>
       <c r="H59" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="132" t="str">
         <f ca="1">O47</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="J59" s="133" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">_xlfn.XLOOKUP(I59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
-      </c>
-      <c r="K59" s="84" t="e" vm="98">
+        <v>4</v>
+      </c>
+      <c r="K59" s="84" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(G59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="M59" s="84" t="e" vm="102">
+        <v>107</v>
+      </c>
+      <c r="M59" s="84" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(I59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="O59" s="194" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Cal State Fullerton</v>
-      </c>
-      <c r="P59" s="209" t="e" vm="102">
+        <v>Cal State Northridge</v>
+      </c>
+      <c r="P59" s="209" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20953,7 +20953,7 @@
     <row r="60" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Canisius</v>
+        <v>California Baptist</v>
       </c>
       <c r="B60" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="C60" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Charlotte</v>
+        <v>California Baptist</v>
       </c>
       <c r="D60" s="152" t="e">
         <f t="shared" si="15"/>
@@ -20972,11 +20972,11 @@
       </c>
       <c r="F60" s="135" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">_xlfn.XLOOKUP(G60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60" s="136" t="str">
         <f ca="1">O48</f>
-        <v>Canisius</v>
+        <v>California Baptist</v>
       </c>
       <c r="H60" s="182" t="s">
         <v>9</v>
@@ -20989,13 +20989,13 @@
         <f t="array" aca="1" ref="J60" ca="1">_xlfn.XLOOKUP(I60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>15</v>
       </c>
-      <c r="K60" s="139" t="e" vm="107">
+      <c r="K60" s="139" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(G60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="M60" s="139" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(I60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21003,13 +21003,13 @@
       </c>
       <c r="N60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="O60" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Canisius</v>
-      </c>
-      <c r="P60" s="210" t="e" vm="107">
+        <v>Charlotte</v>
+      </c>
+      <c r="P60" s="210" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(O60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="R60" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="98"/>
     </row>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="C61" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Cincinnati</v>
+        <v>Colgate</v>
       </c>
       <c r="D61" s="91" t="e">
         <f t="shared" si="15"/>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="L61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M61" s="145" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(I61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21075,13 +21075,13 @@
       </c>
       <c r="N61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="O61" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Colgate</v>
-      </c>
-      <c r="P61" s="211" t="e" vm="119">
+        <v>Cincinnati</v>
+      </c>
+      <c r="P61" s="211" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(O61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21090,22 +21090,22 @@
       </c>
       <c r="R61" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="98"/>
     </row>
     <row r="62" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Columbia</v>
+        <v>Colorado</v>
       </c>
       <c r="B62" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="C62" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="D62" s="91" t="e">
         <f t="shared" si="15"/>
@@ -21116,44 +21116,44 @@
       </c>
       <c r="F62" s="147" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">_xlfn.XLOOKUP(G62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" s="148" t="str">
         <f ca="1">O52</f>
-        <v>Columbia</v>
+        <v>Colorado</v>
       </c>
       <c r="H62" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="149" t="str">
         <f ca="1">O53</f>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="J62" s="150" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">_xlfn.XLOOKUP(I62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K62" s="151" t="e" vm="123">
+        <v>15</v>
+      </c>
+      <c r="K62" s="151" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(G62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
-      </c>
-      <c r="M62" s="151" t="e" vm="127">
+        <v>92</v>
+      </c>
+      <c r="M62" s="151" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="O62" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Columbia</v>
-      </c>
-      <c r="P62" s="212" t="e" vm="123">
+        <v>Colorado</v>
+      </c>
+      <c r="P62" s="212" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(O62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="R62" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="98"/>
     </row>
@@ -21170,14 +21170,14 @@
       <c r="E63" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="238" t="str">
+      <c r="F63" s="290" t="str">
         <f>Bracket!L2</f>
         <v>Elite 8</v>
       </c>
-      <c r="G63" s="238"/>
-      <c r="H63" s="238"/>
-      <c r="I63" s="238"/>
-      <c r="J63" s="238"/>
+      <c r="G63" s="290"/>
+      <c r="H63" s="290"/>
+      <c r="I63" s="290"/>
+      <c r="J63" s="290"/>
       <c r="K63" s="68"/>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B64" s="91" t="str">
         <f ca="1">I64</f>
-        <v>Arkansas State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="C64" s="91" t="str">
         <f ca="1">IF(O64="","",IF(A64=O64,B64,A64))</f>
@@ -21222,11 +21222,11 @@
       </c>
       <c r="I64" s="156" t="str">
         <f ca="1">O56</f>
-        <v>Arkansas State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="J64" s="157" cm="1">
         <f t="array" aca="1" ref="J64" ca="1">_xlfn.XLOOKUP(I64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K64" s="158" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(G64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21236,19 +21236,19 @@
         <f t="shared" ca="1" si="10"/>
         <v>92</v>
       </c>
-      <c r="M64" s="158" t="e" vm="78">
+      <c r="M64" s="158" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(I64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O64" s="198" t="str">
         <f ca="1">IF(L64&gt;N64,G64,I64)</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P64" s="204" t="e" vm="78">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="P64" s="204" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(O64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21257,22 +21257,22 @@
       </c>
       <c r="R64" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="98"/>
     </row>
     <row r="65" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="91" t="str">
         <f ca="1">G65</f>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="B65" s="91" t="str">
         <f ca="1">I65</f>
-        <v>Florida</v>
+        <v>Bradley</v>
       </c>
       <c r="C65" s="91" t="str">
         <f ca="1">IF(O65="","",IF(A65=O65,B65,A65))</f>
-        <v>Florida</v>
+        <v>Bradley</v>
       </c>
       <c r="D65" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O65,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O65,SeedInfo,2,FALSE)-VLOOKUP(C65,SeedInfo,2,FALSE),0)))</f>
@@ -21283,44 +21283,44 @@
       </c>
       <c r="F65" s="160" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">_xlfn.XLOOKUP(G65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G65" s="161" t="str">
         <f ca="1">O57</f>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="H65" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="162" t="str">
         <f ca="1">O58</f>
-        <v>Florida</v>
+        <v>Bradley</v>
       </c>
       <c r="J65" s="163" cm="1">
         <f t="array" aca="1" ref="J65" ca="1">_xlfn.XLOOKUP(I65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K65" s="164" t="e" vm="83">
+        <v>7</v>
+      </c>
+      <c r="K65" s="164" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(G65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="M65" s="164" t="e" vm="91">
+        <v>110</v>
+      </c>
+      <c r="M65" s="164" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O65" s="199" t="str">
         <f ca="1">IF(L65&gt;N65,G65,I65)</f>
-        <v>Ball State</v>
-      </c>
-      <c r="P65" s="207" t="e" vm="83">
+        <v>Auburn</v>
+      </c>
+      <c r="P65" s="207" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21329,22 +21329,22 @@
       </c>
       <c r="R65" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="98"/>
     </row>
     <row r="66" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91" t="str">
         <f ca="1">G66</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="B66" s="91" t="str">
         <f ca="1">I66</f>
-        <v>Canisius</v>
+        <v>Charlotte</v>
       </c>
       <c r="C66" s="91" t="str">
         <f ca="1">IF(O66="","",IF(A66=O66,B66,A66))</f>
-        <v>Cal State Fullerton</v>
+        <v>Charlotte</v>
       </c>
       <c r="D66" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O66,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O66,SeedInfo,2,FALSE)-VLOOKUP(C66,SeedInfo,2,FALSE),0)))</f>
@@ -21355,44 +21355,44 @@
       </c>
       <c r="F66" s="154" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_xlfn.XLOOKUP(G66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G66" s="155" t="str">
         <f ca="1">O59</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="H66" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="156" t="str">
         <f ca="1">O60</f>
-        <v>Canisius</v>
+        <v>Charlotte</v>
       </c>
       <c r="J66" s="157" cm="1">
         <f t="array" aca="1" ref="J66" ca="1">_xlfn.XLOOKUP(I66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K66" s="158" t="e" vm="102">
+        <v>15</v>
+      </c>
+      <c r="K66" s="158" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(G66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
-      </c>
-      <c r="M66" s="158" t="e" vm="107">
+        <v>119</v>
+      </c>
+      <c r="M66" s="158" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(I66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="O66" s="198" t="str">
         <f ca="1">IF(L66&gt;N66,G66,I66)</f>
-        <v>Canisius</v>
-      </c>
-      <c r="P66" s="204" t="e" vm="107">
+        <v>Cal State Northridge</v>
+      </c>
+      <c r="P66" s="204" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(O66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21408,15 +21408,15 @@
     <row r="67" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91" t="str">
         <f ca="1">G67</f>
-        <v>Colgate</v>
+        <v>Cincinnati</v>
       </c>
       <c r="B67" s="91" t="str">
         <f ca="1">I67</f>
-        <v>Columbia</v>
+        <v>Colorado</v>
       </c>
       <c r="C67" s="91" t="str">
         <f ca="1">IF(O67="","",IF(A67=O67,B67,A67))</f>
-        <v>Columbia</v>
+        <v>Cincinnati</v>
       </c>
       <c r="D67" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O67,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O67,SeedInfo,2,FALSE)-VLOOKUP(C67,SeedInfo,2,FALSE),0)))</f>
@@ -21427,44 +21427,44 @@
       </c>
       <c r="F67" s="160" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_xlfn.XLOOKUP(G67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G67" s="161" t="str">
         <f ca="1">O61</f>
-        <v>Colgate</v>
+        <v>Cincinnati</v>
       </c>
       <c r="H67" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="162" t="str">
         <f ca="1">O62</f>
-        <v>Columbia</v>
+        <v>Colorado</v>
       </c>
       <c r="J67" s="163" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">_xlfn.XLOOKUP(I67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K67" s="164" t="e" vm="119">
+        <v>6</v>
+      </c>
+      <c r="K67" s="164" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(G67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="M67" s="164" t="e" vm="123">
+        <v>92</v>
+      </c>
+      <c r="M67" s="164" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(I67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="O67" s="199" t="str">
         <f ca="1">IF(L67&gt;N67,G67,I67)</f>
-        <v>Colgate</v>
-      </c>
-      <c r="P67" s="207" t="e" vm="119">
+        <v>Colorado</v>
+      </c>
+      <c r="P67" s="207" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(O67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="R67" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="98"/>
     </row>
@@ -21481,14 +21481,14 @@
       <c r="E68" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="238" t="str">
+      <c r="F68" s="290" t="str">
         <f>Bracket!O2</f>
         <v>Final Four</v>
       </c>
-      <c r="G68" s="238"/>
-      <c r="H68" s="238"/>
-      <c r="I68" s="238"/>
-      <c r="J68" s="238"/>
+      <c r="G68" s="290"/>
+      <c r="H68" s="290"/>
+      <c r="I68" s="290"/>
+      <c r="J68" s="290"/>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
@@ -21503,15 +21503,15 @@
     <row r="69" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="91" t="str">
         <f ca="1">G69</f>
-        <v>Arkansas State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="B69" s="91" t="str">
         <f ca="1">I69</f>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="C69" s="91" t="str">
         <f ca="1">IF(O69="","",IF(A69=O69,B69,A69))</f>
-        <v>Ball State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="D69" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O69,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O69,SeedInfo,2,FALSE)-VLOOKUP(C69,SeedInfo,2,FALSE),0)))</f>
@@ -21522,44 +21522,44 @@
       </c>
       <c r="F69" s="166" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">_xlfn.XLOOKUP(G69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G69" s="167" t="str">
         <f ca="1">O64</f>
-        <v>Arkansas State</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="H69" s="187" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="168" t="str">
         <f ca="1">O65</f>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="J69" s="169" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">_xlfn.XLOOKUP(I69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K69" s="170" t="e" vm="78">
+        <v>1</v>
+      </c>
+      <c r="K69" s="170" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(G69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="M69" s="170" t="e" vm="83">
+        <v>101</v>
+      </c>
+      <c r="M69" s="170" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(I69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="O69" s="200" t="str">
         <f ca="1">IF(L69&gt;N69,G69,I69)</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P69" s="210" t="e" vm="78">
+        <v>Auburn</v>
+      </c>
+      <c r="P69" s="210" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21568,22 +21568,22 @@
       </c>
       <c r="R69" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="98"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="91" t="str">
         <f ca="1">G70</f>
-        <v>Canisius</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="B70" s="91" t="str">
         <f ca="1">I70</f>
-        <v>Colgate</v>
+        <v>Colorado</v>
       </c>
       <c r="C70" s="91" t="str">
         <f ca="1">IF(O70="","",IF(A70=O70,B70,A70))</f>
-        <v>Colgate</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="D70" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O70,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O70,SeedInfo,2,FALSE)-VLOOKUP(C70,SeedInfo,2,FALSE),0)))</f>
@@ -21594,44 +21594,44 @@
       </c>
       <c r="F70" s="160" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_xlfn.XLOOKUP(G70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" s="161" t="str">
         <f ca="1">O66</f>
-        <v>Canisius</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="H70" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="162" t="str">
         <f ca="1">O67</f>
-        <v>Colgate</v>
+        <v>Colorado</v>
       </c>
       <c r="J70" s="163" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">_xlfn.XLOOKUP(I70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K70" s="164" t="e" vm="107">
+        <v>6</v>
+      </c>
+      <c r="K70" s="164" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(G70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="M70" s="164" t="e" vm="119">
+        <v>92</v>
+      </c>
+      <c r="M70" s="164" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(I70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O70" s="199" t="str">
         <f ca="1">IF(L70&gt;N70,G70,I70)</f>
-        <v>Canisius</v>
-      </c>
-      <c r="P70" s="213" t="e" vm="107">
+        <v>Colorado</v>
+      </c>
+      <c r="P70" s="213" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(O70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21643,7 +21643,7 @@
 O70=G70,
 IF(F70&gt;J70,TRUE,FALSE),
 IF(J70&gt;F70,TRUE,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="98"/>
     </row>
@@ -21655,14 +21655,14 @@
       <c r="E71" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="238" t="str">
+      <c r="F71" s="290" t="str">
         <f>Bracket!S2</f>
         <v>Championship</v>
       </c>
-      <c r="G71" s="238"/>
-      <c r="H71" s="238"/>
-      <c r="I71" s="238"/>
-      <c r="J71" s="238"/>
+      <c r="G71" s="290"/>
+      <c r="H71" s="290"/>
+      <c r="I71" s="290"/>
+      <c r="J71" s="290"/>
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
       <c r="M71" s="68"/>
@@ -21677,15 +21677,15 @@
     <row r="72" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91" t="str">
         <f ca="1">G72</f>
-        <v>Arkansas State</v>
+        <v>Auburn</v>
       </c>
       <c r="B72" s="91" t="str">
         <f ca="1">I72</f>
-        <v>Canisius</v>
+        <v>Colorado</v>
       </c>
       <c r="C72" s="91" t="str">
         <f ca="1">IF(O72="","",IF(A72=O72,B72,A72))</f>
-        <v>Arkansas State</v>
+        <v>Colorado</v>
       </c>
       <c r="D72" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O72,SeedInfo,2,FALSE)*6,MAX(VLOOKUP(O72,SeedInfo,2,FALSE)-VLOOKUP(C72,SeedInfo,2,FALSE),0)))</f>
@@ -21696,44 +21696,44 @@
       </c>
       <c r="F72" s="154" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">_xlfn.XLOOKUP(G72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G72" s="155" t="str">
         <f ca="1">O69</f>
-        <v>Arkansas State</v>
+        <v>Auburn</v>
       </c>
       <c r="H72" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="156" t="str">
         <f ca="1">O70</f>
-        <v>Canisius</v>
+        <v>Colorado</v>
       </c>
       <c r="J72" s="157" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">_xlfn.XLOOKUP(I72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K72" s="158" t="e" vm="78">
+        <v>6</v>
+      </c>
+      <c r="K72" s="158" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(G72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="M72" s="158" t="e" vm="107">
+        <v>111</v>
+      </c>
+      <c r="M72" s="158" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(I72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="O72" s="198" t="str">
         <f ca="1">IF(L72&gt;N72,G72,I72)</f>
-        <v>Canisius</v>
-      </c>
-      <c r="P72" s="205" t="e" vm="107">
+        <v>Auburn</v>
+      </c>
+      <c r="P72" s="205" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21779,7 +21779,7 @@
   </sheetPr>
   <dimension ref="A1:AU70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
@@ -21833,47 +21833,47 @@
   <sheetData>
     <row r="1" spans="1:47" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="279"/>
-      <c r="V1" s="279"/>
-      <c r="W1" s="279"/>
-      <c r="X1" s="279"/>
-      <c r="Y1" s="279"/>
-      <c r="Z1" s="279"/>
-      <c r="AA1" s="279"/>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="279"/>
-      <c r="AD1" s="279"/>
-      <c r="AE1" s="279"/>
-      <c r="AF1" s="279"/>
-      <c r="AG1" s="279"/>
-      <c r="AH1" s="279"/>
-      <c r="AI1" s="279"/>
-      <c r="AJ1" s="279"/>
-      <c r="AK1" s="279"/>
-      <c r="AL1" s="279"/>
-      <c r="AM1" s="279"/>
-      <c r="AN1" s="279"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="270"/>
+      <c r="AA1" s="270"/>
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="270"/>
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="270"/>
+      <c r="AN1" s="270"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:47" s="63" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -21905,13 +21905,13 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="281" t="s">
+      <c r="S2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="281"/>
-      <c r="U2" s="281"/>
-      <c r="V2" s="281"/>
-      <c r="W2" s="281"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
+      <c r="W2" s="274"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
@@ -21989,7 +21989,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="17"/>
-      <c r="AQ3" s="275"/>
+      <c r="AQ3" s="277"/>
       <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
@@ -22021,7 +22021,7 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="275"/>
+      <c r="AQ4" s="277"/>
     </row>
     <row r="5" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -22038,19 +22038,19 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">Games!L5</f>
-        <v>110</v>
-      </c>
-      <c r="F5" s="256" t="str">
+        <v>100</v>
+      </c>
+      <c r="F5" s="251" t="str">
         <f ca="1">Games!O5</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="G5" s="259" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="G5" s="236" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(F5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="280">
+      <c r="H5" s="273">
         <f ca="1">Games!L38</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -22068,21 +22068,21 @@
       <c r="AA5" s="25"/>
       <c r="AD5" s="25"/>
       <c r="AG5" s="25"/>
-      <c r="AH5" s="251">
+      <c r="AH5" s="253">
         <f ca="1">Games!L46</f>
-        <v>118</v>
-      </c>
-      <c r="AI5" s="247" t="e" vm="98">
+        <v>105</v>
+      </c>
+      <c r="AI5" s="286" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AJ5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="256" t="str">
+      <c r="AJ5" s="251" t="str">
         <f ca="1">Games!O21</f>
-        <v>Buffalo</v>
+        <v>Bucknell</v>
       </c>
       <c r="AK5" s="58">
         <f ca="1">Games!L21</f>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AL5" s="46" t="e" vm="97">
         <f>_xlfn.XLOOKUP(AM5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22096,14 +22096,14 @@
         <v>1</v>
       </c>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="275"/>
+      <c r="AQ5" s="277"/>
       <c r="AU5" s="2" t="b">
         <f>IF(AP29="x",TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="255">
+      <c r="A6" s="272">
         <f>IF($AU$5=TRUE,1,"")</f>
         <v>1</v>
       </c>
@@ -22111,9 +22111,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="71"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="254"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="L6" s="25"/>
@@ -22130,20 +22130,20 @@
       <c r="AA6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AG6" s="25"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="248"/>
-      <c r="AJ6" s="257"/>
+      <c r="AH6" s="254"/>
+      <c r="AI6" s="287"/>
+      <c r="AJ6" s="252"/>
       <c r="AK6" s="55"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="28"/>
-      <c r="AO6" s="277">
+      <c r="AO6" s="276">
         <f>IF($AU$5=TRUE,A66+1,"")</f>
         <v>17</v>
       </c>
-      <c r="AQ6" s="275"/>
+      <c r="AQ6" s="277"/>
     </row>
     <row r="7" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="255"/>
+      <c r="A7" s="272"/>
       <c r="B7" s="27">
         <v>16</v>
       </c>
@@ -22157,25 +22157,25 @@
       </c>
       <c r="E7" s="48">
         <f ca="1">Games!N5</f>
-        <v>99</v>
-      </c>
-      <c r="F7" s="276">
+        <v>100</v>
+      </c>
+      <c r="F7" s="271">
         <f>IF($AU$5=TRUE,AO66+1,"")</f>
         <v>33</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="263" t="str">
+      <c r="I7" s="268" t="str">
         <f ca="1">Games!O38</f>
-        <v>Abilene Christian</v>
-      </c>
-      <c r="J7" s="259" t="e" vm="65">
+        <v>Air Force</v>
+      </c>
+      <c r="J7" s="236" t="e" vm="66">
         <f ca="1">_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="251">
+      <c r="K7" s="253">
         <f ca="1">Games!L55</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -22190,27 +22190,27 @@
       <c r="X7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="251">
+      <c r="AE7" s="253">
         <f ca="1">Games!L59</f>
-        <v>95</v>
-      </c>
-      <c r="AF7" s="247" t="e" vm="98">
+        <v>107</v>
+      </c>
+      <c r="AF7" s="286" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(AG7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG7" s="256" t="str">
+      <c r="AG7" s="251" t="str">
         <f ca="1">Games!O46</f>
-        <v>Buffalo</v>
+        <v>Cal Poly</v>
       </c>
       <c r="AH7" s="55"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="276">
+      <c r="AJ7" s="271">
         <f>IF($AU$5=TRUE,F63+1,"")</f>
         <v>41</v>
       </c>
       <c r="AK7" s="59">
         <f ca="1">Games!N21</f>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AL7" s="46" t="e" vm="98">
         <f>_xlfn.XLOOKUP(AM7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22223,20 +22223,20 @@
       <c r="AN7" s="27">
         <v>16</v>
       </c>
-      <c r="AO7" s="277"/>
-      <c r="AQ7" s="275"/>
+      <c r="AO7" s="276"/>
+      <c r="AQ7" s="277"/>
     </row>
     <row r="8" spans="1:47" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="71"/>
-      <c r="F8" s="255"/>
+      <c r="F8" s="272"/>
       <c r="G8" s="15"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="260"/>
-      <c r="K8" s="252"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="254"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="O8" s="25"/>
@@ -22250,15 +22250,15 @@
       <c r="X8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="252"/>
-      <c r="AF8" s="248"/>
-      <c r="AG8" s="257"/>
+      <c r="AE8" s="254"/>
+      <c r="AF8" s="287"/>
+      <c r="AG8" s="252"/>
       <c r="AH8" s="56"/>
-      <c r="AJ8" s="255"/>
+      <c r="AJ8" s="272"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="17"/>
-      <c r="AQ8" s="275"/>
+      <c r="AQ8" s="277"/>
     </row>
     <row r="9" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
@@ -22275,19 +22275,19 @@
       </c>
       <c r="E9" s="46">
         <f ca="1">Games!L6</f>
-        <v>108</v>
-      </c>
-      <c r="F9" s="256" t="str">
+        <v>111</v>
+      </c>
+      <c r="F9" s="251" t="str">
         <f ca="1">Games!O6</f>
         <v>Akron</v>
       </c>
-      <c r="G9" s="259" t="e" vm="67">
+      <c r="G9" s="236" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(F9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="269">
+      <c r="H9" s="266">
         <f ca="1">Games!N38</f>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -22307,21 +22307,21 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="55"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="253">
+      <c r="AH9" s="258">
         <f ca="1">Games!N46</f>
-        <v>95</v>
-      </c>
-      <c r="AI9" s="247" t="e" vm="99">
+        <v>108</v>
+      </c>
+      <c r="AI9" s="286" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(AJ9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ9" s="256" t="str">
+      <c r="AJ9" s="251" t="str">
         <f ca="1">Games!O22</f>
-        <v>Butler</v>
+        <v>Cal Poly</v>
       </c>
       <c r="AK9" s="58">
         <f ca="1">Games!L22</f>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="AL9" s="46" t="e" vm="99">
         <f>_xlfn.XLOOKUP(AM9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22335,10 +22335,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="17"/>
-      <c r="AQ9" s="275"/>
+      <c r="AQ9" s="277"/>
     </row>
     <row r="10" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="278">
+      <c r="A10" s="275">
         <f>IF($AU$5=TRUE,A6+1,"")</f>
         <v>2</v>
       </c>
@@ -22346,9 +22346,9 @@
       <c r="C10" s="38"/>
       <c r="D10" s="71"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="270"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="267"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="50"/>
@@ -22367,20 +22367,20 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="56"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="254"/>
-      <c r="AI10" s="248"/>
-      <c r="AJ10" s="257"/>
+      <c r="AH10" s="259"/>
+      <c r="AI10" s="287"/>
+      <c r="AJ10" s="252"/>
       <c r="AK10" s="55"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="28"/>
-      <c r="AO10" s="277">
+      <c r="AO10" s="276">
         <f>IF($AU$5=TRUE,AO6+1,"")</f>
         <v>18</v>
       </c>
-      <c r="AQ10" s="275"/>
+      <c r="AQ10" s="277"/>
     </row>
     <row r="11" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="278"/>
+      <c r="A11" s="275"/>
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -22398,21 +22398,21 @@
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="255">
+      <c r="I11" s="272">
         <f>IF($AU$5=TRUE,AJ63+1,"")</f>
         <v>49</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="263" t="str">
+      <c r="L11" s="268" t="str">
         <f ca="1">Games!O55</f>
         <v>Alabama A&amp;M</v>
       </c>
-      <c r="M11" s="259" t="e" vm="69">
+      <c r="M11" s="236" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(L11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="251">
+      <c r="N11" s="253">
         <f ca="1">Games!L64</f>
         <v>92</v>
       </c>
@@ -22420,36 +22420,36 @@
       <c r="P11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="282" t="e" vm="107">
+      <c r="T11" s="240" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(S32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="283"/>
-      <c r="V11" s="284"/>
+      <c r="U11" s="241"/>
+      <c r="V11" s="242"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="251">
+      <c r="AB11" s="253">
         <f ca="1">Games!L66</f>
-        <v>108</v>
-      </c>
-      <c r="AC11" s="249" t="e" vm="102">
+        <v>119</v>
+      </c>
+      <c r="AC11" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AD11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="256" t="str">
+      <c r="AD11" s="251" t="str">
         <f ca="1">Games!O59</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="AE11" s="56"/>
-      <c r="AG11" s="255">
+      <c r="AG11" s="272">
         <f>IF($AU$5=TRUE,I59+1,"")</f>
         <v>53</v>
       </c>
       <c r="AJ11" s="24"/>
       <c r="AK11" s="59">
         <f ca="1">Games!N22</f>
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AL11" s="46" t="e" vm="100">
         <f>_xlfn.XLOOKUP(AM11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22462,8 +22462,8 @@
       <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="277"/>
-      <c r="AQ11" s="275"/>
+      <c r="AO11" s="276"/>
+      <c r="AQ11" s="277"/>
     </row>
     <row r="12" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -22472,27 +22472,27 @@
       <c r="D12" s="71"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="255"/>
+      <c r="I12" s="272"/>
       <c r="J12" s="15"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="264"/>
-      <c r="M12" s="260"/>
-      <c r="N12" s="252"/>
+      <c r="L12" s="269"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="254"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="285"/>
-      <c r="U12" s="286"/>
-      <c r="V12" s="287"/>
+      <c r="T12" s="243"/>
+      <c r="U12" s="244"/>
+      <c r="V12" s="245"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="252"/>
-      <c r="AC12" s="250"/>
-      <c r="AD12" s="257"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="239"/>
+      <c r="AD12" s="252"/>
       <c r="AE12" s="56"/>
-      <c r="AG12" s="255"/>
+      <c r="AG12" s="272"/>
       <c r="AJ12" s="24"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="28"/>
@@ -22513,17 +22513,17 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">Games!L7</f>
-        <v>93</v>
-      </c>
-      <c r="F13" s="256" t="str">
+        <v>102</v>
+      </c>
+      <c r="F13" s="251" t="str">
         <f ca="1">Games!O7</f>
         <v>Alabama A&amp;M</v>
       </c>
-      <c r="G13" s="259" t="e" vm="69">
+      <c r="G13" s="236" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(F13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="251">
+      <c r="H13" s="253">
         <f ca="1">Games!L39</f>
         <v>120</v>
       </c>
@@ -22537,9 +22537,9 @@
       <c r="P13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="285"/>
-      <c r="U13" s="286"/>
-      <c r="V13" s="287"/>
+      <c r="T13" s="243"/>
+      <c r="U13" s="244"/>
+      <c r="V13" s="245"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="AA13" s="25"/>
@@ -22547,21 +22547,21 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="56"/>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="251">
+      <c r="AH13" s="253">
         <f ca="1">Games!L47</f>
-        <v>117</v>
-      </c>
-      <c r="AI13" s="249" t="e" vm="102">
+        <v>97</v>
+      </c>
+      <c r="AI13" s="238" t="e" vm="102">
         <f ca="1">_xlfn.XLOOKUP(AJ13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ13" s="256" t="str">
+      <c r="AJ13" s="251" t="str">
         <f ca="1">Games!O23</f>
         <v>Cal State Fullerton</v>
       </c>
       <c r="AK13" s="58">
         <f ca="1">Games!L23</f>
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AL13" s="46" t="e" vm="101">
         <f>_xlfn.XLOOKUP(AM13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22578,7 +22578,7 @@
       <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="255">
+      <c r="A14" s="272">
         <f>IF($AU$5=TRUE,A10+1,"")</f>
         <v>3</v>
       </c>
@@ -22586,9 +22586,9 @@
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="257"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="254"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="50"/>
@@ -22599,9 +22599,9 @@
       <c r="P14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="285"/>
-      <c r="U14" s="286"/>
-      <c r="V14" s="287"/>
+      <c r="T14" s="243"/>
+      <c r="U14" s="244"/>
+      <c r="V14" s="245"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="AA14" s="25"/>
@@ -22609,20 +22609,20 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="56"/>
       <c r="AG14" s="24"/>
-      <c r="AH14" s="252"/>
-      <c r="AI14" s="250"/>
-      <c r="AJ14" s="257"/>
+      <c r="AH14" s="254"/>
+      <c r="AI14" s="239"/>
+      <c r="AJ14" s="252"/>
       <c r="AK14" s="55"/>
       <c r="AM14" s="39"/>
       <c r="AN14" s="28"/>
-      <c r="AO14" s="277">
+      <c r="AO14" s="276">
         <f>IF($AU$5=TRUE,AO10+1,"")</f>
         <v>19</v>
       </c>
-      <c r="AQ14" s="275"/>
+      <c r="AQ14" s="277"/>
     </row>
     <row r="15" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="255"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -22636,23 +22636,23 @@
       </c>
       <c r="E15" s="48">
         <f ca="1">Games!N7</f>
-        <v>90</v>
-      </c>
-      <c r="F15" s="276">
+        <v>93</v>
+      </c>
+      <c r="F15" s="271">
         <f>IF($AU$5=TRUE,F7+1,"")</f>
         <v>34</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="263" t="str">
+      <c r="I15" s="268" t="str">
         <f ca="1">Games!O39</f>
         <v>Alabama A&amp;M</v>
       </c>
-      <c r="J15" s="259" t="e" vm="69">
+      <c r="J15" s="236" t="e" vm="69">
         <f ca="1">_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="269">
+      <c r="K15" s="266">
         <f ca="1">Games!N55</f>
         <v>114</v>
       </c>
@@ -22663,35 +22663,35 @@
       <c r="P15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="287"/>
+      <c r="T15" s="243"/>
+      <c r="U15" s="244"/>
+      <c r="V15" s="245"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="56"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="253">
+      <c r="AE15" s="258">
         <f ca="1">Games!N59</f>
-        <v>99</v>
-      </c>
-      <c r="AF15" s="249" t="e" vm="102">
+        <v>116</v>
+      </c>
+      <c r="AF15" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AG15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG15" s="256" t="str">
+      <c r="AG15" s="251" t="str">
         <f ca="1">Games!O47</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="51"/>
-      <c r="AJ15" s="276">
+      <c r="AJ15" s="271">
         <f>IF($AU$5=TRUE,AJ7+1,"")</f>
         <v>42</v>
       </c>
       <c r="AK15" s="59">
         <f ca="1">Games!N23</f>
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AL15" s="46" t="e" vm="102">
         <f>_xlfn.XLOOKUP(AM15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22704,20 +22704,20 @@
       <c r="AN15" s="27">
         <v>12</v>
       </c>
-      <c r="AO15" s="277"/>
-      <c r="AQ15" s="275"/>
+      <c r="AO15" s="276"/>
+      <c r="AQ15" s="277"/>
     </row>
     <row r="16" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="28"/>
       <c r="C16" s="38"/>
       <c r="D16" s="71"/>
-      <c r="F16" s="255"/>
+      <c r="F16" s="272"/>
       <c r="G16" s="15"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="260"/>
-      <c r="K16" s="270"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="267"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="50"/>
@@ -22725,23 +22725,23 @@
       <c r="P16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="285"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="287"/>
+      <c r="T16" s="243"/>
+      <c r="U16" s="244"/>
+      <c r="V16" s="245"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="56"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="254"/>
-      <c r="AF16" s="250"/>
-      <c r="AG16" s="257"/>
+      <c r="AE16" s="259"/>
+      <c r="AF16" s="239"/>
+      <c r="AG16" s="252"/>
       <c r="AH16" s="56"/>
-      <c r="AJ16" s="255"/>
+      <c r="AJ16" s="272"/>
       <c r="AM16" s="39"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="17"/>
-      <c r="AQ16" s="275"/>
+      <c r="AQ16" s="277"/>
     </row>
     <row r="17" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -22758,19 +22758,19 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">Games!L8</f>
-        <v>97</v>
-      </c>
-      <c r="F17" s="256" t="str">
+        <v>108</v>
+      </c>
+      <c r="F17" s="251" t="str">
         <f ca="1">Games!O8</f>
-        <v>Alcorn State</v>
-      </c>
-      <c r="G17" s="259" t="e" vm="72">
+        <v>Albany (NY)</v>
+      </c>
+      <c r="G17" s="236" t="e" vm="71">
         <f ca="1">_xlfn.XLOOKUP(F17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="269">
+      <c r="H17" s="266">
         <f ca="1">Games!N39</f>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -22781,30 +22781,30 @@
       <c r="P17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="285"/>
-      <c r="U17" s="286"/>
-      <c r="V17" s="287"/>
+      <c r="T17" s="243"/>
+      <c r="U17" s="244"/>
+      <c r="V17" s="245"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="56"/>
       <c r="AD17" s="25"/>
       <c r="AG17" s="24"/>
-      <c r="AH17" s="253">
+      <c r="AH17" s="258">
         <f ca="1">Games!N47</f>
-        <v>96</v>
-      </c>
-      <c r="AI17" s="249" t="e" vm="103">
+        <v>100</v>
+      </c>
+      <c r="AI17" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AJ17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ17" s="256" t="str">
+      <c r="AJ17" s="251" t="str">
         <f ca="1">Games!O24</f>
         <v>Cal State Northridge</v>
       </c>
       <c r="AK17" s="58">
         <f ca="1">Games!L24</f>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL17" s="46" t="e" vm="103">
         <f>_xlfn.XLOOKUP(AM17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22818,10 +22818,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="17"/>
-      <c r="AQ17" s="275"/>
+      <c r="AQ17" s="277"/>
     </row>
     <row r="18" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="255">
+      <c r="A18" s="272">
         <f>IF($AU$5=TRUE,A14+1,"")</f>
         <v>4</v>
       </c>
@@ -22829,9 +22829,9 @@
       <c r="C18" s="38"/>
       <c r="D18" s="71"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="270"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="267"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="L18" s="25"/>
@@ -22841,29 +22841,29 @@
       <c r="P18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="285"/>
-      <c r="U18" s="286"/>
-      <c r="V18" s="287"/>
+      <c r="T18" s="243"/>
+      <c r="U18" s="244"/>
+      <c r="V18" s="245"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="56"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="254"/>
-      <c r="AI18" s="250"/>
-      <c r="AJ18" s="257"/>
+      <c r="AH18" s="259"/>
+      <c r="AI18" s="239"/>
+      <c r="AJ18" s="252"/>
       <c r="AK18" s="55"/>
       <c r="AM18" s="39"/>
       <c r="AN18" s="28"/>
-      <c r="AO18" s="277">
+      <c r="AO18" s="276">
         <f>IF($AU$5=TRUE,AO14+1,"")</f>
         <v>20</v>
       </c>
-      <c r="AQ18" s="275"/>
+      <c r="AQ18" s="277"/>
     </row>
     <row r="19" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="255"/>
+      <c r="A19" s="272"/>
       <c r="B19" s="27">
         <v>13</v>
       </c>
@@ -22877,60 +22877,60 @@
       </c>
       <c r="E19" s="48">
         <f ca="1">Games!N8</f>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="258" t="s">
+      <c r="K19" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="258"/>
+      <c r="L19" s="255"/>
       <c r="M19" s="20"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="263" t="str">
+      <c r="O19" s="268" t="str">
         <f ca="1">Games!O64</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="P19" s="259" t="e" vm="78">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="P19" s="236" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="251">
+      <c r="Q19" s="253">
         <f ca="1">Games!L69</f>
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="289"/>
-      <c r="V19" s="290"/>
+      <c r="T19" s="246"/>
+      <c r="U19" s="247"/>
+      <c r="V19" s="248"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="251">
+      <c r="Y19" s="253">
         <f ca="1">Games!L70</f>
-        <v>120</v>
-      </c>
-      <c r="Z19" s="249" t="e" vm="107">
+        <v>92</v>
+      </c>
+      <c r="Z19" s="238" t="e" vm="103">
         <f ca="1">_xlfn.XLOOKUP(AA19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA19" s="256" t="str">
+      <c r="AA19" s="251" t="str">
         <f ca="1">Games!O66</f>
-        <v>Canisius</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="AB19" s="56"/>
-      <c r="AD19" s="258" t="s">
+      <c r="AD19" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="258"/>
+      <c r="AE19" s="255"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="59">
         <f ca="1">Games!N24</f>
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AL19" s="46" t="e" vm="104">
         <f>_xlfn.XLOOKUP(AM19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22943,8 +22943,8 @@
       <c r="AN19" s="27">
         <v>13</v>
       </c>
-      <c r="AO19" s="277"/>
-      <c r="AQ19" s="275"/>
+      <c r="AO19" s="276"/>
+      <c r="AQ19" s="277"/>
     </row>
     <row r="20" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
@@ -22955,13 +22955,13 @@
       <c r="G20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="258"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="255"/>
       <c r="M20" s="20"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="264"/>
-      <c r="P20" s="260"/>
-      <c r="Q20" s="252"/>
+      <c r="O20" s="269"/>
+      <c r="P20" s="237"/>
+      <c r="Q20" s="254"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -22969,12 +22969,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="252"/>
-      <c r="Z20" s="250"/>
-      <c r="AA20" s="257"/>
+      <c r="Y20" s="254"/>
+      <c r="Z20" s="239"/>
+      <c r="AA20" s="252"/>
       <c r="AB20" s="56"/>
-      <c r="AD20" s="258"/>
-      <c r="AE20" s="258"/>
+      <c r="AD20" s="255"/>
+      <c r="AE20" s="255"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="24"/>
       <c r="AJ20" s="24"/>
@@ -22984,7 +22984,7 @@
       <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="255">
+      <c r="A21" s="272">
         <f>IF($AU$5=TRUE,A18+1,"")</f>
         <v>5</v>
       </c>
@@ -23001,19 +23001,19 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">Games!L9</f>
-        <v>94</v>
-      </c>
-      <c r="F21" s="256" t="str">
+        <v>116</v>
+      </c>
+      <c r="F21" s="251" t="str">
         <f ca="1">Games!O9</f>
-        <v>Appalachian State</v>
-      </c>
-      <c r="G21" s="259" t="e" vm="74">
+        <v>American</v>
+      </c>
+      <c r="G21" s="236" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(F21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="251">
+      <c r="H21" s="253">
         <f ca="1">Games!L40</f>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -23041,21 +23041,21 @@
         <v>59</v>
       </c>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="251">
+      <c r="AH21" s="253">
         <f ca="1">Games!L48</f>
-        <v>109</v>
-      </c>
-      <c r="AI21" s="249" t="e" vm="105">
+        <v>120</v>
+      </c>
+      <c r="AI21" s="238" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(AJ21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ21" s="256" t="str">
+      <c r="AJ21" s="251" t="str">
         <f ca="1">Games!O25</f>
         <v>California Baptist</v>
       </c>
       <c r="AK21" s="58">
         <f ca="1">Games!L25</f>
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AL21" s="46" t="e" vm="105">
         <f>_xlfn.XLOOKUP(AM21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23072,14 +23072,14 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="255"/>
+      <c r="A22" s="272"/>
       <c r="B22" s="28"/>
       <c r="C22" s="38"/>
       <c r="D22" s="71"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="254"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="L22" s="25"/>
@@ -23100,17 +23100,17 @@
       <c r="AB22" s="56"/>
       <c r="AD22" s="29"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="252"/>
-      <c r="AI22" s="250"/>
-      <c r="AJ22" s="257"/>
+      <c r="AH22" s="254"/>
+      <c r="AI22" s="239"/>
+      <c r="AJ22" s="252"/>
       <c r="AK22" s="55"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="28"/>
-      <c r="AO22" s="277">
+      <c r="AO22" s="276">
         <f>IF($AU$5=TRUE,AO18+1,"")</f>
         <v>21</v>
       </c>
-      <c r="AQ22" s="275"/>
+      <c r="AQ22" s="277"/>
     </row>
     <row r="23" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
@@ -23127,25 +23127,25 @@
       </c>
       <c r="E23" s="48">
         <f ca="1">Games!N9</f>
-        <v>95</v>
-      </c>
-      <c r="F23" s="276">
+        <v>114</v>
+      </c>
+      <c r="F23" s="271">
         <f>IF($AU$5=TRUE,F15+1,"")</f>
         <v>35</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="263" t="str">
+      <c r="I23" s="268" t="str">
         <f ca="1">Games!O40</f>
         <v>Arizona</v>
       </c>
-      <c r="J23" s="259" t="e" vm="75">
+      <c r="J23" s="236" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="251">
+      <c r="K23" s="253">
         <f ca="1">Games!L56</f>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -23164,27 +23164,27 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="56"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="251">
+      <c r="AE23" s="253">
         <f ca="1">Games!L60</f>
-        <v>114</v>
-      </c>
-      <c r="AF23" s="249" t="e" vm="107">
+        <v>95</v>
+      </c>
+      <c r="AF23" s="238" t="e" vm="105">
         <f ca="1">_xlfn.XLOOKUP(AG23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG23" s="256" t="str">
+      <c r="AG23" s="251" t="str">
         <f ca="1">Games!O48</f>
-        <v>Canisius</v>
+        <v>California Baptist</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="51"/>
-      <c r="AJ23" s="276">
+      <c r="AJ23" s="271">
         <f>IF($AU$5=TRUE,AJ15+1,"")</f>
         <v>43</v>
       </c>
       <c r="AK23" s="59">
         <f ca="1">Games!N25</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AL23" s="46" t="e" vm="106">
         <f>_xlfn.XLOOKUP(AM23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23197,20 +23197,20 @@
       <c r="AN23" s="27">
         <v>11</v>
       </c>
-      <c r="AO23" s="277"/>
-      <c r="AQ23" s="275"/>
+      <c r="AO23" s="276"/>
+      <c r="AQ23" s="277"/>
     </row>
     <row r="24" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="28"/>
       <c r="C24" s="38"/>
       <c r="D24" s="71"/>
-      <c r="F24" s="255"/>
+      <c r="F24" s="272"/>
       <c r="G24" s="15"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="264"/>
-      <c r="J24" s="260"/>
-      <c r="K24" s="252"/>
+      <c r="I24" s="269"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="254"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="50"/>
@@ -23228,15 +23228,15 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="56"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="252"/>
-      <c r="AF24" s="250"/>
-      <c r="AG24" s="257"/>
+      <c r="AE24" s="254"/>
+      <c r="AF24" s="239"/>
+      <c r="AG24" s="252"/>
       <c r="AH24" s="56"/>
-      <c r="AJ24" s="255"/>
+      <c r="AJ24" s="272"/>
       <c r="AM24" s="39"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="17"/>
-      <c r="AQ24" s="275"/>
+      <c r="AQ24" s="277"/>
     </row>
     <row r="25" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -23253,19 +23253,19 @@
       </c>
       <c r="E25" s="46">
         <f ca="1">Games!L10</f>
-        <v>110</v>
-      </c>
-      <c r="F25" s="256" t="str">
+        <v>115</v>
+      </c>
+      <c r="F25" s="251" t="str">
         <f ca="1">Games!O10</f>
         <v>Arizona</v>
       </c>
-      <c r="G25" s="259" t="e" vm="75">
+      <c r="G25" s="236" t="e" vm="75">
         <f ca="1">_xlfn.XLOOKUP(F25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="269">
+      <c r="H25" s="266">
         <f ca="1">Games!N40</f>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -23289,21 +23289,21 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="55"/>
       <c r="AG25" s="24"/>
-      <c r="AH25" s="253">
+      <c r="AH25" s="258">
         <f ca="1">Games!N48</f>
-        <v>112</v>
-      </c>
-      <c r="AI25" s="249" t="e" vm="107">
+        <v>117</v>
+      </c>
+      <c r="AI25" s="238" t="e" vm="107">
         <f ca="1">_xlfn.XLOOKUP(AJ25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ25" s="256" t="str">
+      <c r="AJ25" s="251" t="str">
         <f ca="1">Games!O26</f>
         <v>Canisius</v>
       </c>
       <c r="AK25" s="58">
         <f ca="1">Games!L26</f>
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AL25" s="46" t="e" vm="107">
         <f>_xlfn.XLOOKUP(AM25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23317,10 +23317,10 @@
         <v>3</v>
       </c>
       <c r="AO25" s="17"/>
-      <c r="AQ25" s="275"/>
+      <c r="AQ25" s="277"/>
     </row>
     <row r="26" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="255">
+      <c r="A26" s="272">
         <f>IF($AU$5=TRUE,A21+1,"")</f>
         <v>6</v>
       </c>
@@ -23328,9 +23328,9 @@
       <c r="C26" s="38"/>
       <c r="D26" s="71"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="270"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="237"/>
+      <c r="H26" s="267"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="50"/>
@@ -23353,20 +23353,20 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="56"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="254"/>
-      <c r="AI26" s="250"/>
-      <c r="AJ26" s="257"/>
+      <c r="AH26" s="259"/>
+      <c r="AI26" s="239"/>
+      <c r="AJ26" s="252"/>
       <c r="AK26" s="55"/>
       <c r="AM26" s="39"/>
       <c r="AN26" s="28"/>
-      <c r="AO26" s="277">
+      <c r="AO26" s="276">
         <f>IF($AU$5=TRUE,AO22+1,"")</f>
         <v>22</v>
       </c>
-      <c r="AQ26" s="275"/>
+      <c r="AQ26" s="277"/>
     </row>
     <row r="27" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="255"/>
+      <c r="A27" s="272"/>
       <c r="B27" s="27">
         <v>14</v>
       </c>
@@ -23380,70 +23380,70 @@
       </c>
       <c r="E27" s="48">
         <f ca="1">Games!N10</f>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" s="255">
+      <c r="I27" s="272">
         <f>IF($AU$5=TRUE,I11+1,"")</f>
         <v>50</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="263" t="str">
+      <c r="L27" s="268" t="str">
         <f ca="1">Games!O56</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="M27" s="259" t="e" vm="78">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="M27" s="236" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(L27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N27" s="269">
+      <c r="N27" s="266">
         <f ca="1">Games!N64</f>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="263" t="str">
+      <c r="R27" s="268" t="str">
         <f ca="1">Games!O69</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="S27" s="256"/>
-      <c r="T27" s="256"/>
-      <c r="U27" s="271" t="e" vm="78">
+        <v>Auburn</v>
+      </c>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="278" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(R27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V27" s="273">
+      <c r="V27" s="256">
         <f ca="1">Games!L72</f>
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="56"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="253">
+      <c r="AB27" s="258">
         <f ca="1">Games!N66</f>
-        <v>120</v>
-      </c>
-      <c r="AC27" s="249" t="e" vm="107">
+        <v>105</v>
+      </c>
+      <c r="AC27" s="238" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(AD27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" s="256" t="str">
+      <c r="AD27" s="251" t="str">
         <f ca="1">Games!O60</f>
-        <v>Canisius</v>
+        <v>Charlotte</v>
       </c>
       <c r="AE27" s="56"/>
-      <c r="AG27" s="255">
+      <c r="AG27" s="272">
         <f>IF($AU$5=TRUE,AG11+1,"")</f>
         <v>54</v>
       </c>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="59">
         <f ca="1">Games!N26</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AL27" s="46" t="e" vm="108">
         <f>_xlfn.XLOOKUP(AM27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23456,8 +23456,8 @@
       <c r="AN27" s="27">
         <v>14</v>
       </c>
-      <c r="AO27" s="277"/>
-      <c r="AQ27" s="275"/>
+      <c r="AO27" s="276"/>
+      <c r="AQ27" s="277"/>
     </row>
     <row r="28" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
@@ -23466,29 +23466,29 @@
       <c r="D28" s="71"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" s="255"/>
+      <c r="I28" s="272"/>
       <c r="J28" s="15"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="260"/>
-      <c r="N28" s="270"/>
+      <c r="L28" s="269"/>
+      <c r="M28" s="237"/>
+      <c r="N28" s="267"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="257"/>
-      <c r="T28" s="257"/>
-      <c r="U28" s="272"/>
-      <c r="V28" s="274"/>
+      <c r="R28" s="269"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="252"/>
+      <c r="U28" s="279"/>
+      <c r="V28" s="257"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="56"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="254"/>
-      <c r="AC28" s="250"/>
-      <c r="AD28" s="257"/>
+      <c r="AB28" s="259"/>
+      <c r="AC28" s="239"/>
+      <c r="AD28" s="252"/>
       <c r="AE28" s="56"/>
-      <c r="AG28" s="255"/>
+      <c r="AG28" s="272"/>
       <c r="AJ28" s="24"/>
       <c r="AM28" s="39"/>
       <c r="AN28" s="28"/>
@@ -23509,19 +23509,19 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">Games!L11</f>
-        <v>113</v>
-      </c>
-      <c r="F29" s="256" t="str">
+        <v>102</v>
+      </c>
+      <c r="F29" s="251" t="str">
         <f ca="1">Games!O11</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="G29" s="259" t="e" vm="78">
+        <v>Arkansas</v>
+      </c>
+      <c r="G29" s="236" t="e" vm="77">
         <f ca="1">_xlfn.XLOOKUP(F29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="251">
+      <c r="H29" s="253">
         <f ca="1">Games!L41</f>
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -23543,21 +23543,21 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="56"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="251">
+      <c r="AH29" s="253">
         <f ca="1">Games!L49</f>
-        <v>103</v>
-      </c>
-      <c r="AI29" s="249" t="e" vm="109">
+        <v>90</v>
+      </c>
+      <c r="AI29" s="238" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(AJ29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ29" s="256" t="str">
+      <c r="AJ29" s="251" t="str">
         <f ca="1">Games!O27</f>
-        <v>Central Connecticut State</v>
+        <v>Central Michigan</v>
       </c>
       <c r="AK29" s="58">
         <f ca="1">Games!L27</f>
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="AL29" s="46" t="e" vm="109">
         <f>_xlfn.XLOOKUP(AM29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23579,7 +23579,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="255">
+      <c r="A30" s="272">
         <f>IF($AU$5=TRUE,A26+1,"")</f>
         <v>7</v>
       </c>
@@ -23587,9 +23587,9 @@
       <c r="C30" s="38"/>
       <c r="D30" s="71"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="257"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="254"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="50"/>
@@ -23610,19 +23610,19 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="56"/>
       <c r="AG30" s="24"/>
-      <c r="AH30" s="252"/>
-      <c r="AI30" s="250"/>
-      <c r="AJ30" s="257"/>
+      <c r="AH30" s="254"/>
+      <c r="AI30" s="239"/>
+      <c r="AJ30" s="252"/>
       <c r="AK30" s="55"/>
       <c r="AM30" s="39"/>
       <c r="AN30" s="28"/>
-      <c r="AO30" s="277">
+      <c r="AO30" s="276">
         <f>IF($AU$5=TRUE,AO26+1,"")</f>
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="255"/>
+      <c r="A31" s="272"/>
       <c r="B31" s="27">
         <v>10</v>
       </c>
@@ -23636,25 +23636,25 @@
       </c>
       <c r="E31" s="48">
         <f ca="1">Games!N11</f>
-        <v>113</v>
-      </c>
-      <c r="F31" s="276">
+        <v>97</v>
+      </c>
+      <c r="F31" s="271">
         <f>IF($AU$5=TRUE,F23+1,"")</f>
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="263" t="str">
+      <c r="I31" s="268" t="str">
         <f ca="1">Games!O41</f>
-        <v>Arkansas State</v>
-      </c>
-      <c r="J31" s="259" t="e" vm="78">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="J31" s="236" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="269">
+      <c r="K31" s="266">
         <f ca="1">Games!N56</f>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -23662,38 +23662,38 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="286" t="s">
+      <c r="S31" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="286"/>
-      <c r="U31" s="286"/>
-      <c r="V31" s="286"/>
-      <c r="W31" s="286"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="244"/>
+      <c r="V31" s="244"/>
+      <c r="W31" s="244"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="56"/>
       <c r="AA31" s="25"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="253">
+      <c r="AE31" s="258">
         <f ca="1">Games!N60</f>
-        <v>104</v>
-      </c>
-      <c r="AF31" s="249" t="e" vm="112">
+        <v>117</v>
+      </c>
+      <c r="AF31" s="238" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(AG31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG31" s="256" t="str">
+      <c r="AG31" s="251" t="str">
         <f ca="1">Games!O49</f>
         <v>Charlotte</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="51"/>
-      <c r="AJ31" s="276">
+      <c r="AJ31" s="271">
         <f>IF($AU$5=TRUE,AJ23+1,"")</f>
         <v>44</v>
       </c>
       <c r="AK31" s="59">
         <f ca="1">Games!N27</f>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AL31" s="46" t="e" vm="110">
         <f>_xlfn.XLOOKUP(AM31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23706,42 +23706,42 @@
       <c r="AN31" s="27">
         <v>10</v>
       </c>
-      <c r="AO31" s="277"/>
+      <c r="AO31" s="276"/>
     </row>
     <row r="32" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="28"/>
       <c r="C32" s="38"/>
       <c r="D32" s="71"/>
-      <c r="F32" s="255"/>
+      <c r="F32" s="272"/>
       <c r="G32" s="15"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="264"/>
-      <c r="J32" s="260"/>
-      <c r="K32" s="270"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="267"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="30"/>
-      <c r="S32" s="293" t="str">
+      <c r="S32" s="260" t="str">
         <f ca="1">Games!O72</f>
-        <v>Canisius</v>
-      </c>
-      <c r="T32" s="294"/>
-      <c r="U32" s="294"/>
-      <c r="V32" s="294"/>
-      <c r="W32" s="295"/>
+        <v>Auburn</v>
+      </c>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="262"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="56"/>
       <c r="AA32" s="25"/>
       <c r="AD32" s="25"/>
-      <c r="AE32" s="254"/>
-      <c r="AF32" s="250"/>
-      <c r="AG32" s="257"/>
+      <c r="AE32" s="259"/>
+      <c r="AF32" s="239"/>
+      <c r="AG32" s="252"/>
       <c r="AH32" s="56"/>
-      <c r="AJ32" s="255"/>
+      <c r="AJ32" s="272"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="17"/>
@@ -23761,19 +23761,19 @@
       </c>
       <c r="E33" s="46">
         <f ca="1">Games!L12</f>
-        <v>90</v>
-      </c>
-      <c r="F33" s="256" t="str">
+        <v>116</v>
+      </c>
+      <c r="F33" s="251" t="str">
         <f ca="1">Games!O12</f>
-        <v>Army</v>
-      </c>
-      <c r="G33" s="259" t="e" vm="80">
+        <v>Arkansas-Pine Bluff</v>
+      </c>
+      <c r="G33" s="236" t="e" vm="79">
         <f ca="1">_xlfn.XLOOKUP(F33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="269">
+      <c r="H33" s="266">
         <f ca="1">Games!N41</f>
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -23783,31 +23783,31 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="30"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="297"/>
-      <c r="U33" s="297"/>
-      <c r="V33" s="297"/>
-      <c r="W33" s="298"/>
+      <c r="S33" s="263"/>
+      <c r="T33" s="264"/>
+      <c r="U33" s="264"/>
+      <c r="V33" s="264"/>
+      <c r="W33" s="265"/>
       <c r="X33" s="31"/>
       <c r="Y33" s="56"/>
       <c r="AA33" s="25"/>
       <c r="AD33" s="25"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="253">
+      <c r="AH33" s="258">
         <f ca="1">Games!N49</f>
-        <v>118</v>
-      </c>
-      <c r="AI33" s="249" t="e" vm="112">
+        <v>106</v>
+      </c>
+      <c r="AI33" s="238" t="e" vm="112">
         <f ca="1">_xlfn.XLOOKUP(AJ33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ33" s="256" t="str">
+      <c r="AJ33" s="251" t="str">
         <f ca="1">Games!O28</f>
         <v>Charlotte</v>
       </c>
       <c r="AK33" s="58">
         <f ca="1">Games!L28</f>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AL33" s="46" t="e" vm="111">
         <f>_xlfn.XLOOKUP(AM33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23824,7 +23824,7 @@
       <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="255">
+      <c r="A34" s="272">
         <f>IF($AU$5=TRUE,A30+1,"")</f>
         <v>8</v>
       </c>
@@ -23832,9 +23832,9 @@
       <c r="C34" s="38"/>
       <c r="D34" s="71"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="257"/>
-      <c r="G34" s="260"/>
-      <c r="H34" s="270"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="237"/>
+      <c r="H34" s="267"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="L34" s="25"/>
@@ -23853,20 +23853,20 @@
       <c r="AA34" s="25"/>
       <c r="AD34" s="25"/>
       <c r="AG34" s="24"/>
-      <c r="AH34" s="254"/>
-      <c r="AI34" s="250"/>
-      <c r="AJ34" s="257"/>
+      <c r="AH34" s="259"/>
+      <c r="AI34" s="239"/>
+      <c r="AJ34" s="252"/>
       <c r="AK34" s="55"/>
       <c r="AM34" s="39"/>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="277">
+      <c r="AO34" s="276">
         <f>IF($AU$5=TRUE,AO30+1,"")</f>
         <v>24</v>
       </c>
-      <c r="AQ34" s="275"/>
+      <c r="AQ34" s="277"/>
     </row>
     <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="255"/>
+      <c r="A35" s="272"/>
       <c r="B35" s="27">
         <v>15</v>
       </c>
@@ -23880,7 +23880,7 @@
       </c>
       <c r="E35" s="48">
         <f ca="1">Games!N12</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -23896,12 +23896,12 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="255">
+      <c r="T35" s="272">
         <f>IF($AU$5=TRUE,AA35+1,"")</f>
         <v>63</v>
       </c>
-      <c r="U35" s="255"/>
-      <c r="V35" s="255"/>
+      <c r="U35" s="272"/>
+      <c r="V35" s="272"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="56"/>
@@ -23914,7 +23914,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="59">
         <f ca="1">Games!N28</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AL35" s="46" t="e" vm="112">
         <f>_xlfn.XLOOKUP(AM35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23927,8 +23927,8 @@
       <c r="AN35" s="27">
         <v>15</v>
       </c>
-      <c r="AO35" s="277"/>
-      <c r="AQ35" s="275"/>
+      <c r="AO35" s="276"/>
+      <c r="AQ35" s="277"/>
     </row>
     <row r="36" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
@@ -23959,7 +23959,7 @@
       <c r="AM36" s="39"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="17"/>
-      <c r="AQ36" s="275"/>
+      <c r="AQ36" s="277"/>
     </row>
     <row r="37" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
@@ -23976,19 +23976,19 @@
       </c>
       <c r="E37" s="46">
         <f ca="1">Games!L13</f>
-        <v>91</v>
-      </c>
-      <c r="F37" s="256" t="str">
+        <v>117</v>
+      </c>
+      <c r="F37" s="251" t="str">
         <f ca="1">Games!O13</f>
-        <v>Austin Peay</v>
-      </c>
-      <c r="G37" s="259" t="e" vm="82">
+        <v>Auburn</v>
+      </c>
+      <c r="G37" s="236" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(F37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="251">
+      <c r="H37" s="253">
         <f ca="1">Games!L42</f>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -24008,21 +24008,21 @@
       <c r="AA37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AG37" s="24"/>
-      <c r="AH37" s="251">
+      <c r="AH37" s="253">
         <f ca="1">Games!L50</f>
-        <v>106</v>
-      </c>
-      <c r="AI37" s="249" t="e" vm="114">
+        <v>105</v>
+      </c>
+      <c r="AI37" s="238" t="e" vm="113">
         <f ca="1">_xlfn.XLOOKUP(AJ37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ37" s="256" t="str">
+      <c r="AJ37" s="251" t="str">
         <f ca="1">Games!O29</f>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="AK37" s="58">
         <f ca="1">Games!L29</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AL37" s="46" t="e" vm="113">
         <f>_xlfn.XLOOKUP(AM37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24036,10 +24036,10 @@
         <v>1</v>
       </c>
       <c r="AO37" s="17"/>
-      <c r="AQ37" s="275"/>
+      <c r="AQ37" s="277"/>
     </row>
     <row r="38" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255">
+      <c r="A38" s="272">
         <f>IF($AU$5=TRUE,A34+1,"")</f>
         <v>9</v>
       </c>
@@ -24047,9 +24047,9 @@
       <c r="C38" s="38"/>
       <c r="D38" s="71"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="257"/>
-      <c r="G38" s="260"/>
-      <c r="H38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="254"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -24068,19 +24068,19 @@
       <c r="AA38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AG38" s="24"/>
-      <c r="AH38" s="252"/>
-      <c r="AI38" s="250"/>
-      <c r="AJ38" s="257"/>
+      <c r="AH38" s="254"/>
+      <c r="AI38" s="239"/>
+      <c r="AJ38" s="252"/>
       <c r="AK38" s="55"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="277">
+      <c r="AO38" s="276">
         <f>IF($AU$5=TRUE,AO34+1,"")</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="255"/>
+      <c r="A39" s="272"/>
       <c r="B39" s="27">
         <v>16</v>
       </c>
@@ -24094,25 +24094,25 @@
       </c>
       <c r="E39" s="48">
         <f ca="1">Games!N13</f>
-        <v>113</v>
-      </c>
-      <c r="F39" s="276">
+        <v>104</v>
+      </c>
+      <c r="F39" s="271">
         <f>IF($AU$5=TRUE,F31+1,"")</f>
         <v>37</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="263" t="str">
+      <c r="I39" s="268" t="str">
         <f ca="1">Games!O42</f>
-        <v>Ball State</v>
-      </c>
-      <c r="J39" s="259" t="e" vm="83">
+        <v>Auburn</v>
+      </c>
+      <c r="J39" s="236" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="251">
+      <c r="K39" s="253">
         <f ca="1">Games!L57</f>
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -24121,44 +24121,44 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="273">
+      <c r="T39" s="256">
         <f ca="1">Games!N72</f>
-        <v>112</v>
-      </c>
-      <c r="U39" s="265" t="e" vm="107">
+        <v>100</v>
+      </c>
+      <c r="U39" s="282" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(V39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="256" t="str">
+      <c r="V39" s="251" t="str">
         <f ca="1">Games!O70</f>
-        <v>Canisius</v>
-      </c>
-      <c r="W39" s="256"/>
-      <c r="X39" s="267"/>
+        <v>Colorado</v>
+      </c>
+      <c r="W39" s="251"/>
+      <c r="X39" s="284"/>
       <c r="Y39" s="56"/>
       <c r="AA39" s="25"/>
       <c r="AD39" s="25"/>
-      <c r="AE39" s="253">
+      <c r="AE39" s="258">
         <f ca="1">Games!L61</f>
-        <v>96</v>
-      </c>
-      <c r="AF39" s="249" t="e" vm="115">
+        <v>115</v>
+      </c>
+      <c r="AF39" s="238" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AG39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG39" s="256" t="str">
+      <c r="AG39" s="251" t="str">
         <f ca="1">Games!O50</f>
         <v>Cincinnati</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="51"/>
-      <c r="AJ39" s="276">
+      <c r="AJ39" s="271">
         <f>IF($AU$5=TRUE,AJ31+1,"")</f>
         <v>45</v>
       </c>
       <c r="AK39" s="59">
         <f ca="1">Games!N29</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL39" s="46" t="e" vm="114">
         <f>_xlfn.XLOOKUP(AM39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24171,19 +24171,19 @@
       <c r="AN39" s="27">
         <v>16</v>
       </c>
-      <c r="AO39" s="277"/>
+      <c r="AO39" s="276"/>
     </row>
     <row r="40" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="71"/>
-      <c r="F40" s="255"/>
+      <c r="F40" s="272"/>
       <c r="G40" s="15"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="260"/>
-      <c r="K40" s="252"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="237"/>
+      <c r="K40" s="254"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="O40" s="25"/>
@@ -24191,19 +24191,19 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="274"/>
-      <c r="U40" s="266"/>
-      <c r="V40" s="257"/>
-      <c r="W40" s="257"/>
-      <c r="X40" s="268"/>
+      <c r="T40" s="257"/>
+      <c r="U40" s="283"/>
+      <c r="V40" s="252"/>
+      <c r="W40" s="252"/>
+      <c r="X40" s="285"/>
       <c r="Y40" s="56"/>
       <c r="AA40" s="25"/>
       <c r="AD40" s="25"/>
-      <c r="AE40" s="254"/>
-      <c r="AF40" s="250"/>
-      <c r="AG40" s="257"/>
+      <c r="AE40" s="259"/>
+      <c r="AF40" s="239"/>
+      <c r="AG40" s="252"/>
       <c r="AH40" s="56"/>
-      <c r="AJ40" s="255"/>
+      <c r="AJ40" s="272"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="28"/>
       <c r="AO40" s="17"/>
@@ -24225,17 +24225,17 @@
         <f ca="1">Games!L14</f>
         <v>103</v>
       </c>
-      <c r="F41" s="256" t="str">
+      <c r="F41" s="251" t="str">
         <f ca="1">Games!O14</f>
         <v>Ball State</v>
       </c>
-      <c r="G41" s="259" t="e" vm="83">
+      <c r="G41" s="236" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(F41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="269">
+      <c r="H41" s="266">
         <f ca="1">Games!N42</f>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -24257,15 +24257,15 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="55"/>
       <c r="AG41" s="24"/>
-      <c r="AH41" s="253">
+      <c r="AH41" s="258">
         <f ca="1">Games!N50</f>
-        <v>107</v>
-      </c>
-      <c r="AI41" s="249" t="e" vm="115">
+        <v>111</v>
+      </c>
+      <c r="AI41" s="238" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AJ41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ41" s="256" t="str">
+      <c r="AJ41" s="251" t="str">
         <f ca="1">Games!O30</f>
         <v>Cincinnati</v>
       </c>
@@ -24287,7 +24287,7 @@
       <c r="AO41" s="17"/>
     </row>
     <row r="42" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="255">
+      <c r="A42" s="272">
         <f>IF($AU$5=TRUE,A38+1,"")</f>
         <v>10</v>
       </c>
@@ -24295,9 +24295,9 @@
       <c r="C42" s="38"/>
       <c r="D42" s="71"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="260"/>
-      <c r="H42" s="270"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="237"/>
+      <c r="H42" s="267"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="50"/>
@@ -24318,19 +24318,19 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="56"/>
       <c r="AG42" s="24"/>
-      <c r="AH42" s="254"/>
-      <c r="AI42" s="250"/>
-      <c r="AJ42" s="257"/>
+      <c r="AH42" s="259"/>
+      <c r="AI42" s="239"/>
+      <c r="AJ42" s="252"/>
       <c r="AK42" s="55"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="28"/>
-      <c r="AO42" s="277">
+      <c r="AO42" s="276">
         <f>IF($AU$5=TRUE,AO38+1,"")</f>
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255"/>
+      <c r="A43" s="272"/>
       <c r="B43" s="27">
         <v>9</v>
       </c>
@@ -24344,27 +24344,27 @@
       </c>
       <c r="E43" s="48">
         <f ca="1">Games!N14</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" s="255">
+      <c r="I43" s="272">
         <f>IF($AU$5=TRUE,I27+1,"")</f>
         <v>51</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="263" t="str">
+      <c r="L43" s="268" t="str">
         <f ca="1">Games!O57</f>
-        <v>Ball State</v>
-      </c>
-      <c r="M43" s="259" t="e" vm="83">
+        <v>Auburn</v>
+      </c>
+      <c r="M43" s="236" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(L43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="251">
+      <c r="N43" s="253">
         <f ca="1">Games!L65</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -24378,27 +24378,27 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="56"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="251">
+      <c r="AB43" s="253">
         <f ca="1">Games!L67</f>
-        <v>102</v>
-      </c>
-      <c r="AC43" s="249" t="e" vm="119">
+        <v>92</v>
+      </c>
+      <c r="AC43" s="238" t="e" vm="115">
         <f ca="1">_xlfn.XLOOKUP(AD43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD43" s="261" t="str">
+      <c r="AD43" s="280" t="str">
         <f ca="1">Games!O61</f>
-        <v>Colgate</v>
+        <v>Cincinnati</v>
       </c>
       <c r="AE43" s="56"/>
-      <c r="AG43" s="255">
+      <c r="AG43" s="272">
         <f>IF($AU$5=TRUE,AG27+1,"")</f>
         <v>55</v>
       </c>
       <c r="AJ43" s="24"/>
       <c r="AK43" s="59">
         <f ca="1">Games!N30</f>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="AL43" s="46" t="e" vm="116">
         <f>_xlfn.XLOOKUP(AM43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24411,7 +24411,7 @@
       <c r="AN43" s="27">
         <v>9</v>
       </c>
-      <c r="AO43" s="277"/>
+      <c r="AO43" s="276"/>
     </row>
     <row r="44" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
@@ -24420,12 +24420,12 @@
       <c r="D44" s="71"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="I44" s="255"/>
+      <c r="I44" s="272"/>
       <c r="J44" s="15"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="264"/>
-      <c r="M44" s="260"/>
-      <c r="N44" s="252"/>
+      <c r="L44" s="269"/>
+      <c r="M44" s="237"/>
+      <c r="N44" s="254"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="50"/>
@@ -24438,11 +24438,11 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="56"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="250"/>
-      <c r="AD44" s="262"/>
+      <c r="AB44" s="254"/>
+      <c r="AC44" s="239"/>
+      <c r="AD44" s="281"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="255"/>
+      <c r="AG44" s="272"/>
       <c r="AJ44" s="24"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="28"/>
@@ -24463,19 +24463,19 @@
       </c>
       <c r="E45" s="46">
         <f ca="1">Games!L15</f>
-        <v>107</v>
-      </c>
-      <c r="F45" s="256" t="str">
+        <v>97</v>
+      </c>
+      <c r="F45" s="251" t="str">
         <f ca="1">Games!O15</f>
-        <v>Bellarmine</v>
-      </c>
-      <c r="G45" s="259" t="e" vm="85">
+        <v>Belmont</v>
+      </c>
+      <c r="G45" s="236" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(F45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="251">
+      <c r="H45" s="253">
         <f ca="1">Games!L43</f>
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -24499,21 +24499,21 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="56"/>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="251">
+      <c r="AH45" s="253">
         <f ca="1">Games!L51</f>
-        <v>92</v>
-      </c>
-      <c r="AI45" s="249" t="e" vm="118">
+        <v>110</v>
+      </c>
+      <c r="AI45" s="238" t="e" vm="117">
         <f ca="1">_xlfn.XLOOKUP(AJ45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ45" s="256" t="str">
+      <c r="AJ45" s="251" t="str">
         <f ca="1">Games!O31</f>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="AK45" s="58">
         <f ca="1">Games!L31</f>
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AL45" s="46" t="e" vm="117">
         <f>_xlfn.XLOOKUP(AM45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24529,7 +24529,7 @@
       <c r="AO45" s="17"/>
     </row>
     <row r="46" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="255">
+      <c r="A46" s="272">
         <f>IF($AU$5=TRUE,A42+1,"")</f>
         <v>11</v>
       </c>
@@ -24537,9 +24537,9 @@
       <c r="C46" s="38"/>
       <c r="D46" s="71"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="260"/>
-      <c r="H46" s="252"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="237"/>
+      <c r="H46" s="254"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="50"/>
@@ -24562,19 +24562,19 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="24"/>
-      <c r="AH46" s="252"/>
-      <c r="AI46" s="250"/>
-      <c r="AJ46" s="257"/>
+      <c r="AH46" s="254"/>
+      <c r="AI46" s="239"/>
+      <c r="AJ46" s="252"/>
       <c r="AK46" s="55"/>
       <c r="AM46" s="39"/>
       <c r="AN46" s="28"/>
-      <c r="AO46" s="277">
+      <c r="AO46" s="276">
         <f>IF($AU$5=TRUE,AO42+1,"")</f>
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="255"/>
+      <c r="A47" s="272"/>
       <c r="B47" s="27">
         <v>12</v>
       </c>
@@ -24588,25 +24588,25 @@
       </c>
       <c r="E47" s="48">
         <f ca="1">Games!N15</f>
-        <v>94</v>
-      </c>
-      <c r="F47" s="276">
+        <v>109</v>
+      </c>
+      <c r="F47" s="271">
         <f>IF($AU$5=TRUE,F39+1,"")</f>
         <v>38</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="263" t="str">
+      <c r="I47" s="268" t="str">
         <f ca="1">Games!O43</f>
         <v>Binghamton</v>
       </c>
-      <c r="J47" s="259" t="e" vm="88">
+      <c r="J47" s="236" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="269">
+      <c r="K47" s="266">
         <f ca="1">Games!N57</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -24625,27 +24625,27 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="56"/>
       <c r="AD47" s="25"/>
-      <c r="AE47" s="253">
+      <c r="AE47" s="258">
         <f ca="1">Games!N61</f>
-        <v>119</v>
-      </c>
-      <c r="AF47" s="249" t="e" vm="119">
+        <v>96</v>
+      </c>
+      <c r="AF47" s="238" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(AG47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG47" s="256" t="str">
+      <c r="AG47" s="251" t="str">
         <f ca="1">Games!O51</f>
         <v>Colgate</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="51"/>
-      <c r="AJ47" s="276">
+      <c r="AJ47" s="271">
         <f>IF($AU$5=TRUE,AJ39+1,"")</f>
         <v>46</v>
       </c>
       <c r="AK47" s="59">
         <f ca="1">Games!N31</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL47" s="46" t="e" vm="118">
         <f>_xlfn.XLOOKUP(AM47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24658,19 +24658,19 @@
       <c r="AN47" s="27">
         <v>12</v>
       </c>
-      <c r="AO47" s="277"/>
+      <c r="AO47" s="276"/>
     </row>
     <row r="48" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="28"/>
       <c r="C48" s="38"/>
       <c r="D48" s="71"/>
-      <c r="F48" s="255"/>
+      <c r="F48" s="272"/>
       <c r="G48" s="15"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="264"/>
-      <c r="J48" s="260"/>
-      <c r="K48" s="270"/>
+      <c r="I48" s="269"/>
+      <c r="J48" s="237"/>
+      <c r="K48" s="267"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="50"/>
@@ -24688,11 +24688,11 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="56"/>
       <c r="AD48" s="25"/>
-      <c r="AE48" s="254"/>
-      <c r="AF48" s="250"/>
-      <c r="AG48" s="257"/>
+      <c r="AE48" s="259"/>
+      <c r="AF48" s="239"/>
+      <c r="AG48" s="252"/>
       <c r="AH48" s="56"/>
-      <c r="AJ48" s="255"/>
+      <c r="AJ48" s="272"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="17"/>
@@ -24712,19 +24712,19 @@
       </c>
       <c r="E49" s="46">
         <f ca="1">Games!L16</f>
-        <v>92</v>
-      </c>
-      <c r="F49" s="256" t="str">
+        <v>113</v>
+      </c>
+      <c r="F49" s="251" t="str">
         <f ca="1">Games!O16</f>
         <v>Binghamton</v>
       </c>
-      <c r="G49" s="259" t="e" vm="88">
+      <c r="G49" s="236" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(F49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="269">
+      <c r="H49" s="266">
         <f ca="1">Games!N43</f>
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -24746,21 +24746,21 @@
       <c r="AB49" s="56"/>
       <c r="AD49" s="25"/>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="253">
+      <c r="AH49" s="258">
         <f ca="1">Games!N51</f>
-        <v>116</v>
-      </c>
-      <c r="AI49" s="249" t="e" vm="119">
+        <v>110</v>
+      </c>
+      <c r="AI49" s="238" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(AJ49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ49" s="256" t="str">
+      <c r="AJ49" s="251" t="str">
         <f ca="1">Games!O32</f>
         <v>Colgate</v>
       </c>
       <c r="AK49" s="58">
         <f ca="1">Games!L32</f>
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AL49" s="46" t="e" vm="119">
         <f>_xlfn.XLOOKUP(AM49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24776,7 +24776,7 @@
       <c r="AO49" s="17"/>
     </row>
     <row r="50" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="255">
+      <c r="A50" s="272">
         <f>IF($AU$5=TRUE,A46+1,"")</f>
         <v>12</v>
       </c>
@@ -24784,9 +24784,9 @@
       <c r="C50" s="38"/>
       <c r="D50" s="71"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="257"/>
-      <c r="G50" s="260"/>
-      <c r="H50" s="270"/>
+      <c r="F50" s="252"/>
+      <c r="G50" s="237"/>
+      <c r="H50" s="267"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="L50" s="25"/>
@@ -24807,19 +24807,19 @@
       <c r="AB50" s="56"/>
       <c r="AD50" s="25"/>
       <c r="AG50" s="24"/>
-      <c r="AH50" s="254"/>
-      <c r="AI50" s="250"/>
-      <c r="AJ50" s="257"/>
+      <c r="AH50" s="259"/>
+      <c r="AI50" s="239"/>
+      <c r="AJ50" s="252"/>
       <c r="AK50" s="55"/>
       <c r="AM50" s="39"/>
       <c r="AN50" s="28"/>
-      <c r="AO50" s="277">
+      <c r="AO50" s="276">
         <f>IF($AU$5=TRUE,AO46+1,"")</f>
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="255"/>
+      <c r="A51" s="272"/>
       <c r="B51" s="27">
         <v>13</v>
       </c>
@@ -24833,29 +24833,29 @@
       </c>
       <c r="E51" s="48">
         <f ca="1">Games!N16</f>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="258" t="s">
+      <c r="K51" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="258"/>
+      <c r="L51" s="255"/>
       <c r="M51" s="20"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="263" t="str">
+      <c r="O51" s="268" t="str">
         <f ca="1">Games!O65</f>
-        <v>Ball State</v>
-      </c>
-      <c r="P51" s="259" t="e" vm="83">
+        <v>Auburn</v>
+      </c>
+      <c r="P51" s="236" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="269">
+      <c r="Q51" s="266">
         <f ca="1">Games!N69</f>
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
@@ -24864,29 +24864,29 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="253">
+      <c r="Y51" s="258">
         <f ca="1">Games!N70</f>
-        <v>119</v>
-      </c>
-      <c r="Z51" s="249" t="e" vm="119">
+        <v>108</v>
+      </c>
+      <c r="Z51" s="238" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(AA51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA51" s="256" t="str">
+      <c r="AA51" s="251" t="str">
         <f ca="1">Games!O67</f>
-        <v>Colgate</v>
+        <v>Colorado</v>
       </c>
       <c r="AB51" s="56"/>
-      <c r="AD51" s="258" t="s">
+      <c r="AD51" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="AE51" s="258"/>
+      <c r="AE51" s="255"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="24"/>
       <c r="AJ51" s="24"/>
       <c r="AK51" s="59">
         <f ca="1">Games!N32</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL51" s="46" t="e" vm="120">
         <f>_xlfn.XLOOKUP(AM51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24899,7 +24899,7 @@
       <c r="AN51" s="27">
         <v>13</v>
       </c>
-      <c r="AO51" s="277"/>
+      <c r="AO51" s="276"/>
     </row>
     <row r="52" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
@@ -24910,13 +24910,13 @@
       <c r="G52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="258"/>
-      <c r="L52" s="258"/>
+      <c r="K52" s="255"/>
+      <c r="L52" s="255"/>
       <c r="M52" s="20"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="264"/>
-      <c r="P52" s="260"/>
-      <c r="Q52" s="270"/>
+      <c r="O52" s="269"/>
+      <c r="P52" s="237"/>
+      <c r="Q52" s="267"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -24924,12 +24924,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="254"/>
-      <c r="Z52" s="250"/>
-      <c r="AA52" s="257"/>
+      <c r="Y52" s="259"/>
+      <c r="Z52" s="239"/>
+      <c r="AA52" s="252"/>
       <c r="AB52" s="56"/>
-      <c r="AD52" s="258"/>
-      <c r="AE52" s="258"/>
+      <c r="AD52" s="255"/>
+      <c r="AE52" s="255"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="24"/>
       <c r="AJ52" s="24"/>
@@ -24952,19 +24952,19 @@
       </c>
       <c r="E53" s="46">
         <f ca="1">Games!L17</f>
-        <v>106</v>
-      </c>
-      <c r="F53" s="256" t="str">
+        <v>100</v>
+      </c>
+      <c r="F53" s="251" t="str">
         <f ca="1">Games!O17</f>
         <v>Boston College</v>
       </c>
-      <c r="G53" s="259" t="e" vm="90">
+      <c r="G53" s="236" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(F53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="251">
+      <c r="H53" s="253">
         <f ca="1">Games!L44</f>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -24991,21 +24991,21 @@
         <v>60</v>
       </c>
       <c r="AG53" s="24"/>
-      <c r="AH53" s="251">
+      <c r="AH53" s="253">
         <f ca="1">Games!L52</f>
-        <v>92</v>
-      </c>
-      <c r="AI53" s="249" t="e" vm="121">
+        <v>107</v>
+      </c>
+      <c r="AI53" s="238" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(AJ53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ53" s="256" t="str">
+      <c r="AJ53" s="251" t="str">
         <f ca="1">Games!O33</f>
         <v>Colorado</v>
       </c>
       <c r="AK53" s="58">
         <f ca="1">Games!L33</f>
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AL53" s="46" t="e" vm="121">
         <f>_xlfn.XLOOKUP(AM53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25021,7 +25021,7 @@
       <c r="AO53" s="17"/>
     </row>
     <row r="54" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="255">
+      <c r="A54" s="272">
         <f>IF($AU$5=TRUE,A50+1,"")</f>
         <v>13</v>
       </c>
@@ -25029,9 +25029,9 @@
       <c r="C54" s="38"/>
       <c r="D54" s="71"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="257"/>
-      <c r="G54" s="260"/>
-      <c r="H54" s="252"/>
+      <c r="F54" s="252"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="254"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="L54" s="25"/>
@@ -25050,19 +25050,19 @@
       <c r="AB54" s="56"/>
       <c r="AD54" s="25"/>
       <c r="AG54" s="24"/>
-      <c r="AH54" s="252"/>
-      <c r="AI54" s="250"/>
-      <c r="AJ54" s="257"/>
+      <c r="AH54" s="254"/>
+      <c r="AI54" s="239"/>
+      <c r="AJ54" s="252"/>
       <c r="AK54" s="55"/>
       <c r="AM54" s="39"/>
       <c r="AN54" s="28"/>
-      <c r="AO54" s="277">
+      <c r="AO54" s="276">
         <f>IF($AU$5=TRUE,AO50+1,"")</f>
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="255"/>
+      <c r="A55" s="272"/>
       <c r="B55" s="27">
         <v>11</v>
       </c>
@@ -25076,25 +25076,25 @@
       </c>
       <c r="E55" s="48">
         <f ca="1">Games!N17</f>
-        <v>110</v>
-      </c>
-      <c r="F55" s="276">
+        <v>101</v>
+      </c>
+      <c r="F55" s="271">
         <f>IF($AU$5=TRUE,F47+1,"")</f>
         <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="263" t="str">
+      <c r="I55" s="268" t="str">
         <f ca="1">Games!O44</f>
-        <v>Florida</v>
-      </c>
-      <c r="J55" s="259" t="e" vm="91">
+        <v>Boston College</v>
+      </c>
+      <c r="J55" s="236" t="e" vm="90">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="251">
+      <c r="K55" s="253">
         <f ca="1">Games!L58</f>
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -25111,27 +25111,27 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="56"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="251">
+      <c r="AE55" s="253">
         <f ca="1">Games!L62</f>
-        <v>117</v>
-      </c>
-      <c r="AF55" s="249" t="e" vm="123">
+        <v>92</v>
+      </c>
+      <c r="AF55" s="238" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(AG55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG55" s="256" t="str">
+      <c r="AG55" s="251" t="str">
         <f ca="1">Games!O52</f>
-        <v>Columbia</v>
+        <v>Colorado</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="51"/>
-      <c r="AJ55" s="276">
+      <c r="AJ55" s="271">
         <f>IF($AU$5=TRUE,AJ47+1,"")</f>
         <v>47</v>
       </c>
       <c r="AK55" s="59">
         <f ca="1">Games!N33</f>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AL55" s="46" t="e" vm="122">
         <f>_xlfn.XLOOKUP(AM55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25144,19 +25144,19 @@
       <c r="AN55" s="32">
         <v>11</v>
       </c>
-      <c r="AO55" s="277"/>
+      <c r="AO55" s="276"/>
     </row>
     <row r="56" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="71"/>
-      <c r="F56" s="255"/>
+      <c r="F56" s="272"/>
       <c r="G56" s="15"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="264"/>
-      <c r="J56" s="260"/>
-      <c r="K56" s="252"/>
+      <c r="I56" s="269"/>
+      <c r="J56" s="237"/>
+      <c r="K56" s="254"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="50"/>
@@ -25172,11 +25172,11 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="56"/>
       <c r="AD56" s="25"/>
-      <c r="AE56" s="252"/>
-      <c r="AF56" s="250"/>
-      <c r="AG56" s="257"/>
+      <c r="AE56" s="254"/>
+      <c r="AF56" s="239"/>
+      <c r="AG56" s="252"/>
       <c r="AH56" s="56"/>
-      <c r="AJ56" s="255"/>
+      <c r="AJ56" s="272"/>
       <c r="AM56" s="39"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="17"/>
@@ -25196,19 +25196,19 @@
       </c>
       <c r="E57" s="46">
         <f ca="1">Games!L18</f>
-        <v>119</v>
-      </c>
-      <c r="F57" s="256" t="str">
+        <v>97</v>
+      </c>
+      <c r="F57" s="251" t="str">
         <f ca="1">Games!O18</f>
         <v>Florida</v>
       </c>
-      <c r="G57" s="259" t="e" vm="91">
+      <c r="G57" s="236" t="e" vm="91">
         <f ca="1">_xlfn.XLOOKUP(F57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="269">
+      <c r="H57" s="266">
         <f ca="1">Games!N44</f>
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -25230,21 +25230,21 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="55"/>
       <c r="AG57" s="24"/>
-      <c r="AH57" s="253">
+      <c r="AH57" s="258">
         <f ca="1">Games!N52</f>
-        <v>101</v>
-      </c>
-      <c r="AI57" s="249" t="e" vm="123">
+        <v>91</v>
+      </c>
+      <c r="AI57" s="238" t="e" vm="124">
         <f ca="1">_xlfn.XLOOKUP(AJ57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ57" s="256" t="str">
+      <c r="AJ57" s="251" t="str">
         <f ca="1">Games!O34</f>
-        <v>Columbia</v>
+        <v>Connecticut</v>
       </c>
       <c r="AK57" s="58">
         <f ca="1">Games!L34</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL57" s="46" t="e" vm="123">
         <f>_xlfn.XLOOKUP(AM57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25260,7 +25260,7 @@
       <c r="AO57" s="17"/>
     </row>
     <row r="58" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="255">
+      <c r="A58" s="272">
         <f>IF($AU$5=TRUE,A54+1,"")</f>
         <v>14</v>
       </c>
@@ -25268,9 +25268,9 @@
       <c r="C58" s="38"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="257"/>
-      <c r="G58" s="260"/>
-      <c r="H58" s="270"/>
+      <c r="F58" s="252"/>
+      <c r="G58" s="237"/>
+      <c r="H58" s="267"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="50"/>
@@ -25291,19 +25291,19 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="56"/>
       <c r="AG58" s="24"/>
-      <c r="AH58" s="254"/>
-      <c r="AI58" s="250"/>
-      <c r="AJ58" s="257"/>
+      <c r="AH58" s="259"/>
+      <c r="AI58" s="239"/>
+      <c r="AJ58" s="252"/>
       <c r="AK58" s="55"/>
       <c r="AM58" s="39"/>
       <c r="AN58" s="28"/>
-      <c r="AO58" s="277">
+      <c r="AO58" s="276">
         <f>IF($AU$5=TRUE,AO54+1,"")</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="255"/>
+      <c r="A59" s="272"/>
       <c r="B59" s="27">
         <v>14</v>
       </c>
@@ -25317,27 +25317,27 @@
       </c>
       <c r="E59" s="48">
         <f ca="1">Games!N18</f>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="I59" s="255">
+      <c r="I59" s="272">
         <f>IF($AU$5=TRUE,I43+1,"")</f>
         <v>52</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="50"/>
-      <c r="L59" s="263" t="str">
+      <c r="L59" s="268" t="str">
         <f ca="1">Games!O58</f>
-        <v>Florida</v>
-      </c>
-      <c r="M59" s="259" t="e" vm="91">
+        <v>Bradley</v>
+      </c>
+      <c r="M59" s="236" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(L59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="269">
+      <c r="N59" s="266">
         <f ca="1">Games!N65</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
@@ -25349,27 +25349,27 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="AA59" s="25"/>
-      <c r="AB59" s="253">
+      <c r="AB59" s="258">
         <f ca="1">Games!N67</f>
-        <v>98</v>
-      </c>
-      <c r="AC59" s="249" t="e" vm="123">
+        <v>120</v>
+      </c>
+      <c r="AC59" s="238" t="e" vm="121">
         <f ca="1">_xlfn.XLOOKUP(AD59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="256" t="str">
+      <c r="AD59" s="251" t="str">
         <f ca="1">Games!O62</f>
-        <v>Columbia</v>
+        <v>Colorado</v>
       </c>
       <c r="AE59" s="56"/>
-      <c r="AG59" s="255">
+      <c r="AG59" s="272">
         <f>IF($AU$5=TRUE,AG43+1,"")</f>
         <v>56</v>
       </c>
       <c r="AJ59" s="24"/>
       <c r="AK59" s="59">
         <f ca="1">Games!N34</f>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AL59" s="46" t="e" vm="124">
         <f>_xlfn.XLOOKUP(AM59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25382,7 +25382,7 @@
       <c r="AN59" s="27">
         <v>14</v>
       </c>
-      <c r="AO59" s="277"/>
+      <c r="AO59" s="276"/>
     </row>
     <row r="60" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -25391,12 +25391,12 @@
       <c r="D60" s="71"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="I60" s="255"/>
+      <c r="I60" s="272"/>
       <c r="J60" s="15"/>
       <c r="K60" s="50"/>
-      <c r="L60" s="264"/>
-      <c r="M60" s="260"/>
-      <c r="N60" s="270"/>
+      <c r="L60" s="269"/>
+      <c r="M60" s="237"/>
+      <c r="N60" s="267"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
@@ -25408,11 +25408,11 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="AA60" s="25"/>
-      <c r="AB60" s="254"/>
-      <c r="AC60" s="250"/>
-      <c r="AD60" s="257"/>
+      <c r="AB60" s="259"/>
+      <c r="AC60" s="239"/>
+      <c r="AD60" s="252"/>
       <c r="AE60" s="56"/>
-      <c r="AG60" s="255"/>
+      <c r="AG60" s="272"/>
       <c r="AJ60" s="24"/>
       <c r="AM60" s="39"/>
       <c r="AN60" s="28"/>
@@ -25433,19 +25433,19 @@
       </c>
       <c r="E61" s="46">
         <f ca="1">Games!L19</f>
-        <v>119</v>
-      </c>
-      <c r="F61" s="256" t="str">
+        <v>112</v>
+      </c>
+      <c r="F61" s="251" t="str">
         <f ca="1">Games!O19</f>
         <v>Bradley</v>
       </c>
-      <c r="G61" s="259" t="e" vm="93">
+      <c r="G61" s="236" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(F61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="251">
+      <c r="H61" s="253">
         <f ca="1">Games!L45</f>
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -25466,21 +25466,21 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="56"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="251">
+      <c r="AH61" s="253">
         <f ca="1">Games!L53</f>
-        <v>92</v>
-      </c>
-      <c r="AI61" s="249" t="e" vm="126">
+        <v>102</v>
+      </c>
+      <c r="AI61" s="238" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(AJ61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="256" t="str">
+      <c r="AJ61" s="251" t="str">
         <f ca="1">Games!O35</f>
         <v>Cornell</v>
       </c>
       <c r="AK61" s="58">
         <f ca="1">Games!L35</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AL61" s="46" t="e" vm="125">
         <f>_xlfn.XLOOKUP(AM61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25496,7 +25496,7 @@
       <c r="AO61" s="17"/>
     </row>
     <row r="62" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="255">
+      <c r="A62" s="272">
         <f>IF($AU$5=TRUE,A58+1,"")</f>
         <v>15</v>
       </c>
@@ -25504,9 +25504,9 @@
       <c r="C62" s="38"/>
       <c r="D62" s="71"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="257"/>
-      <c r="G62" s="260"/>
-      <c r="H62" s="252"/>
+      <c r="F62" s="252"/>
+      <c r="G62" s="237"/>
+      <c r="H62" s="254"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="50"/>
@@ -25526,19 +25526,19 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="56"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="252"/>
-      <c r="AI62" s="250"/>
-      <c r="AJ62" s="257"/>
+      <c r="AH62" s="254"/>
+      <c r="AI62" s="239"/>
+      <c r="AJ62" s="252"/>
       <c r="AK62" s="55"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="28"/>
-      <c r="AO62" s="277">
+      <c r="AO62" s="276">
         <f>IF($AU$5=TRUE,AO58+1,"")</f>
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="255"/>
+      <c r="A63" s="272"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -25552,25 +25552,25 @@
       </c>
       <c r="E63" s="48">
         <f ca="1">Games!N19</f>
-        <v>104</v>
-      </c>
-      <c r="F63" s="276">
+        <v>94</v>
+      </c>
+      <c r="F63" s="271">
         <f>IF($AU$5=TRUE,F55+1,"")</f>
         <v>40</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="263" t="str">
+      <c r="I63" s="268" t="str">
         <f ca="1">Games!O45</f>
-        <v>Brown</v>
-      </c>
-      <c r="J63" s="259" t="e" vm="95">
+        <v>Bradley</v>
+      </c>
+      <c r="J63" s="236" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="269">
+      <c r="K63" s="266">
         <f ca="1">Games!N58</f>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -25588,27 +25588,27 @@
       <c r="Z63" s="57"/>
       <c r="AA63" s="25"/>
       <c r="AD63" s="25"/>
-      <c r="AE63" s="253">
+      <c r="AE63" s="258">
         <f ca="1">Games!N62</f>
-        <v>109</v>
-      </c>
-      <c r="AF63" s="249" t="e" vm="127">
+        <v>90</v>
+      </c>
+      <c r="AF63" s="238" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AG63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG63" s="256" t="str">
+      <c r="AG63" s="251" t="str">
         <f ca="1">Games!O53</f>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="51"/>
-      <c r="AJ63" s="276">
+      <c r="AJ63" s="271">
         <f>IF($AU$5=TRUE,AJ55+1,"")</f>
         <v>48</v>
       </c>
       <c r="AK63" s="59">
         <f ca="1">Games!N35</f>
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AL63" s="46" t="e" vm="126">
         <f>_xlfn.XLOOKUP(AM63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25621,19 +25621,19 @@
       <c r="AN63" s="27">
         <v>10</v>
       </c>
-      <c r="AO63" s="277"/>
+      <c r="AO63" s="276"/>
     </row>
     <row r="64" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="28"/>
       <c r="C64" s="38"/>
       <c r="D64" s="71"/>
-      <c r="F64" s="255"/>
+      <c r="F64" s="272"/>
       <c r="G64" s="15"/>
       <c r="H64" s="50"/>
-      <c r="I64" s="264"/>
-      <c r="J64" s="260"/>
-      <c r="K64" s="270"/>
+      <c r="I64" s="269"/>
+      <c r="J64" s="237"/>
+      <c r="K64" s="267"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="O64" s="25"/>
@@ -25649,11 +25649,11 @@
       <c r="Z64" s="57"/>
       <c r="AA64" s="25"/>
       <c r="AD64" s="25"/>
-      <c r="AE64" s="254"/>
-      <c r="AF64" s="250"/>
-      <c r="AG64" s="257"/>
+      <c r="AE64" s="259"/>
+      <c r="AF64" s="239"/>
+      <c r="AG64" s="252"/>
       <c r="AH64" s="56"/>
-      <c r="AJ64" s="255"/>
+      <c r="AJ64" s="272"/>
       <c r="AM64" s="39"/>
       <c r="AN64" s="28"/>
       <c r="AO64" s="17"/>
@@ -25673,19 +25673,19 @@
       </c>
       <c r="E65" s="46">
         <f ca="1">Games!L20</f>
-        <v>103</v>
-      </c>
-      <c r="F65" s="256" t="str">
+        <v>92</v>
+      </c>
+      <c r="F65" s="251" t="str">
         <f ca="1">Games!O20</f>
-        <v>Brown</v>
-      </c>
-      <c r="G65" s="259" t="e" vm="95">
+        <v>Bryant</v>
+      </c>
+      <c r="G65" s="236" t="e" vm="96">
         <f ca="1">_xlfn.XLOOKUP(F65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="269">
+      <c r="H65" s="266">
         <f ca="1">Games!N45</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -25705,21 +25705,21 @@
       <c r="AA65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AG65" s="24"/>
-      <c r="AH65" s="253">
+      <c r="AH65" s="258">
         <f ca="1">Games!N53</f>
-        <v>116</v>
-      </c>
-      <c r="AI65" s="249" t="e" vm="127">
+        <v>108</v>
+      </c>
+      <c r="AI65" s="238" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AJ65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="256" t="str">
+      <c r="AJ65" s="251" t="str">
         <f ca="1">Games!O36</f>
-        <v>Creighton</v>
+        <v>Dartmouth</v>
       </c>
       <c r="AK65" s="58">
         <f ca="1">Games!L36</f>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AL65" s="46" t="e" vm="127">
         <f>_xlfn.XLOOKUP(AM65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25735,7 +25735,7 @@
       <c r="AO65" s="17"/>
     </row>
     <row r="66" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="255">
+      <c r="A66" s="272">
         <f>IF($AU$5=TRUE,A62+1,"")</f>
         <v>16</v>
       </c>
@@ -25743,41 +25743,41 @@
       <c r="C66" s="38"/>
       <c r="D66" s="71"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="257"/>
-      <c r="G66" s="260"/>
-      <c r="H66" s="270"/>
+      <c r="F66" s="252"/>
+      <c r="G66" s="237"/>
+      <c r="H66" s="267"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="O66" s="292"/>
-      <c r="P66" s="292"/>
-      <c r="Q66" s="292"/>
-      <c r="R66" s="292"/>
-      <c r="S66" s="292"/>
-      <c r="T66" s="292"/>
-      <c r="U66" s="292"/>
-      <c r="V66" s="292"/>
-      <c r="W66" s="292"/>
-      <c r="X66" s="292"/>
-      <c r="Y66" s="292"/>
-      <c r="Z66" s="292"/>
-      <c r="AA66" s="292"/>
+      <c r="O66" s="250"/>
+      <c r="P66" s="250"/>
+      <c r="Q66" s="250"/>
+      <c r="R66" s="250"/>
+      <c r="S66" s="250"/>
+      <c r="T66" s="250"/>
+      <c r="U66" s="250"/>
+      <c r="V66" s="250"/>
+      <c r="W66" s="250"/>
+      <c r="X66" s="250"/>
+      <c r="Y66" s="250"/>
+      <c r="Z66" s="250"/>
+      <c r="AA66" s="250"/>
       <c r="AD66" s="25"/>
       <c r="AG66" s="24"/>
-      <c r="AH66" s="254"/>
-      <c r="AI66" s="250"/>
-      <c r="AJ66" s="257"/>
+      <c r="AH66" s="259"/>
+      <c r="AI66" s="239"/>
+      <c r="AJ66" s="252"/>
       <c r="AK66" s="55"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="28"/>
-      <c r="AO66" s="277">
+      <c r="AO66" s="276">
         <f>IF($AU$5=TRUE,AO62+1,"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="255"/>
+      <c r="A67" s="272"/>
       <c r="B67" s="27">
         <v>15</v>
       </c>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="E67" s="48">
         <f ca="1">Games!N20</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -25799,25 +25799,25 @@
       <c r="J67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="O67" s="291"/>
-      <c r="P67" s="291"/>
-      <c r="Q67" s="291"/>
-      <c r="R67" s="291"/>
-      <c r="S67" s="291"/>
-      <c r="T67" s="291"/>
-      <c r="U67" s="291"/>
-      <c r="V67" s="291"/>
-      <c r="W67" s="291"/>
-      <c r="X67" s="291"/>
-      <c r="Y67" s="291"/>
-      <c r="Z67" s="291"/>
-      <c r="AA67" s="291"/>
+      <c r="O67" s="249"/>
+      <c r="P67" s="249"/>
+      <c r="Q67" s="249"/>
+      <c r="R67" s="249"/>
+      <c r="S67" s="249"/>
+      <c r="T67" s="249"/>
+      <c r="U67" s="249"/>
+      <c r="V67" s="249"/>
+      <c r="W67" s="249"/>
+      <c r="X67" s="249"/>
+      <c r="Y67" s="249"/>
+      <c r="Z67" s="249"/>
+      <c r="AA67" s="249"/>
       <c r="AD67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AJ67" s="24"/>
       <c r="AK67" s="59">
         <f ca="1">Games!N36</f>
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AL67" s="46" t="e" vm="128">
         <f>_xlfn.XLOOKUP(AM67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25830,7 +25830,7 @@
       <c r="AN67" s="27">
         <v>15</v>
       </c>
-      <c r="AO67" s="277"/>
+      <c r="AO67" s="276"/>
     </row>
     <row r="68" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -25871,6 +25871,240 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AI21:AI22"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AF39:AF40"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AQ3:AQ11"/>
+    <mergeCell ref="AQ14:AQ19"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AQ34:AQ37"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AO50:AO51"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AO58:AO59"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="AO46:AO47"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="AO62:AO63"/>
+    <mergeCell ref="AO66:AO67"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AJ61:AJ62"/>
+    <mergeCell ref="AE39:AE40"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="AJ53:AJ54"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AD51:AE52"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="AF63:AF64"/>
+    <mergeCell ref="AF55:AF56"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="AJ63:AJ64"/>
+    <mergeCell ref="AJ57:AJ58"/>
+    <mergeCell ref="AH65:AH66"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AI49:AI50"/>
+    <mergeCell ref="AI53:AI54"/>
+    <mergeCell ref="AI57:AI58"/>
+    <mergeCell ref="AI61:AI62"/>
+    <mergeCell ref="AI65:AI66"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="B1:AN1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AJ15:AJ16"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="T11:V19"/>
@@ -25895,240 +26129,6 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="O19:O20"/>
-    <mergeCell ref="B1:AN1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AJ63:AJ64"/>
-    <mergeCell ref="AJ57:AJ58"/>
-    <mergeCell ref="AH65:AH66"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH61:AH62"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AI49:AI50"/>
-    <mergeCell ref="AI53:AI54"/>
-    <mergeCell ref="AI57:AI58"/>
-    <mergeCell ref="AI61:AI62"/>
-    <mergeCell ref="AI65:AI66"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="AF63:AF64"/>
-    <mergeCell ref="AF55:AF56"/>
-    <mergeCell ref="AF47:AF48"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="AO62:AO63"/>
-    <mergeCell ref="AO66:AO67"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AJ61:AJ62"/>
-    <mergeCell ref="AE39:AE40"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="AJ53:AJ54"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AD51:AE52"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="AO50:AO51"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AO58:AO59"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AO42:AO43"/>
-    <mergeCell ref="AO46:AO47"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AF39:AF40"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AQ3:AQ11"/>
-    <mergeCell ref="AQ14:AQ19"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AQ34:AQ37"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AJ21:AJ22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD19:AE20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AI17:AI18"/>
-    <mergeCell ref="AI21:AI22"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI37:AI38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">

--- a/resources/blank_bracket.xlsx
+++ b/resources/blank_bracket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgal\Documents\Data Science\KingfisherCourt\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E13EB5-2E7C-4E7F-A31E-66046D839DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B652936D-E5A4-4AB2-81B5-CADBB450954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Links" sheetId="6" r:id="rId1"/>
@@ -6896,6 +6896,39 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7051,39 +7084,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7091,6 +7091,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7119,9 +7122,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -8376,7 +8376,7 @@
     <tableColumn id="2" xr3:uid="{767B4EBC-1D6B-4D8D-AC6F-5DAFFC73A49A}" uniqueName="2" name="School" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{714CBA45-7DDA-43B9-86A4-4C5947403F44}" uniqueName="3" name="Link" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{51A37069-17DD-4524-B091-9E772D95E297}" uniqueName="4" name="GameLogs" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{16FD7BE5-C80E-4178-848D-B547195018E8}" uniqueName="6" name="PartialLink" queryTableFieldId="6" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{16FD7BE5-C80E-4178-848D-B547195018E8}" uniqueName="6" name="PartialLink" queryTableFieldId="6" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.TEXTSPLIT(
 _xlfn.TEXTSPLIT(Team_Links[[#This Row],[GameLogs]],"https://www.sports-reference.com/cbb/schools/",,TRUE,0,), "/",,TRUE,0)</calculatedColumnFormula>
     </tableColumn>
@@ -8386,7 +8386,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26022D98-9C5C-4F61-B0DF-E159B216C11F}" name="Teams" displayName="Teams" ref="A1:E65" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26022D98-9C5C-4F61-B0DF-E159B216C11F}" name="Teams" displayName="Teams" ref="A1:E65" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5" dataCellStyle="Normal">
   <autoFilter ref="A1:E65" xr:uid="{26022D98-9C5C-4F61-B0DF-E159B216C11F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8395,13 +8395,13 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ED40F7E7-3328-4259-9877-945FE5D47DC3}" name="Seed" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{4CDAB027-D970-460D-AAC2-EB0B9485FD8C}" name="Region" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{ED40F7E7-3328-4259-9877-945FE5D47DC3}" name="Seed" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{4CDAB027-D970-460D-AAC2-EB0B9485FD8C}" name="Region" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{E218ED8F-68F8-429A-9939-575EF5D8461D}" name="Team" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5B5B6B66-69E6-43F4-9B60-841171B24FC7}" name="Hyperlink Name" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{5B5B6B66-69E6-43F4-9B60-841171B24FC7}" name="Hyperlink Name" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Teams[[#This Row],[Team]],Team_Links[School],Team_Links[PartialLink],,0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5DE08296-6B22-41D3-9B0D-54A014588C20}" name="Logo" dataDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{5DE08296-6B22-41D3-9B0D-54A014588C20}" name="Logo" dataDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>_xlfn.IMAGE(_xlfn.CONCAT("https://cdn.ssref.net/req/202510241/tlogo/ncaa/",TEXT(Teams[[#This Row],[Hyperlink Name]],),"-2025.png"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8701,8 +8701,8 @@
   </sheetPr>
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15684,7 +15684,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -16949,10 +16949,10 @@
   </sheetPr>
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -17032,33 +17032,33 @@
       <c r="D3" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="293" t="s">
+      <c r="E3" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="291" t="s">
+      <c r="F3" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="295" t="s">
+      <c r="G3" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="291" t="s">
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="297" t="s">
+      <c r="K3" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297" t="s">
+      <c r="L3" s="245"/>
+      <c r="M3" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="297"/>
-      <c r="O3" s="291" t="s">
+      <c r="N3" s="245"/>
+      <c r="O3" s="239" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="201"/>
-      <c r="Q3" s="288" t="s">
+      <c r="Q3" s="236" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17067,19 +17067,19 @@
       <c r="B4" s="218"/>
       <c r="C4" s="218"/>
       <c r="D4" s="219"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="292"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="246"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="246"/>
+      <c r="N4" s="246"/>
+      <c r="O4" s="240"/>
       <c r="P4" s="202"/>
-      <c r="Q4" s="289"/>
+      <c r="Q4" s="237"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="str">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="C5" s="91" t="str">
         <f t="shared" ref="C5:C36" ca="1" si="1">IF(O5="","",IF(A5=O5,B5,A5))</f>
-        <v>Abilene Christian</v>
+        <v>Air Force</v>
       </c>
       <c r="D5" s="91" t="e">
         <f t="shared" ref="D5:D36" si="2">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O5,SeedInfo,2,FALSE)*1,MAX(VLOOKUP(O5,SeedInfo,2,FALSE)-VLOOKUP(C5,SeedInfo,2,FALSE),0)))</f>
@@ -17126,7 +17126,7 @@
       </c>
       <c r="L5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M5" s="84" t="e" vm="66">
         <f>_xlfn.XLOOKUP(I5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17134,13 +17134,13 @@
       </c>
       <c r="N5" s="84">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O5" s="194" t="str">
         <f t="shared" ref="O5:O36" ca="1" si="3">IF(L5&gt;N5,G5,I5)</f>
-        <v>Air Force</v>
-      </c>
-      <c r="P5" s="209" t="e" vm="66">
+        <v>Abilene Christian</v>
+      </c>
+      <c r="P5" s="209" t="e" vm="65">
         <f ca="1">_xlfn.XLOOKUP(O5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17152,7 +17152,7 @@
 O5=G5,
 IF(F5&gt;J5,TRUE,FALSE),
 IF(J5&gt;F5,TRUE,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="98"/>
     </row>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:N36" ca="1" si="5">RANDBETWEEN(90,120)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" s="82" t="e" vm="68">
         <f>_xlfn.XLOOKUP(I6,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="N6" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O6" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="C7" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alabama State</v>
+        <v>Alabama A&amp;M</v>
       </c>
       <c r="D7" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="L7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M7" s="82" t="e" vm="70">
         <f>_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17284,13 +17284,13 @@
       </c>
       <c r="N7" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="O7" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="P7" s="204" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="P7" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="R7" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="98"/>
     </row>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="L8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M8" s="82" t="e" vm="72">
         <f>_xlfn.XLOOKUP(I8,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="N8" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O8" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="L9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M9" s="82" t="e" vm="74">
         <f>_xlfn.XLOOKUP(I9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="N9" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="O9" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17458,7 +17458,7 @@
       </c>
       <c r="C10" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arizona State</v>
+        <v>Arizona</v>
       </c>
       <c r="D10" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17492,7 +17492,7 @@
       </c>
       <c r="L10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="M10" s="82" t="e" vm="76">
         <f>_xlfn.XLOOKUP(I10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17500,13 +17500,13 @@
       </c>
       <c r="N10" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O10" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arizona</v>
-      </c>
-      <c r="P10" s="204" t="e" vm="75">
+        <v>Arizona State</v>
+      </c>
+      <c r="P10" s="204" t="e" vm="76">
         <f ca="1">_xlfn.XLOOKUP(O10,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="R10" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="98"/>
     </row>
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C11" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Arkansas State</v>
+        <v>Arkansas</v>
       </c>
       <c r="D11" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="L11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="82" t="e" vm="78">
         <f>_xlfn.XLOOKUP(I11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17572,13 +17572,13 @@
       </c>
       <c r="N11" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="O11" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arkansas</v>
-      </c>
-      <c r="P11" s="204" t="e" vm="77">
+        <v>Arkansas State</v>
+      </c>
+      <c r="P11" s="204" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(O11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17587,7 +17587,7 @@
       </c>
       <c r="R11" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="98"/>
     </row>
@@ -17602,7 +17602,7 @@
       </c>
       <c r="C12" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Army</v>
+        <v>Arkansas-Pine Bluff</v>
       </c>
       <c r="D12" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="L12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="M12" s="109" t="e" vm="80">
         <f>_xlfn.XLOOKUP(I12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17644,13 +17644,13 @@
       </c>
       <c r="N12" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O12" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="P12" s="205" t="e" vm="79">
+        <v>Army</v>
+      </c>
+      <c r="P12" s="205" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(O12,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="R12" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="98"/>
     </row>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="L13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M13" s="115" t="e" vm="82">
         <f>_xlfn.XLOOKUP(I13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="N13" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O13" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="L14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M14" s="83" t="e" vm="84">
         <f>_xlfn.XLOOKUP(I14,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17788,7 +17788,7 @@
       </c>
       <c r="N14" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O14" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="L15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M15" s="83" t="e" vm="86">
         <f>_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="N15" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O15" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" s="83" t="e" vm="88">
         <f>_xlfn.XLOOKUP(I16,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="N16" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O16" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17962,7 +17962,7 @@
       </c>
       <c r="C17" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Boise State</v>
+        <v>Boston College</v>
       </c>
       <c r="D17" s="91" t="e">
         <f t="shared" si="2"/>
@@ -17996,7 +17996,7 @@
       </c>
       <c r="L17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="83" t="e" vm="90">
         <f>_xlfn.XLOOKUP(I17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18004,13 +18004,13 @@
       </c>
       <c r="N17" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O17" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Boston College</v>
-      </c>
-      <c r="P17" s="207" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="P17" s="207" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(O17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="R17" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="98"/>
     </row>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="C18" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Duke</v>
+        <v>Florida</v>
       </c>
       <c r="D18" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="M18" s="83" t="e" vm="92">
         <f>_xlfn.XLOOKUP(I18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18076,13 +18076,13 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O18" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Florida</v>
-      </c>
-      <c r="P18" s="207" t="e" vm="91">
+        <v>Duke</v>
+      </c>
+      <c r="P18" s="207" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(O18,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="R18" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="98"/>
     </row>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="L19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M19" s="83" t="e" vm="94">
         <f>_xlfn.XLOOKUP(I19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="N19" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="O19" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="C20" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Brown</v>
+        <v>Bryant</v>
       </c>
       <c r="D20" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="L20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M20" s="126" t="e" vm="96">
         <f>_xlfn.XLOOKUP(I20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18220,13 +18220,13 @@
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O20" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bryant</v>
-      </c>
-      <c r="P20" s="208" t="e" vm="96">
+        <v>Brown</v>
+      </c>
+      <c r="P20" s="208" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(O20,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="R20" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="98"/>
     </row>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="L21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M21" s="97" t="e" vm="98">
         <f>_xlfn.XLOOKUP(I21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18292,7 +18292,7 @@
       </c>
       <c r="N21" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="O21" s="188" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="L22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M22" s="82" t="e" vm="100">
         <f>_xlfn.XLOOKUP(I22,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="N22" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O22" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="C23" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cal State Bakersfield</v>
+        <v>Cal State Fullerton</v>
       </c>
       <c r="D23" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="L23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M23" s="82" t="e" vm="102">
         <f>_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18436,13 +18436,13 @@
       </c>
       <c r="N23" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O23" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cal State Fullerton</v>
-      </c>
-      <c r="P23" s="204" t="e" vm="102">
+        <v>Cal State Bakersfield</v>
+      </c>
+      <c r="P23" s="204" t="e" vm="101">
         <f ca="1">_xlfn.XLOOKUP(O23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="R23" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="98"/>
     </row>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="C24" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>California</v>
+        <v>Cal State Northridge</v>
       </c>
       <c r="D24" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="L24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="M24" s="82" t="e" vm="104">
         <f>_xlfn.XLOOKUP(I24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18508,13 +18508,13 @@
       </c>
       <c r="N24" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O24" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cal State Northridge</v>
-      </c>
-      <c r="P24" s="204" t="e" vm="103">
+        <v>California</v>
+      </c>
+      <c r="P24" s="204" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(O24,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="R24" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="98"/>
     </row>
@@ -18538,7 +18538,7 @@
       </c>
       <c r="C25" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Campbell</v>
+        <v>California Baptist</v>
       </c>
       <c r="D25" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="L25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="M25" s="82" t="e" vm="106">
         <f>_xlfn.XLOOKUP(I25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18580,13 +18580,13 @@
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O25" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P25" s="204" t="e" vm="105">
+        <v>Campbell</v>
+      </c>
+      <c r="P25" s="204" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(O25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="R25" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="98"/>
     </row>
@@ -18610,7 +18610,7 @@
       </c>
       <c r="C26" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Central Arkansas</v>
+        <v>Canisius</v>
       </c>
       <c r="D26" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="L26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="M26" s="82" t="e" vm="108">
         <f>_xlfn.XLOOKUP(I26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18652,13 +18652,13 @@
       </c>
       <c r="N26" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O26" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Canisius</v>
-      </c>
-      <c r="P26" s="204" t="e" vm="107">
+        <v>Central Arkansas</v>
+      </c>
+      <c r="P26" s="204" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(O26,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18667,7 +18667,7 @@
       </c>
       <c r="R26" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="98"/>
     </row>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="L27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M27" s="82" t="e" vm="110">
         <f>_xlfn.XLOOKUP(I27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18724,7 +18724,7 @@
       </c>
       <c r="N27" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="O27" s="189" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18754,7 +18754,7 @@
       </c>
       <c r="C28" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Charleston Southern</v>
+        <v>Charlotte</v>
       </c>
       <c r="D28" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="L28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M28" s="109" t="e" vm="112">
         <f>_xlfn.XLOOKUP(I28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18796,13 +18796,13 @@
       </c>
       <c r="N28" s="109">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O28" s="190" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Charlotte</v>
-      </c>
-      <c r="P28" s="205" t="e" vm="112">
+        <v>Charleston Southern</v>
+      </c>
+      <c r="P28" s="205" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(O28,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="R28" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="98"/>
     </row>
@@ -18826,7 +18826,7 @@
       </c>
       <c r="C29" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chicago State</v>
+        <v>Chattanooga</v>
       </c>
       <c r="D29" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18860,7 +18860,7 @@
       </c>
       <c r="L29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M29" s="115" t="e" vm="114">
         <f>_xlfn.XLOOKUP(I29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18868,13 +18868,13 @@
       </c>
       <c r="N29" s="115">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="O29" s="191" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Chattanooga</v>
-      </c>
-      <c r="P29" s="206" t="e" vm="113">
+        <v>Chicago State</v>
+      </c>
+      <c r="P29" s="206" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(O29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="R29" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="98"/>
     </row>
@@ -18898,7 +18898,7 @@
       </c>
       <c r="C30" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Clemson</v>
+        <v>Cincinnati</v>
       </c>
       <c r="D30" s="91" t="e">
         <f t="shared" si="2"/>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="L30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="M30" s="83" t="e" vm="116">
         <f>_xlfn.XLOOKUP(I30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -18940,13 +18940,13 @@
       </c>
       <c r="N30" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O30" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cincinnati</v>
-      </c>
-      <c r="P30" s="207" t="e" vm="115">
+        <v>Clemson</v>
+      </c>
+      <c r="P30" s="207" t="e" vm="116">
         <f ca="1">_xlfn.XLOOKUP(O30,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="R30" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="98"/>
     </row>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="C31" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Coastal Carolina</v>
+        <v>Cleveland State</v>
       </c>
       <c r="D31" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="L31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="M31" s="83" t="e" vm="118">
         <f>_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19012,13 +19012,13 @@
       </c>
       <c r="N31" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O31" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Cleveland State</v>
-      </c>
-      <c r="P31" s="207" t="e" vm="117">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="P31" s="207" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(O31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="R31" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="98"/>
     </row>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="L32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M32" s="83" t="e" vm="120">
         <f>_xlfn.XLOOKUP(I32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19084,7 +19084,7 @@
       </c>
       <c r="N32" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O32" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="C33" s="91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Colorado State</v>
+        <v>Colorado</v>
       </c>
       <c r="D33" s="91" t="e">
         <f t="shared" si="2"/>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="L33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M33" s="83" t="e" vm="122">
         <f>_xlfn.XLOOKUP(I33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19156,13 +19156,13 @@
       </c>
       <c r="N33" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O33" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Colorado</v>
-      </c>
-      <c r="P33" s="207" t="e" vm="121">
+        <v>Colorado State</v>
+      </c>
+      <c r="P33" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="R33" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="98"/>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="L34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M34" s="83" t="e" vm="124">
         <f>_xlfn.XLOOKUP(I34,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="N34" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O34" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="L35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M35" s="83" t="e" vm="126">
         <f>_xlfn.XLOOKUP(I35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19300,7 +19300,7 @@
       </c>
       <c r="N35" s="83">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="O35" s="192" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19364,7 +19364,7 @@
       </c>
       <c r="L36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M36" s="126" t="e" vm="128">
         <f>_xlfn.XLOOKUP(I36,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="N36" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O36" s="193" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19395,14 +19395,14 @@
       <c r="E37" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="290" t="str">
+      <c r="F37" s="238" t="str">
         <f>Bracket!F2</f>
         <v>Second Round</v>
       </c>
-      <c r="G37" s="290"/>
-      <c r="H37" s="290"/>
-      <c r="I37" s="290"/>
-      <c r="J37" s="290"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="238"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="238"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -19417,7 +19417,7 @@
     <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="str">
         <f ca="1">G38</f>
-        <v>Air Force</v>
+        <v>Abilene Christian</v>
       </c>
       <c r="B38" s="91" t="str">
         <f ca="1">I38</f>
@@ -19425,7 +19425,7 @@
       </c>
       <c r="C38" s="91" t="str">
         <f t="shared" ref="C38:C53" ca="1" si="8">IF(O38="","",IF(A38=O38,B38,A38))</f>
-        <v>Akron</v>
+        <v>Abilene Christian</v>
       </c>
       <c r="D38" s="91" t="e">
         <f t="shared" ref="D38:D53" si="9">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O38,SeedInfo,2,FALSE)*2,MAX(VLOOKUP(O38,SeedInfo,2,FALSE)-VLOOKUP(C38,SeedInfo,2,FALSE),0)))</f>
@@ -19437,11 +19437,11 @@
       </c>
       <c r="F38" s="130" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">_xlfn.XLOOKUP(G38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G38" s="131" t="str">
         <f ca="1">O5</f>
-        <v>Air Force</v>
+        <v>Abilene Christian</v>
       </c>
       <c r="H38" s="181" t="s">
         <v>9</v>
@@ -19454,13 +19454,13 @@
         <f t="array" aca="1" ref="J38" ca="1">_xlfn.XLOOKUP(I38,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>8</v>
       </c>
-      <c r="K38" s="84" t="e" vm="66">
+      <c r="K38" s="84" t="e" vm="65">
         <f ca="1">_xlfn.XLOOKUP(G38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="84">
         <f t="shared" ref="L38:N72" ca="1" si="10">RANDBETWEEN(90,120)</f>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M38" s="84" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(I38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19468,13 +19468,13 @@
       </c>
       <c r="N38" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O38" s="194" t="str">
         <f t="shared" ref="O38:O53" ca="1" si="11">IF(L38&gt;N38,G38,I38)</f>
-        <v>Air Force</v>
-      </c>
-      <c r="P38" s="209" t="e" vm="66">
+        <v>Akron</v>
+      </c>
+      <c r="P38" s="209" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(O38,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19490,7 +19490,7 @@
     <row r="39" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="91" t="str">
         <f t="shared" ref="A39:A53" ca="1" si="12">G39</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="B39" s="91" t="str">
         <f t="shared" ref="B39:B53" ca="1" si="13">I39</f>
@@ -19509,11 +19509,11 @@
       </c>
       <c r="F39" s="100" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">_xlfn.XLOOKUP(G39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G39" s="101" t="str">
         <f ca="1">O7</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="H39" s="176" t="s">
         <v>9</v>
@@ -19526,13 +19526,13 @@
         <f t="array" aca="1" ref="J39" ca="1">_xlfn.XLOOKUP(I39,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>4</v>
       </c>
-      <c r="K39" s="82" t="e" vm="69">
+      <c r="K39" s="82" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(G39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M39" s="82" t="e" vm="71">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19540,13 +19540,13 @@
       </c>
       <c r="N39" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O39" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="P39" s="204" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="P39" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19566,11 +19566,11 @@
       </c>
       <c r="B40" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Arizona</v>
+        <v>Arizona State</v>
       </c>
       <c r="C40" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>American</v>
+        <v>Arizona State</v>
       </c>
       <c r="D40" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19592,11 +19592,11 @@
       </c>
       <c r="I40" s="102" t="str">
         <f ca="1">O10</f>
-        <v>Arizona</v>
+        <v>Arizona State</v>
       </c>
       <c r="J40" s="103" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">_xlfn.XLOOKUP(I40,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K40" s="82" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19604,21 +19604,21 @@
       </c>
       <c r="L40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M40" s="82" t="e" vm="75">
+        <v>111</v>
+      </c>
+      <c r="M40" s="82" t="e" vm="76">
         <f ca="1">_xlfn.XLOOKUP(I40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N40" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O40" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arizona</v>
-      </c>
-      <c r="P40" s="204" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="P40" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O40,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19634,15 +19634,15 @@
     <row r="41" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Arkansas</v>
+        <v>Arkansas State</v>
       </c>
       <c r="B41" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Army</v>
       </c>
       <c r="C41" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Arkansas</v>
+        <v>Army</v>
       </c>
       <c r="D41" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19653,44 +19653,44 @@
       </c>
       <c r="F41" s="135" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">_xlfn.XLOOKUP(G41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="136" t="str">
         <f ca="1">O11</f>
-        <v>Arkansas</v>
+        <v>Arkansas State</v>
       </c>
       <c r="H41" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="137" t="str">
         <f ca="1">O12</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Army</v>
       </c>
       <c r="J41" s="138" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">_xlfn.XLOOKUP(I41,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K41" s="139" t="e" vm="77">
+        <v>15</v>
+      </c>
+      <c r="K41" s="139" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(G41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M41" s="139" t="e" vm="79">
+        <v>106</v>
+      </c>
+      <c r="M41" s="139" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(I41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N41" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="O41" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="P41" s="210" t="e" vm="79">
+        <v>Arkansas State</v>
+      </c>
+      <c r="P41" s="210" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(O41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19714,7 +19714,7 @@
       </c>
       <c r="C42" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Ball State</v>
+        <v>Auburn</v>
       </c>
       <c r="D42" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="L42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M42" s="145" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(I42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19756,13 +19756,13 @@
       </c>
       <c r="N42" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="O42" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Auburn</v>
-      </c>
-      <c r="P42" s="211" t="e" vm="81">
+        <v>Ball State</v>
+      </c>
+      <c r="P42" s="211" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(O42,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="R42" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="98"/>
     </row>
@@ -19786,7 +19786,7 @@
       </c>
       <c r="C43" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Belmont</v>
+        <v>Binghamton</v>
       </c>
       <c r="D43" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="L43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M43" s="83" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(I43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19828,13 +19828,13 @@
       </c>
       <c r="N43" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O43" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Binghamton</v>
-      </c>
-      <c r="P43" s="207" t="e" vm="88">
+        <v>Belmont</v>
+      </c>
+      <c r="P43" s="207" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19843,22 +19843,22 @@
       </c>
       <c r="R43" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="98"/>
     </row>
     <row r="44" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="B44" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Florida</v>
+        <v>Duke</v>
       </c>
       <c r="C44" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Florida</v>
+        <v>Duke</v>
       </c>
       <c r="D44" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19869,44 +19869,44 @@
       </c>
       <c r="F44" s="117" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">_xlfn.XLOOKUP(G44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G44" s="118" t="str">
         <f ca="1">O17</f>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="H44" s="178" t="s">
         <v>9</v>
       </c>
       <c r="I44" s="119" t="str">
         <f ca="1">O18</f>
-        <v>Florida</v>
+        <v>Duke</v>
       </c>
       <c r="J44" s="120" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">_xlfn.XLOOKUP(I44,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K44" s="83" t="e" vm="90">
+        <v>14</v>
+      </c>
+      <c r="K44" s="83" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(G44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="M44" s="83" t="e" vm="91">
+        <v>99</v>
+      </c>
+      <c r="M44" s="83" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(I44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N44" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O44" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Boston College</v>
-      </c>
-      <c r="P44" s="207" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="P44" s="207" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(O44,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="R44" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="98"/>
     </row>
@@ -19926,11 +19926,11 @@
       </c>
       <c r="B45" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="C45" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="D45" s="91" t="e">
         <f t="shared" si="9"/>
@@ -19952,11 +19952,11 @@
       </c>
       <c r="I45" s="149" t="str">
         <f ca="1">O20</f>
-        <v>Bryant</v>
+        <v>Brown</v>
       </c>
       <c r="J45" s="150" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">_xlfn.XLOOKUP(I45,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K45" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(G45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -19964,15 +19964,15 @@
       </c>
       <c r="L45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="M45" s="151" t="e" vm="96">
+        <v>112</v>
+      </c>
+      <c r="M45" s="151" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(I45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N45" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O45" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="R45" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="98"/>
     </row>
@@ -20002,7 +20002,7 @@
       </c>
       <c r="C46" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bucknell</v>
+        <v>Cal Poly</v>
       </c>
       <c r="D46" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20036,7 +20036,7 @@
       </c>
       <c r="L46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M46" s="84" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(I46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20044,13 +20044,13 @@
       </c>
       <c r="N46" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O46" s="194" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cal Poly</v>
-      </c>
-      <c r="P46" s="209" t="e" vm="100">
+        <v>Bucknell</v>
+      </c>
+      <c r="P46" s="209" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O46,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20059,22 +20059,22 @@
       </c>
       <c r="R46" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="98"/>
     </row>
     <row r="47" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Bakersfield</v>
       </c>
       <c r="B47" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="C47" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Bakersfield</v>
       </c>
       <c r="D47" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20085,44 +20085,44 @@
       </c>
       <c r="F47" s="100" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">_xlfn.XLOOKUP(G47,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G47" s="101" t="str">
         <f ca="1">O23</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Bakersfield</v>
       </c>
       <c r="H47" s="176" t="s">
         <v>9</v>
       </c>
       <c r="I47" s="102" t="str">
         <f ca="1">O24</f>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="J47" s="103" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">_xlfn.XLOOKUP(I47,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K47" s="82" t="e" vm="102">
+        <v>13</v>
+      </c>
+      <c r="K47" s="82" t="e" vm="101">
         <f ca="1">_xlfn.XLOOKUP(G47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="M47" s="82" t="e" vm="103">
+        <v>103</v>
+      </c>
+      <c r="M47" s="82" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N47" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O47" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cal State Northridge</v>
-      </c>
-      <c r="P47" s="204" t="e" vm="103">
+        <v>California</v>
+      </c>
+      <c r="P47" s="204" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(O47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20131,22 +20131,22 @@
       </c>
       <c r="R47" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="98"/>
     </row>
     <row r="48" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="152" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="B48" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="C48" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="D48" s="152" t="e">
         <f t="shared" si="9"/>
@@ -20157,44 +20157,44 @@
       </c>
       <c r="F48" s="100" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">_xlfn.XLOOKUP(G48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G48" s="101" t="str">
         <f ca="1">O25</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="H48" s="176" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="102" t="str">
         <f ca="1">O26</f>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="J48" s="103" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">_xlfn.XLOOKUP(I48,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
-      </c>
-      <c r="K48" s="82" t="e" vm="105">
+        <v>14</v>
+      </c>
+      <c r="K48" s="82" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(G48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="M48" s="82" t="e" vm="107">
+        <v>93</v>
+      </c>
+      <c r="M48" s="82" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(I48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N48" s="82">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="O48" s="189" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>California Baptist</v>
-      </c>
-      <c r="P48" s="204" t="e" vm="105">
+        <v>Campbell</v>
+      </c>
+      <c r="P48" s="204" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(O48,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="R48" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="98"/>
     </row>
@@ -20214,7 +20214,7 @@
       </c>
       <c r="B49" s="152" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="C49" s="152" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -20240,11 +20240,11 @@
       </c>
       <c r="I49" s="137" t="str">
         <f ca="1">O28</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="J49" s="138" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">_xlfn.XLOOKUP(I49,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K49" s="139" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(G49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20252,21 +20252,21 @@
       </c>
       <c r="L49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="M49" s="139" t="e" vm="112">
+        <v>109</v>
+      </c>
+      <c r="M49" s="139" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N49" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="O49" s="195" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Charlotte</v>
-      </c>
-      <c r="P49" s="210" t="e" vm="112">
+        <v>Charleston Southern</v>
+      </c>
+      <c r="P49" s="210" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(O49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20275,22 +20275,22 @@
       </c>
       <c r="R49" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="98"/>
     </row>
     <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="B50" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="C50" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Chattanooga</v>
+        <v>Clemson</v>
       </c>
       <c r="D50" s="91" t="e">
         <f t="shared" si="9"/>
@@ -20301,44 +20301,44 @@
       </c>
       <c r="F50" s="141" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">_xlfn.XLOOKUP(G50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G50" s="142" t="str">
         <f ca="1">O29</f>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="H50" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="143" t="str">
         <f ca="1">O30</f>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="J50" s="144" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">_xlfn.XLOOKUP(I50,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K50" s="145" t="e" vm="113">
+        <v>9</v>
+      </c>
+      <c r="K50" s="145" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(G50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M50" s="145" t="e" vm="115">
+        <v>114</v>
+      </c>
+      <c r="M50" s="145" t="e" vm="116">
         <f ca="1">_xlfn.XLOOKUP(I50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N50" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="O50" s="196" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Cincinnati</v>
-      </c>
-      <c r="P50" s="211" t="e" vm="115">
+        <v>Chicago State</v>
+      </c>
+      <c r="P50" s="211" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(O50,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20354,7 +20354,7 @@
     <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="B51" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -20362,7 +20362,7 @@
       </c>
       <c r="C51" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cleveland State</v>
+        <v>Colgate</v>
       </c>
       <c r="D51" s="91" t="e">
         <f t="shared" si="9"/>
@@ -20373,11 +20373,11 @@
       </c>
       <c r="F51" s="117" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">_xlfn.XLOOKUP(G51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G51" s="118" t="str">
         <f ca="1">O31</f>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="H51" s="178" t="s">
         <v>9</v>
@@ -20390,13 +20390,13 @@
         <f t="array" aca="1" ref="J51" ca="1">_xlfn.XLOOKUP(I51,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>4</v>
       </c>
-      <c r="K51" s="83" t="e" vm="117">
+      <c r="K51" s="83" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(G51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M51" s="83" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(I51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20404,13 +20404,13 @@
       </c>
       <c r="N51" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O51" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Colgate</v>
-      </c>
-      <c r="P51" s="207" t="e" vm="119">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="P51" s="207" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20419,14 +20419,14 @@
       </c>
       <c r="R51" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="98"/>
     </row>
     <row r="52" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="B52" s="91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -20445,11 +20445,11 @@
       </c>
       <c r="F52" s="117" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">_xlfn.XLOOKUP(G52,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G52" s="118" t="str">
         <f ca="1">O33</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="H52" s="178" t="s">
         <v>9</v>
@@ -20462,13 +20462,13 @@
         <f t="array" aca="1" ref="J52" ca="1">_xlfn.XLOOKUP(I52,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>14</v>
       </c>
-      <c r="K52" s="83" t="e" vm="121">
+      <c r="K52" s="83" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(G52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L52" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M52" s="83" t="e" vm="124">
         <f ca="1">_xlfn.XLOOKUP(I52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20480,9 +20480,9 @@
       </c>
       <c r="O52" s="192" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Colorado</v>
-      </c>
-      <c r="P52" s="207" t="e" vm="121">
+        <v>Colorado State</v>
+      </c>
+      <c r="P52" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O52,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="C53" s="91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Cornell</v>
+        <v>Dartmouth</v>
       </c>
       <c r="D53" s="91" t="e">
         <f t="shared" si="9"/>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="L53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M53" s="151" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(I53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20548,13 +20548,13 @@
       </c>
       <c r="N53" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O53" s="197" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dartmouth</v>
-      </c>
-      <c r="P53" s="212" t="e" vm="128">
+        <v>Cornell</v>
+      </c>
+      <c r="P53" s="212" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(O53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20563,7 +20563,7 @@
       </c>
       <c r="R53" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="98"/>
     </row>
@@ -20571,14 +20571,14 @@
       <c r="E54" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="290" t="str">
+      <c r="F54" s="238" t="str">
         <f>Bracket!I2</f>
         <v>Sweet 16</v>
       </c>
-      <c r="G54" s="290"/>
-      <c r="H54" s="290"/>
-      <c r="I54" s="290"/>
-      <c r="J54" s="290"/>
+      <c r="G54" s="238"/>
+      <c r="H54" s="238"/>
+      <c r="I54" s="238"/>
+      <c r="J54" s="238"/>
       <c r="K54" s="68"/>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
@@ -20593,15 +20593,15 @@
     <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="str">
         <f ca="1">G55</f>
-        <v>Air Force</v>
+        <v>Akron</v>
       </c>
       <c r="B55" s="91" t="str">
         <f ca="1">I55</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="C55" s="91" t="str">
         <f t="shared" ref="C55:C62" ca="1" si="14">IF(O55="","",IF(A55=O55,B55,A55))</f>
-        <v>Air Force</v>
+        <v>Akron</v>
       </c>
       <c r="D55" s="91" t="e">
         <f t="shared" ref="D55:D62" si="15">IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O55,SeedInfo,2,FALSE)*3,MAX(VLOOKUP(O55,SeedInfo,2,FALSE)-VLOOKUP(C55,SeedInfo,2,FALSE),0)))</f>
@@ -20612,44 +20612,44 @@
       </c>
       <c r="F55" s="93" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">_xlfn.XLOOKUP(G55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G55" s="94" t="str">
         <f ca="1">O38</f>
-        <v>Air Force</v>
+        <v>Akron</v>
       </c>
       <c r="H55" s="175" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="95" t="str">
         <f ca="1">O39</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="J55" s="96" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">_xlfn.XLOOKUP(I55,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
-      </c>
-      <c r="K55" s="97" t="e" vm="66">
+        <v>12</v>
+      </c>
+      <c r="K55" s="97" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(G55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="M55" s="97" t="e" vm="69">
+        <v>109</v>
+      </c>
+      <c r="M55" s="97" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N55" s="97">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O55" s="188" t="str">
         <f t="shared" ref="O55:O62" ca="1" si="16">IF(L55&gt;N55,G55,I55)</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="P55" s="204" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="P55" s="204" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(O55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20658,22 +20658,22 @@
       </c>
       <c r="R55" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="98"/>
     </row>
     <row r="56" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91" t="str">
         <f t="shared" ref="A56:A62" ca="1" si="17">G56</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="B56" s="91" t="str">
         <f t="shared" ref="B56:B62" ca="1" si="18">I56</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Arkansas State</v>
       </c>
       <c r="C56" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Arizona</v>
+        <v>Arkansas State</v>
       </c>
       <c r="D56" s="91" t="e">
         <f t="shared" si="15"/>
@@ -20684,44 +20684,44 @@
       </c>
       <c r="F56" s="135" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">_xlfn.XLOOKUP(G56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="136" t="str">
         <f ca="1">O40</f>
-        <v>Arizona</v>
+        <v>American</v>
       </c>
       <c r="H56" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="137" t="str">
         <f ca="1">O41</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Arkansas State</v>
       </c>
       <c r="J56" s="138" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">_xlfn.XLOOKUP(I56,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K56" s="139" t="e" vm="75">
+        <v>10</v>
+      </c>
+      <c r="K56" s="139" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M56" s="139" t="e" vm="79">
+        <v>99</v>
+      </c>
+      <c r="M56" s="139" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(I56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="O56" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="P56" s="210" t="e" vm="79">
+        <v>American</v>
+      </c>
+      <c r="P56" s="210" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O56,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20737,15 +20737,15 @@
     <row r="57" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Auburn</v>
+        <v>Ball State</v>
       </c>
       <c r="B57" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Binghamton</v>
+        <v>Belmont</v>
       </c>
       <c r="C57" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Binghamton</v>
+        <v>Ball State</v>
       </c>
       <c r="D57" s="91" t="e">
         <f t="shared" si="15"/>
@@ -20756,44 +20756,44 @@
       </c>
       <c r="F57" s="234" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">_xlfn.XLOOKUP(G57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G57" s="142" t="str">
         <f ca="1">O42</f>
-        <v>Auburn</v>
+        <v>Ball State</v>
       </c>
       <c r="H57" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="143" t="str">
         <f ca="1">O43</f>
-        <v>Binghamton</v>
+        <v>Belmont</v>
       </c>
       <c r="J57" s="144" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">_xlfn.XLOOKUP(I57,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>13</v>
-      </c>
-      <c r="K57" s="145" t="e" vm="81">
+        <v>12</v>
+      </c>
+      <c r="K57" s="145" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(G57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
-      </c>
-      <c r="M57" s="145" t="e" vm="88">
+        <v>101</v>
+      </c>
+      <c r="M57" s="145" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N57" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O57" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Auburn</v>
-      </c>
-      <c r="P57" s="211" t="e" vm="81">
+        <v>Belmont</v>
+      </c>
+      <c r="P57" s="211" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(O57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20802,14 +20802,14 @@
       </c>
       <c r="R57" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="98"/>
     </row>
     <row r="58" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="B58" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -20817,7 +20817,7 @@
       </c>
       <c r="C58" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="D58" s="91" t="e">
         <f t="shared" si="15"/>
@@ -20828,11 +20828,11 @@
       </c>
       <c r="F58" s="235" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">_xlfn.XLOOKUP(G58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G58" s="148" t="str">
         <f ca="1">O44</f>
-        <v>Boston College</v>
+        <v>Boise State</v>
       </c>
       <c r="H58" s="184" t="s">
         <v>9</v>
@@ -20845,13 +20845,13 @@
         <f t="array" aca="1" ref="J58" ca="1">_xlfn.XLOOKUP(I58,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>7</v>
       </c>
-      <c r="K58" s="151" t="e" vm="90">
+      <c r="K58" s="151" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(G58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L58" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="M58" s="151" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I58,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -20874,22 +20874,22 @@
       </c>
       <c r="R58" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="98"/>
     </row>
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="B59" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="C59" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Cal Poly</v>
+        <v>California</v>
       </c>
       <c r="D59" s="152" t="e">
         <f t="shared" si="15"/>
@@ -20900,44 +20900,44 @@
       </c>
       <c r="F59" s="130" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">_xlfn.XLOOKUP(G59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59" s="131" t="str">
         <f ca="1">O46</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="H59" s="181" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="132" t="str">
         <f ca="1">O47</f>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="J59" s="133" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">_xlfn.XLOOKUP(I59,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K59" s="84" t="e" vm="100">
+        <v>13</v>
+      </c>
+      <c r="K59" s="84" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
-      </c>
-      <c r="M59" s="84" t="e" vm="103">
+        <v>104</v>
+      </c>
+      <c r="M59" s="84" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(I59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N59" s="84">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="O59" s="194" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Cal State Northridge</v>
-      </c>
-      <c r="P59" s="209" t="e" vm="103">
+        <v>Bucknell</v>
+      </c>
+      <c r="P59" s="209" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -20953,15 +20953,15 @@
     <row r="60" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="B60" s="152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="C60" s="152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="D60" s="152" t="e">
         <f t="shared" si="15"/>
@@ -20972,32 +20972,32 @@
       </c>
       <c r="F60" s="135" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">_xlfn.XLOOKUP(G60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G60" s="136" t="str">
         <f ca="1">O48</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="H60" s="182" t="s">
         <v>9</v>
       </c>
       <c r="I60" s="137" t="str">
         <f ca="1">O49</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="J60" s="138" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">_xlfn.XLOOKUP(I60,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K60" s="139" t="e" vm="105">
+        <v>2</v>
+      </c>
+      <c r="K60" s="139" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(G60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L60" s="139">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="M60" s="139" t="e" vm="112">
+        <v>117</v>
+      </c>
+      <c r="M60" s="139" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21007,9 +21007,9 @@
       </c>
       <c r="O60" s="195" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Charlotte</v>
-      </c>
-      <c r="P60" s="210" t="e" vm="112">
+        <v>Charleston Southern</v>
+      </c>
+      <c r="P60" s="210" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(O60,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21018,22 +21018,22 @@
       </c>
       <c r="R60" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="98"/>
     </row>
     <row r="61" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Cincinnati</v>
+        <v>Chicago State</v>
       </c>
       <c r="B61" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="C61" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Colgate</v>
+        <v>Chicago State</v>
       </c>
       <c r="D61" s="91" t="e">
         <f t="shared" si="15"/>
@@ -21044,44 +21044,44 @@
       </c>
       <c r="F61" s="141" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">_xlfn.XLOOKUP(G61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G61" s="142" t="str">
         <f ca="1">O50</f>
-        <v>Cincinnati</v>
+        <v>Chicago State</v>
       </c>
       <c r="H61" s="183" t="s">
         <v>9</v>
       </c>
       <c r="I61" s="143" t="str">
         <f ca="1">O51</f>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="J61" s="144" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">_xlfn.XLOOKUP(I61,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
-      </c>
-      <c r="K61" s="145" t="e" vm="115">
+        <v>12</v>
+      </c>
+      <c r="K61" s="145" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(G61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
-      </c>
-      <c r="M61" s="145" t="e" vm="119">
+        <v>102</v>
+      </c>
+      <c r="M61" s="145" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(I61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N61" s="145">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="O61" s="196" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Cincinnati</v>
-      </c>
-      <c r="P61" s="211" t="e" vm="115">
+        <v>Coastal Carolina</v>
+      </c>
+      <c r="P61" s="211" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(O61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21090,22 +21090,22 @@
       </c>
       <c r="R61" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="98"/>
     </row>
     <row r="62" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="B62" s="91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>Dartmouth</v>
+        <v>Cornell</v>
       </c>
       <c r="C62" s="91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Dartmouth</v>
+        <v>Cornell</v>
       </c>
       <c r="D62" s="91" t="e">
         <f t="shared" si="15"/>
@@ -21116,44 +21116,44 @@
       </c>
       <c r="F62" s="147" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">_xlfn.XLOOKUP(G62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G62" s="148" t="str">
         <f ca="1">O52</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="H62" s="184" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="149" t="str">
         <f ca="1">O53</f>
-        <v>Dartmouth</v>
+        <v>Cornell</v>
       </c>
       <c r="J62" s="150" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">_xlfn.XLOOKUP(I62,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K62" s="151" t="e" vm="121">
+        <v>10</v>
+      </c>
+      <c r="K62" s="151" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(G62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M62" s="151" t="e" vm="128">
+        <v>107</v>
+      </c>
+      <c r="M62" s="151" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(I62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N62" s="151">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O62" s="197" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Colorado</v>
-      </c>
-      <c r="P62" s="212" t="e" vm="121">
+        <v>Colorado State</v>
+      </c>
+      <c r="P62" s="212" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O62,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="R62" s="6" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="98"/>
     </row>
@@ -21170,14 +21170,14 @@
       <c r="E63" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="290" t="str">
+      <c r="F63" s="238" t="str">
         <f>Bracket!L2</f>
         <v>Elite 8</v>
       </c>
-      <c r="G63" s="290"/>
-      <c r="H63" s="290"/>
-      <c r="I63" s="290"/>
-      <c r="J63" s="290"/>
+      <c r="G63" s="238"/>
+      <c r="H63" s="238"/>
+      <c r="I63" s="238"/>
+      <c r="J63" s="238"/>
       <c r="K63" s="68"/>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
@@ -21192,15 +21192,15 @@
     <row r="64" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="91" t="str">
         <f ca="1">G64</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="B64" s="91" t="str">
         <f ca="1">I64</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>American</v>
       </c>
       <c r="C64" s="91" t="str">
         <f ca="1">IF(O64="","",IF(A64=O64,B64,A64))</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="D64" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O64,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O64,SeedInfo,2,FALSE)-VLOOKUP(C64,SeedInfo,2,FALSE),0)))</f>
@@ -21211,24 +21211,24 @@
       </c>
       <c r="F64" s="154" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">_xlfn.XLOOKUP(G64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G64" s="155" t="str">
         <f ca="1">O55</f>
-        <v>Alabama A&amp;M</v>
+        <v>Alabama State</v>
       </c>
       <c r="H64" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="156" t="str">
         <f ca="1">O56</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>American</v>
       </c>
       <c r="J64" s="157" cm="1">
         <f t="array" aca="1" ref="J64" ca="1">_xlfn.XLOOKUP(I64,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K64" s="158" t="e" vm="69">
+        <v>6</v>
+      </c>
+      <c r="K64" s="158" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(G64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21236,19 +21236,19 @@
         <f t="shared" ca="1" si="10"/>
         <v>92</v>
       </c>
-      <c r="M64" s="158" t="e" vm="79">
+      <c r="M64" s="158" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N64" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O64" s="198" t="str">
         <f ca="1">IF(L64&gt;N64,G64,I64)</f>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="P64" s="204" t="e" vm="79">
+        <v>American</v>
+      </c>
+      <c r="P64" s="204" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O64,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21264,7 +21264,7 @@
     <row r="65" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="91" t="str">
         <f ca="1">G65</f>
-        <v>Auburn</v>
+        <v>Belmont</v>
       </c>
       <c r="B65" s="91" t="str">
         <f ca="1">I65</f>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="C65" s="91" t="str">
         <f ca="1">IF(O65="","",IF(A65=O65,B65,A65))</f>
-        <v>Bradley</v>
+        <v>Belmont</v>
       </c>
       <c r="D65" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O65,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O65,SeedInfo,2,FALSE)-VLOOKUP(C65,SeedInfo,2,FALSE),0)))</f>
@@ -21283,11 +21283,11 @@
       </c>
       <c r="F65" s="160" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">_xlfn.XLOOKUP(G65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G65" s="161" t="str">
         <f ca="1">O57</f>
-        <v>Auburn</v>
+        <v>Belmont</v>
       </c>
       <c r="H65" s="186" t="s">
         <v>9</v>
@@ -21300,13 +21300,13 @@
         <f t="array" aca="1" ref="J65" ca="1">_xlfn.XLOOKUP(I65,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
         <v>7</v>
       </c>
-      <c r="K65" s="164" t="e" vm="81">
+      <c r="K65" s="164" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(G65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M65" s="164" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -21314,13 +21314,13 @@
       </c>
       <c r="N65" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="O65" s="199" t="str">
         <f ca="1">IF(L65&gt;N65,G65,I65)</f>
-        <v>Auburn</v>
-      </c>
-      <c r="P65" s="207" t="e" vm="81">
+        <v>Bradley</v>
+      </c>
+      <c r="P65" s="207" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21336,15 +21336,15 @@
     <row r="66" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91" t="str">
         <f ca="1">G66</f>
-        <v>Cal State Northridge</v>
+        <v>Bucknell</v>
       </c>
       <c r="B66" s="91" t="str">
         <f ca="1">I66</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="C66" s="91" t="str">
         <f ca="1">IF(O66="","",IF(A66=O66,B66,A66))</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="D66" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O66,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O66,SeedInfo,2,FALSE)-VLOOKUP(C66,SeedInfo,2,FALSE),0)))</f>
@@ -21355,44 +21355,44 @@
       </c>
       <c r="F66" s="154" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">_xlfn.XLOOKUP(G66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66" s="155" t="str">
         <f ca="1">O59</f>
-        <v>Cal State Northridge</v>
+        <v>Bucknell</v>
       </c>
       <c r="H66" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="156" t="str">
         <f ca="1">O60</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="J66" s="157" cm="1">
         <f t="array" aca="1" ref="J66" ca="1">_xlfn.XLOOKUP(I66,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>15</v>
-      </c>
-      <c r="K66" s="158" t="e" vm="103">
+        <v>2</v>
+      </c>
+      <c r="K66" s="158" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="M66" s="158" t="e" vm="112">
+        <v>120</v>
+      </c>
+      <c r="M66" s="158" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(I66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N66" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O66" s="198" t="str">
         <f ca="1">IF(L66&gt;N66,G66,I66)</f>
-        <v>Cal State Northridge</v>
-      </c>
-      <c r="P66" s="204" t="e" vm="103">
+        <v>Bucknell</v>
+      </c>
+      <c r="P66" s="204" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O66,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21408,15 +21408,15 @@
     <row r="67" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91" t="str">
         <f ca="1">G67</f>
-        <v>Cincinnati</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="B67" s="91" t="str">
         <f ca="1">I67</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="C67" s="91" t="str">
         <f ca="1">IF(O67="","",IF(A67=O67,B67,A67))</f>
-        <v>Cincinnati</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="D67" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O67,SeedInfo,2,FALSE)*4,MAX(VLOOKUP(O67,SeedInfo,2,FALSE)-VLOOKUP(C67,SeedInfo,2,FALSE),0)))</f>
@@ -21427,44 +21427,44 @@
       </c>
       <c r="F67" s="160" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">_xlfn.XLOOKUP(G67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G67" s="161" t="str">
         <f ca="1">O61</f>
-        <v>Cincinnati</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="H67" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I67" s="162" t="str">
         <f ca="1">O62</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="J67" s="163" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">_xlfn.XLOOKUP(I67,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
-      </c>
-      <c r="K67" s="164" t="e" vm="115">
+        <v>11</v>
+      </c>
+      <c r="K67" s="164" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(G67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M67" s="164" t="e" vm="121">
+        <v>99</v>
+      </c>
+      <c r="M67" s="164" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O67" s="199" t="str">
         <f ca="1">IF(L67&gt;N67,G67,I67)</f>
-        <v>Colorado</v>
-      </c>
-      <c r="P67" s="207" t="e" vm="121">
+        <v>Colorado State</v>
+      </c>
+      <c r="P67" s="207" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(O67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21481,14 +21481,14 @@
       <c r="E68" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="290" t="str">
+      <c r="F68" s="238" t="str">
         <f>Bracket!O2</f>
         <v>Final Four</v>
       </c>
-      <c r="G68" s="290"/>
-      <c r="H68" s="290"/>
-      <c r="I68" s="290"/>
-      <c r="J68" s="290"/>
+      <c r="G68" s="238"/>
+      <c r="H68" s="238"/>
+      <c r="I68" s="238"/>
+      <c r="J68" s="238"/>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
@@ -21503,15 +21503,15 @@
     <row r="69" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="91" t="str">
         <f ca="1">G69</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>American</v>
       </c>
       <c r="B69" s="91" t="str">
         <f ca="1">I69</f>
-        <v>Auburn</v>
+        <v>Bradley</v>
       </c>
       <c r="C69" s="91" t="str">
         <f ca="1">IF(O69="","",IF(A69=O69,B69,A69))</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>Bradley</v>
       </c>
       <c r="D69" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O69,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O69,SeedInfo,2,FALSE)-VLOOKUP(C69,SeedInfo,2,FALSE),0)))</f>
@@ -21522,44 +21522,44 @@
       </c>
       <c r="F69" s="166" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">_xlfn.XLOOKUP(G69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" s="167" t="str">
         <f ca="1">O64</f>
-        <v>Arkansas-Pine Bluff</v>
+        <v>American</v>
       </c>
       <c r="H69" s="187" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="168" t="str">
         <f ca="1">O65</f>
-        <v>Auburn</v>
+        <v>Bradley</v>
       </c>
       <c r="J69" s="169" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">_xlfn.XLOOKUP(I69,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K69" s="170" t="e" vm="79">
+        <v>7</v>
+      </c>
+      <c r="K69" s="170" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="M69" s="170" t="e" vm="81">
+        <v>110</v>
+      </c>
+      <c r="M69" s="170" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N69" s="170">
         <f t="shared" ca="1" si="10"/>
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O69" s="200" t="str">
         <f ca="1">IF(L69&gt;N69,G69,I69)</f>
-        <v>Auburn</v>
-      </c>
-      <c r="P69" s="210" t="e" vm="81">
+        <v>American</v>
+      </c>
+      <c r="P69" s="210" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O69,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21575,15 +21575,15 @@
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="91" t="str">
         <f ca="1">G70</f>
-        <v>Cal State Northridge</v>
+        <v>Bucknell</v>
       </c>
       <c r="B70" s="91" t="str">
         <f ca="1">I70</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="C70" s="91" t="str">
         <f ca="1">IF(O70="","",IF(A70=O70,B70,A70))</f>
-        <v>Cal State Northridge</v>
+        <v>Colorado State</v>
       </c>
       <c r="D70" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O70,SeedInfo,2,FALSE)*5,MAX(VLOOKUP(O70,SeedInfo,2,FALSE)-VLOOKUP(C70,SeedInfo,2,FALSE),0)))</f>
@@ -21594,44 +21594,44 @@
       </c>
       <c r="F70" s="160" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">_xlfn.XLOOKUP(G70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" s="161" t="str">
         <f ca="1">O66</f>
-        <v>Cal State Northridge</v>
+        <v>Bucknell</v>
       </c>
       <c r="H70" s="186" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="162" t="str">
         <f ca="1">O67</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="J70" s="163" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">_xlfn.XLOOKUP(I70,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
-      </c>
-      <c r="K70" s="164" t="e" vm="103">
+        <v>11</v>
+      </c>
+      <c r="K70" s="164" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(G70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="M70" s="164" t="e" vm="121">
+        <v>113</v>
+      </c>
+      <c r="M70" s="164" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(I70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N70" s="164">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O70" s="199" t="str">
         <f ca="1">IF(L70&gt;N70,G70,I70)</f>
-        <v>Colorado</v>
-      </c>
-      <c r="P70" s="213" t="e" vm="121">
+        <v>Bucknell</v>
+      </c>
+      <c r="P70" s="213" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(O70,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21643,7 +21643,7 @@
 O70=G70,
 IF(F70&gt;J70,TRUE,FALSE),
 IF(J70&gt;F70,TRUE,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="98"/>
     </row>
@@ -21655,14 +21655,14 @@
       <c r="E71" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="290" t="str">
+      <c r="F71" s="238" t="str">
         <f>Bracket!S2</f>
         <v>Championship</v>
       </c>
-      <c r="G71" s="290"/>
-      <c r="H71" s="290"/>
-      <c r="I71" s="290"/>
-      <c r="J71" s="290"/>
+      <c r="G71" s="238"/>
+      <c r="H71" s="238"/>
+      <c r="I71" s="238"/>
+      <c r="J71" s="238"/>
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
       <c r="M71" s="68"/>
@@ -21677,15 +21677,15 @@
     <row r="72" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91" t="str">
         <f ca="1">G72</f>
-        <v>Auburn</v>
+        <v>American</v>
       </c>
       <c r="B72" s="91" t="str">
         <f ca="1">I72</f>
-        <v>Colorado</v>
+        <v>Bucknell</v>
       </c>
       <c r="C72" s="91" t="str">
         <f ca="1">IF(O72="","",IF(A72=O72,B72,A72))</f>
-        <v>Colorado</v>
+        <v>Bucknell</v>
       </c>
       <c r="D72" s="91" t="e">
         <f>IF(SeedType=1,0,IF(SeedType=2,VLOOKUP(O72,SeedInfo,2,FALSE)*6,MAX(VLOOKUP(O72,SeedInfo,2,FALSE)-VLOOKUP(C72,SeedInfo,2,FALSE),0)))</f>
@@ -21696,44 +21696,44 @@
       </c>
       <c r="F72" s="154" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">_xlfn.XLOOKUP(G72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G72" s="155" t="str">
         <f ca="1">O69</f>
-        <v>Auburn</v>
+        <v>American</v>
       </c>
       <c r="H72" s="185" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="156" t="str">
         <f ca="1">O70</f>
-        <v>Colorado</v>
+        <v>Bucknell</v>
       </c>
       <c r="J72" s="157" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">_xlfn.XLOOKUP(I72,Teams[[#All],[Team]],Teams[[#All],[Seed]],0,0,1)</f>
-        <v>6</v>
-      </c>
-      <c r="K72" s="158" t="e" vm="81">
+        <v>1</v>
+      </c>
+      <c r="K72" s="158" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(G72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="M72" s="158" t="e" vm="121">
+        <v>117</v>
+      </c>
+      <c r="M72" s="158" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(I72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N72" s="158">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O72" s="198" t="str">
         <f ca="1">IF(L72&gt;N72,G72,I72)</f>
-        <v>Auburn</v>
-      </c>
-      <c r="P72" s="205" t="e" vm="81">
+        <v>American</v>
+      </c>
+      <c r="P72" s="205" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O72,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -21742,7 +21742,7 @@
       </c>
       <c r="R72" s="6" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="98"/>
     </row>
@@ -21833,47 +21833,47 @@
   <sheetData>
     <row r="1" spans="1:47" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="270"/>
-      <c r="AD1" s="270"/>
-      <c r="AE1" s="270"/>
-      <c r="AF1" s="270"/>
-      <c r="AG1" s="270"/>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="270"/>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="270"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
+      <c r="AE1" s="281"/>
+      <c r="AF1" s="281"/>
+      <c r="AG1" s="281"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="281"/>
+      <c r="AJ1" s="281"/>
+      <c r="AK1" s="281"/>
+      <c r="AL1" s="281"/>
+      <c r="AM1" s="281"/>
+      <c r="AN1" s="281"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:47" s="63" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -21905,13 +21905,13 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="274" t="s">
+      <c r="S2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="274"/>
-      <c r="U2" s="274"/>
-      <c r="V2" s="274"/>
-      <c r="W2" s="274"/>
+      <c r="T2" s="285"/>
+      <c r="U2" s="285"/>
+      <c r="V2" s="285"/>
+      <c r="W2" s="285"/>
       <c r="X2" s="62"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
@@ -21989,7 +21989,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="17"/>
-      <c r="AQ3" s="277"/>
+      <c r="AQ3" s="288"/>
       <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
@@ -22021,7 +22021,7 @@
       <c r="AM4" s="26"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="277"/>
+      <c r="AQ4" s="288"/>
     </row>
     <row r="5" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -22038,19 +22038,19 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">Games!L5</f>
-        <v>100</v>
-      </c>
-      <c r="F5" s="251" t="str">
+        <v>111</v>
+      </c>
+      <c r="F5" s="262" t="str">
         <f ca="1">Games!O5</f>
-        <v>Air Force</v>
-      </c>
-      <c r="G5" s="236" t="e" vm="66">
+        <v>Abilene Christian</v>
+      </c>
+      <c r="G5" s="247" t="e" vm="65">
         <f ca="1">_xlfn.XLOOKUP(F5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="273">
+      <c r="H5" s="284">
         <f ca="1">Games!L38</f>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -22068,21 +22068,21 @@
       <c r="AA5" s="25"/>
       <c r="AD5" s="25"/>
       <c r="AG5" s="25"/>
-      <c r="AH5" s="253">
+      <c r="AH5" s="264">
         <f ca="1">Games!L46</f>
-        <v>105</v>
-      </c>
-      <c r="AI5" s="286" t="e" vm="97">
+        <v>108</v>
+      </c>
+      <c r="AI5" s="297" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AJ5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="251" t="str">
+      <c r="AJ5" s="262" t="str">
         <f ca="1">Games!O21</f>
         <v>Bucknell</v>
       </c>
       <c r="AK5" s="58">
         <f ca="1">Games!L21</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL5" s="46" t="e" vm="97">
         <f>_xlfn.XLOOKUP(AM5,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22096,14 +22096,14 @@
         <v>1</v>
       </c>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="277"/>
+      <c r="AQ5" s="288"/>
       <c r="AU5" s="2" t="b">
         <f>IF(AP29="x",TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="272">
+      <c r="A6" s="283">
         <f>IF($AU$5=TRUE,1,"")</f>
         <v>1</v>
       </c>
@@ -22111,9 +22111,9 @@
       <c r="C6" s="38"/>
       <c r="D6" s="71"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="254"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="265"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="L6" s="25"/>
@@ -22130,20 +22130,20 @@
       <c r="AA6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AG6" s="25"/>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="287"/>
-      <c r="AJ6" s="252"/>
+      <c r="AH6" s="265"/>
+      <c r="AI6" s="298"/>
+      <c r="AJ6" s="263"/>
       <c r="AK6" s="55"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="28"/>
-      <c r="AO6" s="276">
+      <c r="AO6" s="287">
         <f>IF($AU$5=TRUE,A66+1,"")</f>
         <v>17</v>
       </c>
-      <c r="AQ6" s="277"/>
+      <c r="AQ6" s="288"/>
     </row>
     <row r="7" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="272"/>
+      <c r="A7" s="283"/>
       <c r="B7" s="27">
         <v>16</v>
       </c>
@@ -22157,25 +22157,25 @@
       </c>
       <c r="E7" s="48">
         <f ca="1">Games!N5</f>
-        <v>100</v>
-      </c>
-      <c r="F7" s="271">
+        <v>95</v>
+      </c>
+      <c r="F7" s="282">
         <f>IF($AU$5=TRUE,AO66+1,"")</f>
         <v>33</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="268" t="str">
+      <c r="I7" s="279" t="str">
         <f ca="1">Games!O38</f>
-        <v>Air Force</v>
-      </c>
-      <c r="J7" s="236" t="e" vm="66">
+        <v>Akron</v>
+      </c>
+      <c r="J7" s="247" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(I7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="253">
+      <c r="K7" s="264">
         <f ca="1">Games!L55</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -22190,27 +22190,27 @@
       <c r="X7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="253">
+      <c r="AE7" s="264">
         <f ca="1">Games!L59</f>
-        <v>107</v>
-      </c>
-      <c r="AF7" s="286" t="e" vm="100">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="297" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AG7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG7" s="251" t="str">
+      <c r="AG7" s="262" t="str">
         <f ca="1">Games!O46</f>
-        <v>Cal Poly</v>
+        <v>Bucknell</v>
       </c>
       <c r="AH7" s="55"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="271">
+      <c r="AJ7" s="282">
         <f>IF($AU$5=TRUE,F63+1,"")</f>
         <v>41</v>
       </c>
       <c r="AK7" s="59">
         <f ca="1">Games!N21</f>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AL7" s="46" t="e" vm="98">
         <f>_xlfn.XLOOKUP(AM7,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22223,20 +22223,20 @@
       <c r="AN7" s="27">
         <v>16</v>
       </c>
-      <c r="AO7" s="276"/>
-      <c r="AQ7" s="277"/>
+      <c r="AO7" s="287"/>
+      <c r="AQ7" s="288"/>
     </row>
     <row r="8" spans="1:47" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="71"/>
-      <c r="F8" s="272"/>
+      <c r="F8" s="283"/>
       <c r="G8" s="15"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="254"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="265"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="O8" s="25"/>
@@ -22250,15 +22250,15 @@
       <c r="X8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="254"/>
-      <c r="AF8" s="287"/>
-      <c r="AG8" s="252"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="298"/>
+      <c r="AG8" s="263"/>
       <c r="AH8" s="56"/>
-      <c r="AJ8" s="272"/>
+      <c r="AJ8" s="283"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="28"/>
       <c r="AO8" s="17"/>
-      <c r="AQ8" s="277"/>
+      <c r="AQ8" s="288"/>
     </row>
     <row r="9" spans="1:47" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
@@ -22275,19 +22275,19 @@
       </c>
       <c r="E9" s="46">
         <f ca="1">Games!L6</f>
-        <v>111</v>
-      </c>
-      <c r="F9" s="251" t="str">
+        <v>112</v>
+      </c>
+      <c r="F9" s="262" t="str">
         <f ca="1">Games!O6</f>
         <v>Akron</v>
       </c>
-      <c r="G9" s="236" t="e" vm="67">
+      <c r="G9" s="247" t="e" vm="67">
         <f ca="1">_xlfn.XLOOKUP(F9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="266">
+      <c r="H9" s="277">
         <f ca="1">Games!N38</f>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -22307,21 +22307,21 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="55"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="258">
+      <c r="AH9" s="269">
         <f ca="1">Games!N46</f>
-        <v>108</v>
-      </c>
-      <c r="AI9" s="286" t="e" vm="100">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="297" t="e" vm="100">
         <f ca="1">_xlfn.XLOOKUP(AJ9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ9" s="251" t="str">
+      <c r="AJ9" s="262" t="str">
         <f ca="1">Games!O22</f>
         <v>Cal Poly</v>
       </c>
       <c r="AK9" s="58">
         <f ca="1">Games!L22</f>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AL9" s="46" t="e" vm="99">
         <f>_xlfn.XLOOKUP(AM9,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22335,10 +22335,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="17"/>
-      <c r="AQ9" s="277"/>
+      <c r="AQ9" s="288"/>
     </row>
     <row r="10" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275">
+      <c r="A10" s="286">
         <f>IF($AU$5=TRUE,A6+1,"")</f>
         <v>2</v>
       </c>
@@ -22346,9 +22346,9 @@
       <c r="C10" s="38"/>
       <c r="D10" s="71"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="267"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="278"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="50"/>
@@ -22367,20 +22367,20 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="56"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="259"/>
-      <c r="AI10" s="287"/>
-      <c r="AJ10" s="252"/>
+      <c r="AH10" s="270"/>
+      <c r="AI10" s="298"/>
+      <c r="AJ10" s="263"/>
       <c r="AK10" s="55"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="28"/>
-      <c r="AO10" s="276">
+      <c r="AO10" s="287">
         <f>IF($AU$5=TRUE,AO6+1,"")</f>
         <v>18</v>
       </c>
-      <c r="AQ10" s="277"/>
+      <c r="AQ10" s="288"/>
     </row>
     <row r="11" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="275"/>
+      <c r="A11" s="286"/>
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -22394,25 +22394,25 @@
       </c>
       <c r="E11" s="48">
         <f ca="1">Games!N6</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="272">
+      <c r="I11" s="283">
         <f>IF($AU$5=TRUE,AJ63+1,"")</f>
         <v>49</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="268" t="str">
+      <c r="L11" s="279" t="str">
         <f ca="1">Games!O55</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="M11" s="236" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="M11" s="247" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(L11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="253">
+      <c r="N11" s="264">
         <f ca="1">Games!L64</f>
         <v>92</v>
       </c>
@@ -22420,36 +22420,36 @@
       <c r="P11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="240" t="e" vm="81">
+      <c r="T11" s="251" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(S32,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" s="241"/>
-      <c r="V11" s="242"/>
+      <c r="U11" s="252"/>
+      <c r="V11" s="253"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="253">
+      <c r="AB11" s="264">
         <f ca="1">Games!L66</f>
-        <v>119</v>
-      </c>
-      <c r="AC11" s="238" t="e" vm="103">
+        <v>120</v>
+      </c>
+      <c r="AC11" s="249" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AD11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD11" s="251" t="str">
+      <c r="AD11" s="262" t="str">
         <f ca="1">Games!O59</f>
-        <v>Cal State Northridge</v>
+        <v>Bucknell</v>
       </c>
       <c r="AE11" s="56"/>
-      <c r="AG11" s="272">
+      <c r="AG11" s="283">
         <f>IF($AU$5=TRUE,I59+1,"")</f>
         <v>53</v>
       </c>
       <c r="AJ11" s="24"/>
       <c r="AK11" s="59">
         <f ca="1">Games!N22</f>
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AL11" s="46" t="e" vm="100">
         <f>_xlfn.XLOOKUP(AM11,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22462,8 +22462,8 @@
       <c r="AN11" s="27">
         <v>9</v>
       </c>
-      <c r="AO11" s="276"/>
-      <c r="AQ11" s="277"/>
+      <c r="AO11" s="287"/>
+      <c r="AQ11" s="288"/>
     </row>
     <row r="12" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -22472,27 +22472,27 @@
       <c r="D12" s="71"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="272"/>
+      <c r="I12" s="283"/>
       <c r="J12" s="15"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="254"/>
+      <c r="L12" s="280"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="265"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="243"/>
-      <c r="U12" s="244"/>
-      <c r="V12" s="245"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="255"/>
+      <c r="V12" s="256"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="239"/>
-      <c r="AD12" s="252"/>
+      <c r="AB12" s="265"/>
+      <c r="AC12" s="250"/>
+      <c r="AD12" s="263"/>
       <c r="AE12" s="56"/>
-      <c r="AG12" s="272"/>
+      <c r="AG12" s="283"/>
       <c r="AJ12" s="24"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="28"/>
@@ -22513,19 +22513,19 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">Games!L7</f>
-        <v>102</v>
-      </c>
-      <c r="F13" s="251" t="str">
+        <v>98</v>
+      </c>
+      <c r="F13" s="262" t="str">
         <f ca="1">Games!O7</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="G13" s="236" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="G13" s="247" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(F13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="253">
+      <c r="H13" s="264">
         <f ca="1">Games!L39</f>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -22537,9 +22537,9 @@
       <c r="P13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="243"/>
-      <c r="U13" s="244"/>
-      <c r="V13" s="245"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="255"/>
+      <c r="V13" s="256"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="AA13" s="25"/>
@@ -22547,21 +22547,21 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="56"/>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="253">
+      <c r="AH13" s="264">
         <f ca="1">Games!L47</f>
-        <v>97</v>
-      </c>
-      <c r="AI13" s="238" t="e" vm="102">
+        <v>103</v>
+      </c>
+      <c r="AI13" s="249" t="e" vm="101">
         <f ca="1">_xlfn.XLOOKUP(AJ13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ13" s="251" t="str">
+      <c r="AJ13" s="262" t="str">
         <f ca="1">Games!O23</f>
-        <v>Cal State Fullerton</v>
+        <v>Cal State Bakersfield</v>
       </c>
       <c r="AK13" s="58">
         <f ca="1">Games!L23</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AL13" s="46" t="e" vm="101">
         <f>_xlfn.XLOOKUP(AM13,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22578,7 +22578,7 @@
       <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="272">
+      <c r="A14" s="283">
         <f>IF($AU$5=TRUE,A10+1,"")</f>
         <v>3</v>
       </c>
@@ -22586,9 +22586,9 @@
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="254"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="265"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="50"/>
@@ -22599,9 +22599,9 @@
       <c r="P14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="243"/>
-      <c r="U14" s="244"/>
-      <c r="V14" s="245"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="255"/>
+      <c r="V14" s="256"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="AA14" s="25"/>
@@ -22609,20 +22609,20 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="56"/>
       <c r="AG14" s="24"/>
-      <c r="AH14" s="254"/>
-      <c r="AI14" s="239"/>
-      <c r="AJ14" s="252"/>
+      <c r="AH14" s="265"/>
+      <c r="AI14" s="250"/>
+      <c r="AJ14" s="263"/>
       <c r="AK14" s="55"/>
       <c r="AM14" s="39"/>
       <c r="AN14" s="28"/>
-      <c r="AO14" s="276">
+      <c r="AO14" s="287">
         <f>IF($AU$5=TRUE,AO10+1,"")</f>
         <v>19</v>
       </c>
-      <c r="AQ14" s="277"/>
+      <c r="AQ14" s="288"/>
     </row>
     <row r="15" spans="1:47" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="272"/>
+      <c r="A15" s="283"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -22636,25 +22636,25 @@
       </c>
       <c r="E15" s="48">
         <f ca="1">Games!N7</f>
-        <v>93</v>
-      </c>
-      <c r="F15" s="271">
+        <v>111</v>
+      </c>
+      <c r="F15" s="282">
         <f>IF($AU$5=TRUE,F7+1,"")</f>
         <v>34</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="268" t="str">
+      <c r="I15" s="279" t="str">
         <f ca="1">Games!O39</f>
-        <v>Alabama A&amp;M</v>
-      </c>
-      <c r="J15" s="236" t="e" vm="69">
+        <v>Alabama State</v>
+      </c>
+      <c r="J15" s="247" t="e" vm="70">
         <f ca="1">_xlfn.XLOOKUP(I15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="266">
+      <c r="K15" s="277">
         <f ca="1">Games!N55</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -22663,35 +22663,35 @@
       <c r="P15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="243"/>
-      <c r="U15" s="244"/>
-      <c r="V15" s="245"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="255"/>
+      <c r="V15" s="256"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="56"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="258">
+      <c r="AE15" s="269">
         <f ca="1">Games!N59</f>
-        <v>116</v>
-      </c>
-      <c r="AF15" s="238" t="e" vm="103">
+        <v>101</v>
+      </c>
+      <c r="AF15" s="249" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(AG15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG15" s="251" t="str">
+      <c r="AG15" s="262" t="str">
         <f ca="1">Games!O47</f>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="51"/>
-      <c r="AJ15" s="271">
+      <c r="AJ15" s="282">
         <f>IF($AU$5=TRUE,AJ7+1,"")</f>
         <v>42</v>
       </c>
       <c r="AK15" s="59">
         <f ca="1">Games!N23</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AL15" s="46" t="e" vm="102">
         <f>_xlfn.XLOOKUP(AM15,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22704,20 +22704,20 @@
       <c r="AN15" s="27">
         <v>12</v>
       </c>
-      <c r="AO15" s="276"/>
-      <c r="AQ15" s="277"/>
+      <c r="AO15" s="287"/>
+      <c r="AQ15" s="288"/>
     </row>
     <row r="16" spans="1:47" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="28"/>
       <c r="C16" s="38"/>
       <c r="D16" s="71"/>
-      <c r="F16" s="272"/>
+      <c r="F16" s="283"/>
       <c r="G16" s="15"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="267"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="278"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="50"/>
@@ -22725,23 +22725,23 @@
       <c r="P16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="243"/>
-      <c r="U16" s="244"/>
-      <c r="V16" s="245"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="255"/>
+      <c r="V16" s="256"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="56"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="259"/>
-      <c r="AF16" s="239"/>
-      <c r="AG16" s="252"/>
+      <c r="AE16" s="270"/>
+      <c r="AF16" s="250"/>
+      <c r="AG16" s="263"/>
       <c r="AH16" s="56"/>
-      <c r="AJ16" s="272"/>
+      <c r="AJ16" s="283"/>
       <c r="AM16" s="39"/>
       <c r="AN16" s="28"/>
       <c r="AO16" s="17"/>
-      <c r="AQ16" s="277"/>
+      <c r="AQ16" s="288"/>
     </row>
     <row r="17" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -22758,19 +22758,19 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">Games!L8</f>
-        <v>108</v>
-      </c>
-      <c r="F17" s="251" t="str">
+        <v>111</v>
+      </c>
+      <c r="F17" s="262" t="str">
         <f ca="1">Games!O8</f>
         <v>Albany (NY)</v>
       </c>
-      <c r="G17" s="236" t="e" vm="71">
+      <c r="G17" s="247" t="e" vm="71">
         <f ca="1">_xlfn.XLOOKUP(F17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="266">
+      <c r="H17" s="277">
         <f ca="1">Games!N39</f>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -22781,30 +22781,30 @@
       <c r="P17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="243"/>
-      <c r="U17" s="244"/>
-      <c r="V17" s="245"/>
+      <c r="T17" s="254"/>
+      <c r="U17" s="255"/>
+      <c r="V17" s="256"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="56"/>
       <c r="AD17" s="25"/>
       <c r="AG17" s="24"/>
-      <c r="AH17" s="258">
+      <c r="AH17" s="269">
         <f ca="1">Games!N47</f>
-        <v>100</v>
-      </c>
-      <c r="AI17" s="238" t="e" vm="103">
+        <v>109</v>
+      </c>
+      <c r="AI17" s="249" t="e" vm="104">
         <f ca="1">_xlfn.XLOOKUP(AJ17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ17" s="251" t="str">
+      <c r="AJ17" s="262" t="str">
         <f ca="1">Games!O24</f>
-        <v>Cal State Northridge</v>
+        <v>California</v>
       </c>
       <c r="AK17" s="58">
         <f ca="1">Games!L24</f>
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AL17" s="46" t="e" vm="103">
         <f>_xlfn.XLOOKUP(AM17,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22818,10 +22818,10 @@
         <v>4</v>
       </c>
       <c r="AO17" s="17"/>
-      <c r="AQ17" s="277"/>
+      <c r="AQ17" s="288"/>
     </row>
     <row r="18" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="272">
+      <c r="A18" s="283">
         <f>IF($AU$5=TRUE,A14+1,"")</f>
         <v>4</v>
       </c>
@@ -22829,9 +22829,9 @@
       <c r="C18" s="38"/>
       <c r="D18" s="71"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="267"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="248"/>
+      <c r="H18" s="278"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="L18" s="25"/>
@@ -22841,29 +22841,29 @@
       <c r="P18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="243"/>
-      <c r="U18" s="244"/>
-      <c r="V18" s="245"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="255"/>
+      <c r="V18" s="256"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="56"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="259"/>
-      <c r="AI18" s="239"/>
-      <c r="AJ18" s="252"/>
+      <c r="AH18" s="270"/>
+      <c r="AI18" s="250"/>
+      <c r="AJ18" s="263"/>
       <c r="AK18" s="55"/>
       <c r="AM18" s="39"/>
       <c r="AN18" s="28"/>
-      <c r="AO18" s="276">
+      <c r="AO18" s="287">
         <f>IF($AU$5=TRUE,AO14+1,"")</f>
         <v>20</v>
       </c>
-      <c r="AQ18" s="277"/>
+      <c r="AQ18" s="288"/>
     </row>
     <row r="19" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="272"/>
+      <c r="A19" s="283"/>
       <c r="B19" s="27">
         <v>13</v>
       </c>
@@ -22877,60 +22877,60 @@
       </c>
       <c r="E19" s="48">
         <f ca="1">Games!N8</f>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="255" t="s">
+      <c r="K19" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="255"/>
+      <c r="L19" s="266"/>
       <c r="M19" s="20"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="268" t="str">
+      <c r="O19" s="279" t="str">
         <f ca="1">Games!O64</f>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="P19" s="236" t="e" vm="79">
+        <v>American</v>
+      </c>
+      <c r="P19" s="247" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(O19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q19" s="253">
+      <c r="Q19" s="264">
         <f ca="1">Games!L69</f>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="246"/>
-      <c r="U19" s="247"/>
-      <c r="V19" s="248"/>
+      <c r="T19" s="257"/>
+      <c r="U19" s="258"/>
+      <c r="V19" s="259"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="253">
+      <c r="Y19" s="264">
         <f ca="1">Games!L70</f>
-        <v>92</v>
-      </c>
-      <c r="Z19" s="238" t="e" vm="103">
+        <v>113</v>
+      </c>
+      <c r="Z19" s="249" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(AA19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA19" s="251" t="str">
+      <c r="AA19" s="262" t="str">
         <f ca="1">Games!O66</f>
-        <v>Cal State Northridge</v>
+        <v>Bucknell</v>
       </c>
       <c r="AB19" s="56"/>
-      <c r="AD19" s="255" t="s">
+      <c r="AD19" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="255"/>
+      <c r="AE19" s="266"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="59">
         <f ca="1">Games!N24</f>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AL19" s="46" t="e" vm="104">
         <f>_xlfn.XLOOKUP(AM19,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -22943,8 +22943,8 @@
       <c r="AN19" s="27">
         <v>13</v>
       </c>
-      <c r="AO19" s="276"/>
-      <c r="AQ19" s="277"/>
+      <c r="AO19" s="287"/>
+      <c r="AQ19" s="288"/>
     </row>
     <row r="20" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
@@ -22955,13 +22955,13 @@
       <c r="G20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="255"/>
+      <c r="K20" s="266"/>
+      <c r="L20" s="266"/>
       <c r="M20" s="20"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="269"/>
-      <c r="P20" s="237"/>
-      <c r="Q20" s="254"/>
+      <c r="O20" s="280"/>
+      <c r="P20" s="248"/>
+      <c r="Q20" s="265"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -22969,12 +22969,12 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="254"/>
-      <c r="Z20" s="239"/>
-      <c r="AA20" s="252"/>
+      <c r="Y20" s="265"/>
+      <c r="Z20" s="250"/>
+      <c r="AA20" s="263"/>
       <c r="AB20" s="56"/>
-      <c r="AD20" s="255"/>
-      <c r="AE20" s="255"/>
+      <c r="AD20" s="266"/>
+      <c r="AE20" s="266"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="24"/>
       <c r="AJ20" s="24"/>
@@ -22984,7 +22984,7 @@
       <c r="AQ20" s="10"/>
     </row>
     <row r="21" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="272">
+      <c r="A21" s="283">
         <f>IF($AU$5=TRUE,A18+1,"")</f>
         <v>5</v>
       </c>
@@ -23001,19 +23001,19 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">Games!L9</f>
-        <v>116</v>
-      </c>
-      <c r="F21" s="251" t="str">
+        <v>108</v>
+      </c>
+      <c r="F21" s="262" t="str">
         <f ca="1">Games!O9</f>
         <v>American</v>
       </c>
-      <c r="G21" s="236" t="e" vm="73">
+      <c r="G21" s="247" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(F21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="253">
+      <c r="H21" s="264">
         <f ca="1">Games!L40</f>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -23041,21 +23041,21 @@
         <v>59</v>
       </c>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="253">
+      <c r="AH21" s="264">
         <f ca="1">Games!L48</f>
-        <v>120</v>
-      </c>
-      <c r="AI21" s="238" t="e" vm="105">
+        <v>93</v>
+      </c>
+      <c r="AI21" s="249" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AJ21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ21" s="251" t="str">
+      <c r="AJ21" s="262" t="str">
         <f ca="1">Games!O25</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="AK21" s="58">
         <f ca="1">Games!L25</f>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="AL21" s="46" t="e" vm="105">
         <f>_xlfn.XLOOKUP(AM21,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23072,14 +23072,14 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="272"/>
+      <c r="A22" s="283"/>
       <c r="B22" s="28"/>
       <c r="C22" s="38"/>
       <c r="D22" s="71"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="254"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="248"/>
+      <c r="H22" s="265"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="L22" s="25"/>
@@ -23100,17 +23100,17 @@
       <c r="AB22" s="56"/>
       <c r="AD22" s="29"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="254"/>
-      <c r="AI22" s="239"/>
-      <c r="AJ22" s="252"/>
+      <c r="AH22" s="265"/>
+      <c r="AI22" s="250"/>
+      <c r="AJ22" s="263"/>
       <c r="AK22" s="55"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="28"/>
-      <c r="AO22" s="276">
+      <c r="AO22" s="287">
         <f>IF($AU$5=TRUE,AO18+1,"")</f>
         <v>21</v>
       </c>
-      <c r="AQ22" s="277"/>
+      <c r="AQ22" s="288"/>
     </row>
     <row r="23" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
@@ -23127,25 +23127,25 @@
       </c>
       <c r="E23" s="48">
         <f ca="1">Games!N9</f>
-        <v>114</v>
-      </c>
-      <c r="F23" s="271">
+        <v>101</v>
+      </c>
+      <c r="F23" s="282">
         <f>IF($AU$5=TRUE,F15+1,"")</f>
         <v>35</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="268" t="str">
+      <c r="I23" s="279" t="str">
         <f ca="1">Games!O40</f>
-        <v>Arizona</v>
-      </c>
-      <c r="J23" s="236" t="e" vm="75">
+        <v>American</v>
+      </c>
+      <c r="J23" s="247" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(I23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="253">
+      <c r="K23" s="264">
         <f ca="1">Games!L56</f>
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -23164,27 +23164,27 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="56"/>
       <c r="AD23" s="25"/>
-      <c r="AE23" s="253">
+      <c r="AE23" s="264">
         <f ca="1">Games!L60</f>
-        <v>95</v>
-      </c>
-      <c r="AF23" s="238" t="e" vm="105">
+        <v>117</v>
+      </c>
+      <c r="AF23" s="249" t="e" vm="106">
         <f ca="1">_xlfn.XLOOKUP(AG23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG23" s="251" t="str">
+      <c r="AG23" s="262" t="str">
         <f ca="1">Games!O48</f>
-        <v>California Baptist</v>
+        <v>Campbell</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="51"/>
-      <c r="AJ23" s="271">
+      <c r="AJ23" s="282">
         <f>IF($AU$5=TRUE,AJ15+1,"")</f>
         <v>43</v>
       </c>
       <c r="AK23" s="59">
         <f ca="1">Games!N25</f>
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AL23" s="46" t="e" vm="106">
         <f>_xlfn.XLOOKUP(AM23,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23197,20 +23197,20 @@
       <c r="AN23" s="27">
         <v>11</v>
       </c>
-      <c r="AO23" s="276"/>
-      <c r="AQ23" s="277"/>
+      <c r="AO23" s="287"/>
+      <c r="AQ23" s="288"/>
     </row>
     <row r="24" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="28"/>
       <c r="C24" s="38"/>
       <c r="D24" s="71"/>
-      <c r="F24" s="272"/>
+      <c r="F24" s="283"/>
       <c r="G24" s="15"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="254"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="248"/>
+      <c r="K24" s="265"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="50"/>
@@ -23228,15 +23228,15 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="56"/>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="254"/>
-      <c r="AF24" s="239"/>
-      <c r="AG24" s="252"/>
+      <c r="AE24" s="265"/>
+      <c r="AF24" s="250"/>
+      <c r="AG24" s="263"/>
       <c r="AH24" s="56"/>
-      <c r="AJ24" s="272"/>
+      <c r="AJ24" s="283"/>
       <c r="AM24" s="39"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="17"/>
-      <c r="AQ24" s="277"/>
+      <c r="AQ24" s="288"/>
     </row>
     <row r="25" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -23253,19 +23253,19 @@
       </c>
       <c r="E25" s="46">
         <f ca="1">Games!L10</f>
-        <v>115</v>
-      </c>
-      <c r="F25" s="251" t="str">
+        <v>94</v>
+      </c>
+      <c r="F25" s="262" t="str">
         <f ca="1">Games!O10</f>
-        <v>Arizona</v>
-      </c>
-      <c r="G25" s="236" t="e" vm="75">
+        <v>Arizona State</v>
+      </c>
+      <c r="G25" s="247" t="e" vm="76">
         <f ca="1">_xlfn.XLOOKUP(F25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="266">
+      <c r="H25" s="277">
         <f ca="1">Games!N40</f>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -23289,21 +23289,21 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="55"/>
       <c r="AG25" s="24"/>
-      <c r="AH25" s="258">
+      <c r="AH25" s="269">
         <f ca="1">Games!N48</f>
-        <v>117</v>
-      </c>
-      <c r="AI25" s="238" t="e" vm="107">
+        <v>91</v>
+      </c>
+      <c r="AI25" s="249" t="e" vm="108">
         <f ca="1">_xlfn.XLOOKUP(AJ25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ25" s="251" t="str">
+      <c r="AJ25" s="262" t="str">
         <f ca="1">Games!O26</f>
-        <v>Canisius</v>
+        <v>Central Arkansas</v>
       </c>
       <c r="AK25" s="58">
         <f ca="1">Games!L26</f>
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AL25" s="46" t="e" vm="107">
         <f>_xlfn.XLOOKUP(AM25,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23317,10 +23317,10 @@
         <v>3</v>
       </c>
       <c r="AO25" s="17"/>
-      <c r="AQ25" s="277"/>
+      <c r="AQ25" s="288"/>
     </row>
     <row r="26" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="272">
+      <c r="A26" s="283">
         <f>IF($AU$5=TRUE,A21+1,"")</f>
         <v>6</v>
       </c>
@@ -23328,9 +23328,9 @@
       <c r="C26" s="38"/>
       <c r="D26" s="71"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="237"/>
-      <c r="H26" s="267"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="248"/>
+      <c r="H26" s="278"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="50"/>
@@ -23353,20 +23353,20 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="56"/>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="259"/>
-      <c r="AI26" s="239"/>
-      <c r="AJ26" s="252"/>
+      <c r="AH26" s="270"/>
+      <c r="AI26" s="250"/>
+      <c r="AJ26" s="263"/>
       <c r="AK26" s="55"/>
       <c r="AM26" s="39"/>
       <c r="AN26" s="28"/>
-      <c r="AO26" s="276">
+      <c r="AO26" s="287">
         <f>IF($AU$5=TRUE,AO22+1,"")</f>
         <v>22</v>
       </c>
-      <c r="AQ26" s="277"/>
+      <c r="AQ26" s="288"/>
     </row>
     <row r="27" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="272"/>
+      <c r="A27" s="283"/>
       <c r="B27" s="27">
         <v>14</v>
       </c>
@@ -23380,70 +23380,70 @@
       </c>
       <c r="E27" s="48">
         <f ca="1">Games!N10</f>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="I27" s="272">
+      <c r="I27" s="283">
         <f>IF($AU$5=TRUE,I11+1,"")</f>
         <v>50</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="268" t="str">
+      <c r="L27" s="279" t="str">
         <f ca="1">Games!O56</f>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="M27" s="236" t="e" vm="79">
+        <v>American</v>
+      </c>
+      <c r="M27" s="247" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(L27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N27" s="266">
+      <c r="N27" s="277">
         <f ca="1">Games!N64</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="268" t="str">
+      <c r="R27" s="279" t="str">
         <f ca="1">Games!O69</f>
-        <v>Auburn</v>
-      </c>
-      <c r="S27" s="251"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="278" t="e" vm="81">
+        <v>American</v>
+      </c>
+      <c r="S27" s="262"/>
+      <c r="T27" s="262"/>
+      <c r="U27" s="289" t="e" vm="73">
         <f ca="1">_xlfn.XLOOKUP(R27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V27" s="256">
+      <c r="V27" s="267">
         <f ca="1">Games!L72</f>
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="56"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="258">
+      <c r="AB27" s="269">
         <f ca="1">Games!N66</f>
-        <v>105</v>
-      </c>
-      <c r="AC27" s="238" t="e" vm="112">
+        <v>91</v>
+      </c>
+      <c r="AC27" s="249" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AD27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" s="251" t="str">
+      <c r="AD27" s="262" t="str">
         <f ca="1">Games!O60</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="AE27" s="56"/>
-      <c r="AG27" s="272">
+      <c r="AG27" s="283">
         <f>IF($AU$5=TRUE,AG11+1,"")</f>
         <v>54</v>
       </c>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="59">
         <f ca="1">Games!N26</f>
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AL27" s="46" t="e" vm="108">
         <f>_xlfn.XLOOKUP(AM27,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23456,8 +23456,8 @@
       <c r="AN27" s="27">
         <v>14</v>
       </c>
-      <c r="AO27" s="276"/>
-      <c r="AQ27" s="277"/>
+      <c r="AO27" s="287"/>
+      <c r="AQ27" s="288"/>
     </row>
     <row r="28" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
@@ -23466,29 +23466,29 @@
       <c r="D28" s="71"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="I28" s="272"/>
+      <c r="I28" s="283"/>
       <c r="J28" s="15"/>
       <c r="K28" s="50"/>
-      <c r="L28" s="269"/>
-      <c r="M28" s="237"/>
-      <c r="N28" s="267"/>
+      <c r="L28" s="280"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="278"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="252"/>
-      <c r="T28" s="252"/>
-      <c r="U28" s="279"/>
-      <c r="V28" s="257"/>
+      <c r="R28" s="280"/>
+      <c r="S28" s="263"/>
+      <c r="T28" s="263"/>
+      <c r="U28" s="290"/>
+      <c r="V28" s="268"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="56"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="259"/>
-      <c r="AC28" s="239"/>
-      <c r="AD28" s="252"/>
+      <c r="AB28" s="270"/>
+      <c r="AC28" s="250"/>
+      <c r="AD28" s="263"/>
       <c r="AE28" s="56"/>
-      <c r="AG28" s="272"/>
+      <c r="AG28" s="283"/>
       <c r="AJ28" s="24"/>
       <c r="AM28" s="39"/>
       <c r="AN28" s="28"/>
@@ -23509,19 +23509,19 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">Games!L11</f>
-        <v>102</v>
-      </c>
-      <c r="F29" s="251" t="str">
+        <v>101</v>
+      </c>
+      <c r="F29" s="262" t="str">
         <f ca="1">Games!O11</f>
-        <v>Arkansas</v>
-      </c>
-      <c r="G29" s="236" t="e" vm="77">
+        <v>Arkansas State</v>
+      </c>
+      <c r="G29" s="247" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(F29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="253">
+      <c r="H29" s="264">
         <f ca="1">Games!L41</f>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -23543,21 +23543,21 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="56"/>
       <c r="AG29" s="24"/>
-      <c r="AH29" s="253">
+      <c r="AH29" s="264">
         <f ca="1">Games!L49</f>
-        <v>90</v>
-      </c>
-      <c r="AI29" s="238" t="e" vm="110">
+        <v>109</v>
+      </c>
+      <c r="AI29" s="249" t="e" vm="110">
         <f ca="1">_xlfn.XLOOKUP(AJ29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ29" s="251" t="str">
+      <c r="AJ29" s="262" t="str">
         <f ca="1">Games!O27</f>
         <v>Central Michigan</v>
       </c>
       <c r="AK29" s="58">
         <f ca="1">Games!L27</f>
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AL29" s="46" t="e" vm="109">
         <f>_xlfn.XLOOKUP(AM29,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23579,7 +23579,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="272">
+      <c r="A30" s="283">
         <f>IF($AU$5=TRUE,A26+1,"")</f>
         <v>7</v>
       </c>
@@ -23587,9 +23587,9 @@
       <c r="C30" s="38"/>
       <c r="D30" s="71"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="254"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="248"/>
+      <c r="H30" s="265"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="50"/>
@@ -23610,19 +23610,19 @@
       <c r="AD30" s="25"/>
       <c r="AE30" s="56"/>
       <c r="AG30" s="24"/>
-      <c r="AH30" s="254"/>
-      <c r="AI30" s="239"/>
-      <c r="AJ30" s="252"/>
+      <c r="AH30" s="265"/>
+      <c r="AI30" s="250"/>
+      <c r="AJ30" s="263"/>
       <c r="AK30" s="55"/>
       <c r="AM30" s="39"/>
       <c r="AN30" s="28"/>
-      <c r="AO30" s="276">
+      <c r="AO30" s="287">
         <f>IF($AU$5=TRUE,AO26+1,"")</f>
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="272"/>
+      <c r="A31" s="283"/>
       <c r="B31" s="27">
         <v>10</v>
       </c>
@@ -23636,25 +23636,25 @@
       </c>
       <c r="E31" s="48">
         <f ca="1">Games!N11</f>
-        <v>97</v>
-      </c>
-      <c r="F31" s="271">
+        <v>113</v>
+      </c>
+      <c r="F31" s="282">
         <f>IF($AU$5=TRUE,F23+1,"")</f>
         <v>36</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="268" t="str">
+      <c r="I31" s="279" t="str">
         <f ca="1">Games!O41</f>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="J31" s="236" t="e" vm="79">
+        <v>Arkansas State</v>
+      </c>
+      <c r="J31" s="247" t="e" vm="78">
         <f ca="1">_xlfn.XLOOKUP(I31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="266">
+      <c r="K31" s="277">
         <f ca="1">Games!N56</f>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -23662,38 +23662,38 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="244" t="s">
+      <c r="S31" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="244"/>
-      <c r="U31" s="244"/>
-      <c r="V31" s="244"/>
-      <c r="W31" s="244"/>
+      <c r="T31" s="255"/>
+      <c r="U31" s="255"/>
+      <c r="V31" s="255"/>
+      <c r="W31" s="255"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="56"/>
       <c r="AA31" s="25"/>
       <c r="AD31" s="25"/>
-      <c r="AE31" s="258">
+      <c r="AE31" s="269">
         <f ca="1">Games!N60</f>
         <v>117</v>
       </c>
-      <c r="AF31" s="238" t="e" vm="112">
+      <c r="AF31" s="249" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AG31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG31" s="251" t="str">
+      <c r="AG31" s="262" t="str">
         <f ca="1">Games!O49</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="51"/>
-      <c r="AJ31" s="271">
+      <c r="AJ31" s="282">
         <f>IF($AU$5=TRUE,AJ23+1,"")</f>
         <v>44</v>
       </c>
       <c r="AK31" s="59">
         <f ca="1">Games!N27</f>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AL31" s="46" t="e" vm="110">
         <f>_xlfn.XLOOKUP(AM31,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23706,42 +23706,42 @@
       <c r="AN31" s="27">
         <v>10</v>
       </c>
-      <c r="AO31" s="276"/>
+      <c r="AO31" s="287"/>
     </row>
     <row r="32" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="28"/>
       <c r="C32" s="38"/>
       <c r="D32" s="71"/>
-      <c r="F32" s="272"/>
+      <c r="F32" s="283"/>
       <c r="G32" s="15"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="269"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="267"/>
+      <c r="I32" s="280"/>
+      <c r="J32" s="248"/>
+      <c r="K32" s="278"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="30"/>
-      <c r="S32" s="260" t="str">
+      <c r="S32" s="271" t="str">
         <f ca="1">Games!O72</f>
-        <v>Auburn</v>
-      </c>
-      <c r="T32" s="261"/>
-      <c r="U32" s="261"/>
-      <c r="V32" s="261"/>
-      <c r="W32" s="262"/>
+        <v>American</v>
+      </c>
+      <c r="T32" s="272"/>
+      <c r="U32" s="272"/>
+      <c r="V32" s="272"/>
+      <c r="W32" s="273"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="56"/>
       <c r="AA32" s="25"/>
       <c r="AD32" s="25"/>
-      <c r="AE32" s="259"/>
-      <c r="AF32" s="239"/>
-      <c r="AG32" s="252"/>
+      <c r="AE32" s="270"/>
+      <c r="AF32" s="250"/>
+      <c r="AG32" s="263"/>
       <c r="AH32" s="56"/>
-      <c r="AJ32" s="272"/>
+      <c r="AJ32" s="283"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="17"/>
@@ -23761,19 +23761,19 @@
       </c>
       <c r="E33" s="46">
         <f ca="1">Games!L12</f>
-        <v>116</v>
-      </c>
-      <c r="F33" s="251" t="str">
+        <v>93</v>
+      </c>
+      <c r="F33" s="262" t="str">
         <f ca="1">Games!O12</f>
-        <v>Arkansas-Pine Bluff</v>
-      </c>
-      <c r="G33" s="236" t="e" vm="79">
+        <v>Army</v>
+      </c>
+      <c r="G33" s="247" t="e" vm="80">
         <f ca="1">_xlfn.XLOOKUP(F33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="266">
+      <c r="H33" s="277">
         <f ca="1">Games!N41</f>
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -23783,31 +23783,31 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="30"/>
-      <c r="S33" s="263"/>
-      <c r="T33" s="264"/>
-      <c r="U33" s="264"/>
-      <c r="V33" s="264"/>
-      <c r="W33" s="265"/>
+      <c r="S33" s="274"/>
+      <c r="T33" s="275"/>
+      <c r="U33" s="275"/>
+      <c r="V33" s="275"/>
+      <c r="W33" s="276"/>
       <c r="X33" s="31"/>
       <c r="Y33" s="56"/>
       <c r="AA33" s="25"/>
       <c r="AD33" s="25"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="258">
+      <c r="AH33" s="269">
         <f ca="1">Games!N49</f>
-        <v>106</v>
-      </c>
-      <c r="AI33" s="238" t="e" vm="112">
+        <v>119</v>
+      </c>
+      <c r="AI33" s="249" t="e" vm="111">
         <f ca="1">_xlfn.XLOOKUP(AJ33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ33" s="251" t="str">
+      <c r="AJ33" s="262" t="str">
         <f ca="1">Games!O28</f>
-        <v>Charlotte</v>
+        <v>Charleston Southern</v>
       </c>
       <c r="AK33" s="58">
         <f ca="1">Games!L28</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL33" s="46" t="e" vm="111">
         <f>_xlfn.XLOOKUP(AM33,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23824,7 +23824,7 @@
       <c r="AQ33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="272">
+      <c r="A34" s="283">
         <f>IF($AU$5=TRUE,A30+1,"")</f>
         <v>8</v>
       </c>
@@ -23832,9 +23832,9 @@
       <c r="C34" s="38"/>
       <c r="D34" s="71"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="252"/>
-      <c r="G34" s="237"/>
-      <c r="H34" s="267"/>
+      <c r="F34" s="263"/>
+      <c r="G34" s="248"/>
+      <c r="H34" s="278"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="L34" s="25"/>
@@ -23853,20 +23853,20 @@
       <c r="AA34" s="25"/>
       <c r="AD34" s="25"/>
       <c r="AG34" s="24"/>
-      <c r="AH34" s="259"/>
-      <c r="AI34" s="239"/>
-      <c r="AJ34" s="252"/>
+      <c r="AH34" s="270"/>
+      <c r="AI34" s="250"/>
+      <c r="AJ34" s="263"/>
       <c r="AK34" s="55"/>
       <c r="AM34" s="39"/>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="276">
+      <c r="AO34" s="287">
         <f>IF($AU$5=TRUE,AO30+1,"")</f>
         <v>24</v>
       </c>
-      <c r="AQ34" s="277"/>
+      <c r="AQ34" s="288"/>
     </row>
     <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="272"/>
+      <c r="A35" s="283"/>
       <c r="B35" s="27">
         <v>15</v>
       </c>
@@ -23880,7 +23880,7 @@
       </c>
       <c r="E35" s="48">
         <f ca="1">Games!N12</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -23896,12 +23896,12 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="272">
+      <c r="T35" s="283">
         <f>IF($AU$5=TRUE,AA35+1,"")</f>
         <v>63</v>
       </c>
-      <c r="U35" s="272"/>
-      <c r="V35" s="272"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="56"/>
@@ -23914,7 +23914,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="59">
         <f ca="1">Games!N28</f>
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="AL35" s="46" t="e" vm="112">
         <f>_xlfn.XLOOKUP(AM35,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -23927,8 +23927,8 @@
       <c r="AN35" s="27">
         <v>15</v>
       </c>
-      <c r="AO35" s="276"/>
-      <c r="AQ35" s="277"/>
+      <c r="AO35" s="287"/>
+      <c r="AQ35" s="288"/>
     </row>
     <row r="36" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
@@ -23959,7 +23959,7 @@
       <c r="AM36" s="39"/>
       <c r="AN36" s="28"/>
       <c r="AO36" s="17"/>
-      <c r="AQ36" s="277"/>
+      <c r="AQ36" s="288"/>
     </row>
     <row r="37" spans="1:43" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
@@ -23976,19 +23976,19 @@
       </c>
       <c r="E37" s="46">
         <f ca="1">Games!L13</f>
-        <v>117</v>
-      </c>
-      <c r="F37" s="251" t="str">
+        <v>113</v>
+      </c>
+      <c r="F37" s="262" t="str">
         <f ca="1">Games!O13</f>
         <v>Auburn</v>
       </c>
-      <c r="G37" s="236" t="e" vm="81">
+      <c r="G37" s="247" t="e" vm="81">
         <f ca="1">_xlfn.XLOOKUP(F37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="253">
+      <c r="H37" s="264">
         <f ca="1">Games!L42</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -24008,21 +24008,21 @@
       <c r="AA37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AG37" s="24"/>
-      <c r="AH37" s="253">
+      <c r="AH37" s="264">
         <f ca="1">Games!L50</f>
-        <v>105</v>
-      </c>
-      <c r="AI37" s="238" t="e" vm="113">
+        <v>114</v>
+      </c>
+      <c r="AI37" s="249" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(AJ37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ37" s="251" t="str">
+      <c r="AJ37" s="262" t="str">
         <f ca="1">Games!O29</f>
-        <v>Chattanooga</v>
+        <v>Chicago State</v>
       </c>
       <c r="AK37" s="58">
         <f ca="1">Games!L29</f>
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AL37" s="46" t="e" vm="113">
         <f>_xlfn.XLOOKUP(AM37,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24036,10 +24036,10 @@
         <v>1</v>
       </c>
       <c r="AO37" s="17"/>
-      <c r="AQ37" s="277"/>
+      <c r="AQ37" s="288"/>
     </row>
     <row r="38" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="272">
+      <c r="A38" s="283">
         <f>IF($AU$5=TRUE,A34+1,"")</f>
         <v>9</v>
       </c>
@@ -24047,9 +24047,9 @@
       <c r="C38" s="38"/>
       <c r="D38" s="71"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="252"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="254"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="248"/>
+      <c r="H38" s="265"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="L38" s="25"/>
@@ -24068,19 +24068,19 @@
       <c r="AA38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AG38" s="24"/>
-      <c r="AH38" s="254"/>
-      <c r="AI38" s="239"/>
-      <c r="AJ38" s="252"/>
+      <c r="AH38" s="265"/>
+      <c r="AI38" s="250"/>
+      <c r="AJ38" s="263"/>
       <c r="AK38" s="55"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="276">
+      <c r="AO38" s="287">
         <f>IF($AU$5=TRUE,AO34+1,"")</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="272"/>
+      <c r="A39" s="283"/>
       <c r="B39" s="27">
         <v>16</v>
       </c>
@@ -24094,25 +24094,25 @@
       </c>
       <c r="E39" s="48">
         <f ca="1">Games!N13</f>
-        <v>104</v>
-      </c>
-      <c r="F39" s="271">
+        <v>97</v>
+      </c>
+      <c r="F39" s="282">
         <f>IF($AU$5=TRUE,F31+1,"")</f>
         <v>37</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="268" t="str">
+      <c r="I39" s="279" t="str">
         <f ca="1">Games!O42</f>
-        <v>Auburn</v>
-      </c>
-      <c r="J39" s="236" t="e" vm="81">
+        <v>Ball State</v>
+      </c>
+      <c r="J39" s="247" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(I39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="253">
+      <c r="K39" s="264">
         <f ca="1">Games!L57</f>
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -24121,44 +24121,44 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="256">
+      <c r="T39" s="267">
         <f ca="1">Games!N72</f>
-        <v>100</v>
-      </c>
-      <c r="U39" s="282" t="e" vm="121">
+        <v>91</v>
+      </c>
+      <c r="U39" s="293" t="e" vm="97">
         <f ca="1">_xlfn.XLOOKUP(V39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="251" t="str">
+      <c r="V39" s="262" t="str">
         <f ca="1">Games!O70</f>
-        <v>Colorado</v>
-      </c>
-      <c r="W39" s="251"/>
-      <c r="X39" s="284"/>
+        <v>Bucknell</v>
+      </c>
+      <c r="W39" s="262"/>
+      <c r="X39" s="295"/>
       <c r="Y39" s="56"/>
       <c r="AA39" s="25"/>
       <c r="AD39" s="25"/>
-      <c r="AE39" s="258">
+      <c r="AE39" s="269">
         <f ca="1">Games!L61</f>
-        <v>115</v>
-      </c>
-      <c r="AF39" s="238" t="e" vm="115">
+        <v>102</v>
+      </c>
+      <c r="AF39" s="249" t="e" vm="114">
         <f ca="1">_xlfn.XLOOKUP(AG39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG39" s="251" t="str">
+      <c r="AG39" s="262" t="str">
         <f ca="1">Games!O50</f>
-        <v>Cincinnati</v>
+        <v>Chicago State</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="51"/>
-      <c r="AJ39" s="271">
+      <c r="AJ39" s="282">
         <f>IF($AU$5=TRUE,AJ31+1,"")</f>
         <v>45</v>
       </c>
       <c r="AK39" s="59">
         <f ca="1">Games!N29</f>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL39" s="46" t="e" vm="114">
         <f>_xlfn.XLOOKUP(AM39,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24171,19 +24171,19 @@
       <c r="AN39" s="27">
         <v>16</v>
       </c>
-      <c r="AO39" s="276"/>
+      <c r="AO39" s="287"/>
     </row>
     <row r="40" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="71"/>
-      <c r="F40" s="272"/>
+      <c r="F40" s="283"/>
       <c r="G40" s="15"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="237"/>
-      <c r="K40" s="254"/>
+      <c r="I40" s="280"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="265"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="O40" s="25"/>
@@ -24191,19 +24191,19 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="257"/>
-      <c r="U40" s="283"/>
-      <c r="V40" s="252"/>
-      <c r="W40" s="252"/>
-      <c r="X40" s="285"/>
+      <c r="T40" s="268"/>
+      <c r="U40" s="294"/>
+      <c r="V40" s="263"/>
+      <c r="W40" s="263"/>
+      <c r="X40" s="296"/>
       <c r="Y40" s="56"/>
       <c r="AA40" s="25"/>
       <c r="AD40" s="25"/>
-      <c r="AE40" s="259"/>
-      <c r="AF40" s="239"/>
-      <c r="AG40" s="252"/>
+      <c r="AE40" s="270"/>
+      <c r="AF40" s="250"/>
+      <c r="AG40" s="263"/>
       <c r="AH40" s="56"/>
-      <c r="AJ40" s="272"/>
+      <c r="AJ40" s="283"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="28"/>
       <c r="AO40" s="17"/>
@@ -24223,19 +24223,19 @@
       </c>
       <c r="E41" s="46">
         <f ca="1">Games!L14</f>
-        <v>103</v>
-      </c>
-      <c r="F41" s="251" t="str">
+        <v>111</v>
+      </c>
+      <c r="F41" s="262" t="str">
         <f ca="1">Games!O14</f>
         <v>Ball State</v>
       </c>
-      <c r="G41" s="236" t="e" vm="83">
+      <c r="G41" s="247" t="e" vm="83">
         <f ca="1">_xlfn.XLOOKUP(F41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="266">
+      <c r="H41" s="277">
         <f ca="1">Games!N42</f>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -24257,21 +24257,21 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="55"/>
       <c r="AG41" s="24"/>
-      <c r="AH41" s="258">
+      <c r="AH41" s="269">
         <f ca="1">Games!N50</f>
-        <v>111</v>
-      </c>
-      <c r="AI41" s="238" t="e" vm="115">
+        <v>90</v>
+      </c>
+      <c r="AI41" s="249" t="e" vm="116">
         <f ca="1">_xlfn.XLOOKUP(AJ41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ41" s="251" t="str">
+      <c r="AJ41" s="262" t="str">
         <f ca="1">Games!O30</f>
-        <v>Cincinnati</v>
+        <v>Clemson</v>
       </c>
       <c r="AK41" s="58">
         <f ca="1">Games!L30</f>
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="AL41" s="46" t="e" vm="115">
         <f>_xlfn.XLOOKUP(AM41,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24287,7 +24287,7 @@
       <c r="AO41" s="17"/>
     </row>
     <row r="42" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="272">
+      <c r="A42" s="283">
         <f>IF($AU$5=TRUE,A38+1,"")</f>
         <v>10</v>
       </c>
@@ -24295,9 +24295,9 @@
       <c r="C42" s="38"/>
       <c r="D42" s="71"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="252"/>
-      <c r="G42" s="237"/>
-      <c r="H42" s="267"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="248"/>
+      <c r="H42" s="278"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="50"/>
@@ -24318,19 +24318,19 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="56"/>
       <c r="AG42" s="24"/>
-      <c r="AH42" s="259"/>
-      <c r="AI42" s="239"/>
-      <c r="AJ42" s="252"/>
+      <c r="AH42" s="270"/>
+      <c r="AI42" s="250"/>
+      <c r="AJ42" s="263"/>
       <c r="AK42" s="55"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="28"/>
-      <c r="AO42" s="276">
+      <c r="AO42" s="287">
         <f>IF($AU$5=TRUE,AO38+1,"")</f>
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="272"/>
+      <c r="A43" s="283"/>
       <c r="B43" s="27">
         <v>9</v>
       </c>
@@ -24344,27 +24344,27 @@
       </c>
       <c r="E43" s="48">
         <f ca="1">Games!N14</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="I43" s="272">
+      <c r="I43" s="283">
         <f>IF($AU$5=TRUE,I27+1,"")</f>
         <v>51</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="268" t="str">
+      <c r="L43" s="279" t="str">
         <f ca="1">Games!O57</f>
-        <v>Auburn</v>
-      </c>
-      <c r="M43" s="236" t="e" vm="81">
+        <v>Belmont</v>
+      </c>
+      <c r="M43" s="247" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(L43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N43" s="253">
+      <c r="N43" s="264">
         <f ca="1">Games!L65</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -24378,27 +24378,27 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="56"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="253">
+      <c r="AB43" s="264">
         <f ca="1">Games!L67</f>
-        <v>92</v>
-      </c>
-      <c r="AC43" s="238" t="e" vm="115">
+        <v>99</v>
+      </c>
+      <c r="AC43" s="249" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(AD43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD43" s="280" t="str">
+      <c r="AD43" s="291" t="str">
         <f ca="1">Games!O61</f>
-        <v>Cincinnati</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="AE43" s="56"/>
-      <c r="AG43" s="272">
+      <c r="AG43" s="283">
         <f>IF($AU$5=TRUE,AG27+1,"")</f>
         <v>55</v>
       </c>
       <c r="AJ43" s="24"/>
       <c r="AK43" s="59">
         <f ca="1">Games!N30</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL43" s="46" t="e" vm="116">
         <f>_xlfn.XLOOKUP(AM43,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24411,7 +24411,7 @@
       <c r="AN43" s="27">
         <v>9</v>
       </c>
-      <c r="AO43" s="276"/>
+      <c r="AO43" s="287"/>
     </row>
     <row r="44" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
@@ -24420,12 +24420,12 @@
       <c r="D44" s="71"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="I44" s="272"/>
+      <c r="I44" s="283"/>
       <c r="J44" s="15"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="237"/>
-      <c r="N44" s="254"/>
+      <c r="L44" s="280"/>
+      <c r="M44" s="248"/>
+      <c r="N44" s="265"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="50"/>
@@ -24438,11 +24438,11 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="56"/>
       <c r="AA44" s="25"/>
-      <c r="AB44" s="254"/>
-      <c r="AC44" s="239"/>
-      <c r="AD44" s="281"/>
+      <c r="AB44" s="265"/>
+      <c r="AC44" s="250"/>
+      <c r="AD44" s="292"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="272"/>
+      <c r="AG44" s="283"/>
       <c r="AJ44" s="24"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="28"/>
@@ -24463,19 +24463,19 @@
       </c>
       <c r="E45" s="46">
         <f ca="1">Games!L15</f>
-        <v>97</v>
-      </c>
-      <c r="F45" s="251" t="str">
+        <v>91</v>
+      </c>
+      <c r="F45" s="262" t="str">
         <f ca="1">Games!O15</f>
         <v>Belmont</v>
       </c>
-      <c r="G45" s="236" t="e" vm="86">
+      <c r="G45" s="247" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(F45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="253">
+      <c r="H45" s="264">
         <f ca="1">Games!L43</f>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -24499,21 +24499,21 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="56"/>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="253">
+      <c r="AH45" s="264">
         <f ca="1">Games!L51</f>
-        <v>110</v>
-      </c>
-      <c r="AI45" s="238" t="e" vm="117">
+        <v>109</v>
+      </c>
+      <c r="AI45" s="249" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(AJ45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ45" s="251" t="str">
+      <c r="AJ45" s="262" t="str">
         <f ca="1">Games!O31</f>
-        <v>Cleveland State</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="AK45" s="58">
         <f ca="1">Games!L31</f>
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="AL45" s="46" t="e" vm="117">
         <f>_xlfn.XLOOKUP(AM45,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24529,7 +24529,7 @@
       <c r="AO45" s="17"/>
     </row>
     <row r="46" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="272">
+      <c r="A46" s="283">
         <f>IF($AU$5=TRUE,A42+1,"")</f>
         <v>11</v>
       </c>
@@ -24537,9 +24537,9 @@
       <c r="C46" s="38"/>
       <c r="D46" s="71"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="252"/>
-      <c r="G46" s="237"/>
-      <c r="H46" s="254"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="248"/>
+      <c r="H46" s="265"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="50"/>
@@ -24562,19 +24562,19 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="24"/>
-      <c r="AH46" s="254"/>
-      <c r="AI46" s="239"/>
-      <c r="AJ46" s="252"/>
+      <c r="AH46" s="265"/>
+      <c r="AI46" s="250"/>
+      <c r="AJ46" s="263"/>
       <c r="AK46" s="55"/>
       <c r="AM46" s="39"/>
       <c r="AN46" s="28"/>
-      <c r="AO46" s="276">
+      <c r="AO46" s="287">
         <f>IF($AU$5=TRUE,AO42+1,"")</f>
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="272"/>
+      <c r="A47" s="283"/>
       <c r="B47" s="27">
         <v>12</v>
       </c>
@@ -24588,25 +24588,25 @@
       </c>
       <c r="E47" s="48">
         <f ca="1">Games!N15</f>
-        <v>109</v>
-      </c>
-      <c r="F47" s="271">
+        <v>105</v>
+      </c>
+      <c r="F47" s="282">
         <f>IF($AU$5=TRUE,F39+1,"")</f>
         <v>38</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="268" t="str">
+      <c r="I47" s="279" t="str">
         <f ca="1">Games!O43</f>
-        <v>Binghamton</v>
-      </c>
-      <c r="J47" s="236" t="e" vm="88">
+        <v>Belmont</v>
+      </c>
+      <c r="J47" s="247" t="e" vm="86">
         <f ca="1">_xlfn.XLOOKUP(I47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="266">
+      <c r="K47" s="277">
         <f ca="1">Games!N57</f>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -24625,27 +24625,27 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="56"/>
       <c r="AD47" s="25"/>
-      <c r="AE47" s="258">
+      <c r="AE47" s="269">
         <f ca="1">Games!N61</f>
-        <v>96</v>
-      </c>
-      <c r="AF47" s="238" t="e" vm="119">
+        <v>120</v>
+      </c>
+      <c r="AF47" s="249" t="e" vm="118">
         <f ca="1">_xlfn.XLOOKUP(AG47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG47" s="251" t="str">
+      <c r="AG47" s="262" t="str">
         <f ca="1">Games!O51</f>
-        <v>Colgate</v>
+        <v>Coastal Carolina</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="51"/>
-      <c r="AJ47" s="271">
+      <c r="AJ47" s="282">
         <f>IF($AU$5=TRUE,AJ39+1,"")</f>
         <v>46</v>
       </c>
       <c r="AK47" s="59">
         <f ca="1">Games!N31</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL47" s="46" t="e" vm="118">
         <f>_xlfn.XLOOKUP(AM47,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24658,19 +24658,19 @@
       <c r="AN47" s="27">
         <v>12</v>
       </c>
-      <c r="AO47" s="276"/>
+      <c r="AO47" s="287"/>
     </row>
     <row r="48" spans="1:43" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="28"/>
       <c r="C48" s="38"/>
       <c r="D48" s="71"/>
-      <c r="F48" s="272"/>
+      <c r="F48" s="283"/>
       <c r="G48" s="15"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="269"/>
-      <c r="J48" s="237"/>
-      <c r="K48" s="267"/>
+      <c r="I48" s="280"/>
+      <c r="J48" s="248"/>
+      <c r="K48" s="278"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="50"/>
@@ -24688,11 +24688,11 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="56"/>
       <c r="AD48" s="25"/>
-      <c r="AE48" s="259"/>
-      <c r="AF48" s="239"/>
-      <c r="AG48" s="252"/>
+      <c r="AE48" s="270"/>
+      <c r="AF48" s="250"/>
+      <c r="AG48" s="263"/>
       <c r="AH48" s="56"/>
-      <c r="AJ48" s="272"/>
+      <c r="AJ48" s="283"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="17"/>
@@ -24712,19 +24712,19 @@
       </c>
       <c r="E49" s="46">
         <f ca="1">Games!L16</f>
-        <v>113</v>
-      </c>
-      <c r="F49" s="251" t="str">
+        <v>112</v>
+      </c>
+      <c r="F49" s="262" t="str">
         <f ca="1">Games!O16</f>
         <v>Binghamton</v>
       </c>
-      <c r="G49" s="236" t="e" vm="88">
+      <c r="G49" s="247" t="e" vm="88">
         <f ca="1">_xlfn.XLOOKUP(F49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="266">
+      <c r="H49" s="277">
         <f ca="1">Games!N43</f>
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -24746,21 +24746,21 @@
       <c r="AB49" s="56"/>
       <c r="AD49" s="25"/>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="258">
+      <c r="AH49" s="269">
         <f ca="1">Games!N51</f>
-        <v>110</v>
-      </c>
-      <c r="AI49" s="238" t="e" vm="119">
+        <v>108</v>
+      </c>
+      <c r="AI49" s="249" t="e" vm="119">
         <f ca="1">_xlfn.XLOOKUP(AJ49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ49" s="251" t="str">
+      <c r="AJ49" s="262" t="str">
         <f ca="1">Games!O32</f>
         <v>Colgate</v>
       </c>
       <c r="AK49" s="58">
         <f ca="1">Games!L32</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL49" s="46" t="e" vm="119">
         <f>_xlfn.XLOOKUP(AM49,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24776,7 +24776,7 @@
       <c r="AO49" s="17"/>
     </row>
     <row r="50" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="272">
+      <c r="A50" s="283">
         <f>IF($AU$5=TRUE,A46+1,"")</f>
         <v>12</v>
       </c>
@@ -24784,9 +24784,9 @@
       <c r="C50" s="38"/>
       <c r="D50" s="71"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="252"/>
-      <c r="G50" s="237"/>
-      <c r="H50" s="267"/>
+      <c r="F50" s="263"/>
+      <c r="G50" s="248"/>
+      <c r="H50" s="278"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="L50" s="25"/>
@@ -24807,19 +24807,19 @@
       <c r="AB50" s="56"/>
       <c r="AD50" s="25"/>
       <c r="AG50" s="24"/>
-      <c r="AH50" s="259"/>
-      <c r="AI50" s="239"/>
-      <c r="AJ50" s="252"/>
+      <c r="AH50" s="270"/>
+      <c r="AI50" s="250"/>
+      <c r="AJ50" s="263"/>
       <c r="AK50" s="55"/>
       <c r="AM50" s="39"/>
       <c r="AN50" s="28"/>
-      <c r="AO50" s="276">
+      <c r="AO50" s="287">
         <f>IF($AU$5=TRUE,AO46+1,"")</f>
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="272"/>
+      <c r="A51" s="283"/>
       <c r="B51" s="27">
         <v>13</v>
       </c>
@@ -24833,29 +24833,29 @@
       </c>
       <c r="E51" s="48">
         <f ca="1">Games!N16</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="255" t="s">
+      <c r="K51" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="255"/>
+      <c r="L51" s="266"/>
       <c r="M51" s="20"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="268" t="str">
+      <c r="O51" s="279" t="str">
         <f ca="1">Games!O65</f>
-        <v>Auburn</v>
-      </c>
-      <c r="P51" s="236" t="e" vm="81">
+        <v>Bradley</v>
+      </c>
+      <c r="P51" s="247" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(O51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q51" s="266">
+      <c r="Q51" s="277">
         <f ca="1">Games!N69</f>
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
@@ -24864,29 +24864,29 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="258">
+      <c r="Y51" s="269">
         <f ca="1">Games!N70</f>
-        <v>108</v>
-      </c>
-      <c r="Z51" s="238" t="e" vm="121">
+        <v>104</v>
+      </c>
+      <c r="Z51" s="249" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AA51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA51" s="251" t="str">
+      <c r="AA51" s="262" t="str">
         <f ca="1">Games!O67</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="AB51" s="56"/>
-      <c r="AD51" s="255" t="s">
+      <c r="AD51" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="AE51" s="255"/>
+      <c r="AE51" s="266"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="24"/>
       <c r="AJ51" s="24"/>
       <c r="AK51" s="59">
         <f ca="1">Games!N32</f>
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AL51" s="46" t="e" vm="120">
         <f>_xlfn.XLOOKUP(AM51,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -24899,7 +24899,7 @@
       <c r="AN51" s="27">
         <v>13</v>
       </c>
-      <c r="AO51" s="276"/>
+      <c r="AO51" s="287"/>
     </row>
     <row r="52" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
@@ -24910,13 +24910,13 @@
       <c r="G52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
-      <c r="K52" s="255"/>
-      <c r="L52" s="255"/>
+      <c r="K52" s="266"/>
+      <c r="L52" s="266"/>
       <c r="M52" s="20"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="269"/>
-      <c r="P52" s="237"/>
-      <c r="Q52" s="267"/>
+      <c r="O52" s="280"/>
+      <c r="P52" s="248"/>
+      <c r="Q52" s="278"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -24924,12 +24924,12 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="259"/>
-      <c r="Z52" s="239"/>
-      <c r="AA52" s="252"/>
+      <c r="Y52" s="270"/>
+      <c r="Z52" s="250"/>
+      <c r="AA52" s="263"/>
       <c r="AB52" s="56"/>
-      <c r="AD52" s="255"/>
-      <c r="AE52" s="255"/>
+      <c r="AD52" s="266"/>
+      <c r="AE52" s="266"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="24"/>
       <c r="AJ52" s="24"/>
@@ -24952,19 +24952,19 @@
       </c>
       <c r="E53" s="46">
         <f ca="1">Games!L17</f>
-        <v>100</v>
-      </c>
-      <c r="F53" s="251" t="str">
+        <v>103</v>
+      </c>
+      <c r="F53" s="262" t="str">
         <f ca="1">Games!O17</f>
-        <v>Boston College</v>
-      </c>
-      <c r="G53" s="236" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="G53" s="247" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(F53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="253">
+      <c r="H53" s="264">
         <f ca="1">Games!L44</f>
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -24991,21 +24991,21 @@
         <v>60</v>
       </c>
       <c r="AG53" s="24"/>
-      <c r="AH53" s="253">
+      <c r="AH53" s="264">
         <f ca="1">Games!L52</f>
-        <v>107</v>
-      </c>
-      <c r="AI53" s="238" t="e" vm="121">
+        <v>112</v>
+      </c>
+      <c r="AI53" s="249" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AJ53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ53" s="251" t="str">
+      <c r="AJ53" s="262" t="str">
         <f ca="1">Games!O33</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="AK53" s="58">
         <f ca="1">Games!L33</f>
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL53" s="46" t="e" vm="121">
         <f>_xlfn.XLOOKUP(AM53,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25021,7 +25021,7 @@
       <c r="AO53" s="17"/>
     </row>
     <row r="54" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="272">
+      <c r="A54" s="283">
         <f>IF($AU$5=TRUE,A50+1,"")</f>
         <v>13</v>
       </c>
@@ -25029,9 +25029,9 @@
       <c r="C54" s="38"/>
       <c r="D54" s="71"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="252"/>
-      <c r="G54" s="237"/>
-      <c r="H54" s="254"/>
+      <c r="F54" s="263"/>
+      <c r="G54" s="248"/>
+      <c r="H54" s="265"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="L54" s="25"/>
@@ -25050,19 +25050,19 @@
       <c r="AB54" s="56"/>
       <c r="AD54" s="25"/>
       <c r="AG54" s="24"/>
-      <c r="AH54" s="254"/>
-      <c r="AI54" s="239"/>
-      <c r="AJ54" s="252"/>
+      <c r="AH54" s="265"/>
+      <c r="AI54" s="250"/>
+      <c r="AJ54" s="263"/>
       <c r="AK54" s="55"/>
       <c r="AM54" s="39"/>
       <c r="AN54" s="28"/>
-      <c r="AO54" s="276">
+      <c r="AO54" s="287">
         <f>IF($AU$5=TRUE,AO50+1,"")</f>
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="272"/>
+      <c r="A55" s="283"/>
       <c r="B55" s="27">
         <v>11</v>
       </c>
@@ -25076,25 +25076,25 @@
       </c>
       <c r="E55" s="48">
         <f ca="1">Games!N17</f>
-        <v>101</v>
-      </c>
-      <c r="F55" s="271">
+        <v>94</v>
+      </c>
+      <c r="F55" s="282">
         <f>IF($AU$5=TRUE,F47+1,"")</f>
         <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="268" t="str">
+      <c r="I55" s="279" t="str">
         <f ca="1">Games!O44</f>
-        <v>Boston College</v>
-      </c>
-      <c r="J55" s="236" t="e" vm="90">
+        <v>Boise State</v>
+      </c>
+      <c r="J55" s="247" t="e" vm="89">
         <f ca="1">_xlfn.XLOOKUP(I55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="253">
+      <c r="K55" s="264">
         <f ca="1">Games!L58</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -25111,27 +25111,27 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="56"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="253">
+      <c r="AE55" s="264">
         <f ca="1">Games!L62</f>
-        <v>92</v>
-      </c>
-      <c r="AF55" s="238" t="e" vm="121">
+        <v>107</v>
+      </c>
+      <c r="AF55" s="249" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AG55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG55" s="251" t="str">
+      <c r="AG55" s="262" t="str">
         <f ca="1">Games!O52</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="51"/>
-      <c r="AJ55" s="271">
+      <c r="AJ55" s="282">
         <f>IF($AU$5=TRUE,AJ47+1,"")</f>
         <v>47</v>
       </c>
       <c r="AK55" s="59">
         <f ca="1">Games!N33</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AL55" s="46" t="e" vm="122">
         <f>_xlfn.XLOOKUP(AM55,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25144,19 +25144,19 @@
       <c r="AN55" s="32">
         <v>11</v>
       </c>
-      <c r="AO55" s="276"/>
+      <c r="AO55" s="287"/>
     </row>
     <row r="56" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="71"/>
-      <c r="F56" s="272"/>
+      <c r="F56" s="283"/>
       <c r="G56" s="15"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="269"/>
-      <c r="J56" s="237"/>
-      <c r="K56" s="254"/>
+      <c r="I56" s="280"/>
+      <c r="J56" s="248"/>
+      <c r="K56" s="265"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="50"/>
@@ -25172,11 +25172,11 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="56"/>
       <c r="AD56" s="25"/>
-      <c r="AE56" s="254"/>
-      <c r="AF56" s="239"/>
-      <c r="AG56" s="252"/>
+      <c r="AE56" s="265"/>
+      <c r="AF56" s="250"/>
+      <c r="AG56" s="263"/>
       <c r="AH56" s="56"/>
-      <c r="AJ56" s="272"/>
+      <c r="AJ56" s="283"/>
       <c r="AM56" s="39"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="17"/>
@@ -25196,19 +25196,19 @@
       </c>
       <c r="E57" s="46">
         <f ca="1">Games!L18</f>
-        <v>97</v>
-      </c>
-      <c r="F57" s="251" t="str">
+        <v>119</v>
+      </c>
+      <c r="F57" s="262" t="str">
         <f ca="1">Games!O18</f>
-        <v>Florida</v>
-      </c>
-      <c r="G57" s="236" t="e" vm="91">
+        <v>Duke</v>
+      </c>
+      <c r="G57" s="247" t="e" vm="92">
         <f ca="1">_xlfn.XLOOKUP(F57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="266">
+      <c r="H57" s="277">
         <f ca="1">Games!N44</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -25230,21 +25230,21 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="55"/>
       <c r="AG57" s="24"/>
-      <c r="AH57" s="258">
+      <c r="AH57" s="269">
         <f ca="1">Games!N52</f>
         <v>91</v>
       </c>
-      <c r="AI57" s="238" t="e" vm="124">
+      <c r="AI57" s="249" t="e" vm="124">
         <f ca="1">_xlfn.XLOOKUP(AJ57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ57" s="251" t="str">
+      <c r="AJ57" s="262" t="str">
         <f ca="1">Games!O34</f>
         <v>Connecticut</v>
       </c>
       <c r="AK57" s="58">
         <f ca="1">Games!L34</f>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AL57" s="46" t="e" vm="123">
         <f>_xlfn.XLOOKUP(AM57,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25260,7 +25260,7 @@
       <c r="AO57" s="17"/>
     </row>
     <row r="58" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="272">
+      <c r="A58" s="283">
         <f>IF($AU$5=TRUE,A54+1,"")</f>
         <v>14</v>
       </c>
@@ -25268,9 +25268,9 @@
       <c r="C58" s="38"/>
       <c r="D58" s="71"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="252"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="267"/>
+      <c r="F58" s="263"/>
+      <c r="G58" s="248"/>
+      <c r="H58" s="278"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="50"/>
@@ -25291,19 +25291,19 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="56"/>
       <c r="AG58" s="24"/>
-      <c r="AH58" s="259"/>
-      <c r="AI58" s="239"/>
-      <c r="AJ58" s="252"/>
+      <c r="AH58" s="270"/>
+      <c r="AI58" s="250"/>
+      <c r="AJ58" s="263"/>
       <c r="AK58" s="55"/>
       <c r="AM58" s="39"/>
       <c r="AN58" s="28"/>
-      <c r="AO58" s="276">
+      <c r="AO58" s="287">
         <f>IF($AU$5=TRUE,AO54+1,"")</f>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="272"/>
+      <c r="A59" s="283"/>
       <c r="B59" s="27">
         <v>14</v>
       </c>
@@ -25317,27 +25317,27 @@
       </c>
       <c r="E59" s="48">
         <f ca="1">Games!N18</f>
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="I59" s="272">
+      <c r="I59" s="283">
         <f>IF($AU$5=TRUE,I43+1,"")</f>
         <v>52</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="50"/>
-      <c r="L59" s="268" t="str">
+      <c r="L59" s="279" t="str">
         <f ca="1">Games!O58</f>
         <v>Bradley</v>
       </c>
-      <c r="M59" s="236" t="e" vm="93">
+      <c r="M59" s="247" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(L59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N59" s="266">
+      <c r="N59" s="277">
         <f ca="1">Games!N65</f>
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
@@ -25349,27 +25349,27 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="AA59" s="25"/>
-      <c r="AB59" s="258">
+      <c r="AB59" s="269">
         <f ca="1">Games!N67</f>
-        <v>120</v>
-      </c>
-      <c r="AC59" s="238" t="e" vm="121">
+        <v>119</v>
+      </c>
+      <c r="AC59" s="249" t="e" vm="122">
         <f ca="1">_xlfn.XLOOKUP(AD59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD59" s="251" t="str">
+      <c r="AD59" s="262" t="str">
         <f ca="1">Games!O62</f>
-        <v>Colorado</v>
+        <v>Colorado State</v>
       </c>
       <c r="AE59" s="56"/>
-      <c r="AG59" s="272">
+      <c r="AG59" s="283">
         <f>IF($AU$5=TRUE,AG43+1,"")</f>
         <v>56</v>
       </c>
       <c r="AJ59" s="24"/>
       <c r="AK59" s="59">
         <f ca="1">Games!N34</f>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AL59" s="46" t="e" vm="124">
         <f>_xlfn.XLOOKUP(AM59,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25382,7 +25382,7 @@
       <c r="AN59" s="27">
         <v>14</v>
       </c>
-      <c r="AO59" s="276"/>
+      <c r="AO59" s="287"/>
     </row>
     <row r="60" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
@@ -25391,12 +25391,12 @@
       <c r="D60" s="71"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="I60" s="272"/>
+      <c r="I60" s="283"/>
       <c r="J60" s="15"/>
       <c r="K60" s="50"/>
-      <c r="L60" s="269"/>
-      <c r="M60" s="237"/>
-      <c r="N60" s="267"/>
+      <c r="L60" s="280"/>
+      <c r="M60" s="248"/>
+      <c r="N60" s="278"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
@@ -25408,11 +25408,11 @@
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="AA60" s="25"/>
-      <c r="AB60" s="259"/>
-      <c r="AC60" s="239"/>
-      <c r="AD60" s="252"/>
+      <c r="AB60" s="270"/>
+      <c r="AC60" s="250"/>
+      <c r="AD60" s="263"/>
       <c r="AE60" s="56"/>
-      <c r="AG60" s="272"/>
+      <c r="AG60" s="283"/>
       <c r="AJ60" s="24"/>
       <c r="AM60" s="39"/>
       <c r="AN60" s="28"/>
@@ -25433,19 +25433,19 @@
       </c>
       <c r="E61" s="46">
         <f ca="1">Games!L19</f>
-        <v>112</v>
-      </c>
-      <c r="F61" s="251" t="str">
+        <v>114</v>
+      </c>
+      <c r="F61" s="262" t="str">
         <f ca="1">Games!O19</f>
         <v>Bradley</v>
       </c>
-      <c r="G61" s="236" t="e" vm="93">
+      <c r="G61" s="247" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(F61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="253">
+      <c r="H61" s="264">
         <f ca="1">Games!L45</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -25466,21 +25466,21 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="56"/>
       <c r="AG61" s="24"/>
-      <c r="AH61" s="253">
+      <c r="AH61" s="264">
         <f ca="1">Games!L53</f>
-        <v>102</v>
-      </c>
-      <c r="AI61" s="238" t="e" vm="126">
+        <v>110</v>
+      </c>
+      <c r="AI61" s="249" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(AJ61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ61" s="251" t="str">
+      <c r="AJ61" s="262" t="str">
         <f ca="1">Games!O35</f>
         <v>Cornell</v>
       </c>
       <c r="AK61" s="58">
         <f ca="1">Games!L35</f>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AL61" s="46" t="e" vm="125">
         <f>_xlfn.XLOOKUP(AM61,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25496,7 +25496,7 @@
       <c r="AO61" s="17"/>
     </row>
     <row r="62" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="272">
+      <c r="A62" s="283">
         <f>IF($AU$5=TRUE,A58+1,"")</f>
         <v>15</v>
       </c>
@@ -25504,9 +25504,9 @@
       <c r="C62" s="38"/>
       <c r="D62" s="71"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="252"/>
-      <c r="G62" s="237"/>
-      <c r="H62" s="254"/>
+      <c r="F62" s="263"/>
+      <c r="G62" s="248"/>
+      <c r="H62" s="265"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="50"/>
@@ -25526,19 +25526,19 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="56"/>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="254"/>
-      <c r="AI62" s="239"/>
-      <c r="AJ62" s="252"/>
+      <c r="AH62" s="265"/>
+      <c r="AI62" s="250"/>
+      <c r="AJ62" s="263"/>
       <c r="AK62" s="55"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="28"/>
-      <c r="AO62" s="276">
+      <c r="AO62" s="287">
         <f>IF($AU$5=TRUE,AO58+1,"")</f>
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="272"/>
+      <c r="A63" s="283"/>
       <c r="B63" s="27">
         <v>10</v>
       </c>
@@ -25552,23 +25552,23 @@
       </c>
       <c r="E63" s="48">
         <f ca="1">Games!N19</f>
-        <v>94</v>
-      </c>
-      <c r="F63" s="271">
+        <v>113</v>
+      </c>
+      <c r="F63" s="282">
         <f>IF($AU$5=TRUE,F55+1,"")</f>
         <v>40</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="49"/>
-      <c r="I63" s="268" t="str">
+      <c r="I63" s="279" t="str">
         <f ca="1">Games!O45</f>
         <v>Bradley</v>
       </c>
-      <c r="J63" s="236" t="e" vm="93">
+      <c r="J63" s="247" t="e" vm="93">
         <f ca="1">_xlfn.XLOOKUP(I63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="266">
+      <c r="K63" s="277">
         <f ca="1">Games!N58</f>
         <v>109</v>
       </c>
@@ -25588,27 +25588,27 @@
       <c r="Z63" s="57"/>
       <c r="AA63" s="25"/>
       <c r="AD63" s="25"/>
-      <c r="AE63" s="258">
+      <c r="AE63" s="269">
         <f ca="1">Games!N62</f>
-        <v>90</v>
-      </c>
-      <c r="AF63" s="238" t="e" vm="128">
+        <v>103</v>
+      </c>
+      <c r="AF63" s="249" t="e" vm="126">
         <f ca="1">_xlfn.XLOOKUP(AG63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG63" s="251" t="str">
+      <c r="AG63" s="262" t="str">
         <f ca="1">Games!O53</f>
-        <v>Dartmouth</v>
+        <v>Cornell</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="51"/>
-      <c r="AJ63" s="271">
+      <c r="AJ63" s="282">
         <f>IF($AU$5=TRUE,AJ55+1,"")</f>
         <v>48</v>
       </c>
       <c r="AK63" s="59">
         <f ca="1">Games!N35</f>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AL63" s="46" t="e" vm="126">
         <f>_xlfn.XLOOKUP(AM63,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25621,19 +25621,19 @@
       <c r="AN63" s="27">
         <v>10</v>
       </c>
-      <c r="AO63" s="276"/>
+      <c r="AO63" s="287"/>
     </row>
     <row r="64" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="28"/>
       <c r="C64" s="38"/>
       <c r="D64" s="71"/>
-      <c r="F64" s="272"/>
+      <c r="F64" s="283"/>
       <c r="G64" s="15"/>
       <c r="H64" s="50"/>
-      <c r="I64" s="269"/>
-      <c r="J64" s="237"/>
-      <c r="K64" s="267"/>
+      <c r="I64" s="280"/>
+      <c r="J64" s="248"/>
+      <c r="K64" s="278"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="O64" s="25"/>
@@ -25649,11 +25649,11 @@
       <c r="Z64" s="57"/>
       <c r="AA64" s="25"/>
       <c r="AD64" s="25"/>
-      <c r="AE64" s="259"/>
-      <c r="AF64" s="239"/>
-      <c r="AG64" s="252"/>
+      <c r="AE64" s="270"/>
+      <c r="AF64" s="250"/>
+      <c r="AG64" s="263"/>
       <c r="AH64" s="56"/>
-      <c r="AJ64" s="272"/>
+      <c r="AJ64" s="283"/>
       <c r="AM64" s="39"/>
       <c r="AN64" s="28"/>
       <c r="AO64" s="17"/>
@@ -25673,19 +25673,19 @@
       </c>
       <c r="E65" s="46">
         <f ca="1">Games!L20</f>
-        <v>92</v>
-      </c>
-      <c r="F65" s="251" t="str">
+        <v>111</v>
+      </c>
+      <c r="F65" s="262" t="str">
         <f ca="1">Games!O20</f>
-        <v>Bryant</v>
-      </c>
-      <c r="G65" s="236" t="e" vm="96">
+        <v>Brown</v>
+      </c>
+      <c r="G65" s="247" t="e" vm="95">
         <f ca="1">_xlfn.XLOOKUP(F65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="266">
+      <c r="H65" s="277">
         <f ca="1">Games!N45</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -25705,21 +25705,21 @@
       <c r="AA65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AG65" s="24"/>
-      <c r="AH65" s="258">
+      <c r="AH65" s="269">
         <f ca="1">Games!N53</f>
-        <v>108</v>
-      </c>
-      <c r="AI65" s="238" t="e" vm="128">
+        <v>103</v>
+      </c>
+      <c r="AI65" s="249" t="e" vm="128">
         <f ca="1">_xlfn.XLOOKUP(AJ65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ65" s="251" t="str">
+      <c r="AJ65" s="262" t="str">
         <f ca="1">Games!O36</f>
         <v>Dartmouth</v>
       </c>
       <c r="AK65" s="58">
         <f ca="1">Games!L36</f>
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AL65" s="46" t="e" vm="127">
         <f>_xlfn.XLOOKUP(AM65,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25735,7 +25735,7 @@
       <c r="AO65" s="17"/>
     </row>
     <row r="66" spans="1:41" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="272">
+      <c r="A66" s="283">
         <f>IF($AU$5=TRUE,A62+1,"")</f>
         <v>16</v>
       </c>
@@ -25743,41 +25743,41 @@
       <c r="C66" s="38"/>
       <c r="D66" s="71"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="252"/>
-      <c r="G66" s="237"/>
-      <c r="H66" s="267"/>
+      <c r="F66" s="263"/>
+      <c r="G66" s="248"/>
+      <c r="H66" s="278"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="O66" s="250"/>
-      <c r="P66" s="250"/>
-      <c r="Q66" s="250"/>
-      <c r="R66" s="250"/>
-      <c r="S66" s="250"/>
-      <c r="T66" s="250"/>
-      <c r="U66" s="250"/>
-      <c r="V66" s="250"/>
-      <c r="W66" s="250"/>
-      <c r="X66" s="250"/>
-      <c r="Y66" s="250"/>
-      <c r="Z66" s="250"/>
-      <c r="AA66" s="250"/>
+      <c r="O66" s="261"/>
+      <c r="P66" s="261"/>
+      <c r="Q66" s="261"/>
+      <c r="R66" s="261"/>
+      <c r="S66" s="261"/>
+      <c r="T66" s="261"/>
+      <c r="U66" s="261"/>
+      <c r="V66" s="261"/>
+      <c r="W66" s="261"/>
+      <c r="X66" s="261"/>
+      <c r="Y66" s="261"/>
+      <c r="Z66" s="261"/>
+      <c r="AA66" s="261"/>
       <c r="AD66" s="25"/>
       <c r="AG66" s="24"/>
-      <c r="AH66" s="259"/>
-      <c r="AI66" s="239"/>
-      <c r="AJ66" s="252"/>
+      <c r="AH66" s="270"/>
+      <c r="AI66" s="250"/>
+      <c r="AJ66" s="263"/>
       <c r="AK66" s="55"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="28"/>
-      <c r="AO66" s="276">
+      <c r="AO66" s="287">
         <f>IF($AU$5=TRUE,AO62+1,"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="272"/>
+      <c r="A67" s="283"/>
       <c r="B67" s="27">
         <v>15</v>
       </c>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="E67" s="48">
         <f ca="1">Games!N20</f>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -25799,25 +25799,25 @@
       <c r="J67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="O67" s="249"/>
-      <c r="P67" s="249"/>
-      <c r="Q67" s="249"/>
-      <c r="R67" s="249"/>
-      <c r="S67" s="249"/>
-      <c r="T67" s="249"/>
-      <c r="U67" s="249"/>
-      <c r="V67" s="249"/>
-      <c r="W67" s="249"/>
-      <c r="X67" s="249"/>
-      <c r="Y67" s="249"/>
-      <c r="Z67" s="249"/>
-      <c r="AA67" s="249"/>
+      <c r="O67" s="260"/>
+      <c r="P67" s="260"/>
+      <c r="Q67" s="260"/>
+      <c r="R67" s="260"/>
+      <c r="S67" s="260"/>
+      <c r="T67" s="260"/>
+      <c r="U67" s="260"/>
+      <c r="V67" s="260"/>
+      <c r="W67" s="260"/>
+      <c r="X67" s="260"/>
+      <c r="Y67" s="260"/>
+      <c r="Z67" s="260"/>
+      <c r="AA67" s="260"/>
       <c r="AD67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AJ67" s="24"/>
       <c r="AK67" s="59">
         <f ca="1">Games!N36</f>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AL67" s="46" t="e" vm="128">
         <f>_xlfn.XLOOKUP(AM67,Teams!$C:$C,Teams!$E:$E,,0,1)</f>
@@ -25830,7 +25830,7 @@
       <c r="AN67" s="27">
         <v>15</v>
       </c>
-      <c r="AO67" s="276"/>
+      <c r="AO67" s="287"/>
     </row>
     <row r="68" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -26025,6 +26025,15 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="K19:L20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="A34:A35"/>
@@ -26034,21 +26043,7 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
     <mergeCell ref="AG39:AG40"/>
     <mergeCell ref="AE63:AE64"/>
     <mergeCell ref="AG63:AG64"/>
@@ -26068,6 +26063,11 @@
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="Y51:Y52"/>
     <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="AJ63:AJ64"/>
     <mergeCell ref="AJ57:AJ58"/>
     <mergeCell ref="AH65:AH66"/>
